--- a/data/BPSO.MI.xlsx
+++ b/data/BPSO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="1683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="1684">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,10 +44,10 @@
     <t xml:space="preserve">BPSO.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00987887382507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94444632530212</t>
+    <t xml:space="preserve">3.00987863540649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9444465637207</t>
   </si>
   <si>
     <t xml:space="preserve">2.9057822227478</t>
@@ -56,10 +56,10 @@
     <t xml:space="preserve">2.8239917755127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79425024986267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8849630355835</t>
+    <t xml:space="preserve">2.79425001144409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88496327400208</t>
   </si>
   <si>
     <t xml:space="preserve">2.8909113407135</t>
@@ -77,10 +77,10 @@
     <t xml:space="preserve">2.42842483520508</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55036640167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57713413238525</t>
+    <t xml:space="preserve">2.55036664009094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57713437080383</t>
   </si>
   <si>
     <t xml:space="preserve">2.53400850296021</t>
@@ -95,43 +95,43 @@
     <t xml:space="preserve">2.52359867095947</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61282539367676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5756471157074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48642206192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37935066223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39124774932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36745429039001</t>
+    <t xml:space="preserve">2.6128249168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57564687728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48642158508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37935090065002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39124751091003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36745405197144</t>
   </si>
   <si>
     <t xml:space="preserve">2.18602824211121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2098217010498</t>
+    <t xml:space="preserve">2.20982193946838</t>
   </si>
   <si>
     <t xml:space="preserve">2.29607319831848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22469258308411</t>
+    <t xml:space="preserve">2.22469234466553</t>
   </si>
   <si>
     <t xml:space="preserve">2.33771157264709</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38381195068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44032168388367</t>
+    <t xml:space="preserve">2.38381218910217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44032144546509</t>
   </si>
   <si>
     <t xml:space="preserve">2.34960842132568</t>
@@ -140,16 +140,16 @@
     <t xml:space="preserve">2.31986689567566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40611839294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34217286109924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33176350593567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37340235710144</t>
+    <t xml:space="preserve">2.40611863136292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34217309951782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33176374435425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37340259552002</t>
   </si>
   <si>
     <t xml:space="preserve">2.42098927497864</t>
@@ -161,40 +161,40 @@
     <t xml:space="preserve">2.55780172348022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5518536567688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54441785812378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40165734291077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42396354675293</t>
+    <t xml:space="preserve">2.55185341835022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54441809654236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40165710449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42396330833435</t>
   </si>
   <si>
     <t xml:space="preserve">2.41057991981506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48493504524231</t>
+    <t xml:space="preserve">2.48493480682373</t>
   </si>
   <si>
     <t xml:space="preserve">2.60687565803528</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52657341957092</t>
+    <t xml:space="preserve">2.52657318115234</t>
   </si>
   <si>
     <t xml:space="preserve">2.46560168266296</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5131893157959</t>
+    <t xml:space="preserve">2.51318955421448</t>
   </si>
   <si>
     <t xml:space="preserve">2.5280601978302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56375026702881</t>
+    <t xml:space="preserve">2.56375002861023</t>
   </si>
   <si>
     <t xml:space="preserve">2.45667958259583</t>
@@ -203,22 +203,22 @@
     <t xml:space="preserve">2.39719581604004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3436598777771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29161262512207</t>
+    <t xml:space="preserve">2.34366011619568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29161238670349</t>
   </si>
   <si>
     <t xml:space="preserve">2.30053496360779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27228021621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21725726127625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1562864780426</t>
+    <t xml:space="preserve">2.27227997779846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21725702285767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15628671646118</t>
   </si>
   <si>
     <t xml:space="preserve">2.16223478317261</t>
@@ -233,22 +233,22 @@
     <t xml:space="preserve">2.27674102783203</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38678646087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4670889377594</t>
+    <t xml:space="preserve">2.38678598403931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46708941459656</t>
   </si>
   <si>
     <t xml:space="preserve">2.39868330955505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45370531082153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49831819534302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49237036705017</t>
+    <t xml:space="preserve">2.45370507240295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49831867218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49237012863159</t>
   </si>
   <si>
     <t xml:space="preserve">2.44180822372437</t>
@@ -263,13 +263,13 @@
     <t xml:space="preserve">2.42247629165649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39422202110291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31094431877136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26187038421631</t>
+    <t xml:space="preserve">2.39422225952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31094455718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26187014579773</t>
   </si>
   <si>
     <t xml:space="preserve">2.23064088821411</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">2.23807716369629</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2559220790863</t>
+    <t xml:space="preserve">2.25592184066772</t>
   </si>
   <si>
     <t xml:space="preserve">2.19495058059692</t>
@@ -290,16 +290,16 @@
     <t xml:space="preserve">2.18305420875549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2127959728241</t>
+    <t xml:space="preserve">2.21279573440552</t>
   </si>
   <si>
     <t xml:space="preserve">2.17710566520691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22023129463196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20387291908264</t>
+    <t xml:space="preserve">2.22023153305054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20387315750122</t>
   </si>
   <si>
     <t xml:space="preserve">2.1977813243866</t>
@@ -311,10 +311,10 @@
     <t xml:space="preserve">2.35617971420288</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30744171142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33028793334961</t>
+    <t xml:space="preserve">2.30744194984436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33028745651245</t>
   </si>
   <si>
     <t xml:space="preserve">2.30896496772766</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">2.21910405158997</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14142751693726</t>
+    <t xml:space="preserve">2.14142727851868</t>
   </si>
   <si>
     <t xml:space="preserve">2.09725880622864</t>
@@ -338,58 +338,58 @@
     <t xml:space="preserve">2.13076591491699</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07441306114197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08202815055847</t>
+    <t xml:space="preserve">2.07441282272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08202838897705</t>
   </si>
   <si>
     <t xml:space="preserve">1.97236764431</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90839922428131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87641441822052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84899926185608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75913834571838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81701505184174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89621388912201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94038343429565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90687537193298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02872061729431</t>
+    <t xml:space="preserve">1.9083993434906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8764146566391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84899938106537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75913846492767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81701517105103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89621376991272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94038319587708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9068751335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02872037887573</t>
   </si>
   <si>
     <t xml:space="preserve">1.75152313709259</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67689335346222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78807711601257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77436888217926</t>
+    <t xml:space="preserve">1.67689323425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78807687759399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77436876296997</t>
   </si>
   <si>
     <t xml:space="preserve">1.75609219074249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7530460357666</t>
+    <t xml:space="preserve">1.75304615497589</t>
   </si>
   <si>
     <t xml:space="preserve">1.68907785415649</t>
@@ -398,13 +398,13 @@
     <t xml:space="preserve">1.61901652812958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63424706459045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64033925533295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75456917285919</t>
+    <t xml:space="preserve">1.63424718379974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64033937454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7545690536499</t>
   </si>
   <si>
     <t xml:space="preserve">1.79112327098846</t>
@@ -413,10 +413,10 @@
     <t xml:space="preserve">1.81549215316772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78960013389587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86727631092072</t>
+    <t xml:space="preserve">1.78960037231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86727607250214</t>
   </si>
   <si>
     <t xml:space="preserve">1.83072257041931</t>
@@ -425,91 +425,91 @@
     <t xml:space="preserve">1.84443008899689</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90230643749237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89316761493683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85052251815796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81853818893433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84747636318207</t>
+    <t xml:space="preserve">1.90230631828308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89316773414612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85052239894867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81853842735291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84747624397278</t>
   </si>
   <si>
     <t xml:space="preserve">1.84138417243958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78198492527008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66470885276794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6875547170639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62967801094055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75000023841858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77741515636444</t>
+    <t xml:space="preserve">1.78198480606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66470897197723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68755483627319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62967789173126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77741503715515</t>
   </si>
   <si>
     <t xml:space="preserve">1.76523041725159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80787694454193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83681499958038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82767641544342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82158434391022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86879932880402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82919943332672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84290719032288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85509157180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9099223613739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90535235404968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89773726463318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89012169837952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88098359107971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88859868049622</t>
+    <t xml:space="preserve">1.80787670612335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83681464195251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82767653465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82158422470093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86879897117615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8291996717453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8429069519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85509145259857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90992224216461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9053521156311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89773714542389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8901219367981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.880983710289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88859879970551</t>
   </si>
   <si>
     <t xml:space="preserve">1.86575281620026</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89469063282013</t>
+    <t xml:space="preserve">1.894690990448</t>
   </si>
   <si>
     <t xml:space="preserve">1.87336814403534</t>
@@ -518,34 +518,34 @@
     <t xml:space="preserve">1.85813748836517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91144514083862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9845517873764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98150599002838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94190633296967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9662754535675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97998285293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9921669960022</t>
+    <t xml:space="preserve">1.9114453792572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98455226421356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9815057516098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94190645217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96627521514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97998237609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99216723442078</t>
   </si>
   <si>
     <t xml:space="preserve">2.08659768104553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11705827713013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24804186820984</t>
+    <t xml:space="preserve">2.11705851554871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24804162979126</t>
   </si>
   <si>
     <t xml:space="preserve">2.25870323181152</t>
@@ -557,16 +557,16 @@
     <t xml:space="preserve">2.23433446884155</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23738074302673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24651885032654</t>
+    <t xml:space="preserve">2.23738050460815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24651908874512</t>
   </si>
   <si>
     <t xml:space="preserve">2.31505727767944</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33790278434753</t>
+    <t xml:space="preserve">2.33790302276611</t>
   </si>
   <si>
     <t xml:space="preserve">2.26479578018188</t>
@@ -578,16 +578,16 @@
     <t xml:space="preserve">2.18407368659973</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15208864212036</t>
+    <t xml:space="preserve">2.15208888053894</t>
   </si>
   <si>
     <t xml:space="preserve">2.1993043422699</t>
   </si>
   <si>
-    <t xml:space="preserve">2.209965467453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26631903648376</t>
+    <t xml:space="preserve">2.20996570587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26631879806519</t>
   </si>
   <si>
     <t xml:space="preserve">2.27697992324829</t>
@@ -599,16 +599,16 @@
     <t xml:space="preserve">2.31353402137756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28459501266479</t>
+    <t xml:space="preserve">2.28459525108337</t>
   </si>
   <si>
     <t xml:space="preserve">2.22976517677307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18102717399597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22519612312317</t>
+    <t xml:space="preserve">2.18102741241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22519636154175</t>
   </si>
   <si>
     <t xml:space="preserve">2.24956512451172</t>
@@ -617,67 +617,67 @@
     <t xml:space="preserve">2.23890376091003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15361166000366</t>
+    <t xml:space="preserve">2.15361142158508</t>
   </si>
   <si>
     <t xml:space="preserve">2.27545690536499</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2541344165802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22062706947327</t>
+    <t xml:space="preserve">2.25413417816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22062683105469</t>
   </si>
   <si>
     <t xml:space="preserve">2.32267236709595</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43690204620361</t>
+    <t xml:space="preserve">2.43690228462219</t>
   </si>
   <si>
     <t xml:space="preserve">2.54351687431335</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42471790313721</t>
+    <t xml:space="preserve">2.42471766471863</t>
   </si>
   <si>
     <t xml:space="preserve">2.39273309707642</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43385624885559</t>
+    <t xml:space="preserve">2.43385648727417</t>
   </si>
   <si>
     <t xml:space="preserve">2.39120984077454</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33333349227905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32419562339783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39577913284302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38054871559143</t>
+    <t xml:space="preserve">2.33333373069763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32419538497925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3957793712616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38054823875427</t>
   </si>
   <si>
     <t xml:space="preserve">2.37597942352295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36227178573608</t>
+    <t xml:space="preserve">2.3622715473175</t>
   </si>
   <si>
     <t xml:space="preserve">2.38207173347473</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42624092102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47497844696045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48259425163269</t>
+    <t xml:space="preserve">2.42624068260193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47497868537903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48259377479553</t>
   </si>
   <si>
     <t xml:space="preserve">2.51000881195068</t>
@@ -689,10 +689,10 @@
     <t xml:space="preserve">2.46888637542725</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46127128601074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45974826812744</t>
+    <t xml:space="preserve">2.46127104759216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45974802970886</t>
   </si>
   <si>
     <t xml:space="preserve">2.52828574180603</t>
@@ -710,19 +710,19 @@
     <t xml:space="preserve">2.58920860290527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62728452682495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58311653137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58768582344055</t>
+    <t xml:space="preserve">2.62728476524353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58311629295349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58768558502197</t>
   </si>
   <si>
     <t xml:space="preserve">2.59682369232178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61814665794373</t>
+    <t xml:space="preserve">2.61814641952515</t>
   </si>
   <si>
     <t xml:space="preserve">2.52219319343567</t>
@@ -737,16 +737,16 @@
     <t xml:space="preserve">2.53285479545593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49325513839722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44451785087585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46431708335876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48868608474731</t>
+    <t xml:space="preserve">2.49325561523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44451761245728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46431732177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48868584632874</t>
   </si>
   <si>
     <t xml:space="preserve">2.5008704662323</t>
@@ -755,13 +755,13 @@
     <t xml:space="preserve">2.47345566749573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46279382705688</t>
+    <t xml:space="preserve">2.46279406547546</t>
   </si>
   <si>
     <t xml:space="preserve">2.41710257530212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28002595901489</t>
+    <t xml:space="preserve">2.28002619743347</t>
   </si>
   <si>
     <t xml:space="preserve">2.28611826896667</t>
@@ -776,52 +776,52 @@
     <t xml:space="preserve">2.43537926673889</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44147109985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47802495956421</t>
+    <t xml:space="preserve">2.44147157669067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47802472114563</t>
   </si>
   <si>
     <t xml:space="preserve">2.50543975830078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54808616638184</t>
+    <t xml:space="preserve">2.54808592796326</t>
   </si>
   <si>
     <t xml:space="preserve">2.4947783946991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53590106964111</t>
+    <t xml:space="preserve">2.53590083122253</t>
   </si>
   <si>
     <t xml:space="preserve">2.51610112190247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45822525024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46736311912537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45060992240906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48564052581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44604063034058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45365595817566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45670247077942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47040939331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52371644973755</t>
+    <t xml:space="preserve">2.45822548866272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46736335754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45060968399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48564028739929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44604086875916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45365571975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45670199394226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47040963172913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52371621131897</t>
   </si>
   <si>
     <t xml:space="preserve">2.47650146484375</t>
@@ -830,13 +830,13 @@
     <t xml:space="preserve">2.4978244304657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64251589775085</t>
+    <t xml:space="preserve">2.64251565933228</t>
   </si>
   <si>
     <t xml:space="preserve">2.60443902015686</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60291600227356</t>
+    <t xml:space="preserve">2.60291624069214</t>
   </si>
   <si>
     <t xml:space="preserve">2.67602372169495</t>
@@ -845,16 +845,16 @@
     <t xml:space="preserve">2.63946938514709</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66383838653564</t>
+    <t xml:space="preserve">2.6638388633728</t>
   </si>
   <si>
     <t xml:space="preserve">2.69582295417786</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69734621047974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75217652320862</t>
+    <t xml:space="preserve">2.69734644889832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75217628479004</t>
   </si>
   <si>
     <t xml:space="preserve">2.7140998840332</t>
@@ -863,22 +863,22 @@
     <t xml:space="preserve">2.66536116600037</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68363881111145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68668460845947</t>
+    <t xml:space="preserve">2.68363857269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68668484687805</t>
   </si>
   <si>
     <t xml:space="preserve">2.68820786476135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68516159057617</t>
+    <t xml:space="preserve">2.68516182899475</t>
   </si>
   <si>
     <t xml:space="preserve">2.73694539070129</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75553250312805</t>
+    <t xml:space="preserve">2.75553226470947</t>
   </si>
   <si>
     <t xml:space="preserve">2.82058691978455</t>
@@ -890,13 +890,13 @@
     <t xml:space="preserve">2.89958238601685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7493371963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70596647262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.709064245224</t>
+    <t xml:space="preserve">2.74933695793152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70596623420715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70906472206116</t>
   </si>
   <si>
     <t xml:space="preserve">2.65020561218262</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">2.66724371910095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65175437927246</t>
+    <t xml:space="preserve">2.65175461769104</t>
   </si>
   <si>
     <t xml:space="preserve">2.69667315483093</t>
@@ -923,10 +923,10 @@
     <t xml:space="preserve">2.63161873817444</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65640139579773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63626551628113</t>
+    <t xml:space="preserve">2.65640115737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63626527786255</t>
   </si>
   <si>
     <t xml:space="preserve">2.65795016288757</t>
@@ -938,43 +938,43 @@
     <t xml:space="preserve">2.659499168396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66569471359253</t>
+    <t xml:space="preserve">2.66569447517395</t>
   </si>
   <si>
     <t xml:space="preserve">2.66414570808411</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68737959861755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71835851669312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7880597114563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74159240722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67343926429749</t>
+    <t xml:space="preserve">2.68737983703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71835875511169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78805947303772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74159216880798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67343950271606</t>
   </si>
   <si>
     <t xml:space="preserve">2.7772171497345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85311460494995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80045080184937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81903791427612</t>
+    <t xml:space="preserve">2.85311484336853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80045104026794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81903767585754</t>
   </si>
   <si>
     <t xml:space="preserve">2.80974459648132</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80354857444763</t>
+    <t xml:space="preserve">2.80354881286621</t>
   </si>
   <si>
     <t xml:space="preserve">2.92126679420471</t>
@@ -989,13 +989,13 @@
     <t xml:space="preserve">2.90577793121338</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90732717514038</t>
+    <t xml:space="preserve">2.9073269367218</t>
   </si>
   <si>
     <t xml:space="preserve">2.90113115310669</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88099503517151</t>
+    <t xml:space="preserve">2.88099527359009</t>
   </si>
   <si>
     <t xml:space="preserve">2.87789750099182</t>
@@ -1007,7 +1007,7 @@
     <t xml:space="preserve">2.90422892570496</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83917355537415</t>
+    <t xml:space="preserve">2.83917379379272</t>
   </si>
   <si>
     <t xml:space="preserve">2.87015271186829</t>
@@ -1019,46 +1019,46 @@
     <t xml:space="preserve">2.86085915565491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84227156639099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84072256088257</t>
+    <t xml:space="preserve">2.84227204322815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84072279930115</t>
   </si>
   <si>
     <t xml:space="preserve">2.85776138305664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84846782684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83452701568604</t>
+    <t xml:space="preserve">2.84846830368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83452725410461</t>
   </si>
   <si>
     <t xml:space="preserve">2.78341293334961</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81129336357117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78960847854614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72610306739807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76017951965332</t>
+    <t xml:space="preserve">2.81129312515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78960871696472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72610354423523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76017928123474</t>
   </si>
   <si>
     <t xml:space="preserve">2.70441770553589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66259694099426</t>
+    <t xml:space="preserve">2.66259717941284</t>
   </si>
   <si>
     <t xml:space="preserve">2.68118381500244</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6997709274292</t>
+    <t xml:space="preserve">2.69977068901062</t>
   </si>
   <si>
     <t xml:space="preserve">2.6904776096344</t>
@@ -1082,37 +1082,37 @@
     <t xml:space="preserve">2.72765207290649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71680974960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76327705383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82988023757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8174889087677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77411961555481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70286870002747</t>
+    <t xml:space="preserve">2.71680951118469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76327681541443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82988047599792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81748914718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77411937713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70286893844604</t>
   </si>
   <si>
     <t xml:space="preserve">2.69512414932251</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67034149169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71525979042053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66879296302795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64865660667419</t>
+    <t xml:space="preserve">2.6703417301178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71526002883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66879272460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64865684509277</t>
   </si>
   <si>
     <t xml:space="preserve">2.68273282051086</t>
@@ -1136,31 +1136,31 @@
     <t xml:space="preserve">2.62387418746948</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57895469665527</t>
+    <t xml:space="preserve">2.57895493507385</t>
   </si>
   <si>
     <t xml:space="preserve">2.63006973266602</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58205246925354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45968866348267</t>
+    <t xml:space="preserve">2.58205270767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45968890190125</t>
   </si>
   <si>
     <t xml:space="preserve">2.4070246219635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44419884681702</t>
+    <t xml:space="preserve">2.44419860839844</t>
   </si>
   <si>
     <t xml:space="preserve">2.34042143821716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35436153411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37914395332336</t>
+    <t xml:space="preserve">2.35436201095581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37914419174194</t>
   </si>
   <si>
     <t xml:space="preserve">2.42406272888184</t>
@@ -1175,7 +1175,7 @@
     <t xml:space="preserve">2.49066686630249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5154492855072</t>
+    <t xml:space="preserve">2.51544952392578</t>
   </si>
   <si>
     <t xml:space="preserve">2.54797673225403</t>
@@ -1187,7 +1187,7 @@
     <t xml:space="preserve">2.50925374031067</t>
   </si>
   <si>
-    <t xml:space="preserve">2.524742603302</t>
+    <t xml:space="preserve">2.52474308013916</t>
   </si>
   <si>
     <t xml:space="preserve">2.52784085273743</t>
@@ -1199,7 +1199,7 @@
     <t xml:space="preserve">2.54642772674561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56346559524536</t>
+    <t xml:space="preserve">2.56346583366394</t>
   </si>
   <si>
     <t xml:space="preserve">2.5712103843689</t>
@@ -1208,16 +1208,16 @@
     <t xml:space="preserve">2.57740592956543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50305795669556</t>
+    <t xml:space="preserve">2.50305819511414</t>
   </si>
   <si>
     <t xml:space="preserve">2.4565896987915</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36210632324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39928007125854</t>
+    <t xml:space="preserve">2.36210656166077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39928030967712</t>
   </si>
   <si>
     <t xml:space="preserve">2.3977313041687</t>
@@ -1226,7 +1226,7 @@
     <t xml:space="preserve">2.39308428764343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33887267112732</t>
+    <t xml:space="preserve">2.33887243270874</t>
   </si>
   <si>
     <t xml:space="preserve">2.37604665756226</t>
@@ -1235,25 +1235,25 @@
     <t xml:space="preserve">2.40547585487366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3574595451355</t>
+    <t xml:space="preserve">2.35745930671692</t>
   </si>
   <si>
     <t xml:space="preserve">2.38533973693848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44574737548828</t>
+    <t xml:space="preserve">2.44574761390686</t>
   </si>
   <si>
     <t xml:space="preserve">2.47827577590942</t>
   </si>
   <si>
-    <t xml:space="preserve">2.475177526474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55881905555725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55727005004883</t>
+    <t xml:space="preserve">2.47517776489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55881881713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55727028846741</t>
   </si>
   <si>
     <t xml:space="preserve">2.51390051841736</t>
@@ -1280,22 +1280,22 @@
     <t xml:space="preserve">2.5169985294342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49996018409729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47672629356384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38843774795532</t>
+    <t xml:space="preserve">2.49996066093445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47672653198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3884379863739</t>
   </si>
   <si>
     <t xml:space="preserve">2.47982430458069</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46743297576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4860200881958</t>
+    <t xml:space="preserve">2.46743321418762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48601984977722</t>
   </si>
   <si>
     <t xml:space="preserve">2.47207999229431</t>
@@ -1316,10 +1316,10 @@
     <t xml:space="preserve">2.52164530754089</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43955206871033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49531364440918</t>
+    <t xml:space="preserve">2.43955183029175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4953134059906</t>
   </si>
   <si>
     <t xml:space="preserve">2.47053098678589</t>
@@ -1331,7 +1331,7 @@
     <t xml:space="preserve">2.54332995414734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4968626499176</t>
+    <t xml:space="preserve">2.49686241149902</t>
   </si>
   <si>
     <t xml:space="preserve">2.49221587181091</t>
@@ -1340,10 +1340,10 @@
     <t xml:space="preserve">2.56811261177063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56966114044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55572152137756</t>
+    <t xml:space="preserve">2.56966137886047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55572128295898</t>
   </si>
   <si>
     <t xml:space="preserve">2.78651094436646</t>
@@ -1364,16 +1364,16 @@
     <t xml:space="preserve">3.05137658119202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04363203048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03588724136353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07306146621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10713815689087</t>
+    <t xml:space="preserve">3.04363179206848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0358874797821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07306098937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10713791847229</t>
   </si>
   <si>
     <t xml:space="preserve">3.03124046325684</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">2.98477292060852</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95224547386169</t>
+    <t xml:space="preserve">2.95224523544312</t>
   </si>
   <si>
     <t xml:space="preserve">3.02659392356873</t>
@@ -1403,103 +1403,103 @@
     <t xml:space="preserve">2.93365836143494</t>
   </si>
   <si>
+    <t xml:space="preserve">2.82213568687439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85056233406067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83950781822205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90583682060242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89636063575745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81897735595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70842885971069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65947198867798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7021119594574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74791026115417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79686784744263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76054430007935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69895362854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77633762359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80476450920105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77475833892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7305383682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74317264556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73843479156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72738003730774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75422739982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69263648986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68947839736938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71790432929993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72264242172241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84266591072083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8489830493927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89794015884399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88214731216431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84740400314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80634331703186</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.82213592529297</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85056233406067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83950781822205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90583682060242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89636039733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81897711753845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70842909812927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65947222709656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7021119594574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74791026115417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79686760902405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76054430007935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69895362854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77633762359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80476427078247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77475833892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7305383682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74317264556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73843479156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72738027572632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75422739982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69263672828674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68947815895081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71790456771851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72264218330383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8426661491394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8489830493927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89793968200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88214731216431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84740376472473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80634355545044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82213568687439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82055640220642</t>
+    <t xml:space="preserve">2.820556640625</t>
   </si>
   <si>
     <t xml:space="preserve">2.8379282951355</t>
@@ -1508,10 +1508,10 @@
     <t xml:space="preserve">2.83161115646362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.855299949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83319044113159</t>
+    <t xml:space="preserve">2.85530018806458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83319067955017</t>
   </si>
   <si>
     <t xml:space="preserve">2.8268735408783</t>
@@ -1532,46 +1532,46 @@
     <t xml:space="preserve">2.92794632911682</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98006129264832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89951920509338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8837263584137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88056802749634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86793422698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83476996421814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83003187179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75896501541138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80002641677856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79528856277466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77317905426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76528191566467</t>
+    <t xml:space="preserve">2.98006153106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89951872825623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88372659683228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88056826591492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86793398857117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83476972579956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83003211021423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7589647769928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80002617835999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79528832435608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77317881584167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76528215408325</t>
   </si>
   <si>
     <t xml:space="preserve">2.71632504463196</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66578936576843</t>
+    <t xml:space="preserve">2.66578912734985</t>
   </si>
   <si>
     <t xml:space="preserve">2.64841747283936</t>
@@ -1589,25 +1589,25 @@
     <t xml:space="preserve">2.86477565765381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84424519538879</t>
+    <t xml:space="preserve">2.84424543380737</t>
   </si>
   <si>
     <t xml:space="preserve">2.87583041191101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85214114189148</t>
+    <t xml:space="preserve">2.85214161872864</t>
   </si>
   <si>
     <t xml:space="preserve">2.81108117103577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81739807128906</t>
+    <t xml:space="preserve">2.81739783287048</t>
   </si>
   <si>
     <t xml:space="preserve">2.82529425621033</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80792236328125</t>
+    <t xml:space="preserve">2.80792260169983</t>
   </si>
   <si>
     <t xml:space="preserve">2.59472227096558</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">2.59156394004822</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53471088409424</t>
+    <t xml:space="preserve">2.53471064567566</t>
   </si>
   <si>
     <t xml:space="preserve">2.55997896194458</t>
@@ -1631,31 +1631,31 @@
     <t xml:space="preserve">2.4067907333374</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38941884040833</t>
+    <t xml:space="preserve">2.3894190788269</t>
   </si>
   <si>
     <t xml:space="preserve">2.38783979415894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32151055335999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33572387695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31045579910278</t>
+    <t xml:space="preserve">2.32151031494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33572363853455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3104555606842</t>
   </si>
   <si>
     <t xml:space="preserve">2.3594126701355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34993720054626</t>
+    <t xml:space="preserve">2.34993696212769</t>
   </si>
   <si>
     <t xml:space="preserve">2.29150485992432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26465725898743</t>
+    <t xml:space="preserve">2.26465749740601</t>
   </si>
   <si>
     <t xml:space="preserve">2.23623013496399</t>
@@ -1664,7 +1664,7 @@
     <t xml:space="preserve">2.18727350234985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15253019332886</t>
+    <t xml:space="preserve">2.15252995491028</t>
   </si>
   <si>
     <t xml:space="preserve">2.19832849502563</t>
@@ -1676,16 +1676,16 @@
     <t xml:space="preserve">2.20464515686035</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20148658752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2425479888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28834629058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26781582832336</t>
+    <t xml:space="preserve">2.20148682594299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24254822731018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2883460521698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26781606674194</t>
   </si>
   <si>
     <t xml:space="preserve">2.24886512756348</t>
@@ -1700,28 +1700,28 @@
     <t xml:space="preserve">2.23938870429993</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19516968727112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21569991111755</t>
+    <t xml:space="preserve">2.19516944885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21570014953613</t>
   </si>
   <si>
     <t xml:space="preserve">2.19674873352051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19359040260315</t>
+    <t xml:space="preserve">2.19359064102173</t>
   </si>
   <si>
     <t xml:space="preserve">2.17148089408875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16358470916748</t>
+    <t xml:space="preserve">2.16358494758606</t>
   </si>
   <si>
     <t xml:space="preserve">2.11462783813477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12094521522522</t>
+    <t xml:space="preserve">2.12094497680664</t>
   </si>
   <si>
     <t xml:space="preserve">2.10199332237244</t>
@@ -1736,13 +1736,13 @@
     <t xml:space="preserve">2.21096229553223</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22675442695618</t>
+    <t xml:space="preserve">2.22675490379333</t>
   </si>
   <si>
     <t xml:space="preserve">2.19201135635376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23465085029602</t>
+    <t xml:space="preserve">2.2346510887146</t>
   </si>
   <si>
     <t xml:space="preserve">2.20306587219238</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">2.09567618370056</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12410354614258</t>
+    <t xml:space="preserve">2.124103307724</t>
   </si>
   <si>
     <t xml:space="preserve">2.08304214477539</t>
@@ -1763,34 +1763,34 @@
     <t xml:space="preserve">2.10673093795776</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10830998420715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02776861190796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12252426147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05145716667175</t>
+    <t xml:space="preserve">2.10831046104431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02776837348938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12252449989319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05145740509033</t>
   </si>
   <si>
     <t xml:space="preserve">2.00881743431091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00723838806152</t>
+    <t xml:space="preserve">2.00723814964294</t>
   </si>
   <si>
     <t xml:space="preserve">2.07830452919006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0640914440155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13515853881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14621305465698</t>
+    <t xml:space="preserve">2.06409120559692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13515830039978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1462128162384</t>
   </si>
   <si>
     <t xml:space="preserve">2.13673734664917</t>
@@ -1799,19 +1799,19 @@
     <t xml:space="preserve">2.13357925415039</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0877799987793</t>
+    <t xml:space="preserve">2.08777976036072</t>
   </si>
   <si>
     <t xml:space="preserve">2.02303075790405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00565934181213</t>
+    <t xml:space="preserve">2.00565886497498</t>
   </si>
   <si>
     <t xml:space="preserve">2.05619502067566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02934789657593</t>
+    <t xml:space="preserve">2.02934765815735</t>
   </si>
   <si>
     <t xml:space="preserve">1.99776268005371</t>
@@ -1820,49 +1820,49 @@
     <t xml:space="preserve">1.98512876033783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96933507919312</t>
+    <t xml:space="preserve">1.9693351984024</t>
   </si>
   <si>
     <t xml:space="preserve">2.01987218856812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98354935646057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95512223243713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90932416915894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83825719356537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81614756584167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8319399356842</t>
+    <t xml:space="preserve">1.98354911804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95512235164642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90932393074036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83825695514679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8161473274231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83194005489349</t>
   </si>
   <si>
     <t xml:space="preserve">1.8556295633316</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91090309619904</t>
+    <t xml:space="preserve">1.91090321540833</t>
   </si>
   <si>
     <t xml:space="preserve">1.88879370689392</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88721454143524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91406166553497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9345920085907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96459782123566</t>
+    <t xml:space="preserve">1.88721430301666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91406190395355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93459177017212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96459770202637</t>
   </si>
   <si>
     <t xml:space="preserve">2.01039671897888</t>
@@ -1871,40 +1871,40 @@
     <t xml:space="preserve">2.00250053405762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97723174095154</t>
+    <t xml:space="preserve">1.97723162174225</t>
   </si>
   <si>
     <t xml:space="preserve">1.97091472148895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96301817893982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97407341003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96775615215302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03250598907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02461004257202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01671385765076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04671907424927</t>
+    <t xml:space="preserve">1.96301829814911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9740731716156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9677562713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03250622749329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02460980415344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01671361923218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04671931266785</t>
   </si>
   <si>
     <t xml:space="preserve">2.00407981872559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93143332004547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93301272392273</t>
+    <t xml:space="preserve">1.93143343925476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93301284313202</t>
   </si>
   <si>
     <t xml:space="preserve">1.91879940032959</t>
@@ -1913,70 +1913,70 @@
     <t xml:space="preserve">1.88089740276337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94248831272125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94090890884399</t>
+    <t xml:space="preserve">1.94248843193054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94090867042542</t>
   </si>
   <si>
     <t xml:space="preserve">1.96617698669434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9235372543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90142774581909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93775033950806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92669558525085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92511641979218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93617117404938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90774476528168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87931823730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83509826660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82878148555756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86984264850616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89037311077118</t>
+    <t xml:space="preserve">1.92353701591492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9014276266098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93775045871735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92669546604156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92511665821075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93617129325867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90774500370026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8793181180954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83509850502014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82878160476685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86984252929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89037275314331</t>
   </si>
   <si>
     <t xml:space="preserve">1.89826893806458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90458583831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91564106941223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87300109863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78456234931946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7987756729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72613000869751</t>
+    <t xml:space="preserve">1.90458595752716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91564083099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8730012178421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78456246852875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79877555370331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7261301279068</t>
   </si>
   <si>
     <t xml:space="preserve">1.69138598442078</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">1.645587682724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66927635669708</t>
+    <t xml:space="preserve">1.66927647590637</t>
   </si>
   <si>
     <t xml:space="preserve">1.65190470218658</t>
@@ -1994,19 +1994,19 @@
     <t xml:space="preserve">1.64381504058838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64543294906616</t>
+    <t xml:space="preserve">1.64543306827545</t>
   </si>
   <si>
     <t xml:space="preserve">1.67617356777191</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65352261066437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66646575927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64866900444031</t>
+    <t xml:space="preserve">1.65352272987366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66646599769592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64866888523102</t>
   </si>
   <si>
     <t xml:space="preserve">1.65514063835144</t>
@@ -2015,16 +2015,16 @@
     <t xml:space="preserve">1.71985733509064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6972062587738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6794091463089</t>
+    <t xml:space="preserve">1.69720637798309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67940938472748</t>
   </si>
   <si>
     <t xml:space="preserve">1.68102717399597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70206022262573</t>
+    <t xml:space="preserve">1.70206010341644</t>
   </si>
   <si>
     <t xml:space="preserve">1.61792755126953</t>
@@ -2033,25 +2033,25 @@
     <t xml:space="preserve">1.62763595581055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63572549819946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57667064666748</t>
+    <t xml:space="preserve">1.63572537899017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57667076587677</t>
   </si>
   <si>
     <t xml:space="preserve">1.5750527381897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57586181163788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55482888221741</t>
+    <t xml:space="preserve">1.57586169242859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55482876300812</t>
   </si>
   <si>
     <t xml:space="preserve">1.57343482971191</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60013055801392</t>
+    <t xml:space="preserve">1.60013043880463</t>
   </si>
   <si>
     <t xml:space="preserve">1.58961403369904</t>
@@ -2060,7 +2060,7 @@
     <t xml:space="preserve">1.60741102695465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56291842460632</t>
+    <t xml:space="preserve">1.56291830539703</t>
   </si>
   <si>
     <t xml:space="preserve">1.57262587547302</t>
@@ -2069,7 +2069,7 @@
     <t xml:space="preserve">1.59608578681946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58799624443054</t>
+    <t xml:space="preserve">1.58799612522125</t>
   </si>
   <si>
     <t xml:space="preserve">1.58637821674347</t>
@@ -2078,16 +2078,16 @@
     <t xml:space="preserve">1.6421971321106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6874988079071</t>
+    <t xml:space="preserve">1.68749892711639</t>
   </si>
   <si>
     <t xml:space="preserve">1.67455542087555</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63410758972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61145579814911</t>
+    <t xml:space="preserve">1.63410770893097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6114559173584</t>
   </si>
   <si>
     <t xml:space="preserve">1.57828855514526</t>
@@ -2096,7 +2096,7 @@
     <t xml:space="preserve">1.57747960090637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55240178108215</t>
+    <t xml:space="preserve">1.55240190029144</t>
   </si>
   <si>
     <t xml:space="preserve">1.55725562572479</t>
@@ -2105,19 +2105,19 @@
     <t xml:space="preserve">1.57100796699524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55321097373962</t>
+    <t xml:space="preserve">1.55321085453033</t>
   </si>
   <si>
     <t xml:space="preserve">1.54916596412659</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54026758670807</t>
+    <t xml:space="preserve">1.54026746749878</t>
   </si>
   <si>
     <t xml:space="preserve">1.52408838272095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52166152000427</t>
+    <t xml:space="preserve">1.52166140079498</t>
   </si>
   <si>
     <t xml:space="preserve">1.52894198894501</t>
@@ -2126,19 +2126,19 @@
     <t xml:space="preserve">1.51761662960052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50710022449493</t>
+    <t xml:space="preserve">1.50710010528564</t>
   </si>
   <si>
     <t xml:space="preserve">1.50062847137451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49011194705963</t>
+    <t xml:space="preserve">1.49011206626892</t>
   </si>
   <si>
     <t xml:space="preserve">1.48525750637054</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37523889541626</t>
+    <t xml:space="preserve">1.37523901462555</t>
   </si>
   <si>
     <t xml:space="preserve">1.34287989139557</t>
@@ -2150,19 +2150,19 @@
     <t xml:space="preserve">1.286252617836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32427370548248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34207081794739</t>
+    <t xml:space="preserve">1.32427382469177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3420706987381</t>
   </si>
   <si>
     <t xml:space="preserve">1.30890345573425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31861090660095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36795842647552</t>
+    <t xml:space="preserve">1.31861102581024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36795830726624</t>
   </si>
   <si>
     <t xml:space="preserve">1.35663282871246</t>
@@ -2171,28 +2171,28 @@
     <t xml:space="preserve">1.36714935302734</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40759742259979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36148655414581</t>
+    <t xml:space="preserve">1.4075973033905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3614866733551</t>
   </si>
   <si>
     <t xml:space="preserve">1.37362098693848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37928366661072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45451700687408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48202168941498</t>
+    <t xml:space="preserve">1.37928378582001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45451688766479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48202157020569</t>
   </si>
   <si>
     <t xml:space="preserve">1.47231411933899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44885432720184</t>
+    <t xml:space="preserve">1.44885420799255</t>
   </si>
   <si>
     <t xml:space="preserve">1.5103360414505</t>
@@ -2201,10 +2201,10 @@
     <t xml:space="preserve">1.49820160865784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46422457695007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44723641872406</t>
+    <t xml:space="preserve">1.46422445774078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44723629951477</t>
   </si>
   <si>
     <t xml:space="preserve">1.45613491535187</t>
@@ -2216,13 +2216,13 @@
     <t xml:space="preserve">1.43267512321472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39546298980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38171064853668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35097026824951</t>
+    <t xml:space="preserve">1.39546287059784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38171076774597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35097014904022</t>
   </si>
   <si>
     <t xml:space="preserve">1.35905981063843</t>
@@ -2231,7 +2231,7 @@
     <t xml:space="preserve">1.34449768066406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36553144454956</t>
+    <t xml:space="preserve">1.36553132534027</t>
   </si>
   <si>
     <t xml:space="preserve">1.3711941242218</t>
@@ -2243,13 +2243,13 @@
     <t xml:space="preserve">1.34368872642517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35986876487732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37281215190887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3970810174942</t>
+    <t xml:space="preserve">1.35986864566803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37281203269958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39708089828491</t>
   </si>
   <si>
     <t xml:space="preserve">1.43186604976654</t>
@@ -2258,16 +2258,16 @@
     <t xml:space="preserve">1.45775270462036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48768508434296</t>
+    <t xml:space="preserve">1.48768520355225</t>
   </si>
   <si>
     <t xml:space="preserve">1.4812126159668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44804525375366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4537079334259</t>
+    <t xml:space="preserve">1.44804549217224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45370805263519</t>
   </si>
   <si>
     <t xml:space="preserve">1.45856177806854</t>
@@ -2276,34 +2276,34 @@
     <t xml:space="preserve">1.45937085151672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43671989440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46503341197968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52651524543762</t>
+    <t xml:space="preserve">1.43672001361847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46503353118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52651512622833</t>
   </si>
   <si>
     <t xml:space="preserve">1.51842558383942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53541386127472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50548243522644</t>
+    <t xml:space="preserve">1.53541374206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50548219680786</t>
   </si>
   <si>
     <t xml:space="preserve">1.53703165054321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74574387073517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69558835029602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69073474407196</t>
+    <t xml:space="preserve">1.74574398994446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69558846950531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69073486328125</t>
   </si>
   <si>
     <t xml:space="preserve">1.69397056102753</t>
@@ -2315,49 +2315,49 @@
     <t xml:space="preserve">1.64705097675323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63087177276611</t>
+    <t xml:space="preserve">1.63087165355682</t>
   </si>
   <si>
     <t xml:space="preserve">1.66323006153107</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71662139892578</t>
+    <t xml:space="preserve">1.71662127971649</t>
   </si>
   <si>
     <t xml:space="preserve">1.74736189842224</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71500372886658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73603653907776</t>
+    <t xml:space="preserve">1.71500360965729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73603665828705</t>
   </si>
   <si>
     <t xml:space="preserve">1.65999412536621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68426322937012</t>
+    <t xml:space="preserve">1.68426311016083</t>
   </si>
   <si>
     <t xml:space="preserve">1.72632884979248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75868797302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72794699668884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73280048370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70529615879059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70044219493866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73441874980927</t>
+    <t xml:space="preserve">1.75868821144104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72794687747955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73280072212219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7052960395813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70044231414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73441863059998</t>
   </si>
   <si>
     <t xml:space="preserve">1.69235265254974</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">1.71823942661285</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69882428646088</t>
+    <t xml:space="preserve">1.69882440567017</t>
   </si>
   <si>
     <t xml:space="preserve">1.7133857011795</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">1.70367801189423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63896155357361</t>
+    <t xml:space="preserve">1.63896143436432</t>
   </si>
   <si>
     <t xml:space="preserve">1.62116420269012</t>
@@ -2396,46 +2396,46 @@
     <t xml:space="preserve">1.61711871623993</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63248980045319</t>
+    <t xml:space="preserve">1.6324896812439</t>
   </si>
   <si>
     <t xml:space="preserve">1.65028667449951</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75545132160187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88488578796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93504214286804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91077327728271</t>
+    <t xml:space="preserve">1.75545144081116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88488566875458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93504202365875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91077303886414</t>
   </si>
   <si>
     <t xml:space="preserve">1.97063612937927</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17449569702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21656155586243</t>
+    <t xml:space="preserve">2.17449593544006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21656179428101</t>
   </si>
   <si>
     <t xml:space="preserve">2.08712720870972</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02564573287964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90591955184937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89944779872894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9463677406311</t>
+    <t xml:space="preserve">2.02564549446106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90591979026794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89944767951965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94636762142181</t>
   </si>
   <si>
     <t xml:space="preserve">1.82987654209137</t>
@@ -2450,31 +2450,31 @@
     <t xml:space="preserve">1.41892278194427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32912755012512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2846348285675</t>
+    <t xml:space="preserve">1.32912743091583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28463470935822</t>
   </si>
   <si>
     <t xml:space="preserve">1.26845562458038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02819299697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06621420383453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984509229660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01282286643982</t>
+    <t xml:space="preserve">1.02819311618805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06621408462524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984509289264679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01282274723053</t>
   </si>
   <si>
     <t xml:space="preserve">1.03142881393433</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09129250049591</t>
+    <t xml:space="preserve">1.0912926197052</t>
   </si>
   <si>
     <t xml:space="preserve">1.11798822879791</t>
@@ -2486,28 +2486,28 @@
     <t xml:space="preserve">1.14791977405548</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15600955486298</t>
+    <t xml:space="preserve">1.15600943565369</t>
   </si>
   <si>
     <t xml:space="preserve">1.14387500286102</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09210169315338</t>
+    <t xml:space="preserve">1.0921014547348</t>
   </si>
   <si>
     <t xml:space="preserve">1.07106781005859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11556136608124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1001912355423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18513202667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13254952430725</t>
+    <t xml:space="preserve">1.11556148529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10019111633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18513190746307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13254964351654</t>
   </si>
   <si>
     <t xml:space="preserve">1.19403040409088</t>
@@ -2516,19 +2516,19 @@
     <t xml:space="preserve">1.21991789340973</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28787064552307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25065839290619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24904036521912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1649078130722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14306604862213</t>
+    <t xml:space="preserve">1.28787052631378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25065851211548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24904048442841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16490793228149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14306592941284</t>
   </si>
   <si>
     <t xml:space="preserve">1.17218863964081</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">1.13902127742767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17299735546112</t>
+    <t xml:space="preserve">1.17299747467041</t>
   </si>
   <si>
     <t xml:space="preserve">1.15520036220551</t>
@@ -2549,19 +2549,19 @@
     <t xml:space="preserve">1.15115559101105</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16409909725189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17057085037231</t>
+    <t xml:space="preserve">1.16409885883331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17057073116302</t>
   </si>
   <si>
     <t xml:space="preserve">1.11151659488678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14953768253326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12445998191833</t>
+    <t xml:space="preserve">1.14953780174255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12445986270905</t>
   </si>
   <si>
     <t xml:space="preserve">1.1090897321701</t>
@@ -2570,10 +2570,10 @@
     <t xml:space="preserve">1.11879730224609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11717939376831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08401215076447</t>
+    <t xml:space="preserve">1.11717927455902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08401203155518</t>
   </si>
   <si>
     <t xml:space="preserve">1.05569756031036</t>
@@ -2582,19 +2582,19 @@
     <t xml:space="preserve">1.03951847553253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05974245071411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01039588451385</t>
+    <t xml:space="preserve">1.05974233150482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01039600372314</t>
   </si>
   <si>
     <t xml:space="preserve">0.99259877204895</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986936032772064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.978846371173859</t>
+    <t xml:space="preserve">0.986935973167419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.978846490383148</t>
   </si>
   <si>
     <t xml:space="preserve">1.05650651454926</t>
@@ -2603,16 +2603,16 @@
     <t xml:space="preserve">1.06864094734192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13416755199432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17542445659637</t>
+    <t xml:space="preserve">1.13416743278503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17542433738708</t>
   </si>
   <si>
     <t xml:space="preserve">1.18108701705933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21506345272064</t>
+    <t xml:space="preserve">1.21506333351135</t>
   </si>
   <si>
     <t xml:space="preserve">1.26602864265442</t>
@@ -2624,19 +2624,19 @@
     <t xml:space="preserve">1.32750952243805</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28544354438782</t>
+    <t xml:space="preserve">1.28544366359711</t>
   </si>
   <si>
     <t xml:space="preserve">1.27411818504333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22962546348572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25146746635437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27169144153595</t>
+    <t xml:space="preserve">1.22962558269501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25146734714508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27169132232666</t>
   </si>
   <si>
     <t xml:space="preserve">1.24499571323395</t>
@@ -2645,10 +2645,10 @@
     <t xml:space="preserve">1.27816307544708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25389420986176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33479022979736</t>
+    <t xml:space="preserve">1.25389432907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33479011058807</t>
   </si>
   <si>
     <t xml:space="preserve">1.38494646549225</t>
@@ -2657,13 +2657,13 @@
     <t xml:space="preserve">1.46017968654633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50386440753937</t>
+    <t xml:space="preserve">1.50386428833008</t>
   </si>
   <si>
     <t xml:space="preserve">1.51195394992828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49334788322449</t>
+    <t xml:space="preserve">1.4933477640152</t>
   </si>
   <si>
     <t xml:space="preserve">1.49901056289673</t>
@@ -2672,34 +2672,34 @@
     <t xml:space="preserve">1.5014374256134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50305533409119</t>
+    <t xml:space="preserve">1.50305545330048</t>
   </si>
   <si>
     <t xml:space="preserve">1.51680767536163</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59932148456573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55159294605255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5936586856842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58152449131012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56939005851746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49577462673187</t>
+    <t xml:space="preserve">1.59932160377502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55159282684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59365880489349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58152437210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56939017772675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49577474594116</t>
   </si>
   <si>
     <t xml:space="preserve">1.47474098205566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43833780288696</t>
+    <t xml:space="preserve">1.43833792209625</t>
   </si>
   <si>
     <t xml:space="preserve">1.46665143966675</t>
@@ -2711,13 +2711,13 @@
     <t xml:space="preserve">1.54835712909698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57990658283234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59042298793793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66161239147186</t>
+    <t xml:space="preserve">1.57990646362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59042310714722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66161227226257</t>
   </si>
   <si>
     <t xml:space="preserve">1.62925374507904</t>
@@ -2729,7 +2729,7 @@
     <t xml:space="preserve">1.47635877132416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43995559215546</t>
+    <t xml:space="preserve">1.43995571136475</t>
   </si>
   <si>
     <t xml:space="preserve">1.46988725662231</t>
@@ -2738,22 +2738,22 @@
     <t xml:space="preserve">1.49415671825409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47797679901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48687624931335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49172985553741</t>
+    <t xml:space="preserve">1.47797691822052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48687613010406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49173009395599</t>
   </si>
   <si>
     <t xml:space="preserve">1.41568696498871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41245102882385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43914675712585</t>
+    <t xml:space="preserve">1.41245114803314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43914663791656</t>
   </si>
   <si>
     <t xml:space="preserve">1.39303612709045</t>
@@ -2765,10 +2765,10 @@
     <t xml:space="preserve">1.42943942546844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49739265441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46746051311493</t>
+    <t xml:space="preserve">1.49739277362823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46746027469635</t>
   </si>
   <si>
     <t xml:space="preserve">1.48040366172791</t>
@@ -2783,19 +2783,19 @@
     <t xml:space="preserve">1.41164219379425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42701232433319</t>
+    <t xml:space="preserve">1.42701244354248</t>
   </si>
   <si>
     <t xml:space="preserve">1.43105721473694</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36472249031067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35501492023468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31213939189911</t>
+    <t xml:space="preserve">1.36472260951996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35501503944397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31213915348053</t>
   </si>
   <si>
     <t xml:space="preserve">1.32993650436401</t>
@@ -2804,28 +2804,28 @@
     <t xml:space="preserve">1.19726634025574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18674993515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21910905838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31456613540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33074533939362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32670056819916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31618416309357</t>
+    <t xml:space="preserve">1.18674981594086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21910893917084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31456625461578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33074522018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32670068740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31618404388428</t>
   </si>
   <si>
     <t xml:space="preserve">1.54512131214142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53460478782654</t>
+    <t xml:space="preserve">1.53460466861725</t>
   </si>
   <si>
     <t xml:space="preserve">1.60983800888062</t>
@@ -2834,19 +2834,19 @@
     <t xml:space="preserve">1.66484808921814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94151365756989</t>
+    <t xml:space="preserve">1.94151389598846</t>
   </si>
   <si>
     <t xml:space="preserve">1.90915548801422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90106570720673</t>
+    <t xml:space="preserve">1.90106594562531</t>
   </si>
   <si>
     <t xml:space="preserve">1.88326787948608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81369721889496</t>
+    <t xml:space="preserve">1.81369733810425</t>
   </si>
   <si>
     <t xml:space="preserve">1.84443795681</t>
@@ -2855,49 +2855,49 @@
     <t xml:space="preserve">1.80560767650604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82340490818024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82502269744873</t>
+    <t xml:space="preserve">1.82340478897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82502281665802</t>
   </si>
   <si>
     <t xml:space="preserve">1.8541454076767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85090959072113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82016885280609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78781068325043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78133904933929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79913592338562</t>
+    <t xml:space="preserve">1.85090970993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82016897201538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78781080245972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78133881092072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7991361618042</t>
   </si>
   <si>
     <t xml:space="preserve">1.77972114086151</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79590022563934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76192390918732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73118281364441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75221562385559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77648520469666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78457486629486</t>
+    <t xml:space="preserve">1.79590034484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76192402839661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73118269443512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7522155046463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77648532390594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78457498550415</t>
   </si>
   <si>
     <t xml:space="preserve">1.78295683860779</t>
@@ -2906,28 +2906,28 @@
     <t xml:space="preserve">1.86870670318604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90430164337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8816499710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84281992912292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86061716079712</t>
+    <t xml:space="preserve">1.90430152416229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88164985179901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84281980991364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86061692237854</t>
   </si>
   <si>
     <t xml:space="preserve">1.81531536579132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77001368999481</t>
+    <t xml:space="preserve">1.77001345157623</t>
   </si>
   <si>
     <t xml:space="preserve">1.79428243637085</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77163136005402</t>
+    <t xml:space="preserve">1.77163147926331</t>
   </si>
   <si>
     <t xml:space="preserve">1.75383353233337</t>
@@ -2936,64 +2936,64 @@
     <t xml:space="preserve">1.68264496326447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70853185653687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73765444755554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87194240093231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02079176902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99005138874054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.014319896698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00137662887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98681545257568</t>
+    <t xml:space="preserve">1.70853197574615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73765432834625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87194228172302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02079200744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99005150794983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01432013511658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00137686729431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98681557178497</t>
   </si>
   <si>
     <t xml:space="preserve">2.02402758598328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98196160793304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93827795982361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96092867851257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95122122764587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94798529148102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95607507228851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93666005134583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93018841743469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97710800170898</t>
+    <t xml:space="preserve">1.98196148872375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9382780790329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96092903614044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95122098922729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94798541069031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95607495307922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93665981292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9301882982254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97710776329041</t>
   </si>
   <si>
     <t xml:space="preserve">1.96578252315521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95769274234772</t>
+    <t xml:space="preserve">1.9576929807663</t>
   </si>
   <si>
     <t xml:space="preserve">2.00461268424988</t>
@@ -3002,46 +3002,46 @@
     <t xml:space="preserve">1.99652290344238</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06447625160217</t>
+    <t xml:space="preserve">2.06447672843933</t>
   </si>
   <si>
     <t xml:space="preserve">2.12110352516174</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20038247108459</t>
+    <t xml:space="preserve">2.20038223266602</t>
   </si>
   <si>
     <t xml:space="preserve">2.28936791419983</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33628845214844</t>
+    <t xml:space="preserve">2.33628821372986</t>
   </si>
   <si>
     <t xml:space="preserve">2.3055477142334</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28127813339233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25700926780701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30878353118896</t>
+    <t xml:space="preserve">2.28127837181091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25700950622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30878376960754</t>
   </si>
   <si>
     <t xml:space="preserve">2.28775000572205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29098606109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38320803642273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31040191650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34599566459656</t>
+    <t xml:space="preserve">2.29098582267761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38320779800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31040167808533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34599590301514</t>
   </si>
   <si>
     <t xml:space="preserve">2.34276008605957</t>
@@ -3050,7 +3050,7 @@
     <t xml:space="preserve">2.32334494590759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32496285438538</t>
+    <t xml:space="preserve">2.32496309280396</t>
   </si>
   <si>
     <t xml:space="preserve">2.39453339576721</t>
@@ -3065,7 +3065,7 @@
     <t xml:space="preserve">2.46572256088257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.396151304245</t>
+    <t xml:space="preserve">2.39615106582642</t>
   </si>
   <si>
     <t xml:space="preserve">2.40585899353027</t>
@@ -3074,16 +3074,16 @@
     <t xml:space="preserve">2.40909481048584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53852891921997</t>
+    <t xml:space="preserve">2.53852915763855</t>
   </si>
   <si>
     <t xml:space="preserve">2.57088804244995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6582555770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73106288909912</t>
+    <t xml:space="preserve">2.65825581550598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73106265068054</t>
   </si>
   <si>
     <t xml:space="preserve">2.83137392997742</t>
@@ -3095,7 +3095,7 @@
     <t xml:space="preserve">2.78769016265869</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89447379112244</t>
+    <t xml:space="preserve">2.89447355270386</t>
   </si>
   <si>
     <t xml:space="preserve">2.93330359458923</t>
@@ -3107,16 +3107,16 @@
     <t xml:space="preserve">3.09186029434204</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06920957565308</t>
+    <t xml:space="preserve">3.0692093372345</t>
   </si>
   <si>
     <t xml:space="preserve">3.06597352027893</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15172410011292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15496015548706</t>
+    <t xml:space="preserve">3.15172433853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15495991706848</t>
   </si>
   <si>
     <t xml:space="preserve">3.14039874076843</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">3.17761087417603</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16790318489075</t>
+    <t xml:space="preserve">3.16790342330933</t>
   </si>
   <si>
     <t xml:space="preserve">3.19055414199829</t>
@@ -3140,10 +3140,10 @@
     <t xml:space="preserve">3.29241561889648</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27598595619202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37784719467163</t>
+    <t xml:space="preserve">3.27598571777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37784695625305</t>
   </si>
   <si>
     <t xml:space="preserve">3.31213045120239</t>
@@ -3164,7 +3164,7 @@
     <t xml:space="preserve">3.40084767341614</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35156059265137</t>
+    <t xml:space="preserve">3.35156035423279</t>
   </si>
   <si>
     <t xml:space="preserve">3.2809145450592</t>
@@ -3188,25 +3188,25 @@
     <t xml:space="preserve">3.10840773582458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03283405303955</t>
+    <t xml:space="preserve">3.03283381462097</t>
   </si>
   <si>
     <t xml:space="preserve">3.0016176700592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99997472763062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93097257614136</t>
+    <t xml:space="preserve">2.99997496604919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93097233772278</t>
   </si>
   <si>
     <t xml:space="preserve">2.99340319633484</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99176025390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03940534591675</t>
+    <t xml:space="preserve">2.99176049232483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03940558433533</t>
   </si>
   <si>
     <t xml:space="preserve">2.9638307094574</t>
@@ -3224,16 +3224,16 @@
     <t xml:space="preserve">2.98025989532471</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94740152359009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91782927513123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04597735404968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99504613876343</t>
+    <t xml:space="preserve">2.94740176200867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9178295135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0459771156311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99504590034485</t>
   </si>
   <si>
     <t xml:space="preserve">2.97697401046753</t>
@@ -3251,13 +3251,13 @@
     <t xml:space="preserve">2.85539770126343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92768692970276</t>
+    <t xml:space="preserve">2.92768669128418</t>
   </si>
   <si>
     <t xml:space="preserve">2.95397353172302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98190259933472</t>
+    <t xml:space="preserve">2.9819028377533</t>
   </si>
   <si>
     <t xml:space="preserve">3.13469457626343</t>
@@ -3275,40 +3275,40 @@
     <t xml:space="preserve">3.05419158935547</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06404900550842</t>
+    <t xml:space="preserve">3.064049243927</t>
   </si>
   <si>
     <t xml:space="preserve">3.06240630149841</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04104828834534</t>
+    <t xml:space="preserve">3.04104852676392</t>
   </si>
   <si>
     <t xml:space="preserve">3.04762005805969</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12648010253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16262483596802</t>
+    <t xml:space="preserve">3.12647986412048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16262459754944</t>
   </si>
   <si>
     <t xml:space="preserve">3.11169362068176</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17905402183533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13633728027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13305139541626</t>
+    <t xml:space="preserve">3.17905378341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13633704185486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13305163383484</t>
   </si>
   <si>
     <t xml:space="preserve">3.03776264190674</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06569194793701</t>
+    <t xml:space="preserve">3.06569218635559</t>
   </si>
   <si>
     <t xml:space="preserve">3.04926300048828</t>
@@ -3317,16 +3317,16 @@
     <t xml:space="preserve">3.08376407623291</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10512185096741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21355509757996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2217698097229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19548320770264</t>
+    <t xml:space="preserve">3.10512208938599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21355533599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22176957130432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19548296928406</t>
   </si>
   <si>
     <t xml:space="preserve">3.19876885414124</t>
@@ -3344,13 +3344,13 @@
     <t xml:space="preserve">3.16755342483521</t>
   </si>
   <si>
-    <t xml:space="preserve">3.106764793396</t>
+    <t xml:space="preserve">3.10676503181458</t>
   </si>
   <si>
     <t xml:space="preserve">3.04433441162109</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07883524894714</t>
+    <t xml:space="preserve">3.07883548736572</t>
   </si>
   <si>
     <t xml:space="preserve">3.01804757118225</t>
@@ -3368,7 +3368,7 @@
     <t xml:space="preserve">2.89482855796814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89811420440674</t>
+    <t xml:space="preserve">2.89811444282532</t>
   </si>
   <si>
     <t xml:space="preserve">2.99668908119202</t>
@@ -3377,7 +3377,7 @@
     <t xml:space="preserve">3.00654649734497</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01476097106934</t>
+    <t xml:space="preserve">3.01476120948792</t>
   </si>
   <si>
     <t xml:space="preserve">2.97861695289612</t>
@@ -3392,43 +3392,43 @@
     <t xml:space="preserve">3.02461934089661</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13962340354919</t>
+    <t xml:space="preserve">3.13962316513062</t>
   </si>
   <si>
     <t xml:space="preserve">3.11005067825317</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08869290351868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07062077522278</t>
+    <t xml:space="preserve">3.08869314193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07062101364136</t>
   </si>
   <si>
     <t xml:space="preserve">3.08047842979431</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11333680152893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1659107208252</t>
+    <t xml:space="preserve">3.11333656311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16591048240662</t>
   </si>
   <si>
     <t xml:space="preserve">3.18726849555969</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20205450057983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16098213195801</t>
+    <t xml:space="preserve">3.20205473899841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16098189353943</t>
   </si>
   <si>
     <t xml:space="preserve">3.21026921272278</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24477052688599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25298500061035</t>
+    <t xml:space="preserve">3.24477028846741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25298476219177</t>
   </si>
   <si>
     <t xml:space="preserve">3.12812280654907</t>
@@ -3440,31 +3440,31 @@
     <t xml:space="preserve">3.0854070186615</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11990809440613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19384002685547</t>
+    <t xml:space="preserve">3.11990833282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19384026527405</t>
   </si>
   <si>
     <t xml:space="preserve">3.24969911575317</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15933871269226</t>
+    <t xml:space="preserve">3.15933895111084</t>
   </si>
   <si>
     <t xml:space="preserve">3.05912065505981</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00818943977356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95890188217163</t>
+    <t xml:space="preserve">3.00818967819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95890212059021</t>
   </si>
   <si>
     <t xml:space="preserve">2.97204542160034</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89154243469238</t>
+    <t xml:space="preserve">2.89154267311096</t>
   </si>
   <si>
     <t xml:space="preserve">2.89975714683533</t>
@@ -3473,7 +3473,7 @@
     <t xml:space="preserve">2.85046911239624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95725917816162</t>
+    <t xml:space="preserve">2.95725893974304</t>
   </si>
   <si>
     <t xml:space="preserve">2.90468597412109</t>
@@ -3485,7 +3485,7 @@
     <t xml:space="preserve">2.92604374885559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80939602851868</t>
+    <t xml:space="preserve">2.80939626693726</t>
   </si>
   <si>
     <t xml:space="preserve">2.8389687538147</t>
@@ -3500,7 +3500,7 @@
     <t xml:space="preserve">2.9424729347229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91454339027405</t>
+    <t xml:space="preserve">2.91454315185547</t>
   </si>
   <si>
     <t xml:space="preserve">2.91290044784546</t>
@@ -3509,19 +3509,19 @@
     <t xml:space="preserve">2.88825678825378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85868358612061</t>
+    <t xml:space="preserve">2.85868334770203</t>
   </si>
   <si>
     <t xml:space="preserve">2.95068740844727</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02626204490662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05747771263123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10347938537598</t>
+    <t xml:space="preserve">3.0262622833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05747747421265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1034791469574</t>
   </si>
   <si>
     <t xml:space="preserve">3.19055438041687</t>
@@ -3533,25 +3533,25 @@
     <t xml:space="preserve">3.15112352371216</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25134205818176</t>
+    <t xml:space="preserve">3.25134229660034</t>
   </si>
   <si>
     <t xml:space="preserve">3.2431275844574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09690737724304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93590116500854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98354578018188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06897807121277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02954792976379</t>
+    <t xml:space="preserve">3.09690761566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93590140342712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98354554176331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06897783279419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02954816818237</t>
   </si>
   <si>
     <t xml:space="preserve">3.18233966827393</t>
@@ -3560,13 +3560,13 @@
     <t xml:space="preserve">3.13288044929504</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10821223258972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26937890052795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28911352157593</t>
+    <t xml:space="preserve">3.10821199417114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26937866210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28911328315735</t>
   </si>
   <si>
     <t xml:space="preserve">3.37956428527832</t>
@@ -3578,16 +3578,16 @@
     <t xml:space="preserve">3.42561149597168</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44370198249817</t>
+    <t xml:space="preserve">3.44370174407959</t>
   </si>
   <si>
     <t xml:space="preserve">3.4157440662384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4848153591156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39107584953308</t>
+    <t xml:space="preserve">3.48481559753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39107608795166</t>
   </si>
   <si>
     <t xml:space="preserve">3.31542634963989</t>
@@ -3596,16 +3596,16 @@
     <t xml:space="preserve">3.15754866600037</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99967122077942</t>
+    <t xml:space="preserve">2.999671459198</t>
   </si>
   <si>
     <t xml:space="preserve">3.05065274238586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91415452957153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73818683624268</t>
+    <t xml:space="preserve">2.91415429115295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7381865978241</t>
   </si>
   <si>
     <t xml:space="preserve">2.77436709403992</t>
@@ -3623,16 +3623,16 @@
     <t xml:space="preserve">2.49972605705261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71516299247742</t>
+    <t xml:space="preserve">2.715163230896</t>
   </si>
   <si>
     <t xml:space="preserve">2.57702040672302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60168886184692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71022939682007</t>
+    <t xml:space="preserve">2.60168862342834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71022963523865</t>
   </si>
   <si>
     <t xml:space="preserve">2.7529878616333</t>
@@ -3641,28 +3641,28 @@
     <t xml:space="preserve">2.94704580307007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91908812522888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96020221710205</t>
+    <t xml:space="preserve">2.9190878868103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96020197868347</t>
   </si>
   <si>
     <t xml:space="preserve">2.97829222679138</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03091812133789</t>
+    <t xml:space="preserve">3.03091788291931</t>
   </si>
   <si>
     <t xml:space="preserve">2.99473762512207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99144887924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93388938903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99638247489929</t>
+    <t xml:space="preserve">2.99144864082336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93388915061951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99638223648071</t>
   </si>
   <si>
     <t xml:space="preserve">3.13123607635498</t>
@@ -3671,7 +3671,7 @@
     <t xml:space="preserve">3.13781404495239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05723094940186</t>
+    <t xml:space="preserve">3.05723071098328</t>
   </si>
   <si>
     <t xml:space="preserve">3.09834480285645</t>
@@ -3689,7 +3689,7 @@
     <t xml:space="preserve">2.99802684783936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14274764060974</t>
+    <t xml:space="preserve">3.1427481174469</t>
   </si>
   <si>
     <t xml:space="preserve">3.1559042930603</t>
@@ -3704,7 +3704,7 @@
     <t xml:space="preserve">3.09176659584045</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1772837638855</t>
+    <t xml:space="preserve">3.17728352546692</t>
   </si>
   <si>
     <t xml:space="preserve">3.16248250007629</t>
@@ -3713,7 +3713,7 @@
     <t xml:space="preserve">3.11314582824707</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13616943359375</t>
+    <t xml:space="preserve">3.13616967201233</t>
   </si>
   <si>
     <t xml:space="preserve">3.12465763092041</t>
@@ -3722,7 +3722,7 @@
     <t xml:space="preserve">3.10985660552979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11479067802429</t>
+    <t xml:space="preserve">3.11479043960571</t>
   </si>
   <si>
     <t xml:space="preserve">2.98980402946472</t>
@@ -3737,7 +3737,7 @@
     <t xml:space="preserve">2.87468504905701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97993659973145</t>
+    <t xml:space="preserve">2.97993683815002</t>
   </si>
   <si>
     <t xml:space="preserve">3.00624942779541</t>
@@ -3746,13 +3746,13 @@
     <t xml:space="preserve">3.02598428726196</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01940584182739</t>
+    <t xml:space="preserve">3.01940608024597</t>
   </si>
   <si>
     <t xml:space="preserve">3.08683300018311</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06545352935791</t>
+    <t xml:space="preserve">3.06545376777649</t>
   </si>
   <si>
     <t xml:space="preserve">3.05558657646179</t>
@@ -3761,7 +3761,7 @@
     <t xml:space="preserve">3.01282787322998</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2702751159668</t>
+    <t xml:space="preserve">3.27027487754822</t>
   </si>
   <si>
     <t xml:space="preserve">3.29636764526367</t>
@@ -3773,10 +3773,10 @@
     <t xml:space="preserve">3.362468957901</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3398551940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29462838172913</t>
+    <t xml:space="preserve">3.33985543251038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29462814331055</t>
   </si>
   <si>
     <t xml:space="preserve">3.26679611206055</t>
@@ -3797,7 +3797,7 @@
     <t xml:space="preserve">3.22330832481384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17808103561401</t>
+    <t xml:space="preserve">3.17808127403259</t>
   </si>
   <si>
     <t xml:space="preserve">2.95890307426453</t>
@@ -3812,10 +3812,10 @@
     <t xml:space="preserve">2.93802905082703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85105395317078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89454126358032</t>
+    <t xml:space="preserve">2.8510537147522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8945415019989</t>
   </si>
   <si>
     <t xml:space="preserve">2.96064257621765</t>
@@ -3860,16 +3860,16 @@
     <t xml:space="preserve">2.86323022842407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95716381072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91193628311157</t>
+    <t xml:space="preserve">2.9571635723114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91193652153015</t>
   </si>
   <si>
     <t xml:space="preserve">2.89628076553345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82843995094299</t>
+    <t xml:space="preserve">2.82844018936157</t>
   </si>
   <si>
     <t xml:space="preserve">2.69275832176208</t>
@@ -3878,7 +3878,7 @@
     <t xml:space="preserve">2.70841407775879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75538063049316</t>
+    <t xml:space="preserve">2.75538086891174</t>
   </si>
   <si>
     <t xml:space="preserve">2.88236474990845</t>
@@ -3887,25 +3887,25 @@
     <t xml:space="preserve">2.80060791969299</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76233887672424</t>
+    <t xml:space="preserve">2.76233863830566</t>
   </si>
   <si>
     <t xml:space="preserve">2.72754836082458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76755714416504</t>
+    <t xml:space="preserve">2.76755738258362</t>
   </si>
   <si>
     <t xml:space="preserve">2.69623732566833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74146461486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81452393531799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84931397438049</t>
+    <t xml:space="preserve">2.74146437644958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81452417373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84931421279907</t>
   </si>
   <si>
     <t xml:space="preserve">2.92411303520203</t>
@@ -3941,10 +3941,10 @@
     <t xml:space="preserve">2.74668312072754</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74494361877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77625465393066</t>
+    <t xml:space="preserve">2.74494338035583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77625489234924</t>
   </si>
   <si>
     <t xml:space="preserve">2.78495240211487</t>
@@ -3953,10 +3953,10 @@
     <t xml:space="preserve">2.74320411682129</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78147315979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78321266174316</t>
+    <t xml:space="preserve">2.78147339820862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78321290016174</t>
   </si>
   <si>
     <t xml:space="preserve">2.77277588844299</t>
@@ -3971,7 +3971,7 @@
     <t xml:space="preserve">3.01804637908936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05109691619873</t>
+    <t xml:space="preserve">3.05109715461731</t>
   </si>
   <si>
     <t xml:space="preserve">3.13633298873901</t>
@@ -3980,10 +3980,10 @@
     <t xml:space="preserve">3.11545896530151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09458470344543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04239940643311</t>
+    <t xml:space="preserve">3.09458494186401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04239964485168</t>
   </si>
   <si>
     <t xml:space="preserve">2.98847484588623</t>
@@ -3992,7 +3992,7 @@
     <t xml:space="preserve">3.05457615852356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98673534393311</t>
+    <t xml:space="preserve">2.98673510551453</t>
   </si>
   <si>
     <t xml:space="preserve">2.96238207817078</t>
@@ -4025,19 +4025,19 @@
     <t xml:space="preserve">2.83017945289612</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95194530487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03718113899231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06849217414856</t>
+    <t xml:space="preserve">2.95194506645203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03718090057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06849241256714</t>
   </si>
   <si>
     <t xml:space="preserve">3.08240818977356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12415623664856</t>
+    <t xml:space="preserve">3.12415647506714</t>
   </si>
   <si>
     <t xml:space="preserve">3.16938376426697</t>
@@ -4052,7 +4052,7 @@
     <t xml:space="preserve">3.16590476036072</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15720701217651</t>
+    <t xml:space="preserve">3.15720725059509</t>
   </si>
   <si>
     <t xml:space="preserve">3.16764402389526</t>
@@ -4061,19 +4061,19 @@
     <t xml:space="preserve">3.24592208862305</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26157760620117</t>
+    <t xml:space="preserve">3.26157736778259</t>
   </si>
   <si>
     <t xml:space="preserve">3.32593941688538</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07892894744873</t>
+    <t xml:space="preserve">3.07892918586731</t>
   </si>
   <si>
     <t xml:space="preserve">3.05283665657043</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10154271125793</t>
+    <t xml:space="preserve">3.10154294967651</t>
   </si>
   <si>
     <t xml:space="preserve">3.09284520149231</t>
@@ -4091,13 +4091,13 @@
     <t xml:space="preserve">3.32246017456055</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3276789188385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33637619018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38508248329163</t>
+    <t xml:space="preserve">3.32767868041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33637642860413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38508272171021</t>
   </si>
   <si>
     <t xml:space="preserve">3.35029244422913</t>
@@ -4112,7 +4112,7 @@
     <t xml:space="preserve">3.34333467483521</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29984664916992</t>
+    <t xml:space="preserve">3.29984641075134</t>
   </si>
   <si>
     <t xml:space="preserve">3.29114890098572</t>
@@ -4121,7 +4121,7 @@
     <t xml:space="preserve">3.30158615112305</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31202340126038</t>
+    <t xml:space="preserve">3.3120231628418</t>
   </si>
   <si>
     <t xml:space="preserve">3.3189811706543</t>
@@ -4130,7 +4130,7 @@
     <t xml:space="preserve">3.28767013549805</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25809836387634</t>
+    <t xml:space="preserve">3.25809860229492</t>
   </si>
   <si>
     <t xml:space="preserve">3.334636926651</t>
@@ -4139,16 +4139,16 @@
     <t xml:space="preserve">3.40073823928833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40943598747253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40247750282288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36420845985413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34681344032288</t>
+    <t xml:space="preserve">3.40943574905396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40247774124146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36420869827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34681367874146</t>
   </si>
   <si>
     <t xml:space="preserve">3.40421724319458</t>
@@ -4163,10 +4163,10 @@
     <t xml:space="preserve">3.51380610466003</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51032710075378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50336885452271</t>
+    <t xml:space="preserve">3.51032686233521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50336909294128</t>
   </si>
   <si>
     <t xml:space="preserve">3.54859614372253</t>
@@ -4178,7 +4178,7 @@
     <t xml:space="preserve">3.52946186065674</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56077289581299</t>
+    <t xml:space="preserve">3.56077265739441</t>
   </si>
   <si>
     <t xml:space="preserve">3.53294062614441</t>
@@ -4196,16 +4196,16 @@
     <t xml:space="preserve">3.7312445640564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76429533958435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79038763046265</t>
+    <t xml:space="preserve">3.76429510116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79038786888123</t>
   </si>
   <si>
     <t xml:space="preserve">3.77125358581543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91911172866821</t>
+    <t xml:space="preserve">3.91911149024963</t>
   </si>
   <si>
     <t xml:space="preserve">3.99912881851196</t>
@@ -4214,46 +4214,46 @@
     <t xml:space="preserve">3.91737222671509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92606973648071</t>
+    <t xml:space="preserve">3.92606949806213</t>
   </si>
   <si>
     <t xml:space="preserve">3.96607828140259</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94694352149963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91041374206543</t>
+    <t xml:space="preserve">3.94694375991821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91041398048401</t>
   </si>
   <si>
     <t xml:space="preserve">3.88258218765259</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92432999610901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85127067565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8651864528656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90519547462463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85474991798401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90345621109009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87388443946838</t>
+    <t xml:space="preserve">3.92433023452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85127091407776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86518669128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90519523620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85475015640259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90345597267151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8738842010498</t>
   </si>
   <si>
     <t xml:space="preserve">3.94868326187134</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95912003517151</t>
+    <t xml:space="preserve">3.95912027359009</t>
   </si>
   <si>
     <t xml:space="preserve">4.08262538909912</t>
@@ -4274,7 +4274,7 @@
     <t xml:space="preserve">4.25483655929565</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16960048675537</t>
+    <t xml:space="preserve">4.16960096359253</t>
   </si>
   <si>
     <t xml:space="preserve">4.19917249679565</t>
@@ -4286,19 +4286,19 @@
     <t xml:space="preserve">3.6616644859314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65992498397827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42683100700378</t>
+    <t xml:space="preserve">3.65992522239685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42683076858521</t>
   </si>
   <si>
     <t xml:space="preserve">3.43900728225708</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31550240516663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61295795440674</t>
+    <t xml:space="preserve">3.31550216674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61295819282532</t>
   </si>
   <si>
     <t xml:space="preserve">3.51902461051941</t>
@@ -4313,13 +4313,13 @@
     <t xml:space="preserve">3.31376266479492</t>
   </si>
   <si>
-    <t xml:space="preserve">3.320720911026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42335176467896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44074678421021</t>
+    <t xml:space="preserve">3.32072067260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42335200309753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44074702262878</t>
   </si>
   <si>
     <t xml:space="preserve">3.37638521194458</t>
@@ -4331,7 +4331,7 @@
     <t xml:space="preserve">3.52250385284424</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55381464958191</t>
+    <t xml:space="preserve">3.55381488800049</t>
   </si>
   <si>
     <t xml:space="preserve">3.60078144073486</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">3.62339520454407</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62513494491577</t>
+    <t xml:space="preserve">3.62513470649719</t>
   </si>
   <si>
     <t xml:space="preserve">3.57267427444458</t>
@@ -5061,6 +5061,9 @@
   </si>
   <si>
     <t xml:space="preserve">7.07999992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9850001335144</t>
   </si>
 </sst>
 </file>
@@ -61198,7 +61201,7 @@
     </row>
     <row r="2147">
       <c r="A2147" s="1" t="n">
-        <v>45450.6493634259</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B2147" t="n">
         <v>1526266</v>
@@ -61219,6 +61222,32 @@
         <v>1682</v>
       </c>
       <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45453.6495833333</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>1226335</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>7.07000017166138</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>6.92500019073486</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>7.05999994277954</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>6.9850001335144</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>1683</v>
+      </c>
+      <c r="H2148" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BPSO.MI.xlsx
+++ b/data/BPSO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="1686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="1685">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03069806098938</t>
+    <t xml:space="preserve">3.03069829940796</t>
   </si>
   <si>
     <t xml:space="preserve">BPSO.MI</t>
@@ -47,31 +47,31 @@
     <t xml:space="preserve">3.00987863540649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94444632530212</t>
+    <t xml:space="preserve">2.94444608688354</t>
   </si>
   <si>
     <t xml:space="preserve">2.9057822227478</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82399201393127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79425024986267</t>
+    <t xml:space="preserve">2.8239917755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79425001144409</t>
   </si>
   <si>
     <t xml:space="preserve">2.88496327400208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89091110229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79722452163696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69164037704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63067007064819</t>
+    <t xml:space="preserve">2.8909113407135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79722428321838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69163990020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63066959381104</t>
   </si>
   <si>
     <t xml:space="preserve">2.42842483520508</t>
@@ -83,64 +83,64 @@
     <t xml:space="preserve">2.57713389396667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53400874137878</t>
+    <t xml:space="preserve">2.53400850296021</t>
   </si>
   <si>
     <t xml:space="preserve">2.69907593727112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61877298355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52359890937805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61282467842102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57564663887024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48642182350159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37935090065002</t>
+    <t xml:space="preserve">2.6187732219696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52359867095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6128249168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5756471157074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48642206192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37935066223145</t>
   </si>
   <si>
     <t xml:space="preserve">2.39124751091003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36745452880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18602848052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2098217010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29607343673706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22469234466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33771157264709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38381218910217</t>
+    <t xml:space="preserve">2.36745429039001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18602824211121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20982146263123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29607319831848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22469282150269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33771181106567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38381242752075</t>
   </si>
   <si>
     <t xml:space="preserve">2.44032144546509</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34960865974426</t>
+    <t xml:space="preserve">2.34960842132568</t>
   </si>
   <si>
     <t xml:space="preserve">2.31986665725708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40611863136292</t>
+    <t xml:space="preserve">2.40611815452576</t>
   </si>
   <si>
     <t xml:space="preserve">2.3421733379364</t>
@@ -149,22 +149,22 @@
     <t xml:space="preserve">2.33176350593567</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37340259552002</t>
+    <t xml:space="preserve">2.37340235710144</t>
   </si>
   <si>
     <t xml:space="preserve">2.42098951339722</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48344755172729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55780172348022</t>
+    <t xml:space="preserve">2.48344779014587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55780220031738</t>
   </si>
   <si>
     <t xml:space="preserve">2.55185341835022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54441785812378</t>
+    <t xml:space="preserve">2.54441833496094</t>
   </si>
   <si>
     <t xml:space="preserve">2.40165710449219</t>
@@ -173,19 +173,19 @@
     <t xml:space="preserve">2.42396330833435</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41057991981506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48493480682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60687589645386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52657318115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46560192108154</t>
+    <t xml:space="preserve">2.41057944297791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48493456840515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60687565803528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52657341957092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46560168266296</t>
   </si>
   <si>
     <t xml:space="preserve">2.51318955421448</t>
@@ -197,16 +197,16 @@
     <t xml:space="preserve">2.56375026702881</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45667910575867</t>
+    <t xml:space="preserve">2.45667934417725</t>
   </si>
   <si>
     <t xml:space="preserve">2.39719581604004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3436598777771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29161262512207</t>
+    <t xml:space="preserve">2.34366011619568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29161190986633</t>
   </si>
   <si>
     <t xml:space="preserve">2.30053448677063</t>
@@ -215,16 +215,16 @@
     <t xml:space="preserve">2.27227997779846</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21725726127625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15628671646118</t>
+    <t xml:space="preserve">2.21725678443909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1562864780426</t>
   </si>
   <si>
     <t xml:space="preserve">2.16223502159119</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21874403953552</t>
+    <t xml:space="preserve">2.2187442779541</t>
   </si>
   <si>
     <t xml:space="preserve">2.26781868934631</t>
@@ -233,13 +233,13 @@
     <t xml:space="preserve">2.27674126625061</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38678622245789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4670889377594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3986828327179</t>
+    <t xml:space="preserve">2.38678669929504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46708846092224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39868307113647</t>
   </si>
   <si>
     <t xml:space="preserve">2.45370531082153</t>
@@ -251,52 +251,52 @@
     <t xml:space="preserve">2.49237036705017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44180846214294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4893958568573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4730372428894</t>
+    <t xml:space="preserve">2.44180870056152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48939609527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47303748130798</t>
   </si>
   <si>
     <t xml:space="preserve">2.42247629165649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39422178268433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3109438419342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26187014579773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23064064979553</t>
+    <t xml:space="preserve">2.39422154426575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31094431877136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26187038421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23064088821411</t>
   </si>
   <si>
     <t xml:space="preserve">2.24848675727844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23807740211487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25592160224915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19495058059692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18305444717407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21279573440552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17710590362549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22023153305054</t>
+    <t xml:space="preserve">2.23807716369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2559220790863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1949508190155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18305420875549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2127959728241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17710542678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22023129463196</t>
   </si>
   <si>
     <t xml:space="preserve">2.20387315750122</t>
@@ -305,25 +305,25 @@
     <t xml:space="preserve">2.19778108596802</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27850294113159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35617971420288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3074414730072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33028769493103</t>
+    <t xml:space="preserve">2.27850317955017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3561794757843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30744218826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33028745651245</t>
   </si>
   <si>
     <t xml:space="preserve">2.30896520614624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24194979667664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21910357475281</t>
+    <t xml:space="preserve">2.24194955825806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21910381317139</t>
   </si>
   <si>
     <t xml:space="preserve">2.14142751693726</t>
@@ -332,31 +332,31 @@
     <t xml:space="preserve">2.09725880622864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01044416427612</t>
+    <t xml:space="preserve">2.01044392585754</t>
   </si>
   <si>
     <t xml:space="preserve">2.13076615333557</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07441306114197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08202815055847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97236728668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90839922428131</t>
+    <t xml:space="preserve">2.07441282272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08202838897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97236740589142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9083993434906</t>
   </si>
   <si>
     <t xml:space="preserve">1.87641429901123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84899938106537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75913846492767</t>
+    <t xml:space="preserve">1.84899926185608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75913834571838</t>
   </si>
   <si>
     <t xml:space="preserve">1.81701517105103</t>
@@ -365,10 +365,10 @@
     <t xml:space="preserve">1.89621376991272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94038331508636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90687525272369</t>
+    <t xml:space="preserve">1.94038307666779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90687537193298</t>
   </si>
   <si>
     <t xml:space="preserve">2.02872037887573</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">1.75152289867401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67689323425293</t>
+    <t xml:space="preserve">1.67689311504364</t>
   </si>
   <si>
     <t xml:space="preserve">1.78807699680328</t>
@@ -386,10 +386,10 @@
     <t xml:space="preserve">1.77436900138855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75609219074249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7530460357666</t>
+    <t xml:space="preserve">1.75609230995178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75304627418518</t>
   </si>
   <si>
     <t xml:space="preserve">1.6890777349472</t>
@@ -401,67 +401,67 @@
     <t xml:space="preserve">1.63424706459045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64033925533295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75456881523132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79112339019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81549215316772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78960037231445</t>
+    <t xml:space="preserve">1.64033937454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7545690536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79112327098846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81549191474915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78960013389587</t>
   </si>
   <si>
     <t xml:space="preserve">1.86727619171143</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83072233200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8444299697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90230643749237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89316761493683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85052227973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81853818893433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8474760055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.841383934021</t>
+    <t xml:space="preserve">1.83072257041931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84443008899689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90230619907379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89316773414612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85052216053009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81853830814362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84747612476349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84138417243958</t>
   </si>
   <si>
     <t xml:space="preserve">1.78198492527008</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66470897197723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68755483627319</t>
+    <t xml:space="preserve">1.66470885276794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68755459785461</t>
   </si>
   <si>
     <t xml:space="preserve">1.62967789173126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74999988079071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77741515636444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76523041725159</t>
+    <t xml:space="preserve">1.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77741479873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76523077487946</t>
   </si>
   <si>
     <t xml:space="preserve">1.80787694454193</t>
@@ -470,106 +470,106 @@
     <t xml:space="preserve">1.8368147611618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82767653465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82158422470093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86879885196686</t>
+    <t xml:space="preserve">1.82767629623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82158434391022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86879897117615</t>
   </si>
   <si>
     <t xml:space="preserve">1.82919943332672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84290707111359</t>
+    <t xml:space="preserve">1.84290730953217</t>
   </si>
   <si>
     <t xml:space="preserve">1.85509157180786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90992212295532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90535247325897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8977370262146</t>
+    <t xml:space="preserve">1.90992200374603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90535235404968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89773726463318</t>
   </si>
   <si>
     <t xml:space="preserve">1.89012157917023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88098335266113</t>
+    <t xml:space="preserve">1.88098347187042</t>
   </si>
   <si>
     <t xml:space="preserve">1.88859891891479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86575281620026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89469087123871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87336838245392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85813760757446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91144549846649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98455190658569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9815057516098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94190621376038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96627521514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97998285293579</t>
+    <t xml:space="preserve">1.86575293540955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89469110965729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87336814403534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85813748836517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9114453792572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98455214500427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98150610923767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94190645217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96627497673035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97998297214508</t>
   </si>
   <si>
     <t xml:space="preserve">1.99216735363007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08659768104553</t>
+    <t xml:space="preserve">2.08659744262695</t>
   </si>
   <si>
     <t xml:space="preserve">2.11705827713013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24804162979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25870323181152</t>
+    <t xml:space="preserve">2.24804210662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2587034702301</t>
   </si>
   <si>
     <t xml:space="preserve">2.22367310523987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23433470726013</t>
+    <t xml:space="preserve">2.23433446884155</t>
   </si>
   <si>
     <t xml:space="preserve">2.23738074302673</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24651885032654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31505727767944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33790326118469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26479578018188</t>
+    <t xml:space="preserve">2.24651908874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31505703926086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33790302276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26479554176331</t>
   </si>
   <si>
     <t xml:space="preserve">2.14295029640198</t>
@@ -581,7 +581,7 @@
     <t xml:space="preserve">2.15208864212036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1993043422699</t>
+    <t xml:space="preserve">2.19930410385132</t>
   </si>
   <si>
     <t xml:space="preserve">2.209965467453</t>
@@ -590,19 +590,19 @@
     <t xml:space="preserve">2.26631855964661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27697992324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31657981872559</t>
+    <t xml:space="preserve">2.27697968482971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31658005714417</t>
   </si>
   <si>
     <t xml:space="preserve">2.31353378295898</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28459501266479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22976517677307</t>
+    <t xml:space="preserve">2.28459525108337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22976493835449</t>
   </si>
   <si>
     <t xml:space="preserve">2.18102741241455</t>
@@ -614,13 +614,13 @@
     <t xml:space="preserve">2.24956488609314</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23890399932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15361142158508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27545690536499</t>
+    <t xml:space="preserve">2.23890376091003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15361166000366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27545666694641</t>
   </si>
   <si>
     <t xml:space="preserve">2.25413393974304</t>
@@ -635,13 +635,13 @@
     <t xml:space="preserve">2.43690228462219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54351687431335</t>
+    <t xml:space="preserve">2.54351663589478</t>
   </si>
   <si>
     <t xml:space="preserve">2.42471814155579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39273309707642</t>
+    <t xml:space="preserve">2.39273285865784</t>
   </si>
   <si>
     <t xml:space="preserve">2.43385624885559</t>
@@ -650,16 +650,16 @@
     <t xml:space="preserve">2.39120984077454</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33333420753479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32419514656067</t>
+    <t xml:space="preserve">2.33333373069763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32419538497925</t>
   </si>
   <si>
     <t xml:space="preserve">2.3957793712616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38054847717285</t>
+    <t xml:space="preserve">2.38054823875427</t>
   </si>
   <si>
     <t xml:space="preserve">2.37597918510437</t>
@@ -668,25 +668,25 @@
     <t xml:space="preserve">2.36227178573608</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38207149505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42624068260193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47497868537903</t>
+    <t xml:space="preserve">2.38207173347473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42624092102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47497844696045</t>
   </si>
   <si>
     <t xml:space="preserve">2.48259377479553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51000881195068</t>
+    <t xml:space="preserve">2.51000905036926</t>
   </si>
   <si>
     <t xml:space="preserve">2.50848579406738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46888661384583</t>
+    <t xml:space="preserve">2.46888637542725</t>
   </si>
   <si>
     <t xml:space="preserve">2.46127128601074</t>
@@ -698,10 +698,10 @@
     <t xml:space="preserve">2.52828574180603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52067017555237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50696277618408</t>
+    <t xml:space="preserve">2.52067041397095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50696301460266</t>
   </si>
   <si>
     <t xml:space="preserve">2.57397818565369</t>
@@ -710,7 +710,7 @@
     <t xml:space="preserve">2.58920836448669</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62728476524353</t>
+    <t xml:space="preserve">2.62728500366211</t>
   </si>
   <si>
     <t xml:space="preserve">2.58311653137207</t>
@@ -731,46 +731,46 @@
     <t xml:space="preserve">2.50391674041748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49630165100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53285479545593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49325561523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4445173740387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46431756019592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48868608474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50087070465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47345542907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46279406547546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41710257530212</t>
+    <t xml:space="preserve">2.4963014125824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53285503387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4932553768158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44451785087585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46431732177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48868632316589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5008704662323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47345566749573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46279382705688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41710233688354</t>
   </si>
   <si>
     <t xml:space="preserve">2.28002619743347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28611850738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44756364822388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38816380500793</t>
+    <t xml:space="preserve">2.28611826896667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44756388664246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38816404342651</t>
   </si>
   <si>
     <t xml:space="preserve">2.43537926673889</t>
@@ -779,7 +779,7 @@
     <t xml:space="preserve">2.44147133827209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47802472114563</t>
+    <t xml:space="preserve">2.47802495956421</t>
   </si>
   <si>
     <t xml:space="preserve">2.50543975830078</t>
@@ -788,13 +788,13 @@
     <t xml:space="preserve">2.54808640480042</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49477815628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53590083122253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51610112190247</t>
+    <t xml:space="preserve">2.4947783946991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53590059280396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51610088348389</t>
   </si>
   <si>
     <t xml:space="preserve">2.45822525024414</t>
@@ -812,25 +812,25 @@
     <t xml:space="preserve">2.44604063034058</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45365595817566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45670199394226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47040963172913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52371621131897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47650146484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4978244304657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64251565933228</t>
+    <t xml:space="preserve">2.45365571975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45670175552368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47040987014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52371644973755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47650170326233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49782419204712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6425154209137</t>
   </si>
   <si>
     <t xml:space="preserve">2.60443925857544</t>
@@ -845,13 +845,13 @@
     <t xml:space="preserve">2.63946938514709</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66383862495422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69582295417786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69734621047974</t>
+    <t xml:space="preserve">2.66383838653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69582319259644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69734644889832</t>
   </si>
   <si>
     <t xml:space="preserve">2.75217628479004</t>
@@ -860,25 +860,25 @@
     <t xml:space="preserve">2.7140998840332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66536140441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68363881111145</t>
+    <t xml:space="preserve">2.66536116600037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68363904953003</t>
   </si>
   <si>
     <t xml:space="preserve">2.68668508529663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68820762634277</t>
+    <t xml:space="preserve">2.68820786476135</t>
   </si>
   <si>
     <t xml:space="preserve">2.68516182899475</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73694539070129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75553250312805</t>
+    <t xml:space="preserve">2.73694562911987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75553274154663</t>
   </si>
   <si>
     <t xml:space="preserve">2.82058691978455</t>
@@ -887,7 +887,7 @@
     <t xml:space="preserve">2.84537029266357</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89958214759827</t>
+    <t xml:space="preserve">2.89958238601685</t>
   </si>
   <si>
     <t xml:space="preserve">2.74933695793152</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">2.70131993293762</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69357514381409</t>
+    <t xml:space="preserve">2.69357538223267</t>
   </si>
   <si>
     <t xml:space="preserve">2.64710783958435</t>
@@ -935,7 +935,7 @@
     <t xml:space="preserve">2.63316750526428</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65949892997742</t>
+    <t xml:space="preserve">2.659499168396</t>
   </si>
   <si>
     <t xml:space="preserve">2.66569471359253</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">2.66414570808411</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68737983703613</t>
+    <t xml:space="preserve">2.68737959861755</t>
   </si>
   <si>
     <t xml:space="preserve">2.71835875511169</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">2.78805947303772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74159216880798</t>
+    <t xml:space="preserve">2.74159240722656</t>
   </si>
   <si>
     <t xml:space="preserve">2.67343974113464</t>
@@ -962,7 +962,7 @@
     <t xml:space="preserve">2.7772171497345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85311484336853</t>
+    <t xml:space="preserve">2.85311460494995</t>
   </si>
   <si>
     <t xml:space="preserve">2.80045127868652</t>
@@ -977,13 +977,13 @@
     <t xml:space="preserve">2.80354881286621</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92126679420471</t>
+    <t xml:space="preserve">2.92126703262329</t>
   </si>
   <si>
     <t xml:space="preserve">2.93210911750793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9166202545166</t>
+    <t xml:space="preserve">2.91662001609802</t>
   </si>
   <si>
     <t xml:space="preserve">2.90577793121338</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">2.87789750099182</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87944626808167</t>
+    <t xml:space="preserve">2.87944602966309</t>
   </si>
   <si>
     <t xml:space="preserve">2.90422892570496</t>
@@ -1010,16 +1010,16 @@
     <t xml:space="preserve">2.83917379379272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87015295028687</t>
+    <t xml:space="preserve">2.87015271186829</t>
   </si>
   <si>
     <t xml:space="preserve">2.86240839958191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86085915565491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84227180480957</t>
+    <t xml:space="preserve">2.86085939407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84227156639099</t>
   </si>
   <si>
     <t xml:space="preserve">2.84072256088257</t>
@@ -1037,10 +1037,10 @@
     <t xml:space="preserve">2.78341293334961</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81129336357117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78960871696472</t>
+    <t xml:space="preserve">2.81129360198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78960847854614</t>
   </si>
   <si>
     <t xml:space="preserve">2.72610306739807</t>
@@ -1049,10 +1049,10 @@
     <t xml:space="preserve">2.76017928123474</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70441770553589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66259694099426</t>
+    <t xml:space="preserve">2.70441746711731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66259670257568</t>
   </si>
   <si>
     <t xml:space="preserve">2.68118405342102</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">2.69822192192078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71371102333069</t>
+    <t xml:space="preserve">2.71371078491211</t>
   </si>
   <si>
     <t xml:space="preserve">2.73384761810303</t>
@@ -1088,19 +1088,19 @@
     <t xml:space="preserve">2.76327705383301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82988023757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81748914718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77411961555481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70286846160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69512438774109</t>
+    <t xml:space="preserve">2.82987999916077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8174889087677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77411937713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70286870002747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69512414932251</t>
   </si>
   <si>
     <t xml:space="preserve">2.67034149169922</t>
@@ -1115,25 +1115,25 @@
     <t xml:space="preserve">2.64865684509277</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68273258209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66104817390442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67189025878906</t>
+    <t xml:space="preserve">2.68273282051086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66104793548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67189049720764</t>
   </si>
   <si>
     <t xml:space="preserve">2.67653727531433</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65485239028931</t>
+    <t xml:space="preserve">2.65485262870789</t>
   </si>
   <si>
     <t xml:space="preserve">2.69202613830566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62387418746948</t>
+    <t xml:space="preserve">2.6238739490509</t>
   </si>
   <si>
     <t xml:space="preserve">2.57895469665527</t>
@@ -1157,19 +1157,19 @@
     <t xml:space="preserve">2.34042143821716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35436177253723</t>
+    <t xml:space="preserve">2.35436153411865</t>
   </si>
   <si>
     <t xml:space="preserve">2.37914419174194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42406272888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44729661941528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44884514808655</t>
+    <t xml:space="preserve">2.42406296730042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44729685783386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44884538650513</t>
   </si>
   <si>
     <t xml:space="preserve">2.49066686630249</t>
@@ -1181,7 +1181,7 @@
     <t xml:space="preserve">2.54797673225403</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58670020103455</t>
+    <t xml:space="preserve">2.58669996261597</t>
   </si>
   <si>
     <t xml:space="preserve">2.50925397872925</t>
@@ -1193,13 +1193,13 @@
     <t xml:space="preserve">2.52784085273743</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50770497322083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54642748832703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56346559524536</t>
+    <t xml:space="preserve">2.50770473480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54642772674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56346583366394</t>
   </si>
   <si>
     <t xml:space="preserve">2.5712103843689</t>
@@ -1208,10 +1208,10 @@
     <t xml:space="preserve">2.57740616798401</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50305795669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45658993721008</t>
+    <t xml:space="preserve">2.50305819511414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4565896987915</t>
   </si>
   <si>
     <t xml:space="preserve">2.36210632324219</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">2.3977313041687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39308404922485</t>
+    <t xml:space="preserve">2.39308428764343</t>
   </si>
   <si>
     <t xml:space="preserve">2.33887267112732</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">2.47827553749084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.475177526474</t>
+    <t xml:space="preserve">2.47517776489258</t>
   </si>
   <si>
     <t xml:space="preserve">2.55881881713867</t>
@@ -1262,31 +1262,31 @@
     <t xml:space="preserve">2.51235198974609</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53403663635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56501460075378</t>
+    <t xml:space="preserve">2.53403639793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56501483917236</t>
   </si>
   <si>
     <t xml:space="preserve">2.57430815696716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57585716247559</t>
+    <t xml:space="preserve">2.57585740089417</t>
   </si>
   <si>
     <t xml:space="preserve">2.49376463890076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51699829101562</t>
+    <t xml:space="preserve">2.51699805259705</t>
   </si>
   <si>
     <t xml:space="preserve">2.49996042251587</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47672629356384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3884379863739</t>
+    <t xml:space="preserve">2.47672653198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38843774795532</t>
   </si>
   <si>
     <t xml:space="preserve">2.47982430458069</t>
@@ -1295,22 +1295,22 @@
     <t xml:space="preserve">2.46743321418762</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4860200881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47207999229431</t>
+    <t xml:space="preserve">2.48602032661438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47207975387573</t>
   </si>
   <si>
     <t xml:space="preserve">2.5417811870575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60218930244446</t>
+    <t xml:space="preserve">2.60218954086304</t>
   </si>
   <si>
     <t xml:space="preserve">2.53248739242554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48137331008911</t>
+    <t xml:space="preserve">2.48137307167053</t>
   </si>
   <si>
     <t xml:space="preserve">2.52164506912231</t>
@@ -1322,7 +1322,7 @@
     <t xml:space="preserve">2.4953134059906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47053122520447</t>
+    <t xml:space="preserve">2.47053098678589</t>
   </si>
   <si>
     <t xml:space="preserve">2.46433544158936</t>
@@ -1337,10 +1337,10 @@
     <t xml:space="preserve">2.49221611022949</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56811261177063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56966161727905</t>
+    <t xml:space="preserve">2.56811237335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56966137886047</t>
   </si>
   <si>
     <t xml:space="preserve">2.55572152137756</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">2.78651070594788</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91352272033691</t>
+    <t xml:space="preserve">2.91352248191833</t>
   </si>
   <si>
     <t xml:space="preserve">2.90267992019653</t>
@@ -1367,7 +1367,7 @@
     <t xml:space="preserve">3.04363179206848</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03588724136353</t>
+    <t xml:space="preserve">3.0358874797821</t>
   </si>
   <si>
     <t xml:space="preserve">3.07306122779846</t>
@@ -1376,7 +1376,7 @@
     <t xml:space="preserve">3.10713791847229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03124070167542</t>
+    <t xml:space="preserve">3.03124046325684</t>
   </si>
   <si>
     <t xml:space="preserve">2.92591381072998</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">3.02659392356873</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00645804405212</t>
+    <t xml:space="preserve">3.00645780563354</t>
   </si>
   <si>
     <t xml:space="preserve">3.03898525238037</t>
@@ -1400,13 +1400,13 @@
     <t xml:space="preserve">2.94295167922974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93365812301636</t>
+    <t xml:space="preserve">2.93365836143494</t>
   </si>
   <si>
     <t xml:space="preserve">2.82213592529297</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85056233406067</t>
+    <t xml:space="preserve">2.85056209564209</t>
   </si>
   <si>
     <t xml:space="preserve">2.83950781822205</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">2.81897735595703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70842885971069</t>
+    <t xml:space="preserve">2.70842862129211</t>
   </si>
   <si>
     <t xml:space="preserve">2.65947222709656</t>
@@ -1433,10 +1433,10 @@
     <t xml:space="preserve">2.74791026115417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79686784744263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76054430007935</t>
+    <t xml:space="preserve">2.79686808586121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76054406166077</t>
   </si>
   <si>
     <t xml:space="preserve">2.69895362854004</t>
@@ -1451,13 +1451,13 @@
     <t xml:space="preserve">2.77475833892822</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73053860664368</t>
+    <t xml:space="preserve">2.7305383682251</t>
   </si>
   <si>
     <t xml:space="preserve">2.74317264556885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73843479156494</t>
+    <t xml:space="preserve">2.73843455314636</t>
   </si>
   <si>
     <t xml:space="preserve">2.72738003730774</t>
@@ -1469,13 +1469,13 @@
     <t xml:space="preserve">2.69263648986816</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68947839736938</t>
+    <t xml:space="preserve">2.68947815895081</t>
   </si>
   <si>
     <t xml:space="preserve">2.71790432929993</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72264242172241</t>
+    <t xml:space="preserve">2.72264218330383</t>
   </si>
   <si>
     <t xml:space="preserve">2.84266591072083</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">2.89793992042542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88214731216431</t>
+    <t xml:space="preserve">2.88214707374573</t>
   </si>
   <si>
     <t xml:space="preserve">2.84740400314331</t>
@@ -1499,10 +1499,10 @@
     <t xml:space="preserve">2.82213568687439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.820556640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8379282951355</t>
+    <t xml:space="preserve">2.82055640220642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83792805671692</t>
   </si>
   <si>
     <t xml:space="preserve">2.83161115646362</t>
@@ -1520,7 +1520,7 @@
     <t xml:space="preserve">2.85372090339661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90741586685181</t>
+    <t xml:space="preserve">2.90741610527039</t>
   </si>
   <si>
     <t xml:space="preserve">2.92636704444885</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">2.92794632911682</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98006153106689</t>
+    <t xml:space="preserve">2.98006129264832</t>
   </si>
   <si>
     <t xml:space="preserve">2.89951872825623</t>
@@ -1541,10 +1541,10 @@
     <t xml:space="preserve">2.88372659683228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88056802749634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86793398857117</t>
+    <t xml:space="preserve">2.88056826591492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86793375015259</t>
   </si>
   <si>
     <t xml:space="preserve">2.83476972579956</t>
@@ -1553,13 +1553,13 @@
     <t xml:space="preserve">2.83003211021423</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7589647769928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80002617835999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79528832435608</t>
+    <t xml:space="preserve">2.75896501541138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80002641677856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79528856277466</t>
   </si>
   <si>
     <t xml:space="preserve">2.77317905426025</t>
@@ -1571,10 +1571,10 @@
     <t xml:space="preserve">2.71632504463196</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66578936576843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64841771125793</t>
+    <t xml:space="preserve">2.66578960418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64841794967651</t>
   </si>
   <si>
     <t xml:space="preserve">2.68000245094299</t>
@@ -1595,13 +1595,13 @@
     <t xml:space="preserve">2.87583017349243</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85214161872864</t>
+    <t xml:space="preserve">2.85214138031006</t>
   </si>
   <si>
     <t xml:space="preserve">2.81108117103577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81739783287048</t>
+    <t xml:space="preserve">2.81739807128906</t>
   </si>
   <si>
     <t xml:space="preserve">2.82529425621033</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">2.40679097175598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3894190788269</t>
+    <t xml:space="preserve">2.38941884040833</t>
   </si>
   <si>
     <t xml:space="preserve">2.38783955574036</t>
@@ -1655,13 +1655,13 @@
     <t xml:space="preserve">2.29150485992432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26465749740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23623013496399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18727326393127</t>
+    <t xml:space="preserve">2.26465725898743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23623037338257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18727350234985</t>
   </si>
   <si>
     <t xml:space="preserve">2.15252995491028</t>
@@ -1679,7 +1679,7 @@
     <t xml:space="preserve">2.20148682594299</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24254846572876</t>
+    <t xml:space="preserve">2.24254822731018</t>
   </si>
   <si>
     <t xml:space="preserve">2.2883460521698</t>
@@ -1688,25 +1688,25 @@
     <t xml:space="preserve">2.26781606674194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24886512756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25202345848083</t>
+    <t xml:space="preserve">2.2488648891449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25202322006226</t>
   </si>
   <si>
     <t xml:space="preserve">2.25044417381287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23938870429993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19516944885254</t>
+    <t xml:space="preserve">2.23938894271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19516968727112</t>
   </si>
   <si>
     <t xml:space="preserve">2.21570014953613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19674897193909</t>
+    <t xml:space="preserve">2.19674873352051</t>
   </si>
   <si>
     <t xml:space="preserve">2.19359064102173</t>
@@ -1724,10 +1724,10 @@
     <t xml:space="preserve">2.12094473838806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10199332237244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12568259239197</t>
+    <t xml:space="preserve">2.10199356079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12568283081055</t>
   </si>
   <si>
     <t xml:space="preserve">2.22833395004272</t>
@@ -1736,19 +1736,19 @@
     <t xml:space="preserve">2.21096229553223</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22675466537476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19201135635376</t>
+    <t xml:space="preserve">2.22675490379333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19201159477234</t>
   </si>
   <si>
     <t xml:space="preserve">2.2346510887146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20306587219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09567618370056</t>
+    <t xml:space="preserve">2.20306611061096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09567642211914</t>
   </si>
   <si>
     <t xml:space="preserve">2.124103307724</t>
@@ -1769,7 +1769,7 @@
     <t xml:space="preserve">2.02776837348938</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12252449989319</t>
+    <t xml:space="preserve">2.12252426147461</t>
   </si>
   <si>
     <t xml:space="preserve">2.05145740509033</t>
@@ -1787,7 +1787,7 @@
     <t xml:space="preserve">2.06409120559692</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13515853881836</t>
+    <t xml:space="preserve">2.13515830039978</t>
   </si>
   <si>
     <t xml:space="preserve">2.1462128162384</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">2.13357925415039</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08777976036072</t>
+    <t xml:space="preserve">2.0877799987793</t>
   </si>
   <si>
     <t xml:space="preserve">2.02303075790405</t>
@@ -1814,13 +1814,13 @@
     <t xml:space="preserve">2.02934765815735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99776291847229</t>
+    <t xml:space="preserve">1.99776268005371</t>
   </si>
   <si>
     <t xml:space="preserve">1.98512876033783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9693351984024</t>
+    <t xml:space="preserve">1.96933543682098</t>
   </si>
   <si>
     <t xml:space="preserve">2.01987218856812</t>
@@ -1835,7 +1835,7 @@
     <t xml:space="preserve">1.90932393074036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83825695514679</t>
+    <t xml:space="preserve">1.8382568359375</t>
   </si>
   <si>
     <t xml:space="preserve">1.8161473274231</t>
@@ -1844,10 +1844,10 @@
     <t xml:space="preserve">1.83193981647491</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8556295633316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91090321540833</t>
+    <t xml:space="preserve">1.85562944412231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91090333461761</t>
   </si>
   <si>
     <t xml:space="preserve">1.88879370689392</t>
@@ -1862,7 +1862,7 @@
     <t xml:space="preserve">1.9345920085907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96459770202637</t>
+    <t xml:space="preserve">1.96459794044495</t>
   </si>
   <si>
     <t xml:space="preserve">2.01039671897888</t>
@@ -1874,16 +1874,16 @@
     <t xml:space="preserve">1.97723162174225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97091495990753</t>
+    <t xml:space="preserve">1.97091472148895</t>
   </si>
   <si>
     <t xml:space="preserve">1.96301829814911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9740731716156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9677562713623</t>
+    <t xml:space="preserve">1.97407341003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96775650978088</t>
   </si>
   <si>
     <t xml:space="preserve">2.03250622749329</t>
@@ -1904,16 +1904,16 @@
     <t xml:space="preserve">1.93143343925476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93301260471344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91879940032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88089740276337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94248819351196</t>
+    <t xml:space="preserve">1.93301272392273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91879951953888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88089752197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94248843193054</t>
   </si>
   <si>
     <t xml:space="preserve">1.94090890884399</t>
@@ -1922,58 +1922,58 @@
     <t xml:space="preserve">1.96617698669434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92353701591492</t>
+    <t xml:space="preserve">1.92353713512421</t>
   </si>
   <si>
     <t xml:space="preserve">1.9014276266098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93775045871735</t>
+    <t xml:space="preserve">1.93775057792664</t>
   </si>
   <si>
     <t xml:space="preserve">1.92669546604156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92511641979218</t>
+    <t xml:space="preserve">1.92511653900146</t>
   </si>
   <si>
     <t xml:space="preserve">1.93617129325867</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90774476528168</t>
+    <t xml:space="preserve">1.90774500370026</t>
   </si>
   <si>
     <t xml:space="preserve">1.8793181180954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83509838581085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82878160476685</t>
+    <t xml:space="preserve">1.83509850502014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82878148555756</t>
   </si>
   <si>
     <t xml:space="preserve">1.86984252929688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89037299156189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89826893806458</t>
+    <t xml:space="preserve">1.8903728723526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89826905727386</t>
   </si>
   <si>
     <t xml:space="preserve">1.90458619594574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91564083099365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8730012178421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78456246852875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79877555370331</t>
+    <t xml:space="preserve">1.91564095020294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87300109863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78456234931946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79877543449402</t>
   </si>
   <si>
     <t xml:space="preserve">1.72613024711609</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">1.645587682724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66927647590637</t>
+    <t xml:space="preserve">1.66927635669708</t>
   </si>
   <si>
     <t xml:space="preserve">1.65190470218658</t>
@@ -1997,16 +1997,16 @@
     <t xml:space="preserve">1.64543306827545</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6761736869812</t>
+    <t xml:space="preserve">1.67617356777191</t>
   </si>
   <si>
     <t xml:space="preserve">1.65352272987366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66646587848663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64866888523102</t>
+    <t xml:space="preserve">1.66646599769592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64866900444031</t>
   </si>
   <si>
     <t xml:space="preserve">1.65514051914215</t>
@@ -2018,16 +2018,16 @@
     <t xml:space="preserve">1.69720637798309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67940926551819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68102717399597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70206022262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61792755126953</t>
+    <t xml:space="preserve">1.6794091463089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68102705478668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70206010341644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61792767047882</t>
   </si>
   <si>
     <t xml:space="preserve">1.62763583660126</t>
@@ -2048,13 +2048,13 @@
     <t xml:space="preserve">1.55482876300812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5734349489212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60013031959534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58961403369904</t>
+    <t xml:space="preserve">1.57343482971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60013043880463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58961391448975</t>
   </si>
   <si>
     <t xml:space="preserve">1.60741114616394</t>
@@ -2078,16 +2078,16 @@
     <t xml:space="preserve">1.64219725131989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68749892711639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67455554008484</t>
+    <t xml:space="preserve">1.6874988079071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67455542087555</t>
   </si>
   <si>
     <t xml:space="preserve">1.63410770893097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61145579814911</t>
+    <t xml:space="preserve">1.6114559173584</t>
   </si>
   <si>
     <t xml:space="preserve">1.57828855514526</t>
@@ -2099,10 +2099,10 @@
     <t xml:space="preserve">1.55240190029144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5572555065155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57100796699524</t>
+    <t xml:space="preserve">1.55725562572479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57100784778595</t>
   </si>
   <si>
     <t xml:space="preserve">1.55321097373962</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">1.54026746749878</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52408838272095</t>
+    <t xml:space="preserve">1.52408826351166</t>
   </si>
   <si>
     <t xml:space="preserve">1.52166152000427</t>
@@ -2123,19 +2123,19 @@
     <t xml:space="preserve">1.5289421081543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51761662960052</t>
+    <t xml:space="preserve">1.51761674880981</t>
   </si>
   <si>
     <t xml:space="preserve">1.50710010528564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50062835216522</t>
+    <t xml:space="preserve">1.50062847137451</t>
   </si>
   <si>
     <t xml:space="preserve">1.49011206626892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48525762557983</t>
+    <t xml:space="preserve">1.48525750637054</t>
   </si>
   <si>
     <t xml:space="preserve">1.37523889541626</t>
@@ -2159,22 +2159,22 @@
     <t xml:space="preserve">1.30890345573425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31861114501953</t>
+    <t xml:space="preserve">1.31861102581024</t>
   </si>
   <si>
     <t xml:space="preserve">1.36795830726624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35663294792175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36714947223663</t>
+    <t xml:space="preserve">1.35663306713104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36714935302734</t>
   </si>
   <si>
     <t xml:space="preserve">1.4075973033905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36148655414581</t>
+    <t xml:space="preserve">1.3614866733551</t>
   </si>
   <si>
     <t xml:space="preserve">1.37362098693848</t>
@@ -2183,31 +2183,31 @@
     <t xml:space="preserve">1.37928378582001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45451688766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48202168941498</t>
+    <t xml:space="preserve">1.45451700687408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48202157020569</t>
   </si>
   <si>
     <t xml:space="preserve">1.47231411933899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44885420799255</t>
+    <t xml:space="preserve">1.44885432720184</t>
   </si>
   <si>
     <t xml:space="preserve">1.5103360414505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49820160865784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46422445774078</t>
+    <t xml:space="preserve">1.49820172786713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46422457695007</t>
   </si>
   <si>
     <t xml:space="preserve">1.44723629951477</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45613491535187</t>
+    <t xml:space="preserve">1.45613503456116</t>
   </si>
   <si>
     <t xml:space="preserve">1.46179759502411</t>
@@ -2231,7 +2231,7 @@
     <t xml:space="preserve">1.34449768066406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36553144454956</t>
+    <t xml:space="preserve">1.36553156375885</t>
   </si>
   <si>
     <t xml:space="preserve">1.3711941242218</t>
@@ -2243,7 +2243,7 @@
     <t xml:space="preserve">1.34368872642517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35986864566803</t>
+    <t xml:space="preserve">1.35986876487732</t>
   </si>
   <si>
     <t xml:space="preserve">1.37281203269958</t>
@@ -2252,7 +2252,7 @@
     <t xml:space="preserve">1.39708089828491</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43186593055725</t>
+    <t xml:space="preserve">1.43186604976654</t>
   </si>
   <si>
     <t xml:space="preserve">1.45775282382965</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">1.4812126159668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44804537296295</t>
+    <t xml:space="preserve">1.44804549217224</t>
   </si>
   <si>
     <t xml:space="preserve">1.45370805263519</t>
@@ -2276,22 +2276,22 @@
     <t xml:space="preserve">1.45937085151672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43671989440918</t>
+    <t xml:space="preserve">1.43672001361847</t>
   </si>
   <si>
     <t xml:space="preserve">1.46503353118896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52651512622833</t>
+    <t xml:space="preserve">1.52651500701904</t>
   </si>
   <si>
     <t xml:space="preserve">1.51842558383942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53541386127472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50548219680786</t>
+    <t xml:space="preserve">1.53541374206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50548231601715</t>
   </si>
   <si>
     <t xml:space="preserve">1.53703165054321</t>
@@ -2303,7 +2303,7 @@
     <t xml:space="preserve">1.69558846950531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69073486328125</t>
+    <t xml:space="preserve">1.69073474407196</t>
   </si>
   <si>
     <t xml:space="preserve">1.69397056102753</t>
@@ -2333,25 +2333,25 @@
     <t xml:space="preserve">1.73603653907776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65999412536621</t>
+    <t xml:space="preserve">1.6599942445755</t>
   </si>
   <si>
     <t xml:space="preserve">1.68426311016083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72632884979248</t>
+    <t xml:space="preserve">1.72632873058319</t>
   </si>
   <si>
     <t xml:space="preserve">1.75868833065033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72794687747955</t>
+    <t xml:space="preserve">1.72794699668884</t>
   </si>
   <si>
     <t xml:space="preserve">1.73280072212219</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7052960395813</t>
+    <t xml:space="preserve">1.70529615879059</t>
   </si>
   <si>
     <t xml:space="preserve">1.70044231414795</t>
@@ -2375,13 +2375,13 @@
     <t xml:space="preserve">1.71823930740356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69882452487946</t>
+    <t xml:space="preserve">1.69882440567017</t>
   </si>
   <si>
     <t xml:space="preserve">1.7133857011795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71014976501465</t>
+    <t xml:space="preserve">1.71014964580536</t>
   </si>
   <si>
     <t xml:space="preserve">1.70367801189423</t>
@@ -2399,7 +2399,7 @@
     <t xml:space="preserve">1.6324896812439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65028667449951</t>
+    <t xml:space="preserve">1.6502867937088</t>
   </si>
   <si>
     <t xml:space="preserve">1.75545156002045</t>
@@ -2408,31 +2408,31 @@
     <t xml:space="preserve">1.88488590717316</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93504202365875</t>
+    <t xml:space="preserve">1.93504214286804</t>
   </si>
   <si>
     <t xml:space="preserve">1.91077327728271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97063612937927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17449593544006</t>
+    <t xml:space="preserve">1.97063624858856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17449569702148</t>
   </si>
   <si>
     <t xml:space="preserve">2.21656179428101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0871274471283</t>
+    <t xml:space="preserve">2.08712720870972</t>
   </si>
   <si>
     <t xml:space="preserve">2.02564549446106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90591979026794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89944767951965</t>
+    <t xml:space="preserve">1.90591967105865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89944779872894</t>
   </si>
   <si>
     <t xml:space="preserve">1.94636762142181</t>
@@ -2456,10 +2456,10 @@
     <t xml:space="preserve">1.2846348285675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26845550537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02819299697876</t>
+    <t xml:space="preserve">1.26845562458038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02819287776947</t>
   </si>
   <si>
     <t xml:space="preserve">1.06621420383453</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">1.01282274723053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03142881393433</t>
+    <t xml:space="preserve">1.03142869472504</t>
   </si>
   <si>
     <t xml:space="preserve">1.0912926197052</t>
@@ -2486,7 +2486,7 @@
     <t xml:space="preserve">1.14791977405548</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15600943565369</t>
+    <t xml:space="preserve">1.15600955486298</t>
   </si>
   <si>
     <t xml:space="preserve">1.14387500286102</t>
@@ -2516,10 +2516,10 @@
     <t xml:space="preserve">1.21991789340973</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28787052631378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25065851211548</t>
+    <t xml:space="preserve">1.28787064552307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25065839290619</t>
   </si>
   <si>
     <t xml:space="preserve">1.24904048442841</t>
@@ -2528,7 +2528,7 @@
     <t xml:space="preserve">1.16490793228149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14306592941284</t>
+    <t xml:space="preserve">1.14306604862213</t>
   </si>
   <si>
     <t xml:space="preserve">1.17218852043152</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">1.13902127742767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1729975938797</t>
+    <t xml:space="preserve">1.17299747467041</t>
   </si>
   <si>
     <t xml:space="preserve">1.15520036220551</t>
@@ -2549,19 +2549,19 @@
     <t xml:space="preserve">1.15115559101105</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1640989780426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17057073116302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11151659488678</t>
+    <t xml:space="preserve">1.16409909725189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17057061195374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11151671409607</t>
   </si>
   <si>
     <t xml:space="preserve">1.14953768253326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12445986270905</t>
+    <t xml:space="preserve">1.12445998191833</t>
   </si>
   <si>
     <t xml:space="preserve">1.1090897321701</t>
@@ -2585,25 +2585,25 @@
     <t xml:space="preserve">1.05974233150482</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01039588451385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99259877204895</t>
+    <t xml:space="preserve">1.01039600372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992598831653595</t>
   </si>
   <si>
     <t xml:space="preserve">0.986935973167419</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978846490383148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05650663375854</t>
+    <t xml:space="preserve">0.978846549987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05650651454926</t>
   </si>
   <si>
     <t xml:space="preserve">1.06864094734192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13416743278503</t>
+    <t xml:space="preserve">1.13416755199432</t>
   </si>
   <si>
     <t xml:space="preserve">1.17542433738708</t>
@@ -2612,7 +2612,7 @@
     <t xml:space="preserve">1.18108689785004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21506333351135</t>
+    <t xml:space="preserve">1.21506345272064</t>
   </si>
   <si>
     <t xml:space="preserve">1.26602864265442</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">1.27411830425262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22962558269501</t>
+    <t xml:space="preserve">1.22962546348572</t>
   </si>
   <si>
     <t xml:space="preserve">1.25146734714508</t>
@@ -2654,16 +2654,16 @@
     <t xml:space="preserve">1.38494646549225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46017968654633</t>
+    <t xml:space="preserve">1.46017980575562</t>
   </si>
   <si>
     <t xml:space="preserve">1.50386428833008</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51195383071899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4933477640152</t>
+    <t xml:space="preserve">1.51195394992828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49334788322449</t>
   </si>
   <si>
     <t xml:space="preserve">1.49901056289673</t>
@@ -2684,7 +2684,7 @@
     <t xml:space="preserve">1.55159282684326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59365892410278</t>
+    <t xml:space="preserve">1.59365880489349</t>
   </si>
   <si>
     <t xml:space="preserve">1.58152437210083</t>
@@ -2702,22 +2702,22 @@
     <t xml:space="preserve">1.43833780288696</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46665155887604</t>
+    <t xml:space="preserve">1.46665143966675</t>
   </si>
   <si>
     <t xml:space="preserve">1.53379583358765</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54835712909698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57990646362305</t>
+    <t xml:space="preserve">1.5483570098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57990658283234</t>
   </si>
   <si>
     <t xml:space="preserve">1.59042310714722</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66161227226257</t>
+    <t xml:space="preserve">1.66161239147186</t>
   </si>
   <si>
     <t xml:space="preserve">1.62925374507904</t>
@@ -2726,7 +2726,7 @@
     <t xml:space="preserve">1.47716772556305</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47635877132416</t>
+    <t xml:space="preserve">1.47635889053345</t>
   </si>
   <si>
     <t xml:space="preserve">1.43995571136475</t>
@@ -2735,10 +2735,10 @@
     <t xml:space="preserve">1.46988725662231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49415671825409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47797691822052</t>
+    <t xml:space="preserve">1.49415683746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47797679901123</t>
   </si>
   <si>
     <t xml:space="preserve">1.48687613010406</t>
@@ -2768,7 +2768,7 @@
     <t xml:space="preserve">1.49739265441895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46746027469635</t>
+    <t xml:space="preserve">1.46746039390564</t>
   </si>
   <si>
     <t xml:space="preserve">1.48040366172791</t>
@@ -2795,10 +2795,10 @@
     <t xml:space="preserve">1.35501503944397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31213927268982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32993650436401</t>
+    <t xml:space="preserve">1.31213939189911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32993638515472</t>
   </si>
   <si>
     <t xml:space="preserve">1.19726634025574</t>
@@ -2807,7 +2807,7 @@
     <t xml:space="preserve">1.18674981594086</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21910905838013</t>
+    <t xml:space="preserve">1.21910893917084</t>
   </si>
   <si>
     <t xml:space="preserve">1.31456625461578</t>
@@ -2819,7 +2819,7 @@
     <t xml:space="preserve">1.32670056819916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31618404388428</t>
+    <t xml:space="preserve">1.31618416309357</t>
   </si>
   <si>
     <t xml:space="preserve">1.54512119293213</t>
@@ -2834,22 +2834,22 @@
     <t xml:space="preserve">1.66484808921814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94151389598846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90915548801422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90106594562531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88326787948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81369733810425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84443795681</t>
+    <t xml:space="preserve">1.94151377677917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90915560722351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90106582641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88326776027679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81369745731354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84443783760071</t>
   </si>
   <si>
     <t xml:space="preserve">1.80560767650604</t>
@@ -2861,7 +2861,7 @@
     <t xml:space="preserve">1.82502281665802</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85414552688599</t>
+    <t xml:space="preserve">1.8541454076767</t>
   </si>
   <si>
     <t xml:space="preserve">1.85090970993042</t>
@@ -2870,13 +2870,13 @@
     <t xml:space="preserve">1.82016909122467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78781080245972</t>
+    <t xml:space="preserve">1.78781068325043</t>
   </si>
   <si>
     <t xml:space="preserve">1.78133881092072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79913628101349</t>
+    <t xml:space="preserve">1.7991361618042</t>
   </si>
   <si>
     <t xml:space="preserve">1.77972114086151</t>
@@ -2891,28 +2891,28 @@
     <t xml:space="preserve">1.73118269443512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7522155046463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77648532390594</t>
+    <t xml:space="preserve">1.75221562385559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77648520469666</t>
   </si>
   <si>
     <t xml:space="preserve">1.78457498550415</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78295683860779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86870670318604</t>
+    <t xml:space="preserve">1.78295695781708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86870682239532</t>
   </si>
   <si>
     <t xml:space="preserve">1.90430152416229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88165009021759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84281980991364</t>
+    <t xml:space="preserve">1.8816499710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84281969070435</t>
   </si>
   <si>
     <t xml:space="preserve">1.86061692237854</t>
@@ -2924,7 +2924,7 @@
     <t xml:space="preserve">1.77001357078552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79428231716156</t>
+    <t xml:space="preserve">1.79428243637085</t>
   </si>
   <si>
     <t xml:space="preserve">1.7716315984726</t>
@@ -2945,13 +2945,13 @@
     <t xml:space="preserve">1.73765432834625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87194228172302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02079176902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99005126953125</t>
+    <t xml:space="preserve">1.8719425201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02079200744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99005150794983</t>
   </si>
   <si>
     <t xml:space="preserve">2.01432013511658</t>
@@ -2960,7 +2960,7 @@
     <t xml:space="preserve">2.00137662887573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98681557178497</t>
+    <t xml:space="preserve">1.98681545257568</t>
   </si>
   <si>
     <t xml:space="preserve">2.02402758598328</t>
@@ -2984,7 +2984,7 @@
     <t xml:space="preserve">1.95607495307922</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93666005134583</t>
+    <t xml:space="preserve">1.93665993213654</t>
   </si>
   <si>
     <t xml:space="preserve">1.9301882982254</t>
@@ -2993,10 +2993,10 @@
     <t xml:space="preserve">1.97710788249969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96578252315521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9576929807663</t>
+    <t xml:space="preserve">1.9657826423645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95769309997559</t>
   </si>
   <si>
     <t xml:space="preserve">2.00461268424988</t>
@@ -3005,7 +3005,7 @@
     <t xml:space="preserve">1.99652290344238</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06447672843933</t>
+    <t xml:space="preserve">2.06447649002075</t>
   </si>
   <si>
     <t xml:space="preserve">2.12110352516174</t>
@@ -3023,10 +3023,10 @@
     <t xml:space="preserve">2.3055477142334</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28127813339233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25700950622559</t>
+    <t xml:space="preserve">2.28127837181091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25700974464417</t>
   </si>
   <si>
     <t xml:space="preserve">2.30878376960754</t>
@@ -3035,10 +3035,10 @@
     <t xml:space="preserve">2.28775000572205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29098582267761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38320803642273</t>
+    <t xml:space="preserve">2.29098606109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38320779800415</t>
   </si>
   <si>
     <t xml:space="preserve">2.31040167808533</t>
@@ -3047,7 +3047,7 @@
     <t xml:space="preserve">2.34599590301514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34276008605957</t>
+    <t xml:space="preserve">2.34275984764099</t>
   </si>
   <si>
     <t xml:space="preserve">2.32334494590759</t>
@@ -3071,13 +3071,13 @@
     <t xml:space="preserve">2.396151304245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40585899353027</t>
+    <t xml:space="preserve">2.40585875511169</t>
   </si>
   <si>
     <t xml:space="preserve">2.40909457206726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53852915763855</t>
+    <t xml:space="preserve">2.53852891921997</t>
   </si>
   <si>
     <t xml:space="preserve">2.57088804244995</t>
@@ -3086,7 +3086,7 @@
     <t xml:space="preserve">2.65825581550598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73106288909912</t>
+    <t xml:space="preserve">2.7310631275177</t>
   </si>
   <si>
     <t xml:space="preserve">2.83137392997742</t>
@@ -3095,7 +3095,7 @@
     <t xml:space="preserve">2.80386924743652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78769016265869</t>
+    <t xml:space="preserve">2.78768992424011</t>
   </si>
   <si>
     <t xml:space="preserve">2.89447355270386</t>
@@ -3116,7 +3116,7 @@
     <t xml:space="preserve">3.06597352027893</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15172410011292</t>
+    <t xml:space="preserve">3.15172433853149</t>
   </si>
   <si>
     <t xml:space="preserve">3.15495991706848</t>
@@ -3125,16 +3125,16 @@
     <t xml:space="preserve">3.14039874076843</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19217205047607</t>
+    <t xml:space="preserve">3.19217228889465</t>
   </si>
   <si>
     <t xml:space="preserve">3.17761087417603</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16790342330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19055414199829</t>
+    <t xml:space="preserve">3.16790366172791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19055438041687</t>
   </si>
   <si>
     <t xml:space="preserve">3.30391597747803</t>
@@ -3149,7 +3149,7 @@
     <t xml:space="preserve">3.37784695625305</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31213045120239</t>
+    <t xml:space="preserve">3.31213021278381</t>
   </si>
   <si>
     <t xml:space="preserve">3.33677434921265</t>
@@ -3158,7 +3158,7 @@
     <t xml:space="preserve">3.4205629825592</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44520711898804</t>
+    <t xml:space="preserve">3.44520735740662</t>
   </si>
   <si>
     <t xml:space="preserve">3.41563391685486</t>
@@ -3191,7 +3191,7 @@
     <t xml:space="preserve">3.10840773582458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03283381462097</t>
+    <t xml:space="preserve">3.03283405303955</t>
   </si>
   <si>
     <t xml:space="preserve">3.0016176700592</t>
@@ -3203,7 +3203,7 @@
     <t xml:space="preserve">2.93097233772278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99340319633484</t>
+    <t xml:space="preserve">2.99340343475342</t>
   </si>
   <si>
     <t xml:space="preserve">2.99176049232483</t>
@@ -3215,10 +3215,10 @@
     <t xml:space="preserve">2.9638307094574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0049033164978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99011731147766</t>
+    <t xml:space="preserve">3.00490355491638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99011707305908</t>
   </si>
   <si>
     <t xml:space="preserve">3.06076335906982</t>
@@ -3230,13 +3230,13 @@
     <t xml:space="preserve">2.94740176200867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9178295135498</t>
+    <t xml:space="preserve">2.91782927513123</t>
   </si>
   <si>
     <t xml:space="preserve">3.0459771156311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99504590034485</t>
+    <t xml:space="preserve">2.99504613876343</t>
   </si>
   <si>
     <t xml:space="preserve">2.97697401046753</t>
@@ -3263,22 +3263,22 @@
     <t xml:space="preserve">2.9819028377533</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13469457626343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09526467323303</t>
+    <t xml:space="preserve">3.13469433784485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09526443481445</t>
   </si>
   <si>
     <t xml:space="preserve">3.15276646614075</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11497950553894</t>
+    <t xml:space="preserve">3.11497926712036</t>
   </si>
   <si>
     <t xml:space="preserve">3.05419158935547</t>
   </si>
   <si>
-    <t xml:space="preserve">3.064049243927</t>
+    <t xml:space="preserve">3.06404900550842</t>
   </si>
   <si>
     <t xml:space="preserve">3.06240630149841</t>
@@ -3296,13 +3296,13 @@
     <t xml:space="preserve">3.16262459754944</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11169362068176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17905378341675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13633704185486</t>
+    <t xml:space="preserve">3.11169385910034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17905402183533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13633728027344</t>
   </si>
   <si>
     <t xml:space="preserve">3.13305163383484</t>
@@ -3323,7 +3323,7 @@
     <t xml:space="preserve">3.10512208938599</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21355533599854</t>
+    <t xml:space="preserve">3.21355509757996</t>
   </si>
   <si>
     <t xml:space="preserve">3.22176957130432</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">3.19548296928406</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19876885414124</t>
+    <t xml:space="preserve">3.19876909255981</t>
   </si>
   <si>
     <t xml:space="preserve">3.16426777839661</t>
@@ -3347,10 +3347,10 @@
     <t xml:space="preserve">3.16755342483521</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10676503181458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04433441162109</t>
+    <t xml:space="preserve">3.106764793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04433417320251</t>
   </si>
   <si>
     <t xml:space="preserve">3.07883548736572</t>
@@ -3368,13 +3368,13 @@
     <t xml:space="preserve">2.96711659431458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89482855796814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89811444282532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99668908119202</t>
+    <t xml:space="preserve">2.89482879638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89811420440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99668884277344</t>
   </si>
   <si>
     <t xml:space="preserve">3.00654649734497</t>
@@ -3392,19 +3392,19 @@
     <t xml:space="preserve">3.05090594291687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02461934089661</t>
+    <t xml:space="preserve">3.02461910247803</t>
   </si>
   <si>
     <t xml:space="preserve">3.13962316513062</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11005067825317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08869314193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07062101364136</t>
+    <t xml:space="preserve">3.11005091667175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08869290351868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07062077522278</t>
   </si>
   <si>
     <t xml:space="preserve">3.08047842979431</t>
@@ -3425,7 +3425,7 @@
     <t xml:space="preserve">3.16098189353943</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21026921272278</t>
+    <t xml:space="preserve">3.21026945114136</t>
   </si>
   <si>
     <t xml:space="preserve">3.24477028846741</t>
@@ -3437,7 +3437,7 @@
     <t xml:space="preserve">3.12812280654907</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14455199241638</t>
+    <t xml:space="preserve">3.1445517539978</t>
   </si>
   <si>
     <t xml:space="preserve">3.0854070186615</t>
@@ -3446,7 +3446,7 @@
     <t xml:space="preserve">3.11990833282471</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19384026527405</t>
+    <t xml:space="preserve">3.19384002685547</t>
   </si>
   <si>
     <t xml:space="preserve">3.24969911575317</t>
@@ -3458,10 +3458,10 @@
     <t xml:space="preserve">3.05912065505981</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00818967819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95890212059021</t>
+    <t xml:space="preserve">3.00818943977356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95890188217163</t>
   </si>
   <si>
     <t xml:space="preserve">2.97204542160034</t>
@@ -3470,7 +3470,7 @@
     <t xml:space="preserve">2.89154267311096</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89975714683533</t>
+    <t xml:space="preserve">2.89975690841675</t>
   </si>
   <si>
     <t xml:space="preserve">2.85046911239624</t>
@@ -3491,10 +3491,10 @@
     <t xml:space="preserve">2.80939626693726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8389687538147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86854100227356</t>
+    <t xml:space="preserve">2.83896851539612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86854124069214</t>
   </si>
   <si>
     <t xml:space="preserve">2.86525535583496</t>
@@ -3503,7 +3503,7 @@
     <t xml:space="preserve">2.9424729347229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91454315185547</t>
+    <t xml:space="preserve">2.91454339027405</t>
   </si>
   <si>
     <t xml:space="preserve">2.91290044784546</t>
@@ -3512,7 +3512,7 @@
     <t xml:space="preserve">2.88825678825378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85868334770203</t>
+    <t xml:space="preserve">2.85868358612061</t>
   </si>
   <si>
     <t xml:space="preserve">2.95068740844727</t>
@@ -3527,16 +3527,13 @@
     <t xml:space="preserve">3.1034791469574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19055438041687</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.06733512878418</t>
   </si>
   <si>
     <t xml:space="preserve">3.15112352371216</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25134229660034</t>
+    <t xml:space="preserve">3.25134205818176</t>
   </si>
   <si>
     <t xml:space="preserve">3.2431275844574</t>
@@ -3566,22 +3563,22 @@
     <t xml:space="preserve">3.10821199417114</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26937866210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28911328315735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37956428527832</t>
+    <t xml:space="preserve">3.26937890052795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28911352157593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37956404685974</t>
   </si>
   <si>
     <t xml:space="preserve">3.3088481426239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42561149597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44370174407959</t>
+    <t xml:space="preserve">3.42561173439026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44370198249817</t>
   </si>
   <si>
     <t xml:space="preserve">3.4157440662384</t>
@@ -3599,25 +3596,25 @@
     <t xml:space="preserve">3.15754866600037</t>
   </si>
   <si>
-    <t xml:space="preserve">2.999671459198</t>
+    <t xml:space="preserve">2.99967122077942</t>
   </si>
   <si>
     <t xml:space="preserve">3.05065274238586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91415429115295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7381865978241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77436709403992</t>
+    <t xml:space="preserve">2.91415452957153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73818683624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7743673324585</t>
   </si>
   <si>
     <t xml:space="preserve">2.72174119949341</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41420912742615</t>
+    <t xml:space="preserve">2.41420936584473</t>
   </si>
   <si>
     <t xml:space="preserve">2.40598654747009</t>
@@ -3626,7 +3623,7 @@
     <t xml:space="preserve">2.49972605705261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.715163230896</t>
+    <t xml:space="preserve">2.71516299247742</t>
   </si>
   <si>
     <t xml:space="preserve">2.57702040672302</t>
@@ -3635,7 +3632,7 @@
     <t xml:space="preserve">2.60168862342834</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71022963523865</t>
+    <t xml:space="preserve">2.71022939682007</t>
   </si>
   <si>
     <t xml:space="preserve">2.7529878616333</t>
@@ -3644,7 +3641,7 @@
     <t xml:space="preserve">2.94704580307007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9190878868103</t>
+    <t xml:space="preserve">2.91908812522888</t>
   </si>
   <si>
     <t xml:space="preserve">2.96020197868347</t>
@@ -3653,19 +3650,19 @@
     <t xml:space="preserve">2.97829222679138</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03091788291931</t>
+    <t xml:space="preserve">3.03091812133789</t>
   </si>
   <si>
     <t xml:space="preserve">2.99473762512207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99144864082336</t>
+    <t xml:space="preserve">2.99144887924194</t>
   </si>
   <si>
     <t xml:space="preserve">2.93388915061951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99638223648071</t>
+    <t xml:space="preserve">2.99638247489929</t>
   </si>
   <si>
     <t xml:space="preserve">3.13123607635498</t>
@@ -3674,7 +3671,7 @@
     <t xml:space="preserve">3.13781404495239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05723071098328</t>
+    <t xml:space="preserve">3.05723094940186</t>
   </si>
   <si>
     <t xml:space="preserve">3.09834480285645</t>
@@ -3692,7 +3689,7 @@
     <t xml:space="preserve">2.99802684783936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1427481174469</t>
+    <t xml:space="preserve">3.14274787902832</t>
   </si>
   <si>
     <t xml:space="preserve">3.1559042930603</t>
@@ -3701,7 +3698,7 @@
     <t xml:space="preserve">3.07696557044983</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14932608604431</t>
+    <t xml:space="preserve">3.14932584762573</t>
   </si>
   <si>
     <t xml:space="preserve">3.09176659584045</t>
@@ -3713,10 +3710,10 @@
     <t xml:space="preserve">3.16248250007629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11314582824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13616967201233</t>
+    <t xml:space="preserve">3.11314606666565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13616943359375</t>
   </si>
   <si>
     <t xml:space="preserve">3.12465763092041</t>
@@ -3758,13 +3755,13 @@
     <t xml:space="preserve">3.06545376777649</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05558657646179</t>
+    <t xml:space="preserve">3.05558633804321</t>
   </si>
   <si>
     <t xml:space="preserve">3.01282787322998</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27027487754822</t>
+    <t xml:space="preserve">3.2702751159668</t>
   </si>
   <si>
     <t xml:space="preserve">3.29636764526367</t>
@@ -3776,10 +3773,10 @@
     <t xml:space="preserve">3.362468957901</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33985543251038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29462814331055</t>
+    <t xml:space="preserve">3.3398551940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29462838172913</t>
   </si>
   <si>
     <t xml:space="preserve">3.26679611206055</t>
@@ -3800,7 +3797,7 @@
     <t xml:space="preserve">3.22330832481384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17808127403259</t>
+    <t xml:space="preserve">3.17808103561401</t>
   </si>
   <si>
     <t xml:space="preserve">2.95890307426453</t>
@@ -3815,10 +3812,10 @@
     <t xml:space="preserve">2.93802905082703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8510537147522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8945415019989</t>
+    <t xml:space="preserve">2.85105395317078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89454126358032</t>
   </si>
   <si>
     <t xml:space="preserve">2.96064257621765</t>
@@ -3863,16 +3860,16 @@
     <t xml:space="preserve">2.86323022842407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9571635723114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91193652153015</t>
+    <t xml:space="preserve">2.95716381072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91193628311157</t>
   </si>
   <si>
     <t xml:space="preserve">2.89628076553345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82844018936157</t>
+    <t xml:space="preserve">2.82843995094299</t>
   </si>
   <si>
     <t xml:space="preserve">2.69275832176208</t>
@@ -3881,7 +3878,7 @@
     <t xml:space="preserve">2.70841407775879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75538086891174</t>
+    <t xml:space="preserve">2.75538063049316</t>
   </si>
   <si>
     <t xml:space="preserve">2.88236474990845</t>
@@ -3890,25 +3887,25 @@
     <t xml:space="preserve">2.80060791969299</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76233863830566</t>
+    <t xml:space="preserve">2.76233887672424</t>
   </si>
   <si>
     <t xml:space="preserve">2.72754836082458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76755738258362</t>
+    <t xml:space="preserve">2.76755714416504</t>
   </si>
   <si>
     <t xml:space="preserve">2.69623732566833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74146437644958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81452417373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84931421279907</t>
+    <t xml:space="preserve">2.74146461486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81452393531799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84931397438049</t>
   </si>
   <si>
     <t xml:space="preserve">2.92411303520203</t>
@@ -3944,10 +3941,10 @@
     <t xml:space="preserve">2.74668312072754</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74494338035583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77625489234924</t>
+    <t xml:space="preserve">2.74494361877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77625465393066</t>
   </si>
   <si>
     <t xml:space="preserve">2.78495240211487</t>
@@ -3956,10 +3953,10 @@
     <t xml:space="preserve">2.74320411682129</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78147339820862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78321290016174</t>
+    <t xml:space="preserve">2.78147315979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78321266174316</t>
   </si>
   <si>
     <t xml:space="preserve">2.77277588844299</t>
@@ -3974,7 +3971,7 @@
     <t xml:space="preserve">3.01804637908936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05109715461731</t>
+    <t xml:space="preserve">3.05109691619873</t>
   </si>
   <si>
     <t xml:space="preserve">3.13633298873901</t>
@@ -3983,10 +3980,10 @@
     <t xml:space="preserve">3.11545896530151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09458494186401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04239964485168</t>
+    <t xml:space="preserve">3.09458470344543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04239940643311</t>
   </si>
   <si>
     <t xml:space="preserve">2.98847484588623</t>
@@ -3995,7 +3992,7 @@
     <t xml:space="preserve">3.05457615852356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98673510551453</t>
+    <t xml:space="preserve">2.98673534393311</t>
   </si>
   <si>
     <t xml:space="preserve">2.96238207817078</t>
@@ -4028,19 +4025,19 @@
     <t xml:space="preserve">2.83017945289612</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95194506645203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03718090057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06849241256714</t>
+    <t xml:space="preserve">2.95194530487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03718113899231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06849217414856</t>
   </si>
   <si>
     <t xml:space="preserve">3.08240818977356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12415647506714</t>
+    <t xml:space="preserve">3.12415623664856</t>
   </si>
   <si>
     <t xml:space="preserve">3.16938376426697</t>
@@ -4055,7 +4052,7 @@
     <t xml:space="preserve">3.16590476036072</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15720725059509</t>
+    <t xml:space="preserve">3.15720701217651</t>
   </si>
   <si>
     <t xml:space="preserve">3.16764402389526</t>
@@ -4064,19 +4061,19 @@
     <t xml:space="preserve">3.24592208862305</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26157736778259</t>
+    <t xml:space="preserve">3.26157760620117</t>
   </si>
   <si>
     <t xml:space="preserve">3.32593941688538</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07892918586731</t>
+    <t xml:space="preserve">3.07892894744873</t>
   </si>
   <si>
     <t xml:space="preserve">3.05283665657043</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10154294967651</t>
+    <t xml:space="preserve">3.10154271125793</t>
   </si>
   <si>
     <t xml:space="preserve">3.09284520149231</t>
@@ -4094,13 +4091,13 @@
     <t xml:space="preserve">3.32246017456055</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32767868041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33637642860413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38508272171021</t>
+    <t xml:space="preserve">3.3276789188385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33637619018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38508248329163</t>
   </si>
   <si>
     <t xml:space="preserve">3.35029244422913</t>
@@ -4115,7 +4112,7 @@
     <t xml:space="preserve">3.34333467483521</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29984641075134</t>
+    <t xml:space="preserve">3.29984664916992</t>
   </si>
   <si>
     <t xml:space="preserve">3.29114890098572</t>
@@ -4124,7 +4121,7 @@
     <t xml:space="preserve">3.30158615112305</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3120231628418</t>
+    <t xml:space="preserve">3.31202340126038</t>
   </si>
   <si>
     <t xml:space="preserve">3.3189811706543</t>
@@ -4133,7 +4130,7 @@
     <t xml:space="preserve">3.28767013549805</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25809860229492</t>
+    <t xml:space="preserve">3.25809836387634</t>
   </si>
   <si>
     <t xml:space="preserve">3.334636926651</t>
@@ -4142,16 +4139,16 @@
     <t xml:space="preserve">3.40073823928833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40943574905396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40247774124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36420869827271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34681367874146</t>
+    <t xml:space="preserve">3.40943598747253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40247750282288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36420845985413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34681344032288</t>
   </si>
   <si>
     <t xml:space="preserve">3.40421724319458</t>
@@ -4166,10 +4163,10 @@
     <t xml:space="preserve">3.51380610466003</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51032686233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50336909294128</t>
+    <t xml:space="preserve">3.51032710075378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50336885452271</t>
   </si>
   <si>
     <t xml:space="preserve">3.54859614372253</t>
@@ -4181,7 +4178,7 @@
     <t xml:space="preserve">3.52946186065674</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56077265739441</t>
+    <t xml:space="preserve">3.56077289581299</t>
   </si>
   <si>
     <t xml:space="preserve">3.53294062614441</t>
@@ -4199,16 +4196,16 @@
     <t xml:space="preserve">3.7312445640564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76429510116577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79038786888123</t>
+    <t xml:space="preserve">3.76429533958435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79038763046265</t>
   </si>
   <si>
     <t xml:space="preserve">3.77125358581543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91911149024963</t>
+    <t xml:space="preserve">3.91911172866821</t>
   </si>
   <si>
     <t xml:space="preserve">3.99912881851196</t>
@@ -4217,46 +4214,46 @@
     <t xml:space="preserve">3.91737222671509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92606949806213</t>
+    <t xml:space="preserve">3.92606973648071</t>
   </si>
   <si>
     <t xml:space="preserve">3.96607828140259</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94694375991821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91041398048401</t>
+    <t xml:space="preserve">3.94694352149963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91041374206543</t>
   </si>
   <si>
     <t xml:space="preserve">3.88258218765259</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92433023452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85127091407776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86518669128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90519523620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85475015640259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90345597267151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8738842010498</t>
+    <t xml:space="preserve">3.92432999610901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85127067565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8651864528656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90519547462463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85474991798401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90345621109009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87388443946838</t>
   </si>
   <si>
     <t xml:space="preserve">3.94868326187134</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95912027359009</t>
+    <t xml:space="preserve">3.95912003517151</t>
   </si>
   <si>
     <t xml:space="preserve">4.08262538909912</t>
@@ -4277,7 +4274,7 @@
     <t xml:space="preserve">4.25483655929565</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16960096359253</t>
+    <t xml:space="preserve">4.16960048675537</t>
   </si>
   <si>
     <t xml:space="preserve">4.19917249679565</t>
@@ -4289,19 +4286,19 @@
     <t xml:space="preserve">3.6616644859314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65992522239685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42683076858521</t>
+    <t xml:space="preserve">3.65992498397827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42683100700378</t>
   </si>
   <si>
     <t xml:space="preserve">3.43900728225708</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31550216674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61295819282532</t>
+    <t xml:space="preserve">3.31550240516663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61295795440674</t>
   </si>
   <si>
     <t xml:space="preserve">3.51902461051941</t>
@@ -4316,13 +4313,13 @@
     <t xml:space="preserve">3.31376266479492</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32072067260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42335200309753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44074702262878</t>
+    <t xml:space="preserve">3.320720911026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42335176467896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44074678421021</t>
   </si>
   <si>
     <t xml:space="preserve">3.37638521194458</t>
@@ -4334,7 +4331,7 @@
     <t xml:space="preserve">3.52250385284424</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55381488800049</t>
+    <t xml:space="preserve">3.55381464958191</t>
   </si>
   <si>
     <t xml:space="preserve">3.60078144073486</t>
@@ -4385,7 +4382,7 @@
     <t xml:space="preserve">3.62339520454407</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62513470649719</t>
+    <t xml:space="preserve">3.62513494491577</t>
   </si>
   <si>
     <t xml:space="preserve">3.57267427444458</t>
@@ -45157,7 +45154,7 @@
         <v>3.88013911247253</v>
       </c>
       <c r="G1529" t="s">
-        <v>1171</v>
+        <v>1040</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -45235,7 +45232,7 @@
         <v>3.73028802871704</v>
       </c>
       <c r="G1532" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -45261,7 +45258,7 @@
         <v>3.83218598365784</v>
       </c>
       <c r="G1533" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -45313,7 +45310,7 @@
         <v>3.9540650844574</v>
       </c>
       <c r="G1535" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -45365,7 +45362,7 @@
         <v>3.94407510757446</v>
       </c>
       <c r="G1537" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -45443,7 +45440,7 @@
         <v>3.76625204086304</v>
       </c>
       <c r="G1540" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -45469,7 +45466,7 @@
         <v>3.73028802871704</v>
       </c>
       <c r="G1541" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -45495,7 +45492,7 @@
         <v>3.57044696807861</v>
       </c>
       <c r="G1542" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -45521,7 +45518,7 @@
         <v>3.62838888168335</v>
       </c>
       <c r="G1543" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -45573,7 +45570,7 @@
         <v>3.73228597640991</v>
       </c>
       <c r="G1545" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -45599,7 +45596,7 @@
         <v>3.68433403968811</v>
       </c>
       <c r="G1546" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -45677,7 +45674,7 @@
         <v>3.87014889717102</v>
       </c>
       <c r="G1549" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -45729,7 +45726,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1551" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -45755,7 +45752,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1552" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -45781,7 +45778,7 @@
         <v>3.9760000705719</v>
       </c>
       <c r="G1553" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -45807,7 +45804,7 @@
         <v>4</v>
       </c>
       <c r="G1554" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -45833,7 +45830,7 @@
         <v>4</v>
       </c>
       <c r="G1555" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -45859,7 +45856,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1556" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -45885,7 +45882,7 @@
         <v>4.02400016784668</v>
       </c>
       <c r="G1557" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -45911,7 +45908,7 @@
         <v>4.16599988937378</v>
       </c>
       <c r="G1558" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -45937,7 +45934,7 @@
         <v>4.18800020217896</v>
       </c>
       <c r="G1559" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -45963,7 +45960,7 @@
         <v>4.15399980545044</v>
       </c>
       <c r="G1560" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -45989,7 +45986,7 @@
         <v>4.23799991607666</v>
       </c>
       <c r="G1561" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -46015,7 +46012,7 @@
         <v>4.12400007247925</v>
       </c>
       <c r="G1562" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -46041,7 +46038,7 @@
         <v>4.03200006484985</v>
       </c>
       <c r="G1563" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -46067,7 +46064,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1564" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -46093,7 +46090,7 @@
         <v>3.64800000190735</v>
       </c>
       <c r="G1565" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -46119,7 +46116,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1566" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -46145,7 +46142,7 @@
         <v>3.54399991035461</v>
       </c>
       <c r="G1567" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -46171,7 +46168,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1568" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -46197,7 +46194,7 @@
         <v>3.37400007247925</v>
       </c>
       <c r="G1569" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -46223,7 +46220,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1570" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -46249,7 +46246,7 @@
         <v>2.93600010871887</v>
       </c>
       <c r="G1571" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -46275,7 +46272,7 @@
         <v>2.92600011825562</v>
       </c>
       <c r="G1572" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -46301,7 +46298,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1573" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -46327,7 +46324,7 @@
         <v>3.30200004577637</v>
       </c>
       <c r="G1574" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -46353,7 +46350,7 @@
         <v>3.1340000629425</v>
       </c>
       <c r="G1575" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -46379,7 +46376,7 @@
         <v>3.16400003433228</v>
       </c>
       <c r="G1576" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -46405,7 +46402,7 @@
         <v>3.2960000038147</v>
       </c>
       <c r="G1577" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -46431,7 +46428,7 @@
         <v>3.34800004959106</v>
       </c>
       <c r="G1578" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -46457,7 +46454,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G1579" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -46483,7 +46480,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1580" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -46509,7 +46506,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1581" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -46535,7 +46532,7 @@
         <v>3.62199997901917</v>
       </c>
       <c r="G1582" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -46561,7 +46558,7 @@
         <v>3.68600010871887</v>
       </c>
       <c r="G1583" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -46587,7 +46584,7 @@
         <v>3.64199995994568</v>
       </c>
       <c r="G1584" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -46613,7 +46610,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G1585" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -46639,7 +46636,7 @@
         <v>3.56800007820129</v>
       </c>
       <c r="G1586" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -46665,7 +46662,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G1587" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -46691,7 +46688,7 @@
         <v>3.80800008773804</v>
       </c>
       <c r="G1588" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -46717,7 +46714,7 @@
         <v>3.81599998474121</v>
       </c>
       <c r="G1589" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -46743,7 +46740,7 @@
         <v>3.71799993515015</v>
       </c>
       <c r="G1590" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -46769,7 +46766,7 @@
         <v>3.76799988746643</v>
       </c>
       <c r="G1591" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -46795,7 +46792,7 @@
         <v>3.80200004577637</v>
       </c>
       <c r="G1592" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -46821,7 +46818,7 @@
         <v>3.77600002288818</v>
       </c>
       <c r="G1593" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -46847,7 +46844,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1594" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -46873,7 +46870,7 @@
         <v>3.64599990844727</v>
       </c>
       <c r="G1595" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -46899,7 +46896,7 @@
         <v>3.82200002670288</v>
       </c>
       <c r="G1596" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -46925,7 +46922,7 @@
         <v>3.83800005912781</v>
       </c>
       <c r="G1597" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -46951,7 +46948,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G1598" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -46977,7 +46974,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1599" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -47003,7 +47000,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1600" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -47029,7 +47026,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1601" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -47055,7 +47052,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1602" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -47081,7 +47078,7 @@
         <v>3.86400008201599</v>
       </c>
       <c r="G1603" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -47107,7 +47104,7 @@
         <v>3.86400008201599</v>
       </c>
       <c r="G1604" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -47133,7 +47130,7 @@
         <v>3.84599995613098</v>
       </c>
       <c r="G1605" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -47159,7 +47156,7 @@
         <v>3.78600001335144</v>
       </c>
       <c r="G1606" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -47185,7 +47182,7 @@
         <v>3.81399989128113</v>
       </c>
       <c r="G1607" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -47211,7 +47208,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1608" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -47237,7 +47234,7 @@
         <v>3.80200004577637</v>
       </c>
       <c r="G1609" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -47263,7 +47260,7 @@
         <v>3.78200006484985</v>
       </c>
       <c r="G1610" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -47289,7 +47286,7 @@
         <v>3.78800010681152</v>
       </c>
       <c r="G1611" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -47315,7 +47312,7 @@
         <v>3.63599991798401</v>
       </c>
       <c r="G1612" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -47341,7 +47338,7 @@
         <v>3.6340000629425</v>
       </c>
       <c r="G1613" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -47367,7 +47364,7 @@
         <v>3.59200000762939</v>
       </c>
       <c r="G1614" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -47393,7 +47390,7 @@
         <v>3.49600005149841</v>
       </c>
       <c r="G1615" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -47419,7 +47416,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1616" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -47445,7 +47442,7 @@
         <v>3.62400007247925</v>
       </c>
       <c r="G1617" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -47471,7 +47468,7 @@
         <v>3.65599989891052</v>
       </c>
       <c r="G1618" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -47497,7 +47494,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1619" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -47523,7 +47520,7 @@
         <v>3.67199993133545</v>
       </c>
       <c r="G1620" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -47549,7 +47546,7 @@
         <v>3.75399994850159</v>
       </c>
       <c r="G1621" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -47575,7 +47572,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G1622" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -47601,7 +47598,7 @@
         <v>3.71600008010864</v>
       </c>
       <c r="G1623" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -47627,7 +47624,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G1624" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -47653,7 +47650,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1625" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -47679,7 +47676,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1626" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -47705,7 +47702,7 @@
         <v>3.85599994659424</v>
       </c>
       <c r="G1627" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -47731,7 +47728,7 @@
         <v>3.8659999370575</v>
       </c>
       <c r="G1628" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -47757,7 +47754,7 @@
         <v>3.85599994659424</v>
       </c>
       <c r="G1629" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -47783,7 +47780,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1630" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -47809,7 +47806,7 @@
         <v>3.78800010681152</v>
       </c>
       <c r="G1631" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -47835,7 +47832,7 @@
         <v>3.75600004196167</v>
       </c>
       <c r="G1632" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -47861,7 +47858,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1633" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -47887,7 +47884,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1634" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -47913,7 +47910,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G1635" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -47939,7 +47936,7 @@
         <v>3.73600006103516</v>
       </c>
       <c r="G1636" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -47965,7 +47962,7 @@
         <v>3.70600008964539</v>
       </c>
       <c r="G1637" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -47991,7 +47988,7 @@
         <v>3.65400004386902</v>
       </c>
       <c r="G1638" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -48017,7 +48014,7 @@
         <v>3.40199995040894</v>
       </c>
       <c r="G1639" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -48043,7 +48040,7 @@
         <v>3.24399995803833</v>
       </c>
       <c r="G1640" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -48069,7 +48066,7 @@
         <v>3.23399996757507</v>
       </c>
       <c r="G1641" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -48095,7 +48092,7 @@
         <v>3.37800002098083</v>
       </c>
       <c r="G1642" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -48121,7 +48118,7 @@
         <v>3.27800011634827</v>
       </c>
       <c r="G1643" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -48147,7 +48144,7 @@
         <v>3.32800006866455</v>
       </c>
       <c r="G1644" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -48173,7 +48170,7 @@
         <v>3.40400004386902</v>
       </c>
       <c r="G1645" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -48199,7 +48196,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1646" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -48225,7 +48222,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1647" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -48251,7 +48248,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1648" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -48277,7 +48274,7 @@
         <v>3.3659999370575</v>
       </c>
       <c r="G1649" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -48303,7 +48300,7 @@
         <v>3.31800007820129</v>
       </c>
       <c r="G1650" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -48329,7 +48326,7 @@
         <v>3.32599997520447</v>
       </c>
       <c r="G1651" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -48355,7 +48352,7 @@
         <v>3.39800000190735</v>
       </c>
       <c r="G1652" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -48381,7 +48378,7 @@
         <v>3.28600001335144</v>
       </c>
       <c r="G1653" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -48407,7 +48404,7 @@
         <v>3.2960000038147</v>
       </c>
       <c r="G1654" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -48433,7 +48430,7 @@
         <v>3.28200006484985</v>
       </c>
       <c r="G1655" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -48459,7 +48456,7 @@
         <v>3.19600009918213</v>
       </c>
       <c r="G1656" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -48485,7 +48482,7 @@
         <v>3.2039999961853</v>
       </c>
       <c r="G1657" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -48511,7 +48508,7 @@
         <v>3.29200005531311</v>
       </c>
       <c r="G1658" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -48537,7 +48534,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1659" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -48563,7 +48560,7 @@
         <v>3.34800004959106</v>
       </c>
       <c r="G1660" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -48589,7 +48586,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1661" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -48615,7 +48612,7 @@
         <v>3.25200009346008</v>
       </c>
       <c r="G1662" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -48641,7 +48638,7 @@
         <v>3.09599995613098</v>
       </c>
       <c r="G1663" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -48667,7 +48664,7 @@
         <v>3.11400008201599</v>
       </c>
       <c r="G1664" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -48693,7 +48690,7 @@
         <v>3.16799998283386</v>
       </c>
       <c r="G1665" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -48719,7 +48716,7 @@
         <v>3.31399989128113</v>
       </c>
       <c r="G1666" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -48745,7 +48742,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1667" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -48771,7 +48768,7 @@
         <v>3.17600011825562</v>
       </c>
       <c r="G1668" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -48797,7 +48794,7 @@
         <v>3.13599991798401</v>
       </c>
       <c r="G1669" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -48823,7 +48820,7 @@
         <v>3.18199992179871</v>
       </c>
       <c r="G1670" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -48849,7 +48846,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1671" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -48875,7 +48872,7 @@
         <v>3.11400008201599</v>
       </c>
       <c r="G1672" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -48901,7 +48898,7 @@
         <v>3.15199995040894</v>
       </c>
       <c r="G1673" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -48927,7 +48924,7 @@
         <v>3.23600006103516</v>
       </c>
       <c r="G1674" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -48953,7 +48950,7 @@
         <v>3.2039999961853</v>
       </c>
       <c r="G1675" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -48979,7 +48976,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1676" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -49005,7 +49002,7 @@
         <v>3.27600002288818</v>
       </c>
       <c r="G1677" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -49031,7 +49028,7 @@
         <v>3.32800006866455</v>
       </c>
       <c r="G1678" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -49057,7 +49054,7 @@
         <v>3.36199998855591</v>
       </c>
       <c r="G1679" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -49083,7 +49080,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1680" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -49109,7 +49106,7 @@
         <v>3.28200006484985</v>
       </c>
       <c r="G1681" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -49135,7 +49132,7 @@
         <v>3.28800010681152</v>
       </c>
       <c r="G1682" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -49161,7 +49158,7 @@
         <v>3.27800011634827</v>
       </c>
       <c r="G1683" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -49187,7 +49184,7 @@
         <v>3.42600011825562</v>
       </c>
       <c r="G1684" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -49213,7 +49210,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1685" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -49239,7 +49236,7 @@
         <v>3.34400010108948</v>
       </c>
       <c r="G1686" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -49265,7 +49262,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1687" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -49291,7 +49288,7 @@
         <v>3.33400011062622</v>
       </c>
       <c r="G1688" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -49317,7 +49314,7 @@
         <v>3.22399997711182</v>
       </c>
       <c r="G1689" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -49343,7 +49340,7 @@
         <v>3.28399991989136</v>
       </c>
       <c r="G1690" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -49369,7 +49366,7 @@
         <v>3.27800011634827</v>
       </c>
       <c r="G1691" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -49395,7 +49392,7 @@
         <v>3.21399998664856</v>
       </c>
       <c r="G1692" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -49421,7 +49418,7 @@
         <v>3.15799999237061</v>
       </c>
       <c r="G1693" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -49447,7 +49444,7 @@
         <v>3.15599989891052</v>
       </c>
       <c r="G1694" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -49473,7 +49470,7 @@
         <v>3.19199991226196</v>
       </c>
       <c r="G1695" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -49499,7 +49496,7 @@
         <v>3.20199990272522</v>
       </c>
       <c r="G1696" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -49525,7 +49522,7 @@
         <v>3.15400004386902</v>
       </c>
       <c r="G1697" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -49551,7 +49548,7 @@
         <v>3.27800011634827</v>
       </c>
       <c r="G1698" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -49577,7 +49574,7 @@
         <v>3.19799995422363</v>
       </c>
       <c r="G1699" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -49603,7 +49600,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1700" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -49629,7 +49626,7 @@
         <v>3.18799996376038</v>
       </c>
       <c r="G1701" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -49655,7 +49652,7 @@
         <v>3.23399996757507</v>
       </c>
       <c r="G1702" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -49681,7 +49678,7 @@
         <v>3.35800004005432</v>
       </c>
       <c r="G1703" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -49707,7 +49704,7 @@
         <v>3.47399997711182</v>
       </c>
       <c r="G1704" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -49733,7 +49730,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1705" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -49759,7 +49756,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G1706" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -49785,7 +49782,7 @@
         <v>3.60599994659424</v>
       </c>
       <c r="G1707" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -49811,7 +49808,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G1708" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -49837,7 +49834,7 @@
         <v>3.55800008773804</v>
       </c>
       <c r="G1709" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -49863,7 +49860,7 @@
         <v>3.49799990653992</v>
       </c>
       <c r="G1710" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -49889,7 +49886,7 @@
         <v>3.43600010871887</v>
       </c>
       <c r="G1711" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -49915,7 +49912,7 @@
         <v>3.51200008392334</v>
       </c>
       <c r="G1712" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -49941,7 +49938,7 @@
         <v>3.43400001525879</v>
       </c>
       <c r="G1713" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -49967,7 +49964,7 @@
         <v>3.40599989891052</v>
       </c>
       <c r="G1714" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -49993,7 +49990,7 @@
         <v>3.34400010108948</v>
       </c>
       <c r="G1715" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -50019,7 +50016,7 @@
         <v>3.34800004959106</v>
       </c>
       <c r="G1716" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -50045,7 +50042,7 @@
         <v>3.25799989700317</v>
       </c>
       <c r="G1717" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -50071,7 +50068,7 @@
         <v>3.39199995994568</v>
       </c>
       <c r="G1718" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -50097,7 +50094,7 @@
         <v>3.40799999237061</v>
       </c>
       <c r="G1719" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -50123,7 +50120,7 @@
         <v>3.51600003242493</v>
       </c>
       <c r="G1720" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -50149,7 +50146,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1721" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -50175,7 +50172,7 @@
         <v>3.30200004577637</v>
       </c>
       <c r="G1722" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -50201,7 +50198,7 @@
         <v>3.2739999294281</v>
       </c>
       <c r="G1723" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -50227,7 +50224,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1724" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -50253,7 +50250,7 @@
         <v>3.25799989700317</v>
       </c>
       <c r="G1725" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -50279,7 +50276,7 @@
         <v>3.25399994850159</v>
       </c>
       <c r="G1726" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -50305,7 +50302,7 @@
         <v>3.31800007820129</v>
       </c>
       <c r="G1727" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -50331,7 +50328,7 @@
         <v>3.34400010108948</v>
       </c>
       <c r="G1728" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -50357,7 +50354,7 @@
         <v>3.39400005340576</v>
       </c>
       <c r="G1729" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -50383,7 +50380,7 @@
         <v>3.49200010299683</v>
       </c>
       <c r="G1730" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -50409,7 +50406,7 @@
         <v>3.49799990653992</v>
       </c>
       <c r="G1731" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -50435,7 +50432,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G1732" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -50461,7 +50458,7 @@
         <v>3.54399991035461</v>
       </c>
       <c r="G1733" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -50487,7 +50484,7 @@
         <v>3.59200000762939</v>
       </c>
       <c r="G1734" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -50513,7 +50510,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G1735" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -50539,7 +50536,7 @@
         <v>3.60199999809265</v>
       </c>
       <c r="G1736" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -50565,7 +50562,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1737" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -50591,7 +50588,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1738" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -50617,7 +50614,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1739" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -50643,7 +50640,7 @@
         <v>3.64199995994568</v>
       </c>
       <c r="G1740" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -50669,7 +50666,7 @@
         <v>3.73200011253357</v>
       </c>
       <c r="G1741" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -50695,7 +50692,7 @@
         <v>3.75</v>
       </c>
       <c r="G1742" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -50721,7 +50718,7 @@
         <v>3.75600004196167</v>
       </c>
       <c r="G1743" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -50747,7 +50744,7 @@
         <v>3.82399988174438</v>
       </c>
       <c r="G1744" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -50773,7 +50770,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -50799,7 +50796,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1746" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -50825,7 +50822,7 @@
         <v>3.56599998474121</v>
       </c>
       <c r="G1747" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -50851,7 +50848,7 @@
         <v>3.55599999427795</v>
       </c>
       <c r="G1748" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -50877,7 +50874,7 @@
         <v>3.59400010108948</v>
       </c>
       <c r="G1749" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -50903,7 +50900,7 @@
         <v>3.75200009346008</v>
       </c>
       <c r="G1750" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -50929,7 +50926,7 @@
         <v>3.75200009346008</v>
       </c>
       <c r="G1751" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -50955,7 +50952,7 @@
         <v>3.75799989700317</v>
       </c>
       <c r="G1752" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -50981,7 +50978,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1753" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -51007,7 +51004,7 @@
         <v>3.82599997520447</v>
       </c>
       <c r="G1754" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -51033,7 +51030,7 @@
         <v>3.83599996566772</v>
       </c>
       <c r="G1755" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -51059,7 +51056,7 @@
         <v>3.89199995994568</v>
       </c>
       <c r="G1756" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -51085,7 +51082,7 @@
         <v>3.85199999809265</v>
       </c>
       <c r="G1757" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -51111,7 +51108,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1758" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -51137,7 +51134,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1759" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -51163,7 +51160,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1760" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -51189,7 +51186,7 @@
         <v>3.84400010108948</v>
       </c>
       <c r="G1761" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -51215,7 +51212,7 @@
         <v>3.79399991035461</v>
       </c>
       <c r="G1762" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -51241,7 +51238,7 @@
         <v>3.78399991989136</v>
       </c>
       <c r="G1763" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -51267,7 +51264,7 @@
         <v>3.7960000038147</v>
       </c>
       <c r="G1764" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -51293,7 +51290,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1765" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -51319,7 +51316,7 @@
         <v>3.78800010681152</v>
       </c>
       <c r="G1766" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -51345,7 +51342,7 @@
         <v>3.80800008773804</v>
       </c>
       <c r="G1767" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -51371,7 +51368,7 @@
         <v>3.81599998474121</v>
       </c>
       <c r="G1768" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -51397,7 +51394,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1769" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -51423,7 +51420,7 @@
         <v>3.8659999370575</v>
       </c>
       <c r="G1770" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -51449,7 +51446,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1771" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -51475,7 +51472,7 @@
         <v>3.74600005149841</v>
       </c>
       <c r="G1772" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -51501,7 +51498,7 @@
         <v>3.82599997520447</v>
       </c>
       <c r="G1773" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -51527,7 +51524,7 @@
         <v>3.83400011062622</v>
       </c>
       <c r="G1774" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -51553,7 +51550,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1775" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -51579,7 +51576,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1776" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -51605,7 +51602,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1777" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -51631,7 +51628,7 @@
         <v>3.91199994087219</v>
       </c>
       <c r="G1778" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -51657,7 +51654,7 @@
         <v>3.89199995994568</v>
       </c>
       <c r="G1779" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -51683,7 +51680,7 @@
         <v>3.86800003051758</v>
       </c>
       <c r="G1780" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -51709,7 +51706,7 @@
         <v>3.84800004959106</v>
       </c>
       <c r="G1781" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -51735,7 +51732,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1782" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -51761,7 +51758,7 @@
         <v>3.83400011062622</v>
       </c>
       <c r="G1783" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -51787,7 +51784,7 @@
         <v>3.91400003433228</v>
       </c>
       <c r="G1784" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -51813,7 +51810,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1785" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -51839,7 +51836,7 @@
         <v>4.02199983596802</v>
       </c>
       <c r="G1786" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -51865,7 +51862,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1787" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -51891,7 +51888,7 @@
         <v>4.02199983596802</v>
       </c>
       <c r="G1788" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -51917,7 +51914,7 @@
         <v>4.03599977493286</v>
       </c>
       <c r="G1789" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -51943,7 +51940,7 @@
         <v>4.02799987792969</v>
       </c>
       <c r="G1790" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -51969,7 +51966,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1791" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -51995,7 +51992,7 @@
         <v>4.11600017547607</v>
       </c>
       <c r="G1792" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -52021,7 +52018,7 @@
         <v>4.05800008773804</v>
       </c>
       <c r="G1793" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -52047,7 +52044,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -52073,7 +52070,7 @@
         <v>4.0939998626709</v>
       </c>
       <c r="G1795" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -52099,7 +52096,7 @@
         <v>4.06199979782104</v>
       </c>
       <c r="G1796" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -52125,7 +52122,7 @@
         <v>4.11800003051758</v>
       </c>
       <c r="G1797" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -52151,7 +52148,7 @@
         <v>4.23600006103516</v>
       </c>
       <c r="G1798" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -52177,7 +52174,7 @@
         <v>4.26399993896484</v>
       </c>
       <c r="G1799" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -52203,7 +52200,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G1800" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -52229,7 +52226,7 @@
         <v>4.32800006866455</v>
       </c>
       <c r="G1801" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -52255,7 +52252,7 @@
         <v>4.35799980163574</v>
       </c>
       <c r="G1802" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -52281,7 +52278,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G1803" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -52307,7 +52304,7 @@
         <v>4.50600004196167</v>
       </c>
       <c r="G1804" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -52333,7 +52330,7 @@
         <v>4.59800004959106</v>
       </c>
       <c r="G1805" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -52359,7 +52356,7 @@
         <v>4.50400018692017</v>
       </c>
       <c r="G1806" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -52385,7 +52382,7 @@
         <v>4.51399993896484</v>
       </c>
       <c r="G1807" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -52411,7 +52408,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1808" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -52437,7 +52434,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1809" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -52463,7 +52460,7 @@
         <v>4.53800010681152</v>
       </c>
       <c r="G1810" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -52489,7 +52486,7 @@
         <v>4.49599981307983</v>
       </c>
       <c r="G1811" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -52515,7 +52512,7 @@
         <v>4.46400022506714</v>
       </c>
       <c r="G1812" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -52541,7 +52538,7 @@
         <v>4.50400018692017</v>
       </c>
       <c r="G1813" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -52567,7 +52564,7 @@
         <v>4.51200008392334</v>
       </c>
       <c r="G1814" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -52593,7 +52590,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G1815" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -52619,7 +52616,7 @@
         <v>4.44399976730347</v>
       </c>
       <c r="G1816" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -52645,7 +52642,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1817" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -52671,7 +52668,7 @@
         <v>4.43200016021729</v>
       </c>
       <c r="G1818" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -52697,7 +52694,7 @@
         <v>4.48799991607666</v>
       </c>
       <c r="G1819" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -52723,7 +52720,7 @@
         <v>4.4539999961853</v>
       </c>
       <c r="G1820" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -52749,7 +52746,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1821" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -52775,7 +52772,7 @@
         <v>4.55200004577637</v>
       </c>
       <c r="G1822" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -52801,7 +52798,7 @@
         <v>4.69399976730347</v>
       </c>
       <c r="G1823" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -52827,7 +52824,7 @@
         <v>4.80399990081787</v>
       </c>
       <c r="G1824" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -52853,7 +52850,7 @@
         <v>4.77799987792969</v>
       </c>
       <c r="G1825" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -52879,7 +52876,7 @@
         <v>4.80200004577637</v>
       </c>
       <c r="G1826" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -52905,7 +52902,7 @@
         <v>4.7960000038147</v>
       </c>
       <c r="G1827" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -52931,7 +52928,7 @@
         <v>4.89200019836426</v>
       </c>
       <c r="G1828" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -52957,7 +52954,7 @@
         <v>4.79400014877319</v>
       </c>
       <c r="G1829" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -52983,7 +52980,7 @@
         <v>4.82800006866455</v>
       </c>
       <c r="G1830" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -53009,7 +53006,7 @@
         <v>4.80200004577637</v>
       </c>
       <c r="G1831" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -53035,7 +53032,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G1832" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -53061,7 +53058,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1833" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -53087,7 +53084,7 @@
         <v>4.20800018310547</v>
       </c>
       <c r="G1834" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -53113,7 +53110,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1835" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -53139,7 +53136,7 @@
         <v>3.9539999961853</v>
       </c>
       <c r="G1836" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -53165,7 +53162,7 @@
         <v>3.81200003623962</v>
       </c>
       <c r="G1837" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -53191,7 +53188,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1838" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -53217,7 +53214,7 @@
         <v>4.15399980545044</v>
       </c>
       <c r="G1839" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -53243,7 +53240,7 @@
         <v>4.0460000038147</v>
       </c>
       <c r="G1840" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -53269,7 +53266,7 @@
         <v>3.96600008010864</v>
       </c>
       <c r="G1841" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -53295,7 +53292,7 @@
         <v>3.80399990081787</v>
       </c>
       <c r="G1842" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -53321,7 +53318,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1843" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -53347,7 +53344,7 @@
         <v>3.81800007820129</v>
       </c>
       <c r="G1844" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -53373,7 +53370,7 @@
         <v>3.93600010871887</v>
       </c>
       <c r="G1845" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -53399,7 +53396,7 @@
         <v>3.95600008964539</v>
       </c>
       <c r="G1846" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -53425,7 +53422,7 @@
         <v>3.91400003433228</v>
       </c>
       <c r="G1847" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -53451,7 +53448,7 @@
         <v>3.91400003433228</v>
       </c>
       <c r="G1848" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -53477,7 +53474,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1849" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -53503,7 +53500,7 @@
         <v>3.88199996948242</v>
       </c>
       <c r="G1850" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -53529,7 +53526,7 @@
         <v>3.91199994087219</v>
       </c>
       <c r="G1851" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -53555,7 +53552,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1852" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -53581,7 +53578,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1853" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -53607,7 +53604,7 @@
         <v>4.08599996566772</v>
       </c>
       <c r="G1854" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -53633,7 +53630,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1855" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -53659,7 +53656,7 @@
         <v>4.12400007247925</v>
       </c>
       <c r="G1856" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -53685,7 +53682,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1857" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -53711,7 +53708,7 @@
         <v>4.2480001449585</v>
       </c>
       <c r="G1858" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -53737,7 +53734,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1859" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -53763,7 +53760,7 @@
         <v>4.27799987792969</v>
       </c>
       <c r="G1860" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -53789,7 +53786,7 @@
         <v>4.27400016784668</v>
       </c>
       <c r="G1861" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -53815,7 +53812,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1862" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -53841,7 +53838,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1863" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -53867,7 +53864,7 @@
         <v>4.2480001449585</v>
       </c>
       <c r="G1864" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -53893,7 +53890,7 @@
         <v>4.12200021743774</v>
       </c>
       <c r="G1865" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -53919,7 +53916,7 @@
         <v>4.09800004959106</v>
       </c>
       <c r="G1866" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -53945,7 +53942,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1867" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -53971,7 +53968,7 @@
         <v>4.02400016784668</v>
       </c>
       <c r="G1868" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -53997,7 +53994,7 @@
         <v>4.17199993133545</v>
       </c>
       <c r="G1869" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -54023,7 +54020,7 @@
         <v>4.22599983215332</v>
       </c>
       <c r="G1870" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -54049,7 +54046,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G1871" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -54075,7 +54072,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1872" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -54101,7 +54098,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G1873" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -54127,7 +54124,7 @@
         <v>4.16599988937378</v>
       </c>
       <c r="G1874" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -54153,7 +54150,7 @@
         <v>4.22599983215332</v>
       </c>
       <c r="G1875" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -54179,7 +54176,7 @@
         <v>4.15399980545044</v>
       </c>
       <c r="G1876" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -54205,7 +54202,7 @@
         <v>4.12400007247925</v>
       </c>
       <c r="G1877" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -54231,7 +54228,7 @@
         <v>4.16800022125244</v>
       </c>
       <c r="G1878" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -54257,7 +54254,7 @@
         <v>4.17199993133545</v>
       </c>
       <c r="G1879" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -54283,7 +54280,7 @@
         <v>3.83200001716614</v>
       </c>
       <c r="G1880" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -54309,7 +54306,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1881" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -54335,7 +54332,7 @@
         <v>3.66199994087219</v>
       </c>
       <c r="G1882" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -54361,7 +54358,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1883" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -54387,7 +54384,7 @@
         <v>3.67799997329712</v>
       </c>
       <c r="G1884" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -54413,7 +54410,7 @@
         <v>3.65799999237061</v>
       </c>
       <c r="G1885" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -54439,7 +54436,7 @@
         <v>3.59800004959106</v>
       </c>
       <c r="G1886" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -54465,7 +54462,7 @@
         <v>3.5</v>
       </c>
       <c r="G1887" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -54491,7 +54488,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1888" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -54517,7 +54514,7 @@
         <v>3.70600008964539</v>
       </c>
       <c r="G1889" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -54543,7 +54540,7 @@
         <v>3.67400002479553</v>
       </c>
       <c r="G1890" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -54569,7 +54566,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1891" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -54595,7 +54592,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1892" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -54621,7 +54618,7 @@
         <v>3.71199989318848</v>
       </c>
       <c r="G1893" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -54647,7 +54644,7 @@
         <v>3.7260000705719</v>
       </c>
       <c r="G1894" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -54673,7 +54670,7 @@
         <v>3.71399998664856</v>
       </c>
       <c r="G1895" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -54699,7 +54696,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1896" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -54725,7 +54722,7 @@
         <v>3.78399991989136</v>
       </c>
       <c r="G1897" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -54751,7 +54748,7 @@
         <v>3.74399995803833</v>
       </c>
       <c r="G1898" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -54777,7 +54774,7 @@
         <v>3.77600002288818</v>
       </c>
       <c r="G1899" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -54803,7 +54800,7 @@
         <v>3.79200005531311</v>
       </c>
       <c r="G1900" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -54829,7 +54826,7 @@
         <v>3.84800004959106</v>
       </c>
       <c r="G1901" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -54855,7 +54852,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1902" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -54881,7 +54878,7 @@
         <v>3.92400002479553</v>
       </c>
       <c r="G1903" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -54907,7 +54904,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1904" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -54933,7 +54930,7 @@
         <v>3.84800004959106</v>
       </c>
       <c r="G1905" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -54959,7 +54956,7 @@
         <v>3.8840000629425</v>
       </c>
       <c r="G1906" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -54985,7 +54982,7 @@
         <v>3.81599998474121</v>
       </c>
       <c r="G1907" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55011,7 +55008,7 @@
         <v>3.78200006484985</v>
       </c>
       <c r="G1908" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55037,7 +55034,7 @@
         <v>3.81599998474121</v>
       </c>
       <c r="G1909" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55063,7 +55060,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1910" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55089,7 +55086,7 @@
         <v>3.78200006484985</v>
       </c>
       <c r="G1911" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55115,7 +55112,7 @@
         <v>3.80399990081787</v>
       </c>
       <c r="G1912" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55141,7 +55138,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1913" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55167,7 +55164,7 @@
         <v>3.83400011062622</v>
       </c>
       <c r="G1914" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55193,7 +55190,7 @@
         <v>3.80200004577637</v>
       </c>
       <c r="G1915" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55219,7 +55216,7 @@
         <v>3.84200000762939</v>
       </c>
       <c r="G1916" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55245,7 +55242,7 @@
         <v>3.91599988937378</v>
       </c>
       <c r="G1917" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55271,7 +55268,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1918" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55297,7 +55294,7 @@
         <v>3.94600009918213</v>
       </c>
       <c r="G1919" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -55323,7 +55320,7 @@
         <v>4.03200006484985</v>
       </c>
       <c r="G1920" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55349,7 +55346,7 @@
         <v>4.05800008773804</v>
       </c>
       <c r="G1921" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55375,7 +55372,7 @@
         <v>4.08400011062622</v>
       </c>
       <c r="G1922" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55401,7 +55398,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1923" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55427,7 +55424,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1924" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55453,7 +55450,7 @@
         <v>4.16599988937378</v>
       </c>
       <c r="G1925" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55479,7 +55476,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1926" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55505,7 +55502,7 @@
         <v>4.26200008392334</v>
       </c>
       <c r="G1927" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55531,7 +55528,7 @@
         <v>4.26200008392334</v>
       </c>
       <c r="G1928" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55557,7 +55554,7 @@
         <v>4.34800004959106</v>
       </c>
       <c r="G1929" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55583,7 +55580,7 @@
         <v>4.39400005340576</v>
       </c>
       <c r="G1930" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55609,7 +55606,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1931" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55635,7 +55632,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G1932" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55661,7 +55658,7 @@
         <v>4.27600002288818</v>
       </c>
       <c r="G1933" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55687,7 +55684,7 @@
         <v>4.28800010681152</v>
       </c>
       <c r="G1934" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55713,7 +55710,7 @@
         <v>4.2960000038147</v>
       </c>
       <c r="G1935" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55739,7 +55736,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1936" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55765,7 +55762,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1937" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55791,7 +55788,7 @@
         <v>4.19799995422363</v>
       </c>
       <c r="G1938" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55817,7 +55814,7 @@
         <v>4.23799991607666</v>
       </c>
       <c r="G1939" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -55843,7 +55840,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G1940" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -55869,7 +55866,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G1941" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -55895,7 +55892,7 @@
         <v>4.23400020599365</v>
       </c>
       <c r="G1942" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -55921,7 +55918,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1943" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -55947,7 +55944,7 @@
         <v>4.23400020599365</v>
       </c>
       <c r="G1944" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -55973,7 +55970,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1945" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -55999,7 +55996,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1946" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56025,7 +56022,7 @@
         <v>4.23799991607666</v>
       </c>
       <c r="G1947" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56051,7 +56048,7 @@
         <v>4.26599979400635</v>
       </c>
       <c r="G1948" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56077,7 +56074,7 @@
         <v>4.27799987792969</v>
       </c>
       <c r="G1949" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56103,7 +56100,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G1950" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56129,7 +56126,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1951" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56155,7 +56152,7 @@
         <v>4.38600015640259</v>
       </c>
       <c r="G1952" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56181,7 +56178,7 @@
         <v>4.34800004959106</v>
       </c>
       <c r="G1953" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56207,7 +56204,7 @@
         <v>4.32800006866455</v>
       </c>
       <c r="G1954" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56233,7 +56230,7 @@
         <v>4.26599979400635</v>
       </c>
       <c r="G1955" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56259,7 +56256,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G1956" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56285,7 +56282,7 @@
         <v>4.43599987030029</v>
       </c>
       <c r="G1957" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56311,7 +56308,7 @@
         <v>4.48600006103516</v>
       </c>
       <c r="G1958" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56337,7 +56334,7 @@
         <v>4.48799991607666</v>
       </c>
       <c r="G1959" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56363,7 +56360,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1960" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56389,7 +56386,7 @@
         <v>4.61800003051758</v>
       </c>
       <c r="G1961" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56415,7 +56412,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1962" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56441,7 +56438,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1963" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56467,7 +56464,7 @@
         <v>4.68400001525879</v>
       </c>
       <c r="G1964" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56493,7 +56490,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1965" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56519,7 +56516,7 @@
         <v>4.9980001449585</v>
       </c>
       <c r="G1966" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56545,7 +56542,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G1967" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56571,7 +56568,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G1968" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56597,7 +56594,7 @@
         <v>5.08500003814697</v>
       </c>
       <c r="G1969" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56623,7 +56620,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G1970" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56649,7 +56646,7 @@
         <v>4.90199995040894</v>
       </c>
       <c r="G1971" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56675,7 +56672,7 @@
         <v>4.97599983215332</v>
       </c>
       <c r="G1972" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56701,7 +56698,7 @@
         <v>4.87599992752075</v>
       </c>
       <c r="G1973" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56727,7 +56724,7 @@
         <v>4.96000003814697</v>
       </c>
       <c r="G1974" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56753,7 +56750,7 @@
         <v>4.84999990463257</v>
       </c>
       <c r="G1975" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56779,7 +56776,7 @@
         <v>4.81799983978271</v>
       </c>
       <c r="G1976" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56805,7 +56802,7 @@
         <v>4.92799997329712</v>
       </c>
       <c r="G1977" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -56831,7 +56828,7 @@
         <v>5.02500009536743</v>
       </c>
       <c r="G1978" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -56857,7 +56854,7 @@
         <v>4.98600006103516</v>
       </c>
       <c r="G1979" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -56883,7 +56880,7 @@
         <v>5.07499980926514</v>
       </c>
       <c r="G1980" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -56909,7 +56906,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G1981" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -56935,7 +56932,7 @@
         <v>5.14499998092651</v>
       </c>
       <c r="G1982" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -56961,7 +56958,7 @@
         <v>5.17000007629395</v>
       </c>
       <c r="G1983" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -56987,7 +56984,7 @@
         <v>5.20499992370605</v>
       </c>
       <c r="G1984" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57013,7 +57010,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1985" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57039,7 +57036,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G1986" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57065,7 +57062,7 @@
         <v>5.14499998092651</v>
       </c>
       <c r="G1987" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57091,7 +57088,7 @@
         <v>5.04500007629395</v>
       </c>
       <c r="G1988" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57117,7 +57114,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1989" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57143,7 +57140,7 @@
         <v>5.07000017166138</v>
       </c>
       <c r="G1990" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57169,7 +57166,7 @@
         <v>5.03000020980835</v>
       </c>
       <c r="G1991" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57195,7 +57192,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G1992" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57221,7 +57218,7 @@
         <v>4.95599985122681</v>
       </c>
       <c r="G1993" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57247,7 +57244,7 @@
         <v>5.03000020980835</v>
       </c>
       <c r="G1994" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57273,7 +57270,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G1995" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57299,7 +57296,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G1996" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57325,7 +57322,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1997" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57351,7 +57348,7 @@
         <v>5.26999998092651</v>
       </c>
       <c r="G1998" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57377,7 +57374,7 @@
         <v>5.33500003814697</v>
       </c>
       <c r="G1999" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57403,7 +57400,7 @@
         <v>5.30499982833862</v>
       </c>
       <c r="G2000" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57429,7 +57426,7 @@
         <v>5.36499977111816</v>
       </c>
       <c r="G2001" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57455,7 +57452,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G2002" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57481,7 +57478,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G2003" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57507,7 +57504,7 @@
         <v>5.81500005722046</v>
       </c>
       <c r="G2004" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57533,7 +57530,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G2005" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57559,7 +57556,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G2006" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57585,7 +57582,7 @@
         <v>5.89499998092651</v>
       </c>
       <c r="G2007" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57611,7 +57608,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G2008" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57637,7 +57634,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G2009" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57663,7 +57660,7 @@
         <v>5.84499979019165</v>
       </c>
       <c r="G2010" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57689,7 +57686,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G2011" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57715,7 +57712,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G2012" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57741,7 +57738,7 @@
         <v>5.86499977111816</v>
       </c>
       <c r="G2013" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57767,7 +57764,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G2014" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57793,7 +57790,7 @@
         <v>5.7350001335144</v>
       </c>
       <c r="G2015" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57819,7 +57816,7 @@
         <v>5.7649998664856</v>
       </c>
       <c r="G2016" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -57845,7 +57842,7 @@
         <v>5.68499994277954</v>
       </c>
       <c r="G2017" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -57871,7 +57868,7 @@
         <v>5.84499979019165</v>
       </c>
       <c r="G2018" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -57897,7 +57894,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2019" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -57923,7 +57920,7 @@
         <v>5.64499998092651</v>
       </c>
       <c r="G2020" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -57949,7 +57946,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G2021" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -57975,7 +57972,7 @@
         <v>5.6100001335144</v>
       </c>
       <c r="G2022" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58001,7 +57998,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G2023" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58027,7 +58024,7 @@
         <v>5.73000001907349</v>
       </c>
       <c r="G2024" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58053,7 +58050,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G2025" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58079,7 +58076,7 @@
         <v>5.57499980926514</v>
       </c>
       <c r="G2026" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58105,7 +58102,7 @@
         <v>5.44500017166138</v>
       </c>
       <c r="G2027" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58131,7 +58128,7 @@
         <v>5.43499994277954</v>
       </c>
       <c r="G2028" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58157,7 +58154,7 @@
         <v>5.41499996185303</v>
       </c>
       <c r="G2029" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58183,7 +58180,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G2030" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58209,7 +58206,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G2031" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58235,7 +58232,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G2032" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58261,7 +58258,7 @@
         <v>5.64499998092651</v>
       </c>
       <c r="G2033" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58287,7 +58284,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G2034" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58313,7 +58310,7 @@
         <v>5.83500003814697</v>
       </c>
       <c r="G2035" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58339,7 +58336,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G2036" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58365,7 +58362,7 @@
         <v>5.99499988555908</v>
       </c>
       <c r="G2037" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58391,7 +58388,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G2038" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58417,7 +58414,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G2039" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58443,7 +58440,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G2040" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58469,7 +58466,7 @@
         <v>6.0149998664856</v>
       </c>
       <c r="G2041" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58495,7 +58492,7 @@
         <v>5.94500017166138</v>
       </c>
       <c r="G2042" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58521,7 +58518,7 @@
         <v>5.93499994277954</v>
       </c>
       <c r="G2043" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58547,7 +58544,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G2044" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58573,7 +58570,7 @@
         <v>5.85500001907349</v>
       </c>
       <c r="G2045" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58599,7 +58596,7 @@
         <v>5.89499998092651</v>
       </c>
       <c r="G2046" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58625,7 +58622,7 @@
         <v>5.91499996185303</v>
       </c>
       <c r="G2047" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58651,7 +58648,7 @@
         <v>5.99499988555908</v>
       </c>
       <c r="G2048" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58677,7 +58674,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G2049" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58703,7 +58700,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G2050" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58729,7 +58726,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G2051" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58755,7 +58752,7 @@
         <v>6.5</v>
       </c>
       <c r="G2052" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58781,7 +58778,7 @@
         <v>6.55499982833862</v>
       </c>
       <c r="G2053" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58807,7 +58804,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G2054" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58833,7 +58830,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G2055" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58859,7 +58856,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G2056" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -58885,7 +58882,7 @@
         <v>6.94500017166138</v>
       </c>
       <c r="G2057" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -58911,7 +58908,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G2058" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -58937,7 +58934,7 @@
         <v>6.66499996185303</v>
       </c>
       <c r="G2059" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -58963,7 +58960,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G2060" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -58989,7 +58986,7 @@
         <v>6.74499988555908</v>
       </c>
       <c r="G2061" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59015,7 +59012,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G2062" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59041,7 +59038,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G2063" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59067,7 +59064,7 @@
         <v>6.56500005722046</v>
       </c>
       <c r="G2064" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59093,7 +59090,7 @@
         <v>6.57499980926514</v>
       </c>
       <c r="G2065" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59119,7 +59116,7 @@
         <v>6.71500015258789</v>
       </c>
       <c r="G2066" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59145,7 +59142,7 @@
         <v>6.81500005722046</v>
       </c>
       <c r="G2067" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59171,7 +59168,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G2068" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59197,7 +59194,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G2069" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59223,7 +59220,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G2070" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59249,7 +59246,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G2071" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59275,7 +59272,7 @@
         <v>6.77500009536743</v>
       </c>
       <c r="G2072" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59301,7 +59298,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G2073" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59327,7 +59324,7 @@
         <v>6.92500019073486</v>
       </c>
       <c r="G2074" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59353,7 +59350,7 @@
         <v>7.17500019073486</v>
       </c>
       <c r="G2075" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59379,7 +59376,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G2076" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59405,7 +59402,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G2077" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59431,7 +59428,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G2078" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59457,7 +59454,7 @@
         <v>6.91499996185303</v>
       </c>
       <c r="G2079" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59483,7 +59480,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G2080" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59509,7 +59506,7 @@
         <v>7.16499996185303</v>
       </c>
       <c r="G2081" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59535,7 +59532,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G2082" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59561,7 +59558,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G2083" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59587,7 +59584,7 @@
         <v>6.9850001335144</v>
       </c>
       <c r="G2084" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59613,7 +59610,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G2085" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59639,7 +59636,7 @@
         <v>6.77500009536743</v>
       </c>
       <c r="G2086" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59665,7 +59662,7 @@
         <v>6.92500019073486</v>
       </c>
       <c r="G2087" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59691,7 +59688,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G2088" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59717,7 +59714,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G2089" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59743,7 +59740,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G2090" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59769,7 +59766,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G2091" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59795,7 +59792,7 @@
         <v>6.89499998092651</v>
       </c>
       <c r="G2092" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59821,7 +59818,7 @@
         <v>6.79500007629395</v>
       </c>
       <c r="G2093" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59847,7 +59844,7 @@
         <v>6.82499980926514</v>
       </c>
       <c r="G2094" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59873,7 +59870,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G2095" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59899,7 +59896,7 @@
         <v>6.92500019073486</v>
       </c>
       <c r="G2096" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -59925,7 +59922,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G2097" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -59951,7 +59948,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G2098" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -59977,7 +59974,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G2099" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60003,7 +60000,7 @@
         <v>7.00500011444092</v>
       </c>
       <c r="G2100" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60029,7 +60026,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G2101" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60055,7 +60052,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G2102" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60081,7 +60078,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G2103" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60107,7 +60104,7 @@
         <v>6.96500015258789</v>
       </c>
       <c r="G2104" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60133,7 +60130,7 @@
         <v>6.69500017166138</v>
       </c>
       <c r="G2105" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60159,7 +60156,7 @@
         <v>6.92500019073486</v>
       </c>
       <c r="G2106" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60185,7 +60182,7 @@
         <v>6.72499990463257</v>
       </c>
       <c r="G2107" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60211,7 +60208,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G2108" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60237,7 +60234,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G2109" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60263,7 +60260,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G2110" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60289,7 +60286,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G2111" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60315,7 +60312,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G2112" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60341,7 +60338,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G2113" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60367,7 +60364,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G2114" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60393,7 +60390,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G2115" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60419,7 +60416,7 @@
         <v>7.50500011444092</v>
       </c>
       <c r="G2116" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60445,7 +60442,7 @@
         <v>7.43499994277954</v>
       </c>
       <c r="G2117" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60471,7 +60468,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G2118" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60497,7 +60494,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2119" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60523,7 +60520,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G2120" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60549,7 +60546,7 @@
         <v>7.92999982833862</v>
       </c>
       <c r="G2121" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60575,7 +60572,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G2122" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60601,7 +60598,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2123" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60627,7 +60624,7 @@
         <v>8.125</v>
       </c>
       <c r="G2124" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60653,7 +60650,7 @@
         <v>8</v>
       </c>
       <c r="G2125" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60679,7 +60676,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G2126" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60705,7 +60702,7 @@
         <v>7.92999982833862</v>
       </c>
       <c r="G2127" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60731,7 +60728,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G2128" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60757,7 +60754,7 @@
         <v>8.03499984741211</v>
       </c>
       <c r="G2129" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60783,7 +60780,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G2130" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60809,7 +60806,7 @@
         <v>8.1850004196167</v>
       </c>
       <c r="G2131" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60835,7 +60832,7 @@
         <v>8.27499961853027</v>
       </c>
       <c r="G2132" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60861,7 +60858,7 @@
         <v>7.24499988555908</v>
       </c>
       <c r="G2133" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60887,7 +60884,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G2134" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60913,7 +60910,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G2135" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -60939,7 +60936,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G2136" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -60965,7 +60962,7 @@
         <v>7.15500020980835</v>
       </c>
       <c r="G2137" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -60991,7 +60988,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G2138" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61017,7 +61014,7 @@
         <v>7.125</v>
       </c>
       <c r="G2139" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61043,7 +61040,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G2140" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61069,7 +61066,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G2141" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61095,7 +61092,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G2142" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61121,7 +61118,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G2143" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61147,7 +61144,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G2144" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61173,7 +61170,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G2145" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61199,7 +61196,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G2146" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61225,7 +61222,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G2147" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61251,7 +61248,7 @@
         <v>6.9850001335144</v>
       </c>
       <c r="G2148" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61277,7 +61274,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G2149" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>

--- a/data/BPSO.MI.xlsx
+++ b/data/BPSO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="1686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="1688">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03069829940796</t>
+    <t xml:space="preserve">3.03069806098938</t>
   </si>
   <si>
     <t xml:space="preserve">BPSO.MI</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">3.00987863540649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94444608688354</t>
+    <t xml:space="preserve">2.94444632530212</t>
   </si>
   <si>
     <t xml:space="preserve">2.9057822227478</t>
@@ -59,103 +59,103 @@
     <t xml:space="preserve">2.79425024986267</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88496279716492</t>
+    <t xml:space="preserve">2.88496255874634</t>
   </si>
   <si>
     <t xml:space="preserve">2.8909113407135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79722428321838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6916401386261</t>
+    <t xml:space="preserve">2.7972240447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69164037704468</t>
   </si>
   <si>
     <t xml:space="preserve">2.63066959381104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42842483520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55036616325378</t>
+    <t xml:space="preserve">2.42842507362366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55036664009094</t>
   </si>
   <si>
     <t xml:space="preserve">2.57713389396667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53400874137878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69907546043396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6187732219696</t>
+    <t xml:space="preserve">2.53400826454163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69907569885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61877298355103</t>
   </si>
   <si>
     <t xml:space="preserve">2.52359914779663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61282515525818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5756471157074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48642206192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37935090065002</t>
+    <t xml:space="preserve">2.6128249168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57564687728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48642182350159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3793511390686</t>
   </si>
   <si>
     <t xml:space="preserve">2.39124751091003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36745476722717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18602848052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20982146263123</t>
+    <t xml:space="preserve">2.36745429039001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18602824211121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2098217010498</t>
   </si>
   <si>
     <t xml:space="preserve">2.29607343673706</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22469258308411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33771181106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38381195068359</t>
+    <t xml:space="preserve">2.22469234466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33771157264709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38381218910217</t>
   </si>
   <si>
     <t xml:space="preserve">2.44032144546509</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3496081829071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31986665725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40611839294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3421733379364</t>
+    <t xml:space="preserve">2.34960842132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31986713409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40611863136292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34217309951782</t>
   </si>
   <si>
     <t xml:space="preserve">2.33176374435425</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37340259552002</t>
+    <t xml:space="preserve">2.3734028339386</t>
   </si>
   <si>
     <t xml:space="preserve">2.42098927497864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48344731330872</t>
+    <t xml:space="preserve">2.48344755172729</t>
   </si>
   <si>
     <t xml:space="preserve">2.55780172348022</t>
@@ -170,10 +170,10 @@
     <t xml:space="preserve">2.40165710449219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42396330833435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41057991981506</t>
+    <t xml:space="preserve">2.42396354675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41057944297791</t>
   </si>
   <si>
     <t xml:space="preserve">2.48493456840515</t>
@@ -182,25 +182,25 @@
     <t xml:space="preserve">2.6068754196167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52657294273376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46560192108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51318979263306</t>
+    <t xml:space="preserve">2.52657318115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46560168266296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5131893157959</t>
   </si>
   <si>
     <t xml:space="preserve">2.5280601978302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56375026702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45667958259583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39719581604004</t>
+    <t xml:space="preserve">2.56375002861023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45667910575867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39719605445862</t>
   </si>
   <si>
     <t xml:space="preserve">2.34366035461426</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">2.29161238670349</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30053472518921</t>
+    <t xml:space="preserve">2.30053448677063</t>
   </si>
   <si>
     <t xml:space="preserve">2.27227997779846</t>
@@ -221,13 +221,13 @@
     <t xml:space="preserve">2.1562864780426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16223526000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21874451637268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26781916618347</t>
+    <t xml:space="preserve">2.16223478317261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21874403953552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26781868934631</t>
   </si>
   <si>
     <t xml:space="preserve">2.27674126625061</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">2.38678622245789</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46708917617798</t>
+    <t xml:space="preserve">2.4670889377594</t>
   </si>
   <si>
     <t xml:space="preserve">2.39868307113647</t>
@@ -245,25 +245,25 @@
     <t xml:space="preserve">2.45370531082153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4983184337616</t>
+    <t xml:space="preserve">2.49831819534302</t>
   </si>
   <si>
     <t xml:space="preserve">2.49237012863159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44180870056152</t>
+    <t xml:space="preserve">2.44180846214294</t>
   </si>
   <si>
     <t xml:space="preserve">2.4893958568573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4730372428894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42247629165649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39422154426575</t>
+    <t xml:space="preserve">2.47303748130798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42247676849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39422202110291</t>
   </si>
   <si>
     <t xml:space="preserve">2.31094431877136</t>
@@ -272,10 +272,10 @@
     <t xml:space="preserve">2.26187038421631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23064064979553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24848628044128</t>
+    <t xml:space="preserve">2.23064088821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24848651885986</t>
   </si>
   <si>
     <t xml:space="preserve">2.23807692527771</t>
@@ -290,34 +290,34 @@
     <t xml:space="preserve">2.18305420875549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21279573440552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17710542678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22023105621338</t>
+    <t xml:space="preserve">2.2127959728241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17710566520691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22023129463196</t>
   </si>
   <si>
     <t xml:space="preserve">2.20387315750122</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1977813243866</t>
+    <t xml:space="preserve">2.19778108596802</t>
   </si>
   <si>
     <t xml:space="preserve">2.27850317955017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35617971420288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30744171142578</t>
+    <t xml:space="preserve">2.35617995262146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30744194984436</t>
   </si>
   <si>
     <t xml:space="preserve">2.33028769493103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30896496772766</t>
+    <t xml:space="preserve">2.30896520614624</t>
   </si>
   <si>
     <t xml:space="preserve">2.24194979667664</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">2.14142751693726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09725880622864</t>
+    <t xml:space="preserve">2.09725904464722</t>
   </si>
   <si>
     <t xml:space="preserve">2.01044416427612</t>
@@ -341,10 +341,10 @@
     <t xml:space="preserve">2.07441282272339</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08202838897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97236752510071</t>
+    <t xml:space="preserve">2.08202815055847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97236776351929</t>
   </si>
   <si>
     <t xml:space="preserve">1.9083993434906</t>
@@ -353,52 +353,52 @@
     <t xml:space="preserve">1.87641441822052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84899914264679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75913834571838</t>
+    <t xml:space="preserve">1.84899938106537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75913822650909</t>
   </si>
   <si>
     <t xml:space="preserve">1.81701493263245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8962140083313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94038307666779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90687549114227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02872085571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75152325630188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67689335346222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78807699680328</t>
+    <t xml:space="preserve">1.89621376991272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94038331508636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90687501430511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02872061729431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75152313709259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67689323425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78807687759399</t>
   </si>
   <si>
     <t xml:space="preserve">1.77436876296997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75609242916107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75304627418518</t>
+    <t xml:space="preserve">1.75609219074249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75304615497589</t>
   </si>
   <si>
     <t xml:space="preserve">1.6890777349472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61901652812958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63424718379974</t>
+    <t xml:space="preserve">1.61901664733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63424706459045</t>
   </si>
   <si>
     <t xml:space="preserve">1.64033925533295</t>
@@ -407,16 +407,16 @@
     <t xml:space="preserve">1.7545690536499</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79112339019775</t>
+    <t xml:space="preserve">1.79112315177917</t>
   </si>
   <si>
     <t xml:space="preserve">1.81549191474915</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78960001468658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86727583408356</t>
+    <t xml:space="preserve">1.78960025310516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86727595329285</t>
   </si>
   <si>
     <t xml:space="preserve">1.83072257041931</t>
@@ -428,7 +428,7 @@
     <t xml:space="preserve">1.90230631828308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89316785335541</t>
+    <t xml:space="preserve">1.89316761493683</t>
   </si>
   <si>
     <t xml:space="preserve">1.85052227973938</t>
@@ -437,22 +437,22 @@
     <t xml:space="preserve">1.81853830814362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84747648239136</t>
+    <t xml:space="preserve">1.84747624397278</t>
   </si>
   <si>
     <t xml:space="preserve">1.841383934021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78198504447937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66470861434937</t>
+    <t xml:space="preserve">1.7819846868515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66470873355865</t>
   </si>
   <si>
     <t xml:space="preserve">1.68755483627319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62967789173126</t>
+    <t xml:space="preserve">1.62967777252197</t>
   </si>
   <si>
     <t xml:space="preserve">1.75000011920929</t>
@@ -461,34 +461,34 @@
     <t xml:space="preserve">1.77741515636444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76523053646088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80787694454193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83681464195251</t>
+    <t xml:space="preserve">1.76523041725159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80787670612335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8368147611618</t>
   </si>
   <si>
     <t xml:space="preserve">1.82767641544342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82158410549164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86879897117615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82919955253601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84290719032288</t>
+    <t xml:space="preserve">1.82158434391022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86879920959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82919931411743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84290730953217</t>
   </si>
   <si>
     <t xml:space="preserve">1.85509145259857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90992224216461</t>
+    <t xml:space="preserve">1.90992200374603</t>
   </si>
   <si>
     <t xml:space="preserve">1.9053521156311</t>
@@ -503,40 +503,40 @@
     <t xml:space="preserve">1.88098359107971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88859856128693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86575257778168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89469075202942</t>
+    <t xml:space="preserve">1.88859903812408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86575281620026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.894690990448</t>
   </si>
   <si>
     <t xml:space="preserve">1.87336838245392</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85813760757446</t>
+    <t xml:space="preserve">1.85813736915588</t>
   </si>
   <si>
     <t xml:space="preserve">1.9114453792572</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98455214500427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98150551319122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94190633296967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96627497673035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97998285293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9921669960022</t>
+    <t xml:space="preserve">1.98455190658569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9815057516098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94190657138824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9662754535675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97998261451721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99216735363007</t>
   </si>
   <si>
     <t xml:space="preserve">2.08659768104553</t>
@@ -545,7 +545,7 @@
     <t xml:space="preserve">2.11705827713013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24804186820984</t>
+    <t xml:space="preserve">2.24804162979126</t>
   </si>
   <si>
     <t xml:space="preserve">2.25870323181152</t>
@@ -554,25 +554,25 @@
     <t xml:space="preserve">2.22367310523987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23433423042297</t>
+    <t xml:space="preserve">2.23433446884155</t>
   </si>
   <si>
     <t xml:space="preserve">2.23738050460815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24651908874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31505703926086</t>
+    <t xml:space="preserve">2.24651885032654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31505727767944</t>
   </si>
   <si>
     <t xml:space="preserve">2.33790302276611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26479601860046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14295029640198</t>
+    <t xml:space="preserve">2.26479578018188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14295053482056</t>
   </si>
   <si>
     <t xml:space="preserve">2.18407368659973</t>
@@ -581,19 +581,19 @@
     <t xml:space="preserve">2.15208864212036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19930410385132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20996594429016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26631855964661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27697968482971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31658005714417</t>
+    <t xml:space="preserve">2.1993043422699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20996570587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26631879806519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27697992324829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31657981872559</t>
   </si>
   <si>
     <t xml:space="preserve">2.31353425979614</t>
@@ -605,10 +605,10 @@
     <t xml:space="preserve">2.22976493835449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18102765083313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22519588470459</t>
+    <t xml:space="preserve">2.18102741241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22519612312317</t>
   </si>
   <si>
     <t xml:space="preserve">2.24956488609314</t>
@@ -629,25 +629,25 @@
     <t xml:space="preserve">2.22062706947327</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32267284393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43690228462219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54351663589478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42471837997437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39273285865784</t>
+    <t xml:space="preserve">2.32267236709595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43690252304077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54351687431335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42471790313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39273309707642</t>
   </si>
   <si>
     <t xml:space="preserve">2.43385624885559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39121007919312</t>
+    <t xml:space="preserve">2.39120984077454</t>
   </si>
   <si>
     <t xml:space="preserve">2.33333396911621</t>
@@ -659,55 +659,55 @@
     <t xml:space="preserve">2.39577913284302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38054823875427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37597918510437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36227202415466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38207125663757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42624092102051</t>
+    <t xml:space="preserve">2.38054847717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37597942352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36227178573608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38207173347473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42624068260193</t>
   </si>
   <si>
     <t xml:space="preserve">2.47497844696045</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48259377479553</t>
+    <t xml:space="preserve">2.48259401321411</t>
   </si>
   <si>
     <t xml:space="preserve">2.51000881195068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50848579406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46888661384583</t>
+    <t xml:space="preserve">2.50848603248596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46888637542725</t>
   </si>
   <si>
     <t xml:space="preserve">2.46127128601074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45974802970886</t>
+    <t xml:space="preserve">2.45974826812744</t>
   </si>
   <si>
     <t xml:space="preserve">2.52828574180603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52067017555237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50696301460266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57397842407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58920860290527</t>
+    <t xml:space="preserve">2.52066993713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50696277618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57397818565369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58920836448669</t>
   </si>
   <si>
     <t xml:space="preserve">2.62728500366211</t>
@@ -719,7 +719,7 @@
     <t xml:space="preserve">2.58768534660339</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59682369232178</t>
+    <t xml:space="preserve">2.59682393074036</t>
   </si>
   <si>
     <t xml:space="preserve">2.61814641952515</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">2.50391674041748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4963014125824</t>
+    <t xml:space="preserve">2.49630117416382</t>
   </si>
   <si>
     <t xml:space="preserve">2.53285479545593</t>
@@ -755,10 +755,10 @@
     <t xml:space="preserve">2.47345566749573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46279382705688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4171028137207</t>
+    <t xml:space="preserve">2.46279430389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41710257530212</t>
   </si>
   <si>
     <t xml:space="preserve">2.28002619743347</t>
@@ -767,7 +767,7 @@
     <t xml:space="preserve">2.28611850738525</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44756364822388</t>
+    <t xml:space="preserve">2.4475634098053</t>
   </si>
   <si>
     <t xml:space="preserve">2.38816404342651</t>
@@ -776,19 +776,19 @@
     <t xml:space="preserve">2.43537926673889</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44147133827209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47802495956421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50543975830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54808640480042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4947783946991</t>
+    <t xml:space="preserve">2.44147109985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47802472114563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50543999671936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54808616638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49477815628052</t>
   </si>
   <si>
     <t xml:space="preserve">2.53590083122253</t>
@@ -803,31 +803,31 @@
     <t xml:space="preserve">2.46736335754395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45061016082764</t>
+    <t xml:space="preserve">2.45060992240906</t>
   </si>
   <si>
     <t xml:space="preserve">2.48564028739929</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44604086875916</t>
+    <t xml:space="preserve">2.446040391922</t>
   </si>
   <si>
     <t xml:space="preserve">2.45365571975708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45670199394226</t>
+    <t xml:space="preserve">2.45670223236084</t>
   </si>
   <si>
     <t xml:space="preserve">2.47040963172913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52371644973755</t>
+    <t xml:space="preserve">2.52371621131897</t>
   </si>
   <si>
     <t xml:space="preserve">2.47650146484375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49782466888428</t>
+    <t xml:space="preserve">2.4978244304657</t>
   </si>
   <si>
     <t xml:space="preserve">2.6425154209137</t>
@@ -839,10 +839,10 @@
     <t xml:space="preserve">2.60291647911072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67602372169495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63946914672852</t>
+    <t xml:space="preserve">2.67602348327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63946938514709</t>
   </si>
   <si>
     <t xml:space="preserve">2.66383838653564</t>
@@ -863,34 +863,34 @@
     <t xml:space="preserve">2.66536116600037</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68363857269287</t>
+    <t xml:space="preserve">2.68363881111145</t>
   </si>
   <si>
     <t xml:space="preserve">2.68668484687805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68820786476135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68516182899475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73694586753845</t>
+    <t xml:space="preserve">2.68820738792419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68516159057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73694562911987</t>
   </si>
   <si>
     <t xml:space="preserve">2.75553250312805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82058715820312</t>
+    <t xml:space="preserve">2.82058691978455</t>
   </si>
   <si>
     <t xml:space="preserve">2.84537029266357</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89958190917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74933671951294</t>
+    <t xml:space="preserve">2.89958238601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74933695793152</t>
   </si>
   <si>
     <t xml:space="preserve">2.70596623420715</t>
@@ -908,13 +908,13 @@
     <t xml:space="preserve">2.69357514381409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64710783958435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66724348068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65175437927246</t>
+    <t xml:space="preserve">2.64710807800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66724371910095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65175461769104</t>
   </si>
   <si>
     <t xml:space="preserve">2.69667315483093</t>
@@ -923,22 +923,22 @@
     <t xml:space="preserve">2.63161873817444</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65640115737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63626527786255</t>
+    <t xml:space="preserve">2.65640139579773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63626551628113</t>
   </si>
   <si>
     <t xml:space="preserve">2.65795016288757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63316774368286</t>
+    <t xml:space="preserve">2.63316750526428</t>
   </si>
   <si>
     <t xml:space="preserve">2.65949940681458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66569471359253</t>
+    <t xml:space="preserve">2.66569495201111</t>
   </si>
   <si>
     <t xml:space="preserve">2.66414570808411</t>
@@ -950,13 +950,13 @@
     <t xml:space="preserve">2.71835875511169</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7880597114563</t>
+    <t xml:space="preserve">2.78805947303772</t>
   </si>
   <si>
     <t xml:space="preserve">2.74159240722656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67343926429749</t>
+    <t xml:space="preserve">2.67343950271606</t>
   </si>
   <si>
     <t xml:space="preserve">2.7772171497345</t>
@@ -965,16 +965,16 @@
     <t xml:space="preserve">2.85311484336853</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80045127868652</t>
+    <t xml:space="preserve">2.80045104026794</t>
   </si>
   <si>
     <t xml:space="preserve">2.81903791427612</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80974459648132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80354881286621</t>
+    <t xml:space="preserve">2.80974435806274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80354905128479</t>
   </si>
   <si>
     <t xml:space="preserve">2.92126679420471</t>
@@ -986,28 +986,28 @@
     <t xml:space="preserve">2.91662001609802</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90577793121338</t>
+    <t xml:space="preserve">2.9057776927948</t>
   </si>
   <si>
     <t xml:space="preserve">2.90732669830322</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90113115310669</t>
+    <t xml:space="preserve">2.90113139152527</t>
   </si>
   <si>
     <t xml:space="preserve">2.88099527359009</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87789726257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87944626808167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90422868728638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83917379379272</t>
+    <t xml:space="preserve">2.87789750099182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87944650650024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90422916412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83917355537415</t>
   </si>
   <si>
     <t xml:space="preserve">2.87015295028687</t>
@@ -1028,13 +1028,13 @@
     <t xml:space="preserve">2.85776162147522</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84846782684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83452725410461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78341317176819</t>
+    <t xml:space="preserve">2.84846806526184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83452701568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78341293334961</t>
   </si>
   <si>
     <t xml:space="preserve">2.81129312515259</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">2.68118405342102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6997709274292</t>
+    <t xml:space="preserve">2.69977068901062</t>
   </si>
   <si>
     <t xml:space="preserve">2.69047737121582</t>
@@ -1067,13 +1067,13 @@
     <t xml:space="preserve">2.69822216033936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71371102333069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73384785652161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68583035469055</t>
+    <t xml:space="preserve">2.71371078491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73384737968445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68583059310913</t>
   </si>
   <si>
     <t xml:space="preserve">2.7322986125946</t>
@@ -1082,37 +1082,37 @@
     <t xml:space="preserve">2.72765183448792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71680998802185</t>
+    <t xml:space="preserve">2.71680974960327</t>
   </si>
   <si>
     <t xml:space="preserve">2.76327705383301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82988023757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81748914718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77411937713623</t>
+    <t xml:space="preserve">2.82988047599792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8174889087677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77411961555481</t>
   </si>
   <si>
     <t xml:space="preserve">2.70286870002747</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69512438774109</t>
+    <t xml:space="preserve">2.69512391090393</t>
   </si>
   <si>
     <t xml:space="preserve">2.67034149169922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71525979042053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6687924861908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64865660667419</t>
+    <t xml:space="preserve">2.71526002883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66879272460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64865684509277</t>
   </si>
   <si>
     <t xml:space="preserve">2.68273258209229</t>
@@ -1121,16 +1121,16 @@
     <t xml:space="preserve">2.66104793548584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67189025878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67653727531433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65485239028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69202637672424</t>
+    <t xml:space="preserve">2.67189049720764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67653751373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65485262870789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69202613830566</t>
   </si>
   <si>
     <t xml:space="preserve">2.62387418746948</t>
@@ -1139,10 +1139,10 @@
     <t xml:space="preserve">2.57895469665527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63006973266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58205270767212</t>
+    <t xml:space="preserve">2.63006997108459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58205246925354</t>
   </si>
   <si>
     <t xml:space="preserve">2.45968866348267</t>
@@ -1151,13 +1151,13 @@
     <t xml:space="preserve">2.4070246219635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4441990852356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34042143821716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35436153411865</t>
+    <t xml:space="preserve">2.44419884681702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34042167663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35436177253723</t>
   </si>
   <si>
     <t xml:space="preserve">2.37914419174194</t>
@@ -1166,7 +1166,7 @@
     <t xml:space="preserve">2.42406272888184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4472963809967</t>
+    <t xml:space="preserve">2.44729661941528</t>
   </si>
   <si>
     <t xml:space="preserve">2.44884562492371</t>
@@ -1178,10 +1178,10 @@
     <t xml:space="preserve">2.51544952392578</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54797673225403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58669996261597</t>
+    <t xml:space="preserve">2.54797697067261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58670020103455</t>
   </si>
   <si>
     <t xml:space="preserve">2.50925374031067</t>
@@ -1190,16 +1190,16 @@
     <t xml:space="preserve">2.52474284172058</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52784109115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50770497322083</t>
+    <t xml:space="preserve">2.52784085273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50770473480225</t>
   </si>
   <si>
     <t xml:space="preserve">2.54642772674561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56346583366394</t>
+    <t xml:space="preserve">2.56346559524536</t>
   </si>
   <si>
     <t xml:space="preserve">2.57121062278748</t>
@@ -1214,7 +1214,7 @@
     <t xml:space="preserve">2.4565896987915</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36210632324219</t>
+    <t xml:space="preserve">2.36210608482361</t>
   </si>
   <si>
     <t xml:space="preserve">2.39928007125854</t>
@@ -1226,19 +1226,19 @@
     <t xml:space="preserve">2.39308428764343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33887243270874</t>
+    <t xml:space="preserve">2.33887267112732</t>
   </si>
   <si>
     <t xml:space="preserve">2.37604641914368</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40547585487366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35745930671692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38533997535706</t>
+    <t xml:space="preserve">2.40547609329224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35745906829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38533973693848</t>
   </si>
   <si>
     <t xml:space="preserve">2.44574761390686</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">2.47827553749084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47517776489258</t>
+    <t xml:space="preserve">2.475177526474</t>
   </si>
   <si>
     <t xml:space="preserve">2.55881905555725</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">2.55727005004883</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51390075683594</t>
+    <t xml:space="preserve">2.51390051841736</t>
   </si>
   <si>
     <t xml:space="preserve">2.51235175132751</t>
@@ -1286,13 +1286,13 @@
     <t xml:space="preserve">2.47672653198242</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3884379863739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47982454299927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46743321418762</t>
+    <t xml:space="preserve">2.38843774795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47982430458069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46743297576904</t>
   </si>
   <si>
     <t xml:space="preserve">2.4860200881958</t>
@@ -1301,31 +1301,31 @@
     <t xml:space="preserve">2.47207999229431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5417811870575</t>
+    <t xml:space="preserve">2.54178094863892</t>
   </si>
   <si>
     <t xml:space="preserve">2.60218906402588</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5324878692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48137331008911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52164506912231</t>
+    <t xml:space="preserve">2.53248763084412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48137307167053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52164530754089</t>
   </si>
   <si>
     <t xml:space="preserve">2.43955183029175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4953134059906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47053146362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46433544158936</t>
+    <t xml:space="preserve">2.49531316757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47053098678589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46433520317078</t>
   </si>
   <si>
     <t xml:space="preserve">2.54332995414734</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">2.49686241149902</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49221611022949</t>
+    <t xml:space="preserve">2.49221587181091</t>
   </si>
   <si>
     <t xml:space="preserve">2.56811237335205</t>
@@ -1349,19 +1349,19 @@
     <t xml:space="preserve">2.78651094436646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91352248191833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90267992019653</t>
+    <t xml:space="preserve">2.91352224349976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90268015861511</t>
   </si>
   <si>
     <t xml:space="preserve">2.95069622993469</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97547960281372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0513768196106</t>
+    <t xml:space="preserve">2.9754798412323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05137658119202</t>
   </si>
   <si>
     <t xml:space="preserve">3.04363203048706</t>
@@ -1370,31 +1370,31 @@
     <t xml:space="preserve">3.03588724136353</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07306146621704</t>
+    <t xml:space="preserve">3.07306122779846</t>
   </si>
   <si>
     <t xml:space="preserve">3.10713815689087</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03124070167542</t>
+    <t xml:space="preserve">3.03124046325684</t>
   </si>
   <si>
     <t xml:space="preserve">2.92591381072998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98477339744568</t>
+    <t xml:space="preserve">2.9847731590271</t>
   </si>
   <si>
     <t xml:space="preserve">2.95224499702454</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02659392356873</t>
+    <t xml:space="preserve">3.02659368515015</t>
   </si>
   <si>
     <t xml:space="preserve">3.00645804405212</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03898525238037</t>
+    <t xml:space="preserve">3.03898501396179</t>
   </si>
   <si>
     <t xml:space="preserve">2.94295167922974</t>
@@ -1418,25 +1418,25 @@
     <t xml:space="preserve">2.89636063575745</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81897759437561</t>
+    <t xml:space="preserve">2.81897735595703</t>
   </si>
   <si>
     <t xml:space="preserve">2.70842885971069</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65947222709656</t>
+    <t xml:space="preserve">2.65947198867798</t>
   </si>
   <si>
     <t xml:space="preserve">2.70211219787598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74791049957275</t>
+    <t xml:space="preserve">2.74791026115417</t>
   </si>
   <si>
     <t xml:space="preserve">2.79686808586121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76054406166077</t>
+    <t xml:space="preserve">2.76054430007935</t>
   </si>
   <si>
     <t xml:space="preserve">2.69895362854004</t>
@@ -1457,13 +1457,13 @@
     <t xml:space="preserve">2.74317264556885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73843479156494</t>
+    <t xml:space="preserve">2.73843455314636</t>
   </si>
   <si>
     <t xml:space="preserve">2.72738027572632</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75422739982605</t>
+    <t xml:space="preserve">2.75422763824463</t>
   </si>
   <si>
     <t xml:space="preserve">2.69263648986816</t>
@@ -1478,7 +1478,7 @@
     <t xml:space="preserve">2.72264218330383</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8426661491394</t>
+    <t xml:space="preserve">2.84266591072083</t>
   </si>
   <si>
     <t xml:space="preserve">2.84898328781128</t>
@@ -1490,13 +1490,13 @@
     <t xml:space="preserve">2.88214731216431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84740400314331</t>
+    <t xml:space="preserve">2.84740376472473</t>
   </si>
   <si>
     <t xml:space="preserve">2.80634331703186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.820556640625</t>
+    <t xml:space="preserve">2.82055640220642</t>
   </si>
   <si>
     <t xml:space="preserve">2.8379282951355</t>
@@ -1517,13 +1517,13 @@
     <t xml:space="preserve">2.85372090339661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90741586685181</t>
+    <t xml:space="preserve">2.90741610527039</t>
   </si>
   <si>
     <t xml:space="preserve">2.92636704444885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91057467460632</t>
+    <t xml:space="preserve">2.91057443618774</t>
   </si>
   <si>
     <t xml:space="preserve">2.92794632911682</t>
@@ -1535,13 +1535,13 @@
     <t xml:space="preserve">2.8995189666748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8837263584137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88056802749634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86793398857117</t>
+    <t xml:space="preserve">2.88372659683228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88056826591492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86793375015259</t>
   </si>
   <si>
     <t xml:space="preserve">2.83476972579956</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">2.66578936576843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64841771125793</t>
+    <t xml:space="preserve">2.64841794967651</t>
   </si>
   <si>
     <t xml:space="preserve">2.68000268936157</t>
@@ -1583,13 +1583,13 @@
     <t xml:space="preserve">2.86161708831787</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86477589607239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84424543380737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87583017349243</t>
+    <t xml:space="preserve">2.86477565765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84424519538879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87583041191101</t>
   </si>
   <si>
     <t xml:space="preserve">2.85214161872864</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">2.81108117103577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81739807128906</t>
+    <t xml:space="preserve">2.81739783287048</t>
   </si>
   <si>
     <t xml:space="preserve">2.82529449462891</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">2.59472227096558</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59156394004822</t>
+    <t xml:space="preserve">2.59156370162964</t>
   </si>
   <si>
     <t xml:space="preserve">2.53471064567566</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">2.55997848510742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58524680137634</t>
+    <t xml:space="preserve">2.58524656295776</t>
   </si>
   <si>
     <t xml:space="preserve">2.50312495231628</t>
@@ -1628,13 +1628,13 @@
     <t xml:space="preserve">2.4067907333374</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38941884040833</t>
+    <t xml:space="preserve">2.3894190788269</t>
   </si>
   <si>
     <t xml:space="preserve">2.38783955574036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32151055335999</t>
+    <t xml:space="preserve">2.32151079177856</t>
   </si>
   <si>
     <t xml:space="preserve">2.33572387695312</t>
@@ -1643,25 +1643,25 @@
     <t xml:space="preserve">2.31045579910278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3594126701355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34993696212769</t>
+    <t xml:space="preserve">2.35941243171692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34993720054626</t>
   </si>
   <si>
     <t xml:space="preserve">2.29150485992432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26465773582458</t>
+    <t xml:space="preserve">2.26465749740601</t>
   </si>
   <si>
     <t xml:space="preserve">2.23623013496399</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18727326393127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15252995491028</t>
+    <t xml:space="preserve">2.18727350234985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1525297164917</t>
   </si>
   <si>
     <t xml:space="preserve">2.19832849502563</t>
@@ -1685,13 +1685,13 @@
     <t xml:space="preserve">2.26781606674194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24886512756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25202345848083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25044441223145</t>
+    <t xml:space="preserve">2.2488648891449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25202322006226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25044417381287</t>
   </si>
   <si>
     <t xml:space="preserve">2.23938870429993</t>
@@ -1724,16 +1724,16 @@
     <t xml:space="preserve">2.10199332237244</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12568283081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22833395004272</t>
+    <t xml:space="preserve">2.12568259239197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2283341884613</t>
   </si>
   <si>
     <t xml:space="preserve">2.21096181869507</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22675466537476</t>
+    <t xml:space="preserve">2.22675490379333</t>
   </si>
   <si>
     <t xml:space="preserve">2.19201135635376</t>
@@ -1745,10 +1745,10 @@
     <t xml:space="preserve">2.2030656337738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09567594528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12410378456116</t>
+    <t xml:space="preserve">2.09567618370056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12410354614258</t>
   </si>
   <si>
     <t xml:space="preserve">2.08304214477539</t>
@@ -1766,22 +1766,22 @@
     <t xml:space="preserve">2.02776837348938</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12252426147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05145716667175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00881767272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00723838806152</t>
+    <t xml:space="preserve">2.12252402305603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05145740509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00881743431091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00723814964294</t>
   </si>
   <si>
     <t xml:space="preserve">2.07830452919006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06409096717834</t>
+    <t xml:space="preserve">2.06409120559692</t>
   </si>
   <si>
     <t xml:space="preserve">2.13515853881836</t>
@@ -1799,16 +1799,16 @@
     <t xml:space="preserve">2.08777976036072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02303075790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00565910339355</t>
+    <t xml:space="preserve">2.02303051948547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00565886497498</t>
   </si>
   <si>
     <t xml:space="preserve">2.05619502067566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02934789657593</t>
+    <t xml:space="preserve">2.02934765815735</t>
   </si>
   <si>
     <t xml:space="preserve">1.99776268005371</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">1.98512899875641</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96933543682098</t>
+    <t xml:space="preserve">1.96933567523956</t>
   </si>
   <si>
     <t xml:space="preserve">2.01987218856812</t>
@@ -1826,13 +1826,13 @@
     <t xml:space="preserve">1.98354935646057</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95512187480927</t>
+    <t xml:space="preserve">1.95512211322784</t>
   </si>
   <si>
     <t xml:space="preserve">1.90932404994965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83825695514679</t>
+    <t xml:space="preserve">1.83825707435608</t>
   </si>
   <si>
     <t xml:space="preserve">1.81614744663239</t>
@@ -1847,13 +1847,13 @@
     <t xml:space="preserve">1.91090321540833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88879370689392</t>
+    <t xml:space="preserve">1.88879382610321</t>
   </si>
   <si>
     <t xml:space="preserve">1.88721442222595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91406202316284</t>
+    <t xml:space="preserve">1.91406178474426</t>
   </si>
   <si>
     <t xml:space="preserve">1.93459188938141</t>
@@ -1871,19 +1871,19 @@
     <t xml:space="preserve">1.97723138332367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97091472148895</t>
+    <t xml:space="preserve">1.97091495990753</t>
   </si>
   <si>
     <t xml:space="preserve">1.96301829814911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97407293319702</t>
+    <t xml:space="preserve">1.9740731716156</t>
   </si>
   <si>
     <t xml:space="preserve">1.9677562713623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03250622749329</t>
+    <t xml:space="preserve">2.03250598907471</t>
   </si>
   <si>
     <t xml:space="preserve">2.02460980415344</t>
@@ -1910,7 +1910,7 @@
     <t xml:space="preserve">1.88089752197266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94248831272125</t>
+    <t xml:space="preserve">1.94248855113983</t>
   </si>
   <si>
     <t xml:space="preserve">1.9409087896347</t>
@@ -1919,19 +1919,19 @@
     <t xml:space="preserve">1.96617674827576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9235372543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90142774581909</t>
+    <t xml:space="preserve">1.92353701591492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9014276266098</t>
   </si>
   <si>
     <t xml:space="preserve">1.93775045871735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92669558525085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92511665821075</t>
+    <t xml:space="preserve">1.92669534683228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92511641979218</t>
   </si>
   <si>
     <t xml:space="preserve">1.93617129325867</t>
@@ -1946,16 +1946,16 @@
     <t xml:space="preserve">1.83509850502014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82878148555756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86984276771545</t>
+    <t xml:space="preserve">1.82878136634827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86984252929688</t>
   </si>
   <si>
     <t xml:space="preserve">1.89037299156189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89826917648315</t>
+    <t xml:space="preserve">1.89826893806458</t>
   </si>
   <si>
     <t xml:space="preserve">1.90458619594574</t>
@@ -1964,7 +1964,7 @@
     <t xml:space="preserve">1.91564106941223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87300133705139</t>
+    <t xml:space="preserve">1.87300109863281</t>
   </si>
   <si>
     <t xml:space="preserve">1.78456234931946</t>
@@ -1973,7 +1973,7 @@
     <t xml:space="preserve">1.79877555370331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72613000869751</t>
+    <t xml:space="preserve">1.7261301279068</t>
   </si>
   <si>
     <t xml:space="preserve">1.6913857460022</t>
@@ -2018,10 +2018,10 @@
     <t xml:space="preserve">1.6794091463089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68102729320526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70206010341644</t>
+    <t xml:space="preserve">1.68102717399597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70206022262573</t>
   </si>
   <si>
     <t xml:space="preserve">1.61792755126953</t>
@@ -2030,34 +2030,34 @@
     <t xml:space="preserve">1.62763595581055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63572561740875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57667076587677</t>
+    <t xml:space="preserve">1.63572549819946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57667064666748</t>
   </si>
   <si>
     <t xml:space="preserve">1.5750527381897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57586181163788</t>
+    <t xml:space="preserve">1.57586169242859</t>
   </si>
   <si>
     <t xml:space="preserve">1.55482876300812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57343482971191</t>
+    <t xml:space="preserve">1.57343471050262</t>
   </si>
   <si>
     <t xml:space="preserve">1.60013055801392</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58961403369904</t>
+    <t xml:space="preserve">1.58961391448975</t>
   </si>
   <si>
     <t xml:space="preserve">1.60741102695465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56291842460632</t>
+    <t xml:space="preserve">1.56291830539703</t>
   </si>
   <si>
     <t xml:space="preserve">1.57262587547302</t>
@@ -2066,10 +2066,10 @@
     <t xml:space="preserve">1.59608566761017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58799624443054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58637833595276</t>
+    <t xml:space="preserve">1.58799612522125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58637821674347</t>
   </si>
   <si>
     <t xml:space="preserve">1.6421971321106</t>
@@ -2078,13 +2078,13 @@
     <t xml:space="preserve">1.6874988079071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67455542087555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63410770893097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61145579814911</t>
+    <t xml:space="preserve">1.67455554008484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63410758972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6114559173584</t>
   </si>
   <si>
     <t xml:space="preserve">1.57828855514526</t>
@@ -2096,7 +2096,7 @@
     <t xml:space="preserve">1.55240190029144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55725562572479</t>
+    <t xml:space="preserve">1.55725574493408</t>
   </si>
   <si>
     <t xml:space="preserve">1.57100796699524</t>
@@ -2111,37 +2111,37 @@
     <t xml:space="preserve">1.54026746749878</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52408826351166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52166152000427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52894198894501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51761674880981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50710022449493</t>
+    <t xml:space="preserve">1.52408838272095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52166140079498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5289421081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51761662960052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50710010528564</t>
   </si>
   <si>
     <t xml:space="preserve">1.50062835216522</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49011194705963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48525750637054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37523901462555</t>
+    <t xml:space="preserve">1.49011206626892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48525738716125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37523889541626</t>
   </si>
   <si>
     <t xml:space="preserve">1.34287977218628</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3404529094696</t>
+    <t xml:space="preserve">1.34045279026031</t>
   </si>
   <si>
     <t xml:space="preserve">1.286252617836</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">1.34207081794739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30890345573425</t>
+    <t xml:space="preserve">1.30890357494354</t>
   </si>
   <si>
     <t xml:space="preserve">1.31861090660095</t>
@@ -2162,16 +2162,16 @@
     <t xml:space="preserve">1.36795842647552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35663294792175</t>
+    <t xml:space="preserve">1.35663306713104</t>
   </si>
   <si>
     <t xml:space="preserve">1.36714935302734</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40759742259979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3614866733551</t>
+    <t xml:space="preserve">1.4075973033905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36148655414581</t>
   </si>
   <si>
     <t xml:space="preserve">1.37362110614777</t>
@@ -2186,7 +2186,7 @@
     <t xml:space="preserve">1.48202168941498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47231411933899</t>
+    <t xml:space="preserve">1.4723140001297</t>
   </si>
   <si>
     <t xml:space="preserve">1.44885420799255</t>
@@ -2204,7 +2204,7 @@
     <t xml:space="preserve">1.44723629951477</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45613503456116</t>
+    <t xml:space="preserve">1.45613491535187</t>
   </si>
   <si>
     <t xml:space="preserve">1.46179759502411</t>
@@ -2213,7 +2213,7 @@
     <t xml:space="preserve">1.43267500400543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39546298980713</t>
+    <t xml:space="preserve">1.39546287059784</t>
   </si>
   <si>
     <t xml:space="preserve">1.38171064853668</t>
@@ -2222,7 +2222,7 @@
     <t xml:space="preserve">1.35097026824951</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35905969142914</t>
+    <t xml:space="preserve">1.35905981063843</t>
   </si>
   <si>
     <t xml:space="preserve">1.34449768066406</t>
@@ -2231,7 +2231,7 @@
     <t xml:space="preserve">1.36553144454956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3711941242218</t>
+    <t xml:space="preserve">1.37119424343109</t>
   </si>
   <si>
     <t xml:space="preserve">1.3493515253067</t>
@@ -2252,10 +2252,10 @@
     <t xml:space="preserve">1.43186616897583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45775282382965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48768508434296</t>
+    <t xml:space="preserve">1.45775270462036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48768520355225</t>
   </si>
   <si>
     <t xml:space="preserve">1.48121273517609</t>
@@ -2264,10 +2264,10 @@
     <t xml:space="preserve">1.44804537296295</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4537079334259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45856177806854</t>
+    <t xml:space="preserve">1.45370805263519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45856165885925</t>
   </si>
   <si>
     <t xml:space="preserve">1.45937085151672</t>
@@ -2282,16 +2282,16 @@
     <t xml:space="preserve">1.52651524543762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51842570304871</t>
+    <t xml:space="preserve">1.51842558383942</t>
   </si>
   <si>
     <t xml:space="preserve">1.53541374206543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50548243522644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53703153133392</t>
+    <t xml:space="preserve">1.50548231601715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53703165054321</t>
   </si>
   <si>
     <t xml:space="preserve">1.74574398994446</t>
@@ -2303,7 +2303,7 @@
     <t xml:space="preserve">1.69073474407196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69397068023682</t>
+    <t xml:space="preserve">1.69397056102753</t>
   </si>
   <si>
     <t xml:space="preserve">1.65675854682922</t>
@@ -2336,10 +2336,10 @@
     <t xml:space="preserve">1.68426322937012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72632884979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75868809223175</t>
+    <t xml:space="preserve">1.72632896900177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75868821144104</t>
   </si>
   <si>
     <t xml:space="preserve">1.72794699668884</t>
@@ -2348,7 +2348,7 @@
     <t xml:space="preserve">1.73280048370361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70529627799988</t>
+    <t xml:space="preserve">1.70529615879059</t>
   </si>
   <si>
     <t xml:space="preserve">1.70044219493866</t>
@@ -2381,7 +2381,7 @@
     <t xml:space="preserve">1.71014976501465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70367813110352</t>
+    <t xml:space="preserve">1.70367801189423</t>
   </si>
   <si>
     <t xml:space="preserve">1.63896143436432</t>
@@ -2402,19 +2402,19 @@
     <t xml:space="preserve">1.75545144081116</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88488566875458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93504214286804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91077327728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97063636779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17449569702148</t>
+    <t xml:space="preserve">1.88488578796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93504226207733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91077351570129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97063612937927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17449545860291</t>
   </si>
   <si>
     <t xml:space="preserve">2.21656155586243</t>
@@ -2432,10 +2432,10 @@
     <t xml:space="preserve">1.89944779872894</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9463677406311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82987654209137</t>
+    <t xml:space="preserve">1.94636750221252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82987666130066</t>
   </si>
   <si>
     <t xml:space="preserve">1.58556926250458</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">1.06621420383453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.984509348869324</t>
+    <t xml:space="preserve">0.984509229660034</t>
   </si>
   <si>
     <t xml:space="preserve">1.01282262802124</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">1.03142881393433</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0912926197052</t>
+    <t xml:space="preserve">1.09129250049591</t>
   </si>
   <si>
     <t xml:space="preserve">1.11798822879791</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">1.19403040409088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21991801261902</t>
+    <t xml:space="preserve">1.21991789340973</t>
   </si>
   <si>
     <t xml:space="preserve">1.28787064552307</t>
@@ -2528,19 +2528,19 @@
     <t xml:space="preserve">1.14306592941284</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17218863964081</t>
+    <t xml:space="preserve">1.17218852043152</t>
   </si>
   <si>
     <t xml:space="preserve">1.13902127742767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1729975938797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15520036220551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15924525260925</t>
+    <t xml:space="preserve">1.17299747467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15520048141479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15924513339996</t>
   </si>
   <si>
     <t xml:space="preserve">1.15115559101105</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">1.1640989780426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17057085037231</t>
+    <t xml:space="preserve">1.17057073116302</t>
   </si>
   <si>
     <t xml:space="preserve">1.11151659488678</t>
@@ -2561,7 +2561,7 @@
     <t xml:space="preserve">1.12445986270905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1090897321701</t>
+    <t xml:space="preserve">1.10908985137939</t>
   </si>
   <si>
     <t xml:space="preserve">1.1187971830368</t>
@@ -2573,28 +2573,28 @@
     <t xml:space="preserve">1.08401203155518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05569767951965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03951847553253</t>
+    <t xml:space="preserve">1.05569756031036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03951835632324</t>
   </si>
   <si>
     <t xml:space="preserve">1.05974233150482</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01039588451385</t>
+    <t xml:space="preserve">1.01039600372314</t>
   </si>
   <si>
     <t xml:space="preserve">0.99259877204895</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986936032772064</t>
+    <t xml:space="preserve">0.986935913562775</t>
   </si>
   <si>
     <t xml:space="preserve">0.978846490383148</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05650651454926</t>
+    <t xml:space="preserve">1.05650639533997</t>
   </si>
   <si>
     <t xml:space="preserve">1.06864094734192</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">1.17542445659637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18108713626862</t>
+    <t xml:space="preserve">1.18108701705933</t>
   </si>
   <si>
     <t xml:space="preserve">1.21506333351135</t>
@@ -2621,7 +2621,7 @@
     <t xml:space="preserve">1.32750964164734</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28544366359711</t>
+    <t xml:space="preserve">1.28544354438782</t>
   </si>
   <si>
     <t xml:space="preserve">1.27411818504333</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">1.22962558269501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25146734714508</t>
+    <t xml:space="preserve">1.25146746635437</t>
   </si>
   <si>
     <t xml:space="preserve">1.27169132232666</t>
@@ -2639,13 +2639,13 @@
     <t xml:space="preserve">1.24499571323395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27816307544708</t>
+    <t xml:space="preserve">1.27816295623779</t>
   </si>
   <si>
     <t xml:space="preserve">1.25389432907104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33479011058807</t>
+    <t xml:space="preserve">1.33479022979736</t>
   </si>
   <si>
     <t xml:space="preserve">1.38494658470154</t>
@@ -2654,19 +2654,19 @@
     <t xml:space="preserve">1.46017968654633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50386440753937</t>
+    <t xml:space="preserve">1.50386428833008</t>
   </si>
   <si>
     <t xml:space="preserve">1.51195383071899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49334788322449</t>
+    <t xml:space="preserve">1.4933477640152</t>
   </si>
   <si>
     <t xml:space="preserve">1.49901056289673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5014374256134</t>
+    <t xml:space="preserve">1.50143754482269</t>
   </si>
   <si>
     <t xml:space="preserve">1.50305545330048</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">1.47474110126495</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43833780288696</t>
+    <t xml:space="preserve">1.43833792209625</t>
   </si>
   <si>
     <t xml:space="preserve">1.46665155887604</t>
@@ -2711,7 +2711,7 @@
     <t xml:space="preserve">1.57990658283234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59042298793793</t>
+    <t xml:space="preserve">1.59042286872864</t>
   </si>
   <si>
     <t xml:space="preserve">1.66161227226257</t>
@@ -2726,37 +2726,37 @@
     <t xml:space="preserve">1.47635889053345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43995559215546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46988725662231</t>
+    <t xml:space="preserve">1.43995571136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46988713741302</t>
   </si>
   <si>
     <t xml:space="preserve">1.49415683746338</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47797691822052</t>
+    <t xml:space="preserve">1.47797679901123</t>
   </si>
   <si>
     <t xml:space="preserve">1.48687624931335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4917299747467</t>
+    <t xml:space="preserve">1.49172985553741</t>
   </si>
   <si>
     <t xml:space="preserve">1.41568684577942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41245102882385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43914675712585</t>
+    <t xml:space="preserve">1.41245114803314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43914687633514</t>
   </si>
   <si>
     <t xml:space="preserve">1.39303612709045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41811370849609</t>
+    <t xml:space="preserve">1.41811382770538</t>
   </si>
   <si>
     <t xml:space="preserve">1.42943930625916</t>
@@ -2777,13 +2777,13 @@
     <t xml:space="preserve">1.45128107070923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41164207458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42701232433319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43105721473694</t>
+    <t xml:space="preserve">1.41164219379425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42701244354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43105709552765</t>
   </si>
   <si>
     <t xml:space="preserve">1.36472249031067</t>
@@ -2804,7 +2804,7 @@
     <t xml:space="preserve">1.18674981594086</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21910905838013</t>
+    <t xml:space="preserve">1.21910893917084</t>
   </si>
   <si>
     <t xml:space="preserve">1.31456625461578</t>
@@ -2813,7 +2813,7 @@
     <t xml:space="preserve">1.33074533939362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32670056819916</t>
+    <t xml:space="preserve">1.32670044898987</t>
   </si>
   <si>
     <t xml:space="preserve">1.31618416309357</t>
@@ -2831,19 +2831,19 @@
     <t xml:space="preserve">1.66484797000885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94151389598846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90915524959564</t>
+    <t xml:space="preserve">1.94151365756989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90915548801422</t>
   </si>
   <si>
     <t xml:space="preserve">1.90106594562531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88326787948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81369721889496</t>
+    <t xml:space="preserve">1.88326799869537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81369733810425</t>
   </si>
   <si>
     <t xml:space="preserve">1.84443795681</t>
@@ -2855,19 +2855,19 @@
     <t xml:space="preserve">1.82340502738953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82502281665802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85414516925812</t>
+    <t xml:space="preserve">1.82502269744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85414528846741</t>
   </si>
   <si>
     <t xml:space="preserve">1.85090959072113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82016897201538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78781056404114</t>
+    <t xml:space="preserve">1.82016885280609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78781068325043</t>
   </si>
   <si>
     <t xml:space="preserve">1.78133904933929</t>
@@ -2879,10 +2879,10 @@
     <t xml:space="preserve">1.77972102165222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79590034484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76192378997803</t>
+    <t xml:space="preserve">1.79590022563934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76192390918732</t>
   </si>
   <si>
     <t xml:space="preserve">1.73118269443512</t>
@@ -2900,7 +2900,7 @@
     <t xml:space="preserve">1.7829567193985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86870682239532</t>
+    <t xml:space="preserve">1.86870670318604</t>
   </si>
   <si>
     <t xml:space="preserve">1.90430164337158</t>
@@ -2915,13 +2915,13 @@
     <t xml:space="preserve">1.86061704158783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81531536579132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7700138092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79428243637085</t>
+    <t xml:space="preserve">1.81531548500061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77001368999481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79428231716156</t>
   </si>
   <si>
     <t xml:space="preserve">1.77163147926331</t>
@@ -2936,19 +2936,19 @@
     <t xml:space="preserve">1.68264508247375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70853185653687</t>
+    <t xml:space="preserve">1.70853173732758</t>
   </si>
   <si>
     <t xml:space="preserve">1.73765444755554</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8719425201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02079176902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99005138874054</t>
+    <t xml:space="preserve">1.87194240093231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02079200744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99005162715912</t>
   </si>
   <si>
     <t xml:space="preserve">2.014319896698</t>
@@ -2969,13 +2969,13 @@
     <t xml:space="preserve">1.93827819824219</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96092915534973</t>
+    <t xml:space="preserve">1.96092891693115</t>
   </si>
   <si>
     <t xml:space="preserve">1.95122122764587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9479855298996</t>
+    <t xml:space="preserve">1.94798529148102</t>
   </si>
   <si>
     <t xml:space="preserve">1.95607507228851</t>
@@ -2996,16 +2996,16 @@
     <t xml:space="preserve">1.9576929807663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0046124458313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99652278423309</t>
+    <t xml:space="preserve">2.00461268424988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99652290344238</t>
   </si>
   <si>
     <t xml:space="preserve">2.06447649002075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12110352516174</t>
+    <t xml:space="preserve">2.12110376358032</t>
   </si>
   <si>
     <t xml:space="preserve">2.20038247108459</t>
@@ -3017,10 +3017,10 @@
     <t xml:space="preserve">2.33628821372986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30554795265198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28127813339233</t>
+    <t xml:space="preserve">2.3055477142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28127837181091</t>
   </si>
   <si>
     <t xml:space="preserve">2.25700926780701</t>
@@ -3035,7 +3035,7 @@
     <t xml:space="preserve">2.29098582267761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38320779800415</t>
+    <t xml:space="preserve">2.38320803642273</t>
   </si>
   <si>
     <t xml:space="preserve">2.31040191650391</t>
@@ -3050,13 +3050,13 @@
     <t xml:space="preserve">2.32334494590759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32496285438538</t>
+    <t xml:space="preserve">2.32496309280396</t>
   </si>
   <si>
     <t xml:space="preserve">2.39453339576721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40747666358948</t>
+    <t xml:space="preserve">2.40747690200806</t>
   </si>
   <si>
     <t xml:space="preserve">2.43174624443054</t>
@@ -3068,10 +3068,10 @@
     <t xml:space="preserve">2.396151304245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40585875511169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40909457206726</t>
+    <t xml:space="preserve">2.40585899353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40909481048584</t>
   </si>
   <si>
     <t xml:space="preserve">2.53852915763855</t>
@@ -3089,7 +3089,7 @@
     <t xml:space="preserve">2.83137369155884</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80386924743652</t>
+    <t xml:space="preserve">2.80386900901794</t>
   </si>
   <si>
     <t xml:space="preserve">2.78769016265869</t>
@@ -3101,7 +3101,7 @@
     <t xml:space="preserve">2.93330359458923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98507785797119</t>
+    <t xml:space="preserve">2.98507761955261</t>
   </si>
   <si>
     <t xml:space="preserve">3.09186029434204</t>
@@ -3113,16 +3113,16 @@
     <t xml:space="preserve">3.06597352027893</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15172433853149</t>
+    <t xml:space="preserve">3.15172410011292</t>
   </si>
   <si>
     <t xml:space="preserve">3.15496015548706</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14039874076843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1921718120575</t>
+    <t xml:space="preserve">3.14039850234985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19217205047607</t>
   </si>
   <si>
     <t xml:space="preserve">3.17761087417603</t>
@@ -3131,399 +3131,402 @@
     <t xml:space="preserve">3.16790318489075</t>
   </si>
   <si>
+    <t xml:space="preserve">3.19055438041687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30391597747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29241561889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27598571777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37784695625305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31213045120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33677434921265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4205629825592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44520711898804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41563391685486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40084767341614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35156035423279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2809145450592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20041179656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17741107940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17083930969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15440940856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12155103683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10840773582458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03283381462097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00161790847778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99997496604919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93097233772278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99340319633484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99176025390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03940534591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96383094787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00490355491638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99011731147766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06076335906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98025965690613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94740176200867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9178295135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04597735404968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99504613876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97697424888611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91947221755981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86361217498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76503753662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85539770126343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92768669128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95397329330444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98190259933472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13469457626343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09526467323303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15276646614075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11497950553894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05419158935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06404900550842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06240606307983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04104828834534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04762005805969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12648010253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16262483596802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11169362068176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17905402183533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13633751869202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13305163383484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03776264190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06569218635559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04926300048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08376407623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10512208938599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21355509757996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22176957130432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19548296928406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19876885414124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16426753997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20369744300842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14619469642639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16755342483521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10676503181458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04433441162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07883548736572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01804757118225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96218800544739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03119087219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96711659431458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89482855796814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89811420440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99668908119202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00654649734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01476097106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97861695289612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02790498733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05090594291687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02461934089661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13962316513062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11005067825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08869290351868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07062077522278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08047866821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11333656311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16591048240662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18726825714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20205450057983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16098189353943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21026921272278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24477028846741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25298500061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12812280654907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1445517539978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08540678024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11990809440613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19384002685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24969887733459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15933871269226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05912041664124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00818943977356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95890188217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97204542160034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89154267311096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89975690841675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85046911239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95725893974304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90468597412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77325201034546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92604374885559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80939602851868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8389687538147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86854124069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86525535583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9424729347229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91454339027405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91290044784546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88825678825378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85868358612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95068740844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0262622833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05747771263123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10347938537598</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.19055414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30391597747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29241561889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27598571777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37784695625305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31213045120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33677434921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4205629825592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44520711898804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41563391685486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40084767341614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35156035423279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2809145450592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20041179656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17741107940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17083930969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15440940856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12155103683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10840773582458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03283381462097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00161790847778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99997496604919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93097233772278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99340319633484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99176025390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03940534591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96383094787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00490355491638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99011731147766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06076335906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98025965690613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94740176200867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9178295135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04597735404968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99504613876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97697424888611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91947221755981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86361217498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76503753662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85539770126343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92768669128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95397329330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98190259933472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13469457626343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09526467323303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15276646614075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11497950553894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05419158935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06404900550842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06240606307983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04104828834534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04762005805969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12648010253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16262483596802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11169362068176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17905402183533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13633751869202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13305163383484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03776264190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06569218635559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04926300048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08376407623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10512208938599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21355509757996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22176957130432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19548296928406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19876885414124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16426753997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20369744300842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14619469642639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16755342483521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10676503181458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04433441162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07883548736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01804757118225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96218800544739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03119087219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96711659431458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89482855796814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89811420440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99668908119202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00654649734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01476097106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97861695289612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02790498733521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05090594291687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02461934089661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13962316513062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11005067825317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08869290351868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07062077522278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08047866821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11333656311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16591048240662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18726825714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20205450057983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16098189353943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21026921272278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24477028846741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25298500061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12812280654907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1445517539978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08540678024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11990809440613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19384002685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24969887733459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15933871269226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05912041664124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00818943977356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95890188217163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97204542160034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89154267311096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89975690841675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85046911239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95725893974304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90468597412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77325201034546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92604374885559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80939602851868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8389687538147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86854124069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86525535583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9424729347229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91454339027405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91290044784546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88825678825378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85868358612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95068740844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0262622833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05747771263123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10347938537598</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.06733512878418</t>
   </si>
   <si>
@@ -5070,6 +5073,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.66499996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51999998092651</t>
   </si>
 </sst>
 </file>
@@ -45157,7 +45163,7 @@
         <v>3.88013911247253</v>
       </c>
       <c r="G1529" t="s">
-        <v>1039</v>
+        <v>1170</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -45235,7 +45241,7 @@
         <v>3.73028802871704</v>
       </c>
       <c r="G1532" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -45261,7 +45267,7 @@
         <v>3.83218598365784</v>
       </c>
       <c r="G1533" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -45313,7 +45319,7 @@
         <v>3.9540650844574</v>
       </c>
       <c r="G1535" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -45365,7 +45371,7 @@
         <v>3.94407510757446</v>
       </c>
       <c r="G1537" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -45443,7 +45449,7 @@
         <v>3.76625204086304</v>
       </c>
       <c r="G1540" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -45469,7 +45475,7 @@
         <v>3.73028802871704</v>
       </c>
       <c r="G1541" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -45495,7 +45501,7 @@
         <v>3.57044696807861</v>
       </c>
       <c r="G1542" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -45521,7 +45527,7 @@
         <v>3.62838888168335</v>
       </c>
       <c r="G1543" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -45573,7 +45579,7 @@
         <v>3.73228597640991</v>
       </c>
       <c r="G1545" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -45599,7 +45605,7 @@
         <v>3.68433403968811</v>
       </c>
       <c r="G1546" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -45677,7 +45683,7 @@
         <v>3.87014889717102</v>
       </c>
       <c r="G1549" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -45729,7 +45735,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1551" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -45755,7 +45761,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1552" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -45781,7 +45787,7 @@
         <v>3.9760000705719</v>
       </c>
       <c r="G1553" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -45807,7 +45813,7 @@
         <v>4</v>
       </c>
       <c r="G1554" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -45833,7 +45839,7 @@
         <v>4</v>
       </c>
       <c r="G1555" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -45859,7 +45865,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1556" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -45885,7 +45891,7 @@
         <v>4.02400016784668</v>
       </c>
       <c r="G1557" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -45911,7 +45917,7 @@
         <v>4.16599988937378</v>
       </c>
       <c r="G1558" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -45937,7 +45943,7 @@
         <v>4.18800020217896</v>
       </c>
       <c r="G1559" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -45963,7 +45969,7 @@
         <v>4.15399980545044</v>
       </c>
       <c r="G1560" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -45989,7 +45995,7 @@
         <v>4.23799991607666</v>
       </c>
       <c r="G1561" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -46015,7 +46021,7 @@
         <v>4.12400007247925</v>
       </c>
       <c r="G1562" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -46041,7 +46047,7 @@
         <v>4.03200006484985</v>
       </c>
       <c r="G1563" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -46067,7 +46073,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1564" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -46093,7 +46099,7 @@
         <v>3.64800000190735</v>
       </c>
       <c r="G1565" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -46119,7 +46125,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1566" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -46145,7 +46151,7 @@
         <v>3.54399991035461</v>
       </c>
       <c r="G1567" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -46171,7 +46177,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1568" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -46197,7 +46203,7 @@
         <v>3.37400007247925</v>
       </c>
       <c r="G1569" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -46223,7 +46229,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1570" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -46249,7 +46255,7 @@
         <v>2.93600010871887</v>
       </c>
       <c r="G1571" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -46275,7 +46281,7 @@
         <v>2.92600011825562</v>
       </c>
       <c r="G1572" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -46301,7 +46307,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1573" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -46327,7 +46333,7 @@
         <v>3.30200004577637</v>
       </c>
       <c r="G1574" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -46353,7 +46359,7 @@
         <v>3.1340000629425</v>
       </c>
       <c r="G1575" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -46379,7 +46385,7 @@
         <v>3.16400003433228</v>
       </c>
       <c r="G1576" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -46405,7 +46411,7 @@
         <v>3.2960000038147</v>
       </c>
       <c r="G1577" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -46431,7 +46437,7 @@
         <v>3.34800004959106</v>
       </c>
       <c r="G1578" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -46457,7 +46463,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G1579" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -46483,7 +46489,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1580" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -46509,7 +46515,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1581" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -46535,7 +46541,7 @@
         <v>3.62199997901917</v>
       </c>
       <c r="G1582" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -46561,7 +46567,7 @@
         <v>3.68600010871887</v>
       </c>
       <c r="G1583" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -46587,7 +46593,7 @@
         <v>3.64199995994568</v>
       </c>
       <c r="G1584" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -46613,7 +46619,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G1585" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -46639,7 +46645,7 @@
         <v>3.56800007820129</v>
       </c>
       <c r="G1586" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -46665,7 +46671,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G1587" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -46691,7 +46697,7 @@
         <v>3.80800008773804</v>
       </c>
       <c r="G1588" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -46717,7 +46723,7 @@
         <v>3.81599998474121</v>
       </c>
       <c r="G1589" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -46743,7 +46749,7 @@
         <v>3.71799993515015</v>
       </c>
       <c r="G1590" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -46769,7 +46775,7 @@
         <v>3.76799988746643</v>
       </c>
       <c r="G1591" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -46795,7 +46801,7 @@
         <v>3.80200004577637</v>
       </c>
       <c r="G1592" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -46821,7 +46827,7 @@
         <v>3.77600002288818</v>
       </c>
       <c r="G1593" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -46847,7 +46853,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1594" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -46873,7 +46879,7 @@
         <v>3.64599990844727</v>
       </c>
       <c r="G1595" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -46899,7 +46905,7 @@
         <v>3.82200002670288</v>
       </c>
       <c r="G1596" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -46925,7 +46931,7 @@
         <v>3.83800005912781</v>
       </c>
       <c r="G1597" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -46951,7 +46957,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G1598" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -46977,7 +46983,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1599" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -47003,7 +47009,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1600" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -47029,7 +47035,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1601" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -47055,7 +47061,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1602" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -47081,7 +47087,7 @@
         <v>3.86400008201599</v>
       </c>
       <c r="G1603" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -47107,7 +47113,7 @@
         <v>3.86400008201599</v>
       </c>
       <c r="G1604" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -47133,7 +47139,7 @@
         <v>3.84599995613098</v>
       </c>
       <c r="G1605" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -47159,7 +47165,7 @@
         <v>3.78600001335144</v>
       </c>
       <c r="G1606" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -47185,7 +47191,7 @@
         <v>3.81399989128113</v>
       </c>
       <c r="G1607" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -47211,7 +47217,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1608" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -47237,7 +47243,7 @@
         <v>3.80200004577637</v>
       </c>
       <c r="G1609" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -47263,7 +47269,7 @@
         <v>3.78200006484985</v>
       </c>
       <c r="G1610" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -47289,7 +47295,7 @@
         <v>3.78800010681152</v>
       </c>
       <c r="G1611" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -47315,7 +47321,7 @@
         <v>3.63599991798401</v>
       </c>
       <c r="G1612" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -47341,7 +47347,7 @@
         <v>3.6340000629425</v>
       </c>
       <c r="G1613" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -47367,7 +47373,7 @@
         <v>3.59200000762939</v>
       </c>
       <c r="G1614" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -47393,7 +47399,7 @@
         <v>3.49600005149841</v>
       </c>
       <c r="G1615" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -47419,7 +47425,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1616" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -47445,7 +47451,7 @@
         <v>3.62400007247925</v>
       </c>
       <c r="G1617" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -47471,7 +47477,7 @@
         <v>3.65599989891052</v>
       </c>
       <c r="G1618" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -47497,7 +47503,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1619" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -47523,7 +47529,7 @@
         <v>3.67199993133545</v>
       </c>
       <c r="G1620" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -47549,7 +47555,7 @@
         <v>3.75399994850159</v>
       </c>
       <c r="G1621" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -47575,7 +47581,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G1622" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -47601,7 +47607,7 @@
         <v>3.71600008010864</v>
       </c>
       <c r="G1623" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -47627,7 +47633,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G1624" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -47653,7 +47659,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1625" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -47679,7 +47685,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1626" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -47705,7 +47711,7 @@
         <v>3.85599994659424</v>
       </c>
       <c r="G1627" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -47731,7 +47737,7 @@
         <v>3.8659999370575</v>
       </c>
       <c r="G1628" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -47757,7 +47763,7 @@
         <v>3.85599994659424</v>
       </c>
       <c r="G1629" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -47783,7 +47789,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1630" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -47809,7 +47815,7 @@
         <v>3.78800010681152</v>
       </c>
       <c r="G1631" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -47835,7 +47841,7 @@
         <v>3.75600004196167</v>
       </c>
       <c r="G1632" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -47861,7 +47867,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1633" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -47887,7 +47893,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1634" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -47913,7 +47919,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G1635" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -47939,7 +47945,7 @@
         <v>3.73600006103516</v>
       </c>
       <c r="G1636" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -47965,7 +47971,7 @@
         <v>3.70600008964539</v>
       </c>
       <c r="G1637" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -47991,7 +47997,7 @@
         <v>3.65400004386902</v>
       </c>
       <c r="G1638" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -48017,7 +48023,7 @@
         <v>3.40199995040894</v>
       </c>
       <c r="G1639" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -48043,7 +48049,7 @@
         <v>3.24399995803833</v>
       </c>
       <c r="G1640" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -48069,7 +48075,7 @@
         <v>3.23399996757507</v>
       </c>
       <c r="G1641" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -48095,7 +48101,7 @@
         <v>3.37800002098083</v>
       </c>
       <c r="G1642" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -48121,7 +48127,7 @@
         <v>3.27800011634827</v>
       </c>
       <c r="G1643" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -48147,7 +48153,7 @@
         <v>3.32800006866455</v>
       </c>
       <c r="G1644" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -48173,7 +48179,7 @@
         <v>3.40400004386902</v>
       </c>
       <c r="G1645" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -48199,7 +48205,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1646" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -48225,7 +48231,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1647" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -48251,7 +48257,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1648" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -48277,7 +48283,7 @@
         <v>3.3659999370575</v>
       </c>
       <c r="G1649" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -48303,7 +48309,7 @@
         <v>3.31800007820129</v>
       </c>
       <c r="G1650" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -48329,7 +48335,7 @@
         <v>3.32599997520447</v>
       </c>
       <c r="G1651" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -48355,7 +48361,7 @@
         <v>3.39800000190735</v>
       </c>
       <c r="G1652" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -48381,7 +48387,7 @@
         <v>3.28600001335144</v>
       </c>
       <c r="G1653" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -48407,7 +48413,7 @@
         <v>3.2960000038147</v>
       </c>
       <c r="G1654" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -48433,7 +48439,7 @@
         <v>3.28200006484985</v>
       </c>
       <c r="G1655" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -48459,7 +48465,7 @@
         <v>3.19600009918213</v>
       </c>
       <c r="G1656" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -48485,7 +48491,7 @@
         <v>3.2039999961853</v>
       </c>
       <c r="G1657" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -48511,7 +48517,7 @@
         <v>3.29200005531311</v>
       </c>
       <c r="G1658" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -48537,7 +48543,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1659" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -48563,7 +48569,7 @@
         <v>3.34800004959106</v>
       </c>
       <c r="G1660" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -48589,7 +48595,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1661" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -48615,7 +48621,7 @@
         <v>3.25200009346008</v>
       </c>
       <c r="G1662" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -48641,7 +48647,7 @@
         <v>3.09599995613098</v>
       </c>
       <c r="G1663" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -48667,7 +48673,7 @@
         <v>3.11400008201599</v>
       </c>
       <c r="G1664" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -48693,7 +48699,7 @@
         <v>3.16799998283386</v>
       </c>
       <c r="G1665" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -48719,7 +48725,7 @@
         <v>3.31399989128113</v>
       </c>
       <c r="G1666" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -48745,7 +48751,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1667" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -48771,7 +48777,7 @@
         <v>3.17600011825562</v>
       </c>
       <c r="G1668" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -48797,7 +48803,7 @@
         <v>3.13599991798401</v>
       </c>
       <c r="G1669" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -48823,7 +48829,7 @@
         <v>3.18199992179871</v>
       </c>
       <c r="G1670" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -48849,7 +48855,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1671" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -48875,7 +48881,7 @@
         <v>3.11400008201599</v>
       </c>
       <c r="G1672" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -48901,7 +48907,7 @@
         <v>3.15199995040894</v>
       </c>
       <c r="G1673" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -48927,7 +48933,7 @@
         <v>3.23600006103516</v>
       </c>
       <c r="G1674" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -48953,7 +48959,7 @@
         <v>3.2039999961853</v>
       </c>
       <c r="G1675" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -48979,7 +48985,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1676" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -49005,7 +49011,7 @@
         <v>3.27600002288818</v>
       </c>
       <c r="G1677" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -49031,7 +49037,7 @@
         <v>3.32800006866455</v>
       </c>
       <c r="G1678" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -49057,7 +49063,7 @@
         <v>3.36199998855591</v>
       </c>
       <c r="G1679" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -49083,7 +49089,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1680" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -49109,7 +49115,7 @@
         <v>3.28200006484985</v>
       </c>
       <c r="G1681" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -49135,7 +49141,7 @@
         <v>3.28800010681152</v>
       </c>
       <c r="G1682" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -49161,7 +49167,7 @@
         <v>3.27800011634827</v>
       </c>
       <c r="G1683" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -49187,7 +49193,7 @@
         <v>3.42600011825562</v>
       </c>
       <c r="G1684" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -49213,7 +49219,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1685" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -49239,7 +49245,7 @@
         <v>3.34400010108948</v>
       </c>
       <c r="G1686" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -49265,7 +49271,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1687" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -49291,7 +49297,7 @@
         <v>3.33400011062622</v>
       </c>
       <c r="G1688" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -49317,7 +49323,7 @@
         <v>3.22399997711182</v>
       </c>
       <c r="G1689" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -49343,7 +49349,7 @@
         <v>3.28399991989136</v>
       </c>
       <c r="G1690" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -49369,7 +49375,7 @@
         <v>3.27800011634827</v>
       </c>
       <c r="G1691" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -49395,7 +49401,7 @@
         <v>3.21399998664856</v>
       </c>
       <c r="G1692" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -49421,7 +49427,7 @@
         <v>3.15799999237061</v>
       </c>
       <c r="G1693" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -49447,7 +49453,7 @@
         <v>3.15599989891052</v>
       </c>
       <c r="G1694" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -49473,7 +49479,7 @@
         <v>3.19199991226196</v>
       </c>
       <c r="G1695" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -49499,7 +49505,7 @@
         <v>3.20199990272522</v>
       </c>
       <c r="G1696" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -49525,7 +49531,7 @@
         <v>3.15400004386902</v>
       </c>
       <c r="G1697" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -49551,7 +49557,7 @@
         <v>3.27800011634827</v>
       </c>
       <c r="G1698" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -49577,7 +49583,7 @@
         <v>3.19799995422363</v>
       </c>
       <c r="G1699" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -49603,7 +49609,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1700" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -49629,7 +49635,7 @@
         <v>3.18799996376038</v>
       </c>
       <c r="G1701" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -49655,7 +49661,7 @@
         <v>3.23399996757507</v>
       </c>
       <c r="G1702" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -49681,7 +49687,7 @@
         <v>3.35800004005432</v>
       </c>
       <c r="G1703" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -49707,7 +49713,7 @@
         <v>3.47399997711182</v>
       </c>
       <c r="G1704" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -49733,7 +49739,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1705" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -49759,7 +49765,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G1706" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -49785,7 +49791,7 @@
         <v>3.60599994659424</v>
       </c>
       <c r="G1707" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -49811,7 +49817,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G1708" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -49837,7 +49843,7 @@
         <v>3.55800008773804</v>
       </c>
       <c r="G1709" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -49863,7 +49869,7 @@
         <v>3.49799990653992</v>
       </c>
       <c r="G1710" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -49889,7 +49895,7 @@
         <v>3.43600010871887</v>
       </c>
       <c r="G1711" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -49915,7 +49921,7 @@
         <v>3.51200008392334</v>
       </c>
       <c r="G1712" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -49941,7 +49947,7 @@
         <v>3.43400001525879</v>
       </c>
       <c r="G1713" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -49967,7 +49973,7 @@
         <v>3.40599989891052</v>
       </c>
       <c r="G1714" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -49993,7 +49999,7 @@
         <v>3.34400010108948</v>
       </c>
       <c r="G1715" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -50019,7 +50025,7 @@
         <v>3.34800004959106</v>
       </c>
       <c r="G1716" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -50045,7 +50051,7 @@
         <v>3.25799989700317</v>
       </c>
       <c r="G1717" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -50071,7 +50077,7 @@
         <v>3.39199995994568</v>
       </c>
       <c r="G1718" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -50097,7 +50103,7 @@
         <v>3.40799999237061</v>
       </c>
       <c r="G1719" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -50123,7 +50129,7 @@
         <v>3.51600003242493</v>
       </c>
       <c r="G1720" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -50149,7 +50155,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1721" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -50175,7 +50181,7 @@
         <v>3.30200004577637</v>
       </c>
       <c r="G1722" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -50201,7 +50207,7 @@
         <v>3.2739999294281</v>
       </c>
       <c r="G1723" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -50227,7 +50233,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1724" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -50253,7 +50259,7 @@
         <v>3.25799989700317</v>
       </c>
       <c r="G1725" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -50279,7 +50285,7 @@
         <v>3.25399994850159</v>
       </c>
       <c r="G1726" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -50305,7 +50311,7 @@
         <v>3.31800007820129</v>
       </c>
       <c r="G1727" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -50331,7 +50337,7 @@
         <v>3.34400010108948</v>
       </c>
       <c r="G1728" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -50357,7 +50363,7 @@
         <v>3.39400005340576</v>
       </c>
       <c r="G1729" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -50383,7 +50389,7 @@
         <v>3.49200010299683</v>
       </c>
       <c r="G1730" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -50409,7 +50415,7 @@
         <v>3.49799990653992</v>
       </c>
       <c r="G1731" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -50435,7 +50441,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G1732" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -50461,7 +50467,7 @@
         <v>3.54399991035461</v>
       </c>
       <c r="G1733" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -50487,7 +50493,7 @@
         <v>3.59200000762939</v>
       </c>
       <c r="G1734" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -50513,7 +50519,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G1735" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -50539,7 +50545,7 @@
         <v>3.60199999809265</v>
       </c>
       <c r="G1736" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -50565,7 +50571,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1737" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -50591,7 +50597,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1738" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -50617,7 +50623,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1739" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -50643,7 +50649,7 @@
         <v>3.64199995994568</v>
       </c>
       <c r="G1740" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -50669,7 +50675,7 @@
         <v>3.73200011253357</v>
       </c>
       <c r="G1741" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -50695,7 +50701,7 @@
         <v>3.75</v>
       </c>
       <c r="G1742" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -50721,7 +50727,7 @@
         <v>3.75600004196167</v>
       </c>
       <c r="G1743" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -50747,7 +50753,7 @@
         <v>3.82399988174438</v>
       </c>
       <c r="G1744" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -50773,7 +50779,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -50799,7 +50805,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1746" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -50825,7 +50831,7 @@
         <v>3.56599998474121</v>
       </c>
       <c r="G1747" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -50851,7 +50857,7 @@
         <v>3.55599999427795</v>
       </c>
       <c r="G1748" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -50877,7 +50883,7 @@
         <v>3.59400010108948</v>
       </c>
       <c r="G1749" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -50903,7 +50909,7 @@
         <v>3.75200009346008</v>
       </c>
       <c r="G1750" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -50929,7 +50935,7 @@
         <v>3.75200009346008</v>
       </c>
       <c r="G1751" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -50955,7 +50961,7 @@
         <v>3.75799989700317</v>
       </c>
       <c r="G1752" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -50981,7 +50987,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1753" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -51007,7 +51013,7 @@
         <v>3.82599997520447</v>
       </c>
       <c r="G1754" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -51033,7 +51039,7 @@
         <v>3.83599996566772</v>
       </c>
       <c r="G1755" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -51059,7 +51065,7 @@
         <v>3.89199995994568</v>
       </c>
       <c r="G1756" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -51085,7 +51091,7 @@
         <v>3.85199999809265</v>
       </c>
       <c r="G1757" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -51111,7 +51117,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1758" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -51137,7 +51143,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1759" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -51163,7 +51169,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1760" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -51189,7 +51195,7 @@
         <v>3.84400010108948</v>
       </c>
       <c r="G1761" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -51215,7 +51221,7 @@
         <v>3.79399991035461</v>
       </c>
       <c r="G1762" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -51241,7 +51247,7 @@
         <v>3.78399991989136</v>
       </c>
       <c r="G1763" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -51267,7 +51273,7 @@
         <v>3.7960000038147</v>
       </c>
       <c r="G1764" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -51293,7 +51299,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1765" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -51319,7 +51325,7 @@
         <v>3.78800010681152</v>
       </c>
       <c r="G1766" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -51345,7 +51351,7 @@
         <v>3.80800008773804</v>
       </c>
       <c r="G1767" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -51371,7 +51377,7 @@
         <v>3.81599998474121</v>
       </c>
       <c r="G1768" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -51397,7 +51403,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1769" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -51423,7 +51429,7 @@
         <v>3.8659999370575</v>
       </c>
       <c r="G1770" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -51449,7 +51455,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1771" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -51475,7 +51481,7 @@
         <v>3.74600005149841</v>
       </c>
       <c r="G1772" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -51501,7 +51507,7 @@
         <v>3.82599997520447</v>
       </c>
       <c r="G1773" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -51527,7 +51533,7 @@
         <v>3.83400011062622</v>
       </c>
       <c r="G1774" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -51553,7 +51559,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1775" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -51579,7 +51585,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1776" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -51605,7 +51611,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1777" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -51631,7 +51637,7 @@
         <v>3.91199994087219</v>
       </c>
       <c r="G1778" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -51657,7 +51663,7 @@
         <v>3.89199995994568</v>
       </c>
       <c r="G1779" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -51683,7 +51689,7 @@
         <v>3.86800003051758</v>
       </c>
       <c r="G1780" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -51709,7 +51715,7 @@
         <v>3.84800004959106</v>
       </c>
       <c r="G1781" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -51735,7 +51741,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1782" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -51761,7 +51767,7 @@
         <v>3.83400011062622</v>
       </c>
       <c r="G1783" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -51787,7 +51793,7 @@
         <v>3.91400003433228</v>
       </c>
       <c r="G1784" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -51813,7 +51819,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1785" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -51839,7 +51845,7 @@
         <v>4.02199983596802</v>
       </c>
       <c r="G1786" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -51865,7 +51871,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1787" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -51891,7 +51897,7 @@
         <v>4.02199983596802</v>
       </c>
       <c r="G1788" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -51917,7 +51923,7 @@
         <v>4.03599977493286</v>
       </c>
       <c r="G1789" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -51943,7 +51949,7 @@
         <v>4.02799987792969</v>
       </c>
       <c r="G1790" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -51969,7 +51975,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1791" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -51995,7 +52001,7 @@
         <v>4.11600017547607</v>
       </c>
       <c r="G1792" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -52021,7 +52027,7 @@
         <v>4.05800008773804</v>
       </c>
       <c r="G1793" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -52047,7 +52053,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -52073,7 +52079,7 @@
         <v>4.0939998626709</v>
       </c>
       <c r="G1795" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -52099,7 +52105,7 @@
         <v>4.06199979782104</v>
       </c>
       <c r="G1796" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -52125,7 +52131,7 @@
         <v>4.11800003051758</v>
       </c>
       <c r="G1797" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -52151,7 +52157,7 @@
         <v>4.23600006103516</v>
       </c>
       <c r="G1798" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -52177,7 +52183,7 @@
         <v>4.26399993896484</v>
       </c>
       <c r="G1799" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -52203,7 +52209,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G1800" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -52229,7 +52235,7 @@
         <v>4.32800006866455</v>
       </c>
       <c r="G1801" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -52255,7 +52261,7 @@
         <v>4.35799980163574</v>
       </c>
       <c r="G1802" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -52281,7 +52287,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G1803" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -52307,7 +52313,7 @@
         <v>4.50600004196167</v>
       </c>
       <c r="G1804" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -52333,7 +52339,7 @@
         <v>4.59800004959106</v>
       </c>
       <c r="G1805" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -52359,7 +52365,7 @@
         <v>4.50400018692017</v>
       </c>
       <c r="G1806" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -52385,7 +52391,7 @@
         <v>4.51399993896484</v>
       </c>
       <c r="G1807" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -52411,7 +52417,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1808" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -52437,7 +52443,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1809" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -52463,7 +52469,7 @@
         <v>4.53800010681152</v>
       </c>
       <c r="G1810" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -52489,7 +52495,7 @@
         <v>4.49599981307983</v>
       </c>
       <c r="G1811" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -52515,7 +52521,7 @@
         <v>4.46400022506714</v>
       </c>
       <c r="G1812" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -52541,7 +52547,7 @@
         <v>4.50400018692017</v>
       </c>
       <c r="G1813" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -52567,7 +52573,7 @@
         <v>4.51200008392334</v>
       </c>
       <c r="G1814" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -52593,7 +52599,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G1815" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -52619,7 +52625,7 @@
         <v>4.44399976730347</v>
       </c>
       <c r="G1816" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -52645,7 +52651,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1817" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -52671,7 +52677,7 @@
         <v>4.43200016021729</v>
       </c>
       <c r="G1818" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -52697,7 +52703,7 @@
         <v>4.48799991607666</v>
       </c>
       <c r="G1819" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -52723,7 +52729,7 @@
         <v>4.4539999961853</v>
       </c>
       <c r="G1820" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -52749,7 +52755,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1821" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -52775,7 +52781,7 @@
         <v>4.55200004577637</v>
       </c>
       <c r="G1822" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -52801,7 +52807,7 @@
         <v>4.69399976730347</v>
       </c>
       <c r="G1823" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -52827,7 +52833,7 @@
         <v>4.80399990081787</v>
       </c>
       <c r="G1824" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -52853,7 +52859,7 @@
         <v>4.77799987792969</v>
       </c>
       <c r="G1825" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -52879,7 +52885,7 @@
         <v>4.80200004577637</v>
       </c>
       <c r="G1826" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -52905,7 +52911,7 @@
         <v>4.7960000038147</v>
       </c>
       <c r="G1827" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -52931,7 +52937,7 @@
         <v>4.89200019836426</v>
       </c>
       <c r="G1828" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -52957,7 +52963,7 @@
         <v>4.79400014877319</v>
       </c>
       <c r="G1829" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -52983,7 +52989,7 @@
         <v>4.82800006866455</v>
       </c>
       <c r="G1830" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -53009,7 +53015,7 @@
         <v>4.80200004577637</v>
       </c>
       <c r="G1831" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -53035,7 +53041,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G1832" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -53061,7 +53067,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1833" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -53087,7 +53093,7 @@
         <v>4.20800018310547</v>
       </c>
       <c r="G1834" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -53113,7 +53119,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1835" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -53139,7 +53145,7 @@
         <v>3.9539999961853</v>
       </c>
       <c r="G1836" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -53165,7 +53171,7 @@
         <v>3.81200003623962</v>
       </c>
       <c r="G1837" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -53191,7 +53197,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1838" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -53217,7 +53223,7 @@
         <v>4.15399980545044</v>
       </c>
       <c r="G1839" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -53243,7 +53249,7 @@
         <v>4.0460000038147</v>
       </c>
       <c r="G1840" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -53269,7 +53275,7 @@
         <v>3.96600008010864</v>
       </c>
       <c r="G1841" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -53295,7 +53301,7 @@
         <v>3.80399990081787</v>
       </c>
       <c r="G1842" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -53321,7 +53327,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1843" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -53347,7 +53353,7 @@
         <v>3.81800007820129</v>
       </c>
       <c r="G1844" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -53373,7 +53379,7 @@
         <v>3.93600010871887</v>
       </c>
       <c r="G1845" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -53399,7 +53405,7 @@
         <v>3.95600008964539</v>
       </c>
       <c r="G1846" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -53425,7 +53431,7 @@
         <v>3.91400003433228</v>
       </c>
       <c r="G1847" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -53451,7 +53457,7 @@
         <v>3.91400003433228</v>
       </c>
       <c r="G1848" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -53477,7 +53483,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1849" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -53503,7 +53509,7 @@
         <v>3.88199996948242</v>
       </c>
       <c r="G1850" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -53529,7 +53535,7 @@
         <v>3.91199994087219</v>
       </c>
       <c r="G1851" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -53555,7 +53561,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1852" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -53581,7 +53587,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1853" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -53607,7 +53613,7 @@
         <v>4.08599996566772</v>
       </c>
       <c r="G1854" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -53633,7 +53639,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1855" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -53659,7 +53665,7 @@
         <v>4.12400007247925</v>
       </c>
       <c r="G1856" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -53685,7 +53691,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1857" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -53711,7 +53717,7 @@
         <v>4.2480001449585</v>
       </c>
       <c r="G1858" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -53737,7 +53743,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1859" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -53763,7 +53769,7 @@
         <v>4.27799987792969</v>
       </c>
       <c r="G1860" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -53789,7 +53795,7 @@
         <v>4.27400016784668</v>
       </c>
       <c r="G1861" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -53815,7 +53821,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1862" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -53841,7 +53847,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1863" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -53867,7 +53873,7 @@
         <v>4.2480001449585</v>
       </c>
       <c r="G1864" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -53893,7 +53899,7 @@
         <v>4.12200021743774</v>
       </c>
       <c r="G1865" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -53919,7 +53925,7 @@
         <v>4.09800004959106</v>
       </c>
       <c r="G1866" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -53945,7 +53951,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1867" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -53971,7 +53977,7 @@
         <v>4.02400016784668</v>
       </c>
       <c r="G1868" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -53997,7 +54003,7 @@
         <v>4.17199993133545</v>
       </c>
       <c r="G1869" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -54023,7 +54029,7 @@
         <v>4.22599983215332</v>
       </c>
       <c r="G1870" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -54049,7 +54055,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G1871" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -54075,7 +54081,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1872" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -54101,7 +54107,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G1873" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -54127,7 +54133,7 @@
         <v>4.16599988937378</v>
       </c>
       <c r="G1874" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -54153,7 +54159,7 @@
         <v>4.22599983215332</v>
       </c>
       <c r="G1875" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -54179,7 +54185,7 @@
         <v>4.15399980545044</v>
       </c>
       <c r="G1876" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -54205,7 +54211,7 @@
         <v>4.12400007247925</v>
       </c>
       <c r="G1877" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -54231,7 +54237,7 @@
         <v>4.16800022125244</v>
       </c>
       <c r="G1878" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -54257,7 +54263,7 @@
         <v>4.17199993133545</v>
       </c>
       <c r="G1879" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -54283,7 +54289,7 @@
         <v>3.83200001716614</v>
       </c>
       <c r="G1880" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -54309,7 +54315,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1881" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -54335,7 +54341,7 @@
         <v>3.66199994087219</v>
       </c>
       <c r="G1882" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -54361,7 +54367,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1883" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -54387,7 +54393,7 @@
         <v>3.67799997329712</v>
       </c>
       <c r="G1884" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -54413,7 +54419,7 @@
         <v>3.65799999237061</v>
       </c>
       <c r="G1885" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -54439,7 +54445,7 @@
         <v>3.59800004959106</v>
       </c>
       <c r="G1886" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -54465,7 +54471,7 @@
         <v>3.5</v>
       </c>
       <c r="G1887" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -54491,7 +54497,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1888" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -54517,7 +54523,7 @@
         <v>3.70600008964539</v>
       </c>
       <c r="G1889" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -54543,7 +54549,7 @@
         <v>3.67400002479553</v>
       </c>
       <c r="G1890" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -54569,7 +54575,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1891" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -54595,7 +54601,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1892" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -54621,7 +54627,7 @@
         <v>3.71199989318848</v>
       </c>
       <c r="G1893" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -54647,7 +54653,7 @@
         <v>3.7260000705719</v>
       </c>
       <c r="G1894" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -54673,7 +54679,7 @@
         <v>3.71399998664856</v>
       </c>
       <c r="G1895" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -54699,7 +54705,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1896" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -54725,7 +54731,7 @@
         <v>3.78399991989136</v>
       </c>
       <c r="G1897" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -54751,7 +54757,7 @@
         <v>3.74399995803833</v>
       </c>
       <c r="G1898" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -54777,7 +54783,7 @@
         <v>3.77600002288818</v>
       </c>
       <c r="G1899" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -54803,7 +54809,7 @@
         <v>3.79200005531311</v>
       </c>
       <c r="G1900" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -54829,7 +54835,7 @@
         <v>3.84800004959106</v>
       </c>
       <c r="G1901" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -54855,7 +54861,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1902" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -54881,7 +54887,7 @@
         <v>3.92400002479553</v>
       </c>
       <c r="G1903" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -54907,7 +54913,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1904" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -54933,7 +54939,7 @@
         <v>3.84800004959106</v>
       </c>
       <c r="G1905" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -54959,7 +54965,7 @@
         <v>3.8840000629425</v>
       </c>
       <c r="G1906" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -54985,7 +54991,7 @@
         <v>3.81599998474121</v>
       </c>
       <c r="G1907" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55011,7 +55017,7 @@
         <v>3.78200006484985</v>
       </c>
       <c r="G1908" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55037,7 +55043,7 @@
         <v>3.81599998474121</v>
       </c>
       <c r="G1909" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55063,7 +55069,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1910" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55089,7 +55095,7 @@
         <v>3.78200006484985</v>
       </c>
       <c r="G1911" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55115,7 +55121,7 @@
         <v>3.80399990081787</v>
       </c>
       <c r="G1912" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55141,7 +55147,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1913" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55167,7 +55173,7 @@
         <v>3.83400011062622</v>
       </c>
       <c r="G1914" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55193,7 +55199,7 @@
         <v>3.80200004577637</v>
       </c>
       <c r="G1915" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55219,7 +55225,7 @@
         <v>3.84200000762939</v>
       </c>
       <c r="G1916" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55245,7 +55251,7 @@
         <v>3.91599988937378</v>
       </c>
       <c r="G1917" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55271,7 +55277,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1918" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55297,7 +55303,7 @@
         <v>3.94600009918213</v>
       </c>
       <c r="G1919" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -55323,7 +55329,7 @@
         <v>4.03200006484985</v>
       </c>
       <c r="G1920" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55349,7 +55355,7 @@
         <v>4.05800008773804</v>
       </c>
       <c r="G1921" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55375,7 +55381,7 @@
         <v>4.08400011062622</v>
       </c>
       <c r="G1922" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55401,7 +55407,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1923" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55427,7 +55433,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1924" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55453,7 +55459,7 @@
         <v>4.16599988937378</v>
       </c>
       <c r="G1925" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55479,7 +55485,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1926" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55505,7 +55511,7 @@
         <v>4.26200008392334</v>
       </c>
       <c r="G1927" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55531,7 +55537,7 @@
         <v>4.26200008392334</v>
       </c>
       <c r="G1928" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55557,7 +55563,7 @@
         <v>4.34800004959106</v>
       </c>
       <c r="G1929" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55583,7 +55589,7 @@
         <v>4.39400005340576</v>
       </c>
       <c r="G1930" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55609,7 +55615,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1931" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55635,7 +55641,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G1932" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55661,7 +55667,7 @@
         <v>4.27600002288818</v>
       </c>
       <c r="G1933" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55687,7 +55693,7 @@
         <v>4.28800010681152</v>
       </c>
       <c r="G1934" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55713,7 +55719,7 @@
         <v>4.2960000038147</v>
       </c>
       <c r="G1935" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55739,7 +55745,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1936" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55765,7 +55771,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1937" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55791,7 +55797,7 @@
         <v>4.19799995422363</v>
       </c>
       <c r="G1938" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55817,7 +55823,7 @@
         <v>4.23799991607666</v>
       </c>
       <c r="G1939" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -55843,7 +55849,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G1940" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -55869,7 +55875,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G1941" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -55895,7 +55901,7 @@
         <v>4.23400020599365</v>
       </c>
       <c r="G1942" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -55921,7 +55927,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1943" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -55947,7 +55953,7 @@
         <v>4.23400020599365</v>
       </c>
       <c r="G1944" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -55973,7 +55979,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1945" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -55999,7 +56005,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1946" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56025,7 +56031,7 @@
         <v>4.23799991607666</v>
       </c>
       <c r="G1947" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56051,7 +56057,7 @@
         <v>4.26599979400635</v>
       </c>
       <c r="G1948" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56077,7 +56083,7 @@
         <v>4.27799987792969</v>
       </c>
       <c r="G1949" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56103,7 +56109,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G1950" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56129,7 +56135,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1951" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56155,7 +56161,7 @@
         <v>4.38600015640259</v>
       </c>
       <c r="G1952" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56181,7 +56187,7 @@
         <v>4.34800004959106</v>
       </c>
       <c r="G1953" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56207,7 +56213,7 @@
         <v>4.32800006866455</v>
       </c>
       <c r="G1954" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56233,7 +56239,7 @@
         <v>4.26599979400635</v>
       </c>
       <c r="G1955" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56259,7 +56265,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G1956" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56285,7 +56291,7 @@
         <v>4.43599987030029</v>
       </c>
       <c r="G1957" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56311,7 +56317,7 @@
         <v>4.48600006103516</v>
       </c>
       <c r="G1958" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56337,7 +56343,7 @@
         <v>4.48799991607666</v>
       </c>
       <c r="G1959" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56363,7 +56369,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1960" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56389,7 +56395,7 @@
         <v>4.61800003051758</v>
       </c>
       <c r="G1961" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56415,7 +56421,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1962" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56441,7 +56447,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1963" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56467,7 +56473,7 @@
         <v>4.68400001525879</v>
       </c>
       <c r="G1964" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56493,7 +56499,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1965" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56519,7 +56525,7 @@
         <v>4.9980001449585</v>
       </c>
       <c r="G1966" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56545,7 +56551,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G1967" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56571,7 +56577,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G1968" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56597,7 +56603,7 @@
         <v>5.08500003814697</v>
       </c>
       <c r="G1969" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56623,7 +56629,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G1970" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56649,7 +56655,7 @@
         <v>4.90199995040894</v>
       </c>
       <c r="G1971" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56675,7 +56681,7 @@
         <v>4.97599983215332</v>
       </c>
       <c r="G1972" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56701,7 +56707,7 @@
         <v>4.87599992752075</v>
       </c>
       <c r="G1973" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56727,7 +56733,7 @@
         <v>4.96000003814697</v>
       </c>
       <c r="G1974" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56753,7 +56759,7 @@
         <v>4.84999990463257</v>
       </c>
       <c r="G1975" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56779,7 +56785,7 @@
         <v>4.81799983978271</v>
       </c>
       <c r="G1976" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56805,7 +56811,7 @@
         <v>4.92799997329712</v>
       </c>
       <c r="G1977" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -56831,7 +56837,7 @@
         <v>5.02500009536743</v>
       </c>
       <c r="G1978" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -56857,7 +56863,7 @@
         <v>4.98600006103516</v>
       </c>
       <c r="G1979" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -56883,7 +56889,7 @@
         <v>5.07499980926514</v>
       </c>
       <c r="G1980" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -56909,7 +56915,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G1981" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -56935,7 +56941,7 @@
         <v>5.14499998092651</v>
       </c>
       <c r="G1982" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -56961,7 +56967,7 @@
         <v>5.17000007629395</v>
       </c>
       <c r="G1983" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -56987,7 +56993,7 @@
         <v>5.20499992370605</v>
       </c>
       <c r="G1984" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57013,7 +57019,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1985" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57039,7 +57045,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G1986" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57065,7 +57071,7 @@
         <v>5.14499998092651</v>
       </c>
       <c r="G1987" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57091,7 +57097,7 @@
         <v>5.04500007629395</v>
       </c>
       <c r="G1988" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57117,7 +57123,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1989" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57143,7 +57149,7 @@
         <v>5.07000017166138</v>
       </c>
       <c r="G1990" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57169,7 +57175,7 @@
         <v>5.03000020980835</v>
       </c>
       <c r="G1991" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57195,7 +57201,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G1992" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57221,7 +57227,7 @@
         <v>4.95599985122681</v>
       </c>
       <c r="G1993" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57247,7 +57253,7 @@
         <v>5.03000020980835</v>
       </c>
       <c r="G1994" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57273,7 +57279,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G1995" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57299,7 +57305,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G1996" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57325,7 +57331,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1997" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57351,7 +57357,7 @@
         <v>5.26999998092651</v>
       </c>
       <c r="G1998" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57377,7 +57383,7 @@
         <v>5.33500003814697</v>
       </c>
       <c r="G1999" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57403,7 +57409,7 @@
         <v>5.30499982833862</v>
       </c>
       <c r="G2000" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57429,7 +57435,7 @@
         <v>5.36499977111816</v>
       </c>
       <c r="G2001" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57455,7 +57461,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G2002" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57481,7 +57487,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G2003" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57507,7 +57513,7 @@
         <v>5.81500005722046</v>
       </c>
       <c r="G2004" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57533,7 +57539,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G2005" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57559,7 +57565,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G2006" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57585,7 +57591,7 @@
         <v>5.89499998092651</v>
       </c>
       <c r="G2007" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57611,7 +57617,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G2008" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57637,7 +57643,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G2009" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57663,7 +57669,7 @@
         <v>5.84499979019165</v>
       </c>
       <c r="G2010" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57689,7 +57695,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G2011" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57715,7 +57721,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G2012" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57741,7 +57747,7 @@
         <v>5.86499977111816</v>
       </c>
       <c r="G2013" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57767,7 +57773,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G2014" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57793,7 +57799,7 @@
         <v>5.7350001335144</v>
       </c>
       <c r="G2015" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57819,7 +57825,7 @@
         <v>5.7649998664856</v>
       </c>
       <c r="G2016" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -57845,7 +57851,7 @@
         <v>5.68499994277954</v>
       </c>
       <c r="G2017" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -57871,7 +57877,7 @@
         <v>5.84499979019165</v>
       </c>
       <c r="G2018" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -57897,7 +57903,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2019" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -57923,7 +57929,7 @@
         <v>5.64499998092651</v>
       </c>
       <c r="G2020" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -57949,7 +57955,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G2021" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -57975,7 +57981,7 @@
         <v>5.6100001335144</v>
       </c>
       <c r="G2022" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58001,7 +58007,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G2023" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58027,7 +58033,7 @@
         <v>5.73000001907349</v>
       </c>
       <c r="G2024" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58053,7 +58059,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G2025" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58079,7 +58085,7 @@
         <v>5.57499980926514</v>
       </c>
       <c r="G2026" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58105,7 +58111,7 @@
         <v>5.44500017166138</v>
       </c>
       <c r="G2027" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58131,7 +58137,7 @@
         <v>5.43499994277954</v>
       </c>
       <c r="G2028" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58157,7 +58163,7 @@
         <v>5.41499996185303</v>
       </c>
       <c r="G2029" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58183,7 +58189,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G2030" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58209,7 +58215,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G2031" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58235,7 +58241,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G2032" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58261,7 +58267,7 @@
         <v>5.64499998092651</v>
       </c>
       <c r="G2033" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58287,7 +58293,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G2034" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58313,7 +58319,7 @@
         <v>5.83500003814697</v>
       </c>
       <c r="G2035" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58339,7 +58345,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G2036" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58365,7 +58371,7 @@
         <v>5.99499988555908</v>
       </c>
       <c r="G2037" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58391,7 +58397,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G2038" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58417,7 +58423,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G2039" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58443,7 +58449,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G2040" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58469,7 +58475,7 @@
         <v>6.0149998664856</v>
       </c>
       <c r="G2041" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58495,7 +58501,7 @@
         <v>5.94500017166138</v>
       </c>
       <c r="G2042" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58521,7 +58527,7 @@
         <v>5.93499994277954</v>
       </c>
       <c r="G2043" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58547,7 +58553,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G2044" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58573,7 +58579,7 @@
         <v>5.85500001907349</v>
       </c>
       <c r="G2045" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58599,7 +58605,7 @@
         <v>5.89499998092651</v>
       </c>
       <c r="G2046" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58625,7 +58631,7 @@
         <v>5.91499996185303</v>
       </c>
       <c r="G2047" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58651,7 +58657,7 @@
         <v>5.99499988555908</v>
       </c>
       <c r="G2048" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58677,7 +58683,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G2049" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58703,7 +58709,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G2050" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58729,7 +58735,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G2051" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58755,7 +58761,7 @@
         <v>6.5</v>
       </c>
       <c r="G2052" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58781,7 +58787,7 @@
         <v>6.55499982833862</v>
       </c>
       <c r="G2053" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58807,7 +58813,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G2054" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58833,7 +58839,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G2055" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58859,7 +58865,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G2056" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -58885,7 +58891,7 @@
         <v>6.94500017166138</v>
       </c>
       <c r="G2057" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -58911,7 +58917,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G2058" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -58937,7 +58943,7 @@
         <v>6.66499996185303</v>
       </c>
       <c r="G2059" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -58963,7 +58969,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G2060" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -58989,7 +58995,7 @@
         <v>6.74499988555908</v>
       </c>
       <c r="G2061" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59015,7 +59021,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G2062" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59041,7 +59047,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G2063" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59067,7 +59073,7 @@
         <v>6.56500005722046</v>
       </c>
       <c r="G2064" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59093,7 +59099,7 @@
         <v>6.57499980926514</v>
       </c>
       <c r="G2065" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59119,7 +59125,7 @@
         <v>6.71500015258789</v>
       </c>
       <c r="G2066" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59145,7 +59151,7 @@
         <v>6.81500005722046</v>
       </c>
       <c r="G2067" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59171,7 +59177,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G2068" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59197,7 +59203,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G2069" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59223,7 +59229,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G2070" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59249,7 +59255,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G2071" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59275,7 +59281,7 @@
         <v>6.77500009536743</v>
       </c>
       <c r="G2072" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59301,7 +59307,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G2073" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59327,7 +59333,7 @@
         <v>6.92500019073486</v>
       </c>
       <c r="G2074" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59353,7 +59359,7 @@
         <v>7.17500019073486</v>
       </c>
       <c r="G2075" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59379,7 +59385,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G2076" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59405,7 +59411,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G2077" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59431,7 +59437,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G2078" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59457,7 +59463,7 @@
         <v>6.91499996185303</v>
       </c>
       <c r="G2079" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59483,7 +59489,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G2080" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59509,7 +59515,7 @@
         <v>7.16499996185303</v>
       </c>
       <c r="G2081" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59535,7 +59541,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G2082" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59561,7 +59567,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G2083" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59587,7 +59593,7 @@
         <v>6.9850001335144</v>
       </c>
       <c r="G2084" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59613,7 +59619,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G2085" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59639,7 +59645,7 @@
         <v>6.77500009536743</v>
       </c>
       <c r="G2086" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59665,7 +59671,7 @@
         <v>6.92500019073486</v>
       </c>
       <c r="G2087" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59691,7 +59697,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G2088" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59717,7 +59723,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G2089" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59743,7 +59749,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G2090" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59769,7 +59775,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G2091" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59795,7 +59801,7 @@
         <v>6.89499998092651</v>
       </c>
       <c r="G2092" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59821,7 +59827,7 @@
         <v>6.79500007629395</v>
       </c>
       <c r="G2093" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59847,7 +59853,7 @@
         <v>6.82499980926514</v>
       </c>
       <c r="G2094" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59873,7 +59879,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G2095" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59899,7 +59905,7 @@
         <v>6.92500019073486</v>
       </c>
       <c r="G2096" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -59925,7 +59931,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G2097" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -59951,7 +59957,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G2098" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -59977,7 +59983,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G2099" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60003,7 +60009,7 @@
         <v>7.00500011444092</v>
       </c>
       <c r="G2100" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60029,7 +60035,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G2101" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60055,7 +60061,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G2102" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60081,7 +60087,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G2103" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60107,7 +60113,7 @@
         <v>6.96500015258789</v>
       </c>
       <c r="G2104" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60133,7 +60139,7 @@
         <v>6.69500017166138</v>
       </c>
       <c r="G2105" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60159,7 +60165,7 @@
         <v>6.92500019073486</v>
       </c>
       <c r="G2106" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60185,7 +60191,7 @@
         <v>6.72499990463257</v>
       </c>
       <c r="G2107" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60211,7 +60217,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G2108" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60237,7 +60243,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G2109" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60263,7 +60269,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G2110" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60289,7 +60295,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G2111" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60315,7 +60321,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G2112" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60341,7 +60347,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G2113" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60367,7 +60373,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G2114" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60393,7 +60399,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G2115" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60419,7 +60425,7 @@
         <v>7.50500011444092</v>
       </c>
       <c r="G2116" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60445,7 +60451,7 @@
         <v>7.43499994277954</v>
       </c>
       <c r="G2117" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60471,7 +60477,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G2118" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60497,7 +60503,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2119" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60523,7 +60529,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G2120" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60549,7 +60555,7 @@
         <v>7.92999982833862</v>
       </c>
       <c r="G2121" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60575,7 +60581,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G2122" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60601,7 +60607,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2123" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60627,7 +60633,7 @@
         <v>8.125</v>
       </c>
       <c r="G2124" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60653,7 +60659,7 @@
         <v>8</v>
       </c>
       <c r="G2125" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60679,7 +60685,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G2126" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60705,7 +60711,7 @@
         <v>7.92999982833862</v>
       </c>
       <c r="G2127" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60731,7 +60737,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G2128" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60757,7 +60763,7 @@
         <v>8.03499984741211</v>
       </c>
       <c r="G2129" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60783,7 +60789,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G2130" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60809,7 +60815,7 @@
         <v>8.1850004196167</v>
       </c>
       <c r="G2131" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60835,7 +60841,7 @@
         <v>8.27499961853027</v>
       </c>
       <c r="G2132" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60861,7 +60867,7 @@
         <v>7.24499988555908</v>
       </c>
       <c r="G2133" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60887,7 +60893,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G2134" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60913,7 +60919,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G2135" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -60939,7 +60945,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G2136" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -60965,7 +60971,7 @@
         <v>7.15500020980835</v>
       </c>
       <c r="G2137" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -60991,7 +60997,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G2138" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61017,7 +61023,7 @@
         <v>7.125</v>
       </c>
       <c r="G2139" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61043,7 +61049,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G2140" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61069,7 +61075,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G2141" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61095,7 +61101,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G2142" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61121,7 +61127,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G2143" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61147,7 +61153,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G2144" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61173,7 +61179,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G2145" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61199,7 +61205,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G2146" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61225,7 +61231,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G2147" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61251,7 +61257,7 @@
         <v>6.9850001335144</v>
       </c>
       <c r="G2148" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61277,7 +61283,7 @@
         <v>6.83500003814697</v>
       </c>
       <c r="G2149" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61303,7 +61309,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G2150" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61311,7 +61317,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n">
-        <v>45456.650787037</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B2151" t="n">
         <v>2088107</v>
@@ -61329,9 +61335,35 @@
         <v>6.66499996185303</v>
       </c>
       <c r="G2151" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.6494791667</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>3385581</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>6.6399998664856</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>6.41499996185303</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>6.63000011444092</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>6.51999998092651</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>1687</v>
+      </c>
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BPSO.MI.xlsx
+++ b/data/BPSO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="1690">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,37 +38,37 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0306978225708</t>
+    <t xml:space="preserve">3.03069806098938</t>
   </si>
   <si>
     <t xml:space="preserve">BPSO.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00987887382507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94444608688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90578246116638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8239917755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79425024986267</t>
+    <t xml:space="preserve">3.00987863540649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9444465637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9057822227478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82399201393127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79425001144409</t>
   </si>
   <si>
     <t xml:space="preserve">2.88496279716492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89091157913208</t>
+    <t xml:space="preserve">2.8909113407135</t>
   </si>
   <si>
     <t xml:space="preserve">2.7972240447998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69164037704468</t>
+    <t xml:space="preserve">2.6916401386261</t>
   </si>
   <si>
     <t xml:space="preserve">2.63066983222961</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">2.5771336555481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53400850296021</t>
+    <t xml:space="preserve">2.53400874137878</t>
   </si>
   <si>
     <t xml:space="preserve">2.69907593727112</t>
@@ -92,13 +92,13 @@
     <t xml:space="preserve">2.61877298355103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52359890937805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61282515525818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57564687728882</t>
+    <t xml:space="preserve">2.52359867095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6128249168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5756471157074</t>
   </si>
   <si>
     <t xml:space="preserve">2.48642182350159</t>
@@ -113,22 +113,22 @@
     <t xml:space="preserve">2.36745429039001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18602824211121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2098217010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2960729598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22469258308411</t>
+    <t xml:space="preserve">2.18602800369263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20982193946838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29607319831848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22469234466553</t>
   </si>
   <si>
     <t xml:space="preserve">2.33771181106567</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38381218910217</t>
+    <t xml:space="preserve">2.38381195068359</t>
   </si>
   <si>
     <t xml:space="preserve">2.44032144546509</t>
@@ -137,22 +137,22 @@
     <t xml:space="preserve">2.34960842132568</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3198664188385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40611839294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34217309951782</t>
+    <t xml:space="preserve">2.31986665725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40611863136292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34217286109924</t>
   </si>
   <si>
     <t xml:space="preserve">2.33176374435425</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37340259552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42098927497864</t>
+    <t xml:space="preserve">2.37340235710144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42098903656006</t>
   </si>
   <si>
     <t xml:space="preserve">2.48344755172729</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">2.5578019618988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5518536567688</t>
+    <t xml:space="preserve">2.55185317993164</t>
   </si>
   <si>
     <t xml:space="preserve">2.54441809654236</t>
@@ -170,19 +170,19 @@
     <t xml:space="preserve">2.40165710449219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42396354675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41057968139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48493480682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6068754196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52657341957092</t>
+    <t xml:space="preserve">2.42396330833435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41057944297791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48493456840515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60687589645386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52657294273376</t>
   </si>
   <si>
     <t xml:space="preserve">2.46560168266296</t>
@@ -191,16 +191,16 @@
     <t xml:space="preserve">2.5131893157959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52806043624878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56375026702881</t>
+    <t xml:space="preserve">2.5280601978302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56375002861023</t>
   </si>
   <si>
     <t xml:space="preserve">2.45667934417725</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39719557762146</t>
+    <t xml:space="preserve">2.39719605445862</t>
   </si>
   <si>
     <t xml:space="preserve">2.34366011619568</t>
@@ -209,46 +209,46 @@
     <t xml:space="preserve">2.29161214828491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30053472518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27228045463562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21725702285767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15628623962402</t>
+    <t xml:space="preserve">2.30053448677063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27228021621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21725726127625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1562864780426</t>
   </si>
   <si>
     <t xml:space="preserve">2.16223502159119</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2187442779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26781868934631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27674126625061</t>
+    <t xml:space="preserve">2.21874403953552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26781892776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27674150466919</t>
   </si>
   <si>
     <t xml:space="preserve">2.38678622245789</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46708869934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39868330955505</t>
+    <t xml:space="preserve">2.4670889377594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39868307113647</t>
   </si>
   <si>
     <t xml:space="preserve">2.45370531082153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4983184337616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49236989021301</t>
+    <t xml:space="preserve">2.49831819534302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49237012863159</t>
   </si>
   <si>
     <t xml:space="preserve">2.44180846214294</t>
@@ -257,22 +257,22 @@
     <t xml:space="preserve">2.48939609527588</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4730372428894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42247653007507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39422202110291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31094431877136</t>
+    <t xml:space="preserve">2.47303748130798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42247629165649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39422178268433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31094408035278</t>
   </si>
   <si>
     <t xml:space="preserve">2.26187062263489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23064064979553</t>
+    <t xml:space="preserve">2.23064088821411</t>
   </si>
   <si>
     <t xml:space="preserve">2.24848675727844</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">2.23807716369629</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2559220790863</t>
+    <t xml:space="preserve">2.25592184066772</t>
   </si>
   <si>
     <t xml:space="preserve">2.19495105743408</t>
@@ -293,13 +293,13 @@
     <t xml:space="preserve">2.21279573440552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17710542678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22023129463196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2038733959198</t>
+    <t xml:space="preserve">2.17710566520691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22023153305054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20387363433838</t>
   </si>
   <si>
     <t xml:space="preserve">2.19778108596802</t>
@@ -311,16 +311,16 @@
     <t xml:space="preserve">2.35617971420288</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3074414730072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33028769493103</t>
+    <t xml:space="preserve">2.30744171142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33028793334961</t>
   </si>
   <si>
     <t xml:space="preserve">2.30896496772766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24194979667664</t>
+    <t xml:space="preserve">2.24194955825806</t>
   </si>
   <si>
     <t xml:space="preserve">2.21910381317139</t>
@@ -329,55 +329,55 @@
     <t xml:space="preserve">2.14142727851868</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09725904464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01044368743896</t>
+    <t xml:space="preserve">2.09725880622864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01044416427612</t>
   </si>
   <si>
     <t xml:space="preserve">2.13076591491699</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07441306114197</t>
+    <t xml:space="preserve">2.07441282272339</t>
   </si>
   <si>
     <t xml:space="preserve">2.08202815055847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97236728668213</t>
+    <t xml:space="preserve">1.97236752510071</t>
   </si>
   <si>
     <t xml:space="preserve">1.90839910507202</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87641429901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84899938106537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75913846492767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81701493263245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8962140083313</t>
+    <t xml:space="preserve">1.87641441822052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84899950027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75913834571838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81701517105103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89621388912201</t>
   </si>
   <si>
     <t xml:space="preserve">1.94038343429565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90687537193298</t>
+    <t xml:space="preserve">1.9068751335144</t>
   </si>
   <si>
     <t xml:space="preserve">2.02872061729431</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7515230178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67689335346222</t>
+    <t xml:space="preserve">1.75152313709259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67689323425293</t>
   </si>
   <si>
     <t xml:space="preserve">1.78807711601257</t>
@@ -386,13 +386,13 @@
     <t xml:space="preserve">1.77436888217926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75609219074249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75304627418518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68907797336578</t>
+    <t xml:space="preserve">1.7560920715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75304615497589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68907785415649</t>
   </si>
   <si>
     <t xml:space="preserve">1.61901652812958</t>
@@ -404,34 +404,34 @@
     <t xml:space="preserve">1.64033925533295</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7545690536499</t>
+    <t xml:space="preserve">1.75456917285919</t>
   </si>
   <si>
     <t xml:space="preserve">1.79112315177917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81549215316772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78960037231445</t>
+    <t xml:space="preserve">1.81549191474915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78960025310516</t>
   </si>
   <si>
     <t xml:space="preserve">1.86727595329285</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83072245121002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84443008899689</t>
+    <t xml:space="preserve">1.83072257041931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84443020820618</t>
   </si>
   <si>
     <t xml:space="preserve">1.90230619907379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89316809177399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85052216053009</t>
+    <t xml:space="preserve">1.89316761493683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85052239894867</t>
   </si>
   <si>
     <t xml:space="preserve">1.81853830814362</t>
@@ -443,58 +443,58 @@
     <t xml:space="preserve">1.84138417243958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7819846868515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66470885276794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68755483627319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62967789173126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75000011920929</t>
+    <t xml:space="preserve">1.78198492527008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66470861434937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6875547170639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62967777252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75000023841858</t>
   </si>
   <si>
     <t xml:space="preserve">1.77741515636444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7652302980423</t>
+    <t xml:space="preserve">1.76523065567017</t>
   </si>
   <si>
     <t xml:space="preserve">1.80787682533264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83681499958038</t>
+    <t xml:space="preserve">1.8368147611618</t>
   </si>
   <si>
     <t xml:space="preserve">1.82767641544342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82158446311951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86879920959473</t>
+    <t xml:space="preserve">1.82158422470093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86879897117615</t>
   </si>
   <si>
     <t xml:space="preserve">1.82919943332672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84290683269501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85509145259857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9099223613739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90535235404968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8977370262146</t>
+    <t xml:space="preserve">1.84290707111359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85509157180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90992224216461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9053521156311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89773714542389</t>
   </si>
   <si>
     <t xml:space="preserve">1.89012169837952</t>
@@ -503,19 +503,19 @@
     <t xml:space="preserve">1.88098347187042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88859868049622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86575281620026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89469110965729</t>
+    <t xml:space="preserve">1.88859879970551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86575269699097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.894690990448</t>
   </si>
   <si>
     <t xml:space="preserve">1.87336838245392</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85813760757446</t>
+    <t xml:space="preserve">1.85813784599304</t>
   </si>
   <si>
     <t xml:space="preserve">1.91144514083862</t>
@@ -527,19 +527,19 @@
     <t xml:space="preserve">1.98150587081909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94190609455109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96627521514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9799827337265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99216723442078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08659744262695</t>
+    <t xml:space="preserve">1.94190645217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96627509593964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97998249530792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9921669960022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08659768104553</t>
   </si>
   <si>
     <t xml:space="preserve">2.11705827713013</t>
@@ -554,31 +554,31 @@
     <t xml:space="preserve">2.22367310523987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23433423042297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23738050460815</t>
+    <t xml:space="preserve">2.23433446884155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23738074302673</t>
   </si>
   <si>
     <t xml:space="preserve">2.24651908874512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31505727767944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33790302276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26479554176331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14295053482056</t>
+    <t xml:space="preserve">2.31505703926086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33790278434753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26479578018188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14295029640198</t>
   </si>
   <si>
     <t xml:space="preserve">2.18407344818115</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15208888053894</t>
+    <t xml:space="preserve">2.15208864212036</t>
   </si>
   <si>
     <t xml:space="preserve">2.19930410385132</t>
@@ -605,67 +605,67 @@
     <t xml:space="preserve">2.22976493835449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18102765083313</t>
+    <t xml:space="preserve">2.18102741241455</t>
   </si>
   <si>
     <t xml:space="preserve">2.22519588470459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24956488609314</t>
+    <t xml:space="preserve">2.24956512451172</t>
   </si>
   <si>
     <t xml:space="preserve">2.23890352249146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15361189842224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27545714378357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25413417816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22062706947327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32267236709595</t>
+    <t xml:space="preserve">2.15361166000366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27545690536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25413393974304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22062683105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32267260551453</t>
   </si>
   <si>
     <t xml:space="preserve">2.43690204620361</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54351687431335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42471790313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39273285865784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43385601043701</t>
+    <t xml:space="preserve">2.54351663589478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42471766471863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39273262023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43385624885559</t>
   </si>
   <si>
     <t xml:space="preserve">2.39120984077454</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33333373069763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32419538497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3957793712616</t>
+    <t xml:space="preserve">2.33333396911621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32419514656067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39577913284302</t>
   </si>
   <si>
     <t xml:space="preserve">2.38054823875427</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37597918510437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36227202415466</t>
+    <t xml:space="preserve">2.37597942352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36227178573608</t>
   </si>
   <si>
     <t xml:space="preserve">2.38207173347473</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">2.42624092102051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47497868537903</t>
+    <t xml:space="preserve">2.47497820854187</t>
   </si>
   <si>
     <t xml:space="preserve">2.48259377479553</t>
@@ -689,22 +689,22 @@
     <t xml:space="preserve">2.46888637542725</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46127104759216</t>
+    <t xml:space="preserve">2.46127080917358</t>
   </si>
   <si>
     <t xml:space="preserve">2.45974802970886</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52828574180603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52067017555237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50696301460266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57397818565369</t>
+    <t xml:space="preserve">2.52828550338745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52067041397095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50696277618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57397794723511</t>
   </si>
   <si>
     <t xml:space="preserve">2.58920860290527</t>
@@ -713,19 +713,19 @@
     <t xml:space="preserve">2.62728500366211</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58311629295349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58768582344055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59682393074036</t>
+    <t xml:space="preserve">2.58311676979065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58768558502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59682369232178</t>
   </si>
   <si>
     <t xml:space="preserve">2.61814665794373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52219343185425</t>
+    <t xml:space="preserve">2.52219367027283</t>
   </si>
   <si>
     <t xml:space="preserve">2.50391674041748</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">2.4963014125824</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53285479545593</t>
+    <t xml:space="preserve">2.53285455703735</t>
   </si>
   <si>
     <t xml:space="preserve">2.4932553768158</t>
@@ -746,16 +746,16 @@
     <t xml:space="preserve">2.46431732177734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48868584632874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50087070465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47345590591431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46279430389404</t>
+    <t xml:space="preserve">2.48868608474731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50087094306946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47345566749573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46279406547546</t>
   </si>
   <si>
     <t xml:space="preserve">2.41710257530212</t>
@@ -764,22 +764,22 @@
     <t xml:space="preserve">2.28002619743347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28611826896667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44756364822388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38816380500793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43537926673889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44147157669067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47802495956421</t>
+    <t xml:space="preserve">2.28611874580383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4475634098053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38816404342651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43537902832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44147133827209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47802472114563</t>
   </si>
   <si>
     <t xml:space="preserve">2.50543975830078</t>
@@ -788,76 +788,76 @@
     <t xml:space="preserve">2.54808592796326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49477815628052</t>
+    <t xml:space="preserve">2.4947783946991</t>
   </si>
   <si>
     <t xml:space="preserve">2.53590106964111</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51610112190247</t>
+    <t xml:space="preserve">2.51610088348389</t>
   </si>
   <si>
     <t xml:space="preserve">2.45822501182556</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46736359596252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45060992240906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48563981056213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44604063034058</t>
+    <t xml:space="preserve">2.4673638343811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45060968399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48564004898071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44604086875916</t>
   </si>
   <si>
     <t xml:space="preserve">2.45365595817566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45670199394226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47040987014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52371597290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47650194168091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4978244304657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64251565933228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60443878173828</t>
+    <t xml:space="preserve">2.45670223236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47040963172913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52371621131897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47650170326233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49782466888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6425154209137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60443925857544</t>
   </si>
   <si>
     <t xml:space="preserve">2.60291600227356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67602372169495</t>
+    <t xml:space="preserve">2.67602348327637</t>
   </si>
   <si>
     <t xml:space="preserve">2.63946914672852</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66383814811707</t>
+    <t xml:space="preserve">2.66383838653564</t>
   </si>
   <si>
     <t xml:space="preserve">2.69582319259644</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69734597206116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75217604637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7140998840332</t>
+    <t xml:space="preserve">2.69734621047974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75217652320862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71409964561462</t>
   </si>
   <si>
     <t xml:space="preserve">2.66536140441895</t>
@@ -869,10 +869,10 @@
     <t xml:space="preserve">2.68668484687805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68820786476135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68516206741333</t>
+    <t xml:space="preserve">2.68820762634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68516182899475</t>
   </si>
   <si>
     <t xml:space="preserve">2.73694586753845</t>
@@ -902,22 +902,22 @@
     <t xml:space="preserve">2.65020561218262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70131969451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69357538223267</t>
+    <t xml:space="preserve">2.70131993293762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69357562065125</t>
   </si>
   <si>
     <t xml:space="preserve">2.64710760116577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66724395751953</t>
+    <t xml:space="preserve">2.66724371910095</t>
   </si>
   <si>
     <t xml:space="preserve">2.65175461769104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69667315483093</t>
+    <t xml:space="preserve">2.69667339324951</t>
   </si>
   <si>
     <t xml:space="preserve">2.63161873817444</t>
@@ -935,7 +935,7 @@
     <t xml:space="preserve">2.63316774368286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65949892997742</t>
+    <t xml:space="preserve">2.659499168396</t>
   </si>
   <si>
     <t xml:space="preserve">2.66569471359253</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">2.68737959861755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71835827827454</t>
+    <t xml:space="preserve">2.71835851669312</t>
   </si>
   <si>
     <t xml:space="preserve">2.7880597114563</t>
@@ -959,10 +959,10 @@
     <t xml:space="preserve">2.67343926429749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7772171497345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85311484336853</t>
+    <t xml:space="preserve">2.77721738815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85311460494995</t>
   </si>
   <si>
     <t xml:space="preserve">2.80045104026794</t>
@@ -977,10 +977,10 @@
     <t xml:space="preserve">2.80354881286621</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92126703262329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93210959434509</t>
+    <t xml:space="preserve">2.92126679420471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93210935592651</t>
   </si>
   <si>
     <t xml:space="preserve">2.9166202545166</t>
@@ -989,7 +989,7 @@
     <t xml:space="preserve">2.9057776927948</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9073269367218</t>
+    <t xml:space="preserve">2.90732669830322</t>
   </si>
   <si>
     <t xml:space="preserve">2.90113091468811</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">2.88099503517151</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87789726257324</t>
+    <t xml:space="preserve">2.87789750099182</t>
   </si>
   <si>
     <t xml:space="preserve">2.87944626808167</t>
@@ -1016,10 +1016,10 @@
     <t xml:space="preserve">2.86240839958191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86085939407349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84227180480957</t>
+    <t xml:space="preserve">2.86085963249207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84227156639099</t>
   </si>
   <si>
     <t xml:space="preserve">2.84072256088257</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">2.85776162147522</t>
   </si>
   <si>
-    <t xml:space="preserve">2.848468542099</t>
+    <t xml:space="preserve">2.84846830368042</t>
   </si>
   <si>
     <t xml:space="preserve">2.83452701568604</t>
@@ -1043,13 +1043,13 @@
     <t xml:space="preserve">2.78960871696472</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72610330581665</t>
+    <t xml:space="preserve">2.72610306739807</t>
   </si>
   <si>
     <t xml:space="preserve">2.76017904281616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70441746711731</t>
+    <t xml:space="preserve">2.70441770553589</t>
   </si>
   <si>
     <t xml:space="preserve">2.66259694099426</t>
@@ -1082,7 +1082,7 @@
     <t xml:space="preserve">2.72765207290649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71680951118469</t>
+    <t xml:space="preserve">2.71680974960327</t>
   </si>
   <si>
     <t xml:space="preserve">2.76327681541443</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">2.82988023757935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81748938560486</t>
+    <t xml:space="preserve">2.81748914718628</t>
   </si>
   <si>
     <t xml:space="preserve">2.77411937713623</t>
@@ -1109,10 +1109,10 @@
     <t xml:space="preserve">2.71526002883911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66879272460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64865660667419</t>
+    <t xml:space="preserve">2.6687924861908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64865684509277</t>
   </si>
   <si>
     <t xml:space="preserve">2.68273282051086</t>
@@ -1133,7 +1133,7 @@
     <t xml:space="preserve">2.69202637672424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62387418746948</t>
+    <t xml:space="preserve">2.62387442588806</t>
   </si>
   <si>
     <t xml:space="preserve">2.57895493507385</t>
@@ -1157,13 +1157,13 @@
     <t xml:space="preserve">2.34042167663574</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35436177253723</t>
+    <t xml:space="preserve">2.35436153411865</t>
   </si>
   <si>
     <t xml:space="preserve">2.37914419174194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42406296730042</t>
+    <t xml:space="preserve">2.42406272888184</t>
   </si>
   <si>
     <t xml:space="preserve">2.44729661941528</t>
@@ -1178,16 +1178,16 @@
     <t xml:space="preserve">2.51544952392578</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54797625541687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58670020103455</t>
+    <t xml:space="preserve">2.54797649383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58669996261597</t>
   </si>
   <si>
     <t xml:space="preserve">2.50925397872925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52474308013916</t>
+    <t xml:space="preserve">2.52474284172058</t>
   </si>
   <si>
     <t xml:space="preserve">2.52784085273743</t>
@@ -1208,13 +1208,13 @@
     <t xml:space="preserve">2.57740616798401</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50305819511414</t>
+    <t xml:space="preserve">2.50305795669556</t>
   </si>
   <si>
     <t xml:space="preserve">2.45659017562866</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36210632324219</t>
+    <t xml:space="preserve">2.36210656166077</t>
   </si>
   <si>
     <t xml:space="preserve">2.39928007125854</t>
@@ -1256,13 +1256,13 @@
     <t xml:space="preserve">2.55727005004883</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51390051841736</t>
+    <t xml:space="preserve">2.51390027999878</t>
   </si>
   <si>
     <t xml:space="preserve">2.51235198974609</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53403639793396</t>
+    <t xml:space="preserve">2.53403663635254</t>
   </si>
   <si>
     <t xml:space="preserve">2.56501483917236</t>
@@ -1274,10 +1274,10 @@
     <t xml:space="preserve">2.57585692405701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49376487731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51699829101562</t>
+    <t xml:space="preserve">2.49376463890076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51699805259705</t>
   </si>
   <si>
     <t xml:space="preserve">2.49996042251587</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">2.60218930244446</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53248715400696</t>
+    <t xml:space="preserve">2.53248739242554</t>
   </si>
   <si>
     <t xml:space="preserve">2.48137354850769</t>
@@ -1325,10 +1325,10 @@
     <t xml:space="preserve">2.47053122520447</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46433520317078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54332995414734</t>
+    <t xml:space="preserve">2.46433544158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54333019256592</t>
   </si>
   <si>
     <t xml:space="preserve">2.49686241149902</t>
@@ -1346,13 +1346,13 @@
     <t xml:space="preserve">2.55572128295898</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78651070594788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91352224349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90267968177795</t>
+    <t xml:space="preserve">2.78651094436646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91352248191833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90267992019653</t>
   </si>
   <si>
     <t xml:space="preserve">2.95069622993469</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">2.9754798412323</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05137634277344</t>
+    <t xml:space="preserve">3.05137658119202</t>
   </si>
   <si>
     <t xml:space="preserve">3.04363203048706</t>
@@ -1373,10 +1373,10 @@
     <t xml:space="preserve">3.07306146621704</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10713815689087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03124046325684</t>
+    <t xml:space="preserve">3.10713791847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03124070167542</t>
   </si>
   <si>
     <t xml:space="preserve">2.92591381072998</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">2.9847731590271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95224523544312</t>
+    <t xml:space="preserve">2.95224547386169</t>
   </si>
   <si>
     <t xml:space="preserve">3.02659392356873</t>
@@ -5079,6 +5079,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73999977111816</t>
   </si>
 </sst>
 </file>
@@ -61398,7 +61401,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.6523032407</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>1372844</v>
@@ -61419,6 +61422,32 @@
         <v>1688</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.6494560185</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>1193684</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>6.82499980926514</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>6.69500017166138</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>6.80000019073486</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>6.73999977111816</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BPSO.MI.xlsx
+++ b/data/BPSO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="1690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="1691">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,64 +44,64 @@
     <t xml:space="preserve">BPSO.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00987863540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9444465637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9057822227478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82399201393127</t>
+    <t xml:space="preserve">3.00987887382507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94444632530212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90578198432922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8239917755127</t>
   </si>
   <si>
     <t xml:space="preserve">2.79425001144409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88496279716492</t>
+    <t xml:space="preserve">2.8849630355835</t>
   </si>
   <si>
     <t xml:space="preserve">2.8909113407135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7972240447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6916401386261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63066983222961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42842483520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55036664009094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5771336555481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53400874137878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69907593727112</t>
+    <t xml:space="preserve">2.79722428321838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69163990020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63066959381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4284245967865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55036640167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57713389396667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53400850296021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69907569885254</t>
   </si>
   <si>
     <t xml:space="preserve">2.61877298355103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52359867095947</t>
+    <t xml:space="preserve">2.52359890937805</t>
   </si>
   <si>
     <t xml:space="preserve">2.6128249168396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5756471157074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48642182350159</t>
+    <t xml:space="preserve">2.57564687728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48642206192017</t>
   </si>
   <si>
     <t xml:space="preserve">2.37935090065002</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">2.18602800369263</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20982193946838</t>
+    <t xml:space="preserve">2.2098217010498</t>
   </si>
   <si>
     <t xml:space="preserve">2.29607319831848</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">2.44032144546509</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34960842132568</t>
+    <t xml:space="preserve">2.3496081829071</t>
   </si>
   <si>
     <t xml:space="preserve">2.31986665725708</t>
@@ -143,25 +143,25 @@
     <t xml:space="preserve">2.40611863136292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34217286109924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33176374435425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37340235710144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42098903656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48344755172729</t>
+    <t xml:space="preserve">2.34217309951782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33176350593567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3734028339386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42098951339722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48344779014587</t>
   </si>
   <si>
     <t xml:space="preserve">2.5578019618988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55185317993164</t>
+    <t xml:space="preserve">2.55185389518738</t>
   </si>
   <si>
     <t xml:space="preserve">2.54441809654236</t>
@@ -170,28 +170,28 @@
     <t xml:space="preserve">2.40165710449219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42396330833435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41057944297791</t>
+    <t xml:space="preserve">2.42396354675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41057968139648</t>
   </si>
   <si>
     <t xml:space="preserve">2.48493456840515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60687589645386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52657294273376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46560168266296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5131893157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5280601978302</t>
+    <t xml:space="preserve">2.60687565803528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52657318115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46560144424438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51318955421448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52805995941162</t>
   </si>
   <si>
     <t xml:space="preserve">2.56375002861023</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">2.45667934417725</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39719605445862</t>
+    <t xml:space="preserve">2.39719581604004</t>
   </si>
   <si>
     <t xml:space="preserve">2.34366011619568</t>
@@ -209,19 +209,19 @@
     <t xml:space="preserve">2.29161214828491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30053448677063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27228021621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21725726127625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1562864780426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16223502159119</t>
+    <t xml:space="preserve">2.30053472518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27228045463562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21725702285767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15628671646118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16223478317261</t>
   </si>
   <si>
     <t xml:space="preserve">2.21874403953552</t>
@@ -230,22 +230,22 @@
     <t xml:space="preserve">2.26781892776489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27674150466919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38678622245789</t>
+    <t xml:space="preserve">2.27674126625061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38678646087646</t>
   </si>
   <si>
     <t xml:space="preserve">2.4670889377594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39868307113647</t>
+    <t xml:space="preserve">2.39868330955505</t>
   </si>
   <si>
     <t xml:space="preserve">2.45370531082153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49831819534302</t>
+    <t xml:space="preserve">2.4983184337616</t>
   </si>
   <si>
     <t xml:space="preserve">2.49237012863159</t>
@@ -257,37 +257,37 @@
     <t xml:space="preserve">2.48939609527588</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47303748130798</t>
+    <t xml:space="preserve">2.4730372428894</t>
   </si>
   <si>
     <t xml:space="preserve">2.42247629165649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39422178268433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31094408035278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26187062263489</t>
+    <t xml:space="preserve">2.39422202110291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31094455718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26187014579773</t>
   </si>
   <si>
     <t xml:space="preserve">2.23064088821411</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24848675727844</t>
+    <t xml:space="preserve">2.24848651885986</t>
   </si>
   <si>
     <t xml:space="preserve">2.23807716369629</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25592184066772</t>
+    <t xml:space="preserve">2.2559220790863</t>
   </si>
   <si>
     <t xml:space="preserve">2.19495105743408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18305397033691</t>
+    <t xml:space="preserve">2.18305420875549</t>
   </si>
   <si>
     <t xml:space="preserve">2.21279573440552</t>
@@ -296,19 +296,19 @@
     <t xml:space="preserve">2.17710566520691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22023153305054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20387363433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19778108596802</t>
+    <t xml:space="preserve">2.22023129463196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2038733959198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1977813243866</t>
   </si>
   <si>
     <t xml:space="preserve">2.27850317955017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35617971420288</t>
+    <t xml:space="preserve">2.3561794757843</t>
   </si>
   <si>
     <t xml:space="preserve">2.30744171142578</t>
@@ -320,25 +320,25 @@
     <t xml:space="preserve">2.30896496772766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24194955825806</t>
+    <t xml:space="preserve">2.24194979667664</t>
   </si>
   <si>
     <t xml:space="preserve">2.21910381317139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14142727851868</t>
+    <t xml:space="preserve">2.14142751693726</t>
   </si>
   <si>
     <t xml:space="preserve">2.09725880622864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01044416427612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13076591491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07441282272339</t>
+    <t xml:space="preserve">2.01044392585754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13076567649841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07441329956055</t>
   </si>
   <si>
     <t xml:space="preserve">2.08202815055847</t>
@@ -347,73 +347,73 @@
     <t xml:space="preserve">1.97236752510071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90839910507202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87641441822052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84899950027466</t>
+    <t xml:space="preserve">1.9083993434906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87641417980194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84899938106537</t>
   </si>
   <si>
     <t xml:space="preserve">1.75913834571838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81701517105103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89621388912201</t>
+    <t xml:space="preserve">1.81701505184174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89621376991272</t>
   </si>
   <si>
     <t xml:space="preserve">1.94038343429565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9068751335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02872061729431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75152313709259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67689323425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78807711601257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77436888217926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7560920715332</t>
+    <t xml:space="preserve">1.90687537193298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02872037887573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75152325630188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67689347267151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78807699680328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77436876296997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75609219074249</t>
   </si>
   <si>
     <t xml:space="preserve">1.75304615497589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68907785415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61901652812958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63424706459045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64033925533295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75456917285919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79112315177917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81549191474915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78960025310516</t>
+    <t xml:space="preserve">1.6890777349472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61901640892029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63424718379974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64033913612366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7545690536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79112303256989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81549227237701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78960037231445</t>
   </si>
   <si>
     <t xml:space="preserve">1.86727595329285</t>
@@ -422,61 +422,61 @@
     <t xml:space="preserve">1.83072257041931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84443020820618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90230619907379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89316761493683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85052239894867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81853830814362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84747636318207</t>
+    <t xml:space="preserve">1.84443008899689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90230631828308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89316785335541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85052227973938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81853806972504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84747624397278</t>
   </si>
   <si>
     <t xml:space="preserve">1.84138417243958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78198492527008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66470861434937</t>
+    <t xml:space="preserve">1.78198480606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66470897197723</t>
   </si>
   <si>
     <t xml:space="preserve">1.6875547170639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62967777252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75000023841858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77741515636444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76523065567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80787682533264</t>
+    <t xml:space="preserve">1.62967765331268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74999988079071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77741503715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76523053646088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80787670612335</t>
   </si>
   <si>
     <t xml:space="preserve">1.8368147611618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82767641544342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82158422470093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86879897117615</t>
+    <t xml:space="preserve">1.82767653465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82158434391022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86879909038544</t>
   </si>
   <si>
     <t xml:space="preserve">1.82919943332672</t>
@@ -488,67 +488,67 @@
     <t xml:space="preserve">1.85509157180786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90992224216461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9053521156311</t>
+    <t xml:space="preserve">1.90992248058319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90535223484039</t>
   </si>
   <si>
     <t xml:space="preserve">1.89773714542389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89012169837952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88098347187042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88859879970551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86575269699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.894690990448</t>
+    <t xml:space="preserve">1.89012157917023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88098359107971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88859868049622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86575281620026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89469110965729</t>
   </si>
   <si>
     <t xml:space="preserve">1.87336838245392</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85813784599304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91144514083862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98455202579498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98150587081909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94190645217896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96627509593964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97998249530792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9921669960022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08659768104553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11705827713013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24804210662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2587034702301</t>
+    <t xml:space="preserve">1.85813736915588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9114453792572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98455190658569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98150599002838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94190657138824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9662754535675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97998285293579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99216711521149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08659744262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11705851554871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24804186820984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25870323181152</t>
   </si>
   <si>
     <t xml:space="preserve">2.22367310523987</t>
@@ -560,37 +560,37 @@
     <t xml:space="preserve">2.23738074302673</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24651908874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31505703926086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33790278434753</t>
+    <t xml:space="preserve">2.24651885032654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31505727767944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33790302276611</t>
   </si>
   <si>
     <t xml:space="preserve">2.26479578018188</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14295029640198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18407344818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15208864212036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19930410385132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20996570587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26631855964661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27697968482971</t>
+    <t xml:space="preserve">2.14295053482056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18407392501831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15208840370178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1993043422699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.209965467453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26631879806519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27697992324829</t>
   </si>
   <si>
     <t xml:space="preserve">2.31658029556274</t>
@@ -599,106 +599,106 @@
     <t xml:space="preserve">2.31353402137756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28459525108337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22976493835449</t>
+    <t xml:space="preserve">2.28459548950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22976517677307</t>
   </si>
   <si>
     <t xml:space="preserve">2.18102741241455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22519588470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24956512451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23890352249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15361166000366</t>
+    <t xml:space="preserve">2.22519636154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24956488609314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23890376091003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15361189842224</t>
   </si>
   <si>
     <t xml:space="preserve">2.27545690536499</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25413393974304</t>
+    <t xml:space="preserve">2.2541344165802</t>
   </si>
   <si>
     <t xml:space="preserve">2.22062683105469</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32267260551453</t>
+    <t xml:space="preserve">2.32267236709595</t>
   </si>
   <si>
     <t xml:space="preserve">2.43690204620361</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54351663589478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42471766471863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39273262023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43385624885559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39120984077454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33333396911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32419514656067</t>
+    <t xml:space="preserve">2.54351687431335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42471790313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39273309707642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43385601043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39121007919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33333373069763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32419538497925</t>
   </si>
   <si>
     <t xml:space="preserve">2.39577913284302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38054823875427</t>
+    <t xml:space="preserve">2.38054847717285</t>
   </si>
   <si>
     <t xml:space="preserve">2.37597942352295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36227178573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38207173347473</t>
+    <t xml:space="preserve">2.36227202415466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38207149505615</t>
   </si>
   <si>
     <t xml:space="preserve">2.42624092102051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47497820854187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48259377479553</t>
+    <t xml:space="preserve">2.47497844696045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48259401321411</t>
   </si>
   <si>
     <t xml:space="preserve">2.51000905036926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50848603248596</t>
+    <t xml:space="preserve">2.50848579406738</t>
   </si>
   <si>
     <t xml:space="preserve">2.46888637542725</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46127080917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45974802970886</t>
+    <t xml:space="preserve">2.46127104759216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45974826812744</t>
   </si>
   <si>
     <t xml:space="preserve">2.52828550338745</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52067041397095</t>
+    <t xml:space="preserve">2.52067017555237</t>
   </si>
   <si>
     <t xml:space="preserve">2.50696277618408</t>
@@ -710,34 +710,34 @@
     <t xml:space="preserve">2.58920860290527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62728500366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58311676979065</t>
+    <t xml:space="preserve">2.62728476524353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58311629295349</t>
   </si>
   <si>
     <t xml:space="preserve">2.58768558502197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59682369232178</t>
+    <t xml:space="preserve">2.59682393074036</t>
   </si>
   <si>
     <t xml:space="preserve">2.61814665794373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52219367027283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50391674041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4963014125824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53285455703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4932553768158</t>
+    <t xml:space="preserve">2.52219343185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5039165019989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49630165100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53285479545593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49325561523438</t>
   </si>
   <si>
     <t xml:space="preserve">2.44451761245728</t>
@@ -749,25 +749,25 @@
     <t xml:space="preserve">2.48868608474731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50087094306946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47345566749573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46279406547546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41710257530212</t>
+    <t xml:space="preserve">2.5008704662323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47345542907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46279382705688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4171028137207</t>
   </si>
   <si>
     <t xml:space="preserve">2.28002619743347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28611874580383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4475634098053</t>
+    <t xml:space="preserve">2.2861180305481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44756364822388</t>
   </si>
   <si>
     <t xml:space="preserve">2.38816404342651</t>
@@ -785,28 +785,28 @@
     <t xml:space="preserve">2.50543975830078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54808592796326</t>
+    <t xml:space="preserve">2.54808640480042</t>
   </si>
   <si>
     <t xml:space="preserve">2.4947783946991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53590106964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51610088348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45822501182556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4673638343811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45060968399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48564004898071</t>
+    <t xml:space="preserve">2.53590083122253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51610112190247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45822525024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46736359596252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45060992240906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48564052581787</t>
   </si>
   <si>
     <t xml:space="preserve">2.44604086875916</t>
@@ -818,55 +818,55 @@
     <t xml:space="preserve">2.45670223236084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47040963172913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52371621131897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47650170326233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49782466888428</t>
+    <t xml:space="preserve">2.47040939331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52371644973755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47650146484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4978244304657</t>
   </si>
   <si>
     <t xml:space="preserve">2.6425154209137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60443925857544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60291600227356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67602348327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63946914672852</t>
+    <t xml:space="preserve">2.60443878173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60291624069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67602396011353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63946938514709</t>
   </si>
   <si>
     <t xml:space="preserve">2.66383838653564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69582319259644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69734621047974</t>
+    <t xml:space="preserve">2.69582295417786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69734644889832</t>
   </si>
   <si>
     <t xml:space="preserve">2.75217652320862</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71409964561462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66536140441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68363857269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68668484687805</t>
+    <t xml:space="preserve">2.7140998840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66536164283752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68363881111145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68668508529663</t>
   </si>
   <si>
     <t xml:space="preserve">2.68820762634277</t>
@@ -875,40 +875,40 @@
     <t xml:space="preserve">2.68516182899475</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73694586753845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75553250312805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82058691978455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.845370054245</t>
+    <t xml:space="preserve">2.73694562911987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75553226470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82058715820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84537029266357</t>
   </si>
   <si>
     <t xml:space="preserve">2.89958214759827</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7493371963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70596671104431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70906448364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65020561218262</t>
+    <t xml:space="preserve">2.74933695793152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70596647262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70906472206116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65020537376404</t>
   </si>
   <si>
     <t xml:space="preserve">2.70131993293762</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69357562065125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64710760116577</t>
+    <t xml:space="preserve">2.69357514381409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64710807800293</t>
   </si>
   <si>
     <t xml:space="preserve">2.66724371910095</t>
@@ -917,13 +917,13 @@
     <t xml:space="preserve">2.65175461769104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69667339324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63161873817444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65640115737915</t>
+    <t xml:space="preserve">2.69667291641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63161897659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65640163421631</t>
   </si>
   <si>
     <t xml:space="preserve">2.63626551628113</t>
@@ -932,22 +932,22 @@
     <t xml:space="preserve">2.65795016288757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63316774368286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.659499168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66569471359253</t>
+    <t xml:space="preserve">2.6331672668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65949940681458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66569447517395</t>
   </si>
   <si>
     <t xml:space="preserve">2.66414570808411</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68737959861755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71835851669312</t>
+    <t xml:space="preserve">2.68737983703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71835875511169</t>
   </si>
   <si>
     <t xml:space="preserve">2.7880597114563</t>
@@ -956,19 +956,19 @@
     <t xml:space="preserve">2.74159216880798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67343926429749</t>
+    <t xml:space="preserve">2.67343950271606</t>
   </si>
   <si>
     <t xml:space="preserve">2.77721738815308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85311460494995</t>
+    <t xml:space="preserve">2.85311484336853</t>
   </si>
   <si>
     <t xml:space="preserve">2.80045104026794</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81903791427612</t>
+    <t xml:space="preserve">2.81903767585754</t>
   </si>
   <si>
     <t xml:space="preserve">2.80974435806274</t>
@@ -977,7 +977,7 @@
     <t xml:space="preserve">2.80354881286621</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92126679420471</t>
+    <t xml:space="preserve">2.92126703262329</t>
   </si>
   <si>
     <t xml:space="preserve">2.93210935592651</t>
@@ -986,28 +986,28 @@
     <t xml:space="preserve">2.9166202545166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9057776927948</t>
+    <t xml:space="preserve">2.90577793121338</t>
   </si>
   <si>
     <t xml:space="preserve">2.90732669830322</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90113091468811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88099503517151</t>
+    <t xml:space="preserve">2.90113115310669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88099527359009</t>
   </si>
   <si>
     <t xml:space="preserve">2.87789750099182</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87944626808167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90422916412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83917379379272</t>
+    <t xml:space="preserve">2.87944602966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90422892570496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83917355537415</t>
   </si>
   <si>
     <t xml:space="preserve">2.87015295028687</t>
@@ -1016,25 +1016,25 @@
     <t xml:space="preserve">2.86240839958191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86085963249207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84227156639099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84072256088257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85776162147522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84846830368042</t>
+    <t xml:space="preserve">2.86085915565491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84227180480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84072232246399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85776138305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84846806526184</t>
   </si>
   <si>
     <t xml:space="preserve">2.83452701568604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78341317176819</t>
+    <t xml:space="preserve">2.78341293334961</t>
   </si>
   <si>
     <t xml:space="preserve">2.81129336357117</t>
@@ -1043,13 +1043,13 @@
     <t xml:space="preserve">2.78960871696472</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72610306739807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76017904281616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70441770553589</t>
+    <t xml:space="preserve">2.72610330581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76017928123474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70441746711731</t>
   </si>
   <si>
     <t xml:space="preserve">2.66259694099426</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">2.68118405342102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6997709274292</t>
+    <t xml:space="preserve">2.69977068901062</t>
   </si>
   <si>
     <t xml:space="preserve">2.6904776096344</t>
@@ -1070,7 +1070,7 @@
     <t xml:space="preserve">2.71371102333069</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73384761810303</t>
+    <t xml:space="preserve">2.73384737968445</t>
   </si>
   <si>
     <t xml:space="preserve">2.68583035469055</t>
@@ -1079,13 +1079,13 @@
     <t xml:space="preserve">2.73229885101318</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72765207290649</t>
+    <t xml:space="preserve">2.72765183448792</t>
   </si>
   <si>
     <t xml:space="preserve">2.71680974960327</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76327681541443</t>
+    <t xml:space="preserve">2.76327705383301</t>
   </si>
   <si>
     <t xml:space="preserve">2.82988023757935</t>
@@ -1097,19 +1097,19 @@
     <t xml:space="preserve">2.77411937713623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70286893844604</t>
+    <t xml:space="preserve">2.70286846160889</t>
   </si>
   <si>
     <t xml:space="preserve">2.69512414932251</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67034125328064</t>
+    <t xml:space="preserve">2.67034149169922</t>
   </si>
   <si>
     <t xml:space="preserve">2.71526002883911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6687924861908</t>
+    <t xml:space="preserve">2.66879272460938</t>
   </si>
   <si>
     <t xml:space="preserve">2.64865684509277</t>
@@ -1127,10 +1127,10 @@
     <t xml:space="preserve">2.67653727531433</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65485262870789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69202637672424</t>
+    <t xml:space="preserve">2.65485239028931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69202613830566</t>
   </si>
   <si>
     <t xml:space="preserve">2.62387442588806</t>
@@ -1139,37 +1139,37 @@
     <t xml:space="preserve">2.57895493507385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63006973266602</t>
+    <t xml:space="preserve">2.63006949424744</t>
   </si>
   <si>
     <t xml:space="preserve">2.58205270767212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45968866348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4070246219635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44419884681702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34042167663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35436153411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37914419174194</t>
+    <t xml:space="preserve">2.45968842506409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40702486038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44419860839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34042119979858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35436201095581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37914395332336</t>
   </si>
   <si>
     <t xml:space="preserve">2.42406272888184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44729661941528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44884514808655</t>
+    <t xml:space="preserve">2.4472963809967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44884538650513</t>
   </si>
   <si>
     <t xml:space="preserve">2.49066686630249</t>
@@ -1184,61 +1184,61 @@
     <t xml:space="preserve">2.58669996261597</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50925397872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52474284172058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52784085273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50770497322083</t>
+    <t xml:space="preserve">2.50925374031067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.524742603302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52784061431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5077052116394</t>
   </si>
   <si>
     <t xml:space="preserve">2.54642772674561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56346583366394</t>
+    <t xml:space="preserve">2.56346559524536</t>
   </si>
   <si>
     <t xml:space="preserve">2.5712103843689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57740616798401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50305795669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45659017562866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36210656166077</t>
+    <t xml:space="preserve">2.57740592956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50305819511414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4565896987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36210632324219</t>
   </si>
   <si>
     <t xml:space="preserve">2.39928007125854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3977313041687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39308428764343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33887243270874</t>
+    <t xml:space="preserve">2.39773154258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39308452606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33887267112732</t>
   </si>
   <si>
     <t xml:space="preserve">2.37604641914368</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40547561645508</t>
+    <t xml:space="preserve">2.40547585487366</t>
   </si>
   <si>
     <t xml:space="preserve">2.35745930671692</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38533973693848</t>
+    <t xml:space="preserve">2.38533997535706</t>
   </si>
   <si>
     <t xml:space="preserve">2.44574761390686</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">2.47827553749084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.475177526474</t>
+    <t xml:space="preserve">2.47517776489258</t>
   </si>
   <si>
     <t xml:space="preserve">2.55881881713867</t>
@@ -1256,22 +1256,22 @@
     <t xml:space="preserve">2.55727005004883</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51390027999878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51235198974609</t>
+    <t xml:space="preserve">2.51390051841736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51235175132751</t>
   </si>
   <si>
     <t xml:space="preserve">2.53403663635254</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56501483917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57430791854858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57585692405701</t>
+    <t xml:space="preserve">2.56501460075378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57430815696716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57585716247559</t>
   </si>
   <si>
     <t xml:space="preserve">2.49376463890076</t>
@@ -1286,10 +1286,10 @@
     <t xml:space="preserve">2.47672653198242</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38843774795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47982430458069</t>
+    <t xml:space="preserve">2.38843750953674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47982454299927</t>
   </si>
   <si>
     <t xml:space="preserve">2.46743321418762</t>
@@ -1301,37 +1301,37 @@
     <t xml:space="preserve">2.47207999229431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54178094863892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60218930244446</t>
+    <t xml:space="preserve">2.5417811870575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60218906402588</t>
   </si>
   <si>
     <t xml:space="preserve">2.53248739242554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48137354850769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52164530754089</t>
+    <t xml:space="preserve">2.48137331008911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52164506912231</t>
   </si>
   <si>
     <t xml:space="preserve">2.43955206871033</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49531364440918</t>
+    <t xml:space="preserve">2.4953134059906</t>
   </si>
   <si>
     <t xml:space="preserve">2.47053122520447</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46433544158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54333019256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49686241149902</t>
+    <t xml:space="preserve">2.46433520317078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54332995414734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49686217308044</t>
   </si>
   <si>
     <t xml:space="preserve">2.49221563339233</t>
@@ -1340,37 +1340,37 @@
     <t xml:space="preserve">2.56811261177063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56966114044189</t>
+    <t xml:space="preserve">2.56966137886047</t>
   </si>
   <si>
     <t xml:space="preserve">2.55572128295898</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78651094436646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91352248191833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90267992019653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95069622993469</t>
+    <t xml:space="preserve">2.7865104675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91352224349976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90267968177795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95069646835327</t>
   </si>
   <si>
     <t xml:space="preserve">2.9754798412323</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05137658119202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04363203048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03588724136353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07306146621704</t>
+    <t xml:space="preserve">3.05137634277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04363179206848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03588700294495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07306122779846</t>
   </si>
   <si>
     <t xml:space="preserve">3.10713791847229</t>
@@ -1379,34 +1379,34 @@
     <t xml:space="preserve">3.03124070167542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92591381072998</t>
+    <t xml:space="preserve">2.92591404914856</t>
   </si>
   <si>
     <t xml:space="preserve">2.9847731590271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95224547386169</t>
+    <t xml:space="preserve">2.95224523544312</t>
   </si>
   <si>
     <t xml:space="preserve">3.02659392356873</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00645780563354</t>
+    <t xml:space="preserve">3.00645804405212</t>
   </si>
   <si>
     <t xml:space="preserve">3.03898525238037</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94295191764832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93365836143494</t>
+    <t xml:space="preserve">2.94295167922974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93365859985352</t>
   </si>
   <si>
     <t xml:space="preserve">2.82213592529297</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85056257247925</t>
+    <t xml:space="preserve">2.85056233406067</t>
   </si>
   <si>
     <t xml:space="preserve">2.83950781822205</t>
@@ -1415,19 +1415,19 @@
     <t xml:space="preserve">2.90583682060242</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89636063575745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81897711753845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70842885971069</t>
+    <t xml:space="preserve">2.89636015892029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81897735595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70842909812927</t>
   </si>
   <si>
     <t xml:space="preserve">2.65947222709656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70211219787598</t>
+    <t xml:space="preserve">2.7021119594574</t>
   </si>
   <si>
     <t xml:space="preserve">2.74791026115417</t>
@@ -1439,13 +1439,13 @@
     <t xml:space="preserve">2.76054430007935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69895362854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77633738517761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80476403236389</t>
+    <t xml:space="preserve">2.69895386695862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77633762359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80476427078247</t>
   </si>
   <si>
     <t xml:space="preserve">2.7747585773468</t>
@@ -1454,28 +1454,28 @@
     <t xml:space="preserve">2.73053860664368</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74317240715027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73843479156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72737979888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75422716140747</t>
+    <t xml:space="preserve">2.74317264556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73843455314636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72738003730774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75422739982605</t>
   </si>
   <si>
     <t xml:space="preserve">2.69263672828674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68947792053223</t>
+    <t xml:space="preserve">2.68947815895081</t>
   </si>
   <si>
     <t xml:space="preserve">2.71790432929993</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72264218330383</t>
+    <t xml:space="preserve">2.72264242172241</t>
   </si>
   <si>
     <t xml:space="preserve">2.8426661491394</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">2.8489830493927</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89793968200684</t>
+    <t xml:space="preserve">2.89793992042542</t>
   </si>
   <si>
     <t xml:space="preserve">2.88214731216431</t>
@@ -1493,25 +1493,25 @@
     <t xml:space="preserve">2.84740400314331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80634307861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.820556640625</t>
+    <t xml:space="preserve">2.80634355545044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82055640220642</t>
   </si>
   <si>
     <t xml:space="preserve">2.8379282951355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8316113948822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85530042648315</t>
+    <t xml:space="preserve">2.83161115646362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.855299949646</t>
   </si>
   <si>
     <t xml:space="preserve">2.83319067955017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82687377929688</t>
+    <t xml:space="preserve">2.8268735408783</t>
   </si>
   <si>
     <t xml:space="preserve">2.85372090339661</t>
@@ -1529,19 +1529,19 @@
     <t xml:space="preserve">2.92794609069824</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98006153106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89951920509338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88372659683228</t>
+    <t xml:space="preserve">2.98006176948547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8995189666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88372683525085</t>
   </si>
   <si>
     <t xml:space="preserve">2.88056802749634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86793375015259</t>
+    <t xml:space="preserve">2.86793398857117</t>
   </si>
   <si>
     <t xml:space="preserve">2.83476996421814</t>
@@ -1553,10 +1553,10 @@
     <t xml:space="preserve">2.75896501541138</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80002617835999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79528832435608</t>
+    <t xml:space="preserve">2.80002641677856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79528856277466</t>
   </si>
   <si>
     <t xml:space="preserve">2.77317905426025</t>
@@ -1571,31 +1571,31 @@
     <t xml:space="preserve">2.66578936576843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64841771125793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68000245094299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74633073806763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86161732673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86477565765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84424519538879</t>
+    <t xml:space="preserve">2.64841747283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68000221252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74633097648621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86161708831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86477541923523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84424543380737</t>
   </si>
   <si>
     <t xml:space="preserve">2.87583041191101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85214138031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81108093261719</t>
+    <t xml:space="preserve">2.85214114189148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81108117103577</t>
   </si>
   <si>
     <t xml:space="preserve">2.81739807128906</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">2.59472227096558</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59156370162964</t>
+    <t xml:space="preserve">2.59156394004822</t>
   </si>
   <si>
     <t xml:space="preserve">2.53471088409424</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">2.58524680137634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50312519073486</t>
+    <t xml:space="preserve">2.50312495231628</t>
   </si>
   <si>
     <t xml:space="preserve">2.4067907333374</t>
@@ -1631,13 +1631,13 @@
     <t xml:space="preserve">2.3894190788269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38783955574036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32151079177856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33572387695312</t>
+    <t xml:space="preserve">2.38783979415894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32151055335999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3357241153717</t>
   </si>
   <si>
     <t xml:space="preserve">2.31045579910278</t>
@@ -1646,37 +1646,37 @@
     <t xml:space="preserve">2.3594126701355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34993696212769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29150462150574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26465773582458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23623037338257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18727350234985</t>
+    <t xml:space="preserve">2.34993720054626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29150485992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26465749740601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23623013496399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18727326393127</t>
   </si>
   <si>
     <t xml:space="preserve">2.15252995491028</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19832801818848</t>
+    <t xml:space="preserve">2.19832849502563</t>
   </si>
   <si>
     <t xml:space="preserve">2.25518202781677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20464515686035</t>
+    <t xml:space="preserve">2.20464491844177</t>
   </si>
   <si>
     <t xml:space="preserve">2.20148658752441</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24254775047302</t>
+    <t xml:space="preserve">2.2425479888916</t>
   </si>
   <si>
     <t xml:space="preserve">2.28834629058838</t>
@@ -1694,31 +1694,31 @@
     <t xml:space="preserve">2.25044441223145</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23938870429993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19516968727112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21570014953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19674921035767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19359016418457</t>
+    <t xml:space="preserve">2.23938894271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1951699256897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21569991111755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19674897193909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19359040260315</t>
   </si>
   <si>
     <t xml:space="preserve">2.17148089408875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16358470916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11462807655334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12094497680664</t>
+    <t xml:space="preserve">2.16358494758606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11462783813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12094521522522</t>
   </si>
   <si>
     <t xml:space="preserve">2.10199332237244</t>
@@ -1730,7 +1730,7 @@
     <t xml:space="preserve">2.2283341884613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21096229553223</t>
+    <t xml:space="preserve">2.21096205711365</t>
   </si>
   <si>
     <t xml:space="preserve">2.22675466537476</t>
@@ -1739,31 +1739,31 @@
     <t xml:space="preserve">2.19201135635376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23465132713318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2030656337738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09567594528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12410354614258</t>
+    <t xml:space="preserve">2.2346510887146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20306587219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09567618370056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12410378456116</t>
   </si>
   <si>
     <t xml:space="preserve">2.08304238319397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07514595985413</t>
+    <t xml:space="preserve">2.07514572143555</t>
   </si>
   <si>
     <t xml:space="preserve">2.10673093795776</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10831022262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02776837348938</t>
+    <t xml:space="preserve">2.10830998420715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02776885032654</t>
   </si>
   <si>
     <t xml:space="preserve">2.12252426147461</t>
@@ -1781,43 +1781,43 @@
     <t xml:space="preserve">2.07830476760864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0640914440155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13515830039978</t>
+    <t xml:space="preserve">2.06409096717834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13515853881836</t>
   </si>
   <si>
     <t xml:space="preserve">2.14621305465698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13673758506775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13357901573181</t>
+    <t xml:space="preserve">2.13673734664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13357925415039</t>
   </si>
   <si>
     <t xml:space="preserve">2.0877799987793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02303051948547</t>
+    <t xml:space="preserve">2.02303075790405</t>
   </si>
   <si>
     <t xml:space="preserve">2.00565910339355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05619549751282</t>
+    <t xml:space="preserve">2.05619525909424</t>
   </si>
   <si>
     <t xml:space="preserve">2.02934789657593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99776256084442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98512864112854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96933543682098</t>
+    <t xml:space="preserve">1.99776268005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98512887954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96933531761169</t>
   </si>
   <si>
     <t xml:space="preserve">2.01987218856812</t>
@@ -1835,49 +1835,49 @@
     <t xml:space="preserve">1.83825707435608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81614744663239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83194005489349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8556295633316</t>
+    <t xml:space="preserve">1.81614756584167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83193981647491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85562980175018</t>
   </si>
   <si>
     <t xml:space="preserve">1.91090309619904</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88879382610321</t>
+    <t xml:space="preserve">1.88879370689392</t>
   </si>
   <si>
     <t xml:space="preserve">1.88721454143524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91406178474426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93459177017212</t>
+    <t xml:space="preserve">1.91406166553497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93459188938141</t>
   </si>
   <si>
     <t xml:space="preserve">1.96459782123566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01039671897888</t>
+    <t xml:space="preserve">2.0103964805603</t>
   </si>
   <si>
     <t xml:space="preserve">2.00250053405762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97723150253296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97091460227966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96301853656769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97407329082489</t>
+    <t xml:space="preserve">1.97723174095154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97091472148895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9630184173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97407341003418</t>
   </si>
   <si>
     <t xml:space="preserve">1.96775615215302</t>
@@ -1886,19 +1886,19 @@
     <t xml:space="preserve">2.03250598907471</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02460980415344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01671361923218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04671955108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00407934188843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93143367767334</t>
+    <t xml:space="preserve">2.02461004257202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01671385765076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04671931266785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00407958030701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93143355846405</t>
   </si>
   <si>
     <t xml:space="preserve">1.93301248550415</t>
@@ -1913,19 +1913,19 @@
     <t xml:space="preserve">1.94248843193054</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9409087896347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96617686748505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9235372543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90142786502838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93775057792664</t>
+    <t xml:space="preserve">1.94090902805328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96617698669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92353737354279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90142774581909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93775045871735</t>
   </si>
   <si>
     <t xml:space="preserve">1.92669570446014</t>
@@ -1934,28 +1934,28 @@
     <t xml:space="preserve">1.92511630058289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93617117404938</t>
+    <t xml:space="preserve">1.93617105484009</t>
   </si>
   <si>
     <t xml:space="preserve">1.90774476528168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87931823730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83509850502014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82878172397614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86984276771545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89037299156189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89826905727386</t>
+    <t xml:space="preserve">1.87931835651398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83509826660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82878148555756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86984264850616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8903728723526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89826917648315</t>
   </si>
   <si>
     <t xml:space="preserve">1.90458631515503</t>
@@ -1967,10 +1967,10 @@
     <t xml:space="preserve">1.8730012178421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78456234931946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79877543449402</t>
+    <t xml:space="preserve">1.78456258773804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79877555370331</t>
   </si>
   <si>
     <t xml:space="preserve">1.72613024711609</t>
@@ -1985,16 +1985,16 @@
     <t xml:space="preserve">1.66927635669708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65190458297729</t>
+    <t xml:space="preserve">1.65190470218658</t>
   </si>
   <si>
     <t xml:space="preserve">1.64381504058838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64543294906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67617356777191</t>
+    <t xml:space="preserve">1.64543306827545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67617344856262</t>
   </si>
   <si>
     <t xml:space="preserve">1.65352272987366</t>
@@ -2003,13 +2003,13 @@
     <t xml:space="preserve">1.66646587848663</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64866888523102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65514051914215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71985733509064</t>
+    <t xml:space="preserve">1.64866900444031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65514063835144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71985745429993</t>
   </si>
   <si>
     <t xml:space="preserve">1.6972062587738</t>
@@ -2018,25 +2018,25 @@
     <t xml:space="preserve">1.6794091463089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68102729320526</t>
+    <t xml:space="preserve">1.68102717399597</t>
   </si>
   <si>
     <t xml:space="preserve">1.70206010341644</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61792767047882</t>
+    <t xml:space="preserve">1.61792755126953</t>
   </si>
   <si>
     <t xml:space="preserve">1.62763595581055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63572537899017</t>
+    <t xml:space="preserve">1.63572549819946</t>
   </si>
   <si>
     <t xml:space="preserve">1.57667064666748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5750527381897</t>
+    <t xml:space="preserve">1.57505261898041</t>
   </si>
   <si>
     <t xml:space="preserve">1.57586169242859</t>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve">1.55482876300812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57343471050262</t>
+    <t xml:space="preserve">1.57343482971191</t>
   </si>
   <si>
     <t xml:space="preserve">1.60013055801392</t>
@@ -2054,7 +2054,7 @@
     <t xml:space="preserve">1.58961403369904</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60741102695465</t>
+    <t xml:space="preserve">1.60741114616394</t>
   </si>
   <si>
     <t xml:space="preserve">1.56291830539703</t>
@@ -2063,10 +2063,10 @@
     <t xml:space="preserve">1.57262587547302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59608566761017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58799600601196</t>
+    <t xml:space="preserve">1.59608578681946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58799624443054</t>
   </si>
   <si>
     <t xml:space="preserve">1.58637821674347</t>
@@ -2075,46 +2075,46 @@
     <t xml:space="preserve">1.64219725131989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68749892711639</t>
+    <t xml:space="preserve">1.6874988079071</t>
   </si>
   <si>
     <t xml:space="preserve">1.67455542087555</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63410758972168</t>
+    <t xml:space="preserve">1.63410770893097</t>
   </si>
   <si>
     <t xml:space="preserve">1.6114559173584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57828855514526</t>
+    <t xml:space="preserve">1.57828843593597</t>
   </si>
   <si>
     <t xml:space="preserve">1.57747960090637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55240190029144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55725574493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57100796699524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55321085453033</t>
+    <t xml:space="preserve">1.55240178108215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55725562572479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57100784778595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55321097373962</t>
   </si>
   <si>
     <t xml:space="preserve">1.54916596412659</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54026746749878</t>
+    <t xml:space="preserve">1.54026758670807</t>
   </si>
   <si>
     <t xml:space="preserve">1.52408838272095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52166140079498</t>
+    <t xml:space="preserve">1.52166152000427</t>
   </si>
   <si>
     <t xml:space="preserve">1.5289421081543</t>
@@ -2123,10 +2123,10 @@
     <t xml:space="preserve">1.51761662960052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50710010528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50062847137451</t>
+    <t xml:space="preserve">1.50710022449493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5006285905838</t>
   </si>
   <si>
     <t xml:space="preserve">1.49011206626892</t>
@@ -2138,7 +2138,7 @@
     <t xml:space="preserve">1.37523901462555</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34287977218628</t>
+    <t xml:space="preserve">1.34287989139557</t>
   </si>
   <si>
     <t xml:space="preserve">1.3404529094696</t>
@@ -2147,22 +2147,22 @@
     <t xml:space="preserve">1.286252617836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32427370548248</t>
+    <t xml:space="preserve">1.32427382469177</t>
   </si>
   <si>
     <t xml:space="preserve">1.34207081794739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30890357494354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31861090660095</t>
+    <t xml:space="preserve">1.30890333652496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31861102581024</t>
   </si>
   <si>
     <t xml:space="preserve">1.36795842647552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35663306713104</t>
+    <t xml:space="preserve">1.35663294792175</t>
   </si>
   <si>
     <t xml:space="preserve">1.36714947223663</t>
@@ -2177,40 +2177,40 @@
     <t xml:space="preserve">1.37362110614777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3792839050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45451688766479</t>
+    <t xml:space="preserve">1.37928378582001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45451700687408</t>
   </si>
   <si>
     <t xml:space="preserve">1.48202168941498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4723140001297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44885420799255</t>
+    <t xml:space="preserve">1.47231423854828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44885432720184</t>
   </si>
   <si>
     <t xml:space="preserve">1.5103360414505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49820160865784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46422445774078</t>
+    <t xml:space="preserve">1.49820172786713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46422469615936</t>
   </si>
   <si>
     <t xml:space="preserve">1.44723629951477</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45613491535187</t>
+    <t xml:space="preserve">1.45613503456116</t>
   </si>
   <si>
     <t xml:space="preserve">1.46179759502411</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43267500400543</t>
+    <t xml:space="preserve">1.43267512321472</t>
   </si>
   <si>
     <t xml:space="preserve">1.39546298980713</t>
@@ -2219,16 +2219,16 @@
     <t xml:space="preserve">1.38171064853668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35097026824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35905969142914</t>
+    <t xml:space="preserve">1.35097014904022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35905981063843</t>
   </si>
   <si>
     <t xml:space="preserve">1.34449768066406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36553144454956</t>
+    <t xml:space="preserve">1.36553156375885</t>
   </si>
   <si>
     <t xml:space="preserve">1.37119424343109</t>
@@ -2237,7 +2237,7 @@
     <t xml:space="preserve">1.34935140609741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34368872642517</t>
+    <t xml:space="preserve">1.34368884563446</t>
   </si>
   <si>
     <t xml:space="preserve">1.35986876487732</t>
@@ -2246,37 +2246,37 @@
     <t xml:space="preserve">1.37281215190887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39708089828491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43186616897583</t>
+    <t xml:space="preserve">1.3970810174942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43186604976654</t>
   </si>
   <si>
     <t xml:space="preserve">1.45775282382965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48768520355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48121273517609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44804537296295</t>
+    <t xml:space="preserve">1.48768508434296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4812126159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44804525375366</t>
   </si>
   <si>
     <t xml:space="preserve">1.45370805263519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45856165885925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45937073230743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43672001361847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46503353118896</t>
+    <t xml:space="preserve">1.45856177806854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45937085151672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43671989440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46503341197968</t>
   </si>
   <si>
     <t xml:space="preserve">1.52651512622833</t>
@@ -2285,19 +2285,19 @@
     <t xml:space="preserve">1.51842558383942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53541374206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50548231601715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53703165054321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74574398994446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69558846950531</t>
+    <t xml:space="preserve">1.53541386127472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50548243522644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5370317697525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74574387073517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69558835029602</t>
   </si>
   <si>
     <t xml:space="preserve">1.69073474407196</t>
@@ -2306,40 +2306,40 @@
     <t xml:space="preserve">1.69397056102753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65675854682922</t>
+    <t xml:space="preserve">1.65675842761993</t>
   </si>
   <si>
     <t xml:space="preserve">1.64705097675323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63087165355682</t>
+    <t xml:space="preserve">1.63087177276611</t>
   </si>
   <si>
     <t xml:space="preserve">1.66323006153107</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71662139892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74736177921295</t>
+    <t xml:space="preserve">1.71662151813507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74736189842224</t>
   </si>
   <si>
     <t xml:space="preserve">1.71500360965729</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73603641986847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6599942445755</t>
+    <t xml:space="preserve">1.73603653907776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65999412536621</t>
   </si>
   <si>
     <t xml:space="preserve">1.68426311016083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72632896900177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75868821144104</t>
+    <t xml:space="preserve">1.72632884979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75868809223175</t>
   </si>
   <si>
     <t xml:space="preserve">1.72794711589813</t>
@@ -2351,37 +2351,37 @@
     <t xml:space="preserve">1.70529615879059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70044231414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73441863059998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69235265254974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67131984233856</t>
+    <t xml:space="preserve">1.70044219493866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73441874980927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69235253334045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67131972312927</t>
   </si>
   <si>
     <t xml:space="preserve">1.66970181465149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71176755428314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71823930740356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69882440567017</t>
+    <t xml:space="preserve">1.71176767349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71823942661285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69882416725159</t>
   </si>
   <si>
     <t xml:space="preserve">1.7133857011795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71014976501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70367813110352</t>
+    <t xml:space="preserve">1.71014964580536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70367801189423</t>
   </si>
   <si>
     <t xml:space="preserve">1.63896143436432</t>
@@ -2396,49 +2396,49 @@
     <t xml:space="preserve">1.63248980045319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65028667449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75545144081116</t>
+    <t xml:space="preserve">1.6502867937088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75545132160187</t>
   </si>
   <si>
     <t xml:space="preserve">1.88488566875458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93504226207733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.910773396492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97063612937927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17449545860291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21656155586243</t>
+    <t xml:space="preserve">1.93504214286804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91077327728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97063624858856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17449569702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21656179428101</t>
   </si>
   <si>
     <t xml:space="preserve">2.08712720870972</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02564525604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90591955184937</t>
+    <t xml:space="preserve">2.02564549446106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90591943264008</t>
   </si>
   <si>
     <t xml:space="preserve">1.89944779872894</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94636762142181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82987666130066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58556926250458</t>
+    <t xml:space="preserve">1.94636785984039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82987654209137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58556914329529</t>
   </si>
   <si>
     <t xml:space="preserve">1.47312295436859</t>
@@ -2447,25 +2447,25 @@
     <t xml:space="preserve">1.41892278194427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32912743091583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28463470935822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26845550537109</t>
+    <t xml:space="preserve">1.32912755012512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2846348285675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26845562458038</t>
   </si>
   <si>
     <t xml:space="preserve">1.02819299697876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06621408462524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984509229660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01282262802124</t>
+    <t xml:space="preserve">1.06621420383453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984509289264679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01282274723053</t>
   </si>
   <si>
     <t xml:space="preserve">1.03142881393433</t>
@@ -2483,28 +2483,28 @@
     <t xml:space="preserve">1.14791977405548</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15600943565369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14387488365173</t>
+    <t xml:space="preserve">1.15600955486298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14387500286102</t>
   </si>
   <si>
     <t xml:space="preserve">1.09210157394409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0710676908493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11556136608124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10019111633301</t>
+    <t xml:space="preserve">1.07106792926788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11556148529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1001912355423</t>
   </si>
   <si>
     <t xml:space="preserve">1.18513190746307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13254952430725</t>
+    <t xml:space="preserve">1.13254964351654</t>
   </si>
   <si>
     <t xml:space="preserve">1.19403052330017</t>
@@ -2516,16 +2516,16 @@
     <t xml:space="preserve">1.28787064552307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25065851211548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24904036521912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16490805149078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14306592941284</t>
+    <t xml:space="preserve">1.25065839290619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24904048442841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1649078130722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14306604862213</t>
   </si>
   <si>
     <t xml:space="preserve">1.17218852043152</t>
@@ -2534,10 +2534,10 @@
     <t xml:space="preserve">1.13902127742767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17299747467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15520048141479</t>
+    <t xml:space="preserve">1.17299735546112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15520036220551</t>
   </si>
   <si>
     <t xml:space="preserve">1.15924525260925</t>
@@ -2546,7 +2546,7 @@
     <t xml:space="preserve">1.15115559101105</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1640989780426</t>
+    <t xml:space="preserve">1.16409909725189</t>
   </si>
   <si>
     <t xml:space="preserve">1.17057073116302</t>
@@ -2555,16 +2555,16 @@
     <t xml:space="preserve">1.11151671409607</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14953780174255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12445986270905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10908985137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1187971830368</t>
+    <t xml:space="preserve">1.14953768253326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12446010112762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1090897321701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11879730224609</t>
   </si>
   <si>
     <t xml:space="preserve">1.11717927455902</t>
@@ -2573,97 +2573,97 @@
     <t xml:space="preserve">1.08401203155518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05569767951965</t>
+    <t xml:space="preserve">1.05569756031036</t>
   </si>
   <si>
     <t xml:space="preserve">1.03951847553253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05974233150482</t>
+    <t xml:space="preserve">1.05974245071411</t>
   </si>
   <si>
     <t xml:space="preserve">1.01039588451385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992598712444305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986935913562775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.978846549987793</t>
+    <t xml:space="preserve">0.992598831653595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.986936092376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.978846430778503</t>
   </si>
   <si>
     <t xml:space="preserve">1.05650651454926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06864106655121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13416743278503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17542433738708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18108701705933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21506333351135</t>
+    <t xml:space="preserve">1.06864094734192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13416755199432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17542445659637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18108689785004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21506357192993</t>
   </si>
   <si>
     <t xml:space="preserve">1.26602864265442</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30162262916565</t>
+    <t xml:space="preserve">1.30162274837494</t>
   </si>
   <si>
     <t xml:space="preserve">1.32750964164734</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28544366359711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27411830425262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22962558269501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25146734714508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27169132232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24499571323395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27816295623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25389432907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33479011058807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38494658470154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46017968654633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50386428833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51195383071899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4933477640152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49901068210602</t>
+    <t xml:space="preserve">1.28544354438782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27411818504333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22962546348572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25146746635437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27169144153595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24499583244324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27816307544708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25389420986176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33479022979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38494646549225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46017980575562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50386440753937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51195394992828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49334788322449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49901056289673</t>
   </si>
   <si>
     <t xml:space="preserve">1.5014374256134</t>
@@ -2681,7 +2681,7 @@
     <t xml:space="preserve">1.55159294605255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59365880489349</t>
+    <t xml:space="preserve">1.5936586856842</t>
   </si>
   <si>
     <t xml:space="preserve">1.58152437210083</t>
@@ -2693,40 +2693,40 @@
     <t xml:space="preserve">1.49577474594116</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47474110126495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43833780288696</t>
+    <t xml:space="preserve">1.47474098205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43833768367767</t>
   </si>
   <si>
     <t xml:space="preserve">1.46665143966675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53379583358765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5483570098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57990658283234</t>
+    <t xml:space="preserve">1.53379595279694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54835712909698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57990646362305</t>
   </si>
   <si>
     <t xml:space="preserve">1.59042298793793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66161227226257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62925374507904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47716772556305</t>
+    <t xml:space="preserve">1.66161239147186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62925386428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47716784477234</t>
   </si>
   <si>
     <t xml:space="preserve">1.47635889053345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43995571136475</t>
+    <t xml:space="preserve">1.43995559215546</t>
   </si>
   <si>
     <t xml:space="preserve">1.46988725662231</t>
@@ -2738,34 +2738,34 @@
     <t xml:space="preserve">1.47797679901123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48687624931335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49172985553741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41568684577942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41245126724243</t>
+    <t xml:space="preserve">1.48687613010406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4917299747467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41568696498871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41245114803314</t>
   </si>
   <si>
     <t xml:space="preserve">1.43914675712585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39303600788116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41811382770538</t>
+    <t xml:space="preserve">1.39303612709045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41811370849609</t>
   </si>
   <si>
     <t xml:space="preserve">1.42943930625916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49739253520966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46746039390564</t>
+    <t xml:space="preserve">1.49739265441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46746051311493</t>
   </si>
   <si>
     <t xml:space="preserve">1.48040378093719</t>
@@ -2777,49 +2777,49 @@
     <t xml:space="preserve">1.45128118991852</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41164207458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42701244354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43105709552765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36472249031067</t>
+    <t xml:space="preserve">1.41164219379425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42701232433319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43105721473694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36472260951996</t>
   </si>
   <si>
     <t xml:space="preserve">1.35501492023468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31213939189911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32993626594543</t>
+    <t xml:space="preserve">1.31213927268982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32993650436401</t>
   </si>
   <si>
     <t xml:space="preserve">1.19726634025574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18674969673157</t>
+    <t xml:space="preserve">1.18674981594086</t>
   </si>
   <si>
     <t xml:space="preserve">1.21910893917084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31456625461578</t>
+    <t xml:space="preserve">1.31456613540649</t>
   </si>
   <si>
     <t xml:space="preserve">1.33074545860291</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32670056819916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31618404388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54512119293213</t>
+    <t xml:space="preserve">1.32670068740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31618416309357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54512131214142</t>
   </si>
   <si>
     <t xml:space="preserve">1.53460466861725</t>
@@ -2828,22 +2828,22 @@
     <t xml:space="preserve">1.60983800888062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66484797000885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94151365756989</t>
+    <t xml:space="preserve">1.66484808921814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94151377677917</t>
   </si>
   <si>
     <t xml:space="preserve">1.90915536880493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90106606483459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88326799869537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81369733810425</t>
+    <t xml:space="preserve">1.90106558799744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88326776027679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81369721889496</t>
   </si>
   <si>
     <t xml:space="preserve">1.84443795681</t>
@@ -2852,16 +2852,16 @@
     <t xml:space="preserve">1.80560767650604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82340502738953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82502281665802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85414528846741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85090947151184</t>
+    <t xml:space="preserve">1.82340478897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82502269744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8541454076767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85090959072113</t>
   </si>
   <si>
     <t xml:space="preserve">1.82016885280609</t>
@@ -2873,73 +2873,73 @@
     <t xml:space="preserve">1.78133904933929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79913592338562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77972102165222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79590034484863</t>
+    <t xml:space="preserve">1.79913604259491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77972114086151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79590022563934</t>
   </si>
   <si>
     <t xml:space="preserve">1.76192390918732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73118257522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75221574306488</t>
+    <t xml:space="preserve">1.73118281364441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75221562385559</t>
   </si>
   <si>
     <t xml:space="preserve">1.77648520469666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78457486629486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7829567193985</t>
+    <t xml:space="preserve">1.78457498550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78295695781708</t>
   </si>
   <si>
     <t xml:space="preserve">1.86870658397675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90430164337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88165009021759</t>
+    <t xml:space="preserve">1.90430152416229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8816499710083</t>
   </si>
   <si>
     <t xml:space="preserve">1.84281980991364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86061704158783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81531548500061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77001368999481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79428219795227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77163147926331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75383341312408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68264508247375</t>
+    <t xml:space="preserve">1.86061716079712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81531524658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7700138092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79428243637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77163136005402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75383353233337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68264496326447</t>
   </si>
   <si>
     <t xml:space="preserve">1.70853185653687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73765456676483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87194240093231</t>
+    <t xml:space="preserve">1.73765444755554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87194228172302</t>
   </si>
   <si>
     <t xml:space="preserve">2.02079176902771</t>
@@ -2960,37 +2960,37 @@
     <t xml:space="preserve">2.02402758598328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98196160793304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93827819824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96092891693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95122110843658</t>
+    <t xml:space="preserve">1.98196172714233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9382780790329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96092879772186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95122122764587</t>
   </si>
   <si>
     <t xml:space="preserve">1.94798541069031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95607507228851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93665993213654</t>
+    <t xml:space="preserve">1.9560751914978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93666017055511</t>
   </si>
   <si>
     <t xml:space="preserve">1.9301882982254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97710800170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96578240394592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95769309997559</t>
+    <t xml:space="preserve">1.97710812091827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9657826423645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95769286155701</t>
   </si>
   <si>
     <t xml:space="preserve">2.00461268424988</t>
@@ -2999,16 +2999,16 @@
     <t xml:space="preserve">1.99652290344238</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06447649002075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12110376358032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20038223266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28936815261841</t>
+    <t xml:space="preserve">2.06447625160217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12110352516174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20038247108459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28936791419983</t>
   </si>
   <si>
     <t xml:space="preserve">2.33628821372986</t>
@@ -3020,13 +3020,13 @@
     <t xml:space="preserve">2.28127837181091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25700926780701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30878376960754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28774976730347</t>
+    <t xml:space="preserve">2.25700950622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30878353118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28775000572205</t>
   </si>
   <si>
     <t xml:space="preserve">2.29098582267761</t>
@@ -3053,40 +3053,40 @@
     <t xml:space="preserve">2.39453339576721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40747690200806</t>
+    <t xml:space="preserve">2.40747666358948</t>
   </si>
   <si>
     <t xml:space="preserve">2.43174624443054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46572256088257</t>
+    <t xml:space="preserve">2.46572279930115</t>
   </si>
   <si>
     <t xml:space="preserve">2.396151304245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40585899353027</t>
+    <t xml:space="preserve">2.40585875511169</t>
   </si>
   <si>
     <t xml:space="preserve">2.40909457206726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53852939605713</t>
+    <t xml:space="preserve">2.53852891921997</t>
   </si>
   <si>
     <t xml:space="preserve">2.57088804244995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65825581550598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73106288909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83137369155884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80386900901794</t>
+    <t xml:space="preserve">2.6582555770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7310631275177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83137392997742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80386924743652</t>
   </si>
   <si>
     <t xml:space="preserve">2.78769016265869</t>
@@ -3098,7 +3098,7 @@
     <t xml:space="preserve">2.93330359458923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98507761955261</t>
+    <t xml:space="preserve">2.98507785797119</t>
   </si>
   <si>
     <t xml:space="preserve">3.09186029434204</t>
@@ -3119,411 +3119,411 @@
     <t xml:space="preserve">3.14039874076843</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19217228889465</t>
+    <t xml:space="preserve">3.19217205047607</t>
   </si>
   <si>
     <t xml:space="preserve">3.17761063575745</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16790318489075</t>
+    <t xml:space="preserve">3.16790342330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19055414199829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30391597747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29241561889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27598571777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37784719467163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31213045120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33677434921265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4205629825592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44520735740662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41563391685486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40084767341614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35156035423279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2809145450592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20041179656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17741107940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17083930969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15440940856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12155103683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10840773582458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03283405303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0016176700592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99997472763062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93097257614136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99340319633484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99176049232483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03940558433533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9638307094574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00490355491638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99011707305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06076335906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98025989532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94740176200867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91782903671265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04597735404968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99504613876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97697401046753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91947197914124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86361217498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76503753662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85539770126343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92768692970276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95397353172302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9819028377533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13469433784485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09526443481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15276646614075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11497950553894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05419158935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06404900550842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06240630149841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04104828834534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04762005805969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12647986412048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16262483596802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11169385910034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17905402183533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13633728027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13305139541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03776240348816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06569218635559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04926300048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08376431465149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10512208938599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21355509757996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2217698097229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19548296928406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19876885414124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16426777839661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.203697681427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14619469642639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16755342483521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.106764793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04433417320251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07883524894714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01804757118225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96218776702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03119087219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96711659431458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89482855796814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89811420440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99668884277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00654673576355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01476097106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97861695289612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02790522575378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05090570449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02461910247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13962316513062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11005091667175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08869290351868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07062077522278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08047842979431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11333656311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1659107208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18726825714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20205473899841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16098189353943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21026921272278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24477052688599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25298476219177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12812280654907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14455199241638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0854070186615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11990809440613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19384002685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24969911575317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15933895111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05912065505981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00818943977356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95890188217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97204542160034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89154243469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89975714683533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85046911239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95725917816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90468573570251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77325201034546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92604374885559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80939626693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8389687538147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86854100227356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86525535583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9424729347229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91454339027405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91290044784546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88825702667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85868358612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95068740844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0262622833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05747747421265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10347938537598</t>
   </si>
   <si>
     <t xml:space="preserve">3.19055438041687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30391597747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29241561889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27598571777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37784695625305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31213045120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33677434921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4205629825592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44520711898804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41563391685486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40084767341614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35156035423279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2809145450592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20041179656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17741107940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17083930969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15440940856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12155103683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10840773582458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03283381462097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00161790847778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99997496604919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93097233772278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99340319633484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99176025390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03940534591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96383094787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00490355491638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99011731147766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06076335906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98025965690613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94740176200867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9178295135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04597735404968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99504613876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97697424888611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91947221755981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86361217498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76503753662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85539770126343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92768669128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95397329330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98190259933472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13469457626343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09526467323303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15276646614075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11497950553894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05419158935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06404900550842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06240606307983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04104828834534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04762005805969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12648010253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16262483596802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11169362068176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17905402183533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13633751869202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13305163383484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03776264190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06569218635559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04926300048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08376407623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10512208938599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21355509757996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22176957130432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19548296928406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19876885414124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16426753997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20369744300842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14619469642639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16755342483521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10676503181458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04433441162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07883548736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01804757118225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96218800544739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03119087219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96711659431458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89482855796814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89811420440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99668908119202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00654649734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01476097106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97861695289612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02790498733521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05090594291687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02461934089661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13962316513062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11005067825317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08869290351868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07062077522278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08047866821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11333656311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16591048240662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18726825714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20205450057983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16098189353943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21026921272278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24477028846741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25298500061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12812280654907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1445517539978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08540678024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11990809440613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19384002685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24969887733459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15933871269226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05912041664124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00818943977356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95890188217163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97204542160034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89154267311096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89975690841675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85046911239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95725893974304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90468597412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77325201034546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92604374885559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80939602851868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8389687538147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86854124069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86525535583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9424729347229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91454339027405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91290044784546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88825678825378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85868358612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95068740844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0262622833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05747771263123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10347938537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19055414199829</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.06733512878418</t>
   </si>
   <si>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">3.2431275844574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09690737724304</t>
+    <t xml:space="preserve">3.09690761566162</t>
   </si>
   <si>
     <t xml:space="preserve">2.93590116500854</t>
@@ -3545,10 +3545,10 @@
     <t xml:space="preserve">2.98354554176331</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06897807121277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02954792976379</t>
+    <t xml:space="preserve">3.06897783279419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02954816818237</t>
   </si>
   <si>
     <t xml:space="preserve">3.18233966827393</t>
@@ -3557,7 +3557,7 @@
     <t xml:space="preserve">3.13288044929504</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10821223258972</t>
+    <t xml:space="preserve">3.10821199417114</t>
   </si>
   <si>
     <t xml:space="preserve">3.26937890052795</t>
@@ -3569,28 +3569,28 @@
     <t xml:space="preserve">3.37956404685974</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3088481426239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42561149597168</t>
+    <t xml:space="preserve">3.30884838104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42561173439026</t>
   </si>
   <si>
     <t xml:space="preserve">3.44370198249817</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41574430465698</t>
+    <t xml:space="preserve">3.4157440662384</t>
   </si>
   <si>
     <t xml:space="preserve">3.48481559753418</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39107584953308</t>
+    <t xml:space="preserve">3.39107608795166</t>
   </si>
   <si>
     <t xml:space="preserve">3.31542634963989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15754890441895</t>
+    <t xml:space="preserve">3.15754866600037</t>
   </si>
   <si>
     <t xml:space="preserve">2.99967122077942</t>
@@ -3599,7 +3599,7 @@
     <t xml:space="preserve">3.05065274238586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91415452957153</t>
+    <t xml:space="preserve">2.91415429115295</t>
   </si>
   <si>
     <t xml:space="preserve">2.73818683624268</t>
@@ -3632,16 +3632,16 @@
     <t xml:space="preserve">2.71022939682007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75298810005188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94704580307007</t>
+    <t xml:space="preserve">2.7529878616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94704556465149</t>
   </si>
   <si>
     <t xml:space="preserve">2.91908812522888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96020221710205</t>
+    <t xml:space="preserve">2.96020197868347</t>
   </si>
   <si>
     <t xml:space="preserve">2.97829222679138</t>
@@ -3653,16 +3653,16 @@
     <t xml:space="preserve">2.99473762512207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99144864082336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93388938903809</t>
+    <t xml:space="preserve">2.99144887924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93388915061951</t>
   </si>
   <si>
     <t xml:space="preserve">2.99638247489929</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1312358379364</t>
+    <t xml:space="preserve">3.13123607635498</t>
   </si>
   <si>
     <t xml:space="preserve">3.13781404495239</t>
@@ -3671,7 +3671,7 @@
     <t xml:space="preserve">3.05723094940186</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09834456443787</t>
+    <t xml:space="preserve">3.09834480285645</t>
   </si>
   <si>
     <t xml:space="preserve">3.12630224227905</t>
@@ -3692,22 +3692,22 @@
     <t xml:space="preserve">3.1559042930603</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07696557044983</t>
+    <t xml:space="preserve">3.07696580886841</t>
   </si>
   <si>
     <t xml:space="preserve">3.14932608604431</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09176635742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1772837638855</t>
+    <t xml:space="preserve">3.09176659584045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17728352546692</t>
   </si>
   <si>
     <t xml:space="preserve">3.16248250007629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11314582824707</t>
+    <t xml:space="preserve">3.11314606666565</t>
   </si>
   <si>
     <t xml:space="preserve">3.13616943359375</t>
@@ -3728,7 +3728,7 @@
     <t xml:space="preserve">2.98815965652466</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95362401008606</t>
+    <t xml:space="preserve">2.95362377166748</t>
   </si>
   <si>
     <t xml:space="preserve">2.87468504905701</t>
@@ -3743,13 +3743,13 @@
     <t xml:space="preserve">3.02598428726196</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01940584182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08683276176453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06545352935791</t>
+    <t xml:space="preserve">3.01940608024597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08683300018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06545376777649</t>
   </si>
   <si>
     <t xml:space="preserve">3.05558633804321</t>
@@ -3758,7 +3758,7 @@
     <t xml:space="preserve">3.01282787322998</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27027487754822</t>
+    <t xml:space="preserve">3.2702751159668</t>
   </si>
   <si>
     <t xml:space="preserve">3.29636764526367</t>
@@ -3770,10 +3770,10 @@
     <t xml:space="preserve">3.362468957901</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33985543251038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29462814331055</t>
+    <t xml:space="preserve">3.3398551940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29462838172913</t>
   </si>
   <si>
     <t xml:space="preserve">3.26679611206055</t>
@@ -3794,7 +3794,7 @@
     <t xml:space="preserve">3.22330832481384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17808127403259</t>
+    <t xml:space="preserve">3.17808103561401</t>
   </si>
   <si>
     <t xml:space="preserve">2.95890307426453</t>
@@ -3809,10 +3809,10 @@
     <t xml:space="preserve">2.93802905082703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8510537147522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8945415019989</t>
+    <t xml:space="preserve">2.85105395317078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89454126358032</t>
   </si>
   <si>
     <t xml:space="preserve">2.96064257621765</t>
@@ -3857,16 +3857,16 @@
     <t xml:space="preserve">2.86323022842407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9571635723114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91193652153015</t>
+    <t xml:space="preserve">2.95716381072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91193628311157</t>
   </si>
   <si>
     <t xml:space="preserve">2.89628076553345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82844018936157</t>
+    <t xml:space="preserve">2.82843995094299</t>
   </si>
   <si>
     <t xml:space="preserve">2.69275832176208</t>
@@ -3875,7 +3875,7 @@
     <t xml:space="preserve">2.70841407775879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75538086891174</t>
+    <t xml:space="preserve">2.75538063049316</t>
   </si>
   <si>
     <t xml:space="preserve">2.88236474990845</t>
@@ -3884,25 +3884,25 @@
     <t xml:space="preserve">2.80060791969299</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76233863830566</t>
+    <t xml:space="preserve">2.76233887672424</t>
   </si>
   <si>
     <t xml:space="preserve">2.72754836082458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76755738258362</t>
+    <t xml:space="preserve">2.76755714416504</t>
   </si>
   <si>
     <t xml:space="preserve">2.69623732566833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74146437644958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81452417373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84931421279907</t>
+    <t xml:space="preserve">2.74146461486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81452393531799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84931397438049</t>
   </si>
   <si>
     <t xml:space="preserve">2.92411303520203</t>
@@ -3938,10 +3938,10 @@
     <t xml:space="preserve">2.74668312072754</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74494338035583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77625489234924</t>
+    <t xml:space="preserve">2.74494361877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77625465393066</t>
   </si>
   <si>
     <t xml:space="preserve">2.78495240211487</t>
@@ -3950,10 +3950,10 @@
     <t xml:space="preserve">2.74320411682129</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78147339820862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78321290016174</t>
+    <t xml:space="preserve">2.78147315979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78321266174316</t>
   </si>
   <si>
     <t xml:space="preserve">2.77277588844299</t>
@@ -3968,7 +3968,7 @@
     <t xml:space="preserve">3.01804637908936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05109715461731</t>
+    <t xml:space="preserve">3.05109691619873</t>
   </si>
   <si>
     <t xml:space="preserve">3.13633298873901</t>
@@ -3977,10 +3977,10 @@
     <t xml:space="preserve">3.11545896530151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09458494186401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04239964485168</t>
+    <t xml:space="preserve">3.09458470344543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04239940643311</t>
   </si>
   <si>
     <t xml:space="preserve">2.98847484588623</t>
@@ -3989,7 +3989,7 @@
     <t xml:space="preserve">3.05457615852356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98673510551453</t>
+    <t xml:space="preserve">2.98673534393311</t>
   </si>
   <si>
     <t xml:space="preserve">2.96238207817078</t>
@@ -4022,19 +4022,19 @@
     <t xml:space="preserve">2.83017945289612</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95194506645203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03718090057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06849241256714</t>
+    <t xml:space="preserve">2.95194530487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03718113899231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06849217414856</t>
   </si>
   <si>
     <t xml:space="preserve">3.08240818977356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12415647506714</t>
+    <t xml:space="preserve">3.12415623664856</t>
   </si>
   <si>
     <t xml:space="preserve">3.16938376426697</t>
@@ -4049,7 +4049,7 @@
     <t xml:space="preserve">3.16590476036072</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15720725059509</t>
+    <t xml:space="preserve">3.15720701217651</t>
   </si>
   <si>
     <t xml:space="preserve">3.16764402389526</t>
@@ -4058,19 +4058,19 @@
     <t xml:space="preserve">3.24592208862305</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26157736778259</t>
+    <t xml:space="preserve">3.26157760620117</t>
   </si>
   <si>
     <t xml:space="preserve">3.32593941688538</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07892918586731</t>
+    <t xml:space="preserve">3.07892894744873</t>
   </si>
   <si>
     <t xml:space="preserve">3.05283665657043</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10154294967651</t>
+    <t xml:space="preserve">3.10154271125793</t>
   </si>
   <si>
     <t xml:space="preserve">3.09284520149231</t>
@@ -4088,13 +4088,13 @@
     <t xml:space="preserve">3.32246017456055</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32767868041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33637642860413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38508272171021</t>
+    <t xml:space="preserve">3.3276789188385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33637619018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38508248329163</t>
   </si>
   <si>
     <t xml:space="preserve">3.35029244422913</t>
@@ -4109,7 +4109,7 @@
     <t xml:space="preserve">3.34333467483521</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29984641075134</t>
+    <t xml:space="preserve">3.29984664916992</t>
   </si>
   <si>
     <t xml:space="preserve">3.29114890098572</t>
@@ -4118,7 +4118,7 @@
     <t xml:space="preserve">3.30158615112305</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3120231628418</t>
+    <t xml:space="preserve">3.31202340126038</t>
   </si>
   <si>
     <t xml:space="preserve">3.3189811706543</t>
@@ -4127,7 +4127,7 @@
     <t xml:space="preserve">3.28767013549805</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25809860229492</t>
+    <t xml:space="preserve">3.25809836387634</t>
   </si>
   <si>
     <t xml:space="preserve">3.334636926651</t>
@@ -4136,16 +4136,16 @@
     <t xml:space="preserve">3.40073823928833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40943574905396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40247774124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36420869827271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34681367874146</t>
+    <t xml:space="preserve">3.40943598747253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40247750282288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36420845985413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34681344032288</t>
   </si>
   <si>
     <t xml:space="preserve">3.40421724319458</t>
@@ -4160,10 +4160,10 @@
     <t xml:space="preserve">3.51380610466003</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51032686233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50336909294128</t>
+    <t xml:space="preserve">3.51032710075378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50336885452271</t>
   </si>
   <si>
     <t xml:space="preserve">3.54859614372253</t>
@@ -4175,7 +4175,7 @@
     <t xml:space="preserve">3.52946186065674</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56077265739441</t>
+    <t xml:space="preserve">3.56077289581299</t>
   </si>
   <si>
     <t xml:space="preserve">3.53294062614441</t>
@@ -4193,16 +4193,16 @@
     <t xml:space="preserve">3.7312445640564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76429510116577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79038786888123</t>
+    <t xml:space="preserve">3.76429533958435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79038763046265</t>
   </si>
   <si>
     <t xml:space="preserve">3.77125358581543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91911149024963</t>
+    <t xml:space="preserve">3.91911172866821</t>
   </si>
   <si>
     <t xml:space="preserve">3.99912881851196</t>
@@ -4211,46 +4211,46 @@
     <t xml:space="preserve">3.91737222671509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92606949806213</t>
+    <t xml:space="preserve">3.92606973648071</t>
   </si>
   <si>
     <t xml:space="preserve">3.96607828140259</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94694375991821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91041398048401</t>
+    <t xml:space="preserve">3.94694352149963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91041374206543</t>
   </si>
   <si>
     <t xml:space="preserve">3.88258218765259</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92433023452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85127091407776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86518669128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90519523620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85475015640259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90345597267151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8738842010498</t>
+    <t xml:space="preserve">3.92432999610901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85127067565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8651864528656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90519547462463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85474991798401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90345621109009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87388443946838</t>
   </si>
   <si>
     <t xml:space="preserve">3.94868326187134</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95912027359009</t>
+    <t xml:space="preserve">3.95912003517151</t>
   </si>
   <si>
     <t xml:space="preserve">4.08262538909912</t>
@@ -4271,7 +4271,7 @@
     <t xml:space="preserve">4.25483655929565</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16960096359253</t>
+    <t xml:space="preserve">4.16960048675537</t>
   </si>
   <si>
     <t xml:space="preserve">4.19917249679565</t>
@@ -4283,19 +4283,19 @@
     <t xml:space="preserve">3.6616644859314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65992522239685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42683076858521</t>
+    <t xml:space="preserve">3.65992498397827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42683100700378</t>
   </si>
   <si>
     <t xml:space="preserve">3.43900728225708</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31550216674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61295819282532</t>
+    <t xml:space="preserve">3.31550240516663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61295795440674</t>
   </si>
   <si>
     <t xml:space="preserve">3.51902461051941</t>
@@ -4310,13 +4310,13 @@
     <t xml:space="preserve">3.31376266479492</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32072067260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42335200309753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44074702262878</t>
+    <t xml:space="preserve">3.320720911026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42335176467896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44074678421021</t>
   </si>
   <si>
     <t xml:space="preserve">3.37638521194458</t>
@@ -4328,7 +4328,7 @@
     <t xml:space="preserve">3.52250385284424</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55381488800049</t>
+    <t xml:space="preserve">3.55381464958191</t>
   </si>
   <si>
     <t xml:space="preserve">3.60078144073486</t>
@@ -4379,7 +4379,7 @@
     <t xml:space="preserve">3.62339520454407</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62513470649719</t>
+    <t xml:space="preserve">3.62513494491577</t>
   </si>
   <si>
     <t xml:space="preserve">3.57267427444458</t>
@@ -5082,6 +5082,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.73999977111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85500001907349</t>
   </si>
 </sst>
 </file>
@@ -61427,7 +61430,7 @@
     </row>
     <row r="2155">
       <c r="A2155" s="1" t="n">
-        <v>45462.6494560185</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B2155" t="n">
         <v>1193684</v>
@@ -61448,6 +61451,32 @@
         <v>1689</v>
       </c>
       <c r="H2155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="1" t="n">
+        <v>45463.6496412037</v>
+      </c>
+      <c r="B2156" t="n">
+        <v>1227669</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>6.86499977111816</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>6.72499990463257</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>6.76000022888184</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>6.85500001907349</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>1690</v>
+      </c>
+      <c r="H2156" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BPSO.MI.xlsx
+++ b/data/BPSO.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03069806098938</t>
+    <t xml:space="preserve">3.03069829940796</t>
   </si>
   <si>
     <t xml:space="preserve">BPSO.MI</t>
@@ -47,37 +47,37 @@
     <t xml:space="preserve">3.00987887382507</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94444632530212</t>
+    <t xml:space="preserve">2.9444465637207</t>
   </si>
   <si>
     <t xml:space="preserve">2.90578198432922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8239917755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79425001144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8849630355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8909113407135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79722428321838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69163990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63066959381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4284245967865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55036640167236</t>
+    <t xml:space="preserve">2.82399153709412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79425024986267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88496279716492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89091110229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7972240447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69164037704468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63066983222961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42842483520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55036664009094</t>
   </si>
   <si>
     <t xml:space="preserve">2.57713389396667</t>
@@ -89,37 +89,37 @@
     <t xml:space="preserve">2.69907569885254</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61877298355103</t>
+    <t xml:space="preserve">2.6187732219696</t>
   </si>
   <si>
     <t xml:space="preserve">2.52359890937805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6128249168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57564687728882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48642206192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37935090065002</t>
+    <t xml:space="preserve">2.61282467842102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5756471157074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48642158508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3793511390686</t>
   </si>
   <si>
     <t xml:space="preserve">2.39124751091003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36745429039001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18602800369263</t>
+    <t xml:space="preserve">2.36745405197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18602848052979</t>
   </si>
   <si>
     <t xml:space="preserve">2.2098217010498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29607319831848</t>
+    <t xml:space="preserve">2.2960729598999</t>
   </si>
   <si>
     <t xml:space="preserve">2.22469234466553</t>
@@ -128,22 +128,22 @@
     <t xml:space="preserve">2.33771181106567</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38381195068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44032144546509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3496081829071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31986665725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40611863136292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34217309951782</t>
+    <t xml:space="preserve">2.38381218910217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44032168388367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34960842132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31986713409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40611815452576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34217286109924</t>
   </si>
   <si>
     <t xml:space="preserve">2.33176350593567</t>
@@ -161,22 +161,22 @@
     <t xml:space="preserve">2.5578019618988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55185389518738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54441809654236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40165710449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42396354675293</t>
+    <t xml:space="preserve">2.55185341835022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54441857337952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40165758132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42396306991577</t>
   </si>
   <si>
     <t xml:space="preserve">2.41057968139648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48493456840515</t>
+    <t xml:space="preserve">2.48493480682373</t>
   </si>
   <si>
     <t xml:space="preserve">2.60687565803528</t>
@@ -185,19 +185,19 @@
     <t xml:space="preserve">2.52657318115234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46560144424438</t>
+    <t xml:space="preserve">2.46560192108154</t>
   </si>
   <si>
     <t xml:space="preserve">2.51318955421448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52805995941162</t>
+    <t xml:space="preserve">2.5280601978302</t>
   </si>
   <si>
     <t xml:space="preserve">2.56375002861023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45667934417725</t>
+    <t xml:space="preserve">2.45667958259583</t>
   </si>
   <si>
     <t xml:space="preserve">2.39719581604004</t>
@@ -209,25 +209,25 @@
     <t xml:space="preserve">2.29161214828491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30053472518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27228045463562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21725702285767</t>
+    <t xml:space="preserve">2.30053496360779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27228021621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21725726127625</t>
   </si>
   <si>
     <t xml:space="preserve">2.15628671646118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16223478317261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21874403953552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26781892776489</t>
+    <t xml:space="preserve">2.16223502159119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2187442779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26781868934631</t>
   </si>
   <si>
     <t xml:space="preserve">2.27674126625061</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">2.38678646087646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4670889377594</t>
+    <t xml:space="preserve">2.46708917617798</t>
   </si>
   <si>
     <t xml:space="preserve">2.39868330955505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45370531082153</t>
+    <t xml:space="preserve">2.45370554924011</t>
   </si>
   <si>
     <t xml:space="preserve">2.4983184337616</t>
@@ -251,10 +251,10 @@
     <t xml:space="preserve">2.49237012863159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44180846214294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48939609527588</t>
+    <t xml:space="preserve">2.44180870056152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48939633369446</t>
   </si>
   <si>
     <t xml:space="preserve">2.4730372428894</t>
@@ -263,31 +263,31 @@
     <t xml:space="preserve">2.42247629165649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39422202110291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31094455718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26187014579773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23064088821411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24848651885986</t>
+    <t xml:space="preserve">2.39422178268433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31094408035278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26187038421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23064064979553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24848675727844</t>
   </si>
   <si>
     <t xml:space="preserve">2.23807716369629</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2559220790863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19495105743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18305420875549</t>
+    <t xml:space="preserve">2.25592184066772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1949508190155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18305397033691</t>
   </si>
   <si>
     <t xml:space="preserve">2.21279573440552</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">2.17710566520691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22023129463196</t>
+    <t xml:space="preserve">2.22023153305054</t>
   </si>
   <si>
     <t xml:space="preserve">2.2038733959198</t>
@@ -308,76 +308,76 @@
     <t xml:space="preserve">2.27850317955017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3561794757843</t>
+    <t xml:space="preserve">2.35617971420288</t>
   </si>
   <si>
     <t xml:space="preserve">2.30744171142578</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33028793334961</t>
+    <t xml:space="preserve">2.33028769493103</t>
   </si>
   <si>
     <t xml:space="preserve">2.30896496772766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24194979667664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21910381317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14142751693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09725880622864</t>
+    <t xml:space="preserve">2.24194955825806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21910405158997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14142727851868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09725856781006</t>
   </si>
   <si>
     <t xml:space="preserve">2.01044392585754</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13076567649841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07441329956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08202815055847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97236752510071</t>
+    <t xml:space="preserve">2.13076591491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07441282272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08202838897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97236740589142</t>
   </si>
   <si>
     <t xml:space="preserve">1.9083993434906</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87641417980194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84899938106537</t>
+    <t xml:space="preserve">1.87641429901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84899914264679</t>
   </si>
   <si>
     <t xml:space="preserve">1.75913834571838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81701505184174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89621376991272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94038343429565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90687537193298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02872037887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75152325630188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67689347267151</t>
+    <t xml:space="preserve">1.81701517105103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8962140083313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94038355350494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9068751335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02872061729431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75152313709259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67689335346222</t>
   </si>
   <si>
     <t xml:space="preserve">1.78807699680328</t>
@@ -386,55 +386,55 @@
     <t xml:space="preserve">1.77436876296997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75609219074249</t>
+    <t xml:space="preserve">1.75609183311462</t>
   </si>
   <si>
     <t xml:space="preserve">1.75304615497589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6890777349472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61901640892029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63424718379974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64033913612366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7545690536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79112303256989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81549227237701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78960037231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86727595329285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83072257041931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84443008899689</t>
+    <t xml:space="preserve">1.68907785415649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61901652812958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63424706459045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64033925533295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75456917285919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79112339019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81549203395844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78960025310516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86727571487427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83072233200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8444299697876</t>
   </si>
   <si>
     <t xml:space="preserve">1.90230631828308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89316785335541</t>
+    <t xml:space="preserve">1.89316761493683</t>
   </si>
   <si>
     <t xml:space="preserve">1.85052227973938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81853806972504</t>
+    <t xml:space="preserve">1.81853818893433</t>
   </si>
   <si>
     <t xml:space="preserve">1.84747624397278</t>
@@ -443,34 +443,34 @@
     <t xml:space="preserve">1.84138417243958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78198480606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66470897197723</t>
+    <t xml:space="preserve">1.7819846868515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66470873355865</t>
   </si>
   <si>
     <t xml:space="preserve">1.6875547170639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62967765331268</t>
+    <t xml:space="preserve">1.62967789173126</t>
   </si>
   <si>
     <t xml:space="preserve">1.74999988079071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77741503715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76523053646088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80787670612335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8368147611618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82767653465271</t>
+    <t xml:space="preserve">1.77741479873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76523041725159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80787694454193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83681464195251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.827676653862</t>
   </si>
   <si>
     <t xml:space="preserve">1.82158434391022</t>
@@ -479,31 +479,31 @@
     <t xml:space="preserve">1.86879909038544</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82919943332672</t>
+    <t xml:space="preserve">1.8291996717453</t>
   </si>
   <si>
     <t xml:space="preserve">1.84290707111359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85509157180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90992248058319</t>
+    <t xml:space="preserve">1.85509145259857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90992212295532</t>
   </si>
   <si>
     <t xml:space="preserve">1.90535223484039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89773714542389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89012157917023</t>
+    <t xml:space="preserve">1.89773726463318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8901219367981</t>
   </si>
   <si>
     <t xml:space="preserve">1.88098359107971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88859868049622</t>
+    <t xml:space="preserve">1.88859879970551</t>
   </si>
   <si>
     <t xml:space="preserve">1.86575281620026</t>
@@ -512,22 +512,22 @@
     <t xml:space="preserve">1.89469110965729</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87336838245392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85813736915588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9114453792572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98455190658569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98150599002838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94190657138824</t>
+    <t xml:space="preserve">1.87336802482605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85813784599304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91144526004791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98455202579498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9815057516098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94190633296967</t>
   </si>
   <si>
     <t xml:space="preserve">1.9662754535675</t>
@@ -536,22 +536,22 @@
     <t xml:space="preserve">1.97998285293579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99216711521149</t>
+    <t xml:space="preserve">1.99216723442078</t>
   </si>
   <si>
     <t xml:space="preserve">2.08659744262695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11705851554871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24804186820984</t>
+    <t xml:space="preserve">2.11705827713013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24804210662842</t>
   </si>
   <si>
     <t xml:space="preserve">2.25870323181152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22367310523987</t>
+    <t xml:space="preserve">2.22367334365845</t>
   </si>
   <si>
     <t xml:space="preserve">2.23433446884155</t>
@@ -563,43 +563,43 @@
     <t xml:space="preserve">2.24651885032654</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31505727767944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33790302276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26479578018188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14295053482056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18407392501831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15208840370178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1993043422699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.209965467453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26631879806519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27697992324829</t>
+    <t xml:space="preserve">2.31505703926086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33790278434753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26479530334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14295029640198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18407368659973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15208864212036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19930410385132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20996570587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26631903648376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27698016166687</t>
   </si>
   <si>
     <t xml:space="preserve">2.31658029556274</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31353402137756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28459548950195</t>
+    <t xml:space="preserve">2.31353425979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28459501266479</t>
   </si>
   <si>
     <t xml:space="preserve">2.22976517677307</t>
@@ -608,43 +608,43 @@
     <t xml:space="preserve">2.18102741241455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22519636154175</t>
+    <t xml:space="preserve">2.22519612312317</t>
   </si>
   <si>
     <t xml:space="preserve">2.24956488609314</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23890376091003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15361189842224</t>
+    <t xml:space="preserve">2.23890352249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15361142158508</t>
   </si>
   <si>
     <t xml:space="preserve">2.27545690536499</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2541344165802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22062683105469</t>
+    <t xml:space="preserve">2.25413417816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22062706947327</t>
   </si>
   <si>
     <t xml:space="preserve">2.32267236709595</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43690204620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54351687431335</t>
+    <t xml:space="preserve">2.43690228462219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54351711273193</t>
   </si>
   <si>
     <t xml:space="preserve">2.42471790313721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39273309707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43385601043701</t>
+    <t xml:space="preserve">2.39273285865784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43385624885559</t>
   </si>
   <si>
     <t xml:space="preserve">2.39121007919312</t>
@@ -653,7 +653,7 @@
     <t xml:space="preserve">2.33333373069763</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32419538497925</t>
+    <t xml:space="preserve">2.32419514656067</t>
   </si>
   <si>
     <t xml:space="preserve">2.39577913284302</t>
@@ -662,22 +662,22 @@
     <t xml:space="preserve">2.38054847717285</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37597942352295</t>
+    <t xml:space="preserve">2.37597966194153</t>
   </si>
   <si>
     <t xml:space="preserve">2.36227202415466</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38207149505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42624092102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47497844696045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48259401321411</t>
+    <t xml:space="preserve">2.38207173347473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42624068260193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47497868537903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48259353637695</t>
   </si>
   <si>
     <t xml:space="preserve">2.51000905036926</t>
@@ -686,25 +686,25 @@
     <t xml:space="preserve">2.50848579406738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46888637542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46127104759216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45974826812744</t>
+    <t xml:space="preserve">2.46888661384583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46127128601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45974802970886</t>
   </si>
   <si>
     <t xml:space="preserve">2.52828550338745</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52067017555237</t>
+    <t xml:space="preserve">2.52067041397095</t>
   </si>
   <si>
     <t xml:space="preserve">2.50696277618408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57397794723511</t>
+    <t xml:space="preserve">2.57397842407227</t>
   </si>
   <si>
     <t xml:space="preserve">2.58920860290527</t>
@@ -716,7 +716,7 @@
     <t xml:space="preserve">2.58311629295349</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58768558502197</t>
+    <t xml:space="preserve">2.58768534660339</t>
   </si>
   <si>
     <t xml:space="preserve">2.59682393074036</t>
@@ -728,10 +728,10 @@
     <t xml:space="preserve">2.52219343185425</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5039165019989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49630165100098</t>
+    <t xml:space="preserve">2.50391674041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4963014125824</t>
   </si>
   <si>
     <t xml:space="preserve">2.53285479545593</t>
@@ -746,37 +746,37 @@
     <t xml:space="preserve">2.46431732177734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48868608474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5008704662323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47345542907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46279382705688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4171028137207</t>
+    <t xml:space="preserve">2.48868584632874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50087070465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47345590591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46279406547546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41710257530212</t>
   </si>
   <si>
     <t xml:space="preserve">2.28002619743347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2861180305481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44756364822388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38816404342651</t>
+    <t xml:space="preserve">2.28611826896667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44756388664246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38816428184509</t>
   </si>
   <si>
     <t xml:space="preserve">2.43537902832031</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44147133827209</t>
+    <t xml:space="preserve">2.44147157669067</t>
   </si>
   <si>
     <t xml:space="preserve">2.47802472114563</t>
@@ -785,34 +785,34 @@
     <t xml:space="preserve">2.50543975830078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54808640480042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4947783946991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53590083122253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51610112190247</t>
+    <t xml:space="preserve">2.54808592796326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49477815628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53590106964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51610136032104</t>
   </si>
   <si>
     <t xml:space="preserve">2.45822525024414</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46736359596252</t>
+    <t xml:space="preserve">2.46736335754395</t>
   </si>
   <si>
     <t xml:space="preserve">2.45060992240906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48564052581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44604086875916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45365595817566</t>
+    <t xml:space="preserve">2.48564028739929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44604063034058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45365619659424</t>
   </si>
   <si>
     <t xml:space="preserve">2.45670223236084</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">2.4978244304657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6425154209137</t>
+    <t xml:space="preserve">2.64251565933228</t>
   </si>
   <si>
     <t xml:space="preserve">2.60443878173828</t>
@@ -839,55 +839,55 @@
     <t xml:space="preserve">2.60291624069214</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67602396011353</t>
+    <t xml:space="preserve">2.67602348327637</t>
   </si>
   <si>
     <t xml:space="preserve">2.63946938514709</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66383838653564</t>
+    <t xml:space="preserve">2.66383814811707</t>
   </si>
   <si>
     <t xml:space="preserve">2.69582295417786</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69734644889832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75217652320862</t>
+    <t xml:space="preserve">2.69734621047974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75217604637146</t>
   </si>
   <si>
     <t xml:space="preserve">2.7140998840332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66536164283752</t>
+    <t xml:space="preserve">2.66536140441895</t>
   </si>
   <si>
     <t xml:space="preserve">2.68363881111145</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68668508529663</t>
+    <t xml:space="preserve">2.68668484687805</t>
   </si>
   <si>
     <t xml:space="preserve">2.68820762634277</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68516182899475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73694562911987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75553226470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82058715820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84537029266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89958214759827</t>
+    <t xml:space="preserve">2.68516159057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73694539070129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75553250312805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82058691978455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.845370054245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89958238601685</t>
   </si>
   <si>
     <t xml:space="preserve">2.74933695793152</t>
@@ -896,10 +896,10 @@
     <t xml:space="preserve">2.70596647262573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70906472206116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65020537376404</t>
+    <t xml:space="preserve">2.70906448364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6502058506012</t>
   </si>
   <si>
     <t xml:space="preserve">2.70131993293762</t>
@@ -908,25 +908,25 @@
     <t xml:space="preserve">2.69357514381409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64710807800293</t>
+    <t xml:space="preserve">2.64710783958435</t>
   </si>
   <si>
     <t xml:space="preserve">2.66724371910095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65175461769104</t>
+    <t xml:space="preserve">2.65175437927246</t>
   </si>
   <si>
     <t xml:space="preserve">2.69667291641235</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63161897659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65640163421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63626551628113</t>
+    <t xml:space="preserve">2.63161873817444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65640139579773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63626527786255</t>
   </si>
   <si>
     <t xml:space="preserve">2.65795016288757</t>
@@ -935,10 +935,10 @@
     <t xml:space="preserve">2.6331672668457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65949940681458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66569447517395</t>
+    <t xml:space="preserve">2.65949892997742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66569471359253</t>
   </si>
   <si>
     <t xml:space="preserve">2.66414570808411</t>
@@ -947,70 +947,70 @@
     <t xml:space="preserve">2.68737983703613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71835875511169</t>
+    <t xml:space="preserve">2.71835851669312</t>
   </si>
   <si>
     <t xml:space="preserve">2.7880597114563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74159216880798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67343950271606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77721738815308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85311484336853</t>
+    <t xml:space="preserve">2.74159240722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67343926429749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7772171497345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85311460494995</t>
   </si>
   <si>
     <t xml:space="preserve">2.80045104026794</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81903767585754</t>
+    <t xml:space="preserve">2.81903791427612</t>
   </si>
   <si>
     <t xml:space="preserve">2.80974435806274</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80354881286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92126703262329</t>
+    <t xml:space="preserve">2.80354857444763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92126679420471</t>
   </si>
   <si>
     <t xml:space="preserve">2.93210935592651</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9166202545166</t>
+    <t xml:space="preserve">2.91662001609802</t>
   </si>
   <si>
     <t xml:space="preserve">2.90577793121338</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90732669830322</t>
+    <t xml:space="preserve">2.9073269367218</t>
   </si>
   <si>
     <t xml:space="preserve">2.90113115310669</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88099527359009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87789750099182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87944602966309</t>
+    <t xml:space="preserve">2.88099503517151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87789726257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87944650650024</t>
   </si>
   <si>
     <t xml:space="preserve">2.90422892570496</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83917355537415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87015295028687</t>
+    <t xml:space="preserve">2.83917379379272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87015271186829</t>
   </si>
   <si>
     <t xml:space="preserve">2.86240839958191</t>
@@ -1019,37 +1019,37 @@
     <t xml:space="preserve">2.86085915565491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84227180480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84072232246399</t>
+    <t xml:space="preserve">2.84227156639099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84072256088257</t>
   </si>
   <si>
     <t xml:space="preserve">2.85776138305664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84846806526184</t>
+    <t xml:space="preserve">2.84846782684326</t>
   </si>
   <si>
     <t xml:space="preserve">2.83452701568604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78341293334961</t>
+    <t xml:space="preserve">2.78341269493103</t>
   </si>
   <si>
     <t xml:space="preserve">2.81129336357117</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78960871696472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72610330581665</t>
+    <t xml:space="preserve">2.78960847854614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72610306739807</t>
   </si>
   <si>
     <t xml:space="preserve">2.76017928123474</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70441746711731</t>
+    <t xml:space="preserve">2.70441770553589</t>
   </si>
   <si>
     <t xml:space="preserve">2.66259694099426</t>
@@ -1064,7 +1064,7 @@
     <t xml:space="preserve">2.6904776096344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69822192192078</t>
+    <t xml:space="preserve">2.69822216033936</t>
   </si>
   <si>
     <t xml:space="preserve">2.71371102333069</t>
@@ -1073,13 +1073,13 @@
     <t xml:space="preserve">2.73384737968445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68583035469055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73229885101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72765183448792</t>
+    <t xml:space="preserve">2.68583059310913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73229908943176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72765207290649</t>
   </si>
   <si>
     <t xml:space="preserve">2.71680974960327</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">2.82988023757935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81748914718628</t>
+    <t xml:space="preserve">2.8174889087677</t>
   </si>
   <si>
     <t xml:space="preserve">2.77411937713623</t>
@@ -1106,22 +1106,22 @@
     <t xml:space="preserve">2.67034149169922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71526002883911</t>
+    <t xml:space="preserve">2.71525979042053</t>
   </si>
   <si>
     <t xml:space="preserve">2.66879272460938</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64865684509277</t>
+    <t xml:space="preserve">2.64865660667419</t>
   </si>
   <si>
     <t xml:space="preserve">2.68273282051086</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66104793548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67189049720764</t>
+    <t xml:space="preserve">2.66104817390442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67189025878906</t>
   </si>
   <si>
     <t xml:space="preserve">2.67653727531433</t>
@@ -1139,25 +1139,25 @@
     <t xml:space="preserve">2.57895493507385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63006949424744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58205270767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45968842506409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40702486038208</t>
+    <t xml:space="preserve">2.63006973266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58205246925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45968890190125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4070246219635</t>
   </si>
   <si>
     <t xml:space="preserve">2.44419860839844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34042119979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35436201095581</t>
+    <t xml:space="preserve">2.34042143821716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35436153411865</t>
   </si>
   <si>
     <t xml:space="preserve">2.37914395332336</t>
@@ -1166,10 +1166,10 @@
     <t xml:space="preserve">2.42406272888184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4472963809967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44884538650513</t>
+    <t xml:space="preserve">2.44729661941528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44884514808655</t>
   </si>
   <si>
     <t xml:space="preserve">2.49066686630249</t>
@@ -1178,28 +1178,28 @@
     <t xml:space="preserve">2.51544952392578</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54797649383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58669996261597</t>
+    <t xml:space="preserve">2.54797673225403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58670043945312</t>
   </si>
   <si>
     <t xml:space="preserve">2.50925374031067</t>
   </si>
   <si>
-    <t xml:space="preserve">2.524742603302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52784061431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5077052116394</t>
+    <t xml:space="preserve">2.52474236488342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52784085273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50770497322083</t>
   </si>
   <si>
     <t xml:space="preserve">2.54642772674561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56346559524536</t>
+    <t xml:space="preserve">2.56346583366394</t>
   </si>
   <si>
     <t xml:space="preserve">2.5712103843689</t>
@@ -1211,7 +1211,7 @@
     <t xml:space="preserve">2.50305819511414</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4565896987915</t>
+    <t xml:space="preserve">2.45658993721008</t>
   </si>
   <si>
     <t xml:space="preserve">2.36210632324219</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">2.39928007125854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39773154258728</t>
+    <t xml:space="preserve">2.39773106575012</t>
   </si>
   <si>
     <t xml:space="preserve">2.39308452606201</t>
@@ -1229,13 +1229,13 @@
     <t xml:space="preserve">2.33887267112732</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37604641914368</t>
+    <t xml:space="preserve">2.37604665756226</t>
   </si>
   <si>
     <t xml:space="preserve">2.40547585487366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35745930671692</t>
+    <t xml:space="preserve">2.3574595451355</t>
   </si>
   <si>
     <t xml:space="preserve">2.38533997535706</t>
@@ -1244,55 +1244,55 @@
     <t xml:space="preserve">2.44574761390686</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47827553749084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47517776489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55881881713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55727005004883</t>
+    <t xml:space="preserve">2.47827577590942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.475177526474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55881905555725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55726981163025</t>
   </si>
   <si>
     <t xml:space="preserve">2.51390051841736</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51235175132751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53403663635254</t>
+    <t xml:space="preserve">2.51235151290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53403639793396</t>
   </si>
   <si>
     <t xml:space="preserve">2.56501460075378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57430815696716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57585716247559</t>
+    <t xml:space="preserve">2.57430839538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57585692405701</t>
   </si>
   <si>
     <t xml:space="preserve">2.49376463890076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51699805259705</t>
+    <t xml:space="preserve">2.5169985294342</t>
   </si>
   <si>
     <t xml:space="preserve">2.49996042251587</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47672653198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38843750953674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47982454299927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46743321418762</t>
+    <t xml:space="preserve">2.47672629356384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3884379863739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47982430458069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46743297576904</t>
   </si>
   <si>
     <t xml:space="preserve">2.4860200881958</t>
@@ -1304,13 +1304,13 @@
     <t xml:space="preserve">2.5417811870575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60218906402588</t>
+    <t xml:space="preserve">2.60218930244446</t>
   </si>
   <si>
     <t xml:space="preserve">2.53248739242554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48137331008911</t>
+    <t xml:space="preserve">2.48137307167053</t>
   </si>
   <si>
     <t xml:space="preserve">2.52164506912231</t>
@@ -1319,64 +1319,64 @@
     <t xml:space="preserve">2.43955206871033</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4953134059906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47053122520447</t>
+    <t xml:space="preserve">2.49531364440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47053098678589</t>
   </si>
   <si>
     <t xml:space="preserve">2.46433520317078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54332995414734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49686217308044</t>
+    <t xml:space="preserve">2.54333019256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49686241149902</t>
   </si>
   <si>
     <t xml:space="preserve">2.49221563339233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56811261177063</t>
+    <t xml:space="preserve">2.56811237335205</t>
   </si>
   <si>
     <t xml:space="preserve">2.56966137886047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55572128295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7865104675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91352224349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90267968177795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95069646835327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9754798412323</t>
+    <t xml:space="preserve">2.55572152137756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78651094436646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91352248191833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90267992019653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95069622993469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97547960281372</t>
   </si>
   <si>
     <t xml:space="preserve">3.05137634277344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04363179206848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03588700294495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07306122779846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10713791847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03124070167542</t>
+    <t xml:space="preserve">3.04363203048706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03588724136353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07306146621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10713768005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03124046325684</t>
   </si>
   <si>
     <t xml:space="preserve">2.92591404914856</t>
@@ -1388,37 +1388,37 @@
     <t xml:space="preserve">2.95224523544312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02659392356873</t>
+    <t xml:space="preserve">3.02659368515015</t>
   </si>
   <si>
     <t xml:space="preserve">3.00645804405212</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03898525238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94295167922974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93365859985352</t>
+    <t xml:space="preserve">3.03898501396179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94295191764832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93365836143494</t>
   </si>
   <si>
     <t xml:space="preserve">2.82213592529297</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85056233406067</t>
+    <t xml:space="preserve">2.85056257247925</t>
   </si>
   <si>
     <t xml:space="preserve">2.83950781822205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90583682060242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89636015892029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81897735595703</t>
+    <t xml:space="preserve">2.905837059021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89636039733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81897759437561</t>
   </si>
   <si>
     <t xml:space="preserve">2.70842909812927</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">2.65947222709656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7021119594574</t>
+    <t xml:space="preserve">2.70211219787598</t>
   </si>
   <si>
     <t xml:space="preserve">2.74791026115417</t>
@@ -1439,13 +1439,13 @@
     <t xml:space="preserve">2.76054430007935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69895386695862</t>
+    <t xml:space="preserve">2.69895362854004</t>
   </si>
   <si>
     <t xml:space="preserve">2.77633762359619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80476427078247</t>
+    <t xml:space="preserve">2.80476403236389</t>
   </si>
   <si>
     <t xml:space="preserve">2.7747585773468</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">2.74317264556885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73843455314636</t>
+    <t xml:space="preserve">2.73843479156494</t>
   </si>
   <si>
     <t xml:space="preserve">2.72738003730774</t>
@@ -1472,22 +1472,22 @@
     <t xml:space="preserve">2.68947815895081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71790432929993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72264242172241</t>
+    <t xml:space="preserve">2.71790456771851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72264218330383</t>
   </si>
   <si>
     <t xml:space="preserve">2.8426661491394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8489830493927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89793992042542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88214731216431</t>
+    <t xml:space="preserve">2.84898281097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89793968200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88214707374573</t>
   </si>
   <si>
     <t xml:space="preserve">2.84740400314331</t>
@@ -1499,16 +1499,16 @@
     <t xml:space="preserve">2.82055640220642</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8379282951355</t>
+    <t xml:space="preserve">2.83792805671692</t>
   </si>
   <si>
     <t xml:space="preserve">2.83161115646362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.855299949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83319067955017</t>
+    <t xml:space="preserve">2.85530018806458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83319044113159</t>
   </si>
   <si>
     <t xml:space="preserve">2.8268735408783</t>
@@ -1520,49 +1520,49 @@
     <t xml:space="preserve">2.90741610527039</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92636728286743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91057467460632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92794609069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98006176948547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8995189666748</t>
+    <t xml:space="preserve">2.92636704444885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91057443618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92794632911682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98006153106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89951920509338</t>
   </si>
   <si>
     <t xml:space="preserve">2.88372683525085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88056802749634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86793398857117</t>
+    <t xml:space="preserve">2.88056826591492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86793422698975</t>
   </si>
   <si>
     <t xml:space="preserve">2.83476996421814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83003187179565</t>
+    <t xml:space="preserve">2.83003211021423</t>
   </si>
   <si>
     <t xml:space="preserve">2.75896501541138</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80002641677856</t>
+    <t xml:space="preserve">2.80002617835999</t>
   </si>
   <si>
     <t xml:space="preserve">2.79528856277466</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77317905426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76528215408325</t>
+    <t xml:space="preserve">2.77317881584167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76528191566467</t>
   </si>
   <si>
     <t xml:space="preserve">2.71632504463196</t>
@@ -1571,28 +1571,28 @@
     <t xml:space="preserve">2.66578936576843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64841747283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68000221252441</t>
+    <t xml:space="preserve">2.64841771125793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68000268936157</t>
   </si>
   <si>
     <t xml:space="preserve">2.74633097648621</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86161708831787</t>
+    <t xml:space="preserve">2.86161732673645</t>
   </si>
   <si>
     <t xml:space="preserve">2.86477541923523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84424543380737</t>
+    <t xml:space="preserve">2.84424519538879</t>
   </si>
   <si>
     <t xml:space="preserve">2.87583041191101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85214114189148</t>
+    <t xml:space="preserve">2.85214138031006</t>
   </si>
   <si>
     <t xml:space="preserve">2.81108117103577</t>
@@ -1607,7 +1607,7 @@
     <t xml:space="preserve">2.80792236328125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59472227096558</t>
+    <t xml:space="preserve">2.594722032547</t>
   </si>
   <si>
     <t xml:space="preserve">2.59156394004822</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">2.53471088409424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.559978723526</t>
+    <t xml:space="preserve">2.55997896194458</t>
   </si>
   <si>
     <t xml:space="preserve">2.58524680137634</t>
@@ -1628,19 +1628,19 @@
     <t xml:space="preserve">2.4067907333374</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3894190788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38783979415894</t>
+    <t xml:space="preserve">2.38941884040833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38783955574036</t>
   </si>
   <si>
     <t xml:space="preserve">2.32151055335999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3357241153717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31045579910278</t>
+    <t xml:space="preserve">2.33572363853455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3104555606842</t>
   </si>
   <si>
     <t xml:space="preserve">2.3594126701355</t>
@@ -1655,13 +1655,13 @@
     <t xml:space="preserve">2.26465749740601</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23623013496399</t>
+    <t xml:space="preserve">2.23623037338257</t>
   </si>
   <si>
     <t xml:space="preserve">2.18727326393127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15252995491028</t>
+    <t xml:space="preserve">2.15253019332886</t>
   </si>
   <si>
     <t xml:space="preserve">2.19832849502563</t>
@@ -1670,10 +1670,10 @@
     <t xml:space="preserve">2.25518202781677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20464491844177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20148658752441</t>
+    <t xml:space="preserve">2.20464515686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20148682594299</t>
   </si>
   <si>
     <t xml:space="preserve">2.2425479888916</t>
@@ -1691,13 +1691,13 @@
     <t xml:space="preserve">2.25202345848083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25044441223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23938894271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1951699256897</t>
+    <t xml:space="preserve">2.25044417381287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23938870429993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19516968727112</t>
   </si>
   <si>
     <t xml:space="preserve">2.21569991111755</t>
@@ -1709,13 +1709,13 @@
     <t xml:space="preserve">2.19359040260315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17148089408875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16358494758606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11462783813477</t>
+    <t xml:space="preserve">2.17148113250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16358470916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11462807655334</t>
   </si>
   <si>
     <t xml:space="preserve">2.12094521522522</t>
@@ -1727,7 +1727,7 @@
     <t xml:space="preserve">2.12568259239197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2283341884613</t>
+    <t xml:space="preserve">2.22833395004272</t>
   </si>
   <si>
     <t xml:space="preserve">2.21096205711365</t>
@@ -1748,25 +1748,25 @@
     <t xml:space="preserve">2.09567618370056</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12410378456116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08304238319397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07514572143555</t>
+    <t xml:space="preserve">2.124103307724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08304214477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07514619827271</t>
   </si>
   <si>
     <t xml:space="preserve">2.10673093795776</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10830998420715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02776885032654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12252426147461</t>
+    <t xml:space="preserve">2.10831022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02776861190796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12252402305603</t>
   </si>
   <si>
     <t xml:space="preserve">2.05145740509033</t>
@@ -1778,19 +1778,19 @@
     <t xml:space="preserve">2.00723838806152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07830476760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06409096717834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13515853881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14621305465698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13673734664917</t>
+    <t xml:space="preserve">2.07830452919006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0640914440155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13515830039978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1462128162384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13673758506775</t>
   </si>
   <si>
     <t xml:space="preserve">2.13357925415039</t>
@@ -1805,19 +1805,19 @@
     <t xml:space="preserve">2.00565910339355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05619525909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02934789657593</t>
+    <t xml:space="preserve">2.05619502067566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02934765815735</t>
   </si>
   <si>
     <t xml:space="preserve">1.99776268005371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98512887954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96933531761169</t>
+    <t xml:space="preserve">1.98512864112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96933507919312</t>
   </si>
   <si>
     <t xml:space="preserve">2.01987218856812</t>
@@ -1826,10 +1826,10 @@
     <t xml:space="preserve">1.98354947566986</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95512211322784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90932416915894</t>
+    <t xml:space="preserve">1.95512235164642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90932393074036</t>
   </si>
   <si>
     <t xml:space="preserve">1.83825707435608</t>
@@ -1838,10 +1838,10 @@
     <t xml:space="preserve">1.81614756584167</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83193981647491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85562980175018</t>
+    <t xml:space="preserve">1.8319399356842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8556295633316</t>
   </si>
   <si>
     <t xml:space="preserve">1.91090309619904</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">1.88879370689392</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88721454143524</t>
+    <t xml:space="preserve">1.88721430301666</t>
   </si>
   <si>
     <t xml:space="preserve">1.91406166553497</t>
@@ -1862,46 +1862,46 @@
     <t xml:space="preserve">1.96459782123566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0103964805603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00250053405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97723174095154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97091472148895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9630184173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97407341003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96775615215302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03250598907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02461004257202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01671385765076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04671931266785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00407958030701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93143355846405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93301248550415</t>
+    <t xml:space="preserve">2.01039695739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00250029563904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97723150253296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97091484069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96301817893982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9740731716156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96775639057159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03250622749329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02460980415344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01671361923218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04671907424927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00407981872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93143332004547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93301272392273</t>
   </si>
   <si>
     <t xml:space="preserve">1.91879940032959</t>
@@ -1910,16 +1910,16 @@
     <t xml:space="preserve">1.88089752197266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94248843193054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94090902805328</t>
+    <t xml:space="preserve">1.94248819351196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9409087896347</t>
   </si>
   <si>
     <t xml:space="preserve">1.96617698669434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92353737354279</t>
+    <t xml:space="preserve">1.92353713512421</t>
   </si>
   <si>
     <t xml:space="preserve">1.90142774581909</t>
@@ -1928,7 +1928,7 @@
     <t xml:space="preserve">1.93775045871735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92669570446014</t>
+    <t xml:space="preserve">1.92669582366943</t>
   </si>
   <si>
     <t xml:space="preserve">1.92511630058289</t>
@@ -1937,10 +1937,10 @@
     <t xml:space="preserve">1.93617105484009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90774476528168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87931835651398</t>
+    <t xml:space="preserve">1.90774464607239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8793181180954</t>
   </si>
   <si>
     <t xml:space="preserve">1.83509826660156</t>
@@ -1952,13 +1952,13 @@
     <t xml:space="preserve">1.86984264850616</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8903728723526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89826917648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90458631515503</t>
+    <t xml:space="preserve">1.89037311077118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89826893806458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90458607673645</t>
   </si>
   <si>
     <t xml:space="preserve">1.91564106941223</t>
@@ -1967,13 +1967,13 @@
     <t xml:space="preserve">1.8730012178421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78456258773804</t>
+    <t xml:space="preserve">1.78456234931946</t>
   </si>
   <si>
     <t xml:space="preserve">1.79877555370331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72613024711609</t>
+    <t xml:space="preserve">1.72613000869751</t>
   </si>
   <si>
     <t xml:space="preserve">1.69138586521149</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">1.65352272987366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66646587848663</t>
+    <t xml:space="preserve">1.66646599769592</t>
   </si>
   <si>
     <t xml:space="preserve">1.64866900444031</t>
@@ -2009,10 +2009,10 @@
     <t xml:space="preserve">1.65514063835144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71985745429993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6972062587738</t>
+    <t xml:space="preserve">1.71985733509064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69720637798309</t>
   </si>
   <si>
     <t xml:space="preserve">1.6794091463089</t>
@@ -2021,22 +2021,22 @@
     <t xml:space="preserve">1.68102717399597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70206010341644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61792755126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62763595581055</t>
+    <t xml:space="preserve">1.70206022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61792767047882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62763583660126</t>
   </si>
   <si>
     <t xml:space="preserve">1.63572549819946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57667064666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57505261898041</t>
+    <t xml:space="preserve">1.57667076587677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5750527381897</t>
   </si>
   <si>
     <t xml:space="preserve">1.57586169242859</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">1.60013055801392</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58961403369904</t>
+    <t xml:space="preserve">1.58961391448975</t>
   </si>
   <si>
     <t xml:space="preserve">1.60741114616394</t>
@@ -2066,7 +2066,7 @@
     <t xml:space="preserve">1.59608578681946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58799624443054</t>
+    <t xml:space="preserve">1.58799612522125</t>
   </si>
   <si>
     <t xml:space="preserve">1.58637821674347</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">1.6114559173584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57828843593597</t>
+    <t xml:space="preserve">1.57828855514526</t>
   </si>
   <si>
     <t xml:space="preserve">1.57747960090637</t>
@@ -2108,19 +2108,19 @@
     <t xml:space="preserve">1.54916596412659</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54026758670807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52408838272095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52166152000427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5289421081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51761662960052</t>
+    <t xml:space="preserve">1.54026746749878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52408826351166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52166140079498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52894198894501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51761674880981</t>
   </si>
   <si>
     <t xml:space="preserve">1.50710022449493</t>
@@ -2132,16 +2132,16 @@
     <t xml:space="preserve">1.49011206626892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48525750637054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37523901462555</t>
+    <t xml:space="preserve">1.48525738716125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37523889541626</t>
   </si>
   <si>
     <t xml:space="preserve">1.34287989139557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3404529094696</t>
+    <t xml:space="preserve">1.34045279026031</t>
   </si>
   <si>
     <t xml:space="preserve">1.286252617836</t>
@@ -2150,22 +2150,22 @@
     <t xml:space="preserve">1.32427382469177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34207081794739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30890333652496</t>
+    <t xml:space="preserve">1.3420706987381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30890345573425</t>
   </si>
   <si>
     <t xml:space="preserve">1.31861102581024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36795842647552</t>
+    <t xml:space="preserve">1.36795830726624</t>
   </si>
   <si>
     <t xml:space="preserve">1.35663294792175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36714947223663</t>
+    <t xml:space="preserve">1.36714935302734</t>
   </si>
   <si>
     <t xml:space="preserve">1.40759742259979</t>
@@ -2174,19 +2174,19 @@
     <t xml:space="preserve">1.3614866733551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37362110614777</t>
+    <t xml:space="preserve">1.37362098693848</t>
   </si>
   <si>
     <t xml:space="preserve">1.37928378582001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45451700687408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48202168941498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47231423854828</t>
+    <t xml:space="preserve">1.45451688766479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48202157020569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47231411933899</t>
   </si>
   <si>
     <t xml:space="preserve">1.44885432720184</t>
@@ -2201,10 +2201,10 @@
     <t xml:space="preserve">1.46422469615936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44723629951477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45613503456116</t>
+    <t xml:space="preserve">1.44723641872406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45613491535187</t>
   </si>
   <si>
     <t xml:space="preserve">1.46179759502411</t>
@@ -2213,7 +2213,7 @@
     <t xml:space="preserve">1.43267512321472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39546298980713</t>
+    <t xml:space="preserve">1.39546287059784</t>
   </si>
   <si>
     <t xml:space="preserve">1.38171064853668</t>
@@ -2231,13 +2231,13 @@
     <t xml:space="preserve">1.36553156375885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37119424343109</t>
+    <t xml:space="preserve">1.3711941242218</t>
   </si>
   <si>
     <t xml:space="preserve">1.34935140609741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34368884563446</t>
+    <t xml:space="preserve">1.34368872642517</t>
   </si>
   <si>
     <t xml:space="preserve">1.35986876487732</t>
@@ -2246,10 +2246,10 @@
     <t xml:space="preserve">1.37281215190887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3970810174942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43186604976654</t>
+    <t xml:space="preserve">1.39708089828491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43186616897583</t>
   </si>
   <si>
     <t xml:space="preserve">1.45775282382965</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">1.4812126159668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44804525375366</t>
+    <t xml:space="preserve">1.44804537296295</t>
   </si>
   <si>
     <t xml:space="preserve">1.45370805263519</t>
@@ -2273,7 +2273,7 @@
     <t xml:space="preserve">1.45937085151672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43671989440918</t>
+    <t xml:space="preserve">1.43672001361847</t>
   </si>
   <si>
     <t xml:space="preserve">1.46503341197968</t>
@@ -2285,13 +2285,13 @@
     <t xml:space="preserve">1.51842558383942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53541386127472</t>
+    <t xml:space="preserve">1.53541374206543</t>
   </si>
   <si>
     <t xml:space="preserve">1.50548243522644</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5370317697525</t>
+    <t xml:space="preserve">1.53703165054321</t>
   </si>
   <si>
     <t xml:space="preserve">1.74574387073517</t>
@@ -2315,13 +2315,13 @@
     <t xml:space="preserve">1.63087177276611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66323006153107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71662151813507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74736189842224</t>
+    <t xml:space="preserve">1.66323018074036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71662139892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74736177921295</t>
   </si>
   <si>
     <t xml:space="preserve">1.71500360965729</t>
@@ -2336,25 +2336,25 @@
     <t xml:space="preserve">1.68426311016083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72632884979248</t>
+    <t xml:space="preserve">1.72632873058319</t>
   </si>
   <si>
     <t xml:space="preserve">1.75868809223175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72794711589813</t>
+    <t xml:space="preserve">1.72794699668884</t>
   </si>
   <si>
     <t xml:space="preserve">1.7328006029129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70529615879059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70044219493866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73441874980927</t>
+    <t xml:space="preserve">1.70529627799988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70044231414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73441863059998</t>
   </si>
   <si>
     <t xml:space="preserve">1.69235253334045</t>
@@ -2369,10 +2369,10 @@
     <t xml:space="preserve">1.71176767349243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71823942661285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69882416725159</t>
+    <t xml:space="preserve">1.71823930740356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69882428646088</t>
   </si>
   <si>
     <t xml:space="preserve">1.7133857011795</t>
@@ -2408,7 +2408,7 @@
     <t xml:space="preserve">1.93504214286804</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91077327728271</t>
+    <t xml:space="preserve">1.91077351570129</t>
   </si>
   <si>
     <t xml:space="preserve">1.97063624858856</t>
@@ -2417,7 +2417,7 @@
     <t xml:space="preserve">2.17449569702148</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21656179428101</t>
+    <t xml:space="preserve">2.21656155586243</t>
   </si>
   <si>
     <t xml:space="preserve">2.08712720870972</t>
@@ -2432,10 +2432,10 @@
     <t xml:space="preserve">1.89944779872894</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94636785984039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82987654209137</t>
+    <t xml:space="preserve">1.94636762142181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82987666130066</t>
   </si>
   <si>
     <t xml:space="preserve">1.58556914329529</t>
@@ -2447,7 +2447,7 @@
     <t xml:space="preserve">1.41892278194427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32912755012512</t>
+    <t xml:space="preserve">1.32912743091583</t>
   </si>
   <si>
     <t xml:space="preserve">1.2846348285675</t>
@@ -2498,7 +2498,7 @@
     <t xml:space="preserve">1.11556148529053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1001912355423</t>
+    <t xml:space="preserve">1.10019111633301</t>
   </si>
   <si>
     <t xml:space="preserve">1.18513190746307</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">1.24904048442841</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1649078130722</t>
+    <t xml:space="preserve">1.16490793228149</t>
   </si>
   <si>
     <t xml:space="preserve">1.14306604862213</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">1.17299735546112</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15520036220551</t>
+    <t xml:space="preserve">1.15520048141479</t>
   </si>
   <si>
     <t xml:space="preserve">1.15924525260925</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">1.17057073116302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11151671409607</t>
+    <t xml:space="preserve">1.11151659488678</t>
   </si>
   <si>
     <t xml:space="preserve">1.14953768253326</t>
@@ -2579,7 +2579,7 @@
     <t xml:space="preserve">1.03951847553253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05974245071411</t>
+    <t xml:space="preserve">1.05974233150482</t>
   </si>
   <si>
     <t xml:space="preserve">1.01039588451385</t>
@@ -2609,19 +2609,19 @@
     <t xml:space="preserve">1.18108689785004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21506357192993</t>
+    <t xml:space="preserve">1.21506345272064</t>
   </si>
   <si>
     <t xml:space="preserve">1.26602864265442</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30162274837494</t>
+    <t xml:space="preserve">1.30162286758423</t>
   </si>
   <si>
     <t xml:space="preserve">1.32750964164734</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28544354438782</t>
+    <t xml:space="preserve">1.28544366359711</t>
   </si>
   <si>
     <t xml:space="preserve">1.27411818504333</t>
@@ -2630,13 +2630,13 @@
     <t xml:space="preserve">1.22962546348572</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25146746635437</t>
+    <t xml:space="preserve">1.25146734714508</t>
   </si>
   <si>
     <t xml:space="preserve">1.27169144153595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24499583244324</t>
+    <t xml:space="preserve">1.24499571323395</t>
   </si>
   <si>
     <t xml:space="preserve">1.27816307544708</t>
@@ -2645,10 +2645,10 @@
     <t xml:space="preserve">1.25389420986176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33479022979736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38494646549225</t>
+    <t xml:space="preserve">1.33479011058807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38494634628296</t>
   </si>
   <si>
     <t xml:space="preserve">1.46017980575562</t>
@@ -2672,7 +2672,7 @@
     <t xml:space="preserve">1.50305533409119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51680779457092</t>
+    <t xml:space="preserve">1.51680767536163</t>
   </si>
   <si>
     <t xml:space="preserve">1.59932160377502</t>
@@ -2693,22 +2693,22 @@
     <t xml:space="preserve">1.49577474594116</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47474098205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43833768367767</t>
+    <t xml:space="preserve">1.47474086284637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43833780288696</t>
   </si>
   <si>
     <t xml:space="preserve">1.46665143966675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53379595279694</t>
+    <t xml:space="preserve">1.53379583358765</t>
   </si>
   <si>
     <t xml:space="preserve">1.54835712909698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57990646362305</t>
+    <t xml:space="preserve">1.57990658283234</t>
   </si>
   <si>
     <t xml:space="preserve">1.59042298793793</t>
@@ -2720,13 +2720,13 @@
     <t xml:space="preserve">1.62925386428833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47716784477234</t>
+    <t xml:space="preserve">1.47716772556305</t>
   </si>
   <si>
     <t xml:space="preserve">1.47635889053345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43995559215546</t>
+    <t xml:space="preserve">1.43995571136475</t>
   </si>
   <si>
     <t xml:space="preserve">1.46988725662231</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">1.47797679901123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48687613010406</t>
+    <t xml:space="preserve">1.48687624931335</t>
   </si>
   <si>
     <t xml:space="preserve">1.4917299747467</t>
@@ -2765,22 +2765,22 @@
     <t xml:space="preserve">1.49739265441895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46746051311493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48040378093719</t>
+    <t xml:space="preserve">1.46746039390564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48040366172791</t>
   </si>
   <si>
     <t xml:space="preserve">1.43591094017029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45128118991852</t>
+    <t xml:space="preserve">1.45128107070923</t>
   </si>
   <si>
     <t xml:space="preserve">1.41164219379425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42701232433319</t>
+    <t xml:space="preserve">1.42701244354248</t>
   </si>
   <si>
     <t xml:space="preserve">1.43105721473694</t>
@@ -2792,10 +2792,10 @@
     <t xml:space="preserve">1.35501492023468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31213927268982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32993650436401</t>
+    <t xml:space="preserve">1.31213939189911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32993638515472</t>
   </si>
   <si>
     <t xml:space="preserve">1.19726634025574</t>
@@ -2807,13 +2807,13 @@
     <t xml:space="preserve">1.21910893917084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31456613540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33074545860291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32670068740845</t>
+    <t xml:space="preserve">1.31456625461578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33074533939362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32670056819916</t>
   </si>
   <si>
     <t xml:space="preserve">1.31618416309357</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">1.60983800888062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66484808921814</t>
+    <t xml:space="preserve">1.66484820842743</t>
   </si>
   <si>
     <t xml:space="preserve">1.94151377677917</t>
@@ -2837,22 +2837,22 @@
     <t xml:space="preserve">1.90915536880493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90106558799744</t>
+    <t xml:space="preserve">1.90106582641602</t>
   </si>
   <si>
     <t xml:space="preserve">1.88326776027679</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81369721889496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84443795681</t>
+    <t xml:space="preserve">1.81369745731354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84443807601929</t>
   </si>
   <si>
     <t xml:space="preserve">1.80560767650604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82340478897095</t>
+    <t xml:space="preserve">1.82340490818024</t>
   </si>
   <si>
     <t xml:space="preserve">1.82502269744873</t>
@@ -2861,10 +2861,10 @@
     <t xml:space="preserve">1.8541454076767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85090959072113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82016885280609</t>
+    <t xml:space="preserve">1.85090970993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82016909122467</t>
   </si>
   <si>
     <t xml:space="preserve">1.78781068325043</t>
@@ -2882,10 +2882,10 @@
     <t xml:space="preserve">1.79590022563934</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76192390918732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73118281364441</t>
+    <t xml:space="preserve">1.76192378997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73118269443512</t>
   </si>
   <si>
     <t xml:space="preserve">1.75221562385559</t>
@@ -2900,7 +2900,7 @@
     <t xml:space="preserve">1.78295695781708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86870658397675</t>
+    <t xml:space="preserve">1.86870682239532</t>
   </si>
   <si>
     <t xml:space="preserve">1.90430152416229</t>
@@ -2909,7 +2909,7 @@
     <t xml:space="preserve">1.8816499710083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84281980991364</t>
+    <t xml:space="preserve">1.84281969070435</t>
   </si>
   <si>
     <t xml:space="preserve">1.86061716079712</t>
@@ -2927,19 +2927,19 @@
     <t xml:space="preserve">1.77163136005402</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75383353233337</t>
+    <t xml:space="preserve">1.75383365154266</t>
   </si>
   <si>
     <t xml:space="preserve">1.68264496326447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70853185653687</t>
+    <t xml:space="preserve">1.70853197574615</t>
   </si>
   <si>
     <t xml:space="preserve">1.73765444755554</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87194228172302</t>
+    <t xml:space="preserve">1.8719425201416</t>
   </si>
   <si>
     <t xml:space="preserve">2.02079176902771</t>
@@ -2978,7 +2978,7 @@
     <t xml:space="preserve">1.9560751914978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93666017055511</t>
+    <t xml:space="preserve">1.93665993213654</t>
   </si>
   <si>
     <t xml:space="preserve">1.9301882982254</t>
@@ -2996,16 +2996,16 @@
     <t xml:space="preserve">2.00461268424988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99652290344238</t>
+    <t xml:space="preserve">1.99652314186096</t>
   </si>
   <si>
     <t xml:space="preserve">2.06447625160217</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12110352516174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20038247108459</t>
+    <t xml:space="preserve">2.12110376358032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20038223266602</t>
   </si>
   <si>
     <t xml:space="preserve">2.28936791419983</t>
@@ -3035,7 +3035,7 @@
     <t xml:space="preserve">2.38320779800415</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31040191650391</t>
+    <t xml:space="preserve">2.31040167808533</t>
   </si>
   <si>
     <t xml:space="preserve">2.34599566459656</t>
@@ -3050,16 +3050,16 @@
     <t xml:space="preserve">2.32496309280396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39453339576721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40747666358948</t>
+    <t xml:space="preserve">2.39453363418579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40747690200806</t>
   </si>
   <si>
     <t xml:space="preserve">2.43174624443054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46572279930115</t>
+    <t xml:space="preserve">2.46572256088257</t>
   </si>
   <si>
     <t xml:space="preserve">2.396151304245</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">2.57088804244995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6582555770874</t>
+    <t xml:space="preserve">2.65825581550598</t>
   </si>
   <si>
     <t xml:space="preserve">2.7310631275177</t>
@@ -3086,13 +3086,13 @@
     <t xml:space="preserve">2.83137392997742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80386924743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78769016265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89447379112244</t>
+    <t xml:space="preserve">2.80386900901794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78768992424011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89447355270386</t>
   </si>
   <si>
     <t xml:space="preserve">2.93330359458923</t>
@@ -3116,19 +3116,19 @@
     <t xml:space="preserve">3.15495991706848</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14039874076843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19217205047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17761063575745</t>
+    <t xml:space="preserve">3.14039897918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19217228889465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17761087417603</t>
   </si>
   <si>
     <t xml:space="preserve">3.16790342330933</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19055414199829</t>
+    <t xml:space="preserve">3.19055438041687</t>
   </si>
   <si>
     <t xml:space="preserve">3.30391597747803</t>
@@ -3140,10 +3140,10 @@
     <t xml:space="preserve">3.27598571777344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37784719467163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31213045120239</t>
+    <t xml:space="preserve">3.37784695625305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31213021278381</t>
   </si>
   <si>
     <t xml:space="preserve">3.33677434921265</t>
@@ -3191,13 +3191,13 @@
     <t xml:space="preserve">3.0016176700592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99997472763062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93097257614136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99340319633484</t>
+    <t xml:space="preserve">2.99997496604919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93097233772278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99340343475342</t>
   </si>
   <si>
     <t xml:space="preserve">2.99176049232483</t>
@@ -3224,10 +3224,10 @@
     <t xml:space="preserve">2.94740176200867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91782903671265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04597735404968</t>
+    <t xml:space="preserve">2.91782927513123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0459771156311</t>
   </si>
   <si>
     <t xml:space="preserve">2.99504613876343</t>
@@ -3248,7 +3248,7 @@
     <t xml:space="preserve">2.85539770126343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92768692970276</t>
+    <t xml:space="preserve">2.92768669128418</t>
   </si>
   <si>
     <t xml:space="preserve">2.95397353172302</t>
@@ -3266,7 +3266,7 @@
     <t xml:space="preserve">3.15276646614075</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11497950553894</t>
+    <t xml:space="preserve">3.11497926712036</t>
   </si>
   <si>
     <t xml:space="preserve">3.05419158935547</t>
@@ -3278,7 +3278,7 @@
     <t xml:space="preserve">3.06240630149841</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04104828834534</t>
+    <t xml:space="preserve">3.04104852676392</t>
   </si>
   <si>
     <t xml:space="preserve">3.04762005805969</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">3.12647986412048</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16262483596802</t>
+    <t xml:space="preserve">3.16262459754944</t>
   </si>
   <si>
     <t xml:space="preserve">3.11169385910034</t>
@@ -3299,10 +3299,10 @@
     <t xml:space="preserve">3.13633728027344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13305139541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03776240348816</t>
+    <t xml:space="preserve">3.13305163383484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03776264190674</t>
   </si>
   <si>
     <t xml:space="preserve">3.06569218635559</t>
@@ -3311,7 +3311,7 @@
     <t xml:space="preserve">3.04926300048828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08376431465149</t>
+    <t xml:space="preserve">3.08376407623291</t>
   </si>
   <si>
     <t xml:space="preserve">3.10512208938599</t>
@@ -3320,19 +3320,19 @@
     <t xml:space="preserve">3.21355509757996</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2217698097229</t>
+    <t xml:space="preserve">3.22176957130432</t>
   </si>
   <si>
     <t xml:space="preserve">3.19548296928406</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19876885414124</t>
+    <t xml:space="preserve">3.19876909255981</t>
   </si>
   <si>
     <t xml:space="preserve">3.16426777839661</t>
   </si>
   <si>
-    <t xml:space="preserve">3.203697681427</t>
+    <t xml:space="preserve">3.20369744300842</t>
   </si>
   <si>
     <t xml:space="preserve">3.14619469642639</t>
@@ -3347,13 +3347,13 @@
     <t xml:space="preserve">3.04433417320251</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07883524894714</t>
+    <t xml:space="preserve">3.07883548736572</t>
   </si>
   <si>
     <t xml:space="preserve">3.01804757118225</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96218776702881</t>
+    <t xml:space="preserve">2.96218800544739</t>
   </si>
   <si>
     <t xml:space="preserve">3.03119087219238</t>
@@ -3362,7 +3362,7 @@
     <t xml:space="preserve">2.96711659431458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89482855796814</t>
+    <t xml:space="preserve">2.89482879638672</t>
   </si>
   <si>
     <t xml:space="preserve">2.89811420440674</t>
@@ -3371,10 +3371,10 @@
     <t xml:space="preserve">2.99668884277344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00654673576355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01476097106934</t>
+    <t xml:space="preserve">3.00654649734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01476120948792</t>
   </si>
   <si>
     <t xml:space="preserve">2.97861695289612</t>
@@ -3383,7 +3383,7 @@
     <t xml:space="preserve">3.02790522575378</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05090570449829</t>
+    <t xml:space="preserve">3.05090594291687</t>
   </si>
   <si>
     <t xml:space="preserve">3.02461910247803</t>
@@ -3407,10 +3407,10 @@
     <t xml:space="preserve">3.11333656311035</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1659107208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18726825714111</t>
+    <t xml:space="preserve">3.16591048240662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18726849555969</t>
   </si>
   <si>
     <t xml:space="preserve">3.20205473899841</t>
@@ -3419,10 +3419,10 @@
     <t xml:space="preserve">3.16098189353943</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21026921272278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24477052688599</t>
+    <t xml:space="preserve">3.21026945114136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24477028846741</t>
   </si>
   <si>
     <t xml:space="preserve">3.25298476219177</t>
@@ -3431,13 +3431,13 @@
     <t xml:space="preserve">3.12812280654907</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14455199241638</t>
+    <t xml:space="preserve">3.1445517539978</t>
   </si>
   <si>
     <t xml:space="preserve">3.0854070186615</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11990809440613</t>
+    <t xml:space="preserve">3.11990833282471</t>
   </si>
   <si>
     <t xml:space="preserve">3.19384002685547</t>
@@ -3461,19 +3461,19 @@
     <t xml:space="preserve">2.97204542160034</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89154243469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89975714683533</t>
+    <t xml:space="preserve">2.89154267311096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89975690841675</t>
   </si>
   <si>
     <t xml:space="preserve">2.85046911239624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95725917816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90468573570251</t>
+    <t xml:space="preserve">2.95725893974304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90468597412109</t>
   </si>
   <si>
     <t xml:space="preserve">2.77325201034546</t>
@@ -3485,10 +3485,10 @@
     <t xml:space="preserve">2.80939626693726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8389687538147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86854100227356</t>
+    <t xml:space="preserve">2.83896851539612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86854124069214</t>
   </si>
   <si>
     <t xml:space="preserve">2.86525535583496</t>
@@ -3503,7 +3503,7 @@
     <t xml:space="preserve">2.91290044784546</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88825702667236</t>
+    <t xml:space="preserve">2.88825678825378</t>
   </si>
   <si>
     <t xml:space="preserve">2.85868358612061</t>
@@ -3518,10 +3518,7 @@
     <t xml:space="preserve">3.05747747421265</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10347938537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19055438041687</t>
+    <t xml:space="preserve">3.1034791469574</t>
   </si>
   <si>
     <t xml:space="preserve">3.06733512878418</t>
@@ -3539,7 +3536,7 @@
     <t xml:space="preserve">3.09690761566162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93590116500854</t>
+    <t xml:space="preserve">2.93590140342712</t>
   </si>
   <si>
     <t xml:space="preserve">2.98354554176331</t>
@@ -3569,7 +3566,7 @@
     <t xml:space="preserve">3.37956404685974</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30884838104248</t>
+    <t xml:space="preserve">3.3088481426239</t>
   </si>
   <si>
     <t xml:space="preserve">3.42561173439026</t>
@@ -3599,13 +3596,13 @@
     <t xml:space="preserve">3.05065274238586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91415429115295</t>
+    <t xml:space="preserve">2.91415452957153</t>
   </si>
   <si>
     <t xml:space="preserve">2.73818683624268</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77436709403992</t>
+    <t xml:space="preserve">2.7743673324585</t>
   </si>
   <si>
     <t xml:space="preserve">2.72174119949341</t>
@@ -3635,7 +3632,7 @@
     <t xml:space="preserve">2.7529878616333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94704556465149</t>
+    <t xml:space="preserve">2.94704580307007</t>
   </si>
   <si>
     <t xml:space="preserve">2.91908812522888</t>
@@ -3686,16 +3683,16 @@
     <t xml:space="preserve">2.99802684783936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14274764060974</t>
+    <t xml:space="preserve">3.14274787902832</t>
   </si>
   <si>
     <t xml:space="preserve">3.1559042930603</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07696580886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14932608604431</t>
+    <t xml:space="preserve">3.07696557044983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14932584762573</t>
   </si>
   <si>
     <t xml:space="preserve">3.09176659584045</t>
@@ -3725,7 +3722,7 @@
     <t xml:space="preserve">2.98980402946472</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98815965652466</t>
+    <t xml:space="preserve">2.98815941810608</t>
   </si>
   <si>
     <t xml:space="preserve">2.95362377166748</t>
@@ -3734,7 +3731,7 @@
     <t xml:space="preserve">2.87468504905701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97993659973145</t>
+    <t xml:space="preserve">2.97993683815002</t>
   </si>
   <si>
     <t xml:space="preserve">3.00624942779541</t>
@@ -5085,6 +5082,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.85500001907349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65999984741211</t>
   </si>
 </sst>
 </file>
@@ -45172,7 +45172,7 @@
         <v>3.88013911247253</v>
       </c>
       <c r="G1529" t="s">
-        <v>1169</v>
+        <v>1038</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -45250,7 +45250,7 @@
         <v>3.73028802871704</v>
       </c>
       <c r="G1532" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -45276,7 +45276,7 @@
         <v>3.83218598365784</v>
       </c>
       <c r="G1533" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -45328,7 +45328,7 @@
         <v>3.9540650844574</v>
       </c>
       <c r="G1535" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -45380,7 +45380,7 @@
         <v>3.94407510757446</v>
       </c>
       <c r="G1537" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -45458,7 +45458,7 @@
         <v>3.76625204086304</v>
       </c>
       <c r="G1540" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -45484,7 +45484,7 @@
         <v>3.73028802871704</v>
       </c>
       <c r="G1541" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -45510,7 +45510,7 @@
         <v>3.57044696807861</v>
       </c>
       <c r="G1542" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -45536,7 +45536,7 @@
         <v>3.62838888168335</v>
       </c>
       <c r="G1543" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -45588,7 +45588,7 @@
         <v>3.73228597640991</v>
       </c>
       <c r="G1545" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -45614,7 +45614,7 @@
         <v>3.68433403968811</v>
       </c>
       <c r="G1546" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -45692,7 +45692,7 @@
         <v>3.87014889717102</v>
       </c>
       <c r="G1549" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -45744,7 +45744,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1551" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -45770,7 +45770,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1552" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -45796,7 +45796,7 @@
         <v>3.9760000705719</v>
       </c>
       <c r="G1553" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -45822,7 +45822,7 @@
         <v>4</v>
       </c>
       <c r="G1554" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -45848,7 +45848,7 @@
         <v>4</v>
       </c>
       <c r="G1555" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -45874,7 +45874,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1556" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -45900,7 +45900,7 @@
         <v>4.02400016784668</v>
       </c>
       <c r="G1557" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -45926,7 +45926,7 @@
         <v>4.16599988937378</v>
       </c>
       <c r="G1558" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -45952,7 +45952,7 @@
         <v>4.18800020217896</v>
       </c>
       <c r="G1559" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -45978,7 +45978,7 @@
         <v>4.15399980545044</v>
       </c>
       <c r="G1560" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -46004,7 +46004,7 @@
         <v>4.23799991607666</v>
       </c>
       <c r="G1561" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -46030,7 +46030,7 @@
         <v>4.12400007247925</v>
       </c>
       <c r="G1562" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -46056,7 +46056,7 @@
         <v>4.03200006484985</v>
       </c>
       <c r="G1563" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -46082,7 +46082,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1564" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -46108,7 +46108,7 @@
         <v>3.64800000190735</v>
       </c>
       <c r="G1565" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -46134,7 +46134,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1566" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -46160,7 +46160,7 @@
         <v>3.54399991035461</v>
       </c>
       <c r="G1567" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -46186,7 +46186,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1568" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -46212,7 +46212,7 @@
         <v>3.37400007247925</v>
       </c>
       <c r="G1569" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -46238,7 +46238,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1570" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -46264,7 +46264,7 @@
         <v>2.93600010871887</v>
       </c>
       <c r="G1571" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -46290,7 +46290,7 @@
         <v>2.92600011825562</v>
       </c>
       <c r="G1572" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -46316,7 +46316,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1573" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -46342,7 +46342,7 @@
         <v>3.30200004577637</v>
       </c>
       <c r="G1574" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -46368,7 +46368,7 @@
         <v>3.1340000629425</v>
       </c>
       <c r="G1575" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -46394,7 +46394,7 @@
         <v>3.16400003433228</v>
       </c>
       <c r="G1576" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -46420,7 +46420,7 @@
         <v>3.2960000038147</v>
       </c>
       <c r="G1577" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -46446,7 +46446,7 @@
         <v>3.34800004959106</v>
       </c>
       <c r="G1578" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -46472,7 +46472,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G1579" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -46498,7 +46498,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1580" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -46524,7 +46524,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1581" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -46550,7 +46550,7 @@
         <v>3.62199997901917</v>
       </c>
       <c r="G1582" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -46576,7 +46576,7 @@
         <v>3.68600010871887</v>
       </c>
       <c r="G1583" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -46602,7 +46602,7 @@
         <v>3.64199995994568</v>
       </c>
       <c r="G1584" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -46628,7 +46628,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G1585" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -46654,7 +46654,7 @@
         <v>3.56800007820129</v>
       </c>
       <c r="G1586" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -46680,7 +46680,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G1587" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -46706,7 +46706,7 @@
         <v>3.80800008773804</v>
       </c>
       <c r="G1588" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -46732,7 +46732,7 @@
         <v>3.81599998474121</v>
       </c>
       <c r="G1589" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -46758,7 +46758,7 @@
         <v>3.71799993515015</v>
       </c>
       <c r="G1590" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -46784,7 +46784,7 @@
         <v>3.76799988746643</v>
       </c>
       <c r="G1591" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -46810,7 +46810,7 @@
         <v>3.80200004577637</v>
       </c>
       <c r="G1592" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -46836,7 +46836,7 @@
         <v>3.77600002288818</v>
       </c>
       <c r="G1593" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -46862,7 +46862,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1594" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -46888,7 +46888,7 @@
         <v>3.64599990844727</v>
       </c>
       <c r="G1595" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -46914,7 +46914,7 @@
         <v>3.82200002670288</v>
       </c>
       <c r="G1596" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -46940,7 +46940,7 @@
         <v>3.83800005912781</v>
       </c>
       <c r="G1597" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -46966,7 +46966,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G1598" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -46992,7 +46992,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1599" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -47018,7 +47018,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1600" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -47044,7 +47044,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1601" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -47070,7 +47070,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1602" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -47096,7 +47096,7 @@
         <v>3.86400008201599</v>
       </c>
       <c r="G1603" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -47122,7 +47122,7 @@
         <v>3.86400008201599</v>
       </c>
       <c r="G1604" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -47148,7 +47148,7 @@
         <v>3.84599995613098</v>
       </c>
       <c r="G1605" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -47174,7 +47174,7 @@
         <v>3.78600001335144</v>
       </c>
       <c r="G1606" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -47200,7 +47200,7 @@
         <v>3.81399989128113</v>
       </c>
       <c r="G1607" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -47226,7 +47226,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1608" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -47252,7 +47252,7 @@
         <v>3.80200004577637</v>
       </c>
       <c r="G1609" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -47278,7 +47278,7 @@
         <v>3.78200006484985</v>
       </c>
       <c r="G1610" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -47304,7 +47304,7 @@
         <v>3.78800010681152</v>
       </c>
       <c r="G1611" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -47330,7 +47330,7 @@
         <v>3.63599991798401</v>
       </c>
       <c r="G1612" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -47356,7 +47356,7 @@
         <v>3.6340000629425</v>
       </c>
       <c r="G1613" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -47382,7 +47382,7 @@
         <v>3.59200000762939</v>
       </c>
       <c r="G1614" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -47408,7 +47408,7 @@
         <v>3.49600005149841</v>
       </c>
       <c r="G1615" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -47434,7 +47434,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1616" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -47460,7 +47460,7 @@
         <v>3.62400007247925</v>
       </c>
       <c r="G1617" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -47486,7 +47486,7 @@
         <v>3.65599989891052</v>
       </c>
       <c r="G1618" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -47512,7 +47512,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1619" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -47538,7 +47538,7 @@
         <v>3.67199993133545</v>
       </c>
       <c r="G1620" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -47564,7 +47564,7 @@
         <v>3.75399994850159</v>
       </c>
       <c r="G1621" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -47590,7 +47590,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G1622" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -47616,7 +47616,7 @@
         <v>3.71600008010864</v>
       </c>
       <c r="G1623" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -47642,7 +47642,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G1624" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -47668,7 +47668,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1625" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -47694,7 +47694,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1626" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -47720,7 +47720,7 @@
         <v>3.85599994659424</v>
       </c>
       <c r="G1627" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -47746,7 +47746,7 @@
         <v>3.8659999370575</v>
       </c>
       <c r="G1628" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -47772,7 +47772,7 @@
         <v>3.85599994659424</v>
       </c>
       <c r="G1629" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -47798,7 +47798,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1630" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -47824,7 +47824,7 @@
         <v>3.78800010681152</v>
       </c>
       <c r="G1631" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -47850,7 +47850,7 @@
         <v>3.75600004196167</v>
       </c>
       <c r="G1632" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -47876,7 +47876,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1633" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -47902,7 +47902,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1634" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -47928,7 +47928,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G1635" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -47954,7 +47954,7 @@
         <v>3.73600006103516</v>
       </c>
       <c r="G1636" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -47980,7 +47980,7 @@
         <v>3.70600008964539</v>
       </c>
       <c r="G1637" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -48006,7 +48006,7 @@
         <v>3.65400004386902</v>
       </c>
       <c r="G1638" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -48032,7 +48032,7 @@
         <v>3.40199995040894</v>
       </c>
       <c r="G1639" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -48058,7 +48058,7 @@
         <v>3.24399995803833</v>
       </c>
       <c r="G1640" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -48084,7 +48084,7 @@
         <v>3.23399996757507</v>
       </c>
       <c r="G1641" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -48110,7 +48110,7 @@
         <v>3.37800002098083</v>
       </c>
       <c r="G1642" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -48136,7 +48136,7 @@
         <v>3.27800011634827</v>
       </c>
       <c r="G1643" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -48162,7 +48162,7 @@
         <v>3.32800006866455</v>
       </c>
       <c r="G1644" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -48188,7 +48188,7 @@
         <v>3.40400004386902</v>
       </c>
       <c r="G1645" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -48214,7 +48214,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1646" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -48240,7 +48240,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1647" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -48266,7 +48266,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1648" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -48292,7 +48292,7 @@
         <v>3.3659999370575</v>
       </c>
       <c r="G1649" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -48318,7 +48318,7 @@
         <v>3.31800007820129</v>
       </c>
       <c r="G1650" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -48344,7 +48344,7 @@
         <v>3.32599997520447</v>
       </c>
       <c r="G1651" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -48370,7 +48370,7 @@
         <v>3.39800000190735</v>
       </c>
       <c r="G1652" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -48396,7 +48396,7 @@
         <v>3.28600001335144</v>
       </c>
       <c r="G1653" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -48422,7 +48422,7 @@
         <v>3.2960000038147</v>
       </c>
       <c r="G1654" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -48448,7 +48448,7 @@
         <v>3.28200006484985</v>
       </c>
       <c r="G1655" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -48474,7 +48474,7 @@
         <v>3.19600009918213</v>
       </c>
       <c r="G1656" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -48500,7 +48500,7 @@
         <v>3.2039999961853</v>
       </c>
       <c r="G1657" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -48526,7 +48526,7 @@
         <v>3.29200005531311</v>
       </c>
       <c r="G1658" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -48552,7 +48552,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1659" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -48578,7 +48578,7 @@
         <v>3.34800004959106</v>
       </c>
       <c r="G1660" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -48604,7 +48604,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1661" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -48630,7 +48630,7 @@
         <v>3.25200009346008</v>
       </c>
       <c r="G1662" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -48656,7 +48656,7 @@
         <v>3.09599995613098</v>
       </c>
       <c r="G1663" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -48682,7 +48682,7 @@
         <v>3.11400008201599</v>
       </c>
       <c r="G1664" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -48708,7 +48708,7 @@
         <v>3.16799998283386</v>
       </c>
       <c r="G1665" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -48734,7 +48734,7 @@
         <v>3.31399989128113</v>
       </c>
       <c r="G1666" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -48760,7 +48760,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1667" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -48786,7 +48786,7 @@
         <v>3.17600011825562</v>
       </c>
       <c r="G1668" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -48812,7 +48812,7 @@
         <v>3.13599991798401</v>
       </c>
       <c r="G1669" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -48838,7 +48838,7 @@
         <v>3.18199992179871</v>
       </c>
       <c r="G1670" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -48864,7 +48864,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1671" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -48890,7 +48890,7 @@
         <v>3.11400008201599</v>
       </c>
       <c r="G1672" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -48916,7 +48916,7 @@
         <v>3.15199995040894</v>
       </c>
       <c r="G1673" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -48942,7 +48942,7 @@
         <v>3.23600006103516</v>
       </c>
       <c r="G1674" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -48968,7 +48968,7 @@
         <v>3.2039999961853</v>
       </c>
       <c r="G1675" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -48994,7 +48994,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1676" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -49020,7 +49020,7 @@
         <v>3.27600002288818</v>
       </c>
       <c r="G1677" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -49046,7 +49046,7 @@
         <v>3.32800006866455</v>
       </c>
       <c r="G1678" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -49072,7 +49072,7 @@
         <v>3.36199998855591</v>
       </c>
       <c r="G1679" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -49098,7 +49098,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1680" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -49124,7 +49124,7 @@
         <v>3.28200006484985</v>
       </c>
       <c r="G1681" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -49150,7 +49150,7 @@
         <v>3.28800010681152</v>
       </c>
       <c r="G1682" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -49176,7 +49176,7 @@
         <v>3.27800011634827</v>
       </c>
       <c r="G1683" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -49202,7 +49202,7 @@
         <v>3.42600011825562</v>
       </c>
       <c r="G1684" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -49228,7 +49228,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1685" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -49254,7 +49254,7 @@
         <v>3.34400010108948</v>
       </c>
       <c r="G1686" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -49280,7 +49280,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1687" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -49306,7 +49306,7 @@
         <v>3.33400011062622</v>
       </c>
       <c r="G1688" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -49332,7 +49332,7 @@
         <v>3.22399997711182</v>
       </c>
       <c r="G1689" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -49358,7 +49358,7 @@
         <v>3.28399991989136</v>
       </c>
       <c r="G1690" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -49384,7 +49384,7 @@
         <v>3.27800011634827</v>
       </c>
       <c r="G1691" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -49410,7 +49410,7 @@
         <v>3.21399998664856</v>
       </c>
       <c r="G1692" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -49436,7 +49436,7 @@
         <v>3.15799999237061</v>
       </c>
       <c r="G1693" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -49462,7 +49462,7 @@
         <v>3.15599989891052</v>
       </c>
       <c r="G1694" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -49488,7 +49488,7 @@
         <v>3.19199991226196</v>
       </c>
       <c r="G1695" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -49514,7 +49514,7 @@
         <v>3.20199990272522</v>
       </c>
       <c r="G1696" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -49540,7 +49540,7 @@
         <v>3.15400004386902</v>
       </c>
       <c r="G1697" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -49566,7 +49566,7 @@
         <v>3.27800011634827</v>
       </c>
       <c r="G1698" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -49592,7 +49592,7 @@
         <v>3.19799995422363</v>
       </c>
       <c r="G1699" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -49618,7 +49618,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1700" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -49644,7 +49644,7 @@
         <v>3.18799996376038</v>
       </c>
       <c r="G1701" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -49670,7 +49670,7 @@
         <v>3.23399996757507</v>
       </c>
       <c r="G1702" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -49696,7 +49696,7 @@
         <v>3.35800004005432</v>
       </c>
       <c r="G1703" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -49722,7 +49722,7 @@
         <v>3.47399997711182</v>
       </c>
       <c r="G1704" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -49748,7 +49748,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1705" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -49774,7 +49774,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G1706" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -49800,7 +49800,7 @@
         <v>3.60599994659424</v>
       </c>
       <c r="G1707" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -49826,7 +49826,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G1708" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -49852,7 +49852,7 @@
         <v>3.55800008773804</v>
       </c>
       <c r="G1709" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -49878,7 +49878,7 @@
         <v>3.49799990653992</v>
       </c>
       <c r="G1710" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -49904,7 +49904,7 @@
         <v>3.43600010871887</v>
       </c>
       <c r="G1711" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -49930,7 +49930,7 @@
         <v>3.51200008392334</v>
       </c>
       <c r="G1712" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -49956,7 +49956,7 @@
         <v>3.43400001525879</v>
       </c>
       <c r="G1713" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -49982,7 +49982,7 @@
         <v>3.40599989891052</v>
       </c>
       <c r="G1714" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -50008,7 +50008,7 @@
         <v>3.34400010108948</v>
       </c>
       <c r="G1715" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -50034,7 +50034,7 @@
         <v>3.34800004959106</v>
       </c>
       <c r="G1716" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -50060,7 +50060,7 @@
         <v>3.25799989700317</v>
       </c>
       <c r="G1717" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -50086,7 +50086,7 @@
         <v>3.39199995994568</v>
       </c>
       <c r="G1718" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -50112,7 +50112,7 @@
         <v>3.40799999237061</v>
       </c>
       <c r="G1719" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -50138,7 +50138,7 @@
         <v>3.51600003242493</v>
       </c>
       <c r="G1720" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -50164,7 +50164,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1721" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -50190,7 +50190,7 @@
         <v>3.30200004577637</v>
       </c>
       <c r="G1722" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -50216,7 +50216,7 @@
         <v>3.2739999294281</v>
       </c>
       <c r="G1723" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -50242,7 +50242,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1724" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -50268,7 +50268,7 @@
         <v>3.25799989700317</v>
       </c>
       <c r="G1725" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -50294,7 +50294,7 @@
         <v>3.25399994850159</v>
       </c>
       <c r="G1726" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -50320,7 +50320,7 @@
         <v>3.31800007820129</v>
       </c>
       <c r="G1727" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -50346,7 +50346,7 @@
         <v>3.34400010108948</v>
       </c>
       <c r="G1728" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -50372,7 +50372,7 @@
         <v>3.39400005340576</v>
       </c>
       <c r="G1729" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -50398,7 +50398,7 @@
         <v>3.49200010299683</v>
       </c>
       <c r="G1730" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -50424,7 +50424,7 @@
         <v>3.49799990653992</v>
       </c>
       <c r="G1731" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -50450,7 +50450,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G1732" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -50476,7 +50476,7 @@
         <v>3.54399991035461</v>
       </c>
       <c r="G1733" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -50502,7 +50502,7 @@
         <v>3.59200000762939</v>
       </c>
       <c r="G1734" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -50528,7 +50528,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G1735" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -50554,7 +50554,7 @@
         <v>3.60199999809265</v>
       </c>
       <c r="G1736" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -50580,7 +50580,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1737" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -50606,7 +50606,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1738" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -50632,7 +50632,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1739" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -50658,7 +50658,7 @@
         <v>3.64199995994568</v>
       </c>
       <c r="G1740" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -50684,7 +50684,7 @@
         <v>3.73200011253357</v>
       </c>
       <c r="G1741" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -50710,7 +50710,7 @@
         <v>3.75</v>
       </c>
       <c r="G1742" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -50736,7 +50736,7 @@
         <v>3.75600004196167</v>
       </c>
       <c r="G1743" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -50762,7 +50762,7 @@
         <v>3.82399988174438</v>
       </c>
       <c r="G1744" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -50788,7 +50788,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -50814,7 +50814,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1746" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -50840,7 +50840,7 @@
         <v>3.56599998474121</v>
       </c>
       <c r="G1747" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -50866,7 +50866,7 @@
         <v>3.55599999427795</v>
       </c>
       <c r="G1748" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -50892,7 +50892,7 @@
         <v>3.59400010108948</v>
       </c>
       <c r="G1749" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -50918,7 +50918,7 @@
         <v>3.75200009346008</v>
       </c>
       <c r="G1750" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -50944,7 +50944,7 @@
         <v>3.75200009346008</v>
       </c>
       <c r="G1751" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -50970,7 +50970,7 @@
         <v>3.75799989700317</v>
       </c>
       <c r="G1752" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -50996,7 +50996,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1753" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -51022,7 +51022,7 @@
         <v>3.82599997520447</v>
       </c>
       <c r="G1754" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -51048,7 +51048,7 @@
         <v>3.83599996566772</v>
       </c>
       <c r="G1755" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -51074,7 +51074,7 @@
         <v>3.89199995994568</v>
       </c>
       <c r="G1756" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -51100,7 +51100,7 @@
         <v>3.85199999809265</v>
       </c>
       <c r="G1757" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -51126,7 +51126,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1758" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -51152,7 +51152,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1759" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -51178,7 +51178,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1760" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -51204,7 +51204,7 @@
         <v>3.84400010108948</v>
       </c>
       <c r="G1761" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -51230,7 +51230,7 @@
         <v>3.79399991035461</v>
       </c>
       <c r="G1762" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -51256,7 +51256,7 @@
         <v>3.78399991989136</v>
       </c>
       <c r="G1763" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -51282,7 +51282,7 @@
         <v>3.7960000038147</v>
       </c>
       <c r="G1764" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -51308,7 +51308,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1765" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -51334,7 +51334,7 @@
         <v>3.78800010681152</v>
       </c>
       <c r="G1766" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -51360,7 +51360,7 @@
         <v>3.80800008773804</v>
       </c>
       <c r="G1767" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -51386,7 +51386,7 @@
         <v>3.81599998474121</v>
       </c>
       <c r="G1768" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -51412,7 +51412,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1769" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -51438,7 +51438,7 @@
         <v>3.8659999370575</v>
       </c>
       <c r="G1770" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -51464,7 +51464,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1771" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -51490,7 +51490,7 @@
         <v>3.74600005149841</v>
       </c>
       <c r="G1772" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -51516,7 +51516,7 @@
         <v>3.82599997520447</v>
       </c>
       <c r="G1773" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -51542,7 +51542,7 @@
         <v>3.83400011062622</v>
       </c>
       <c r="G1774" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -51568,7 +51568,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1775" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -51594,7 +51594,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1776" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -51620,7 +51620,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1777" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -51646,7 +51646,7 @@
         <v>3.91199994087219</v>
       </c>
       <c r="G1778" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -51672,7 +51672,7 @@
         <v>3.89199995994568</v>
       </c>
       <c r="G1779" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -51698,7 +51698,7 @@
         <v>3.86800003051758</v>
       </c>
       <c r="G1780" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -51724,7 +51724,7 @@
         <v>3.84800004959106</v>
       </c>
       <c r="G1781" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -51750,7 +51750,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1782" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -51776,7 +51776,7 @@
         <v>3.83400011062622</v>
       </c>
       <c r="G1783" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -51802,7 +51802,7 @@
         <v>3.91400003433228</v>
       </c>
       <c r="G1784" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -51828,7 +51828,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1785" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -51854,7 +51854,7 @@
         <v>4.02199983596802</v>
       </c>
       <c r="G1786" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -51880,7 +51880,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1787" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -51906,7 +51906,7 @@
         <v>4.02199983596802</v>
       </c>
       <c r="G1788" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -51932,7 +51932,7 @@
         <v>4.03599977493286</v>
       </c>
       <c r="G1789" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -51958,7 +51958,7 @@
         <v>4.02799987792969</v>
       </c>
       <c r="G1790" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -51984,7 +51984,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1791" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -52010,7 +52010,7 @@
         <v>4.11600017547607</v>
       </c>
       <c r="G1792" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -52036,7 +52036,7 @@
         <v>4.05800008773804</v>
       </c>
       <c r="G1793" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -52062,7 +52062,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -52088,7 +52088,7 @@
         <v>4.0939998626709</v>
       </c>
       <c r="G1795" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -52114,7 +52114,7 @@
         <v>4.06199979782104</v>
       </c>
       <c r="G1796" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -52140,7 +52140,7 @@
         <v>4.11800003051758</v>
       </c>
       <c r="G1797" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -52166,7 +52166,7 @@
         <v>4.23600006103516</v>
       </c>
       <c r="G1798" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -52192,7 +52192,7 @@
         <v>4.26399993896484</v>
       </c>
       <c r="G1799" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -52218,7 +52218,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G1800" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -52244,7 +52244,7 @@
         <v>4.32800006866455</v>
       </c>
       <c r="G1801" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -52270,7 +52270,7 @@
         <v>4.35799980163574</v>
       </c>
       <c r="G1802" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -52296,7 +52296,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G1803" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -52322,7 +52322,7 @@
         <v>4.50600004196167</v>
       </c>
       <c r="G1804" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -52348,7 +52348,7 @@
         <v>4.59800004959106</v>
       </c>
       <c r="G1805" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -52374,7 +52374,7 @@
         <v>4.50400018692017</v>
       </c>
       <c r="G1806" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -52400,7 +52400,7 @@
         <v>4.51399993896484</v>
       </c>
       <c r="G1807" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -52426,7 +52426,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1808" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -52452,7 +52452,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1809" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -52478,7 +52478,7 @@
         <v>4.53800010681152</v>
       </c>
       <c r="G1810" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -52504,7 +52504,7 @@
         <v>4.49599981307983</v>
       </c>
       <c r="G1811" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -52530,7 +52530,7 @@
         <v>4.46400022506714</v>
       </c>
       <c r="G1812" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -52556,7 +52556,7 @@
         <v>4.50400018692017</v>
       </c>
       <c r="G1813" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -52582,7 +52582,7 @@
         <v>4.51200008392334</v>
       </c>
       <c r="G1814" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -52608,7 +52608,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G1815" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -52634,7 +52634,7 @@
         <v>4.44399976730347</v>
       </c>
       <c r="G1816" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -52660,7 +52660,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1817" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -52686,7 +52686,7 @@
         <v>4.43200016021729</v>
       </c>
       <c r="G1818" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -52712,7 +52712,7 @@
         <v>4.48799991607666</v>
       </c>
       <c r="G1819" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -52738,7 +52738,7 @@
         <v>4.4539999961853</v>
       </c>
       <c r="G1820" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -52764,7 +52764,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1821" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -52790,7 +52790,7 @@
         <v>4.55200004577637</v>
       </c>
       <c r="G1822" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -52816,7 +52816,7 @@
         <v>4.69399976730347</v>
       </c>
       <c r="G1823" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -52842,7 +52842,7 @@
         <v>4.80399990081787</v>
       </c>
       <c r="G1824" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -52868,7 +52868,7 @@
         <v>4.77799987792969</v>
       </c>
       <c r="G1825" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -52894,7 +52894,7 @@
         <v>4.80200004577637</v>
       </c>
       <c r="G1826" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -52920,7 +52920,7 @@
         <v>4.7960000038147</v>
       </c>
       <c r="G1827" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -52946,7 +52946,7 @@
         <v>4.89200019836426</v>
       </c>
       <c r="G1828" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -52972,7 +52972,7 @@
         <v>4.79400014877319</v>
       </c>
       <c r="G1829" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -52998,7 +52998,7 @@
         <v>4.82800006866455</v>
       </c>
       <c r="G1830" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -53024,7 +53024,7 @@
         <v>4.80200004577637</v>
       </c>
       <c r="G1831" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -53050,7 +53050,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G1832" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -53076,7 +53076,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1833" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -53102,7 +53102,7 @@
         <v>4.20800018310547</v>
       </c>
       <c r="G1834" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -53128,7 +53128,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1835" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -53154,7 +53154,7 @@
         <v>3.9539999961853</v>
       </c>
       <c r="G1836" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -53180,7 +53180,7 @@
         <v>3.81200003623962</v>
       </c>
       <c r="G1837" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -53206,7 +53206,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1838" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -53232,7 +53232,7 @@
         <v>4.15399980545044</v>
       </c>
       <c r="G1839" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -53258,7 +53258,7 @@
         <v>4.0460000038147</v>
       </c>
       <c r="G1840" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -53284,7 +53284,7 @@
         <v>3.96600008010864</v>
       </c>
       <c r="G1841" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -53310,7 +53310,7 @@
         <v>3.80399990081787</v>
       </c>
       <c r="G1842" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -53336,7 +53336,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1843" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -53362,7 +53362,7 @@
         <v>3.81800007820129</v>
       </c>
       <c r="G1844" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -53388,7 +53388,7 @@
         <v>3.93600010871887</v>
       </c>
       <c r="G1845" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -53414,7 +53414,7 @@
         <v>3.95600008964539</v>
       </c>
       <c r="G1846" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -53440,7 +53440,7 @@
         <v>3.91400003433228</v>
       </c>
       <c r="G1847" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -53466,7 +53466,7 @@
         <v>3.91400003433228</v>
       </c>
       <c r="G1848" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -53492,7 +53492,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1849" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -53518,7 +53518,7 @@
         <v>3.88199996948242</v>
       </c>
       <c r="G1850" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -53544,7 +53544,7 @@
         <v>3.91199994087219</v>
       </c>
       <c r="G1851" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -53570,7 +53570,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1852" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -53596,7 +53596,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1853" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -53622,7 +53622,7 @@
         <v>4.08599996566772</v>
       </c>
       <c r="G1854" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -53648,7 +53648,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1855" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -53674,7 +53674,7 @@
         <v>4.12400007247925</v>
       </c>
       <c r="G1856" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -53700,7 +53700,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1857" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -53726,7 +53726,7 @@
         <v>4.2480001449585</v>
       </c>
       <c r="G1858" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -53752,7 +53752,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1859" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -53778,7 +53778,7 @@
         <v>4.27799987792969</v>
       </c>
       <c r="G1860" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -53804,7 +53804,7 @@
         <v>4.27400016784668</v>
       </c>
       <c r="G1861" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -53830,7 +53830,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1862" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -53856,7 +53856,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1863" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -53882,7 +53882,7 @@
         <v>4.2480001449585</v>
       </c>
       <c r="G1864" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -53908,7 +53908,7 @@
         <v>4.12200021743774</v>
       </c>
       <c r="G1865" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -53934,7 +53934,7 @@
         <v>4.09800004959106</v>
       </c>
       <c r="G1866" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -53960,7 +53960,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1867" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -53986,7 +53986,7 @@
         <v>4.02400016784668</v>
       </c>
       <c r="G1868" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -54012,7 +54012,7 @@
         <v>4.17199993133545</v>
       </c>
       <c r="G1869" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -54038,7 +54038,7 @@
         <v>4.22599983215332</v>
       </c>
       <c r="G1870" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -54064,7 +54064,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G1871" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -54090,7 +54090,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1872" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -54116,7 +54116,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G1873" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -54142,7 +54142,7 @@
         <v>4.16599988937378</v>
       </c>
       <c r="G1874" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -54168,7 +54168,7 @@
         <v>4.22599983215332</v>
       </c>
       <c r="G1875" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -54194,7 +54194,7 @@
         <v>4.15399980545044</v>
       </c>
       <c r="G1876" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -54220,7 +54220,7 @@
         <v>4.12400007247925</v>
       </c>
       <c r="G1877" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -54246,7 +54246,7 @@
         <v>4.16800022125244</v>
       </c>
       <c r="G1878" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -54272,7 +54272,7 @@
         <v>4.17199993133545</v>
       </c>
       <c r="G1879" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -54298,7 +54298,7 @@
         <v>3.83200001716614</v>
       </c>
       <c r="G1880" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -54324,7 +54324,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1881" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -54350,7 +54350,7 @@
         <v>3.66199994087219</v>
       </c>
       <c r="G1882" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -54376,7 +54376,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1883" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -54402,7 +54402,7 @@
         <v>3.67799997329712</v>
       </c>
       <c r="G1884" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -54428,7 +54428,7 @@
         <v>3.65799999237061</v>
       </c>
       <c r="G1885" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -54454,7 +54454,7 @@
         <v>3.59800004959106</v>
       </c>
       <c r="G1886" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -54480,7 +54480,7 @@
         <v>3.5</v>
       </c>
       <c r="G1887" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -54506,7 +54506,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1888" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -54532,7 +54532,7 @@
         <v>3.70600008964539</v>
       </c>
       <c r="G1889" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -54558,7 +54558,7 @@
         <v>3.67400002479553</v>
       </c>
       <c r="G1890" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -54584,7 +54584,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1891" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -54610,7 +54610,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1892" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -54636,7 +54636,7 @@
         <v>3.71199989318848</v>
       </c>
       <c r="G1893" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -54662,7 +54662,7 @@
         <v>3.7260000705719</v>
       </c>
       <c r="G1894" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -54688,7 +54688,7 @@
         <v>3.71399998664856</v>
       </c>
       <c r="G1895" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -54714,7 +54714,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1896" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -54740,7 +54740,7 @@
         <v>3.78399991989136</v>
       </c>
       <c r="G1897" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -54766,7 +54766,7 @@
         <v>3.74399995803833</v>
       </c>
       <c r="G1898" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -54792,7 +54792,7 @@
         <v>3.77600002288818</v>
       </c>
       <c r="G1899" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -54818,7 +54818,7 @@
         <v>3.79200005531311</v>
       </c>
       <c r="G1900" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -54844,7 +54844,7 @@
         <v>3.84800004959106</v>
       </c>
       <c r="G1901" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -54870,7 +54870,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1902" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -54896,7 +54896,7 @@
         <v>3.92400002479553</v>
       </c>
       <c r="G1903" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -54922,7 +54922,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1904" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -54948,7 +54948,7 @@
         <v>3.84800004959106</v>
       </c>
       <c r="G1905" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -54974,7 +54974,7 @@
         <v>3.8840000629425</v>
       </c>
       <c r="G1906" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55000,7 +55000,7 @@
         <v>3.81599998474121</v>
       </c>
       <c r="G1907" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55026,7 +55026,7 @@
         <v>3.78200006484985</v>
       </c>
       <c r="G1908" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55052,7 +55052,7 @@
         <v>3.81599998474121</v>
       </c>
       <c r="G1909" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55078,7 +55078,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1910" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55104,7 +55104,7 @@
         <v>3.78200006484985</v>
       </c>
       <c r="G1911" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55130,7 +55130,7 @@
         <v>3.80399990081787</v>
       </c>
       <c r="G1912" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55156,7 +55156,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1913" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55182,7 +55182,7 @@
         <v>3.83400011062622</v>
       </c>
       <c r="G1914" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55208,7 +55208,7 @@
         <v>3.80200004577637</v>
       </c>
       <c r="G1915" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55234,7 +55234,7 @@
         <v>3.84200000762939</v>
       </c>
       <c r="G1916" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55260,7 +55260,7 @@
         <v>3.91599988937378</v>
       </c>
       <c r="G1917" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55286,7 +55286,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1918" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55312,7 +55312,7 @@
         <v>3.94600009918213</v>
       </c>
       <c r="G1919" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -55338,7 +55338,7 @@
         <v>4.03200006484985</v>
       </c>
       <c r="G1920" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55364,7 +55364,7 @@
         <v>4.05800008773804</v>
       </c>
       <c r="G1921" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55390,7 +55390,7 @@
         <v>4.08400011062622</v>
       </c>
       <c r="G1922" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55416,7 +55416,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1923" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55442,7 +55442,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1924" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55468,7 +55468,7 @@
         <v>4.16599988937378</v>
       </c>
       <c r="G1925" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55494,7 +55494,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1926" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55520,7 +55520,7 @@
         <v>4.26200008392334</v>
       </c>
       <c r="G1927" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55546,7 +55546,7 @@
         <v>4.26200008392334</v>
       </c>
       <c r="G1928" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55572,7 +55572,7 @@
         <v>4.34800004959106</v>
       </c>
       <c r="G1929" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55598,7 +55598,7 @@
         <v>4.39400005340576</v>
       </c>
       <c r="G1930" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55624,7 +55624,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1931" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55650,7 +55650,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G1932" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55676,7 +55676,7 @@
         <v>4.27600002288818</v>
       </c>
       <c r="G1933" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55702,7 +55702,7 @@
         <v>4.28800010681152</v>
       </c>
       <c r="G1934" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55728,7 +55728,7 @@
         <v>4.2960000038147</v>
       </c>
       <c r="G1935" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55754,7 +55754,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1936" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55780,7 +55780,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1937" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55806,7 +55806,7 @@
         <v>4.19799995422363</v>
       </c>
       <c r="G1938" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55832,7 +55832,7 @@
         <v>4.23799991607666</v>
       </c>
       <c r="G1939" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -55858,7 +55858,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G1940" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -55884,7 +55884,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G1941" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -55910,7 +55910,7 @@
         <v>4.23400020599365</v>
       </c>
       <c r="G1942" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -55936,7 +55936,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1943" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -55962,7 +55962,7 @@
         <v>4.23400020599365</v>
       </c>
       <c r="G1944" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -55988,7 +55988,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1945" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56014,7 +56014,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1946" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56040,7 +56040,7 @@
         <v>4.23799991607666</v>
       </c>
       <c r="G1947" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56066,7 +56066,7 @@
         <v>4.26599979400635</v>
       </c>
       <c r="G1948" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56092,7 +56092,7 @@
         <v>4.27799987792969</v>
       </c>
       <c r="G1949" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56118,7 +56118,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G1950" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56144,7 +56144,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1951" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56170,7 +56170,7 @@
         <v>4.38600015640259</v>
       </c>
       <c r="G1952" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56196,7 +56196,7 @@
         <v>4.34800004959106</v>
       </c>
       <c r="G1953" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56222,7 +56222,7 @@
         <v>4.32800006866455</v>
       </c>
       <c r="G1954" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56248,7 +56248,7 @@
         <v>4.26599979400635</v>
       </c>
       <c r="G1955" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56274,7 +56274,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G1956" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56300,7 +56300,7 @@
         <v>4.43599987030029</v>
       </c>
       <c r="G1957" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56326,7 +56326,7 @@
         <v>4.48600006103516</v>
       </c>
       <c r="G1958" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56352,7 +56352,7 @@
         <v>4.48799991607666</v>
       </c>
       <c r="G1959" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56378,7 +56378,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1960" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56404,7 +56404,7 @@
         <v>4.61800003051758</v>
       </c>
       <c r="G1961" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56430,7 +56430,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1962" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56456,7 +56456,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1963" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56482,7 +56482,7 @@
         <v>4.68400001525879</v>
       </c>
       <c r="G1964" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56508,7 +56508,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1965" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56534,7 +56534,7 @@
         <v>4.9980001449585</v>
       </c>
       <c r="G1966" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56560,7 +56560,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G1967" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56586,7 +56586,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G1968" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56612,7 +56612,7 @@
         <v>5.08500003814697</v>
       </c>
       <c r="G1969" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56638,7 +56638,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G1970" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56664,7 +56664,7 @@
         <v>4.90199995040894</v>
       </c>
       <c r="G1971" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56690,7 +56690,7 @@
         <v>4.97599983215332</v>
       </c>
       <c r="G1972" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56716,7 +56716,7 @@
         <v>4.87599992752075</v>
       </c>
       <c r="G1973" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56742,7 +56742,7 @@
         <v>4.96000003814697</v>
       </c>
       <c r="G1974" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56768,7 +56768,7 @@
         <v>4.84999990463257</v>
       </c>
       <c r="G1975" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56794,7 +56794,7 @@
         <v>4.81799983978271</v>
       </c>
       <c r="G1976" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56820,7 +56820,7 @@
         <v>4.92799997329712</v>
       </c>
       <c r="G1977" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -56846,7 +56846,7 @@
         <v>5.02500009536743</v>
       </c>
       <c r="G1978" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -56872,7 +56872,7 @@
         <v>4.98600006103516</v>
       </c>
       <c r="G1979" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -56898,7 +56898,7 @@
         <v>5.07499980926514</v>
       </c>
       <c r="G1980" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -56924,7 +56924,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G1981" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -56950,7 +56950,7 @@
         <v>5.14499998092651</v>
       </c>
       <c r="G1982" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -56976,7 +56976,7 @@
         <v>5.17000007629395</v>
       </c>
       <c r="G1983" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -57002,7 +57002,7 @@
         <v>5.20499992370605</v>
       </c>
       <c r="G1984" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57028,7 +57028,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1985" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57054,7 +57054,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G1986" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57080,7 +57080,7 @@
         <v>5.14499998092651</v>
       </c>
       <c r="G1987" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57106,7 +57106,7 @@
         <v>5.04500007629395</v>
       </c>
       <c r="G1988" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57132,7 +57132,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1989" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57158,7 +57158,7 @@
         <v>5.07000017166138</v>
       </c>
       <c r="G1990" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57184,7 +57184,7 @@
         <v>5.03000020980835</v>
       </c>
       <c r="G1991" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57210,7 +57210,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G1992" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57236,7 +57236,7 @@
         <v>4.95599985122681</v>
       </c>
       <c r="G1993" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57262,7 +57262,7 @@
         <v>5.03000020980835</v>
       </c>
       <c r="G1994" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57288,7 +57288,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G1995" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57314,7 +57314,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G1996" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57340,7 +57340,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1997" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57366,7 +57366,7 @@
         <v>5.26999998092651</v>
       </c>
       <c r="G1998" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57392,7 +57392,7 @@
         <v>5.33500003814697</v>
       </c>
       <c r="G1999" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57418,7 +57418,7 @@
         <v>5.30499982833862</v>
       </c>
       <c r="G2000" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57444,7 +57444,7 @@
         <v>5.36499977111816</v>
       </c>
       <c r="G2001" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57470,7 +57470,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G2002" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57496,7 +57496,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G2003" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57522,7 +57522,7 @@
         <v>5.81500005722046</v>
       </c>
       <c r="G2004" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57548,7 +57548,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G2005" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57574,7 +57574,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G2006" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57600,7 +57600,7 @@
         <v>5.89499998092651</v>
       </c>
       <c r="G2007" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57626,7 +57626,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G2008" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57652,7 +57652,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G2009" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57678,7 +57678,7 @@
         <v>5.84499979019165</v>
       </c>
       <c r="G2010" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57704,7 +57704,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G2011" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57730,7 +57730,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G2012" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57756,7 +57756,7 @@
         <v>5.86499977111816</v>
       </c>
       <c r="G2013" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57782,7 +57782,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G2014" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57808,7 +57808,7 @@
         <v>5.7350001335144</v>
       </c>
       <c r="G2015" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57834,7 +57834,7 @@
         <v>5.7649998664856</v>
       </c>
       <c r="G2016" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -57860,7 +57860,7 @@
         <v>5.68499994277954</v>
       </c>
       <c r="G2017" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -57886,7 +57886,7 @@
         <v>5.84499979019165</v>
       </c>
       <c r="G2018" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -57912,7 +57912,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2019" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -57938,7 +57938,7 @@
         <v>5.64499998092651</v>
       </c>
       <c r="G2020" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -57964,7 +57964,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G2021" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -57990,7 +57990,7 @@
         <v>5.6100001335144</v>
       </c>
       <c r="G2022" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58016,7 +58016,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G2023" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58042,7 +58042,7 @@
         <v>5.73000001907349</v>
       </c>
       <c r="G2024" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58068,7 +58068,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G2025" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58094,7 +58094,7 @@
         <v>5.57499980926514</v>
       </c>
       <c r="G2026" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58120,7 +58120,7 @@
         <v>5.44500017166138</v>
       </c>
       <c r="G2027" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58146,7 +58146,7 @@
         <v>5.43499994277954</v>
       </c>
       <c r="G2028" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58172,7 +58172,7 @@
         <v>5.41499996185303</v>
       </c>
       <c r="G2029" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58198,7 +58198,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G2030" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58224,7 +58224,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G2031" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58250,7 +58250,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G2032" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58276,7 +58276,7 @@
         <v>5.64499998092651</v>
       </c>
       <c r="G2033" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58302,7 +58302,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G2034" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58328,7 +58328,7 @@
         <v>5.83500003814697</v>
       </c>
       <c r="G2035" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58354,7 +58354,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G2036" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58380,7 +58380,7 @@
         <v>5.99499988555908</v>
       </c>
       <c r="G2037" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58406,7 +58406,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G2038" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58432,7 +58432,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G2039" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58458,7 +58458,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G2040" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58484,7 +58484,7 @@
         <v>6.0149998664856</v>
       </c>
       <c r="G2041" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58510,7 +58510,7 @@
         <v>5.94500017166138</v>
       </c>
       <c r="G2042" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58536,7 +58536,7 @@
         <v>5.93499994277954</v>
       </c>
       <c r="G2043" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58562,7 +58562,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G2044" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58588,7 +58588,7 @@
         <v>5.85500001907349</v>
       </c>
       <c r="G2045" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58614,7 +58614,7 @@
         <v>5.89499998092651</v>
       </c>
       <c r="G2046" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58640,7 +58640,7 @@
         <v>5.91499996185303</v>
       </c>
       <c r="G2047" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58666,7 +58666,7 @@
         <v>5.99499988555908</v>
       </c>
       <c r="G2048" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58692,7 +58692,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G2049" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58718,7 +58718,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G2050" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58744,7 +58744,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G2051" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58770,7 +58770,7 @@
         <v>6.5</v>
       </c>
       <c r="G2052" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58796,7 +58796,7 @@
         <v>6.55499982833862</v>
       </c>
       <c r="G2053" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58822,7 +58822,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G2054" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58848,7 +58848,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G2055" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58874,7 +58874,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G2056" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -58900,7 +58900,7 @@
         <v>6.94500017166138</v>
       </c>
       <c r="G2057" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -58926,7 +58926,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G2058" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -58952,7 +58952,7 @@
         <v>6.66499996185303</v>
       </c>
       <c r="G2059" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -58978,7 +58978,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G2060" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59004,7 +59004,7 @@
         <v>6.74499988555908</v>
       </c>
       <c r="G2061" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59030,7 +59030,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G2062" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59056,7 +59056,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G2063" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59082,7 +59082,7 @@
         <v>6.56500005722046</v>
       </c>
       <c r="G2064" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59108,7 +59108,7 @@
         <v>6.57499980926514</v>
       </c>
       <c r="G2065" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59134,7 +59134,7 @@
         <v>6.71500015258789</v>
       </c>
       <c r="G2066" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59160,7 +59160,7 @@
         <v>6.81500005722046</v>
       </c>
       <c r="G2067" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59186,7 +59186,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G2068" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59212,7 +59212,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G2069" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59238,7 +59238,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G2070" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59264,7 +59264,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G2071" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59290,7 +59290,7 @@
         <v>6.77500009536743</v>
       </c>
       <c r="G2072" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59316,7 +59316,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G2073" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59342,7 +59342,7 @@
         <v>6.92500019073486</v>
       </c>
       <c r="G2074" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59368,7 +59368,7 @@
         <v>7.17500019073486</v>
       </c>
       <c r="G2075" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59394,7 +59394,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G2076" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59420,7 +59420,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G2077" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59446,7 +59446,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G2078" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59472,7 +59472,7 @@
         <v>6.91499996185303</v>
       </c>
       <c r="G2079" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59498,7 +59498,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G2080" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59524,7 +59524,7 @@
         <v>7.16499996185303</v>
       </c>
       <c r="G2081" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59550,7 +59550,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G2082" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59576,7 +59576,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G2083" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59602,7 +59602,7 @@
         <v>6.9850001335144</v>
       </c>
       <c r="G2084" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59628,7 +59628,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G2085" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59654,7 +59654,7 @@
         <v>6.77500009536743</v>
       </c>
       <c r="G2086" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59680,7 +59680,7 @@
         <v>6.92500019073486</v>
       </c>
       <c r="G2087" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59706,7 +59706,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G2088" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59732,7 +59732,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G2089" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59758,7 +59758,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G2090" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59784,7 +59784,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G2091" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59810,7 +59810,7 @@
         <v>6.89499998092651</v>
       </c>
       <c r="G2092" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59836,7 +59836,7 @@
         <v>6.79500007629395</v>
       </c>
       <c r="G2093" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59862,7 +59862,7 @@
         <v>6.82499980926514</v>
       </c>
       <c r="G2094" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59888,7 +59888,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G2095" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59914,7 +59914,7 @@
         <v>6.92500019073486</v>
       </c>
       <c r="G2096" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -59940,7 +59940,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G2097" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -59966,7 +59966,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G2098" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -59992,7 +59992,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G2099" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60018,7 +60018,7 @@
         <v>7.00500011444092</v>
       </c>
       <c r="G2100" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60044,7 +60044,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G2101" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60070,7 +60070,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G2102" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60096,7 +60096,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G2103" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60122,7 +60122,7 @@
         <v>6.96500015258789</v>
       </c>
       <c r="G2104" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60148,7 +60148,7 @@
         <v>6.69500017166138</v>
       </c>
       <c r="G2105" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60174,7 +60174,7 @@
         <v>6.92500019073486</v>
       </c>
       <c r="G2106" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60200,7 +60200,7 @@
         <v>6.72499990463257</v>
       </c>
       <c r="G2107" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60226,7 +60226,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G2108" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60252,7 +60252,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G2109" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60278,7 +60278,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G2110" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60304,7 +60304,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G2111" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60330,7 +60330,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G2112" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60356,7 +60356,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G2113" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60382,7 +60382,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G2114" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60408,7 +60408,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G2115" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60434,7 +60434,7 @@
         <v>7.50500011444092</v>
       </c>
       <c r="G2116" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60460,7 +60460,7 @@
         <v>7.43499994277954</v>
       </c>
       <c r="G2117" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60486,7 +60486,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G2118" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60512,7 +60512,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2119" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60538,7 +60538,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G2120" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60564,7 +60564,7 @@
         <v>7.92999982833862</v>
       </c>
       <c r="G2121" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60590,7 +60590,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G2122" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60616,7 +60616,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2123" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60642,7 +60642,7 @@
         <v>8.125</v>
       </c>
       <c r="G2124" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60668,7 +60668,7 @@
         <v>8</v>
       </c>
       <c r="G2125" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60694,7 +60694,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G2126" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60720,7 +60720,7 @@
         <v>7.92999982833862</v>
       </c>
       <c r="G2127" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60746,7 +60746,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G2128" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60772,7 +60772,7 @@
         <v>8.03499984741211</v>
       </c>
       <c r="G2129" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60798,7 +60798,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G2130" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60824,7 +60824,7 @@
         <v>8.1850004196167</v>
       </c>
       <c r="G2131" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60850,7 +60850,7 @@
         <v>8.27499961853027</v>
       </c>
       <c r="G2132" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60876,7 +60876,7 @@
         <v>7.24499988555908</v>
       </c>
       <c r="G2133" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60902,7 +60902,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G2134" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60928,7 +60928,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G2135" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -60954,7 +60954,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G2136" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -60980,7 +60980,7 @@
         <v>7.15500020980835</v>
       </c>
       <c r="G2137" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61006,7 +61006,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G2138" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61032,7 +61032,7 @@
         <v>7.125</v>
       </c>
       <c r="G2139" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61058,7 +61058,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G2140" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61084,7 +61084,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G2141" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61110,7 +61110,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G2142" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61136,7 +61136,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G2143" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61162,7 +61162,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G2144" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61188,7 +61188,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G2145" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61214,7 +61214,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G2146" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61240,7 +61240,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G2147" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61266,7 +61266,7 @@
         <v>6.9850001335144</v>
       </c>
       <c r="G2148" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61292,7 +61292,7 @@
         <v>6.83500003814697</v>
       </c>
       <c r="G2149" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61318,7 +61318,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G2150" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61344,7 +61344,7 @@
         <v>6.66499996185303</v>
       </c>
       <c r="G2151" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -61370,7 +61370,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G2152" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -61396,7 +61396,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G2153" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -61422,7 +61422,7 @@
         <v>6.75</v>
       </c>
       <c r="G2154" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -61448,7 +61448,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G2155" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -61456,7 +61456,7 @@
     </row>
     <row r="2156">
       <c r="A2156" s="1" t="n">
-        <v>45463.6496412037</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B2156" t="n">
         <v>1227669</v>
@@ -61474,9 +61474,35 @@
         <v>6.85500001907349</v>
       </c>
       <c r="G2156" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>45464.6496180556</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>2830748</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>6.81500005722046</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>6.60500001907349</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>6.80999994277954</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>6.65999984741211</v>
+      </c>
+      <c r="G2157" t="s">
         <v>1690</v>
       </c>
-      <c r="H2156" t="s">
+      <c r="H2157" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BPSO.MI.xlsx
+++ b/data/BPSO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="1694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="1695">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,16 +38,16 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03069829940796</t>
+    <t xml:space="preserve">3.03069806098938</t>
   </si>
   <si>
     <t xml:space="preserve">BPSO.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00987887382507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94444608688354</t>
+    <t xml:space="preserve">3.00987863540649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94444632530212</t>
   </si>
   <si>
     <t xml:space="preserve">2.9057822227478</t>
@@ -56,55 +56,55 @@
     <t xml:space="preserve">2.8239917755127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79424977302551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88496279716492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8909113407135</t>
+    <t xml:space="preserve">2.79425001144409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8849630355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89091110229492</t>
   </si>
   <si>
     <t xml:space="preserve">2.7972240447998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69164061546326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63066983222961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4284245967865</t>
+    <t xml:space="preserve">2.69164037704468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63067007064819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42842483520508</t>
   </si>
   <si>
     <t xml:space="preserve">2.55036640167236</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57713389396667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53400897979736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69907593727112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61877298355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52359890937805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61282515525818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5756471157074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48642206192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3793511390686</t>
+    <t xml:space="preserve">2.57713413238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53400874137878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69907546043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61877346038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52359914779663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6128249168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57564687728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48642182350159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37935090065002</t>
   </si>
   <si>
     <t xml:space="preserve">2.39124751091003</t>
@@ -116,46 +116,46 @@
     <t xml:space="preserve">2.18602848052979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20982193946838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29607319831848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22469210624695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33771157264709</t>
+    <t xml:space="preserve">2.2098217010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29607343673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22469258308411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33771181106567</t>
   </si>
   <si>
     <t xml:space="preserve">2.38381195068359</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44032144546509</t>
+    <t xml:space="preserve">2.44032168388367</t>
   </si>
   <si>
     <t xml:space="preserve">2.34960865974426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31986665725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40611863136292</t>
+    <t xml:space="preserve">2.31986689567566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40611839294434</t>
   </si>
   <si>
     <t xml:space="preserve">2.34217286109924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33176398277283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37340259552002</t>
+    <t xml:space="preserve">2.33176374435425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3734028339386</t>
   </si>
   <si>
     <t xml:space="preserve">2.42098927497864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48344779014587</t>
+    <t xml:space="preserve">2.48344755172729</t>
   </si>
   <si>
     <t xml:space="preserve">2.5578019618988</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">2.54441833496094</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40165710449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42396354675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41057991981506</t>
+    <t xml:space="preserve">2.40165734291077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42396330833435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41057968139648</t>
   </si>
   <si>
     <t xml:space="preserve">2.48493456840515</t>
@@ -182,13 +182,13 @@
     <t xml:space="preserve">2.60687589645386</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52657270431519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46560215950012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51318907737732</t>
+    <t xml:space="preserve">2.52657294273376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46560192108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5131893157959</t>
   </si>
   <si>
     <t xml:space="preserve">2.5280601978302</t>
@@ -200,13 +200,13 @@
     <t xml:space="preserve">2.45667934417725</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39719557762146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34366011619568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29161214828491</t>
+    <t xml:space="preserve">2.39719581604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34366035461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29161238670349</t>
   </si>
   <si>
     <t xml:space="preserve">2.30053448677063</t>
@@ -215,40 +215,40 @@
     <t xml:space="preserve">2.27227997779846</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21725702285767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15628671646118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16223478317261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2187442779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26781892776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27674126625061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38678622245789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46708917617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39868330955505</t>
+    <t xml:space="preserve">2.21725726127625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1562864780426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16223502159119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21874451637268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26781868934631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27674102783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38678646087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4670889377594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39868307113647</t>
   </si>
   <si>
     <t xml:space="preserve">2.45370531082153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49831867218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49237012863159</t>
+    <t xml:space="preserve">2.4983184337616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49237036705017</t>
   </si>
   <si>
     <t xml:space="preserve">2.44180846214294</t>
@@ -260,13 +260,13 @@
     <t xml:space="preserve">2.4730372428894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42247653007507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39422202110291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31094431877136</t>
+    <t xml:space="preserve">2.42247676849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39422178268433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31094408035278</t>
   </si>
   <si>
     <t xml:space="preserve">2.26187038421631</t>
@@ -275,22 +275,22 @@
     <t xml:space="preserve">2.23064088821411</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24848675727844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23807668685913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2559220790863</t>
+    <t xml:space="preserve">2.24848651885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23807692527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25592184066772</t>
   </si>
   <si>
     <t xml:space="preserve">2.1949508190155</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18305444717407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21279549598694</t>
+    <t xml:space="preserve">2.18305397033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2127959728241</t>
   </si>
   <si>
     <t xml:space="preserve">2.17710590362549</t>
@@ -299,28 +299,28 @@
     <t xml:space="preserve">2.22023129463196</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20387315750122</t>
+    <t xml:space="preserve">2.2038733959198</t>
   </si>
   <si>
     <t xml:space="preserve">2.19778108596802</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27850270271301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3561794757843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30744171142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33028745651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30896520614624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24194955825806</t>
+    <t xml:space="preserve">2.27850317955017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35617971420288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30744194984436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33028769493103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30896496772766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24194979667664</t>
   </si>
   <si>
     <t xml:space="preserve">2.21910381317139</t>
@@ -329,46 +329,46 @@
     <t xml:space="preserve">2.14142727851868</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09725904464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0104444026947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13076591491699</t>
+    <t xml:space="preserve">2.09725880622864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01044392585754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13076567649841</t>
   </si>
   <si>
     <t xml:space="preserve">2.07441306114197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08202815055847</t>
+    <t xml:space="preserve">2.08202838897705</t>
   </si>
   <si>
     <t xml:space="preserve">1.97236752510071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90839958190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87641417980194</t>
+    <t xml:space="preserve">1.9083993434906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87641441822052</t>
   </si>
   <si>
     <t xml:space="preserve">1.84899938106537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75913846492767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81701505184174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89621388912201</t>
+    <t xml:space="preserve">1.75913834571838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81701517105103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89621365070343</t>
   </si>
   <si>
     <t xml:space="preserve">1.94038331508636</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9068751335144</t>
+    <t xml:space="preserve">1.90687537193298</t>
   </si>
   <si>
     <t xml:space="preserve">2.02872061729431</t>
@@ -380,85 +380,85 @@
     <t xml:space="preserve">1.67689323425293</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78807699680328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77436888217926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7560920715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75304615497589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68907785415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61901640892029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63424718379974</t>
+    <t xml:space="preserve">1.78807735443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77436900138855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75609219074249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75304591655731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6890777349472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61901664733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63424694538116</t>
   </si>
   <si>
     <t xml:space="preserve">1.64033925533295</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75456917285919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79112339019775</t>
+    <t xml:space="preserve">1.75456881523132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79112362861633</t>
   </si>
   <si>
     <t xml:space="preserve">1.81549191474915</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78960049152374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86727607250214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83072245121002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84443032741547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90230631828308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89316749572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85052263736725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81853830814362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84747624397278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84138405323029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7819846868515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66470897197723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6875547170639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62967777252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74999988079071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77741515636444</t>
+    <t xml:space="preserve">1.78960025310516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86727595329285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83072257041931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8444299697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90230619907379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89316785335541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85052251815796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81853818893433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84747648239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.841383934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78198480606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66470873355865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68755459785461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62967801094055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74999976158142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77741503715515</t>
   </si>
   <si>
     <t xml:space="preserve">1.76523065567017</t>
@@ -467,13 +467,13 @@
     <t xml:space="preserve">1.80787682533264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83681452274323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82767653465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82158410549164</t>
+    <t xml:space="preserve">1.83681488037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82767641544342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82158434391022</t>
   </si>
   <si>
     <t xml:space="preserve">1.86879897117615</t>
@@ -482,58 +482,58 @@
     <t xml:space="preserve">1.82919943332672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84290719032288</t>
+    <t xml:space="preserve">1.84290683269501</t>
   </si>
   <si>
     <t xml:space="preserve">1.85509145259857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90992224216461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90535199642181</t>
+    <t xml:space="preserve">1.9099223613739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90535247325897</t>
   </si>
   <si>
     <t xml:space="preserve">1.8977370262146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89012181758881</t>
+    <t xml:space="preserve">1.89012169837952</t>
   </si>
   <si>
     <t xml:space="preserve">1.88098347187042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88859868049622</t>
+    <t xml:space="preserve">1.88859879970551</t>
   </si>
   <si>
     <t xml:space="preserve">1.86575281620026</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89469110965729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87336850166321</t>
+    <t xml:space="preserve">1.89469087123871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87336826324463</t>
   </si>
   <si>
     <t xml:space="preserve">1.85813748836517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91144502162933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9845517873764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98150563240051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94190645217896</t>
+    <t xml:space="preserve">1.91144514083862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98455190658569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98150587081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94190657138824</t>
   </si>
   <si>
     <t xml:space="preserve">1.96627521514893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97998249530792</t>
+    <t xml:space="preserve">1.9799827337265</t>
   </si>
   <si>
     <t xml:space="preserve">1.99216723442078</t>
@@ -545,49 +545,49 @@
     <t xml:space="preserve">2.11705827713013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24804186820984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25870370864868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22367334365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23433470726013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23738050460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24651908874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31505727767944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33790302276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26479554176331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14295029640198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18407368659973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15208888053894</t>
+    <t xml:space="preserve">2.24804162979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25870323181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22367310523987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23433446884155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23738074302673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24651885032654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31505703926086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33790278434753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26479601860046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14295053482056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18407392501831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15208911895752</t>
   </si>
   <si>
     <t xml:space="preserve">2.1993043422699</t>
   </si>
   <si>
-    <t xml:space="preserve">2.209965467453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26631832122803</t>
+    <t xml:space="preserve">2.20996570587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26631879806519</t>
   </si>
   <si>
     <t xml:space="preserve">2.27697992324829</t>
@@ -599,19 +599,19 @@
     <t xml:space="preserve">2.31353402137756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28459525108337</t>
+    <t xml:space="preserve">2.28459501266479</t>
   </si>
   <si>
     <t xml:space="preserve">2.22976541519165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18102741241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22519636154175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24956488609314</t>
+    <t xml:space="preserve">2.18102765083313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22519612312317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24956464767456</t>
   </si>
   <si>
     <t xml:space="preserve">2.23890376091003</t>
@@ -620,55 +620,55 @@
     <t xml:space="preserve">2.15361189842224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27545666694641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25413393974304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22062706947327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32267260551453</t>
+    <t xml:space="preserve">2.27545690536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25413417816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22062683105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32267212867737</t>
   </si>
   <si>
     <t xml:space="preserve">2.43690252304077</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54351711273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42471790313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39273309707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43385601043701</t>
+    <t xml:space="preserve">2.54351663589478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42471766471863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39273285865784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43385624885559</t>
   </si>
   <si>
     <t xml:space="preserve">2.39120984077454</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33333420753479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32419538497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3957793712616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38054823875427</t>
+    <t xml:space="preserve">2.33333373069763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32419562339783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39577913284302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38054847717285</t>
   </si>
   <si>
     <t xml:space="preserve">2.37597918510437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36227178573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38207173347473</t>
+    <t xml:space="preserve">2.36227202415466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38207197189331</t>
   </si>
   <si>
     <t xml:space="preserve">2.42624068260193</t>
@@ -683,28 +683,28 @@
     <t xml:space="preserve">2.51000881195068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50848603248596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46888661384583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46127128601074</t>
+    <t xml:space="preserve">2.50848579406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46888637542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46127104759216</t>
   </si>
   <si>
     <t xml:space="preserve">2.45974802970886</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52828550338745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52067065238953</t>
+    <t xml:space="preserve">2.52828598022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52067017555237</t>
   </si>
   <si>
     <t xml:space="preserve">2.50696277618408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57397770881653</t>
+    <t xml:space="preserve">2.57397818565369</t>
   </si>
   <si>
     <t xml:space="preserve">2.58920860290527</t>
@@ -713,10 +713,10 @@
     <t xml:space="preserve">2.62728476524353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58311629295349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58768510818481</t>
+    <t xml:space="preserve">2.58311605453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58768582344055</t>
   </si>
   <si>
     <t xml:space="preserve">2.59682393074036</t>
@@ -725,7 +725,7 @@
     <t xml:space="preserve">2.61814665794373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52219343185425</t>
+    <t xml:space="preserve">2.52219319343567</t>
   </si>
   <si>
     <t xml:space="preserve">2.50391674041748</t>
@@ -737,22 +737,22 @@
     <t xml:space="preserve">2.53285479545593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4932553768158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4445173740387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46431756019592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48868608474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5008704662323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47345542907715</t>
+    <t xml:space="preserve">2.49325513839722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44451761245728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46431732177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48868632316589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50087070465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47345566749573</t>
   </si>
   <si>
     <t xml:space="preserve">2.46279406547546</t>
@@ -761,25 +761,25 @@
     <t xml:space="preserve">2.41710233688354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28002619743347</t>
+    <t xml:space="preserve">2.28002643585205</t>
   </si>
   <si>
     <t xml:space="preserve">2.28611826896667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44756412506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38816428184509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43537902832031</t>
+    <t xml:space="preserve">2.44756388664246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38816380500793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43537926673889</t>
   </si>
   <si>
     <t xml:space="preserve">2.44147133827209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47802495956421</t>
+    <t xml:space="preserve">2.47802472114563</t>
   </si>
   <si>
     <t xml:space="preserve">2.50543975830078</t>
@@ -788,31 +788,31 @@
     <t xml:space="preserve">2.54808616638184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4947783946991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53590083122253</t>
+    <t xml:space="preserve">2.49477815628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53590106964111</t>
   </si>
   <si>
     <t xml:space="preserve">2.51610112190247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45822525024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46736335754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45060968399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48564028739929</t>
+    <t xml:space="preserve">2.45822501182556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46736359596252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45060992240906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48564004898071</t>
   </si>
   <si>
     <t xml:space="preserve">2.44604063034058</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45365595817566</t>
+    <t xml:space="preserve">2.45365571975708</t>
   </si>
   <si>
     <t xml:space="preserve">2.45670223236084</t>
@@ -821,16 +821,16 @@
     <t xml:space="preserve">2.47040963172913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52371621131897</t>
+    <t xml:space="preserve">2.52371644973755</t>
   </si>
   <si>
     <t xml:space="preserve">2.47650170326233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49782419204712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64251565933228</t>
+    <t xml:space="preserve">2.4978244304657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6425154209137</t>
   </si>
   <si>
     <t xml:space="preserve">2.60443902015686</t>
@@ -845,25 +845,25 @@
     <t xml:space="preserve">2.63946914672852</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66383838653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69582319259644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69734644889832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75217628479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7140998840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66536140441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68363904953003</t>
+    <t xml:space="preserve">2.66383814811707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69582295417786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69734621047974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75217604637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71409964561462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66536116600037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68363881111145</t>
   </si>
   <si>
     <t xml:space="preserve">2.68668484687805</t>
@@ -875,13 +875,13 @@
     <t xml:space="preserve">2.68516182899475</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73694539070129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75553250312805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82058715820312</t>
+    <t xml:space="preserve">2.73694562911987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75553226470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82058691978455</t>
   </si>
   <si>
     <t xml:space="preserve">2.84537029266357</t>
@@ -893,22 +893,22 @@
     <t xml:space="preserve">2.7493371963501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70596623420715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70906448364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6502058506012</t>
+    <t xml:space="preserve">2.70596647262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.709064245224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65020561218262</t>
   </si>
   <si>
     <t xml:space="preserve">2.70131969451904</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69357514381409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64710807800293</t>
+    <t xml:space="preserve">2.69357490539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64710783958435</t>
   </si>
   <si>
     <t xml:space="preserve">2.66724395751953</t>
@@ -920,31 +920,31 @@
     <t xml:space="preserve">2.69667291641235</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63161849975586</t>
+    <t xml:space="preserve">2.63161897659302</t>
   </si>
   <si>
     <t xml:space="preserve">2.65640139579773</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63626503944397</t>
+    <t xml:space="preserve">2.63626551628113</t>
   </si>
   <si>
     <t xml:space="preserve">2.65795016288757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63316774368286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.659499168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66569447517395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66414594650269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68737959861755</t>
+    <t xml:space="preserve">2.63316750526428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65949892997742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66569495201111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66414570808411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68737983703613</t>
   </si>
   <si>
     <t xml:space="preserve">2.71835875511169</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">2.78805947303772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74159240722656</t>
+    <t xml:space="preserve">2.74159216880798</t>
   </si>
   <si>
     <t xml:space="preserve">2.67343950271606</t>
@@ -962,31 +962,31 @@
     <t xml:space="preserve">2.7772171497345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85311460494995</t>
+    <t xml:space="preserve">2.85311484336853</t>
   </si>
   <si>
     <t xml:space="preserve">2.80045104026794</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81903767585754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80974459648132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80354905128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92126679420471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93210911750793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9166202545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90577793121338</t>
+    <t xml:space="preserve">2.81903791427612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80974435806274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80354881286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92126703262329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93210983276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91662049293518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9057776927948</t>
   </si>
   <si>
     <t xml:space="preserve">2.90732669830322</t>
@@ -995,10 +995,10 @@
     <t xml:space="preserve">2.90113091468811</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88099551200867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8778977394104</t>
+    <t xml:space="preserve">2.88099527359009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87789726257324</t>
   </si>
   <si>
     <t xml:space="preserve">2.87944626808167</t>
@@ -1007,16 +1007,16 @@
     <t xml:space="preserve">2.90422892570496</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83917379379272</t>
+    <t xml:space="preserve">2.83917355537415</t>
   </si>
   <si>
     <t xml:space="preserve">2.87015295028687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86240816116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86085915565491</t>
+    <t xml:space="preserve">2.86240839958191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86085939407349</t>
   </si>
   <si>
     <t xml:space="preserve">2.84227180480957</t>
@@ -1025,61 +1025,61 @@
     <t xml:space="preserve">2.84072256088257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85776138305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84846806526184</t>
+    <t xml:space="preserve">2.85776162147522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84846830368042</t>
   </si>
   <si>
     <t xml:space="preserve">2.83452701568604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78341269493103</t>
+    <t xml:space="preserve">2.78341317176819</t>
   </si>
   <si>
     <t xml:space="preserve">2.81129336357117</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78960871696472</t>
+    <t xml:space="preserve">2.78960847854614</t>
   </si>
   <si>
     <t xml:space="preserve">2.72610330581665</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76017928123474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70441746711731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66259694099426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68118405342102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69977068901062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69047737121582</t>
+    <t xml:space="preserve">2.76017904281616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70441770553589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66259670257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68118381500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6997709274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6904776096344</t>
   </si>
   <si>
     <t xml:space="preserve">2.69822192192078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71371126174927</t>
+    <t xml:space="preserve">2.71371102333069</t>
   </si>
   <si>
     <t xml:space="preserve">2.73384761810303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68583059310913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73229885101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72765207290649</t>
+    <t xml:space="preserve">2.68583035469055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73229908943176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72765183448792</t>
   </si>
   <si>
     <t xml:space="preserve">2.71680974960327</t>
@@ -1091,16 +1091,16 @@
     <t xml:space="preserve">2.82988023757935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8174889087677</t>
+    <t xml:space="preserve">2.81748914718628</t>
   </si>
   <si>
     <t xml:space="preserve">2.77411937713623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70286870002747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69512414932251</t>
+    <t xml:space="preserve">2.70286893844604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69512438774109</t>
   </si>
   <si>
     <t xml:space="preserve">2.67034149169922</t>
@@ -1109,10 +1109,10 @@
     <t xml:space="preserve">2.71526002883911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66879272460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64865684509277</t>
+    <t xml:space="preserve">2.66879296302795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64865660667419</t>
   </si>
   <si>
     <t xml:space="preserve">2.68273282051086</t>
@@ -1124,7 +1124,7 @@
     <t xml:space="preserve">2.67189025878906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67653727531433</t>
+    <t xml:space="preserve">2.67653703689575</t>
   </si>
   <si>
     <t xml:space="preserve">2.65485239028931</t>
@@ -1136,22 +1136,22 @@
     <t xml:space="preserve">2.62387418746948</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57895469665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63006949424744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58205270767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45968866348267</t>
+    <t xml:space="preserve">2.57895493507385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63006973266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58205246925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45968890190125</t>
   </si>
   <si>
     <t xml:space="preserve">2.40702486038208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44419836997986</t>
+    <t xml:space="preserve">2.44419884681702</t>
   </si>
   <si>
     <t xml:space="preserve">2.34042143821716</t>
@@ -1160,13 +1160,13 @@
     <t xml:space="preserve">2.35436201095581</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37914419174194</t>
+    <t xml:space="preserve">2.37914443016052</t>
   </si>
   <si>
     <t xml:space="preserve">2.42406296730042</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44729661941528</t>
+    <t xml:space="preserve">2.4472963809967</t>
   </si>
   <si>
     <t xml:space="preserve">2.44884538650513</t>
@@ -1178,46 +1178,46 @@
     <t xml:space="preserve">2.5154492855072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54797649383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58670043945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50925350189209</t>
+    <t xml:space="preserve">2.54797673225403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58670020103455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50925397872925</t>
   </si>
   <si>
     <t xml:space="preserve">2.52474308013916</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52784109115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50770497322083</t>
+    <t xml:space="preserve">2.52784085273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50770473480225</t>
   </si>
   <si>
     <t xml:space="preserve">2.54642772674561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56346607208252</t>
+    <t xml:space="preserve">2.56346559524536</t>
   </si>
   <si>
     <t xml:space="preserve">2.5712103843689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57740616798401</t>
+    <t xml:space="preserve">2.57740592956543</t>
   </si>
   <si>
     <t xml:space="preserve">2.50305819511414</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4565896987915</t>
+    <t xml:space="preserve">2.45658993721008</t>
   </si>
   <si>
     <t xml:space="preserve">2.36210632324219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39928030967712</t>
+    <t xml:space="preserve">2.39928007125854</t>
   </si>
   <si>
     <t xml:space="preserve">2.3977313041687</t>
@@ -1226,40 +1226,40 @@
     <t xml:space="preserve">2.39308452606201</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33887267112732</t>
+    <t xml:space="preserve">2.3388729095459</t>
   </si>
   <si>
     <t xml:space="preserve">2.37604665756226</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40547561645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3574595451355</t>
+    <t xml:space="preserve">2.40547585487366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35745930671692</t>
   </si>
   <si>
     <t xml:space="preserve">2.38533997535706</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44574785232544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47827577590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.475177526474</t>
+    <t xml:space="preserve">2.44574761390686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47827529907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47517776489258</t>
   </si>
   <si>
     <t xml:space="preserve">2.55881881713867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55726981163025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51390075683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51235175132751</t>
+    <t xml:space="preserve">2.55727028846741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51390051841736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51235151290894</t>
   </si>
   <si>
     <t xml:space="preserve">2.53403639793396</t>
@@ -1268,28 +1268,28 @@
     <t xml:space="preserve">2.56501460075378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57430839538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57585716247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49376487731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5169985294342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49996066093445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47672653198242</t>
+    <t xml:space="preserve">2.57430815696716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57585740089417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49376463890076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51699829101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49996018409729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.476726770401</t>
   </si>
   <si>
     <t xml:space="preserve">2.38843774795532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47982406616211</t>
+    <t xml:space="preserve">2.47982454299927</t>
   </si>
   <si>
     <t xml:space="preserve">2.46743321418762</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">2.47207999229431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5417811870575</t>
+    <t xml:space="preserve">2.54178094863892</t>
   </si>
   <si>
     <t xml:space="preserve">2.60218930244446</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">2.53248739242554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48137331008911</t>
+    <t xml:space="preserve">2.48137354850769</t>
   </si>
   <si>
     <t xml:space="preserve">2.52164506912231</t>
@@ -1319,19 +1319,19 @@
     <t xml:space="preserve">2.43955183029175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49531364440918</t>
+    <t xml:space="preserve">2.49531316757202</t>
   </si>
   <si>
     <t xml:space="preserve">2.47053098678589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46433544158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54332971572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49686217308044</t>
+    <t xml:space="preserve">2.46433520317078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54332995414734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49686241149902</t>
   </si>
   <si>
     <t xml:space="preserve">2.49221587181091</t>
@@ -1340,19 +1340,19 @@
     <t xml:space="preserve">2.56811261177063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56966137886047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55572104454041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78651070594788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91352248191833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90268015861511</t>
+    <t xml:space="preserve">2.56966161727905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55572128295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78651094436646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91352224349976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90267968177795</t>
   </si>
   <si>
     <t xml:space="preserve">2.95069622993469</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">2.97547960281372</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05137658119202</t>
+    <t xml:space="preserve">3.05137634277344</t>
   </si>
   <si>
     <t xml:space="preserve">3.04363203048706</t>
@@ -1376,40 +1376,40 @@
     <t xml:space="preserve">3.10713815689087</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03124070167542</t>
+    <t xml:space="preserve">3.03124046325684</t>
   </si>
   <si>
     <t xml:space="preserve">2.9259135723114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98477292060852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95224547386169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02659392356873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00645780563354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03898501396179</t>
+    <t xml:space="preserve">2.9847731590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95224499702454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02659368515015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00645804405212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03898525238037</t>
   </si>
   <si>
     <t xml:space="preserve">2.94295167922974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93365836143494</t>
+    <t xml:space="preserve">2.93365859985352</t>
   </si>
   <si>
     <t xml:space="preserve">2.82213568687439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85056257247925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83950757980347</t>
+    <t xml:space="preserve">2.85056233406067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83950781822205</t>
   </si>
   <si>
     <t xml:space="preserve">2.90583682060242</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">2.89636063575745</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81897759437561</t>
+    <t xml:space="preserve">2.81897711753845</t>
   </si>
   <si>
     <t xml:space="preserve">2.70842885971069</t>
@@ -1427,10 +1427,10 @@
     <t xml:space="preserve">2.65947246551514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7021119594574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74791026115417</t>
+    <t xml:space="preserve">2.70211172103882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74791049957275</t>
   </si>
   <si>
     <t xml:space="preserve">2.79686784744263</t>
@@ -1439,13 +1439,13 @@
     <t xml:space="preserve">2.76054430007935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69895362854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77633738517761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80476427078247</t>
+    <t xml:space="preserve">2.69895339012146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77633762359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80476403236389</t>
   </si>
   <si>
     <t xml:space="preserve">2.7747585773468</t>
@@ -1454,10 +1454,10 @@
     <t xml:space="preserve">2.7305383682251</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74317264556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73843479156494</t>
+    <t xml:space="preserve">2.74317288398743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73843455314636</t>
   </si>
   <si>
     <t xml:space="preserve">2.72738003730774</t>
@@ -1472,16 +1472,16 @@
     <t xml:space="preserve">2.68947815895081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71790432929993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72264242172241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84266591072083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84898281097412</t>
+    <t xml:space="preserve">2.71790456771851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72264218330383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84266638755798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8489830493927</t>
   </si>
   <si>
     <t xml:space="preserve">2.89793992042542</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">2.84740376472473</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80634331703186</t>
+    <t xml:space="preserve">2.80634355545044</t>
   </si>
   <si>
     <t xml:space="preserve">2.820556640625</t>
@@ -1502,16 +1502,16 @@
     <t xml:space="preserve">2.8379282951355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83161115646362</t>
+    <t xml:space="preserve">2.8316113948822</t>
   </si>
   <si>
     <t xml:space="preserve">2.855299949646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83319091796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82687377929688</t>
+    <t xml:space="preserve">2.83319067955017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8268735408783</t>
   </si>
   <si>
     <t xml:space="preserve">2.85372090339661</t>
@@ -1529,10 +1529,10 @@
     <t xml:space="preserve">2.92794632911682</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98006129264832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8995189666748</t>
+    <t xml:space="preserve">2.98006153106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89951920509338</t>
   </si>
   <si>
     <t xml:space="preserve">2.88372659683228</t>
@@ -1544,13 +1544,13 @@
     <t xml:space="preserve">2.86793398857117</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83476972579956</t>
+    <t xml:space="preserve">2.83477020263672</t>
   </si>
   <si>
     <t xml:space="preserve">2.83003187179565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7589647769928</t>
+    <t xml:space="preserve">2.75896525382996</t>
   </si>
   <si>
     <t xml:space="preserve">2.80002641677856</t>
@@ -1559,28 +1559,28 @@
     <t xml:space="preserve">2.79528856277466</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77317881584167</t>
+    <t xml:space="preserve">2.77317905426025</t>
   </si>
   <si>
     <t xml:space="preserve">2.76528191566467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71632528305054</t>
+    <t xml:space="preserve">2.71632504463196</t>
   </si>
   <si>
     <t xml:space="preserve">2.66578936576843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64841747283936</t>
+    <t xml:space="preserve">2.64841771125793</t>
   </si>
   <si>
     <t xml:space="preserve">2.68000245094299</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74633097648621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86161684989929</t>
+    <t xml:space="preserve">2.74633121490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86161708831787</t>
   </si>
   <si>
     <t xml:space="preserve">2.86477565765381</t>
@@ -1592,16 +1592,16 @@
     <t xml:space="preserve">2.87583041191101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85214161872864</t>
+    <t xml:space="preserve">2.85214114189148</t>
   </si>
   <si>
     <t xml:space="preserve">2.81108117103577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81739783287048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82529449462891</t>
+    <t xml:space="preserve">2.81739807128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82529425621033</t>
   </si>
   <si>
     <t xml:space="preserve">2.80792236328125</t>
@@ -1610,25 +1610,25 @@
     <t xml:space="preserve">2.59472227096558</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59156370162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53471064567566</t>
+    <t xml:space="preserve">2.59156394004822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53471088409424</t>
   </si>
   <si>
     <t xml:space="preserve">2.559978723526</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58524680137634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50312471389771</t>
+    <t xml:space="preserve">2.58524703979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50312495231628</t>
   </si>
   <si>
     <t xml:space="preserve">2.40679097175598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3894190788269</t>
+    <t xml:space="preserve">2.38941884040833</t>
   </si>
   <si>
     <t xml:space="preserve">2.38783979415894</t>
@@ -1640,13 +1640,13 @@
     <t xml:space="preserve">2.33572387695312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31045579910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35941243171692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34993696212769</t>
+    <t xml:space="preserve">2.31045603752136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3594126701355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34993720054626</t>
   </si>
   <si>
     <t xml:space="preserve">2.29150462150574</t>
@@ -1655,13 +1655,13 @@
     <t xml:space="preserve">2.26465749740601</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23623037338257</t>
+    <t xml:space="preserve">2.23623013496399</t>
   </si>
   <si>
     <t xml:space="preserve">2.18727350234985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15252995491028</t>
+    <t xml:space="preserve">2.15253019332886</t>
   </si>
   <si>
     <t xml:space="preserve">2.19832825660706</t>
@@ -1673,13 +1673,13 @@
     <t xml:space="preserve">2.20464515686035</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20148658752441</t>
+    <t xml:space="preserve">2.20148682594299</t>
   </si>
   <si>
     <t xml:space="preserve">2.2425479888916</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2883460521698</t>
+    <t xml:space="preserve">2.28834629058838</t>
   </si>
   <si>
     <t xml:space="preserve">2.26781582832336</t>
@@ -1694,7 +1694,7 @@
     <t xml:space="preserve">2.25044417381287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23938894271851</t>
+    <t xml:space="preserve">2.23938870429993</t>
   </si>
   <si>
     <t xml:space="preserve">2.19516968727112</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">2.21569991111755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19674873352051</t>
+    <t xml:space="preserve">2.19674897193909</t>
   </si>
   <si>
     <t xml:space="preserve">2.19359040260315</t>
@@ -1715,10 +1715,10 @@
     <t xml:space="preserve">2.16358494758606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11462783813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12094497680664</t>
+    <t xml:space="preserve">2.11462807655334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12094521522522</t>
   </si>
   <si>
     <t xml:space="preserve">2.10199332237244</t>
@@ -1727,13 +1727,13 @@
     <t xml:space="preserve">2.12568259239197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2283341884613</t>
+    <t xml:space="preserve">2.22833395004272</t>
   </si>
   <si>
     <t xml:space="preserve">2.21096205711365</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22675466537476</t>
+    <t xml:space="preserve">2.22675442695618</t>
   </si>
   <si>
     <t xml:space="preserve">2.19201135635376</t>
@@ -1748,97 +1748,97 @@
     <t xml:space="preserve">2.09567618370056</t>
   </si>
   <si>
-    <t xml:space="preserve">2.124103307724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08304190635681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07514572143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10673069953918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10831046104431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02776861190796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12252426147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05145716667175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00881767272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00723814964294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07830476760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06409120559692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1351580619812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1462128162384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13673758506775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13357925415039</t>
+    <t xml:space="preserve">2.12410354614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08304214477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07514595985413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10673093795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10831022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02776885032654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12252402305603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05145692825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00881743431091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00723838806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07830452919006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0640914440155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13515830039978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14621305465698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13673734664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13357877731323</t>
   </si>
   <si>
     <t xml:space="preserve">2.0877799987793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02303099632263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00565886497498</t>
+    <t xml:space="preserve">2.02303075790405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00565934181213</t>
   </si>
   <si>
     <t xml:space="preserve">2.05619502067566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02934765815735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.997762799263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98512887954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96933555603027</t>
+    <t xml:space="preserve">2.02934789657593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99776244163513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98512876033783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96933531761169</t>
   </si>
   <si>
     <t xml:space="preserve">2.01987218856812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98354923725128</t>
+    <t xml:space="preserve">1.98354935646057</t>
   </si>
   <si>
     <t xml:space="preserve">1.95512223243713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90932404994965</t>
+    <t xml:space="preserve">1.90932393074036</t>
   </si>
   <si>
     <t xml:space="preserve">1.83825695514679</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81614744663239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8319399356842</t>
+    <t xml:space="preserve">1.8161473274231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83193969726562</t>
   </si>
   <si>
     <t xml:space="preserve">1.85562968254089</t>
@@ -1850,13 +1850,13 @@
     <t xml:space="preserve">1.88879370689392</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88721454143524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91406202316284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93459165096283</t>
+    <t xml:space="preserve">1.88721430301666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91406190395355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93459177017212</t>
   </si>
   <si>
     <t xml:space="preserve">1.96459782123566</t>
@@ -1865,103 +1865,103 @@
     <t xml:space="preserve">2.01039671897888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00250053405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97723174095154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97091472148895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96301829814911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97407305240631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96775603294373</t>
+    <t xml:space="preserve">2.0025007724762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97723150253296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97091448307037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9630184173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9740731716156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96775591373444</t>
   </si>
   <si>
     <t xml:space="preserve">2.03250622749329</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02460980415344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01671361923218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04671955108643</t>
+    <t xml:space="preserve">2.02461004257202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01671385765076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04671907424927</t>
   </si>
   <si>
     <t xml:space="preserve">2.00407958030701</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93143343925476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93301284313202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91879975795746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88089752197266</t>
+    <t xml:space="preserve">1.93143332004547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93301260471344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91879940032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88089764118195</t>
   </si>
   <si>
     <t xml:space="preserve">1.94248831272125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9409087896347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96617686748505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92353713512421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90142786502838</t>
+    <t xml:space="preserve">1.94090890884399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96617674827576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9235372543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90142750740051</t>
   </si>
   <si>
     <t xml:space="preserve">1.93775057792664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92669546604156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92511665821075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93617105484009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90774488449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8793181180954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83509838581085</t>
+    <t xml:space="preserve">1.92669558525085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92511641979218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93617141246796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90774476528168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87931823730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83509826660156</t>
   </si>
   <si>
     <t xml:space="preserve">1.82878148555756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86984264850616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89037275314331</t>
+    <t xml:space="preserve">1.86984276771545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89037263393402</t>
   </si>
   <si>
     <t xml:space="preserve">1.89826893806458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90458583831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91564083099365</t>
+    <t xml:space="preserve">1.90458607673645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91564106941223</t>
   </si>
   <si>
     <t xml:space="preserve">1.87300109863281</t>
@@ -1970,19 +1970,19 @@
     <t xml:space="preserve">1.78456234931946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79877555370331</t>
+    <t xml:space="preserve">1.7987756729126</t>
   </si>
   <si>
     <t xml:space="preserve">1.72613024711609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69138598442078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.645587682724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66927635669708</t>
+    <t xml:space="preserve">1.69138586521149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64558780193329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66927623748779</t>
   </si>
   <si>
     <t xml:space="preserve">1.65190470218658</t>
@@ -1991,22 +1991,22 @@
     <t xml:space="preserve">1.64381504058838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64543306827545</t>
+    <t xml:space="preserve">1.64543294906616</t>
   </si>
   <si>
     <t xml:space="preserve">1.67617356777191</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65352272987366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66646599769592</t>
+    <t xml:space="preserve">1.65352261066437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66646575927734</t>
   </si>
   <si>
     <t xml:space="preserve">1.64866888523102</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65514063835144</t>
+    <t xml:space="preserve">1.65514051914215</t>
   </si>
   <si>
     <t xml:space="preserve">1.71985733509064</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">1.69720637798309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67940938472748</t>
+    <t xml:space="preserve">1.67940926551819</t>
   </si>
   <si>
     <t xml:space="preserve">1.68102717399597</t>
@@ -2030,28 +2030,28 @@
     <t xml:space="preserve">1.62763595581055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63572537899017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57667076587677</t>
+    <t xml:space="preserve">1.63572549819946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57667064666748</t>
   </si>
   <si>
     <t xml:space="preserve">1.5750527381897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57586169242859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55482876300812</t>
+    <t xml:space="preserve">1.57586181163788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55482888221741</t>
   </si>
   <si>
     <t xml:space="preserve">1.57343482971191</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60013043880463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58961403369904</t>
+    <t xml:space="preserve">1.60013055801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58961391448975</t>
   </si>
   <si>
     <t xml:space="preserve">1.60741102695465</t>
@@ -2063,10 +2063,10 @@
     <t xml:space="preserve">1.57262587547302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59608578681946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58799612522125</t>
+    <t xml:space="preserve">1.59608566761017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58799624443054</t>
   </si>
   <si>
     <t xml:space="preserve">1.58637821674347</t>
@@ -2075,16 +2075,16 @@
     <t xml:space="preserve">1.6421971321106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68749892711639</t>
+    <t xml:space="preserve">1.6874988079071</t>
   </si>
   <si>
     <t xml:space="preserve">1.67455542087555</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63410770893097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6114559173584</t>
+    <t xml:space="preserve">1.63410758972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61145579814911</t>
   </si>
   <si>
     <t xml:space="preserve">1.57828855514526</t>
@@ -2096,46 +2096,46 @@
     <t xml:space="preserve">1.55240190029144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55725562572479</t>
+    <t xml:space="preserve">1.55725574493408</t>
   </si>
   <si>
     <t xml:space="preserve">1.57100796699524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55321085453033</t>
+    <t xml:space="preserve">1.55321097373962</t>
   </si>
   <si>
     <t xml:space="preserve">1.54916596412659</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54026746749878</t>
+    <t xml:space="preserve">1.54026758670807</t>
   </si>
   <si>
     <t xml:space="preserve">1.52408838272095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52166140079498</t>
+    <t xml:space="preserve">1.52166152000427</t>
   </si>
   <si>
     <t xml:space="preserve">1.52894198894501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51761662960052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50710010528564</t>
+    <t xml:space="preserve">1.51761674880981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50710022449493</t>
   </si>
   <si>
     <t xml:space="preserve">1.50062847137451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49011206626892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48525750637054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37523901462555</t>
+    <t xml:space="preserve">1.49011194705963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48525738716125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37523889541626</t>
   </si>
   <si>
     <t xml:space="preserve">1.34287989139557</t>
@@ -2147,7 +2147,7 @@
     <t xml:space="preserve">1.286252617836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32427382469177</t>
+    <t xml:space="preserve">1.32427370548248</t>
   </si>
   <si>
     <t xml:space="preserve">1.3420706987381</t>
@@ -2156,19 +2156,19 @@
     <t xml:space="preserve">1.30890345573425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31861102581024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36795830726624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35663282871246</t>
+    <t xml:space="preserve">1.31861090660095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36795842647552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35663294792175</t>
   </si>
   <si>
     <t xml:space="preserve">1.36714935302734</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4075973033905</t>
+    <t xml:space="preserve">1.40759742259979</t>
   </si>
   <si>
     <t xml:space="preserve">1.3614866733551</t>
@@ -2177,31 +2177,31 @@
     <t xml:space="preserve">1.37362098693848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37928378582001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45451688766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48202157020569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47231411933899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44885420799255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5103360414505</t>
+    <t xml:space="preserve">1.37928366661072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45451700687408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48202168941498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4723140001297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44885432720184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51033592224121</t>
   </si>
   <si>
     <t xml:space="preserve">1.49820160865784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46422445774078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44723629951477</t>
+    <t xml:space="preserve">1.46422457695007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44723641872406</t>
   </si>
   <si>
     <t xml:space="preserve">1.45613491535187</t>
@@ -2210,19 +2210,19 @@
     <t xml:space="preserve">1.46179747581482</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43267512321472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39546287059784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38171076774597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35097014904022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35905981063843</t>
+    <t xml:space="preserve">1.43267500400543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39546298980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38171064853668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35097026824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35905969142914</t>
   </si>
   <si>
     <t xml:space="preserve">1.34449768066406</t>
@@ -2240,34 +2240,34 @@
     <t xml:space="preserve">1.34368872642517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35986864566803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37281203269958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39708089828491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43186604976654</t>
+    <t xml:space="preserve">1.35986876487732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37281215190887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3970810174942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43186616897583</t>
   </si>
   <si>
     <t xml:space="preserve">1.45775270462036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48768520355225</t>
+    <t xml:space="preserve">1.48768508434296</t>
   </si>
   <si>
     <t xml:space="preserve">1.4812126159668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44804549217224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45370805263519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45856177806854</t>
+    <t xml:space="preserve">1.44804537296295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4537079334259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45856189727783</t>
   </si>
   <si>
     <t xml:space="preserve">1.45937085151672</t>
@@ -2279,7 +2279,7 @@
     <t xml:space="preserve">1.46503353118896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52651512622833</t>
+    <t xml:space="preserve">1.52651524543762</t>
   </si>
   <si>
     <t xml:space="preserve">1.51842558383942</t>
@@ -2288,94 +2288,94 @@
     <t xml:space="preserve">1.53541374206543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50548219680786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53703165054321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74574398994446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69558846950531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69073486328125</t>
+    <t xml:space="preserve">1.50548243522644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53703153133392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74574387073517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69558835029602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69073474407196</t>
   </si>
   <si>
     <t xml:space="preserve">1.69397056102753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65675842761993</t>
+    <t xml:space="preserve">1.65675854682922</t>
   </si>
   <si>
     <t xml:space="preserve">1.64705097675323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63087165355682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66323006153107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71662127971649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74736189842224</t>
+    <t xml:space="preserve">1.63087177276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66323018074036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71662139892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74736177921295</t>
   </si>
   <si>
     <t xml:space="preserve">1.71500360965729</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73603665828705</t>
+    <t xml:space="preserve">1.73603653907776</t>
   </si>
   <si>
     <t xml:space="preserve">1.65999412536621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68426311016083</t>
+    <t xml:space="preserve">1.68426322937012</t>
   </si>
   <si>
     <t xml:space="preserve">1.72632884979248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75868821144104</t>
+    <t xml:space="preserve">1.75868809223175</t>
   </si>
   <si>
     <t xml:space="preserve">1.72794687747955</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73280072212219</t>
+    <t xml:space="preserve">1.73280048370361</t>
   </si>
   <si>
     <t xml:space="preserve">1.7052960395813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70044231414795</t>
+    <t xml:space="preserve">1.70044219493866</t>
   </si>
   <si>
     <t xml:space="preserve">1.73441863059998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69235265254974</t>
+    <t xml:space="preserve">1.69235277175903</t>
   </si>
   <si>
     <t xml:space="preserve">1.67131972312927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66970181465149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71176767349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71823942661285</t>
+    <t xml:space="preserve">1.66970193386078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71176755428314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71823930740356</t>
   </si>
   <si>
     <t xml:space="preserve">1.69882440567017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7133857011795</t>
+    <t xml:space="preserve">1.71338558197021</t>
   </si>
   <si>
     <t xml:space="preserve">1.71014976501465</t>
@@ -2384,10 +2384,10 @@
     <t xml:space="preserve">1.70367801189423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63896143436432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62116420269012</t>
+    <t xml:space="preserve">1.63896155357361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62116408348083</t>
   </si>
   <si>
     <t xml:space="preserve">1.61711871623993</t>
@@ -2396,46 +2396,46 @@
     <t xml:space="preserve">1.6324896812439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65028667449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75545144081116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88488566875458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93504202365875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91077303886414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97063612937927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17449593544006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21656179428101</t>
+    <t xml:space="preserve">1.6502867937088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75545156002045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88488602638245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93504214286804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91077327728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97063636779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17449545860291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21656155586243</t>
   </si>
   <si>
     <t xml:space="preserve">2.08712720870972</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02564549446106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90591979026794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89944767951965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94636762142181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82987654209137</t>
+    <t xml:space="preserve">2.02564573287964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90591955184937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89944779872894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9463677406311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82987666130066</t>
   </si>
   <si>
     <t xml:space="preserve">1.58556914329529</t>
@@ -2450,31 +2450,31 @@
     <t xml:space="preserve">1.32912743091583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28463470935822</t>
+    <t xml:space="preserve">1.2846348285675</t>
   </si>
   <si>
     <t xml:space="preserve">1.26845562458038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02819311618805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06621408462524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984509289264679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01282274723053</t>
+    <t xml:space="preserve">1.02819299697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06621420383453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984509229660034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01282286643982</t>
   </si>
   <si>
     <t xml:space="preserve">1.03142881393433</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0912926197052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11798822879791</t>
+    <t xml:space="preserve">1.09129250049591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1179883480072</t>
   </si>
   <si>
     <t xml:space="preserve">1.06136035919189</t>
@@ -2489,22 +2489,22 @@
     <t xml:space="preserve">1.14387500286102</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0921014547348</t>
+    <t xml:space="preserve">1.09210157394409</t>
   </si>
   <si>
     <t xml:space="preserve">1.07106781005859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11556148529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10019111633301</t>
+    <t xml:space="preserve">1.11556136608124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1001912355423</t>
   </si>
   <si>
     <t xml:space="preserve">1.18513190746307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13254964351654</t>
+    <t xml:space="preserve">1.13254940509796</t>
   </si>
   <si>
     <t xml:space="preserve">1.19403040409088</t>
@@ -2513,52 +2513,52 @@
     <t xml:space="preserve">1.21991789340973</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28787052631378</t>
+    <t xml:space="preserve">1.28787064552307</t>
   </si>
   <si>
     <t xml:space="preserve">1.25065851211548</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24904048442841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16490793228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14306592941284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17218863964081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13902127742767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17299747467041</t>
+    <t xml:space="preserve">1.24904036521912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1649078130722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14306604862213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17218852043152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13902115821838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17299735546112</t>
   </si>
   <si>
     <t xml:space="preserve">1.15520036220551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15924525260925</t>
+    <t xml:space="preserve">1.15924513339996</t>
   </si>
   <si>
     <t xml:space="preserve">1.15115559101105</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16409885883331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17057073116302</t>
+    <t xml:space="preserve">1.16409909725189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17057085037231</t>
   </si>
   <si>
     <t xml:space="preserve">1.11151659488678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14953780174255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12445986270905</t>
+    <t xml:space="preserve">1.14953768253326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12445998191833</t>
   </si>
   <si>
     <t xml:space="preserve">1.1090897321701</t>
@@ -2567,10 +2567,10 @@
     <t xml:space="preserve">1.11879730224609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11717927455902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08401203155518</t>
+    <t xml:space="preserve">1.11717939376831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08401215076447</t>
   </si>
   <si>
     <t xml:space="preserve">1.05569756031036</t>
@@ -2579,37 +2579,37 @@
     <t xml:space="preserve">1.03951847553253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05974233150482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01039600372314</t>
+    <t xml:space="preserve">1.05974245071411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01039588451385</t>
   </si>
   <si>
     <t xml:space="preserve">0.99259877204895</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986935973167419</t>
+    <t xml:space="preserve">0.986936032772064</t>
   </si>
   <si>
     <t xml:space="preserve">0.978846490383148</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05650651454926</t>
+    <t xml:space="preserve">1.05650639533997</t>
   </si>
   <si>
     <t xml:space="preserve">1.06864094734192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13416743278503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17542433738708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18108701705933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21506333351135</t>
+    <t xml:space="preserve">1.13416755199432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17542445659637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18108713626862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21506345272064</t>
   </si>
   <si>
     <t xml:space="preserve">1.26602864265442</t>
@@ -2618,19 +2618,19 @@
     <t xml:space="preserve">1.30162286758423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32750952243805</t>
+    <t xml:space="preserve">1.32750964164734</t>
   </si>
   <si>
     <t xml:space="preserve">1.28544366359711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27411818504333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22962558269501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25146734714508</t>
+    <t xml:space="preserve">1.27411830425262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22962546348572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25146746635437</t>
   </si>
   <si>
     <t xml:space="preserve">1.27169132232666</t>
@@ -2639,16 +2639,16 @@
     <t xml:space="preserve">1.24499571323395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27816307544708</t>
+    <t xml:space="preserve">1.27816295623779</t>
   </si>
   <si>
     <t xml:space="preserve">1.25389432907104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33479011058807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38494646549225</t>
+    <t xml:space="preserve">1.33479022979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38494658470154</t>
   </si>
   <si>
     <t xml:space="preserve">1.46017968654633</t>
@@ -2660,37 +2660,37 @@
     <t xml:space="preserve">1.51195394992828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4933477640152</t>
+    <t xml:space="preserve">1.49334788322449</t>
   </si>
   <si>
     <t xml:space="preserve">1.49901056289673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5014374256134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50305545330048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51680767536163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59932160377502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55159282684326</t>
+    <t xml:space="preserve">1.50143754482269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50305533409119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51680755615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59932148456573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55159294605255</t>
   </si>
   <si>
     <t xml:space="preserve">1.59365880489349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58152437210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56939017772675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49577474594116</t>
+    <t xml:space="preserve">1.58152449131012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56939005851746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49577462673187</t>
   </si>
   <si>
     <t xml:space="preserve">1.47474098205566</t>
@@ -2708,10 +2708,10 @@
     <t xml:space="preserve">1.54835712909698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57990646362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59042310714722</t>
+    <t xml:space="preserve">1.57990658283234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59042298793793</t>
   </si>
   <si>
     <t xml:space="preserve">1.66161227226257</t>
@@ -2723,31 +2723,31 @@
     <t xml:space="preserve">1.47716784477234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47635877132416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43995571136475</t>
+    <t xml:space="preserve">1.47635889053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43995559215546</t>
   </si>
   <si>
     <t xml:space="preserve">1.46988725662231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49415671825409</t>
+    <t xml:space="preserve">1.49415683746338</t>
   </si>
   <si>
     <t xml:space="preserve">1.47797691822052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48687613010406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49173009395599</t>
+    <t xml:space="preserve">1.48687624931335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49172985553741</t>
   </si>
   <si>
     <t xml:space="preserve">1.41568696498871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41245114803314</t>
+    <t xml:space="preserve">1.41245102882385</t>
   </si>
   <si>
     <t xml:space="preserve">1.43914663791656</t>
@@ -2756,19 +2756,19 @@
     <t xml:space="preserve">1.39303612709045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41811382770538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42943942546844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49739277362823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46746027469635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48040366172791</t>
+    <t xml:space="preserve">1.41811394691467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42943930625916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49739265441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46746039390564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48040354251862</t>
   </si>
   <si>
     <t xml:space="preserve">1.43591094017029</t>
@@ -2777,52 +2777,52 @@
     <t xml:space="preserve">1.45128118991852</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41164219379425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42701244354248</t>
+    <t xml:space="preserve">1.41164207458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42701232433319</t>
   </si>
   <si>
     <t xml:space="preserve">1.43105721473694</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36472260951996</t>
+    <t xml:space="preserve">1.36472249031067</t>
   </si>
   <si>
     <t xml:space="preserve">1.35501503944397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31213915348053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32993650436401</t>
+    <t xml:space="preserve">1.31213939189911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32993638515472</t>
   </si>
   <si>
     <t xml:space="preserve">1.19726634025574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18674981594086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21910893917084</t>
+    <t xml:space="preserve">1.18674993515015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21910905838013</t>
   </si>
   <si>
     <t xml:space="preserve">1.31456625461578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33074522018433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32670068740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31618404388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54512131214142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53460466861725</t>
+    <t xml:space="preserve">1.33074533939362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32670056819916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31618416309357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54512119293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53460490703583</t>
   </si>
   <si>
     <t xml:space="preserve">1.60983800888062</t>
@@ -2831,7 +2831,7 @@
     <t xml:space="preserve">1.66484808921814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94151389598846</t>
+    <t xml:space="preserve">1.94151365756989</t>
   </si>
   <si>
     <t xml:space="preserve">1.90915548801422</t>
@@ -2843,58 +2843,58 @@
     <t xml:space="preserve">1.88326787948608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81369733810425</t>
+    <t xml:space="preserve">1.81369721889496</t>
   </si>
   <si>
     <t xml:space="preserve">1.84443795681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80560767650604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82340478897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82502281665802</t>
+    <t xml:space="preserve">1.80560791492462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82340490818024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82502269744873</t>
   </si>
   <si>
     <t xml:space="preserve">1.8541454076767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85090970993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82016897201538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78781080245972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78133881092072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7991361618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77972114086151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79590034484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76192402839661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73118269443512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7522155046463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77648532390594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78457498550415</t>
+    <t xml:space="preserve">1.85090959072113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82016885280609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78781068325043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78133904933929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79913592338562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77972090244293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79590022563934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76192390918732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73118281364441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75221574306488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77648520469666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78457486629486</t>
   </si>
   <si>
     <t xml:space="preserve">1.78295683860779</t>
@@ -2903,13 +2903,13 @@
     <t xml:space="preserve">1.86870670318604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90430152416229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88164985179901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84281980991364</t>
+    <t xml:space="preserve">1.90430164337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8816499710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84281992912292</t>
   </si>
   <si>
     <t xml:space="preserve">1.86061692237854</t>
@@ -2918,13 +2918,13 @@
     <t xml:space="preserve">1.81531536579132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77001345157623</t>
+    <t xml:space="preserve">1.77001368999481</t>
   </si>
   <si>
     <t xml:space="preserve">1.79428243637085</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77163147926331</t>
+    <t xml:space="preserve">1.7716315984726</t>
   </si>
   <si>
     <t xml:space="preserve">1.75383353233337</t>
@@ -2933,19 +2933,19 @@
     <t xml:space="preserve">1.68264496326447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70853197574615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73765432834625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87194228172302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02079200744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99005150794983</t>
+    <t xml:space="preserve">1.70853185653687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73765444755554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87194240093231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02079176902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99005138874054</t>
   </si>
   <si>
     <t xml:space="preserve">2.01432013511658</t>
@@ -2954,40 +2954,40 @@
     <t xml:space="preserve">2.00137686729431</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98681557178497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02402758598328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98196148872375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9382780790329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96092903614044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95122098922729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94798541069031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95607495307922</t>
+    <t xml:space="preserve">1.98681545257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02402782440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98196160793304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93827795982361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96092891693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95122122764587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9479855298996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95607507228851</t>
   </si>
   <si>
     <t xml:space="preserve">1.93665981292725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9301882982254</t>
+    <t xml:space="preserve">1.93018817901611</t>
   </si>
   <si>
     <t xml:space="preserve">1.97710776329041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96578252315521</t>
+    <t xml:space="preserve">1.96578228473663</t>
   </si>
   <si>
     <t xml:space="preserve">1.9576929807663</t>
@@ -2999,25 +2999,25 @@
     <t xml:space="preserve">1.99652290344238</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06447672843933</t>
+    <t xml:space="preserve">2.06447649002075</t>
   </si>
   <si>
     <t xml:space="preserve">2.12110352516174</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20038223266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28936791419983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33628821372986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3055477142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28127837181091</t>
+    <t xml:space="preserve">2.20038247108459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28936767578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33628845214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30554795265198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28127813339233</t>
   </si>
   <si>
     <t xml:space="preserve">2.25700950622559</t>
@@ -3029,16 +3029,16 @@
     <t xml:space="preserve">2.28775000572205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29098582267761</t>
+    <t xml:space="preserve">2.29098606109619</t>
   </si>
   <si>
     <t xml:space="preserve">2.38320779800415</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31040167808533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34599590301514</t>
+    <t xml:space="preserve">2.31040191650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34599566459656</t>
   </si>
   <si>
     <t xml:space="preserve">2.34276008605957</t>
@@ -3047,10 +3047,10 @@
     <t xml:space="preserve">2.32334494590759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32496309280396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39453339576721</t>
+    <t xml:space="preserve">2.32496285438538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39453315734863</t>
   </si>
   <si>
     <t xml:space="preserve">2.40747666358948</t>
@@ -3059,25 +3059,25 @@
     <t xml:space="preserve">2.43174624443054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46572256088257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39615106582642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40585899353027</t>
+    <t xml:space="preserve">2.46572279930115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.396151304245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40585875511169</t>
   </si>
   <si>
     <t xml:space="preserve">2.40909481048584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53852915763855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57088804244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65825581550598</t>
+    <t xml:space="preserve">2.53852891921997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57088828086853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6582555770874</t>
   </si>
   <si>
     <t xml:space="preserve">2.73106265068054</t>
@@ -3089,7 +3089,7 @@
     <t xml:space="preserve">2.80386924743652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78769016265869</t>
+    <t xml:space="preserve">2.78768992424011</t>
   </si>
   <si>
     <t xml:space="preserve">2.89447355270386</t>
@@ -3101,19 +3101,19 @@
     <t xml:space="preserve">2.98507761955261</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09186029434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0692093372345</t>
+    <t xml:space="preserve">3.09186053276062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06920981407166</t>
   </si>
   <si>
     <t xml:space="preserve">3.06597352027893</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15172433853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15495991706848</t>
+    <t xml:space="preserve">3.15172410011292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15496015548706</t>
   </si>
   <si>
     <t xml:space="preserve">3.14039874076843</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">3.17761087417603</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16790342330933</t>
+    <t xml:space="preserve">3.16790318489075</t>
   </si>
   <si>
     <t xml:space="preserve">3.19055414199829</t>
@@ -3137,10 +3137,10 @@
     <t xml:space="preserve">3.29241561889648</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27598571777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37784695625305</t>
+    <t xml:space="preserve">3.27598595619202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37784719467163</t>
   </si>
   <si>
     <t xml:space="preserve">3.31213045120239</t>
@@ -3161,7 +3161,7 @@
     <t xml:space="preserve">3.40084767341614</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35156035423279</t>
+    <t xml:space="preserve">3.35156059265137</t>
   </si>
   <si>
     <t xml:space="preserve">3.2809145450592</t>
@@ -3185,25 +3185,25 @@
     <t xml:space="preserve">3.10840773582458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03283381462097</t>
+    <t xml:space="preserve">3.03283405303955</t>
   </si>
   <si>
     <t xml:space="preserve">3.0016176700592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99997496604919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93097233772278</t>
+    <t xml:space="preserve">2.99997472763062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93097257614136</t>
   </si>
   <si>
     <t xml:space="preserve">2.99340319633484</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99176049232483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03940558433533</t>
+    <t xml:space="preserve">2.99176025390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03940534591675</t>
   </si>
   <si>
     <t xml:space="preserve">2.9638307094574</t>
@@ -3221,16 +3221,16 @@
     <t xml:space="preserve">2.98025989532471</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94740176200867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9178295135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0459771156311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99504590034485</t>
+    <t xml:space="preserve">2.94740152359009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91782927513123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04597735404968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99504613876343</t>
   </si>
   <si>
     <t xml:space="preserve">2.97697401046753</t>
@@ -3248,13 +3248,13 @@
     <t xml:space="preserve">2.85539770126343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92768669128418</t>
+    <t xml:space="preserve">2.92768692970276</t>
   </si>
   <si>
     <t xml:space="preserve">2.95397353172302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9819028377533</t>
+    <t xml:space="preserve">2.98190259933472</t>
   </si>
   <si>
     <t xml:space="preserve">3.13469457626343</t>
@@ -3272,40 +3272,40 @@
     <t xml:space="preserve">3.05419158935547</t>
   </si>
   <si>
-    <t xml:space="preserve">3.064049243927</t>
+    <t xml:space="preserve">3.06404900550842</t>
   </si>
   <si>
     <t xml:space="preserve">3.06240630149841</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04104852676392</t>
+    <t xml:space="preserve">3.04104828834534</t>
   </si>
   <si>
     <t xml:space="preserve">3.04762005805969</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12647986412048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16262459754944</t>
+    <t xml:space="preserve">3.12648010253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16262483596802</t>
   </si>
   <si>
     <t xml:space="preserve">3.11169362068176</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17905378341675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13633704185486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13305163383484</t>
+    <t xml:space="preserve">3.17905402183533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13633728027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13305139541626</t>
   </si>
   <si>
     <t xml:space="preserve">3.03776264190674</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06569218635559</t>
+    <t xml:space="preserve">3.06569194793701</t>
   </si>
   <si>
     <t xml:space="preserve">3.04926300048828</t>
@@ -3314,16 +3314,16 @@
     <t xml:space="preserve">3.08376407623291</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10512208938599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21355533599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22176957130432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19548296928406</t>
+    <t xml:space="preserve">3.10512185096741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21355509757996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2217698097229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19548320770264</t>
   </si>
   <si>
     <t xml:space="preserve">3.19876885414124</t>
@@ -3341,13 +3341,13 @@
     <t xml:space="preserve">3.16755342483521</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10676503181458</t>
+    <t xml:space="preserve">3.106764793396</t>
   </si>
   <si>
     <t xml:space="preserve">3.04433441162109</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07883548736572</t>
+    <t xml:space="preserve">3.07883524894714</t>
   </si>
   <si>
     <t xml:space="preserve">3.01804757118225</t>
@@ -3365,7 +3365,7 @@
     <t xml:space="preserve">2.89482855796814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89811444282532</t>
+    <t xml:space="preserve">2.89811420440674</t>
   </si>
   <si>
     <t xml:space="preserve">2.99668908119202</t>
@@ -3374,7 +3374,7 @@
     <t xml:space="preserve">3.00654649734497</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01476120948792</t>
+    <t xml:space="preserve">3.01476097106934</t>
   </si>
   <si>
     <t xml:space="preserve">2.97861695289612</t>
@@ -3389,43 +3389,43 @@
     <t xml:space="preserve">3.02461934089661</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13962316513062</t>
+    <t xml:space="preserve">3.13962340354919</t>
   </si>
   <si>
     <t xml:space="preserve">3.11005067825317</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08869314193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07062101364136</t>
+    <t xml:space="preserve">3.08869290351868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07062077522278</t>
   </si>
   <si>
     <t xml:space="preserve">3.08047842979431</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11333656311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16591048240662</t>
+    <t xml:space="preserve">3.11333680152893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1659107208252</t>
   </si>
   <si>
     <t xml:space="preserve">3.18726849555969</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20205473899841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16098189353943</t>
+    <t xml:space="preserve">3.20205450057983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16098213195801</t>
   </si>
   <si>
     <t xml:space="preserve">3.21026921272278</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24477028846741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25298476219177</t>
+    <t xml:space="preserve">3.24477052688599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25298500061035</t>
   </si>
   <si>
     <t xml:space="preserve">3.12812280654907</t>
@@ -3437,31 +3437,31 @@
     <t xml:space="preserve">3.0854070186615</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11990833282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19384026527405</t>
+    <t xml:space="preserve">3.11990809440613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19384002685547</t>
   </si>
   <si>
     <t xml:space="preserve">3.24969911575317</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15933895111084</t>
+    <t xml:space="preserve">3.15933871269226</t>
   </si>
   <si>
     <t xml:space="preserve">3.05912065505981</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00818967819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95890212059021</t>
+    <t xml:space="preserve">3.00818943977356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95890188217163</t>
   </si>
   <si>
     <t xml:space="preserve">2.97204542160034</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89154267311096</t>
+    <t xml:space="preserve">2.89154243469238</t>
   </si>
   <si>
     <t xml:space="preserve">2.89975714683533</t>
@@ -3470,7 +3470,7 @@
     <t xml:space="preserve">2.85046911239624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95725893974304</t>
+    <t xml:space="preserve">2.95725917816162</t>
   </si>
   <si>
     <t xml:space="preserve">2.90468597412109</t>
@@ -3482,7 +3482,7 @@
     <t xml:space="preserve">2.92604374885559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80939626693726</t>
+    <t xml:space="preserve">2.80939602851868</t>
   </si>
   <si>
     <t xml:space="preserve">2.8389687538147</t>
@@ -3497,7 +3497,7 @@
     <t xml:space="preserve">2.9424729347229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91454315185547</t>
+    <t xml:space="preserve">2.91454339027405</t>
   </si>
   <si>
     <t xml:space="preserve">2.91290044784546</t>
@@ -3506,19 +3506,19 @@
     <t xml:space="preserve">2.88825678825378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85868334770203</t>
+    <t xml:space="preserve">2.85868358612061</t>
   </si>
   <si>
     <t xml:space="preserve">2.95068740844727</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0262622833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05747747421265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1034791469574</t>
+    <t xml:space="preserve">3.02626204490662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05747771263123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10347938537598</t>
   </si>
   <si>
     <t xml:space="preserve">3.19055438041687</t>
@@ -3530,25 +3530,25 @@
     <t xml:space="preserve">3.15112352371216</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25134229660034</t>
+    <t xml:space="preserve">3.25134205818176</t>
   </si>
   <si>
     <t xml:space="preserve">3.2431275844574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09690761566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93590140342712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98354554176331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06897783279419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02954816818237</t>
+    <t xml:space="preserve">3.09690737724304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93590116500854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98354578018188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06897807121277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02954792976379</t>
   </si>
   <si>
     <t xml:space="preserve">3.18233966827393</t>
@@ -3557,13 +3557,13 @@
     <t xml:space="preserve">3.13288044929504</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10821199417114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26937866210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28911328315735</t>
+    <t xml:space="preserve">3.10821223258972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26937890052795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28911352157593</t>
   </si>
   <si>
     <t xml:space="preserve">3.37956428527832</t>
@@ -3575,16 +3575,16 @@
     <t xml:space="preserve">3.42561149597168</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44370174407959</t>
+    <t xml:space="preserve">3.44370198249817</t>
   </si>
   <si>
     <t xml:space="preserve">3.4157440662384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48481559753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39107608795166</t>
+    <t xml:space="preserve">3.4848153591156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39107584953308</t>
   </si>
   <si>
     <t xml:space="preserve">3.31542634963989</t>
@@ -3593,16 +3593,16 @@
     <t xml:space="preserve">3.15754866600037</t>
   </si>
   <si>
-    <t xml:space="preserve">2.999671459198</t>
+    <t xml:space="preserve">2.99967122077942</t>
   </si>
   <si>
     <t xml:space="preserve">3.05065274238586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91415429115295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7381865978241</t>
+    <t xml:space="preserve">2.91415452957153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73818683624268</t>
   </si>
   <si>
     <t xml:space="preserve">2.77436709403992</t>
@@ -3620,16 +3620,16 @@
     <t xml:space="preserve">2.49972605705261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.715163230896</t>
+    <t xml:space="preserve">2.71516299247742</t>
   </si>
   <si>
     <t xml:space="preserve">2.57702040672302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60168862342834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71022963523865</t>
+    <t xml:space="preserve">2.60168886184692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71022939682007</t>
   </si>
   <si>
     <t xml:space="preserve">2.7529878616333</t>
@@ -3638,28 +3638,28 @@
     <t xml:space="preserve">2.94704580307007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9190878868103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96020197868347</t>
+    <t xml:space="preserve">2.91908812522888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96020221710205</t>
   </si>
   <si>
     <t xml:space="preserve">2.97829222679138</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03091788291931</t>
+    <t xml:space="preserve">3.03091812133789</t>
   </si>
   <si>
     <t xml:space="preserve">2.99473762512207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99144864082336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93388915061951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99638223648071</t>
+    <t xml:space="preserve">2.99144887924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93388938903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99638247489929</t>
   </si>
   <si>
     <t xml:space="preserve">3.13123607635498</t>
@@ -3668,7 +3668,7 @@
     <t xml:space="preserve">3.13781404495239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05723071098328</t>
+    <t xml:space="preserve">3.05723094940186</t>
   </si>
   <si>
     <t xml:space="preserve">3.09834480285645</t>
@@ -3686,7 +3686,7 @@
     <t xml:space="preserve">2.99802684783936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1427481174469</t>
+    <t xml:space="preserve">3.14274764060974</t>
   </si>
   <si>
     <t xml:space="preserve">3.1559042930603</t>
@@ -3701,7 +3701,7 @@
     <t xml:space="preserve">3.09176659584045</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17728352546692</t>
+    <t xml:space="preserve">3.1772837638855</t>
   </si>
   <si>
     <t xml:space="preserve">3.16248250007629</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">3.11314582824707</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13616967201233</t>
+    <t xml:space="preserve">3.13616943359375</t>
   </si>
   <si>
     <t xml:space="preserve">3.12465763092041</t>
@@ -3719,7 +3719,7 @@
     <t xml:space="preserve">3.10985660552979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11479043960571</t>
+    <t xml:space="preserve">3.11479067802429</t>
   </si>
   <si>
     <t xml:space="preserve">2.98980402946472</t>
@@ -3734,7 +3734,7 @@
     <t xml:space="preserve">2.87468504905701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97993683815002</t>
+    <t xml:space="preserve">2.97993659973145</t>
   </si>
   <si>
     <t xml:space="preserve">3.00624942779541</t>
@@ -3743,13 +3743,13 @@
     <t xml:space="preserve">3.02598428726196</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01940608024597</t>
+    <t xml:space="preserve">3.01940584182739</t>
   </si>
   <si>
     <t xml:space="preserve">3.08683300018311</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06545376777649</t>
+    <t xml:space="preserve">3.06545352935791</t>
   </si>
   <si>
     <t xml:space="preserve">3.05558657646179</t>
@@ -3758,7 +3758,7 @@
     <t xml:space="preserve">3.01282787322998</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27027487754822</t>
+    <t xml:space="preserve">3.2702751159668</t>
   </si>
   <si>
     <t xml:space="preserve">3.29636764526367</t>
@@ -3770,10 +3770,10 @@
     <t xml:space="preserve">3.362468957901</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33985543251038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29462814331055</t>
+    <t xml:space="preserve">3.3398551940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29462838172913</t>
   </si>
   <si>
     <t xml:space="preserve">3.26679611206055</t>
@@ -3794,7 +3794,7 @@
     <t xml:space="preserve">3.22330832481384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17808127403259</t>
+    <t xml:space="preserve">3.17808103561401</t>
   </si>
   <si>
     <t xml:space="preserve">2.95890307426453</t>
@@ -3809,10 +3809,10 @@
     <t xml:space="preserve">2.93802905082703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8510537147522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8945415019989</t>
+    <t xml:space="preserve">2.85105395317078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89454126358032</t>
   </si>
   <si>
     <t xml:space="preserve">2.96064257621765</t>
@@ -3857,16 +3857,16 @@
     <t xml:space="preserve">2.86323022842407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9571635723114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91193652153015</t>
+    <t xml:space="preserve">2.95716381072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91193628311157</t>
   </si>
   <si>
     <t xml:space="preserve">2.89628076553345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82844018936157</t>
+    <t xml:space="preserve">2.82843995094299</t>
   </si>
   <si>
     <t xml:space="preserve">2.69275832176208</t>
@@ -3875,7 +3875,7 @@
     <t xml:space="preserve">2.70841407775879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75538086891174</t>
+    <t xml:space="preserve">2.75538063049316</t>
   </si>
   <si>
     <t xml:space="preserve">2.88236474990845</t>
@@ -3884,25 +3884,25 @@
     <t xml:space="preserve">2.80060791969299</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76233863830566</t>
+    <t xml:space="preserve">2.76233887672424</t>
   </si>
   <si>
     <t xml:space="preserve">2.72754836082458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76755738258362</t>
+    <t xml:space="preserve">2.76755714416504</t>
   </si>
   <si>
     <t xml:space="preserve">2.69623732566833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74146437644958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81452417373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84931421279907</t>
+    <t xml:space="preserve">2.74146461486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81452393531799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84931397438049</t>
   </si>
   <si>
     <t xml:space="preserve">2.92411303520203</t>
@@ -3938,10 +3938,10 @@
     <t xml:space="preserve">2.74668312072754</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74494338035583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77625489234924</t>
+    <t xml:space="preserve">2.74494361877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77625465393066</t>
   </si>
   <si>
     <t xml:space="preserve">2.78495240211487</t>
@@ -3950,10 +3950,10 @@
     <t xml:space="preserve">2.74320411682129</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78147339820862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78321290016174</t>
+    <t xml:space="preserve">2.78147315979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78321266174316</t>
   </si>
   <si>
     <t xml:space="preserve">2.77277588844299</t>
@@ -3968,7 +3968,7 @@
     <t xml:space="preserve">3.01804637908936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05109715461731</t>
+    <t xml:space="preserve">3.05109691619873</t>
   </si>
   <si>
     <t xml:space="preserve">3.13633298873901</t>
@@ -3977,10 +3977,10 @@
     <t xml:space="preserve">3.11545896530151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09458494186401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04239964485168</t>
+    <t xml:space="preserve">3.09458470344543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04239940643311</t>
   </si>
   <si>
     <t xml:space="preserve">2.98847484588623</t>
@@ -3989,7 +3989,7 @@
     <t xml:space="preserve">3.05457615852356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98673510551453</t>
+    <t xml:space="preserve">2.98673534393311</t>
   </si>
   <si>
     <t xml:space="preserve">2.96238207817078</t>
@@ -4022,19 +4022,19 @@
     <t xml:space="preserve">2.83017945289612</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95194506645203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03718090057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06849241256714</t>
+    <t xml:space="preserve">2.95194530487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03718113899231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06849217414856</t>
   </si>
   <si>
     <t xml:space="preserve">3.08240818977356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12415647506714</t>
+    <t xml:space="preserve">3.12415623664856</t>
   </si>
   <si>
     <t xml:space="preserve">3.16938376426697</t>
@@ -4049,7 +4049,7 @@
     <t xml:space="preserve">3.16590476036072</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15720725059509</t>
+    <t xml:space="preserve">3.15720701217651</t>
   </si>
   <si>
     <t xml:space="preserve">3.16764402389526</t>
@@ -4058,19 +4058,19 @@
     <t xml:space="preserve">3.24592208862305</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26157736778259</t>
+    <t xml:space="preserve">3.26157760620117</t>
   </si>
   <si>
     <t xml:space="preserve">3.32593941688538</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07892918586731</t>
+    <t xml:space="preserve">3.07892894744873</t>
   </si>
   <si>
     <t xml:space="preserve">3.05283665657043</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10154294967651</t>
+    <t xml:space="preserve">3.10154271125793</t>
   </si>
   <si>
     <t xml:space="preserve">3.09284520149231</t>
@@ -4088,13 +4088,13 @@
     <t xml:space="preserve">3.32246017456055</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32767868041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33637642860413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38508272171021</t>
+    <t xml:space="preserve">3.3276789188385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33637619018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38508248329163</t>
   </si>
   <si>
     <t xml:space="preserve">3.35029244422913</t>
@@ -4109,7 +4109,7 @@
     <t xml:space="preserve">3.34333467483521</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29984641075134</t>
+    <t xml:space="preserve">3.29984664916992</t>
   </si>
   <si>
     <t xml:space="preserve">3.29114890098572</t>
@@ -4118,7 +4118,7 @@
     <t xml:space="preserve">3.30158615112305</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3120231628418</t>
+    <t xml:space="preserve">3.31202340126038</t>
   </si>
   <si>
     <t xml:space="preserve">3.3189811706543</t>
@@ -4127,7 +4127,7 @@
     <t xml:space="preserve">3.28767013549805</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25809860229492</t>
+    <t xml:space="preserve">3.25809836387634</t>
   </si>
   <si>
     <t xml:space="preserve">3.334636926651</t>
@@ -4136,16 +4136,16 @@
     <t xml:space="preserve">3.40073823928833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40943574905396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40247774124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36420869827271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34681367874146</t>
+    <t xml:space="preserve">3.40943598747253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40247750282288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36420845985413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34681344032288</t>
   </si>
   <si>
     <t xml:space="preserve">3.40421724319458</t>
@@ -4160,10 +4160,10 @@
     <t xml:space="preserve">3.51380610466003</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51032686233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50336909294128</t>
+    <t xml:space="preserve">3.51032710075378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50336885452271</t>
   </si>
   <si>
     <t xml:space="preserve">3.54859614372253</t>
@@ -4175,7 +4175,7 @@
     <t xml:space="preserve">3.52946186065674</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56077265739441</t>
+    <t xml:space="preserve">3.56077289581299</t>
   </si>
   <si>
     <t xml:space="preserve">3.53294062614441</t>
@@ -4193,16 +4193,16 @@
     <t xml:space="preserve">3.7312445640564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76429510116577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79038786888123</t>
+    <t xml:space="preserve">3.76429533958435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79038763046265</t>
   </si>
   <si>
     <t xml:space="preserve">3.77125358581543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91911149024963</t>
+    <t xml:space="preserve">3.91911172866821</t>
   </si>
   <si>
     <t xml:space="preserve">3.99912881851196</t>
@@ -4211,46 +4211,46 @@
     <t xml:space="preserve">3.91737222671509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92606949806213</t>
+    <t xml:space="preserve">3.92606973648071</t>
   </si>
   <si>
     <t xml:space="preserve">3.96607828140259</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94694375991821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91041398048401</t>
+    <t xml:space="preserve">3.94694352149963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91041374206543</t>
   </si>
   <si>
     <t xml:space="preserve">3.88258218765259</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92433023452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85127091407776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86518669128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90519523620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85475015640259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90345597267151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8738842010498</t>
+    <t xml:space="preserve">3.92432999610901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85127067565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8651864528656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90519547462463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85474991798401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90345621109009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87388443946838</t>
   </si>
   <si>
     <t xml:space="preserve">3.94868326187134</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95912027359009</t>
+    <t xml:space="preserve">3.95912003517151</t>
   </si>
   <si>
     <t xml:space="preserve">4.08262538909912</t>
@@ -4271,7 +4271,7 @@
     <t xml:space="preserve">4.25483655929565</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16960096359253</t>
+    <t xml:space="preserve">4.16960048675537</t>
   </si>
   <si>
     <t xml:space="preserve">4.19917249679565</t>
@@ -4283,19 +4283,19 @@
     <t xml:space="preserve">3.6616644859314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65992522239685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42683076858521</t>
+    <t xml:space="preserve">3.65992498397827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42683100700378</t>
   </si>
   <si>
     <t xml:space="preserve">3.43900728225708</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31550216674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61295819282532</t>
+    <t xml:space="preserve">3.31550240516663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61295795440674</t>
   </si>
   <si>
     <t xml:space="preserve">3.51902461051941</t>
@@ -4310,13 +4310,13 @@
     <t xml:space="preserve">3.31376266479492</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32072067260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42335200309753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44074702262878</t>
+    <t xml:space="preserve">3.320720911026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42335176467896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44074678421021</t>
   </si>
   <si>
     <t xml:space="preserve">3.37638521194458</t>
@@ -4328,7 +4328,7 @@
     <t xml:space="preserve">3.52250385284424</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55381488800049</t>
+    <t xml:space="preserve">3.55381464958191</t>
   </si>
   <si>
     <t xml:space="preserve">3.60078144073486</t>
@@ -4379,7 +4379,7 @@
     <t xml:space="preserve">3.62339520454407</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62513470649719</t>
+    <t xml:space="preserve">3.62513494491577</t>
   </si>
   <si>
     <t xml:space="preserve">3.57267427444458</t>
@@ -5094,6 +5094,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.80000019073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76000022888184</t>
   </si>
 </sst>
 </file>
@@ -61543,7 +61546,7 @@
     </row>
     <row r="2159">
       <c r="A2159" s="1" t="n">
-        <v>45468.6494675926</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B2159" t="n">
         <v>1039656</v>
@@ -61564,6 +61567,32 @@
         <v>1693</v>
       </c>
       <c r="H2159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="n">
+        <v>45469.6525578704</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>968658</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>6.86999988555908</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>6.73999977111816</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>6.80999994277954</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>6.76000022888184</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H2160" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BPSO.MI.xlsx
+++ b/data/BPSO.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0306978225708</t>
+    <t xml:space="preserve">3.03069806098938</t>
   </si>
   <si>
     <t xml:space="preserve">BPSO.MI</t>
@@ -50,37 +50,37 @@
     <t xml:space="preserve">2.94444632530212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9057822227478</t>
+    <t xml:space="preserve">2.90578198432922</t>
   </si>
   <si>
     <t xml:space="preserve">2.8239917755127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79425001144409</t>
+    <t xml:space="preserve">2.79425048828125</t>
   </si>
   <si>
     <t xml:space="preserve">2.8849630355835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89091157913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79722428321838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6916401386261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63067007064819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4284245967865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55036640167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57713389396667</t>
+    <t xml:space="preserve">2.89091110229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7972240447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69164037704468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63066983222961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42842483520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55036664009094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5771336555481</t>
   </si>
   <si>
     <t xml:space="preserve">2.53400850296021</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">2.57564687728882</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48642182350159</t>
+    <t xml:space="preserve">2.48642206192017</t>
   </si>
   <si>
     <t xml:space="preserve">2.37935090065002</t>
@@ -110,28 +110,28 @@
     <t xml:space="preserve">2.39124751091003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36745429039001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18602824211121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20982146263123</t>
+    <t xml:space="preserve">2.36745405197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18602800369263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20982193946838</t>
   </si>
   <si>
     <t xml:space="preserve">2.29607319831848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22469234466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33771204948425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38381218910217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44032144546509</t>
+    <t xml:space="preserve">2.22469282150269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33771157264709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38381195068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44032168388367</t>
   </si>
   <si>
     <t xml:space="preserve">2.34960842132568</t>
@@ -140,10 +140,10 @@
     <t xml:space="preserve">2.31986665725708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40611886978149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34217309951782</t>
+    <t xml:space="preserve">2.40611839294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34217286109924</t>
   </si>
   <si>
     <t xml:space="preserve">2.33176350593567</t>
@@ -158,22 +158,22 @@
     <t xml:space="preserve">2.48344755172729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5578019618988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55185317993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54441809654236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40165734291077</t>
+    <t xml:space="preserve">2.55780172348022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5518536567688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54441785812378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40165710449219</t>
   </si>
   <si>
     <t xml:space="preserve">2.42396330833435</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41057968139648</t>
+    <t xml:space="preserve">2.41057944297791</t>
   </si>
   <si>
     <t xml:space="preserve">2.48493456840515</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">2.60687565803528</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52657318115234</t>
+    <t xml:space="preserve">2.52657294273376</t>
   </si>
   <si>
     <t xml:space="preserve">2.46560168266296</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">2.5280601978302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56375050544739</t>
+    <t xml:space="preserve">2.56375002861023</t>
   </si>
   <si>
     <t xml:space="preserve">2.45667934417725</t>
@@ -203,19 +203,19 @@
     <t xml:space="preserve">2.39719581604004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3436598777771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29161214828491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30053496360779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27228021621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21725726127625</t>
+    <t xml:space="preserve">2.34366011619568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29161238670349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30053448677063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27228045463562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21725702285767</t>
   </si>
   <si>
     <t xml:space="preserve">2.1562864780426</t>
@@ -227,13 +227,13 @@
     <t xml:space="preserve">2.2187442779541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26781868934631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27674102783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38678622245789</t>
+    <t xml:space="preserve">2.26781892776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27674150466919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38678646087646</t>
   </si>
   <si>
     <t xml:space="preserve">2.46708869934082</t>
@@ -245,52 +245,52 @@
     <t xml:space="preserve">2.45370554924011</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49831867218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49237060546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44180846214294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48939633369446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4730372428894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42247629165649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39422178268433</t>
+    <t xml:space="preserve">2.49831819534302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49237012863159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44180870056152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48939609527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47303748130798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42247605323792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39422202110291</t>
   </si>
   <si>
     <t xml:space="preserve">2.31094431877136</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26187038421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23064041137695</t>
+    <t xml:space="preserve">2.26187014579773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23064064979553</t>
   </si>
   <si>
     <t xml:space="preserve">2.24848651885986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23807692527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25592231750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19495105743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18305420875549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2127959728241</t>
+    <t xml:space="preserve">2.23807716369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2559220790863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19495058059692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18305397033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21279573440552</t>
   </si>
   <si>
     <t xml:space="preserve">2.17710566520691</t>
@@ -311,22 +311,22 @@
     <t xml:space="preserve">2.35617971420288</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30744218826294</t>
+    <t xml:space="preserve">2.30744171142578</t>
   </si>
   <si>
     <t xml:space="preserve">2.33028793334961</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30896520614624</t>
+    <t xml:space="preserve">2.30896496772766</t>
   </si>
   <si>
     <t xml:space="preserve">2.24194979667664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21910405158997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14142751693726</t>
+    <t xml:space="preserve">2.21910381317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14142727851868</t>
   </si>
   <si>
     <t xml:space="preserve">2.09725880622864</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">2.13076591491699</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07441282272339</t>
+    <t xml:space="preserve">2.07441258430481</t>
   </si>
   <si>
     <t xml:space="preserve">2.08202838897705</t>
@@ -350,49 +350,49 @@
     <t xml:space="preserve">1.9083993434906</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87641441822052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75913822650909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81701505184174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8962140083313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94038343429565</t>
+    <t xml:space="preserve">1.87641429901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84899938106537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75913834571838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81701517105103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89621388912201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94038355350494</t>
   </si>
   <si>
     <t xml:space="preserve">1.9068751335144</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02872037887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75152313709259</t>
+    <t xml:space="preserve">2.02872061729431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7515230178833</t>
   </si>
   <si>
     <t xml:space="preserve">1.67689323425293</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78807699680328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77436888217926</t>
+    <t xml:space="preserve">1.78807711601257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77436900138855</t>
   </si>
   <si>
     <t xml:space="preserve">1.7560920715332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7530460357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68907761573792</t>
+    <t xml:space="preserve">1.75304627418518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68907797336578</t>
   </si>
   <si>
     <t xml:space="preserve">1.61901652812958</t>
@@ -401,103 +401,103 @@
     <t xml:space="preserve">1.63424706459045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64033913612366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7545690536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79112339019775</t>
+    <t xml:space="preserve">1.64033925533295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75456917285919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79112327098846</t>
   </si>
   <si>
     <t xml:space="preserve">1.81549191474915</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78960037231445</t>
+    <t xml:space="preserve">1.78960025310516</t>
   </si>
   <si>
     <t xml:space="preserve">1.86727595329285</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83072245121002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84443020820618</t>
+    <t xml:space="preserve">1.83072257041931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84443032741547</t>
   </si>
   <si>
     <t xml:space="preserve">1.90230631828308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8931679725647</t>
+    <t xml:space="preserve">1.89316773414612</t>
   </si>
   <si>
     <t xml:space="preserve">1.85052239894867</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81853842735291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8474760055542</t>
+    <t xml:space="preserve">1.81853818893433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84747624397278</t>
   </si>
   <si>
     <t xml:space="preserve">1.84138405323029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78198480606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66470885276794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6875547170639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62967777252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75</t>
+    <t xml:space="preserve">1.78198504447937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66470873355865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68755483627319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62967765331268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75000011920929</t>
   </si>
   <si>
     <t xml:space="preserve">1.77741503715515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76523041725159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80787694454193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8368147611618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82767641544342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82158446311951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86879909038544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82919955253601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84290730953217</t>
+    <t xml:space="preserve">1.76523065567017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80787670612335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83681499958038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82767629623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82158434391022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86879897117615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8291996717453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8429069519043</t>
   </si>
   <si>
     <t xml:space="preserve">1.85509157180786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90992224216461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90535223484039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89773738384247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89012181758881</t>
+    <t xml:space="preserve">1.90992212295532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9053521156311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89773678779602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89012169837952</t>
   </si>
   <si>
     <t xml:space="preserve">1.88098359107971</t>
@@ -506,76 +506,76 @@
     <t xml:space="preserve">1.88859868049622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86575269699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89469087123871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87336826324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85813760757446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91144514083862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98455190658569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98150622844696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94190657138824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9662754535675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97998285293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99216759204865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08659768104553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11705851554871</t>
+    <t xml:space="preserve">1.86575281620026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89469110965729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87336838245392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85813772678375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91144502162933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98455202579498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98150563240051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94190645217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96627509593964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9799827337265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99216723442078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08659744262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11705827713013</t>
   </si>
   <si>
     <t xml:space="preserve">2.24804186820984</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25870323181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22367334365845</t>
+    <t xml:space="preserve">2.2587034702301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22367310523987</t>
   </si>
   <si>
     <t xml:space="preserve">2.23433446884155</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23738074302673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24651885032654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31505727767944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33790278434753</t>
+    <t xml:space="preserve">2.23738026618958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24651908874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31505703926086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33790326118469</t>
   </si>
   <si>
     <t xml:space="preserve">2.26479554176331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1429500579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18407368659973</t>
+    <t xml:space="preserve">2.14295053482056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18407392501831</t>
   </si>
   <si>
     <t xml:space="preserve">2.15208864212036</t>
@@ -584,13 +584,13 @@
     <t xml:space="preserve">2.19930410385132</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20996570587158</t>
+    <t xml:space="preserve">2.209965467453</t>
   </si>
   <si>
     <t xml:space="preserve">2.26631855964661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27697992324829</t>
+    <t xml:space="preserve">2.27697968482971</t>
   </si>
   <si>
     <t xml:space="preserve">2.31658005714417</t>
@@ -611,10 +611,10 @@
     <t xml:space="preserve">2.22519612312317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24956512451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23890399932861</t>
+    <t xml:space="preserve">2.24956488609314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23890352249146</t>
   </si>
   <si>
     <t xml:space="preserve">2.15361166000366</t>
@@ -623,67 +623,67 @@
     <t xml:space="preserve">2.27545690536499</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25413393974304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22062706947327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32267236709595</t>
+    <t xml:space="preserve">2.2541344165802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22062683105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32267260551453</t>
   </si>
   <si>
     <t xml:space="preserve">2.43690228462219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54351687431335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42471790313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39273262023926</t>
+    <t xml:space="preserve">2.54351663589478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42471766471863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39273285865784</t>
   </si>
   <si>
     <t xml:space="preserve">2.43385624885559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39121007919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33333396911621</t>
+    <t xml:space="preserve">2.39120984077454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33333373069763</t>
   </si>
   <si>
     <t xml:space="preserve">2.32419538497925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39577913284302</t>
+    <t xml:space="preserve">2.39577889442444</t>
   </si>
   <si>
     <t xml:space="preserve">2.38054847717285</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37597942352295</t>
+    <t xml:space="preserve">2.37597918510437</t>
   </si>
   <si>
     <t xml:space="preserve">2.36227178573608</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38207149505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42624068260193</t>
+    <t xml:space="preserve">2.38207173347473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42624092102051</t>
   </si>
   <si>
     <t xml:space="preserve">2.47497844696045</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48259401321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51000881195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50848627090454</t>
+    <t xml:space="preserve">2.48259377479553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51000905036926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50848603248596</t>
   </si>
   <si>
     <t xml:space="preserve">2.46888637542725</t>
@@ -695,16 +695,16 @@
     <t xml:space="preserve">2.45974802970886</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52828550338745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52067017555237</t>
+    <t xml:space="preserve">2.52828574180603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52067041397095</t>
   </si>
   <si>
     <t xml:space="preserve">2.50696301460266</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57397794723511</t>
+    <t xml:space="preserve">2.57397818565369</t>
   </si>
   <si>
     <t xml:space="preserve">2.58920860290527</t>
@@ -716,28 +716,28 @@
     <t xml:space="preserve">2.58311629295349</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58768558502197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59682393074036</t>
+    <t xml:space="preserve">2.58768534660339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59682369232178</t>
   </si>
   <si>
     <t xml:space="preserve">2.61814665794373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52219343185425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50391674041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49630165100098</t>
+    <t xml:space="preserve">2.52219367027283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5039165019989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49630117416382</t>
   </si>
   <si>
     <t xml:space="preserve">2.53285479545593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4932553768158</t>
+    <t xml:space="preserve">2.49325561523438</t>
   </si>
   <si>
     <t xml:space="preserve">2.44451761245728</t>
@@ -746,19 +746,19 @@
     <t xml:space="preserve">2.46431732177734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48868608474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5008704662323</t>
+    <t xml:space="preserve">2.48868632316589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50087094306946</t>
   </si>
   <si>
     <t xml:space="preserve">2.47345566749573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46279382705688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4171028137207</t>
+    <t xml:space="preserve">2.46279406547546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41710257530212</t>
   </si>
   <si>
     <t xml:space="preserve">2.28002619743347</t>
@@ -767,7 +767,7 @@
     <t xml:space="preserve">2.28611850738525</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4475634098053</t>
+    <t xml:space="preserve">2.44756364822388</t>
   </si>
   <si>
     <t xml:space="preserve">2.38816380500793</t>
@@ -782,28 +782,28 @@
     <t xml:space="preserve">2.47802472114563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50543975830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54808616638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49477815628052</t>
+    <t xml:space="preserve">2.50543999671936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54808592796326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49477863311768</t>
   </si>
   <si>
     <t xml:space="preserve">2.53590083122253</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51610088348389</t>
+    <t xml:space="preserve">2.51610136032104</t>
   </si>
   <si>
     <t xml:space="preserve">2.45822501182556</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46736359596252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45060968399048</t>
+    <t xml:space="preserve">2.46736311912537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45060992240906</t>
   </si>
   <si>
     <t xml:space="preserve">2.48564004898071</t>
@@ -812,19 +812,19 @@
     <t xml:space="preserve">2.44604063034058</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45365595817566</t>
+    <t xml:space="preserve">2.45365571975708</t>
   </si>
   <si>
     <t xml:space="preserve">2.45670199394226</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47040963172913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52371621131897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47650146484375</t>
+    <t xml:space="preserve">2.47040939331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52371597290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47650170326233</t>
   </si>
   <si>
     <t xml:space="preserve">2.4978244304657</t>
@@ -833,16 +833,16 @@
     <t xml:space="preserve">2.64251565933228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60443902015686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60291600227356</t>
+    <t xml:space="preserve">2.60443925857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60291624069214</t>
   </si>
   <si>
     <t xml:space="preserve">2.67602372169495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63946938514709</t>
+    <t xml:space="preserve">2.63946890830994</t>
   </si>
   <si>
     <t xml:space="preserve">2.66383838653564</t>
@@ -851,10 +851,10 @@
     <t xml:space="preserve">2.69582319259644</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69734644889832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75217628479004</t>
+    <t xml:space="preserve">2.69734621047974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75217652320862</t>
   </si>
   <si>
     <t xml:space="preserve">2.7140998840332</t>
@@ -863,49 +863,49 @@
     <t xml:space="preserve">2.66536140441895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68363904953003</t>
+    <t xml:space="preserve">2.68363857269287</t>
   </si>
   <si>
     <t xml:space="preserve">2.68668484687805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68820810317993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68516159057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73694562911987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75553250312805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82058668136597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84537029266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89958238601685</t>
+    <t xml:space="preserve">2.68820786476135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68516206741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73694586753845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75553226470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82058691978455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.845370054245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89958214759827</t>
   </si>
   <si>
     <t xml:space="preserve">2.74933695793152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70596623420715</t>
+    <t xml:space="preserve">2.70596671104431</t>
   </si>
   <si>
     <t xml:space="preserve">2.70906448364258</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65020561218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70131993293762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69357514381409</t>
+    <t xml:space="preserve">2.6502058506012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7013201713562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69357538223267</t>
   </si>
   <si>
     <t xml:space="preserve">2.64710783958435</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">2.66724371910095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65175485610962</t>
+    <t xml:space="preserve">2.65175437927246</t>
   </si>
   <si>
     <t xml:space="preserve">2.69667315483093</t>
@@ -923,52 +923,52 @@
     <t xml:space="preserve">2.63161897659302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65640139579773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63626551628113</t>
+    <t xml:space="preserve">2.65640091896057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63626527786255</t>
   </si>
   <si>
     <t xml:space="preserve">2.65795016288757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63316750526428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.659499168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66569423675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66414594650269</t>
+    <t xml:space="preserve">2.63316774368286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65949940681458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66569495201111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66414570808411</t>
   </si>
   <si>
     <t xml:space="preserve">2.68737959861755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71835851669312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7880597114563</t>
+    <t xml:space="preserve">2.71835875511169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78805994987488</t>
   </si>
   <si>
     <t xml:space="preserve">2.74159216880798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67343950271606</t>
+    <t xml:space="preserve">2.67343926429749</t>
   </si>
   <si>
     <t xml:space="preserve">2.77721738815308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85311484336853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80045127868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81903791427612</t>
+    <t xml:space="preserve">2.85311460494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80045104026794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8190381526947</t>
   </si>
   <si>
     <t xml:space="preserve">2.80974435806274</t>
@@ -977,13 +977,13 @@
     <t xml:space="preserve">2.80354881286621</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92126727104187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93210959434509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91662001609802</t>
+    <t xml:space="preserve">2.92126703262329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93210911750793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9166202545166</t>
   </si>
   <si>
     <t xml:space="preserve">2.90577793121338</t>
@@ -1001,22 +1001,22 @@
     <t xml:space="preserve">2.87789750099182</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87944602966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90422916412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83917355537415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87015295028687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86240816116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86085939407349</t>
+    <t xml:space="preserve">2.87944626808167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90422892570496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83917379379272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87015318870544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86240839958191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86085963249207</t>
   </si>
   <si>
     <t xml:space="preserve">2.84227156639099</t>
@@ -1025,16 +1025,16 @@
     <t xml:space="preserve">2.84072279930115</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85776138305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84846830368042</t>
+    <t xml:space="preserve">2.85776162147522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84846806526184</t>
   </si>
   <si>
     <t xml:space="preserve">2.83452725410461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78341269493103</t>
+    <t xml:space="preserve">2.78341317176819</t>
   </si>
   <si>
     <t xml:space="preserve">2.81129336357117</t>
@@ -1046,31 +1046,31 @@
     <t xml:space="preserve">2.72610306739807</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76017951965332</t>
+    <t xml:space="preserve">2.76017928123474</t>
   </si>
   <si>
     <t xml:space="preserve">2.70441770553589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66259694099426</t>
+    <t xml:space="preserve">2.66259717941284</t>
   </si>
   <si>
     <t xml:space="preserve">2.68118405342102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6997709274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69047737121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6982216835022</t>
+    <t xml:space="preserve">2.69977068901062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6904776096344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69822192192078</t>
   </si>
   <si>
     <t xml:space="preserve">2.71371102333069</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73384785652161</t>
+    <t xml:space="preserve">2.73384761810303</t>
   </si>
   <si>
     <t xml:space="preserve">2.68583059310913</t>
@@ -1079,37 +1079,37 @@
     <t xml:space="preserve">2.73229885101318</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72765207290649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71680974960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76327729225159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82988047599792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81748914718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77411961555481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70286846160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69512391090393</t>
+    <t xml:space="preserve">2.72765183448792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71680951118469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76327681541443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82988023757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8174889087677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77411937713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70286870002747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69512414932251</t>
   </si>
   <si>
     <t xml:space="preserve">2.67034149169922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71525979042053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66879272460938</t>
+    <t xml:space="preserve">2.71526002883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6687924861908</t>
   </si>
   <si>
     <t xml:space="preserve">2.64865684509277</t>
@@ -1118,28 +1118,28 @@
     <t xml:space="preserve">2.68273282051086</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66104817390442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67189049720764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67653727531433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65485215187073</t>
+    <t xml:space="preserve">2.66104769706726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67189025878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67653703689575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65485262870789</t>
   </si>
   <si>
     <t xml:space="preserve">2.69202613830566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62387418746948</t>
+    <t xml:space="preserve">2.62387442588806</t>
   </si>
   <si>
     <t xml:space="preserve">2.57895493507385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63006973266602</t>
+    <t xml:space="preserve">2.63006949424744</t>
   </si>
   <si>
     <t xml:space="preserve">2.58205270767212</t>
@@ -1154,22 +1154,22 @@
     <t xml:space="preserve">2.44419860839844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34042119979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35436177253723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37914443016052</t>
+    <t xml:space="preserve">2.34042167663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35436153411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37914419174194</t>
   </si>
   <si>
     <t xml:space="preserve">2.42406272888184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4472963809967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44884514808655</t>
+    <t xml:space="preserve">2.44729661941528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44884538650513</t>
   </si>
   <si>
     <t xml:space="preserve">2.49066686630249</t>
@@ -1181,7 +1181,7 @@
     <t xml:space="preserve">2.54797673225403</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58670043945312</t>
+    <t xml:space="preserve">2.58669996261597</t>
   </si>
   <si>
     <t xml:space="preserve">2.50925374031067</t>
@@ -1190,10 +1190,10 @@
     <t xml:space="preserve">2.52474284172058</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52784085273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50770497322083</t>
+    <t xml:space="preserve">2.52784061431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50770473480225</t>
   </si>
   <si>
     <t xml:space="preserve">2.54642772674561</t>
@@ -1205,25 +1205,25 @@
     <t xml:space="preserve">2.5712103843689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57740592956543</t>
+    <t xml:space="preserve">2.57740616798401</t>
   </si>
   <si>
     <t xml:space="preserve">2.50305795669556</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4565896987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36210632324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39928030967712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3977313041687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39308404922485</t>
+    <t xml:space="preserve">2.45658993721008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36210656166077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39928007125854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39773106575012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39308428764343</t>
   </si>
   <si>
     <t xml:space="preserve">2.33887267112732</t>
@@ -1235,7 +1235,7 @@
     <t xml:space="preserve">2.40547585487366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3574595451355</t>
+    <t xml:space="preserve">2.35745930671692</t>
   </si>
   <si>
     <t xml:space="preserve">2.38533997535706</t>
@@ -1244,10 +1244,10 @@
     <t xml:space="preserve">2.44574761390686</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47827553749084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47517800331116</t>
+    <t xml:space="preserve">2.478276014328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.475177526474</t>
   </si>
   <si>
     <t xml:space="preserve">2.55881881713867</t>
@@ -1256,28 +1256,28 @@
     <t xml:space="preserve">2.55727005004883</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51390075683594</t>
+    <t xml:space="preserve">2.51390051841736</t>
   </si>
   <si>
     <t xml:space="preserve">2.51235175132751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53403663635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56501460075378</t>
+    <t xml:space="preserve">2.53403687477112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56501483917236</t>
   </si>
   <si>
     <t xml:space="preserve">2.57430791854858</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57585716247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49376463890076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51699805259705</t>
+    <t xml:space="preserve">2.57585740089417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49376487731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51699829101562</t>
   </si>
   <si>
     <t xml:space="preserve">2.49996042251587</t>
@@ -1286,19 +1286,19 @@
     <t xml:space="preserve">2.47672653198242</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3884379863739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47982454299927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46743297576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48602032661438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47207975387573</t>
+    <t xml:space="preserve">2.38843774795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47982430458069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46743321418762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4860200881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47207999229431</t>
   </si>
   <si>
     <t xml:space="preserve">2.54178094863892</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">2.60218930244446</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53248739242554</t>
+    <t xml:space="preserve">2.53248763084412</t>
   </si>
   <si>
     <t xml:space="preserve">2.48137331008911</t>
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">2.52164506912231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43955230712891</t>
+    <t xml:space="preserve">2.43955183029175</t>
   </si>
   <si>
     <t xml:space="preserve">2.49531364440918</t>
@@ -1325,25 +1325,25 @@
     <t xml:space="preserve">2.47053122520447</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46433520317078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54332971572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49686241149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49221563339233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56811261177063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56966137886047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55572104454041</t>
+    <t xml:space="preserve">2.46433544158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54332995414734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49686217308044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49221587181091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56811237335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56966114044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55572152137756</t>
   </si>
   <si>
     <t xml:space="preserve">2.78651070594788</t>
@@ -1352,46 +1352,46 @@
     <t xml:space="preserve">2.91352272033691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90267992019653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95069646835327</t>
+    <t xml:space="preserve">2.90268015861511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95069622993469</t>
   </si>
   <si>
     <t xml:space="preserve">2.97547960281372</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05137634277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04363203048706</t>
+    <t xml:space="preserve">3.0513768196106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04363179206848</t>
   </si>
   <si>
     <t xml:space="preserve">3.03588724136353</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07306122779846</t>
+    <t xml:space="preserve">3.07306146621704</t>
   </si>
   <si>
     <t xml:space="preserve">3.10713791847229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03124046325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92591404914856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98477339744568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95224523544312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02659392356873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00645804405212</t>
+    <t xml:space="preserve">3.03124094009399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92591381072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9847731590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95224547386169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02659368515015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00645780563354</t>
   </si>
   <si>
     <t xml:space="preserve">3.03898525238037</t>
@@ -1403,22 +1403,22 @@
     <t xml:space="preserve">2.93365836143494</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82213592529297</t>
+    <t xml:space="preserve">2.82213568687439</t>
   </si>
   <si>
     <t xml:space="preserve">2.85056233406067</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83950781822205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90583682060242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89636063575745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81897735595703</t>
+    <t xml:space="preserve">2.83950757980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.905837059021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89636039733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81897711753845</t>
   </si>
   <si>
     <t xml:space="preserve">2.70842885971069</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">2.7021119594574</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74791026115417</t>
+    <t xml:space="preserve">2.74791049957275</t>
   </si>
   <si>
     <t xml:space="preserve">2.79686808586121</t>
@@ -1442,88 +1442,88 @@
     <t xml:space="preserve">2.69895362854004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77633786201477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80476379394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77475833892822</t>
+    <t xml:space="preserve">2.77633738517761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80476403236389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7747585773468</t>
   </si>
   <si>
     <t xml:space="preserve">2.73053860664368</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74317240715027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73843479156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72738027572632</t>
+    <t xml:space="preserve">2.74317264556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73843455314636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72738003730774</t>
   </si>
   <si>
     <t xml:space="preserve">2.75422739982605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69263672828674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68947839736938</t>
+    <t xml:space="preserve">2.69263625144958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68947792053223</t>
   </si>
   <si>
     <t xml:space="preserve">2.71790432929993</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72264242172241</t>
+    <t xml:space="preserve">2.72264218330383</t>
   </si>
   <si>
     <t xml:space="preserve">2.8426661491394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8489830493927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89793992042542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88214731216431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84740376472473</t>
+    <t xml:space="preserve">2.84898281097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89793968200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88214707374573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84740400314331</t>
   </si>
   <si>
     <t xml:space="preserve">2.80634331703186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82055640220642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83792805671692</t>
+    <t xml:space="preserve">2.820556640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8379282951355</t>
   </si>
   <si>
     <t xml:space="preserve">2.83161115646362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.855299949646</t>
+    <t xml:space="preserve">2.85530018806458</t>
   </si>
   <si>
     <t xml:space="preserve">2.83319067955017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82687377929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85372114181519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90741586685181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92636704444885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91057443618774</t>
+    <t xml:space="preserve">2.8268735408783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85372066497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90741610527039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92636728286743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91057467460632</t>
   </si>
   <si>
     <t xml:space="preserve">2.92794632911682</t>
@@ -1538,10 +1538,10 @@
     <t xml:space="preserve">2.88372659683228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88056802749634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86793398857117</t>
+    <t xml:space="preserve">2.88056778907776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86793375015259</t>
   </si>
   <si>
     <t xml:space="preserve">2.83476972579956</t>
@@ -1550,19 +1550,19 @@
     <t xml:space="preserve">2.83003211021423</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75896501541138</t>
+    <t xml:space="preserve">2.75896525382996</t>
   </si>
   <si>
     <t xml:space="preserve">2.80002617835999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79528832435608</t>
+    <t xml:space="preserve">2.79528856277466</t>
   </si>
   <si>
     <t xml:space="preserve">2.77317905426025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76528215408325</t>
+    <t xml:space="preserve">2.76528191566467</t>
   </si>
   <si>
     <t xml:space="preserve">2.71632528305054</t>
@@ -1574,25 +1574,25 @@
     <t xml:space="preserve">2.64841771125793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68000268936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74633097648621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86161708831787</t>
+    <t xml:space="preserve">2.68000245094299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74633073806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86161732673645</t>
   </si>
   <si>
     <t xml:space="preserve">2.86477541923523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84424495697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87583017349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85214161872864</t>
+    <t xml:space="preserve">2.84424519538879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87583041191101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85214138031006</t>
   </si>
   <si>
     <t xml:space="preserve">2.81108117103577</t>
@@ -1601,25 +1601,25 @@
     <t xml:space="preserve">2.81739807128906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82529425621033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80792236328125</t>
+    <t xml:space="preserve">2.82529449462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80792260169983</t>
   </si>
   <si>
     <t xml:space="preserve">2.59472227096558</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59156370162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53471112251282</t>
+    <t xml:space="preserve">2.59156394004822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53471064567566</t>
   </si>
   <si>
     <t xml:space="preserve">2.559978723526</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58524680137634</t>
+    <t xml:space="preserve">2.58524703979492</t>
   </si>
   <si>
     <t xml:space="preserve">2.50312519073486</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">2.38941884040833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38784003257751</t>
+    <t xml:space="preserve">2.38783955574036</t>
   </si>
   <si>
     <t xml:space="preserve">2.32151055335999</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">2.33572387695312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31045532226562</t>
+    <t xml:space="preserve">2.31045579910278</t>
   </si>
   <si>
     <t xml:space="preserve">2.35941243171692</t>
@@ -1649,7 +1649,7 @@
     <t xml:space="preserve">2.34993696212769</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2915050983429</t>
+    <t xml:space="preserve">2.29150485992432</t>
   </si>
   <si>
     <t xml:space="preserve">2.26465749740601</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">2.19832825660706</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25518202781677</t>
+    <t xml:space="preserve">2.25518226623535</t>
   </si>
   <si>
     <t xml:space="preserve">2.20464515686035</t>
@@ -1676,37 +1676,37 @@
     <t xml:space="preserve">2.20148682594299</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24254822731018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28834629058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26781606674194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24886512756348</t>
+    <t xml:space="preserve">2.2425479888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28834652900696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26781582832336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2488648891449</t>
   </si>
   <si>
     <t xml:space="preserve">2.25202345848083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25044417381287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23938870429993</t>
+    <t xml:space="preserve">2.25044441223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23938894271851</t>
   </si>
   <si>
     <t xml:space="preserve">2.19516968727112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21570014953613</t>
+    <t xml:space="preserve">2.21569991111755</t>
   </si>
   <si>
     <t xml:space="preserve">2.19674897193909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19359064102173</t>
+    <t xml:space="preserve">2.19359040260315</t>
   </si>
   <si>
     <t xml:space="preserve">2.17148113250732</t>
@@ -1718,10 +1718,10 @@
     <t xml:space="preserve">2.11462807655334</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12094521522522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10199332237244</t>
+    <t xml:space="preserve">2.12094497680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10199308395386</t>
   </si>
   <si>
     <t xml:space="preserve">2.12568283081055</t>
@@ -1739,7 +1739,7 @@
     <t xml:space="preserve">2.19201135635376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23465085029602</t>
+    <t xml:space="preserve">2.23465132713318</t>
   </si>
   <si>
     <t xml:space="preserve">2.20306587219238</t>
@@ -1751,19 +1751,19 @@
     <t xml:space="preserve">2.12410354614258</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08304214477539</t>
+    <t xml:space="preserve">2.08304238319397</t>
   </si>
   <si>
     <t xml:space="preserve">2.07514595985413</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10673117637634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10830998420715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02776861190796</t>
+    <t xml:space="preserve">2.10673093795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10831046104431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02776837348938</t>
   </si>
   <si>
     <t xml:space="preserve">2.12252426147461</t>
@@ -1778,10 +1778,10 @@
     <t xml:space="preserve">2.00723838806152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07830452919006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06409096717834</t>
+    <t xml:space="preserve">2.07830476760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0640914440155</t>
   </si>
   <si>
     <t xml:space="preserve">2.13515830039978</t>
@@ -1796,49 +1796,49 @@
     <t xml:space="preserve">2.13357901573181</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08777976036072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02303051948547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00565886497498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05619502067566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02934765815735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99776268005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98512864112854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96933531761169</t>
+    <t xml:space="preserve">2.0877799987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02303075790405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00565910339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05619525909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02934789657593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.997762799263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98512887954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96933543682098</t>
   </si>
   <si>
     <t xml:space="preserve">2.01987242698669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98354935646057</t>
+    <t xml:space="preserve">1.98354947566986</t>
   </si>
   <si>
     <t xml:space="preserve">1.95512211322784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90932416915894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8382568359375</t>
+    <t xml:space="preserve">1.90932393074036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83825695514679</t>
   </si>
   <si>
     <t xml:space="preserve">1.81614744663239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83193981647491</t>
+    <t xml:space="preserve">1.83194005489349</t>
   </si>
   <si>
     <t xml:space="preserve">1.8556295633316</t>
@@ -1847,10 +1847,10 @@
     <t xml:space="preserve">1.91090309619904</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8887939453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88721430301666</t>
+    <t xml:space="preserve">1.88879382610321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88721442222595</t>
   </si>
   <si>
     <t xml:space="preserve">1.91406190395355</t>
@@ -1859,136 +1859,136 @@
     <t xml:space="preserve">1.93459188938141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96459805965424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01039695739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00250029563904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97723150253296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97091472148895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96301817893982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9740731716156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96775639057159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03250598907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02461004257202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01671361923218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04671931266785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00407981872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93143332004547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93301248550415</t>
+    <t xml:space="preserve">1.96459770202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01039671897888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00250053405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97723174095154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97091484069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96301829814911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97407305240631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9677562713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03250622749329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02460980415344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01671385765076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04671955108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00407958030701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93143343925476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93301260471344</t>
   </si>
   <si>
     <t xml:space="preserve">1.91879940032959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88089728355408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94248819351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94090902805328</t>
+    <t xml:space="preserve">1.88089752197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94248843193054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9409087896347</t>
   </si>
   <si>
     <t xml:space="preserve">1.96617698669434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92353737354279</t>
+    <t xml:space="preserve">1.9235372543335</t>
   </si>
   <si>
     <t xml:space="preserve">1.90142774581909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93775045871735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92669570446014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92511653900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93617105484009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90774464607239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87931835651398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83509826660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82878148555756</t>
+    <t xml:space="preserve">1.93775057792664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92669558525085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92511641979218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93617141246796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90774488449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87931823730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83509838581085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82878160476685</t>
   </si>
   <si>
     <t xml:space="preserve">1.86984264850616</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89037263393402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89826917648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90458607673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91564083099365</t>
+    <t xml:space="preserve">1.8903728723526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89826929569244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90458631515503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91564106941223</t>
   </si>
   <si>
     <t xml:space="preserve">1.8730012178421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78456234931946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7987756729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7261301279068</t>
+    <t xml:space="preserve">1.78456246852875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79877555370331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72613024711609</t>
   </si>
   <si>
     <t xml:space="preserve">1.6913857460022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.645587682724</t>
+    <t xml:space="preserve">1.64558780193329</t>
   </si>
   <si>
     <t xml:space="preserve">1.66927635669708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65190458297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64381504058838</t>
+    <t xml:space="preserve">1.65190470218658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64381492137909</t>
   </si>
   <si>
     <t xml:space="preserve">1.64543294906616</t>
@@ -1997,10 +1997,10 @@
     <t xml:space="preserve">1.67617356777191</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65352272987366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66646599769592</t>
+    <t xml:space="preserve">1.65352261066437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66646587848663</t>
   </si>
   <si>
     <t xml:space="preserve">1.64866888523102</t>
@@ -2021,25 +2021,25 @@
     <t xml:space="preserve">1.68102717399597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70206010341644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61792755126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62763583660126</t>
+    <t xml:space="preserve">1.70206022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61792767047882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62763595581055</t>
   </si>
   <si>
     <t xml:space="preserve">1.63572549819946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57667064666748</t>
+    <t xml:space="preserve">1.57667076587677</t>
   </si>
   <si>
     <t xml:space="preserve">1.5750527381897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57586169242859</t>
+    <t xml:space="preserve">1.57586181163788</t>
   </si>
   <si>
     <t xml:space="preserve">1.55482876300812</t>
@@ -2051,22 +2051,22 @@
     <t xml:space="preserve">1.60013043880463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58961391448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60741114616394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56291818618774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57262599468231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59608566761017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58799624443054</t>
+    <t xml:space="preserve">1.58961403369904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60741090774536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56291830539703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57262587547302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59608578681946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58799600601196</t>
   </si>
   <si>
     <t xml:space="preserve">1.58637833595276</t>
@@ -2075,13 +2075,13 @@
     <t xml:space="preserve">1.64219725131989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6874988079071</t>
+    <t xml:space="preserve">1.68749892711639</t>
   </si>
   <si>
     <t xml:space="preserve">1.67455542087555</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63410770893097</t>
+    <t xml:space="preserve">1.63410758972168</t>
   </si>
   <si>
     <t xml:space="preserve">1.6114559173584</t>
@@ -2102,25 +2102,25 @@
     <t xml:space="preserve">1.57100796699524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55321097373962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54916608333588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54026758670807</t>
+    <t xml:space="preserve">1.55321085453033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54916596412659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54026746749878</t>
   </si>
   <si>
     <t xml:space="preserve">1.52408826351166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52166152000427</t>
+    <t xml:space="preserve">1.52166140079498</t>
   </si>
   <si>
     <t xml:space="preserve">1.5289421081543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51761662960052</t>
+    <t xml:space="preserve">1.51761674880981</t>
   </si>
   <si>
     <t xml:space="preserve">1.50710010528564</t>
@@ -2132,16 +2132,16 @@
     <t xml:space="preserve">1.49011206626892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48525738716125</t>
+    <t xml:space="preserve">1.48525762557983</t>
   </si>
   <si>
     <t xml:space="preserve">1.37523901462555</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34287989139557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3404529094696</t>
+    <t xml:space="preserve">1.34287977218628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34045302867889</t>
   </si>
   <si>
     <t xml:space="preserve">1.286252617836</t>
@@ -2153,19 +2153,19 @@
     <t xml:space="preserve">1.3420706987381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30890333652496</t>
+    <t xml:space="preserve">1.30890345573425</t>
   </si>
   <si>
     <t xml:space="preserve">1.31861102581024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36795830726624</t>
+    <t xml:space="preserve">1.36795842647552</t>
   </si>
   <si>
     <t xml:space="preserve">1.35663294792175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36714935302734</t>
+    <t xml:space="preserve">1.36714947223663</t>
   </si>
   <si>
     <t xml:space="preserve">1.40759742259979</t>
@@ -2183,28 +2183,28 @@
     <t xml:space="preserve">1.45451688766479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48202168941498</t>
+    <t xml:space="preserve">1.48202157020569</t>
   </si>
   <si>
     <t xml:space="preserve">1.47231411933899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44885432720184</t>
+    <t xml:space="preserve">1.44885420799255</t>
   </si>
   <si>
     <t xml:space="preserve">1.5103360414505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49820172786713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46422457695007</t>
+    <t xml:space="preserve">1.49820160865784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46422445774078</t>
   </si>
   <si>
     <t xml:space="preserve">1.44723629951477</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45613503456116</t>
+    <t xml:space="preserve">1.45613491535187</t>
   </si>
   <si>
     <t xml:space="preserve">1.46179759502411</t>
@@ -2219,7 +2219,7 @@
     <t xml:space="preserve">1.38171064853668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35097014904022</t>
+    <t xml:space="preserve">1.35097026824951</t>
   </si>
   <si>
     <t xml:space="preserve">1.35905969142914</t>
@@ -2243,22 +2243,22 @@
     <t xml:space="preserve">1.35986876487732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37281215190887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3970810174942</t>
+    <t xml:space="preserve">1.37281203269958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39708089828491</t>
   </si>
   <si>
     <t xml:space="preserve">1.43186616897583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45775282382965</t>
+    <t xml:space="preserve">1.45775270462036</t>
   </si>
   <si>
     <t xml:space="preserve">1.48768520355225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4812126159668</t>
+    <t xml:space="preserve">1.48121273517609</t>
   </si>
   <si>
     <t xml:space="preserve">1.44804537296295</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">1.45370805263519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45856177806854</t>
+    <t xml:space="preserve">1.45856165885925</t>
   </si>
   <si>
     <t xml:space="preserve">1.45937073230743</t>
@@ -2276,7 +2276,7 @@
     <t xml:space="preserve">1.43672001361847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46503341197968</t>
+    <t xml:space="preserve">1.46503353118896</t>
   </si>
   <si>
     <t xml:space="preserve">1.52651512622833</t>
@@ -2288,7 +2288,7 @@
     <t xml:space="preserve">1.53541374206543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50548231601715</t>
+    <t xml:space="preserve">1.50548219680786</t>
   </si>
   <si>
     <t xml:space="preserve">1.53703165054321</t>
@@ -2297,40 +2297,40 @@
     <t xml:space="preserve">1.74574387073517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69558835029602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69073474407196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69397056102753</t>
+    <t xml:space="preserve">1.6955885887146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69073486328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69397044181824</t>
   </si>
   <si>
     <t xml:space="preserve">1.65675842761993</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64705097675323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63087177276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66323018074036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71662151813507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74736177921295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.715003490448</t>
+    <t xml:space="preserve">1.64705109596252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63087153434753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66323006153107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71662139892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74736189842224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71500372886658</t>
   </si>
   <si>
     <t xml:space="preserve">1.73603653907776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6599942445755</t>
+    <t xml:space="preserve">1.65999412536621</t>
   </si>
   <si>
     <t xml:space="preserve">1.68426311016083</t>
@@ -2342,10 +2342,10 @@
     <t xml:space="preserve">1.75868821144104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72794687747955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73280048370361</t>
+    <t xml:space="preserve">1.72794699668884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7328006029129</t>
   </si>
   <si>
     <t xml:space="preserve">1.70529615879059</t>
@@ -2354,25 +2354,25 @@
     <t xml:space="preserve">1.70044231414795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73441851139069</t>
+    <t xml:space="preserve">1.73441863059998</t>
   </si>
   <si>
     <t xml:space="preserve">1.69235265254974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67131972312927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66970193386078</t>
+    <t xml:space="preserve">1.67131984233856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6697016954422</t>
   </si>
   <si>
     <t xml:space="preserve">1.71176767349243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71823930740356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69882428646088</t>
+    <t xml:space="preserve">1.71823942661285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69882440567017</t>
   </si>
   <si>
     <t xml:space="preserve">1.7133857011795</t>
@@ -2381,64 +2381,64 @@
     <t xml:space="preserve">1.71014976501465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70367813110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63896131515503</t>
+    <t xml:space="preserve">1.70367801189423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63896143436432</t>
   </si>
   <si>
     <t xml:space="preserve">1.62116420269012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61711859703064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6324896812439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6502867937088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75545156002045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88488590717316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93504214286804</t>
+    <t xml:space="preserve">1.61711847782135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63248980045319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65028667449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75545144081116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88488578796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93504226207733</t>
   </si>
   <si>
     <t xml:space="preserve">1.91077327728271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97063624858856</t>
+    <t xml:space="preserve">1.97063612937927</t>
   </si>
   <si>
     <t xml:space="preserve">2.17449569702148</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21656179428101</t>
+    <t xml:space="preserve">2.21656155586243</t>
   </si>
   <si>
     <t xml:space="preserve">2.08712720870972</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02564549446106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90591943264008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89944779872894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94636762142181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82987666130066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58556914329529</t>
+    <t xml:space="preserve">2.02564525604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90591967105865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89944767951965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94636750221252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82987654209137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58556926250458</t>
   </si>
   <si>
     <t xml:space="preserve">1.47312295436859</t>
@@ -2453,7 +2453,7 @@
     <t xml:space="preserve">1.28463470935822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26845562458038</t>
+    <t xml:space="preserve">1.26845550537109</t>
   </si>
   <si>
     <t xml:space="preserve">1.02819299697876</t>
@@ -2462,16 +2462,16 @@
     <t xml:space="preserve">1.06621408462524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.984509289264679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01282274723053</t>
+    <t xml:space="preserve">0.984509229660034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01282262802124</t>
   </si>
   <si>
     <t xml:space="preserve">1.03142881393433</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09129250049591</t>
+    <t xml:space="preserve">1.0912926197052</t>
   </si>
   <si>
     <t xml:space="preserve">1.11798822879791</t>
@@ -2480,19 +2480,19 @@
     <t xml:space="preserve">1.0613602399826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14791977405548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15600955486298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14387500286102</t>
+    <t xml:space="preserve">1.14791965484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15600943565369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14387488365173</t>
   </si>
   <si>
     <t xml:space="preserve">1.09210157394409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07106792926788</t>
+    <t xml:space="preserve">1.07106781005859</t>
   </si>
   <si>
     <t xml:space="preserve">1.11556148529053</t>
@@ -2504,7 +2504,7 @@
     <t xml:space="preserve">1.18513190746307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13254964351654</t>
+    <t xml:space="preserve">1.13254952430725</t>
   </si>
   <si>
     <t xml:space="preserve">1.19403040409088</t>
@@ -2513,25 +2513,25 @@
     <t xml:space="preserve">1.21991789340973</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28787064552307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25065839290619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24904048442841</t>
+    <t xml:space="preserve">1.28787052631378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25065851211548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24904036521912</t>
   </si>
   <si>
     <t xml:space="preserve">1.16490793228149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14306604862213</t>
+    <t xml:space="preserve">1.14306592941284</t>
   </si>
   <si>
     <t xml:space="preserve">1.17218852043152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13902127742767</t>
+    <t xml:space="preserve">1.13902115821838</t>
   </si>
   <si>
     <t xml:space="preserve">1.17299747467041</t>
@@ -2543,19 +2543,19 @@
     <t xml:space="preserve">1.15924513339996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15115571022034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16409909725189</t>
+    <t xml:space="preserve">1.15115559101105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1640989780426</t>
   </si>
   <si>
     <t xml:space="preserve">1.17057073116302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11151659488678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14953780174255</t>
+    <t xml:space="preserve">1.11151671409607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14953768253326</t>
   </si>
   <si>
     <t xml:space="preserve">1.12445998191833</t>
@@ -2579,37 +2579,37 @@
     <t xml:space="preserve">1.03951847553253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05974233150482</t>
+    <t xml:space="preserve">1.05974245071411</t>
   </si>
   <si>
     <t xml:space="preserve">1.01039588451385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992598831653595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986936092376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.978846430778503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05650651454926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06864094734192</t>
+    <t xml:space="preserve">0.992598712444305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.986936032772064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.978846490383148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05650663375854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06864106655121</t>
   </si>
   <si>
     <t xml:space="preserve">1.13416755199432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17542445659637</t>
+    <t xml:space="preserve">1.17542433738708</t>
   </si>
   <si>
     <t xml:space="preserve">1.18108701705933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21506357192993</t>
+    <t xml:space="preserve">1.21506345272064</t>
   </si>
   <si>
     <t xml:space="preserve">1.26602864265442</t>
@@ -2618,13 +2618,13 @@
     <t xml:space="preserve">1.30162286758423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32750976085663</t>
+    <t xml:space="preserve">1.32750964164734</t>
   </si>
   <si>
     <t xml:space="preserve">1.28544366359711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27411818504333</t>
+    <t xml:space="preserve">1.27411830425262</t>
   </si>
   <si>
     <t xml:space="preserve">1.22962546348572</t>
@@ -2636,7 +2636,7 @@
     <t xml:space="preserve">1.27169132232666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24499583244324</t>
+    <t xml:space="preserve">1.24499571323395</t>
   </si>
   <si>
     <t xml:space="preserve">1.27816295623779</t>
@@ -2654,10 +2654,10 @@
     <t xml:space="preserve">1.46017980575562</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50386416912079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51195394992828</t>
+    <t xml:space="preserve">1.50386428833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51195383071899</t>
   </si>
   <si>
     <t xml:space="preserve">1.49334788322449</t>
@@ -2666,13 +2666,13 @@
     <t xml:space="preserve">1.49901056289673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50143754482269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50305533409119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51680779457092</t>
+    <t xml:space="preserve">1.5014374256134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50305545330048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51680767536163</t>
   </si>
   <si>
     <t xml:space="preserve">1.59932160377502</t>
@@ -2681,64 +2681,64 @@
     <t xml:space="preserve">1.55159294605255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5936586856842</t>
+    <t xml:space="preserve">1.59365880489349</t>
   </si>
   <si>
     <t xml:space="preserve">1.58152437210083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56939005851746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49577462673187</t>
+    <t xml:space="preserve">1.56938993930817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49577474594116</t>
   </si>
   <si>
     <t xml:space="preserve">1.47474098205566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43833792209625</t>
+    <t xml:space="preserve">1.43833780288696</t>
   </si>
   <si>
     <t xml:space="preserve">1.46665143966675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53379595279694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54835712909698</t>
+    <t xml:space="preserve">1.53379571437836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5483570098877</t>
   </si>
   <si>
     <t xml:space="preserve">1.57990658283234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59042298793793</t>
+    <t xml:space="preserve">1.59042310714722</t>
   </si>
   <si>
     <t xml:space="preserve">1.66161239147186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62925386428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47716784477234</t>
+    <t xml:space="preserve">1.62925374507904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47716772556305</t>
   </si>
   <si>
     <t xml:space="preserve">1.47635889053345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43995571136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46988725662231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49415683746338</t>
+    <t xml:space="preserve">1.43995559215546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4698873758316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49415671825409</t>
   </si>
   <si>
     <t xml:space="preserve">1.47797679901123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48687613010406</t>
+    <t xml:space="preserve">1.48687624931335</t>
   </si>
   <si>
     <t xml:space="preserve">1.4917299747467</t>
@@ -2747,13 +2747,13 @@
     <t xml:space="preserve">1.41568696498871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41245114803314</t>
+    <t xml:space="preserve">1.41245126724243</t>
   </si>
   <si>
     <t xml:space="preserve">1.43914663791656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39303624629974</t>
+    <t xml:space="preserve">1.39303600788116</t>
   </si>
   <si>
     <t xml:space="preserve">1.41811382770538</t>
@@ -2762,7 +2762,7 @@
     <t xml:space="preserve">1.42943930625916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49739253520966</t>
+    <t xml:space="preserve">1.49739265441895</t>
   </si>
   <si>
     <t xml:space="preserve">1.46746027469635</t>
@@ -2777,10 +2777,10 @@
     <t xml:space="preserve">1.45128118991852</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41164207458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42701232433319</t>
+    <t xml:space="preserve">1.41164219379425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42701244354248</t>
   </si>
   <si>
     <t xml:space="preserve">1.43105721473694</t>
@@ -2789,7 +2789,7 @@
     <t xml:space="preserve">1.36472260951996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35501492023468</t>
+    <t xml:space="preserve">1.35501503944397</t>
   </si>
   <si>
     <t xml:space="preserve">1.31213939189911</t>
@@ -2801,16 +2801,16 @@
     <t xml:space="preserve">1.19726634025574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18674993515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21910905838013</t>
+    <t xml:space="preserve">1.18674981594086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21910893917084</t>
   </si>
   <si>
     <t xml:space="preserve">1.31456625461578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33074533939362</t>
+    <t xml:space="preserve">1.33074545860291</t>
   </si>
   <si>
     <t xml:space="preserve">1.32670056819916</t>
@@ -2819,16 +2819,16 @@
     <t xml:space="preserve">1.31618404388428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54512131214142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53460466861725</t>
+    <t xml:space="preserve">1.54512119293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53460478782654</t>
   </si>
   <si>
     <t xml:space="preserve">1.60983800888062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66484808921814</t>
+    <t xml:space="preserve">1.66484797000885</t>
   </si>
   <si>
     <t xml:space="preserve">1.94151377677917</t>
@@ -2837,25 +2837,25 @@
     <t xml:space="preserve">1.90915536880493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90106582641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88326776027679</t>
+    <t xml:space="preserve">1.90106594562531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88326787948608</t>
   </si>
   <si>
     <t xml:space="preserve">1.81369733810425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84443807601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80560791492462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82340478897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82502281665802</t>
+    <t xml:space="preserve">1.84443783760071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80560779571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82340490818024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82502293586731</t>
   </si>
   <si>
     <t xml:space="preserve">1.8541454076767</t>
@@ -2864,10 +2864,10 @@
     <t xml:space="preserve">1.85090959072113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82016885280609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78781068325043</t>
+    <t xml:space="preserve">1.82016897201538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78781080245972</t>
   </si>
   <si>
     <t xml:space="preserve">1.78133893013</t>
@@ -2876,10 +2876,10 @@
     <t xml:space="preserve">1.79913604259491</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77972090244293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79590022563934</t>
+    <t xml:space="preserve">1.77972102165222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79590034484863</t>
   </si>
   <si>
     <t xml:space="preserve">1.76192402839661</t>
@@ -2888,28 +2888,28 @@
     <t xml:space="preserve">1.73118269443512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75221574306488</t>
+    <t xml:space="preserve">1.7522155046463</t>
   </si>
   <si>
     <t xml:space="preserve">1.77648520469666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78457486629486</t>
+    <t xml:space="preserve">1.78457498550415</t>
   </si>
   <si>
     <t xml:space="preserve">1.78295683860779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86870682239532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90430176258087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88165009021759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84281969070435</t>
+    <t xml:space="preserve">1.86870670318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90430164337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88164985179901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84281980991364</t>
   </si>
   <si>
     <t xml:space="preserve">1.86061692237854</t>
@@ -2918,34 +2918,34 @@
     <t xml:space="preserve">1.81531536579132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77001368999481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79428243637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77163147926331</t>
+    <t xml:space="preserve">1.77001345157623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79428231716156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7716315984726</t>
   </si>
   <si>
     <t xml:space="preserve">1.75383353233337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68264496326447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70853185653687</t>
+    <t xml:space="preserve">1.68264508247375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70853197574615</t>
   </si>
   <si>
     <t xml:space="preserve">1.73765432834625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8719425201416</t>
+    <t xml:space="preserve">1.87194228172302</t>
   </si>
   <si>
     <t xml:space="preserve">2.02079176902771</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99005150794983</t>
+    <t xml:space="preserve">1.99005126953125</t>
   </si>
   <si>
     <t xml:space="preserve">2.01432013511658</t>
@@ -2954,46 +2954,46 @@
     <t xml:space="preserve">2.00137662887573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98681569099426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02402758598328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98196172714233</t>
+    <t xml:space="preserve">1.98681545257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02402782440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98196160793304</t>
   </si>
   <si>
     <t xml:space="preserve">1.9382780790329</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96092903614044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95122122764587</t>
+    <t xml:space="preserve">1.96092891693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95122110843658</t>
   </si>
   <si>
     <t xml:space="preserve">1.94798541069031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9560751914978</t>
+    <t xml:space="preserve">1.95607483386993</t>
   </si>
   <si>
     <t xml:space="preserve">1.93665969371796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9301882982254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97710788249969</t>
+    <t xml:space="preserve">1.93018817901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97710776329041</t>
   </si>
   <si>
     <t xml:space="preserve">1.96578240394592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95769286155701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0046124458313</t>
+    <t xml:space="preserve">1.9576929807663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00461268424988</t>
   </si>
   <si>
     <t xml:space="preserve">1.99652290344238</t>
@@ -3002,13 +3002,13 @@
     <t xml:space="preserve">2.06447649002075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12110376358032</t>
+    <t xml:space="preserve">2.12110352516174</t>
   </si>
   <si>
     <t xml:space="preserve">2.20038223266602</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28936767578125</t>
+    <t xml:space="preserve">2.28936815261841</t>
   </si>
   <si>
     <t xml:space="preserve">2.33628821372986</t>
@@ -3023,22 +3023,22 @@
     <t xml:space="preserve">2.25700950622559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30878376960754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28775000572205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29098582267761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38320779800415</t>
+    <t xml:space="preserve">2.30878400802612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28774976730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29098606109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38320755958557</t>
   </si>
   <si>
     <t xml:space="preserve">2.31040191650391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34599590301514</t>
+    <t xml:space="preserve">2.34599566459656</t>
   </si>
   <si>
     <t xml:space="preserve">2.34275984764099</t>
@@ -3047,13 +3047,13 @@
     <t xml:space="preserve">2.32334494590759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32496333122253</t>
+    <t xml:space="preserve">2.32496285438538</t>
   </si>
   <si>
     <t xml:space="preserve">2.39453339576721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40747666358948</t>
+    <t xml:space="preserve">2.40747690200806</t>
   </si>
   <si>
     <t xml:space="preserve">2.43174624443054</t>
@@ -3065,7 +3065,7 @@
     <t xml:space="preserve">2.396151304245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40585875511169</t>
+    <t xml:space="preserve">2.40585899353027</t>
   </si>
   <si>
     <t xml:space="preserve">2.40909457206726</t>
@@ -3086,25 +3086,25 @@
     <t xml:space="preserve">2.83137392997742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80386900901794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78768992424011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89447379112244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93330383300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98507785797119</t>
+    <t xml:space="preserve">2.80386924743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78769016265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89447355270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93330359458923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98507761955261</t>
   </si>
   <si>
     <t xml:space="preserve">3.09186029434204</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0692093372345</t>
+    <t xml:space="preserve">3.06920957565308</t>
   </si>
   <si>
     <t xml:space="preserve">3.06597375869751</t>
@@ -3113,22 +3113,22 @@
     <t xml:space="preserve">3.15172433853149</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15496015548706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14039874076843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19217228889465</t>
+    <t xml:space="preserve">3.15495991706848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14039897918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19217205047607</t>
   </si>
   <si>
     <t xml:space="preserve">3.17761063575745</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16790366172791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19055414199829</t>
+    <t xml:space="preserve">3.16790342330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19055438041687</t>
   </si>
   <si>
     <t xml:space="preserve">3.30391597747803</t>
@@ -3140,10 +3140,10 @@
     <t xml:space="preserve">3.27598571777344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37784719467163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31213045120239</t>
+    <t xml:space="preserve">3.37784695625305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31213021278381</t>
   </si>
   <si>
     <t xml:space="preserve">3.33677434921265</t>
@@ -3191,13 +3191,13 @@
     <t xml:space="preserve">3.0016176700592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99997472763062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93097257614136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99340319633484</t>
+    <t xml:space="preserve">2.99997496604919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93097233772278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99340343475342</t>
   </si>
   <si>
     <t xml:space="preserve">2.99176049232483</t>
@@ -3224,10 +3224,10 @@
     <t xml:space="preserve">2.94740176200867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91782903671265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04597735404968</t>
+    <t xml:space="preserve">2.91782927513123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0459771156311</t>
   </si>
   <si>
     <t xml:space="preserve">2.99504613876343</t>
@@ -3248,7 +3248,7 @@
     <t xml:space="preserve">2.85539770126343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92768692970276</t>
+    <t xml:space="preserve">2.92768669128418</t>
   </si>
   <si>
     <t xml:space="preserve">2.95397353172302</t>
@@ -3266,7 +3266,7 @@
     <t xml:space="preserve">3.15276646614075</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11497950553894</t>
+    <t xml:space="preserve">3.11497926712036</t>
   </si>
   <si>
     <t xml:space="preserve">3.05419158935547</t>
@@ -3278,7 +3278,7 @@
     <t xml:space="preserve">3.06240630149841</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04104828834534</t>
+    <t xml:space="preserve">3.04104852676392</t>
   </si>
   <si>
     <t xml:space="preserve">3.04762005805969</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">3.12647986412048</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16262483596802</t>
+    <t xml:space="preserve">3.16262459754944</t>
   </si>
   <si>
     <t xml:space="preserve">3.11169385910034</t>
@@ -3299,10 +3299,10 @@
     <t xml:space="preserve">3.13633728027344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13305139541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03776240348816</t>
+    <t xml:space="preserve">3.13305163383484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03776264190674</t>
   </si>
   <si>
     <t xml:space="preserve">3.06569218635559</t>
@@ -3311,7 +3311,7 @@
     <t xml:space="preserve">3.04926300048828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08376431465149</t>
+    <t xml:space="preserve">3.08376407623291</t>
   </si>
   <si>
     <t xml:space="preserve">3.10512208938599</t>
@@ -3320,19 +3320,19 @@
     <t xml:space="preserve">3.21355509757996</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2217698097229</t>
+    <t xml:space="preserve">3.22176957130432</t>
   </si>
   <si>
     <t xml:space="preserve">3.19548296928406</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19876885414124</t>
+    <t xml:space="preserve">3.19876909255981</t>
   </si>
   <si>
     <t xml:space="preserve">3.16426777839661</t>
   </si>
   <si>
-    <t xml:space="preserve">3.203697681427</t>
+    <t xml:space="preserve">3.20369744300842</t>
   </si>
   <si>
     <t xml:space="preserve">3.14619469642639</t>
@@ -3347,13 +3347,13 @@
     <t xml:space="preserve">3.04433417320251</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07883524894714</t>
+    <t xml:space="preserve">3.07883548736572</t>
   </si>
   <si>
     <t xml:space="preserve">3.01804757118225</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96218776702881</t>
+    <t xml:space="preserve">2.96218800544739</t>
   </si>
   <si>
     <t xml:space="preserve">3.03119087219238</t>
@@ -3362,7 +3362,7 @@
     <t xml:space="preserve">2.96711659431458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89482855796814</t>
+    <t xml:space="preserve">2.89482879638672</t>
   </si>
   <si>
     <t xml:space="preserve">2.89811420440674</t>
@@ -3371,10 +3371,10 @@
     <t xml:space="preserve">2.99668884277344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00654673576355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01476097106934</t>
+    <t xml:space="preserve">3.00654649734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01476120948792</t>
   </si>
   <si>
     <t xml:space="preserve">2.97861695289612</t>
@@ -3383,7 +3383,7 @@
     <t xml:space="preserve">3.02790522575378</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05090570449829</t>
+    <t xml:space="preserve">3.05090594291687</t>
   </si>
   <si>
     <t xml:space="preserve">3.02461910247803</t>
@@ -3407,10 +3407,10 @@
     <t xml:space="preserve">3.11333656311035</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1659107208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18726825714111</t>
+    <t xml:space="preserve">3.16591048240662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18726849555969</t>
   </si>
   <si>
     <t xml:space="preserve">3.20205473899841</t>
@@ -3419,10 +3419,10 @@
     <t xml:space="preserve">3.16098189353943</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21026921272278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24477052688599</t>
+    <t xml:space="preserve">3.21026945114136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24477028846741</t>
   </si>
   <si>
     <t xml:space="preserve">3.25298476219177</t>
@@ -3431,13 +3431,13 @@
     <t xml:space="preserve">3.12812280654907</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14455199241638</t>
+    <t xml:space="preserve">3.1445517539978</t>
   </si>
   <si>
     <t xml:space="preserve">3.0854070186615</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11990809440613</t>
+    <t xml:space="preserve">3.11990833282471</t>
   </si>
   <si>
     <t xml:space="preserve">3.19384002685547</t>
@@ -3461,19 +3461,19 @@
     <t xml:space="preserve">2.97204542160034</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89154243469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89975714683533</t>
+    <t xml:space="preserve">2.89154267311096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89975690841675</t>
   </si>
   <si>
     <t xml:space="preserve">2.85046911239624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95725917816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90468573570251</t>
+    <t xml:space="preserve">2.95725893974304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90468597412109</t>
   </si>
   <si>
     <t xml:space="preserve">2.77325201034546</t>
@@ -3485,10 +3485,10 @@
     <t xml:space="preserve">2.80939626693726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8389687538147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86854100227356</t>
+    <t xml:space="preserve">2.83896851539612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86854124069214</t>
   </si>
   <si>
     <t xml:space="preserve">2.86525535583496</t>
@@ -3503,7 +3503,7 @@
     <t xml:space="preserve">2.91290044784546</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88825702667236</t>
+    <t xml:space="preserve">2.88825678825378</t>
   </si>
   <si>
     <t xml:space="preserve">2.85868358612061</t>
@@ -3518,10 +3518,7 @@
     <t xml:space="preserve">3.05747747421265</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10347938537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19055438041687</t>
+    <t xml:space="preserve">3.1034791469574</t>
   </si>
   <si>
     <t xml:space="preserve">3.06733512878418</t>
@@ -3539,7 +3536,7 @@
     <t xml:space="preserve">3.09690761566162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93590116500854</t>
+    <t xml:space="preserve">2.93590140342712</t>
   </si>
   <si>
     <t xml:space="preserve">2.98354554176331</t>
@@ -3569,7 +3566,7 @@
     <t xml:space="preserve">3.37956404685974</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30884838104248</t>
+    <t xml:space="preserve">3.3088481426239</t>
   </si>
   <si>
     <t xml:space="preserve">3.42561173439026</t>
@@ -3599,13 +3596,13 @@
     <t xml:space="preserve">3.05065274238586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91415429115295</t>
+    <t xml:space="preserve">2.91415452957153</t>
   </si>
   <si>
     <t xml:space="preserve">2.73818683624268</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77436709403992</t>
+    <t xml:space="preserve">2.7743673324585</t>
   </si>
   <si>
     <t xml:space="preserve">2.72174119949341</t>
@@ -3635,7 +3632,7 @@
     <t xml:space="preserve">2.7529878616333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94704556465149</t>
+    <t xml:space="preserve">2.94704580307007</t>
   </si>
   <si>
     <t xml:space="preserve">2.91908812522888</t>
@@ -3686,16 +3683,16 @@
     <t xml:space="preserve">2.99802684783936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14274764060974</t>
+    <t xml:space="preserve">3.14274787902832</t>
   </si>
   <si>
     <t xml:space="preserve">3.1559042930603</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07696580886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14932608604431</t>
+    <t xml:space="preserve">3.07696557044983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14932584762573</t>
   </si>
   <si>
     <t xml:space="preserve">3.09176659584045</t>
@@ -3725,7 +3722,7 @@
     <t xml:space="preserve">2.98980402946472</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98815965652466</t>
+    <t xml:space="preserve">2.98815941810608</t>
   </si>
   <si>
     <t xml:space="preserve">2.95362377166748</t>
@@ -3734,7 +3731,7 @@
     <t xml:space="preserve">2.87468504905701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97993659973145</t>
+    <t xml:space="preserve">2.97993683815002</t>
   </si>
   <si>
     <t xml:space="preserve">3.00624942779541</t>
@@ -5106,6 +5103,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.88000011444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89499998092651</t>
   </si>
 </sst>
 </file>
@@ -45193,7 +45193,7 @@
         <v>3.88013911247253</v>
       </c>
       <c r="G1529" t="s">
-        <v>1169</v>
+        <v>1038</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -45271,7 +45271,7 @@
         <v>3.73028802871704</v>
       </c>
       <c r="G1532" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -45297,7 +45297,7 @@
         <v>3.83218598365784</v>
       </c>
       <c r="G1533" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -45349,7 +45349,7 @@
         <v>3.9540650844574</v>
       </c>
       <c r="G1535" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -45401,7 +45401,7 @@
         <v>3.94407510757446</v>
       </c>
       <c r="G1537" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -45479,7 +45479,7 @@
         <v>3.76625204086304</v>
       </c>
       <c r="G1540" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -45505,7 +45505,7 @@
         <v>3.73028802871704</v>
       </c>
       <c r="G1541" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -45531,7 +45531,7 @@
         <v>3.57044696807861</v>
       </c>
       <c r="G1542" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -45557,7 +45557,7 @@
         <v>3.62838888168335</v>
       </c>
       <c r="G1543" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -45609,7 +45609,7 @@
         <v>3.73228597640991</v>
       </c>
       <c r="G1545" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -45635,7 +45635,7 @@
         <v>3.68433403968811</v>
       </c>
       <c r="G1546" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -45713,7 +45713,7 @@
         <v>3.87014889717102</v>
       </c>
       <c r="G1549" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -45765,7 +45765,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1551" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -45791,7 +45791,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1552" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -45817,7 +45817,7 @@
         <v>3.9760000705719</v>
       </c>
       <c r="G1553" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -45843,7 +45843,7 @@
         <v>4</v>
       </c>
       <c r="G1554" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -45869,7 +45869,7 @@
         <v>4</v>
       </c>
       <c r="G1555" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -45895,7 +45895,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1556" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -45921,7 +45921,7 @@
         <v>4.02400016784668</v>
       </c>
       <c r="G1557" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -45947,7 +45947,7 @@
         <v>4.16599988937378</v>
       </c>
       <c r="G1558" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -45973,7 +45973,7 @@
         <v>4.18800020217896</v>
       </c>
       <c r="G1559" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -45999,7 +45999,7 @@
         <v>4.15399980545044</v>
       </c>
       <c r="G1560" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -46025,7 +46025,7 @@
         <v>4.23799991607666</v>
       </c>
       <c r="G1561" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -46051,7 +46051,7 @@
         <v>4.12400007247925</v>
       </c>
       <c r="G1562" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -46077,7 +46077,7 @@
         <v>4.03200006484985</v>
       </c>
       <c r="G1563" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -46103,7 +46103,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1564" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -46129,7 +46129,7 @@
         <v>3.64800000190735</v>
       </c>
       <c r="G1565" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -46155,7 +46155,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1566" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -46181,7 +46181,7 @@
         <v>3.54399991035461</v>
       </c>
       <c r="G1567" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -46207,7 +46207,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1568" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -46233,7 +46233,7 @@
         <v>3.37400007247925</v>
       </c>
       <c r="G1569" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -46259,7 +46259,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1570" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -46285,7 +46285,7 @@
         <v>2.93600010871887</v>
       </c>
       <c r="G1571" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -46311,7 +46311,7 @@
         <v>2.92600011825562</v>
       </c>
       <c r="G1572" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -46337,7 +46337,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1573" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -46363,7 +46363,7 @@
         <v>3.30200004577637</v>
       </c>
       <c r="G1574" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -46389,7 +46389,7 @@
         <v>3.1340000629425</v>
       </c>
       <c r="G1575" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -46415,7 +46415,7 @@
         <v>3.16400003433228</v>
       </c>
       <c r="G1576" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -46441,7 +46441,7 @@
         <v>3.2960000038147</v>
       </c>
       <c r="G1577" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -46467,7 +46467,7 @@
         <v>3.34800004959106</v>
       </c>
       <c r="G1578" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -46493,7 +46493,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G1579" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -46519,7 +46519,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1580" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -46545,7 +46545,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1581" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -46571,7 +46571,7 @@
         <v>3.62199997901917</v>
       </c>
       <c r="G1582" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -46597,7 +46597,7 @@
         <v>3.68600010871887</v>
       </c>
       <c r="G1583" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -46623,7 +46623,7 @@
         <v>3.64199995994568</v>
       </c>
       <c r="G1584" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -46649,7 +46649,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G1585" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -46675,7 +46675,7 @@
         <v>3.56800007820129</v>
       </c>
       <c r="G1586" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -46701,7 +46701,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G1587" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -46727,7 +46727,7 @@
         <v>3.80800008773804</v>
       </c>
       <c r="G1588" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -46753,7 +46753,7 @@
         <v>3.81599998474121</v>
       </c>
       <c r="G1589" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -46779,7 +46779,7 @@
         <v>3.71799993515015</v>
       </c>
       <c r="G1590" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -46805,7 +46805,7 @@
         <v>3.76799988746643</v>
       </c>
       <c r="G1591" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -46831,7 +46831,7 @@
         <v>3.80200004577637</v>
       </c>
       <c r="G1592" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -46857,7 +46857,7 @@
         <v>3.77600002288818</v>
       </c>
       <c r="G1593" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -46883,7 +46883,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1594" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -46909,7 +46909,7 @@
         <v>3.64599990844727</v>
       </c>
       <c r="G1595" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -46935,7 +46935,7 @@
         <v>3.82200002670288</v>
       </c>
       <c r="G1596" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -46961,7 +46961,7 @@
         <v>3.83800005912781</v>
       </c>
       <c r="G1597" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -46987,7 +46987,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G1598" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -47013,7 +47013,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1599" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -47039,7 +47039,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1600" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -47065,7 +47065,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1601" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -47091,7 +47091,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1602" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -47117,7 +47117,7 @@
         <v>3.86400008201599</v>
       </c>
       <c r="G1603" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -47143,7 +47143,7 @@
         <v>3.86400008201599</v>
       </c>
       <c r="G1604" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -47169,7 +47169,7 @@
         <v>3.84599995613098</v>
       </c>
       <c r="G1605" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -47195,7 +47195,7 @@
         <v>3.78600001335144</v>
       </c>
       <c r="G1606" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -47221,7 +47221,7 @@
         <v>3.81399989128113</v>
       </c>
       <c r="G1607" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -47247,7 +47247,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1608" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -47273,7 +47273,7 @@
         <v>3.80200004577637</v>
       </c>
       <c r="G1609" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -47299,7 +47299,7 @@
         <v>3.78200006484985</v>
       </c>
       <c r="G1610" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -47325,7 +47325,7 @@
         <v>3.78800010681152</v>
       </c>
       <c r="G1611" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -47351,7 +47351,7 @@
         <v>3.63599991798401</v>
       </c>
       <c r="G1612" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -47377,7 +47377,7 @@
         <v>3.6340000629425</v>
       </c>
       <c r="G1613" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -47403,7 +47403,7 @@
         <v>3.59200000762939</v>
       </c>
       <c r="G1614" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -47429,7 +47429,7 @@
         <v>3.49600005149841</v>
       </c>
       <c r="G1615" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -47455,7 +47455,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1616" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -47481,7 +47481,7 @@
         <v>3.62400007247925</v>
       </c>
       <c r="G1617" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -47507,7 +47507,7 @@
         <v>3.65599989891052</v>
       </c>
       <c r="G1618" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -47533,7 +47533,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1619" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -47559,7 +47559,7 @@
         <v>3.67199993133545</v>
       </c>
       <c r="G1620" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -47585,7 +47585,7 @@
         <v>3.75399994850159</v>
       </c>
       <c r="G1621" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -47611,7 +47611,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G1622" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -47637,7 +47637,7 @@
         <v>3.71600008010864</v>
       </c>
       <c r="G1623" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -47663,7 +47663,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G1624" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -47689,7 +47689,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1625" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -47715,7 +47715,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1626" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -47741,7 +47741,7 @@
         <v>3.85599994659424</v>
       </c>
       <c r="G1627" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -47767,7 +47767,7 @@
         <v>3.8659999370575</v>
       </c>
       <c r="G1628" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -47793,7 +47793,7 @@
         <v>3.85599994659424</v>
       </c>
       <c r="G1629" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -47819,7 +47819,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1630" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -47845,7 +47845,7 @@
         <v>3.78800010681152</v>
       </c>
       <c r="G1631" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -47871,7 +47871,7 @@
         <v>3.75600004196167</v>
       </c>
       <c r="G1632" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -47897,7 +47897,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1633" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -47923,7 +47923,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1634" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -47949,7 +47949,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G1635" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -47975,7 +47975,7 @@
         <v>3.73600006103516</v>
       </c>
       <c r="G1636" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -48001,7 +48001,7 @@
         <v>3.70600008964539</v>
       </c>
       <c r="G1637" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -48027,7 +48027,7 @@
         <v>3.65400004386902</v>
       </c>
       <c r="G1638" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -48053,7 +48053,7 @@
         <v>3.40199995040894</v>
       </c>
       <c r="G1639" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -48079,7 +48079,7 @@
         <v>3.24399995803833</v>
       </c>
       <c r="G1640" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -48105,7 +48105,7 @@
         <v>3.23399996757507</v>
       </c>
       <c r="G1641" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -48131,7 +48131,7 @@
         <v>3.37800002098083</v>
       </c>
       <c r="G1642" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -48157,7 +48157,7 @@
         <v>3.27800011634827</v>
       </c>
       <c r="G1643" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -48183,7 +48183,7 @@
         <v>3.32800006866455</v>
       </c>
       <c r="G1644" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -48209,7 +48209,7 @@
         <v>3.40400004386902</v>
       </c>
       <c r="G1645" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -48235,7 +48235,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1646" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -48261,7 +48261,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1647" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -48287,7 +48287,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1648" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -48313,7 +48313,7 @@
         <v>3.3659999370575</v>
       </c>
       <c r="G1649" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -48339,7 +48339,7 @@
         <v>3.31800007820129</v>
       </c>
       <c r="G1650" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -48365,7 +48365,7 @@
         <v>3.32599997520447</v>
       </c>
       <c r="G1651" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -48391,7 +48391,7 @@
         <v>3.39800000190735</v>
       </c>
       <c r="G1652" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -48417,7 +48417,7 @@
         <v>3.28600001335144</v>
       </c>
       <c r="G1653" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -48443,7 +48443,7 @@
         <v>3.2960000038147</v>
       </c>
       <c r="G1654" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -48469,7 +48469,7 @@
         <v>3.28200006484985</v>
       </c>
       <c r="G1655" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -48495,7 +48495,7 @@
         <v>3.19600009918213</v>
       </c>
       <c r="G1656" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -48521,7 +48521,7 @@
         <v>3.2039999961853</v>
       </c>
       <c r="G1657" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -48547,7 +48547,7 @@
         <v>3.29200005531311</v>
       </c>
       <c r="G1658" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -48573,7 +48573,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1659" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -48599,7 +48599,7 @@
         <v>3.34800004959106</v>
       </c>
       <c r="G1660" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -48625,7 +48625,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1661" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -48651,7 +48651,7 @@
         <v>3.25200009346008</v>
       </c>
       <c r="G1662" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -48677,7 +48677,7 @@
         <v>3.09599995613098</v>
       </c>
       <c r="G1663" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -48703,7 +48703,7 @@
         <v>3.11400008201599</v>
       </c>
       <c r="G1664" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -48729,7 +48729,7 @@
         <v>3.16799998283386</v>
       </c>
       <c r="G1665" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -48755,7 +48755,7 @@
         <v>3.31399989128113</v>
       </c>
       <c r="G1666" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -48781,7 +48781,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1667" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -48807,7 +48807,7 @@
         <v>3.17600011825562</v>
       </c>
       <c r="G1668" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -48833,7 +48833,7 @@
         <v>3.13599991798401</v>
       </c>
       <c r="G1669" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -48859,7 +48859,7 @@
         <v>3.18199992179871</v>
       </c>
       <c r="G1670" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -48885,7 +48885,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1671" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -48911,7 +48911,7 @@
         <v>3.11400008201599</v>
       </c>
       <c r="G1672" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -48937,7 +48937,7 @@
         <v>3.15199995040894</v>
       </c>
       <c r="G1673" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -48963,7 +48963,7 @@
         <v>3.23600006103516</v>
       </c>
       <c r="G1674" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -48989,7 +48989,7 @@
         <v>3.2039999961853</v>
       </c>
       <c r="G1675" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -49015,7 +49015,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1676" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -49041,7 +49041,7 @@
         <v>3.27600002288818</v>
       </c>
       <c r="G1677" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -49067,7 +49067,7 @@
         <v>3.32800006866455</v>
       </c>
       <c r="G1678" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -49093,7 +49093,7 @@
         <v>3.36199998855591</v>
       </c>
       <c r="G1679" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -49119,7 +49119,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1680" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -49145,7 +49145,7 @@
         <v>3.28200006484985</v>
       </c>
       <c r="G1681" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -49171,7 +49171,7 @@
         <v>3.28800010681152</v>
       </c>
       <c r="G1682" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -49197,7 +49197,7 @@
         <v>3.27800011634827</v>
       </c>
       <c r="G1683" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -49223,7 +49223,7 @@
         <v>3.42600011825562</v>
       </c>
       <c r="G1684" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -49249,7 +49249,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1685" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -49275,7 +49275,7 @@
         <v>3.34400010108948</v>
       </c>
       <c r="G1686" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -49301,7 +49301,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1687" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -49327,7 +49327,7 @@
         <v>3.33400011062622</v>
       </c>
       <c r="G1688" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -49353,7 +49353,7 @@
         <v>3.22399997711182</v>
       </c>
       <c r="G1689" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -49379,7 +49379,7 @@
         <v>3.28399991989136</v>
       </c>
       <c r="G1690" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -49405,7 +49405,7 @@
         <v>3.27800011634827</v>
       </c>
       <c r="G1691" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -49431,7 +49431,7 @@
         <v>3.21399998664856</v>
       </c>
       <c r="G1692" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -49457,7 +49457,7 @@
         <v>3.15799999237061</v>
       </c>
       <c r="G1693" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -49483,7 +49483,7 @@
         <v>3.15599989891052</v>
       </c>
       <c r="G1694" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -49509,7 +49509,7 @@
         <v>3.19199991226196</v>
       </c>
       <c r="G1695" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -49535,7 +49535,7 @@
         <v>3.20199990272522</v>
       </c>
       <c r="G1696" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -49561,7 +49561,7 @@
         <v>3.15400004386902</v>
       </c>
       <c r="G1697" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -49587,7 +49587,7 @@
         <v>3.27800011634827</v>
       </c>
       <c r="G1698" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -49613,7 +49613,7 @@
         <v>3.19799995422363</v>
       </c>
       <c r="G1699" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -49639,7 +49639,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1700" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -49665,7 +49665,7 @@
         <v>3.18799996376038</v>
       </c>
       <c r="G1701" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -49691,7 +49691,7 @@
         <v>3.23399996757507</v>
       </c>
       <c r="G1702" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -49717,7 +49717,7 @@
         <v>3.35800004005432</v>
       </c>
       <c r="G1703" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -49743,7 +49743,7 @@
         <v>3.47399997711182</v>
       </c>
       <c r="G1704" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -49769,7 +49769,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1705" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -49795,7 +49795,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G1706" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -49821,7 +49821,7 @@
         <v>3.60599994659424</v>
       </c>
       <c r="G1707" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -49847,7 +49847,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G1708" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -49873,7 +49873,7 @@
         <v>3.55800008773804</v>
       </c>
       <c r="G1709" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -49899,7 +49899,7 @@
         <v>3.49799990653992</v>
       </c>
       <c r="G1710" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -49925,7 +49925,7 @@
         <v>3.43600010871887</v>
       </c>
       <c r="G1711" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -49951,7 +49951,7 @@
         <v>3.51200008392334</v>
       </c>
       <c r="G1712" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -49977,7 +49977,7 @@
         <v>3.43400001525879</v>
       </c>
       <c r="G1713" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -50003,7 +50003,7 @@
         <v>3.40599989891052</v>
       </c>
       <c r="G1714" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -50029,7 +50029,7 @@
         <v>3.34400010108948</v>
       </c>
       <c r="G1715" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -50055,7 +50055,7 @@
         <v>3.34800004959106</v>
       </c>
       <c r="G1716" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -50081,7 +50081,7 @@
         <v>3.25799989700317</v>
       </c>
       <c r="G1717" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -50107,7 +50107,7 @@
         <v>3.39199995994568</v>
       </c>
       <c r="G1718" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -50133,7 +50133,7 @@
         <v>3.40799999237061</v>
       </c>
       <c r="G1719" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -50159,7 +50159,7 @@
         <v>3.51600003242493</v>
       </c>
       <c r="G1720" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -50185,7 +50185,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1721" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -50211,7 +50211,7 @@
         <v>3.30200004577637</v>
       </c>
       <c r="G1722" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -50237,7 +50237,7 @@
         <v>3.2739999294281</v>
       </c>
       <c r="G1723" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -50263,7 +50263,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1724" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -50289,7 +50289,7 @@
         <v>3.25799989700317</v>
       </c>
       <c r="G1725" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -50315,7 +50315,7 @@
         <v>3.25399994850159</v>
       </c>
       <c r="G1726" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -50341,7 +50341,7 @@
         <v>3.31800007820129</v>
       </c>
       <c r="G1727" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -50367,7 +50367,7 @@
         <v>3.34400010108948</v>
       </c>
       <c r="G1728" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -50393,7 +50393,7 @@
         <v>3.39400005340576</v>
       </c>
       <c r="G1729" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -50419,7 +50419,7 @@
         <v>3.49200010299683</v>
       </c>
       <c r="G1730" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -50445,7 +50445,7 @@
         <v>3.49799990653992</v>
       </c>
       <c r="G1731" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -50471,7 +50471,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G1732" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -50497,7 +50497,7 @@
         <v>3.54399991035461</v>
       </c>
       <c r="G1733" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -50523,7 +50523,7 @@
         <v>3.59200000762939</v>
       </c>
       <c r="G1734" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -50549,7 +50549,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G1735" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -50575,7 +50575,7 @@
         <v>3.60199999809265</v>
       </c>
       <c r="G1736" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -50601,7 +50601,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1737" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -50627,7 +50627,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1738" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -50653,7 +50653,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1739" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -50679,7 +50679,7 @@
         <v>3.64199995994568</v>
       </c>
       <c r="G1740" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -50705,7 +50705,7 @@
         <v>3.73200011253357</v>
       </c>
       <c r="G1741" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -50731,7 +50731,7 @@
         <v>3.75</v>
       </c>
       <c r="G1742" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -50757,7 +50757,7 @@
         <v>3.75600004196167</v>
       </c>
       <c r="G1743" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -50783,7 +50783,7 @@
         <v>3.82399988174438</v>
       </c>
       <c r="G1744" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -50809,7 +50809,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -50835,7 +50835,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1746" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -50861,7 +50861,7 @@
         <v>3.56599998474121</v>
       </c>
       <c r="G1747" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -50887,7 +50887,7 @@
         <v>3.55599999427795</v>
       </c>
       <c r="G1748" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -50913,7 +50913,7 @@
         <v>3.59400010108948</v>
       </c>
       <c r="G1749" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -50939,7 +50939,7 @@
         <v>3.75200009346008</v>
       </c>
       <c r="G1750" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -50965,7 +50965,7 @@
         <v>3.75200009346008</v>
       </c>
       <c r="G1751" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -50991,7 +50991,7 @@
         <v>3.75799989700317</v>
       </c>
       <c r="G1752" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -51017,7 +51017,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1753" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -51043,7 +51043,7 @@
         <v>3.82599997520447</v>
       </c>
       <c r="G1754" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -51069,7 +51069,7 @@
         <v>3.83599996566772</v>
       </c>
       <c r="G1755" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -51095,7 +51095,7 @@
         <v>3.89199995994568</v>
       </c>
       <c r="G1756" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -51121,7 +51121,7 @@
         <v>3.85199999809265</v>
       </c>
       <c r="G1757" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -51147,7 +51147,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1758" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -51173,7 +51173,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1759" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -51199,7 +51199,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1760" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -51225,7 +51225,7 @@
         <v>3.84400010108948</v>
       </c>
       <c r="G1761" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -51251,7 +51251,7 @@
         <v>3.79399991035461</v>
       </c>
       <c r="G1762" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -51277,7 +51277,7 @@
         <v>3.78399991989136</v>
       </c>
       <c r="G1763" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -51303,7 +51303,7 @@
         <v>3.7960000038147</v>
       </c>
       <c r="G1764" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -51329,7 +51329,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1765" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -51355,7 +51355,7 @@
         <v>3.78800010681152</v>
       </c>
       <c r="G1766" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -51381,7 +51381,7 @@
         <v>3.80800008773804</v>
       </c>
       <c r="G1767" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -51407,7 +51407,7 @@
         <v>3.81599998474121</v>
       </c>
       <c r="G1768" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -51433,7 +51433,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1769" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -51459,7 +51459,7 @@
         <v>3.8659999370575</v>
       </c>
       <c r="G1770" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -51485,7 +51485,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1771" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -51511,7 +51511,7 @@
         <v>3.74600005149841</v>
       </c>
       <c r="G1772" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -51537,7 +51537,7 @@
         <v>3.82599997520447</v>
       </c>
       <c r="G1773" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -51563,7 +51563,7 @@
         <v>3.83400011062622</v>
       </c>
       <c r="G1774" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -51589,7 +51589,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1775" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -51615,7 +51615,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1776" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -51641,7 +51641,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1777" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -51667,7 +51667,7 @@
         <v>3.91199994087219</v>
       </c>
       <c r="G1778" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -51693,7 +51693,7 @@
         <v>3.89199995994568</v>
       </c>
       <c r="G1779" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -51719,7 +51719,7 @@
         <v>3.86800003051758</v>
       </c>
       <c r="G1780" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -51745,7 +51745,7 @@
         <v>3.84800004959106</v>
       </c>
       <c r="G1781" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -51771,7 +51771,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1782" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -51797,7 +51797,7 @@
         <v>3.83400011062622</v>
       </c>
       <c r="G1783" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -51823,7 +51823,7 @@
         <v>3.91400003433228</v>
       </c>
       <c r="G1784" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -51849,7 +51849,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1785" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -51875,7 +51875,7 @@
         <v>4.02199983596802</v>
       </c>
       <c r="G1786" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -51901,7 +51901,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1787" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -51927,7 +51927,7 @@
         <v>4.02199983596802</v>
       </c>
       <c r="G1788" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -51953,7 +51953,7 @@
         <v>4.03599977493286</v>
       </c>
       <c r="G1789" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -51979,7 +51979,7 @@
         <v>4.02799987792969</v>
       </c>
       <c r="G1790" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -52005,7 +52005,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1791" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -52031,7 +52031,7 @@
         <v>4.11600017547607</v>
       </c>
       <c r="G1792" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -52057,7 +52057,7 @@
         <v>4.05800008773804</v>
       </c>
       <c r="G1793" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -52083,7 +52083,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -52109,7 +52109,7 @@
         <v>4.0939998626709</v>
       </c>
       <c r="G1795" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -52135,7 +52135,7 @@
         <v>4.06199979782104</v>
       </c>
       <c r="G1796" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -52161,7 +52161,7 @@
         <v>4.11800003051758</v>
       </c>
       <c r="G1797" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -52187,7 +52187,7 @@
         <v>4.23600006103516</v>
       </c>
       <c r="G1798" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -52213,7 +52213,7 @@
         <v>4.26399993896484</v>
       </c>
       <c r="G1799" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -52239,7 +52239,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G1800" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -52265,7 +52265,7 @@
         <v>4.32800006866455</v>
       </c>
       <c r="G1801" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -52291,7 +52291,7 @@
         <v>4.35799980163574</v>
       </c>
       <c r="G1802" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -52317,7 +52317,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G1803" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -52343,7 +52343,7 @@
         <v>4.50600004196167</v>
       </c>
       <c r="G1804" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -52369,7 +52369,7 @@
         <v>4.59800004959106</v>
       </c>
       <c r="G1805" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -52395,7 +52395,7 @@
         <v>4.50400018692017</v>
       </c>
       <c r="G1806" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -52421,7 +52421,7 @@
         <v>4.51399993896484</v>
       </c>
       <c r="G1807" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -52447,7 +52447,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1808" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -52473,7 +52473,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1809" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -52499,7 +52499,7 @@
         <v>4.53800010681152</v>
       </c>
       <c r="G1810" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -52525,7 +52525,7 @@
         <v>4.49599981307983</v>
       </c>
       <c r="G1811" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -52551,7 +52551,7 @@
         <v>4.46400022506714</v>
       </c>
       <c r="G1812" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -52577,7 +52577,7 @@
         <v>4.50400018692017</v>
       </c>
       <c r="G1813" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -52603,7 +52603,7 @@
         <v>4.51200008392334</v>
       </c>
       <c r="G1814" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -52629,7 +52629,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G1815" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -52655,7 +52655,7 @@
         <v>4.44399976730347</v>
       </c>
       <c r="G1816" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -52681,7 +52681,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1817" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -52707,7 +52707,7 @@
         <v>4.43200016021729</v>
       </c>
       <c r="G1818" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -52733,7 +52733,7 @@
         <v>4.48799991607666</v>
       </c>
       <c r="G1819" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -52759,7 +52759,7 @@
         <v>4.4539999961853</v>
       </c>
       <c r="G1820" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -52785,7 +52785,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1821" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -52811,7 +52811,7 @@
         <v>4.55200004577637</v>
       </c>
       <c r="G1822" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -52837,7 +52837,7 @@
         <v>4.69399976730347</v>
       </c>
       <c r="G1823" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -52863,7 +52863,7 @@
         <v>4.80399990081787</v>
       </c>
       <c r="G1824" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -52889,7 +52889,7 @@
         <v>4.77799987792969</v>
       </c>
       <c r="G1825" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -52915,7 +52915,7 @@
         <v>4.80200004577637</v>
       </c>
       <c r="G1826" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -52941,7 +52941,7 @@
         <v>4.7960000038147</v>
       </c>
       <c r="G1827" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -52967,7 +52967,7 @@
         <v>4.89200019836426</v>
       </c>
       <c r="G1828" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -52993,7 +52993,7 @@
         <v>4.79400014877319</v>
       </c>
       <c r="G1829" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -53019,7 +53019,7 @@
         <v>4.82800006866455</v>
       </c>
       <c r="G1830" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -53045,7 +53045,7 @@
         <v>4.80200004577637</v>
       </c>
       <c r="G1831" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -53071,7 +53071,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G1832" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -53097,7 +53097,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1833" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -53123,7 +53123,7 @@
         <v>4.20800018310547</v>
       </c>
       <c r="G1834" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -53149,7 +53149,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1835" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -53175,7 +53175,7 @@
         <v>3.9539999961853</v>
       </c>
       <c r="G1836" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -53201,7 +53201,7 @@
         <v>3.81200003623962</v>
       </c>
       <c r="G1837" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -53227,7 +53227,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1838" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -53253,7 +53253,7 @@
         <v>4.15399980545044</v>
       </c>
       <c r="G1839" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -53279,7 +53279,7 @@
         <v>4.0460000038147</v>
       </c>
       <c r="G1840" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -53305,7 +53305,7 @@
         <v>3.96600008010864</v>
       </c>
       <c r="G1841" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -53331,7 +53331,7 @@
         <v>3.80399990081787</v>
       </c>
       <c r="G1842" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -53357,7 +53357,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1843" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -53383,7 +53383,7 @@
         <v>3.81800007820129</v>
       </c>
       <c r="G1844" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -53409,7 +53409,7 @@
         <v>3.93600010871887</v>
       </c>
       <c r="G1845" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -53435,7 +53435,7 @@
         <v>3.95600008964539</v>
       </c>
       <c r="G1846" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -53461,7 +53461,7 @@
         <v>3.91400003433228</v>
       </c>
       <c r="G1847" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -53487,7 +53487,7 @@
         <v>3.91400003433228</v>
       </c>
       <c r="G1848" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -53513,7 +53513,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1849" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -53539,7 +53539,7 @@
         <v>3.88199996948242</v>
       </c>
       <c r="G1850" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -53565,7 +53565,7 @@
         <v>3.91199994087219</v>
       </c>
       <c r="G1851" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -53591,7 +53591,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1852" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -53617,7 +53617,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1853" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -53643,7 +53643,7 @@
         <v>4.08599996566772</v>
       </c>
       <c r="G1854" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -53669,7 +53669,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1855" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -53695,7 +53695,7 @@
         <v>4.12400007247925</v>
       </c>
       <c r="G1856" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -53721,7 +53721,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1857" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -53747,7 +53747,7 @@
         <v>4.2480001449585</v>
       </c>
       <c r="G1858" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -53773,7 +53773,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1859" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -53799,7 +53799,7 @@
         <v>4.27799987792969</v>
       </c>
       <c r="G1860" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -53825,7 +53825,7 @@
         <v>4.27400016784668</v>
       </c>
       <c r="G1861" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -53851,7 +53851,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1862" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -53877,7 +53877,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1863" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -53903,7 +53903,7 @@
         <v>4.2480001449585</v>
       </c>
       <c r="G1864" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -53929,7 +53929,7 @@
         <v>4.12200021743774</v>
       </c>
       <c r="G1865" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -53955,7 +53955,7 @@
         <v>4.09800004959106</v>
       </c>
       <c r="G1866" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -53981,7 +53981,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1867" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -54007,7 +54007,7 @@
         <v>4.02400016784668</v>
       </c>
       <c r="G1868" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -54033,7 +54033,7 @@
         <v>4.17199993133545</v>
       </c>
       <c r="G1869" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -54059,7 +54059,7 @@
         <v>4.22599983215332</v>
       </c>
       <c r="G1870" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -54085,7 +54085,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G1871" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -54111,7 +54111,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1872" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -54137,7 +54137,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G1873" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -54163,7 +54163,7 @@
         <v>4.16599988937378</v>
       </c>
       <c r="G1874" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -54189,7 +54189,7 @@
         <v>4.22599983215332</v>
       </c>
       <c r="G1875" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -54215,7 +54215,7 @@
         <v>4.15399980545044</v>
       </c>
       <c r="G1876" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -54241,7 +54241,7 @@
         <v>4.12400007247925</v>
       </c>
       <c r="G1877" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -54267,7 +54267,7 @@
         <v>4.16800022125244</v>
       </c>
       <c r="G1878" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -54293,7 +54293,7 @@
         <v>4.17199993133545</v>
       </c>
       <c r="G1879" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -54319,7 +54319,7 @@
         <v>3.83200001716614</v>
       </c>
       <c r="G1880" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -54345,7 +54345,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1881" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -54371,7 +54371,7 @@
         <v>3.66199994087219</v>
       </c>
       <c r="G1882" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -54397,7 +54397,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1883" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -54423,7 +54423,7 @@
         <v>3.67799997329712</v>
       </c>
       <c r="G1884" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -54449,7 +54449,7 @@
         <v>3.65799999237061</v>
       </c>
       <c r="G1885" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -54475,7 +54475,7 @@
         <v>3.59800004959106</v>
       </c>
       <c r="G1886" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -54501,7 +54501,7 @@
         <v>3.5</v>
       </c>
       <c r="G1887" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -54527,7 +54527,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1888" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -54553,7 +54553,7 @@
         <v>3.70600008964539</v>
       </c>
       <c r="G1889" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -54579,7 +54579,7 @@
         <v>3.67400002479553</v>
       </c>
       <c r="G1890" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -54605,7 +54605,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1891" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -54631,7 +54631,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1892" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -54657,7 +54657,7 @@
         <v>3.71199989318848</v>
       </c>
       <c r="G1893" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -54683,7 +54683,7 @@
         <v>3.7260000705719</v>
       </c>
       <c r="G1894" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -54709,7 +54709,7 @@
         <v>3.71399998664856</v>
       </c>
       <c r="G1895" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -54735,7 +54735,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1896" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -54761,7 +54761,7 @@
         <v>3.78399991989136</v>
       </c>
       <c r="G1897" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -54787,7 +54787,7 @@
         <v>3.74399995803833</v>
       </c>
       <c r="G1898" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -54813,7 +54813,7 @@
         <v>3.77600002288818</v>
       </c>
       <c r="G1899" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -54839,7 +54839,7 @@
         <v>3.79200005531311</v>
       </c>
       <c r="G1900" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -54865,7 +54865,7 @@
         <v>3.84800004959106</v>
       </c>
       <c r="G1901" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -54891,7 +54891,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1902" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -54917,7 +54917,7 @@
         <v>3.92400002479553</v>
       </c>
       <c r="G1903" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -54943,7 +54943,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1904" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -54969,7 +54969,7 @@
         <v>3.84800004959106</v>
       </c>
       <c r="G1905" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -54995,7 +54995,7 @@
         <v>3.8840000629425</v>
       </c>
       <c r="G1906" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55021,7 +55021,7 @@
         <v>3.81599998474121</v>
       </c>
       <c r="G1907" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55047,7 +55047,7 @@
         <v>3.78200006484985</v>
       </c>
       <c r="G1908" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55073,7 +55073,7 @@
         <v>3.81599998474121</v>
       </c>
       <c r="G1909" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55099,7 +55099,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1910" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55125,7 +55125,7 @@
         <v>3.78200006484985</v>
       </c>
       <c r="G1911" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55151,7 +55151,7 @@
         <v>3.80399990081787</v>
       </c>
       <c r="G1912" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55177,7 +55177,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1913" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55203,7 +55203,7 @@
         <v>3.83400011062622</v>
       </c>
       <c r="G1914" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55229,7 +55229,7 @@
         <v>3.80200004577637</v>
       </c>
       <c r="G1915" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55255,7 +55255,7 @@
         <v>3.84200000762939</v>
       </c>
       <c r="G1916" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55281,7 +55281,7 @@
         <v>3.91599988937378</v>
       </c>
       <c r="G1917" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55307,7 +55307,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1918" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55333,7 +55333,7 @@
         <v>3.94600009918213</v>
       </c>
       <c r="G1919" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -55359,7 +55359,7 @@
         <v>4.03200006484985</v>
       </c>
       <c r="G1920" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55385,7 +55385,7 @@
         <v>4.05800008773804</v>
       </c>
       <c r="G1921" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55411,7 +55411,7 @@
         <v>4.08400011062622</v>
       </c>
       <c r="G1922" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55437,7 +55437,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1923" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55463,7 +55463,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1924" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55489,7 +55489,7 @@
         <v>4.16599988937378</v>
       </c>
       <c r="G1925" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55515,7 +55515,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1926" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55541,7 +55541,7 @@
         <v>4.26200008392334</v>
       </c>
       <c r="G1927" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55567,7 +55567,7 @@
         <v>4.26200008392334</v>
       </c>
       <c r="G1928" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55593,7 +55593,7 @@
         <v>4.34800004959106</v>
       </c>
       <c r="G1929" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55619,7 +55619,7 @@
         <v>4.39400005340576</v>
       </c>
       <c r="G1930" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55645,7 +55645,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1931" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55671,7 +55671,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G1932" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55697,7 +55697,7 @@
         <v>4.27600002288818</v>
       </c>
       <c r="G1933" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55723,7 +55723,7 @@
         <v>4.28800010681152</v>
       </c>
       <c r="G1934" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55749,7 +55749,7 @@
         <v>4.2960000038147</v>
       </c>
       <c r="G1935" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55775,7 +55775,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1936" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55801,7 +55801,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1937" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55827,7 +55827,7 @@
         <v>4.19799995422363</v>
       </c>
       <c r="G1938" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55853,7 +55853,7 @@
         <v>4.23799991607666</v>
       </c>
       <c r="G1939" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -55879,7 +55879,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G1940" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -55905,7 +55905,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G1941" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -55931,7 +55931,7 @@
         <v>4.23400020599365</v>
       </c>
       <c r="G1942" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -55957,7 +55957,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1943" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -55983,7 +55983,7 @@
         <v>4.23400020599365</v>
       </c>
       <c r="G1944" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56009,7 +56009,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1945" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56035,7 +56035,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1946" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56061,7 +56061,7 @@
         <v>4.23799991607666</v>
       </c>
       <c r="G1947" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56087,7 +56087,7 @@
         <v>4.26599979400635</v>
       </c>
       <c r="G1948" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56113,7 +56113,7 @@
         <v>4.27799987792969</v>
       </c>
       <c r="G1949" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56139,7 +56139,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G1950" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56165,7 +56165,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1951" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56191,7 +56191,7 @@
         <v>4.38600015640259</v>
       </c>
       <c r="G1952" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56217,7 +56217,7 @@
         <v>4.34800004959106</v>
       </c>
       <c r="G1953" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56243,7 +56243,7 @@
         <v>4.32800006866455</v>
       </c>
       <c r="G1954" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56269,7 +56269,7 @@
         <v>4.26599979400635</v>
       </c>
       <c r="G1955" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56295,7 +56295,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G1956" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56321,7 +56321,7 @@
         <v>4.43599987030029</v>
       </c>
       <c r="G1957" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56347,7 +56347,7 @@
         <v>4.48600006103516</v>
       </c>
       <c r="G1958" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56373,7 +56373,7 @@
         <v>4.48799991607666</v>
       </c>
       <c r="G1959" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56399,7 +56399,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1960" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56425,7 +56425,7 @@
         <v>4.61800003051758</v>
       </c>
       <c r="G1961" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56451,7 +56451,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1962" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56477,7 +56477,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1963" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56503,7 +56503,7 @@
         <v>4.68400001525879</v>
       </c>
       <c r="G1964" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56529,7 +56529,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1965" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56555,7 +56555,7 @@
         <v>4.9980001449585</v>
       </c>
       <c r="G1966" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56581,7 +56581,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G1967" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56607,7 +56607,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G1968" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56633,7 +56633,7 @@
         <v>5.08500003814697</v>
       </c>
       <c r="G1969" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56659,7 +56659,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G1970" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56685,7 +56685,7 @@
         <v>4.90199995040894</v>
       </c>
       <c r="G1971" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56711,7 +56711,7 @@
         <v>4.97599983215332</v>
       </c>
       <c r="G1972" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56737,7 +56737,7 @@
         <v>4.87599992752075</v>
       </c>
       <c r="G1973" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56763,7 +56763,7 @@
         <v>4.96000003814697</v>
       </c>
       <c r="G1974" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56789,7 +56789,7 @@
         <v>4.84999990463257</v>
       </c>
       <c r="G1975" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56815,7 +56815,7 @@
         <v>4.81799983978271</v>
       </c>
       <c r="G1976" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56841,7 +56841,7 @@
         <v>4.92799997329712</v>
       </c>
       <c r="G1977" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -56867,7 +56867,7 @@
         <v>5.02500009536743</v>
       </c>
       <c r="G1978" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -56893,7 +56893,7 @@
         <v>4.98600006103516</v>
       </c>
       <c r="G1979" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -56919,7 +56919,7 @@
         <v>5.07499980926514</v>
       </c>
       <c r="G1980" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -56945,7 +56945,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G1981" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -56971,7 +56971,7 @@
         <v>5.14499998092651</v>
       </c>
       <c r="G1982" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -56997,7 +56997,7 @@
         <v>5.17000007629395</v>
       </c>
       <c r="G1983" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -57023,7 +57023,7 @@
         <v>5.20499992370605</v>
       </c>
       <c r="G1984" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57049,7 +57049,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1985" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57075,7 +57075,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G1986" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57101,7 +57101,7 @@
         <v>5.14499998092651</v>
       </c>
       <c r="G1987" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57127,7 +57127,7 @@
         <v>5.04500007629395</v>
       </c>
       <c r="G1988" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57153,7 +57153,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1989" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57179,7 +57179,7 @@
         <v>5.07000017166138</v>
       </c>
       <c r="G1990" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57205,7 +57205,7 @@
         <v>5.03000020980835</v>
       </c>
       <c r="G1991" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57231,7 +57231,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G1992" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57257,7 +57257,7 @@
         <v>4.95599985122681</v>
       </c>
       <c r="G1993" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57283,7 +57283,7 @@
         <v>5.03000020980835</v>
       </c>
       <c r="G1994" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57309,7 +57309,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G1995" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57335,7 +57335,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G1996" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57361,7 +57361,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1997" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57387,7 +57387,7 @@
         <v>5.26999998092651</v>
       </c>
       <c r="G1998" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57413,7 +57413,7 @@
         <v>5.33500003814697</v>
       </c>
       <c r="G1999" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57439,7 +57439,7 @@
         <v>5.30499982833862</v>
       </c>
       <c r="G2000" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57465,7 +57465,7 @@
         <v>5.36499977111816</v>
       </c>
       <c r="G2001" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57491,7 +57491,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G2002" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57517,7 +57517,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G2003" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57543,7 +57543,7 @@
         <v>5.81500005722046</v>
       </c>
       <c r="G2004" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57569,7 +57569,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G2005" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57595,7 +57595,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G2006" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57621,7 +57621,7 @@
         <v>5.89499998092651</v>
       </c>
       <c r="G2007" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57647,7 +57647,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G2008" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57673,7 +57673,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G2009" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57699,7 +57699,7 @@
         <v>5.84499979019165</v>
       </c>
       <c r="G2010" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57725,7 +57725,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G2011" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57751,7 +57751,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G2012" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57777,7 +57777,7 @@
         <v>5.86499977111816</v>
       </c>
       <c r="G2013" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57803,7 +57803,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G2014" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57829,7 +57829,7 @@
         <v>5.7350001335144</v>
       </c>
       <c r="G2015" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57855,7 +57855,7 @@
         <v>5.7649998664856</v>
       </c>
       <c r="G2016" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -57881,7 +57881,7 @@
         <v>5.68499994277954</v>
       </c>
       <c r="G2017" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -57907,7 +57907,7 @@
         <v>5.84499979019165</v>
       </c>
       <c r="G2018" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -57933,7 +57933,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2019" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -57959,7 +57959,7 @@
         <v>5.64499998092651</v>
       </c>
       <c r="G2020" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -57985,7 +57985,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G2021" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58011,7 +58011,7 @@
         <v>5.6100001335144</v>
       </c>
       <c r="G2022" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58037,7 +58037,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G2023" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58063,7 +58063,7 @@
         <v>5.73000001907349</v>
       </c>
       <c r="G2024" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58089,7 +58089,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G2025" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58115,7 +58115,7 @@
         <v>5.57499980926514</v>
       </c>
       <c r="G2026" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58141,7 +58141,7 @@
         <v>5.44500017166138</v>
       </c>
       <c r="G2027" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58167,7 +58167,7 @@
         <v>5.43499994277954</v>
       </c>
       <c r="G2028" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58193,7 +58193,7 @@
         <v>5.41499996185303</v>
       </c>
       <c r="G2029" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58219,7 +58219,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G2030" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58245,7 +58245,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G2031" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58271,7 +58271,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G2032" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58297,7 +58297,7 @@
         <v>5.64499998092651</v>
       </c>
       <c r="G2033" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58323,7 +58323,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G2034" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58349,7 +58349,7 @@
         <v>5.83500003814697</v>
       </c>
       <c r="G2035" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58375,7 +58375,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G2036" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58401,7 +58401,7 @@
         <v>5.99499988555908</v>
       </c>
       <c r="G2037" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58427,7 +58427,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G2038" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58453,7 +58453,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G2039" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58479,7 +58479,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G2040" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58505,7 +58505,7 @@
         <v>6.0149998664856</v>
       </c>
       <c r="G2041" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58531,7 +58531,7 @@
         <v>5.94500017166138</v>
       </c>
       <c r="G2042" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58557,7 +58557,7 @@
         <v>5.93499994277954</v>
       </c>
       <c r="G2043" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58583,7 +58583,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G2044" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58609,7 +58609,7 @@
         <v>5.85500001907349</v>
       </c>
       <c r="G2045" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58635,7 +58635,7 @@
         <v>5.89499998092651</v>
       </c>
       <c r="G2046" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58661,7 +58661,7 @@
         <v>5.91499996185303</v>
       </c>
       <c r="G2047" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58687,7 +58687,7 @@
         <v>5.99499988555908</v>
       </c>
       <c r="G2048" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58713,7 +58713,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G2049" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58739,7 +58739,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G2050" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58765,7 +58765,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G2051" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58791,7 +58791,7 @@
         <v>6.5</v>
       </c>
       <c r="G2052" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58817,7 +58817,7 @@
         <v>6.55499982833862</v>
       </c>
       <c r="G2053" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58843,7 +58843,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G2054" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58869,7 +58869,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G2055" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58895,7 +58895,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G2056" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -58921,7 +58921,7 @@
         <v>6.94500017166138</v>
       </c>
       <c r="G2057" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -58947,7 +58947,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G2058" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -58973,7 +58973,7 @@
         <v>6.66499996185303</v>
       </c>
       <c r="G2059" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -58999,7 +58999,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G2060" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59025,7 +59025,7 @@
         <v>6.74499988555908</v>
       </c>
       <c r="G2061" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59051,7 +59051,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G2062" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59077,7 +59077,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G2063" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59103,7 +59103,7 @@
         <v>6.56500005722046</v>
       </c>
       <c r="G2064" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59129,7 +59129,7 @@
         <v>6.57499980926514</v>
       </c>
       <c r="G2065" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59155,7 +59155,7 @@
         <v>6.71500015258789</v>
       </c>
       <c r="G2066" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59181,7 +59181,7 @@
         <v>6.81500005722046</v>
       </c>
       <c r="G2067" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59207,7 +59207,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G2068" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59233,7 +59233,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G2069" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59259,7 +59259,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G2070" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59285,7 +59285,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G2071" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59311,7 +59311,7 @@
         <v>6.77500009536743</v>
       </c>
       <c r="G2072" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59337,7 +59337,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G2073" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59363,7 +59363,7 @@
         <v>6.92500019073486</v>
       </c>
       <c r="G2074" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59389,7 +59389,7 @@
         <v>7.17500019073486</v>
       </c>
       <c r="G2075" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59415,7 +59415,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G2076" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59441,7 +59441,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G2077" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59467,7 +59467,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G2078" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59493,7 +59493,7 @@
         <v>6.91499996185303</v>
       </c>
       <c r="G2079" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59519,7 +59519,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G2080" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59545,7 +59545,7 @@
         <v>7.16499996185303</v>
       </c>
       <c r="G2081" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59571,7 +59571,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G2082" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59597,7 +59597,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G2083" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59623,7 +59623,7 @@
         <v>6.9850001335144</v>
       </c>
       <c r="G2084" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59649,7 +59649,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G2085" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59675,7 +59675,7 @@
         <v>6.77500009536743</v>
       </c>
       <c r="G2086" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59701,7 +59701,7 @@
         <v>6.92500019073486</v>
       </c>
       <c r="G2087" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59727,7 +59727,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G2088" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59753,7 +59753,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G2089" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59779,7 +59779,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G2090" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59805,7 +59805,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G2091" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59831,7 +59831,7 @@
         <v>6.89499998092651</v>
       </c>
       <c r="G2092" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59857,7 +59857,7 @@
         <v>6.79500007629395</v>
       </c>
       <c r="G2093" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59883,7 +59883,7 @@
         <v>6.82499980926514</v>
       </c>
       <c r="G2094" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59909,7 +59909,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G2095" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59935,7 +59935,7 @@
         <v>6.92500019073486</v>
       </c>
       <c r="G2096" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -59961,7 +59961,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G2097" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -59987,7 +59987,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G2098" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60013,7 +60013,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G2099" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60039,7 +60039,7 @@
         <v>7.00500011444092</v>
       </c>
       <c r="G2100" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60065,7 +60065,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G2101" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60091,7 +60091,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G2102" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60117,7 +60117,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G2103" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60143,7 +60143,7 @@
         <v>6.96500015258789</v>
       </c>
       <c r="G2104" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60169,7 +60169,7 @@
         <v>6.69500017166138</v>
       </c>
       <c r="G2105" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60195,7 +60195,7 @@
         <v>6.92500019073486</v>
       </c>
       <c r="G2106" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60221,7 +60221,7 @@
         <v>6.72499990463257</v>
       </c>
       <c r="G2107" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60247,7 +60247,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G2108" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60273,7 +60273,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G2109" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60299,7 +60299,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G2110" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60325,7 +60325,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G2111" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60351,7 +60351,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G2112" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60377,7 +60377,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G2113" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60403,7 +60403,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G2114" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60429,7 +60429,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G2115" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60455,7 +60455,7 @@
         <v>7.50500011444092</v>
       </c>
       <c r="G2116" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60481,7 +60481,7 @@
         <v>7.43499994277954</v>
       </c>
       <c r="G2117" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60507,7 +60507,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G2118" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60533,7 +60533,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2119" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60559,7 +60559,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G2120" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60585,7 +60585,7 @@
         <v>7.92999982833862</v>
       </c>
       <c r="G2121" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60611,7 +60611,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G2122" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60637,7 +60637,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2123" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60663,7 +60663,7 @@
         <v>8.125</v>
       </c>
       <c r="G2124" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60689,7 +60689,7 @@
         <v>8</v>
       </c>
       <c r="G2125" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60715,7 +60715,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G2126" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60741,7 +60741,7 @@
         <v>7.92999982833862</v>
       </c>
       <c r="G2127" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60767,7 +60767,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G2128" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60793,7 +60793,7 @@
         <v>8.03499984741211</v>
       </c>
       <c r="G2129" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60819,7 +60819,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G2130" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60845,7 +60845,7 @@
         <v>8.1850004196167</v>
       </c>
       <c r="G2131" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60871,7 +60871,7 @@
         <v>8.27499961853027</v>
       </c>
       <c r="G2132" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60897,7 +60897,7 @@
         <v>7.24499988555908</v>
       </c>
       <c r="G2133" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60923,7 +60923,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G2134" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60949,7 +60949,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G2135" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -60975,7 +60975,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G2136" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -61001,7 +61001,7 @@
         <v>7.15500020980835</v>
       </c>
       <c r="G2137" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61027,7 +61027,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G2138" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61053,7 +61053,7 @@
         <v>7.125</v>
       </c>
       <c r="G2139" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61079,7 +61079,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G2140" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61105,7 +61105,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G2141" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61131,7 +61131,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G2142" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61157,7 +61157,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G2143" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61183,7 +61183,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G2144" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61209,7 +61209,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G2145" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61235,7 +61235,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G2146" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61261,7 +61261,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G2147" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61287,7 +61287,7 @@
         <v>6.9850001335144</v>
       </c>
       <c r="G2148" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61313,7 +61313,7 @@
         <v>6.83500003814697</v>
       </c>
       <c r="G2149" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61339,7 +61339,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G2150" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61365,7 +61365,7 @@
         <v>6.66499996185303</v>
       </c>
       <c r="G2151" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -61391,7 +61391,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G2152" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -61417,7 +61417,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G2153" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -61443,7 +61443,7 @@
         <v>6.75</v>
       </c>
       <c r="G2154" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -61469,7 +61469,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G2155" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -61495,7 +61495,7 @@
         <v>6.85500001907349</v>
       </c>
       <c r="G2156" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -61521,7 +61521,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G2157" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -61547,7 +61547,7 @@
         <v>6.92500019073486</v>
       </c>
       <c r="G2158" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -61573,7 +61573,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G2159" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -61599,7 +61599,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G2160" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -61625,7 +61625,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G2161" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -61651,7 +61651,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G2162" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -61677,7 +61677,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G2163" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -61685,7 +61685,7 @@
     </row>
     <row r="2164">
       <c r="A2164" s="1" t="n">
-        <v>45475.6493171296</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B2164" t="n">
         <v>1079852</v>
@@ -61703,9 +61703,35 @@
         <v>6.75</v>
       </c>
       <c r="G2164" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H2164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="1" t="n">
+        <v>45476.6493981481</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>1972561</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>6.95499992370605</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>6.76999998092651</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>6.82999992370605</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>6.89499998092651</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>1697</v>
+      </c>
+      <c r="H2165" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BPSO.MI.xlsx
+++ b/data/BPSO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="1700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="1701">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0306978225708</t>
+    <t xml:space="preserve">3.03069806098938</t>
   </si>
   <si>
     <t xml:space="preserve">BPSO.MI</t>
@@ -50,82 +50,82 @@
     <t xml:space="preserve">2.94444632530212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90578246116638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82399201393127</t>
+    <t xml:space="preserve">2.9057822227478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8239917755127</t>
   </si>
   <si>
     <t xml:space="preserve">2.79425024986267</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8849630355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8909113407135</t>
+    <t xml:space="preserve">2.88496327400208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89091110229492</t>
   </si>
   <si>
     <t xml:space="preserve">2.7972240447998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69164061546326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63067007064819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42842507362366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55036640167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57713389396667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53400850296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69907593727112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6187732219696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52359914779663</t>
+    <t xml:space="preserve">2.6916401386261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63066983222961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42842483520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55036664009094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57713413238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53400874137878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69907569885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61877298355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52359890937805</t>
   </si>
   <si>
     <t xml:space="preserve">2.6128249168396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57564687728882</t>
+    <t xml:space="preserve">2.5756471157074</t>
   </si>
   <si>
     <t xml:space="preserve">2.48642206192017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37935090065002</t>
+    <t xml:space="preserve">2.3793511390686</t>
   </si>
   <si>
     <t xml:space="preserve">2.39124751091003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36745452880859</t>
+    <t xml:space="preserve">2.36745429039001</t>
   </si>
   <si>
     <t xml:space="preserve">2.18602848052979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20982146263123</t>
+    <t xml:space="preserve">2.2098217010498</t>
   </si>
   <si>
     <t xml:space="preserve">2.29607343673706</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22469258308411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33771204948425</t>
+    <t xml:space="preserve">2.22469282150269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33771181106567</t>
   </si>
   <si>
     <t xml:space="preserve">2.38381218910217</t>
@@ -137,19 +137,19 @@
     <t xml:space="preserve">2.34960842132568</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31986665725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40611863136292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34217309951782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33176350593567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3734028339386</t>
+    <t xml:space="preserve">2.31986713409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40611839294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34217286109924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33176398277283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37340259552002</t>
   </si>
   <si>
     <t xml:space="preserve">2.42098927497864</t>
@@ -158,19 +158,19 @@
     <t xml:space="preserve">2.48344755172729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5578019618988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5518536567688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54441785812378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40165710449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42396330833435</t>
+    <t xml:space="preserve">2.55780172348022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55185341835022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54441809654236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40165734291077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42396354675293</t>
   </si>
   <si>
     <t xml:space="preserve">2.41057991981506</t>
@@ -179,13 +179,13 @@
     <t xml:space="preserve">2.48493456840515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60687565803528</t>
+    <t xml:space="preserve">2.6068754196167</t>
   </si>
   <si>
     <t xml:space="preserve">2.52657294273376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46560168266296</t>
+    <t xml:space="preserve">2.46560192108154</t>
   </si>
   <si>
     <t xml:space="preserve">2.51318955421448</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">2.5280601978302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56375026702881</t>
+    <t xml:space="preserve">2.56375002861023</t>
   </si>
   <si>
     <t xml:space="preserve">2.45667934417725</t>
@@ -203,58 +203,58 @@
     <t xml:space="preserve">2.39719605445862</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34366011619568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29161214828491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30053448677063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27227997779846</t>
+    <t xml:space="preserve">2.34366035461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29161238670349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30053472518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27227973937988</t>
   </si>
   <si>
     <t xml:space="preserve">2.21725726127625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15628671646118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16223502159119</t>
+    <t xml:space="preserve">2.1562864780426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16223478317261</t>
   </si>
   <si>
     <t xml:space="preserve">2.2187442779541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26781868934631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27674126625061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38678622245789</t>
+    <t xml:space="preserve">2.26781892776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27674102783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38678646087646</t>
   </si>
   <si>
     <t xml:space="preserve">2.4670889377594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39868307113647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45370507240295</t>
+    <t xml:space="preserve">2.39868330955505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45370531082153</t>
   </si>
   <si>
     <t xml:space="preserve">2.49831819534302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49237012863159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44180846214294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48939561843872</t>
+    <t xml:space="preserve">2.49237036705017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44180870056152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4893958568573</t>
   </si>
   <si>
     <t xml:space="preserve">2.4730372428894</t>
@@ -266,37 +266,37 @@
     <t xml:space="preserve">2.39422178268433</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31094431877136</t>
+    <t xml:space="preserve">2.31094408035278</t>
   </si>
   <si>
     <t xml:space="preserve">2.26187038421631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23064064979553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24848651885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23807716369629</t>
+    <t xml:space="preserve">2.23064088821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24848628044128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23807692527771</t>
   </si>
   <si>
     <t xml:space="preserve">2.2559220790863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19495105743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18305420875549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2127959728241</t>
+    <t xml:space="preserve">2.1949508190155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18305397033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21279621124268</t>
   </si>
   <si>
     <t xml:space="preserve">2.17710566520691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22023153305054</t>
+    <t xml:space="preserve">2.22023129463196</t>
   </si>
   <si>
     <t xml:space="preserve">2.2038733959198</t>
@@ -308,10 +308,10 @@
     <t xml:space="preserve">2.27850341796875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35617971420288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30744218826294</t>
+    <t xml:space="preserve">2.35617995262146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30744171142578</t>
   </si>
   <si>
     <t xml:space="preserve">2.33028769493103</t>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">2.24194955825806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21910405158997</t>
+    <t xml:space="preserve">2.21910381317139</t>
   </si>
   <si>
     <t xml:space="preserve">2.14142727851868</t>
@@ -338,10 +338,10 @@
     <t xml:space="preserve">2.13076591491699</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07441306114197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08202791213989</t>
+    <t xml:space="preserve">2.07441282272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08202815055847</t>
   </si>
   <si>
     <t xml:space="preserve">1.97236752510071</t>
@@ -353,22 +353,22 @@
     <t xml:space="preserve">1.87641441822052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84899926185608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75913834571838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81701493263245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89621376991272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94038343429565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90687489509583</t>
+    <t xml:space="preserve">1.84899914264679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75913822650909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81701517105103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89621365070343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94038331508636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90687537193298</t>
   </si>
   <si>
     <t xml:space="preserve">2.02872037887573</t>
@@ -377,169 +377,169 @@
     <t xml:space="preserve">1.75152313709259</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67689347267151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78807699680328</t>
+    <t xml:space="preserve">1.67689335346222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78807687759399</t>
   </si>
   <si>
     <t xml:space="preserve">1.77436876296997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75609219074249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75304627418518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68907797336578</t>
+    <t xml:space="preserve">1.7560920715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75304615497589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68907785415649</t>
   </si>
   <si>
     <t xml:space="preserve">1.61901652812958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63424706459045</t>
+    <t xml:space="preserve">1.63424718379974</t>
   </si>
   <si>
     <t xml:space="preserve">1.64033937454224</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75456917285919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79112327098846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81549203395844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78960037231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86727619171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83072245121002</t>
+    <t xml:space="preserve">1.75456929206848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79112339019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81549191474915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78960025310516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86727595329285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83072257041931</t>
   </si>
   <si>
     <t xml:space="preserve">1.84443020820618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90230631828308</t>
+    <t xml:space="preserve">1.90230619907379</t>
   </si>
   <si>
     <t xml:space="preserve">1.89316785335541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85052216053009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81853818893433</t>
+    <t xml:space="preserve">1.85052227973938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81853795051575</t>
   </si>
   <si>
     <t xml:space="preserve">1.84747624397278</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84138405323029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78198480606079</t>
+    <t xml:space="preserve">1.841383934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78198456764221</t>
   </si>
   <si>
     <t xml:space="preserve">1.66470861434937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68755483627319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62967777252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77741491794586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76523065567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80787694454193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83681488037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82767629623413</t>
+    <t xml:space="preserve">1.6875547170639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62967789173126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74999988079071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77741503715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76523041725159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80787706375122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83681464195251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.827676653862</t>
   </si>
   <si>
     <t xml:space="preserve">1.82158410549164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86879909038544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82919943332672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84290730953217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85509157180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90992200374603</t>
+    <t xml:space="preserve">1.86879897117615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8291996717453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8429069519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85509145259857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90992212295532</t>
   </si>
   <si>
     <t xml:space="preserve">1.90535223484039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89773690700531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89012157917023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88098359107971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88859844207764</t>
+    <t xml:space="preserve">1.89773714542389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89012169837952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.880983710289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88859879970551</t>
   </si>
   <si>
     <t xml:space="preserve">1.86575269699097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89469075202942</t>
+    <t xml:space="preserve">1.89469110965729</t>
   </si>
   <si>
     <t xml:space="preserve">1.87336826324463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85813760757446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9114453792572</t>
+    <t xml:space="preserve">1.85813772678375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91144514083862</t>
   </si>
   <si>
     <t xml:space="preserve">1.98455190658569</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98150599002838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94190633296967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96627509593964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97998285293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99216735363007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08659768104553</t>
+    <t xml:space="preserve">1.98150587081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94190657138824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9662754535675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9799827337265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99216723442078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08659744262695</t>
   </si>
   <si>
     <t xml:space="preserve">2.11705851554871</t>
@@ -548,7 +548,7 @@
     <t xml:space="preserve">2.24804210662842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25870323181152</t>
+    <t xml:space="preserve">2.2587034702301</t>
   </si>
   <si>
     <t xml:space="preserve">2.22367310523987</t>
@@ -569,13 +569,13 @@
     <t xml:space="preserve">2.33790302276611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26479554176331</t>
+    <t xml:space="preserve">2.26479578018188</t>
   </si>
   <si>
     <t xml:space="preserve">2.14295053482056</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18407392501831</t>
+    <t xml:space="preserve">2.18407368659973</t>
   </si>
   <si>
     <t xml:space="preserve">2.15208864212036</t>
@@ -584,13 +584,13 @@
     <t xml:space="preserve">2.19930410385132</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20996570587158</t>
+    <t xml:space="preserve">2.20996594429016</t>
   </si>
   <si>
     <t xml:space="preserve">2.26631879806519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27697992324829</t>
+    <t xml:space="preserve">2.27697968482971</t>
   </si>
   <si>
     <t xml:space="preserve">2.31658005714417</t>
@@ -605,10 +605,10 @@
     <t xml:space="preserve">2.22976517677307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18102741241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22519636154175</t>
+    <t xml:space="preserve">2.18102765083313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22519612312317</t>
   </si>
   <si>
     <t xml:space="preserve">2.24956488609314</t>
@@ -617,28 +617,28 @@
     <t xml:space="preserve">2.23890352249146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15361166000366</t>
+    <t xml:space="preserve">2.15361189842224</t>
   </si>
   <si>
     <t xml:space="preserve">2.27545690536499</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25413417816162</t>
+    <t xml:space="preserve">2.2541344165802</t>
   </si>
   <si>
     <t xml:space="preserve">2.22062683105469</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32267236709595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43690228462219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54351687431335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42471814155579</t>
+    <t xml:space="preserve">2.32267212867737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43690252304077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54351663589478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42471790313721</t>
   </si>
   <si>
     <t xml:space="preserve">2.39273285865784</t>
@@ -647,19 +647,19 @@
     <t xml:space="preserve">2.43385601043701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39121007919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33333396911621</t>
+    <t xml:space="preserve">2.39120984077454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33333373069763</t>
   </si>
   <si>
     <t xml:space="preserve">2.32419538497925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39577913284302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38054823875427</t>
+    <t xml:space="preserve">2.39577889442444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38054847717285</t>
   </si>
   <si>
     <t xml:space="preserve">2.37597942352295</t>
@@ -668,16 +668,16 @@
     <t xml:space="preserve">2.36227202415466</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38207125663757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42624092102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47497844696045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48259377479553</t>
+    <t xml:space="preserve">2.38207173347473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42624068260193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47497892379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48259353637695</t>
   </si>
   <si>
     <t xml:space="preserve">2.51000905036926</t>
@@ -689,22 +689,22 @@
     <t xml:space="preserve">2.46888637542725</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46127104759216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45974802970886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52828526496887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52066993713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50696301460266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57397818565369</t>
+    <t xml:space="preserve">2.46127128601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45974826812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52828574180603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52067041397095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50696277618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57397794723511</t>
   </si>
   <si>
     <t xml:space="preserve">2.58920860290527</t>
@@ -713,10 +713,10 @@
     <t xml:space="preserve">2.62728500366211</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58311653137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58768558502197</t>
+    <t xml:space="preserve">2.58311629295349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58768582344055</t>
   </si>
   <si>
     <t xml:space="preserve">2.59682369232178</t>
@@ -725,34 +725,34 @@
     <t xml:space="preserve">2.61814665794373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52219343185425</t>
+    <t xml:space="preserve">2.52219367027283</t>
   </si>
   <si>
     <t xml:space="preserve">2.50391674041748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49630165100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53285503387451</t>
+    <t xml:space="preserve">2.4963014125824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53285455703735</t>
   </si>
   <si>
     <t xml:space="preserve">2.4932553768158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44451761245728</t>
+    <t xml:space="preserve">2.44451785087585</t>
   </si>
   <si>
     <t xml:space="preserve">2.46431732177734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48868632316589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50087094306946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47345542907715</t>
+    <t xml:space="preserve">2.48868608474731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50087070465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47345566749573</t>
   </si>
   <si>
     <t xml:space="preserve">2.46279406547546</t>
@@ -764,10 +764,10 @@
     <t xml:space="preserve">2.28002619743347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28611850738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44756364822388</t>
+    <t xml:space="preserve">2.2861180305481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44756412506104</t>
   </si>
   <si>
     <t xml:space="preserve">2.38816380500793</t>
@@ -776,22 +776,22 @@
     <t xml:space="preserve">2.43537926673889</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44147133827209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47802472114563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50543999671936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54808616638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4947783946991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53590083122253</t>
+    <t xml:space="preserve">2.44147157669067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47802495956421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50543975830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54808592796326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49477815628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53590106964111</t>
   </si>
   <si>
     <t xml:space="preserve">2.51610112190247</t>
@@ -800,7 +800,7 @@
     <t xml:space="preserve">2.45822501182556</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46736359596252</t>
+    <t xml:space="preserve">2.46736335754395</t>
   </si>
   <si>
     <t xml:space="preserve">2.45060968399048</t>
@@ -812,25 +812,25 @@
     <t xml:space="preserve">2.44604063034058</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45365619659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45670223236084</t>
+    <t xml:space="preserve">2.45365571975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45670199394226</t>
   </si>
   <si>
     <t xml:space="preserve">2.47040939331055</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52371644973755</t>
+    <t xml:space="preserve">2.52371621131897</t>
   </si>
   <si>
     <t xml:space="preserve">2.47650146484375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4978244304657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6425154209137</t>
+    <t xml:space="preserve">2.49782419204712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64251565933228</t>
   </si>
   <si>
     <t xml:space="preserve">2.60443902015686</t>
@@ -839,19 +839,19 @@
     <t xml:space="preserve">2.60291600227356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67602372169495</t>
+    <t xml:space="preserve">2.67602348327637</t>
   </si>
   <si>
     <t xml:space="preserve">2.63946938514709</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66383838653564</t>
+    <t xml:space="preserve">2.66383814811707</t>
   </si>
   <si>
     <t xml:space="preserve">2.69582319259644</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69734644889832</t>
+    <t xml:space="preserve">2.69734621047974</t>
   </si>
   <si>
     <t xml:space="preserve">2.75217628479004</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">2.71409940719604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66536164283752</t>
+    <t xml:space="preserve">2.66536140441895</t>
   </si>
   <si>
     <t xml:space="preserve">2.68363881111145</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">2.68668484687805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68820786476135</t>
+    <t xml:space="preserve">2.68820762634277</t>
   </si>
   <si>
     <t xml:space="preserve">2.68516182899475</t>
@@ -878,25 +878,25 @@
     <t xml:space="preserve">2.73694562911987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75553250312805</t>
+    <t xml:space="preserve">2.75553226470947</t>
   </si>
   <si>
     <t xml:space="preserve">2.82058691978455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.845370054245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89958214759827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74933695793152</t>
+    <t xml:space="preserve">2.84537029266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89958238601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7493371963501</t>
   </si>
   <si>
     <t xml:space="preserve">2.70596647262573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70906472206116</t>
+    <t xml:space="preserve">2.709064245224</t>
   </si>
   <si>
     <t xml:space="preserve">2.65020561218262</t>
@@ -905,10 +905,10 @@
     <t xml:space="preserve">2.70131993293762</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69357514381409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64710783958435</t>
+    <t xml:space="preserve">2.69357490539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64710760116577</t>
   </si>
   <si>
     <t xml:space="preserve">2.66724371910095</t>
@@ -917,10 +917,10 @@
     <t xml:space="preserve">2.65175437927246</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69667315483093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63161873817444</t>
+    <t xml:space="preserve">2.69667291641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63161897659302</t>
   </si>
   <si>
     <t xml:space="preserve">2.65640139579773</t>
@@ -929,46 +929,46 @@
     <t xml:space="preserve">2.63626551628113</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65794992446899</t>
+    <t xml:space="preserve">2.65795016288757</t>
   </si>
   <si>
     <t xml:space="preserve">2.63316750526428</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65949940681458</t>
+    <t xml:space="preserve">2.659499168396</t>
   </si>
   <si>
     <t xml:space="preserve">2.66569471359253</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66414594650269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68737936019897</t>
+    <t xml:space="preserve">2.66414546966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68737983703613</t>
   </si>
   <si>
     <t xml:space="preserve">2.71835851669312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78805994987488</t>
+    <t xml:space="preserve">2.78805947303772</t>
   </si>
   <si>
     <t xml:space="preserve">2.74159216880798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67343926429749</t>
+    <t xml:space="preserve">2.67343950271606</t>
   </si>
   <si>
     <t xml:space="preserve">2.77721738815308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85311484336853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80045127868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81903767585754</t>
+    <t xml:space="preserve">2.85311460494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80045104026794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81903791427612</t>
   </si>
   <si>
     <t xml:space="preserve">2.80974435806274</t>
@@ -983,10 +983,10 @@
     <t xml:space="preserve">2.93210935592651</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9166202545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90577793121338</t>
+    <t xml:space="preserve">2.91662049293518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9057776927948</t>
   </si>
   <si>
     <t xml:space="preserve">2.9073269367218</t>
@@ -1010,16 +1010,16 @@
     <t xml:space="preserve">2.83917355537415</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87015271186829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86240863800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86085963249207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84227180480957</t>
+    <t xml:space="preserve">2.87015295028687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86240839958191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86085915565491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84227156639099</t>
   </si>
   <si>
     <t xml:space="preserve">2.84072256088257</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">2.84846806526184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83452701568604</t>
+    <t xml:space="preserve">2.83452725410461</t>
   </si>
   <si>
     <t xml:space="preserve">2.78341293334961</t>
@@ -1040,10 +1040,10 @@
     <t xml:space="preserve">2.81129336357117</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78960871696472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72610282897949</t>
+    <t xml:space="preserve">2.78960824012756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72610306739807</t>
   </si>
   <si>
     <t xml:space="preserve">2.76017904281616</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">2.73384761810303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68583035469055</t>
+    <t xml:space="preserve">2.68583083152771</t>
   </si>
   <si>
     <t xml:space="preserve">2.73229885101318</t>
@@ -1091,10 +1091,10 @@
     <t xml:space="preserve">2.82988047599792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81748914718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77411913871765</t>
+    <t xml:space="preserve">2.8174889087677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77411961555481</t>
   </si>
   <si>
     <t xml:space="preserve">2.70286870002747</t>
@@ -1115,43 +1115,43 @@
     <t xml:space="preserve">2.64865684509277</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68273282051086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66104817390442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67189073562622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67653703689575</t>
+    <t xml:space="preserve">2.68273305892944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66104793548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67189049720764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67653727531433</t>
   </si>
   <si>
     <t xml:space="preserve">2.65485239028931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69202637672424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62387442588806</t>
+    <t xml:space="preserve">2.69202613830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62387418746948</t>
   </si>
   <si>
     <t xml:space="preserve">2.57895493507385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63006997108459</t>
+    <t xml:space="preserve">2.63006949424744</t>
   </si>
   <si>
     <t xml:space="preserve">2.58205270767212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45968842506409</t>
+    <t xml:space="preserve">2.45968890190125</t>
   </si>
   <si>
     <t xml:space="preserve">2.4070246219635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44419860839844</t>
+    <t xml:space="preserve">2.44419884681702</t>
   </si>
   <si>
     <t xml:space="preserve">2.34042143821716</t>
@@ -1160,31 +1160,31 @@
     <t xml:space="preserve">2.35436177253723</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37914443016052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42406296730042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44729661941528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44884538650513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49066662788391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5154492855072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54797697067261</t>
+    <t xml:space="preserve">2.37914419174194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42406272888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4472963809967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44884514808655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49066686630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51544952392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54797673225403</t>
   </si>
   <si>
     <t xml:space="preserve">2.58670020103455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50925374031067</t>
+    <t xml:space="preserve">2.50925397872925</t>
   </si>
   <si>
     <t xml:space="preserve">2.524742603302</t>
@@ -1193,31 +1193,31 @@
     <t xml:space="preserve">2.52784085273743</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5077052116394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54642772674561</t>
+    <t xml:space="preserve">2.50770473480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54642748832703</t>
   </si>
   <si>
     <t xml:space="preserve">2.56346559524536</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57121014595032</t>
+    <t xml:space="preserve">2.5712103843689</t>
   </si>
   <si>
     <t xml:space="preserve">2.57740592956543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50305795669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4565896987915</t>
+    <t xml:space="preserve">2.50305819511414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45659017562866</t>
   </si>
   <si>
     <t xml:space="preserve">2.36210632324219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39928007125854</t>
+    <t xml:space="preserve">2.39927983283997</t>
   </si>
   <si>
     <t xml:space="preserve">2.3977313041687</t>
@@ -1235,64 +1235,64 @@
     <t xml:space="preserve">2.40547585487366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35745930671692</t>
+    <t xml:space="preserve">2.3574595451355</t>
   </si>
   <si>
     <t xml:space="preserve">2.38533997535706</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44574737548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47827553749084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47517776489258</t>
+    <t xml:space="preserve">2.44574761390686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47827529907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.475177526474</t>
   </si>
   <si>
     <t xml:space="preserve">2.55881905555725</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55727005004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51390051841736</t>
+    <t xml:space="preserve">2.55727028846741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51390075683594</t>
   </si>
   <si>
     <t xml:space="preserve">2.51235151290894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53403663635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56501460075378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57430791854858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57585740089417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49376440048218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51699805259705</t>
+    <t xml:space="preserve">2.53403639793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56501483917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57430815696716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57585716247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49376463890076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51699829101562</t>
   </si>
   <si>
     <t xml:space="preserve">2.49996042251587</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47672653198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3884379863739</t>
+    <t xml:space="preserve">2.476726770401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38843774795532</t>
   </si>
   <si>
     <t xml:space="preserve">2.47982430458069</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46743321418762</t>
+    <t xml:space="preserve">2.46743297576904</t>
   </si>
   <si>
     <t xml:space="preserve">2.48602032661438</t>
@@ -1301,40 +1301,40 @@
     <t xml:space="preserve">2.47207999229431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5417811870575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60218930244446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53248739242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48137307167053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52164506912231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43955183029175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49531388282776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47053122520447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46433544158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54333019256592</t>
+    <t xml:space="preserve">2.54178094863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60218954086304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53248763084412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48137331008911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52164483070374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43955206871033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4953134059906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47053074836731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46433520317078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54332995414734</t>
   </si>
   <si>
     <t xml:space="preserve">2.49686241149902</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49221563339233</t>
+    <t xml:space="preserve">2.49221587181091</t>
   </si>
   <si>
     <t xml:space="preserve">2.56811237335205</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">2.55572128295898</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78651070594788</t>
+    <t xml:space="preserve">2.78651094436646</t>
   </si>
   <si>
     <t xml:space="preserve">2.91352248191833</t>
@@ -1364,40 +1364,40 @@
     <t xml:space="preserve">3.05137634277344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04363179206848</t>
+    <t xml:space="preserve">3.04363203048706</t>
   </si>
   <si>
     <t xml:space="preserve">3.03588724136353</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07306122779846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10713791847229</t>
+    <t xml:space="preserve">3.07306146621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10713815689087</t>
   </si>
   <si>
     <t xml:space="preserve">3.03124046325684</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92591381072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98477339744568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95224523544312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0265941619873</t>
+    <t xml:space="preserve">2.9259135723114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98477292060852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95224499702454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02659392356873</t>
   </si>
   <si>
     <t xml:space="preserve">3.00645804405212</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03898525238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94295191764832</t>
+    <t xml:space="preserve">3.03898501396179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94295167922974</t>
   </si>
   <si>
     <t xml:space="preserve">2.93365836143494</t>
@@ -1409,31 +1409,31 @@
     <t xml:space="preserve">2.85056233406067</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83950757980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.905837059021</t>
+    <t xml:space="preserve">2.83950781822205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90583682060242</t>
   </si>
   <si>
     <t xml:space="preserve">2.89636039733887</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81897735595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70842885971069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65947246551514</t>
+    <t xml:space="preserve">2.81897711753845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70842909812927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65947222709656</t>
   </si>
   <si>
     <t xml:space="preserve">2.7021119594574</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74791049957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79686784744263</t>
+    <t xml:space="preserve">2.74791026115417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79686760902405</t>
   </si>
   <si>
     <t xml:space="preserve">2.76054430007935</t>
@@ -1448,19 +1448,19 @@
     <t xml:space="preserve">2.80476427078247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7747585773468</t>
+    <t xml:space="preserve">2.77475833892822</t>
   </si>
   <si>
     <t xml:space="preserve">2.7305383682251</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74317240715027</t>
+    <t xml:space="preserve">2.74317264556885</t>
   </si>
   <si>
     <t xml:space="preserve">2.73843479156494</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72738003730774</t>
+    <t xml:space="preserve">2.72738027572632</t>
   </si>
   <si>
     <t xml:space="preserve">2.75422739982605</t>
@@ -1472,25 +1472,25 @@
     <t xml:space="preserve">2.68947815895081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71790432929993</t>
+    <t xml:space="preserve">2.71790456771851</t>
   </si>
   <si>
     <t xml:space="preserve">2.72264218330383</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84266591072083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84898281097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89793992042542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88214707374573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84740400314331</t>
+    <t xml:space="preserve">2.8426661491394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8489830493927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89793968200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88214731216431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84740376472473</t>
   </si>
   <si>
     <t xml:space="preserve">2.80634355545044</t>
@@ -1505,7 +1505,7 @@
     <t xml:space="preserve">2.83161115646362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85529971122742</t>
+    <t xml:space="preserve">2.855299949646</t>
   </si>
   <si>
     <t xml:space="preserve">2.83319044113159</t>
@@ -1520,7 +1520,7 @@
     <t xml:space="preserve">2.90741586685181</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92636728286743</t>
+    <t xml:space="preserve">2.92636704444885</t>
   </si>
   <si>
     <t xml:space="preserve">2.91057467460632</t>
@@ -1529,22 +1529,22 @@
     <t xml:space="preserve">2.92794632911682</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98006153106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8995189666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88372683525085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88056826591492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86793398857117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83476972579956</t>
+    <t xml:space="preserve">2.98006129264832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89951920509338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8837263584137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88056802749634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86793422698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83476996421814</t>
   </si>
   <si>
     <t xml:space="preserve">2.83003187179565</t>
@@ -1556,7 +1556,7 @@
     <t xml:space="preserve">2.80002641677856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79528880119324</t>
+    <t xml:space="preserve">2.79528856277466</t>
   </si>
   <si>
     <t xml:space="preserve">2.77317905426025</t>
@@ -1565,16 +1565,16 @@
     <t xml:space="preserve">2.76528191566467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71632528305054</t>
+    <t xml:space="preserve">2.71632504463196</t>
   </si>
   <si>
     <t xml:space="preserve">2.66578936576843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64841771125793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68000268936157</t>
+    <t xml:space="preserve">2.64841747283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68000245094299</t>
   </si>
   <si>
     <t xml:space="preserve">2.74633097648621</t>
@@ -1589,13 +1589,13 @@
     <t xml:space="preserve">2.84424519538879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87583017349243</t>
+    <t xml:space="preserve">2.87583041191101</t>
   </si>
   <si>
     <t xml:space="preserve">2.85214114189148</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81108093261719</t>
+    <t xml:space="preserve">2.81108117103577</t>
   </si>
   <si>
     <t xml:space="preserve">2.81739807128906</t>
@@ -1604,34 +1604,34 @@
     <t xml:space="preserve">2.82529425621033</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80792260169983</t>
+    <t xml:space="preserve">2.80792236328125</t>
   </si>
   <si>
     <t xml:space="preserve">2.59472227096558</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59156370162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53471112251282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.559978723526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58524656295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50312495231628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40679049491882</t>
+    <t xml:space="preserve">2.59156394004822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53471088409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55997896194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58524680137634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50312471389771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4067907333374</t>
   </si>
   <si>
     <t xml:space="preserve">2.38941884040833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38783955574036</t>
+    <t xml:space="preserve">2.38783979415894</t>
   </si>
   <si>
     <t xml:space="preserve">2.32151055335999</t>
@@ -1652,16 +1652,16 @@
     <t xml:space="preserve">2.29150485992432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26465749740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23623037338257</t>
+    <t xml:space="preserve">2.26465725898743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23623013496399</t>
   </si>
   <si>
     <t xml:space="preserve">2.18727350234985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15252995491028</t>
+    <t xml:space="preserve">2.15253019332886</t>
   </si>
   <si>
     <t xml:space="preserve">2.19832849502563</t>
@@ -1673,22 +1673,22 @@
     <t xml:space="preserve">2.20464515686035</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20148682594299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24254775047302</t>
+    <t xml:space="preserve">2.20148658752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2425479888916</t>
   </si>
   <si>
     <t xml:space="preserve">2.28834629058838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26781606674194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2488648891449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25202322006226</t>
+    <t xml:space="preserve">2.26781582832336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24886512756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25202345848083</t>
   </si>
   <si>
     <t xml:space="preserve">2.25044417381287</t>
@@ -1697,10 +1697,10 @@
     <t xml:space="preserve">2.23938870429993</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1951699256897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21570014953613</t>
+    <t xml:space="preserve">2.19516968727112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21569991111755</t>
   </si>
   <si>
     <t xml:space="preserve">2.19674873352051</t>
@@ -1709,16 +1709,16 @@
     <t xml:space="preserve">2.19359040260315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17148113250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1635844707489</t>
+    <t xml:space="preserve">2.17148089408875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16358470916748</t>
   </si>
   <si>
     <t xml:space="preserve">2.11462783813477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12094497680664</t>
+    <t xml:space="preserve">2.12094521522522</t>
   </si>
   <si>
     <t xml:space="preserve">2.10199332237244</t>
@@ -1733,13 +1733,13 @@
     <t xml:space="preserve">2.21096229553223</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22675466537476</t>
+    <t xml:space="preserve">2.22675442695618</t>
   </si>
   <si>
     <t xml:space="preserve">2.19201135635376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2346510887146</t>
+    <t xml:space="preserve">2.23465085029602</t>
   </si>
   <si>
     <t xml:space="preserve">2.20306587219238</t>
@@ -1748,19 +1748,19 @@
     <t xml:space="preserve">2.09567618370056</t>
   </si>
   <si>
-    <t xml:space="preserve">2.124103307724</t>
+    <t xml:space="preserve">2.12410354614258</t>
   </si>
   <si>
     <t xml:space="preserve">2.08304214477539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07514619827271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10673117637634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10831022262573</t>
+    <t xml:space="preserve">2.07514595985413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10673093795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10830998420715</t>
   </si>
   <si>
     <t xml:space="preserve">2.02776861190796</t>
@@ -1778,13 +1778,13 @@
     <t xml:space="preserve">2.00723838806152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07830476760864</t>
+    <t xml:space="preserve">2.07830452919006</t>
   </si>
   <si>
     <t xml:space="preserve">2.0640914440155</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13515830039978</t>
+    <t xml:space="preserve">2.13515853881836</t>
   </si>
   <si>
     <t xml:space="preserve">2.14621305465698</t>
@@ -1802,43 +1802,43 @@
     <t xml:space="preserve">2.02303075790405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00565886497498</t>
+    <t xml:space="preserve">2.00565934181213</t>
   </si>
   <si>
     <t xml:space="preserve">2.05619502067566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02934765815735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99776291847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98512852191925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96933531761169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01987242698669</t>
+    <t xml:space="preserve">2.02934789657593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99776268005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98512876033783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96933507919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01987218856812</t>
   </si>
   <si>
     <t xml:space="preserve">1.98354935646057</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95512235164642</t>
+    <t xml:space="preserve">1.95512223243713</t>
   </si>
   <si>
     <t xml:space="preserve">1.90932416915894</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8382568359375</t>
+    <t xml:space="preserve">1.83825719356537</t>
   </si>
   <si>
     <t xml:space="preserve">1.81614756584167</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83193981647491</t>
+    <t xml:space="preserve">1.8319399356842</t>
   </si>
   <si>
     <t xml:space="preserve">1.8556295633316</t>
@@ -1856,16 +1856,16 @@
     <t xml:space="preserve">1.91406166553497</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93459188938141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96459805965424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01039695739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00250029563904</t>
+    <t xml:space="preserve">1.9345920085907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96459782123566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01039671897888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00250053405762</t>
   </si>
   <si>
     <t xml:space="preserve">1.97723174095154</t>
@@ -1874,133 +1874,133 @@
     <t xml:space="preserve">1.97091472148895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9630184173584</t>
+    <t xml:space="preserve">1.96301817893982</t>
   </si>
   <si>
     <t xml:space="preserve">1.97407341003418</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96775639057159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03250622749329</t>
+    <t xml:space="preserve">1.96775615215302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03250598907471</t>
   </si>
   <si>
     <t xml:space="preserve">2.02461004257202</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01671361923218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04671931266785</t>
+    <t xml:space="preserve">2.01671385765076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04671907424927</t>
   </si>
   <si>
     <t xml:space="preserve">2.00407981872559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93143355846405</t>
+    <t xml:space="preserve">1.93143332004547</t>
   </si>
   <si>
     <t xml:space="preserve">1.93301272392273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91879963874817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88089752197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94248843193054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94090902805328</t>
+    <t xml:space="preserve">1.91879940032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88089740276337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94248831272125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94090890884399</t>
   </si>
   <si>
     <t xml:space="preserve">1.96617698669434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92353713512421</t>
+    <t xml:space="preserve">1.9235372543335</t>
   </si>
   <si>
     <t xml:space="preserve">1.90142774581909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93775045871735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92669570446014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92511653900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93617129325867</t>
+    <t xml:space="preserve">1.93775033950806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92669558525085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92511641979218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93617117404938</t>
   </si>
   <si>
     <t xml:space="preserve">1.90774476528168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87931835651398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83509838581085</t>
+    <t xml:space="preserve">1.87931823730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83509826660156</t>
   </si>
   <si>
     <t xml:space="preserve">1.82878148555756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86984241008759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8903728723526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89826917648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90458607673645</t>
+    <t xml:space="preserve">1.86984264850616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89037311077118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89826893806458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90458583831787</t>
   </si>
   <si>
     <t xml:space="preserve">1.91564106941223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87300097942352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78456223011017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79877555370331</t>
+    <t xml:space="preserve">1.87300109863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78456234931946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7987756729126</t>
   </si>
   <si>
     <t xml:space="preserve">1.72613000869751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69138586521149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64558756351471</t>
+    <t xml:space="preserve">1.69138598442078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.645587682724</t>
   </si>
   <si>
     <t xml:space="preserve">1.66927635669708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65190446376801</t>
+    <t xml:space="preserve">1.65190470218658</t>
   </si>
   <si>
     <t xml:space="preserve">1.64381504058838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64543306827545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67617344856262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65352272987366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66646599769592</t>
+    <t xml:space="preserve">1.64543294906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67617356777191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65352261066437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66646575927734</t>
   </si>
   <si>
     <t xml:space="preserve">1.64866900444031</t>
@@ -2012,7 +2012,7 @@
     <t xml:space="preserve">1.71985733509064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69720637798309</t>
+    <t xml:space="preserve">1.6972062587738</t>
   </si>
   <si>
     <t xml:space="preserve">1.6794091463089</t>
@@ -2024,25 +2024,25 @@
     <t xml:space="preserve">1.70206022262573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61792767047882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62763583660126</t>
+    <t xml:space="preserve">1.61792755126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62763595581055</t>
   </si>
   <si>
     <t xml:space="preserve">1.63572549819946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57667076587677</t>
+    <t xml:space="preserve">1.57667064666748</t>
   </si>
   <si>
     <t xml:space="preserve">1.5750527381897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57586169242859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55482876300812</t>
+    <t xml:space="preserve">1.57586181163788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55482888221741</t>
   </si>
   <si>
     <t xml:space="preserve">1.57343482971191</t>
@@ -2051,13 +2051,13 @@
     <t xml:space="preserve">1.60013055801392</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58961391448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60741114616394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56291830539703</t>
+    <t xml:space="preserve">1.58961403369904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60741102695465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56291842460632</t>
   </si>
   <si>
     <t xml:space="preserve">1.57262587547302</t>
@@ -2066,13 +2066,13 @@
     <t xml:space="preserve">1.59608578681946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58799612522125</t>
+    <t xml:space="preserve">1.58799624443054</t>
   </si>
   <si>
     <t xml:space="preserve">1.58637821674347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64219725131989</t>
+    <t xml:space="preserve">1.6421971321106</t>
   </si>
   <si>
     <t xml:space="preserve">1.6874988079071</t>
@@ -2081,10 +2081,10 @@
     <t xml:space="preserve">1.67455542087555</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63410770893097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6114559173584</t>
+    <t xml:space="preserve">1.63410758972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61145579814911</t>
   </si>
   <si>
     <t xml:space="preserve">1.57828855514526</t>
@@ -2099,7 +2099,7 @@
     <t xml:space="preserve">1.55725562572479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57100784778595</t>
+    <t xml:space="preserve">1.57100796699524</t>
   </si>
   <si>
     <t xml:space="preserve">1.55321097373962</t>
@@ -2108,31 +2108,31 @@
     <t xml:space="preserve">1.54916596412659</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54026746749878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52408826351166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52166140079498</t>
+    <t xml:space="preserve">1.54026758670807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52408838272095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52166152000427</t>
   </si>
   <si>
     <t xml:space="preserve">1.52894198894501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51761674880981</t>
+    <t xml:space="preserve">1.51761662960052</t>
   </si>
   <si>
     <t xml:space="preserve">1.50710022449493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5006285905838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49011206626892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48525738716125</t>
+    <t xml:space="preserve">1.50062847137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49011194705963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48525750637054</t>
   </si>
   <si>
     <t xml:space="preserve">1.37523889541626</t>
@@ -2141,28 +2141,28 @@
     <t xml:space="preserve">1.34287989139557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34045279026031</t>
+    <t xml:space="preserve">1.3404529094696</t>
   </si>
   <si>
     <t xml:space="preserve">1.286252617836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32427382469177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3420706987381</t>
+    <t xml:space="preserve">1.32427370548248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34207081794739</t>
   </si>
   <si>
     <t xml:space="preserve">1.30890345573425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31861102581024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36795830726624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35663294792175</t>
+    <t xml:space="preserve">1.31861090660095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36795842647552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35663282871246</t>
   </si>
   <si>
     <t xml:space="preserve">1.36714935302734</t>
@@ -2171,19 +2171,19 @@
     <t xml:space="preserve">1.40759742259979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3614866733551</t>
+    <t xml:space="preserve">1.36148655414581</t>
   </si>
   <si>
     <t xml:space="preserve">1.37362098693848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37928378582001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45451688766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48202157020569</t>
+    <t xml:space="preserve">1.37928366661072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45451700687408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48202168941498</t>
   </si>
   <si>
     <t xml:space="preserve">1.47231411933899</t>
@@ -2195,10 +2195,10 @@
     <t xml:space="preserve">1.5103360414505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49820172786713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46422469615936</t>
+    <t xml:space="preserve">1.49820160865784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46422457695007</t>
   </si>
   <si>
     <t xml:space="preserve">1.44723641872406</t>
@@ -2207,19 +2207,19 @@
     <t xml:space="preserve">1.45613491535187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46179759502411</t>
+    <t xml:space="preserve">1.46179747581482</t>
   </si>
   <si>
     <t xml:space="preserve">1.43267512321472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39546287059784</t>
+    <t xml:space="preserve">1.39546298980713</t>
   </si>
   <si>
     <t xml:space="preserve">1.38171064853668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35097014904022</t>
+    <t xml:space="preserve">1.35097026824951</t>
   </si>
   <si>
     <t xml:space="preserve">1.35905981063843</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">1.34449768066406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36553156375885</t>
+    <t xml:space="preserve">1.36553144454956</t>
   </si>
   <si>
     <t xml:space="preserve">1.3711941242218</t>
@@ -2246,13 +2246,13 @@
     <t xml:space="preserve">1.37281215190887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39708089828491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43186616897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45775282382965</t>
+    <t xml:space="preserve">1.3970810174942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43186604976654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45775270462036</t>
   </si>
   <si>
     <t xml:space="preserve">1.48768508434296</t>
@@ -2261,10 +2261,10 @@
     <t xml:space="preserve">1.4812126159668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44804537296295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45370805263519</t>
+    <t xml:space="preserve">1.44804525375366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4537079334259</t>
   </si>
   <si>
     <t xml:space="preserve">1.45856177806854</t>
@@ -2273,19 +2273,19 @@
     <t xml:space="preserve">1.45937085151672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43672001361847</t>
+    <t xml:space="preserve">1.43671989440918</t>
   </si>
   <si>
     <t xml:space="preserve">1.46503341197968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52651512622833</t>
+    <t xml:space="preserve">1.52651524543762</t>
   </si>
   <si>
     <t xml:space="preserve">1.51842558383942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53541374206543</t>
+    <t xml:space="preserve">1.53541386127472</t>
   </si>
   <si>
     <t xml:space="preserve">1.50548243522644</t>
@@ -2315,16 +2315,16 @@
     <t xml:space="preserve">1.63087177276611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66323018074036</t>
+    <t xml:space="preserve">1.66323006153107</t>
   </si>
   <si>
     <t xml:space="preserve">1.71662139892578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74736177921295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71500360965729</t>
+    <t xml:space="preserve">1.74736189842224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71500372886658</t>
   </si>
   <si>
     <t xml:space="preserve">1.73603653907776</t>
@@ -2333,31 +2333,31 @@
     <t xml:space="preserve">1.65999412536621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68426311016083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72632873058319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75868809223175</t>
+    <t xml:space="preserve">1.68426322937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72632884979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75868797302246</t>
   </si>
   <si>
     <t xml:space="preserve">1.72794699668884</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7328006029129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70529627799988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70044231414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73441863059998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69235253334045</t>
+    <t xml:space="preserve">1.73280048370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70529615879059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70044219493866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73441874980927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69235265254974</t>
   </si>
   <si>
     <t xml:space="preserve">1.67131972312927</t>
@@ -2369,7 +2369,7 @@
     <t xml:space="preserve">1.71176767349243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71823930740356</t>
+    <t xml:space="preserve">1.71823942661285</t>
   </si>
   <si>
     <t xml:space="preserve">1.69882428646088</t>
@@ -2378,40 +2378,40 @@
     <t xml:space="preserve">1.7133857011795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71014964580536</t>
+    <t xml:space="preserve">1.71014976501465</t>
   </si>
   <si>
     <t xml:space="preserve">1.70367801189423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63896143436432</t>
+    <t xml:space="preserve">1.63896155357361</t>
   </si>
   <si>
     <t xml:space="preserve">1.62116420269012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61711859703064</t>
+    <t xml:space="preserve">1.61711871623993</t>
   </si>
   <si>
     <t xml:space="preserve">1.63248980045319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6502867937088</t>
+    <t xml:space="preserve">1.65028667449951</t>
   </si>
   <si>
     <t xml:space="preserve">1.75545132160187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88488566875458</t>
+    <t xml:space="preserve">1.88488578796387</t>
   </si>
   <si>
     <t xml:space="preserve">1.93504214286804</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91077351570129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97063624858856</t>
+    <t xml:space="preserve">1.91077327728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97063612937927</t>
   </si>
   <si>
     <t xml:space="preserve">2.17449569702148</t>
@@ -2423,19 +2423,19 @@
     <t xml:space="preserve">2.08712720870972</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02564549446106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90591943264008</t>
+    <t xml:space="preserve">2.02564573287964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90591955184937</t>
   </si>
   <si>
     <t xml:space="preserve">1.89944779872894</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94636762142181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82987666130066</t>
+    <t xml:space="preserve">1.9463677406311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82987654209137</t>
   </si>
   <si>
     <t xml:space="preserve">1.58556914329529</t>
@@ -2447,7 +2447,7 @@
     <t xml:space="preserve">1.41892278194427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32912743091583</t>
+    <t xml:space="preserve">1.32912755012512</t>
   </si>
   <si>
     <t xml:space="preserve">1.2846348285675</t>
@@ -2462,10 +2462,10 @@
     <t xml:space="preserve">1.06621420383453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.984509289264679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01282274723053</t>
+    <t xml:space="preserve">0.984509229660034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01282286643982</t>
   </si>
   <si>
     <t xml:space="preserve">1.03142881393433</t>
@@ -2489,25 +2489,25 @@
     <t xml:space="preserve">1.14387500286102</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09210157394409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07106792926788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11556148529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10019111633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18513190746307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13254964351654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19403052330017</t>
+    <t xml:space="preserve">1.09210169315338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07106781005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11556136608124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1001912355423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18513202667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13254952430725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19403040409088</t>
   </si>
   <si>
     <t xml:space="preserve">1.21991789340973</t>
@@ -2519,16 +2519,16 @@
     <t xml:space="preserve">1.25065839290619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24904048442841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16490793228149</t>
+    <t xml:space="preserve">1.24904036521912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1649078130722</t>
   </si>
   <si>
     <t xml:space="preserve">1.14306604862213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17218852043152</t>
+    <t xml:space="preserve">1.17218863964081</t>
   </si>
   <si>
     <t xml:space="preserve">1.13902127742767</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">1.17299735546112</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15520048141479</t>
+    <t xml:space="preserve">1.15520036220551</t>
   </si>
   <si>
     <t xml:space="preserve">1.15924525260925</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">1.16409909725189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17057073116302</t>
+    <t xml:space="preserve">1.17057085037231</t>
   </si>
   <si>
     <t xml:space="preserve">1.11151659488678</t>
@@ -2558,7 +2558,7 @@
     <t xml:space="preserve">1.14953768253326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12446010112762</t>
+    <t xml:space="preserve">1.12445998191833</t>
   </si>
   <si>
     <t xml:space="preserve">1.1090897321701</t>
@@ -2567,10 +2567,10 @@
     <t xml:space="preserve">1.11879730224609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11717927455902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08401203155518</t>
+    <t xml:space="preserve">1.11717939376831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08401215076447</t>
   </si>
   <si>
     <t xml:space="preserve">1.05569756031036</t>
@@ -2579,19 +2579,19 @@
     <t xml:space="preserve">1.03951847553253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05974233150482</t>
+    <t xml:space="preserve">1.05974245071411</t>
   </si>
   <si>
     <t xml:space="preserve">1.01039588451385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992598831653595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986936092376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.978846430778503</t>
+    <t xml:space="preserve">0.99259877204895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.986936032772064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.978846371173859</t>
   </si>
   <si>
     <t xml:space="preserve">1.05650651454926</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">1.17542445659637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18108689785004</t>
+    <t xml:space="preserve">1.18108701705933</t>
   </si>
   <si>
     <t xml:space="preserve">1.21506345272064</t>
@@ -2618,10 +2618,10 @@
     <t xml:space="preserve">1.30162286758423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32750964164734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28544366359711</t>
+    <t xml:space="preserve">1.32750952243805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28544354438782</t>
   </si>
   <si>
     <t xml:space="preserve">1.27411818504333</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">1.22962546348572</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25146734714508</t>
+    <t xml:space="preserve">1.25146746635437</t>
   </si>
   <si>
     <t xml:space="preserve">1.27169144153595</t>
@@ -2645,13 +2645,13 @@
     <t xml:space="preserve">1.25389420986176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33479011058807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38494634628296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46017980575562</t>
+    <t xml:space="preserve">1.33479022979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38494646549225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46017968654633</t>
   </si>
   <si>
     <t xml:space="preserve">1.50386440753937</t>
@@ -2675,7 +2675,7 @@
     <t xml:space="preserve">1.51680767536163</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59932160377502</t>
+    <t xml:space="preserve">1.59932148456573</t>
   </si>
   <si>
     <t xml:space="preserve">1.55159294605255</t>
@@ -2684,16 +2684,16 @@
     <t xml:space="preserve">1.5936586856842</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58152437210083</t>
+    <t xml:space="preserve">1.58152449131012</t>
   </si>
   <si>
     <t xml:space="preserve">1.56939005851746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49577474594116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47474086284637</t>
+    <t xml:space="preserve">1.49577462673187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47474098205566</t>
   </si>
   <si>
     <t xml:space="preserve">1.43833780288696</t>
@@ -2717,22 +2717,22 @@
     <t xml:space="preserve">1.66161239147186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62925386428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47716772556305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47635889053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43995571136475</t>
+    <t xml:space="preserve">1.62925374507904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47716784477234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47635877132416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43995559215546</t>
   </si>
   <si>
     <t xml:space="preserve">1.46988725662231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49415683746338</t>
+    <t xml:space="preserve">1.49415671825409</t>
   </si>
   <si>
     <t xml:space="preserve">1.47797679901123</t>
@@ -2741,13 +2741,13 @@
     <t xml:space="preserve">1.48687624931335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4917299747467</t>
+    <t xml:space="preserve">1.49172985553741</t>
   </si>
   <si>
     <t xml:space="preserve">1.41568696498871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41245114803314</t>
+    <t xml:space="preserve">1.41245102882385</t>
   </si>
   <si>
     <t xml:space="preserve">1.43914675712585</t>
@@ -2756,16 +2756,16 @@
     <t xml:space="preserve">1.39303612709045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41811370849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42943930625916</t>
+    <t xml:space="preserve">1.41811382770538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42943942546844</t>
   </si>
   <si>
     <t xml:space="preserve">1.49739265441895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46746039390564</t>
+    <t xml:space="preserve">1.46746051311493</t>
   </si>
   <si>
     <t xml:space="preserve">1.48040366172791</t>
@@ -2774,19 +2774,19 @@
     <t xml:space="preserve">1.43591094017029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45128107070923</t>
+    <t xml:space="preserve">1.45128118991852</t>
   </si>
   <si>
     <t xml:space="preserve">1.41164219379425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42701244354248</t>
+    <t xml:space="preserve">1.42701232433319</t>
   </si>
   <si>
     <t xml:space="preserve">1.43105721473694</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36472260951996</t>
+    <t xml:space="preserve">1.36472249031067</t>
   </si>
   <si>
     <t xml:space="preserve">1.35501492023468</t>
@@ -2795,19 +2795,19 @@
     <t xml:space="preserve">1.31213939189911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32993638515472</t>
+    <t xml:space="preserve">1.32993650436401</t>
   </si>
   <si>
     <t xml:space="preserve">1.19726634025574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18674981594086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21910893917084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31456625461578</t>
+    <t xml:space="preserve">1.18674993515015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21910905838013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31456613540649</t>
   </si>
   <si>
     <t xml:space="preserve">1.33074533939362</t>
@@ -2822,31 +2822,31 @@
     <t xml:space="preserve">1.54512131214142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53460466861725</t>
+    <t xml:space="preserve">1.53460478782654</t>
   </si>
   <si>
     <t xml:space="preserve">1.60983800888062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66484820842743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94151377677917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90915536880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90106582641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88326776027679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81369745731354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84443807601929</t>
+    <t xml:space="preserve">1.66484808921814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94151365756989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90915548801422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90106570720673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88326787948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81369721889496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84443795681</t>
   </si>
   <si>
     <t xml:space="preserve">1.80560767650604</t>
@@ -2861,10 +2861,10 @@
     <t xml:space="preserve">1.8541454076767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85090970993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82016909122467</t>
+    <t xml:space="preserve">1.85090959072113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82016885280609</t>
   </si>
   <si>
     <t xml:space="preserve">1.78781068325043</t>
@@ -2873,7 +2873,7 @@
     <t xml:space="preserve">1.78133904933929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79913604259491</t>
+    <t xml:space="preserve">1.79913592338562</t>
   </si>
   <si>
     <t xml:space="preserve">1.77972114086151</t>
@@ -2882,10 +2882,10 @@
     <t xml:space="preserve">1.79590022563934</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76192378997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73118269443512</t>
+    <t xml:space="preserve">1.76192390918732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73118281364441</t>
   </si>
   <si>
     <t xml:space="preserve">1.75221562385559</t>
@@ -2894,31 +2894,31 @@
     <t xml:space="preserve">1.77648520469666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78457498550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78295695781708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86870682239532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90430152416229</t>
+    <t xml:space="preserve">1.78457486629486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78295683860779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86870670318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90430164337158</t>
   </si>
   <si>
     <t xml:space="preserve">1.8816499710083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84281969070435</t>
+    <t xml:space="preserve">1.84281992912292</t>
   </si>
   <si>
     <t xml:space="preserve">1.86061716079712</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81531524658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7700138092041</t>
+    <t xml:space="preserve">1.81531536579132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77001368999481</t>
   </si>
   <si>
     <t xml:space="preserve">1.79428243637085</t>
@@ -2927,31 +2927,28 @@
     <t xml:space="preserve">1.77163136005402</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75383365154266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65190470218658</t>
+    <t xml:space="preserve">1.75383353233337</t>
   </si>
   <si>
     <t xml:space="preserve">1.68264496326447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70853197574615</t>
+    <t xml:space="preserve">1.70853185653687</t>
   </si>
   <si>
     <t xml:space="preserve">1.73765444755554</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8719425201416</t>
+    <t xml:space="preserve">1.87194240093231</t>
   </si>
   <si>
     <t xml:space="preserve">2.02079176902771</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99005150794983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01432013511658</t>
+    <t xml:space="preserve">1.99005138874054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.014319896698</t>
   </si>
   <si>
     <t xml:space="preserve">2.00137662887573</t>
@@ -2963,67 +2960,67 @@
     <t xml:space="preserve">2.02402758598328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98196172714233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9382780790329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96092879772186</t>
+    <t xml:space="preserve">1.98196160793304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93827795982361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96092867851257</t>
   </si>
   <si>
     <t xml:space="preserve">1.95122122764587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94798541069031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9560751914978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93665993213654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9301882982254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97710812091827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9657826423645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95769286155701</t>
+    <t xml:space="preserve">1.94798529148102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95607507228851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93666005134583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93018841743469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97710800170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96578252315521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95769274234772</t>
   </si>
   <si>
     <t xml:space="preserve">2.00461268424988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99652314186096</t>
+    <t xml:space="preserve">1.99652290344238</t>
   </si>
   <si>
     <t xml:space="preserve">2.06447625160217</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12110376358032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20038223266602</t>
+    <t xml:space="preserve">2.12110352516174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20038247108459</t>
   </si>
   <si>
     <t xml:space="preserve">2.28936791419983</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33628821372986</t>
+    <t xml:space="preserve">2.33628845214844</t>
   </si>
   <si>
     <t xml:space="preserve">2.3055477142334</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28127837181091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25700950622559</t>
+    <t xml:space="preserve">2.28127813339233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25700926780701</t>
   </si>
   <si>
     <t xml:space="preserve">2.30878353118896</t>
@@ -3032,31 +3029,31 @@
     <t xml:space="preserve">2.28775000572205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29098582267761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38320779800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31040167808533</t>
+    <t xml:space="preserve">2.29098606109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38320803642273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31040191650391</t>
   </si>
   <si>
     <t xml:space="preserve">2.34599566459656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34275984764099</t>
+    <t xml:space="preserve">2.34276008605957</t>
   </si>
   <si>
     <t xml:space="preserve">2.32334494590759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32496309280396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39453363418579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40747690200806</t>
+    <t xml:space="preserve">2.32496285438538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39453339576721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40747666358948</t>
   </si>
   <si>
     <t xml:space="preserve">2.43174624443054</t>
@@ -3068,10 +3065,10 @@
     <t xml:space="preserve">2.396151304245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40585875511169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40909457206726</t>
+    <t xml:space="preserve">2.40585899353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40909481048584</t>
   </si>
   <si>
     <t xml:space="preserve">2.53852891921997</t>
@@ -3080,450 +3077,453 @@
     <t xml:space="preserve">2.57088804244995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65825581550598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7310631275177</t>
+    <t xml:space="preserve">2.6582555770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73106288909912</t>
   </si>
   <si>
     <t xml:space="preserve">2.83137392997742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80386900901794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78768992424011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89447355270386</t>
+    <t xml:space="preserve">2.80386924743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78769016265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89447379112244</t>
   </si>
   <si>
     <t xml:space="preserve">2.93330359458923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98507785797119</t>
+    <t xml:space="preserve">2.98507761955261</t>
   </si>
   <si>
     <t xml:space="preserve">3.09186029434204</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0692093372345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06597375869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15172433853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15495991706848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14039897918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19217228889465</t>
+    <t xml:space="preserve">3.06920957565308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06597352027893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15172410011292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15496015548706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14039874076843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19217205047607</t>
   </si>
   <si>
     <t xml:space="preserve">3.17761087417603</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16790342330933</t>
+    <t xml:space="preserve">3.16790318489075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19055414199829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30391597747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29241561889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27598595619202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37784719467163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31213045120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33677434921265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4205629825592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44520711898804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41563391685486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40084767341614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35156059265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2809145450592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20041179656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17741107940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17083930969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15440940856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12155103683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10840773582458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03283405303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0016176700592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99997472763062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93097257614136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99340319633484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99176025390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03940534591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9638307094574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0049033164978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99011731147766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06076335906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98025989532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94740152359009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91782927513123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04597735404968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99504613876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97697401046753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91947197914124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86361217498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76503753662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85539770126343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92768692970276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95397353172302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98190259933472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13469457626343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09526467323303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15276646614075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11497950553894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05419158935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06404900550842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06240630149841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04104828834534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04762005805969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12648010253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16262483596802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11169362068176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17905402183533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13633728027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13305139541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03776264190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06569194793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04926300048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08376407623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10512185096741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21355509757996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2217698097229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19548320770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19876885414124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16426777839661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20369744300842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14619469642639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16755342483521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.106764793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04433441162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07883524894714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01804757118225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96218800544739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03119087219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96711659431458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89482855796814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89811420440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99668908119202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00654649734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01476097106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97861695289612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02790522575378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05090594291687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02461934089661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13962340354919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11005067825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08869290351868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07062077522278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08047842979431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11333680152893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1659107208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18726849555969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20205450057983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16098213195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21026921272278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24477052688599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25298500061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12812280654907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14455199241638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0854070186615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11990809440613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19384002685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24969911575317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15933871269226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05912065505981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00818943977356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95890188217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97204542160034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89154243469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89975714683533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85046911239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95725917816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90468597412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77325201034546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92604374885559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80939602851868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8389687538147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86854100227356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86525535583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9424729347229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91454339027405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91290044784546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88825678825378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85868358612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95068740844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02626204490662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05747771263123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10347938537598</t>
   </si>
   <si>
     <t xml:space="preserve">3.19055438041687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30391597747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29241561889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27598571777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37784695625305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31213021278381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33677434921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4205629825592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44520735740662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41563391685486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40084767341614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35156035423279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2809145450592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20041179656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17741107940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17083930969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15440940856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12155103683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10840773582458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03283405303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0016176700592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99997496604919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93097233772278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99340343475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99176049232483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03940558433533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9638307094574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00490355491638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99011707305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06076335906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98025989532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94740176200867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91782927513123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0459771156311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99504613876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97697401046753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91947197914124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86361217498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76503753662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85539770126343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92768669128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95397353172302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9819028377533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13469433784485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09526443481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15276646614075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11497926712036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05419158935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06404900550842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06240630149841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04104852676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04762005805969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12647986412048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16262459754944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11169385910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17905402183533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13633728027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13305163383484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03776264190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06569218635559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04926300048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08376407623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10512208938599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21355509757996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22176957130432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19548296928406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19876909255981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16426777839661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20369744300842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14619469642639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16755342483521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.106764793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04433417320251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07883548736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01804757118225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96218800544739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03119087219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96711659431458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89482879638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89811420440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99668884277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00654649734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01476120948792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97861695289612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02790522575378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05090594291687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02461910247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13962316513062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11005091667175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08869290351868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07062077522278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08047842979431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11333656311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16591048240662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18726849555969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20205473899841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16098189353943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21026945114136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24477028846741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25298476219177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12812280654907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1445517539978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0854070186615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11990833282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19384002685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24969911575317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15933895111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05912065505981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00818943977356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95890188217163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97204542160034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89154267311096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89975690841675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85046911239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95725893974304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90468597412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77325201034546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92604374885559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80939626693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83896851539612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86854124069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86525535583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9424729347229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91454339027405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91290044784546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88825678825378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85868358612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95068740844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0262622833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05747747421265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1034791469574</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.06733512878418</t>
   </si>
   <si>
@@ -3536,19 +3536,19 @@
     <t xml:space="preserve">3.2431275844574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09690761566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93590140342712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98354554176331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06897783279419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02954816818237</t>
+    <t xml:space="preserve">3.09690737724304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93590116500854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98354578018188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06897807121277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02954792976379</t>
   </si>
   <si>
     <t xml:space="preserve">3.18233966827393</t>
@@ -3557,7 +3557,7 @@
     <t xml:space="preserve">3.13288044929504</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10821199417114</t>
+    <t xml:space="preserve">3.10821223258972</t>
   </si>
   <si>
     <t xml:space="preserve">3.26937890052795</t>
@@ -3566,13 +3566,13 @@
     <t xml:space="preserve">3.28911352157593</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37956404685974</t>
+    <t xml:space="preserve">3.37956428527832</t>
   </si>
   <si>
     <t xml:space="preserve">3.3088481426239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42561173439026</t>
+    <t xml:space="preserve">3.42561149597168</t>
   </si>
   <si>
     <t xml:space="preserve">3.44370198249817</t>
@@ -3581,10 +3581,10 @@
     <t xml:space="preserve">3.4157440662384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48481559753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39107608795166</t>
+    <t xml:space="preserve">3.4848153591156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39107584953308</t>
   </si>
   <si>
     <t xml:space="preserve">3.31542634963989</t>
@@ -3605,13 +3605,13 @@
     <t xml:space="preserve">2.73818683624268</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7743673324585</t>
+    <t xml:space="preserve">2.77436709403992</t>
   </si>
   <si>
     <t xml:space="preserve">2.72174119949341</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41420936584473</t>
+    <t xml:space="preserve">2.41420912742615</t>
   </si>
   <si>
     <t xml:space="preserve">2.40598654747009</t>
@@ -3626,7 +3626,7 @@
     <t xml:space="preserve">2.57702040672302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60168862342834</t>
+    <t xml:space="preserve">2.60168886184692</t>
   </si>
   <si>
     <t xml:space="preserve">2.71022939682007</t>
@@ -3641,7 +3641,7 @@
     <t xml:space="preserve">2.91908812522888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96020197868347</t>
+    <t xml:space="preserve">2.96020221710205</t>
   </si>
   <si>
     <t xml:space="preserve">2.97829222679138</t>
@@ -3656,7 +3656,7 @@
     <t xml:space="preserve">2.99144887924194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93388915061951</t>
+    <t xml:space="preserve">2.93388938903809</t>
   </si>
   <si>
     <t xml:space="preserve">2.99638247489929</t>
@@ -3686,7 +3686,7 @@
     <t xml:space="preserve">2.99802684783936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14274787902832</t>
+    <t xml:space="preserve">3.14274764060974</t>
   </si>
   <si>
     <t xml:space="preserve">3.1559042930603</t>
@@ -3695,19 +3695,19 @@
     <t xml:space="preserve">3.07696557044983</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14932584762573</t>
+    <t xml:space="preserve">3.14932608604431</t>
   </si>
   <si>
     <t xml:space="preserve">3.09176659584045</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17728352546692</t>
+    <t xml:space="preserve">3.1772837638855</t>
   </si>
   <si>
     <t xml:space="preserve">3.16248250007629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11314606666565</t>
+    <t xml:space="preserve">3.11314582824707</t>
   </si>
   <si>
     <t xml:space="preserve">3.13616943359375</t>
@@ -3719,7 +3719,7 @@
     <t xml:space="preserve">3.10985660552979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11479043960571</t>
+    <t xml:space="preserve">3.11479067802429</t>
   </si>
   <si>
     <t xml:space="preserve">2.98980402946472</t>
@@ -3734,7 +3734,7 @@
     <t xml:space="preserve">2.87468504905701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97993683815002</t>
+    <t xml:space="preserve">2.97993659973145</t>
   </si>
   <si>
     <t xml:space="preserve">3.00624942779541</t>
@@ -3743,16 +3743,16 @@
     <t xml:space="preserve">3.02598428726196</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01940608024597</t>
+    <t xml:space="preserve">3.01940584182739</t>
   </si>
   <si>
     <t xml:space="preserve">3.08683300018311</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06545376777649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05558633804321</t>
+    <t xml:space="preserve">3.06545352935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05558657646179</t>
   </si>
   <si>
     <t xml:space="preserve">3.01282787322998</t>
@@ -5112,6 +5112,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.96000003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.875</t>
   </si>
 </sst>
 </file>
@@ -38933,7 +38936,7 @@
         <v>2.03996992111206</v>
       </c>
       <c r="G1288" t="s">
-        <v>972</v>
+        <v>657</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -38959,7 +38962,7 @@
         <v>2.07793188095093</v>
       </c>
       <c r="G1289" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -39037,7 +39040,7 @@
         <v>2.10989999771118</v>
       </c>
       <c r="G1292" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -39063,7 +39066,7 @@
         <v>2.14586400985718</v>
       </c>
       <c r="G1293" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -39115,7 +39118,7 @@
         <v>2.31169891357422</v>
       </c>
       <c r="G1295" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -39141,7 +39144,7 @@
         <v>2.49551606178284</v>
       </c>
       <c r="G1296" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -39167,7 +39170,7 @@
         <v>2.45755410194397</v>
       </c>
       <c r="G1297" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -39193,7 +39196,7 @@
         <v>2.48752403259277</v>
       </c>
       <c r="G1298" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -39219,7 +39222,7 @@
         <v>2.47153997421265</v>
       </c>
       <c r="G1299" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -39245,7 +39248,7 @@
         <v>2.48752403259277</v>
       </c>
       <c r="G1300" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -39271,7 +39274,7 @@
         <v>2.45355796813965</v>
       </c>
       <c r="G1301" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -39297,7 +39300,7 @@
         <v>2.49951195716858</v>
       </c>
       <c r="G1302" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -39323,7 +39326,7 @@
         <v>2.44756388664246</v>
       </c>
       <c r="G1303" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -39349,7 +39352,7 @@
         <v>2.39361810684204</v>
       </c>
       <c r="G1304" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -39375,7 +39378,7 @@
         <v>2.42159008979797</v>
       </c>
       <c r="G1305" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -39401,7 +39404,7 @@
         <v>2.40960192680359</v>
       </c>
       <c r="G1306" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -39427,7 +39430,7 @@
         <v>2.40560603141785</v>
       </c>
       <c r="G1307" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -39453,7 +39456,7 @@
         <v>2.41559600830078</v>
       </c>
       <c r="G1308" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -39479,7 +39482,7 @@
         <v>2.39161992073059</v>
       </c>
       <c r="G1309" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -39505,7 +39508,7 @@
         <v>2.38362789154053</v>
       </c>
       <c r="G1310" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -39531,7 +39534,7 @@
         <v>2.44157004356384</v>
       </c>
       <c r="G1311" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -39557,7 +39560,7 @@
         <v>2.42758393287659</v>
       </c>
       <c r="G1312" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -39583,7 +39586,7 @@
         <v>2.44157004356384</v>
       </c>
       <c r="G1313" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -39609,7 +39612,7 @@
         <v>2.41759395599365</v>
       </c>
       <c r="G1314" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -39635,7 +39638,7 @@
         <v>2.44756388664246</v>
       </c>
       <c r="G1315" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -39661,7 +39664,7 @@
         <v>2.47553610801697</v>
       </c>
       <c r="G1316" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -39687,7 +39690,7 @@
         <v>2.47153997421265</v>
       </c>
       <c r="G1317" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -39713,7 +39716,7 @@
         <v>2.46554589271545</v>
       </c>
       <c r="G1318" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -39739,7 +39742,7 @@
         <v>2.54946303367615</v>
       </c>
       <c r="G1319" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -39765,7 +39768,7 @@
         <v>2.61939311027527</v>
       </c>
       <c r="G1320" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -39791,7 +39794,7 @@
         <v>2.71729588508606</v>
       </c>
       <c r="G1321" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -39817,7 +39820,7 @@
         <v>2.8271861076355</v>
       </c>
       <c r="G1322" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -39843,7 +39846,7 @@
         <v>2.88512897491455</v>
       </c>
       <c r="G1323" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -39869,7 +39872,7 @@
         <v>2.84716701507568</v>
       </c>
       <c r="G1324" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -39895,7 +39898,7 @@
         <v>2.84716701507568</v>
       </c>
       <c r="G1325" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -39921,7 +39924,7 @@
         <v>2.81719589233398</v>
       </c>
       <c r="G1326" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -39947,7 +39950,7 @@
         <v>2.78722596168518</v>
       </c>
       <c r="G1327" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -39973,7 +39976,7 @@
         <v>2.85116291046143</v>
       </c>
       <c r="G1328" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -39999,7 +40002,7 @@
         <v>2.82518792152405</v>
       </c>
       <c r="G1329" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -40025,7 +40028,7 @@
         <v>2.84716701507568</v>
       </c>
       <c r="G1330" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -40051,7 +40054,7 @@
         <v>2.82918405532837</v>
       </c>
       <c r="G1331" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -40077,7 +40080,7 @@
         <v>2.94307088851929</v>
       </c>
       <c r="G1332" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -40103,7 +40106,7 @@
         <v>2.85316109657288</v>
       </c>
       <c r="G1333" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -40129,7 +40132,7 @@
         <v>2.89711689949036</v>
       </c>
       <c r="G1334" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -40155,7 +40158,7 @@
         <v>2.89711689949036</v>
       </c>
       <c r="G1335" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -40181,7 +40184,7 @@
         <v>2.89312100410461</v>
       </c>
       <c r="G1336" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -40207,7 +40210,7 @@
         <v>2.84716701507568</v>
       </c>
       <c r="G1337" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -40233,7 +40236,7 @@
         <v>2.82518792152405</v>
       </c>
       <c r="G1338" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -40259,7 +40262,7 @@
         <v>2.86914491653442</v>
       </c>
       <c r="G1339" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -40285,7 +40288,7 @@
         <v>2.87114310264587</v>
       </c>
       <c r="G1340" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -40311,7 +40314,7 @@
         <v>2.95705699920654</v>
       </c>
       <c r="G1341" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -40337,7 +40340,7 @@
         <v>2.97304105758667</v>
       </c>
       <c r="G1342" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -40363,7 +40366,7 @@
         <v>3.00301194190979</v>
       </c>
       <c r="G1343" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -40389,7 +40392,7 @@
         <v>3.04497003555298</v>
       </c>
       <c r="G1344" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -40415,7 +40418,7 @@
         <v>2.95905494689941</v>
       </c>
       <c r="G1345" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -40441,7 +40444,7 @@
         <v>2.9710431098938</v>
       </c>
       <c r="G1346" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -40467,7 +40470,7 @@
         <v>2.97503900527954</v>
       </c>
       <c r="G1347" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -40493,7 +40496,7 @@
         <v>3.04497003555298</v>
       </c>
       <c r="G1348" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -40519,7 +40522,7 @@
         <v>3.13488006591797</v>
       </c>
       <c r="G1349" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -40545,7 +40548,7 @@
         <v>3.17484092712402</v>
       </c>
       <c r="G1350" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -40571,7 +40574,7 @@
         <v>3.28273296356201</v>
       </c>
       <c r="G1351" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -40597,7 +40600,7 @@
         <v>3.37264394760132</v>
       </c>
       <c r="G1352" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -40623,7 +40626,7 @@
         <v>3.49652004241943</v>
       </c>
       <c r="G1353" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -40649,7 +40652,7 @@
         <v>3.46255397796631</v>
       </c>
       <c r="G1354" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -40675,7 +40678,7 @@
         <v>3.44257402420044</v>
       </c>
       <c r="G1355" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -40701,7 +40704,7 @@
         <v>3.57444310188293</v>
       </c>
       <c r="G1356" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -40727,7 +40730,7 @@
         <v>3.62239503860474</v>
       </c>
       <c r="G1357" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -40753,7 +40756,7 @@
         <v>3.68633198738098</v>
       </c>
       <c r="G1358" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -40779,7 +40782,7 @@
         <v>3.81820011138916</v>
       </c>
       <c r="G1359" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -40805,7 +40808,7 @@
         <v>3.79022789001465</v>
       </c>
       <c r="G1360" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -40831,7 +40834,7 @@
         <v>3.78623199462891</v>
       </c>
       <c r="G1361" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -40857,7 +40860,7 @@
         <v>3.89212703704834</v>
       </c>
       <c r="G1362" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -40883,7 +40886,7 @@
         <v>3.89612293243408</v>
       </c>
       <c r="G1363" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -40909,7 +40912,7 @@
         <v>3.87814092636108</v>
       </c>
       <c r="G1364" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -40935,7 +40938,7 @@
         <v>3.94207692146301</v>
       </c>
       <c r="G1365" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -40961,7 +40964,7 @@
         <v>3.92409491539001</v>
       </c>
       <c r="G1366" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -40987,7 +40990,7 @@
         <v>3.91210699081421</v>
       </c>
       <c r="G1367" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -41013,7 +41016,7 @@
         <v>3.94007897377014</v>
       </c>
       <c r="G1368" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -41039,7 +41042,7 @@
         <v>4.01800203323364</v>
       </c>
       <c r="G1369" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -41065,7 +41068,7 @@
         <v>4.00401592254639</v>
       </c>
       <c r="G1370" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -41091,7 +41094,7 @@
         <v>3.9840350151062</v>
       </c>
       <c r="G1371" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -41117,7 +41120,7 @@
         <v>4.10791206359863</v>
       </c>
       <c r="G1372" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -41143,7 +41146,7 @@
         <v>4.027991771698</v>
       </c>
       <c r="G1373" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -41169,7 +41172,7 @@
         <v>4.05796194076538</v>
       </c>
       <c r="G1374" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -41195,7 +41198,7 @@
         <v>4.15986013412476</v>
       </c>
       <c r="G1375" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -41221,7 +41224,7 @@
         <v>4.1898307800293</v>
       </c>
       <c r="G1376" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -41247,7 +41250,7 @@
         <v>4.15386581420898</v>
       </c>
       <c r="G1377" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -41273,7 +41276,7 @@
         <v>4.13588380813599</v>
       </c>
       <c r="G1378" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -41299,7 +41302,7 @@
         <v>4.07594394683838</v>
       </c>
       <c r="G1379" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -41325,7 +41328,7 @@
         <v>3.99002909660339</v>
       </c>
       <c r="G1380" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -41351,7 +41354,7 @@
         <v>3.89212703704834</v>
       </c>
       <c r="G1381" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -41377,7 +41380,7 @@
         <v>3.86415505409241</v>
       </c>
       <c r="G1382" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -41403,7 +41406,7 @@
         <v>3.85616302490234</v>
       </c>
       <c r="G1383" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -41429,7 +41432,7 @@
         <v>3.83618211746216</v>
       </c>
       <c r="G1384" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -41455,7 +41458,7 @@
         <v>3.79622197151184</v>
       </c>
       <c r="G1385" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -41481,7 +41484,7 @@
         <v>3.78023791313171</v>
       </c>
       <c r="G1386" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -41507,7 +41510,7 @@
         <v>3.68832993507385</v>
       </c>
       <c r="G1387" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -41533,7 +41536,7 @@
         <v>3.65036702156067</v>
       </c>
       <c r="G1388" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -41559,7 +41562,7 @@
         <v>3.6483690738678</v>
       </c>
       <c r="G1389" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -41585,7 +41588,7 @@
         <v>3.56445288658142</v>
       </c>
       <c r="G1390" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -41611,7 +41614,7 @@
         <v>3.64037704467773</v>
       </c>
       <c r="G1391" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -41637,7 +41640,7 @@
         <v>3.63837909698486</v>
       </c>
       <c r="G1392" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -41663,7 +41666,7 @@
         <v>3.69632196426392</v>
       </c>
       <c r="G1393" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -41689,7 +41692,7 @@
         <v>3.60441303253174</v>
       </c>
       <c r="G1394" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -41715,7 +41718,7 @@
         <v>3.69632196426392</v>
       </c>
       <c r="G1395" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -41741,7 +41744,7 @@
         <v>3.65436291694641</v>
       </c>
       <c r="G1396" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -41767,7 +41770,7 @@
         <v>3.68832993507385</v>
       </c>
       <c r="G1397" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -41793,7 +41796,7 @@
         <v>3.63638091087341</v>
       </c>
       <c r="G1398" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -41819,7 +41822,7 @@
         <v>3.72229599952698</v>
       </c>
       <c r="G1399" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -41845,7 +41848,7 @@
         <v>3.62439298629761</v>
       </c>
       <c r="G1400" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -41871,7 +41874,7 @@
         <v>3.58443307876587</v>
       </c>
       <c r="G1401" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -41897,7 +41900,7 @@
         <v>3.54846906661987</v>
       </c>
       <c r="G1402" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -41923,7 +41926,7 @@
         <v>3.70431399345398</v>
       </c>
       <c r="G1403" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -41949,7 +41952,7 @@
         <v>3.64237499237061</v>
       </c>
       <c r="G1404" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -41975,7 +41978,7 @@
         <v>3.62039709091187</v>
       </c>
       <c r="G1405" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -42001,7 +42004,7 @@
         <v>3.63638091087341</v>
       </c>
       <c r="G1406" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -42027,7 +42030,7 @@
         <v>3.55046701431274</v>
       </c>
       <c r="G1407" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -42053,7 +42056,7 @@
         <v>3.48253393173218</v>
       </c>
       <c r="G1408" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -42079,7 +42082,7 @@
         <v>3.36265397071838</v>
       </c>
       <c r="G1409" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -42105,7 +42108,7 @@
         <v>3.47254395484924</v>
       </c>
       <c r="G1410" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -42131,7 +42134,7 @@
         <v>3.56045699119568</v>
       </c>
       <c r="G1411" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -42157,7 +42160,7 @@
         <v>3.59242510795593</v>
       </c>
       <c r="G1412" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -42183,7 +42186,7 @@
         <v>3.62639093399048</v>
       </c>
       <c r="G1413" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -42209,7 +42212,7 @@
         <v>3.81220602989197</v>
       </c>
       <c r="G1414" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -42235,7 +42238,7 @@
         <v>3.76425409317017</v>
       </c>
       <c r="G1415" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -42261,7 +42264,7 @@
         <v>3.83418393135071</v>
       </c>
       <c r="G1416" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -42287,7 +42290,7 @@
         <v>3.78822994232178</v>
       </c>
       <c r="G1417" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -42313,7 +42316,7 @@
         <v>3.71430397033691</v>
       </c>
       <c r="G1418" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -42339,7 +42342,7 @@
         <v>3.72629189491272</v>
       </c>
       <c r="G1419" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -42365,7 +42368,7 @@
         <v>3.72429394721985</v>
       </c>
       <c r="G1420" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -42391,7 +42394,7 @@
         <v>3.69831991195679</v>
       </c>
       <c r="G1421" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -42417,7 +42420,7 @@
         <v>3.70631194114685</v>
       </c>
       <c r="G1422" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -42443,7 +42446,7 @@
         <v>3.80221605300903</v>
       </c>
       <c r="G1423" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -42469,7 +42472,7 @@
         <v>3.84617304801941</v>
       </c>
       <c r="G1424" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -42495,7 +42498,7 @@
         <v>3.78423404693604</v>
       </c>
       <c r="G1425" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -42521,7 +42524,7 @@
         <v>3.86615300178528</v>
       </c>
       <c r="G1426" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -42547,7 +42550,7 @@
         <v>3.81420397758484</v>
       </c>
       <c r="G1427" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -42573,7 +42576,7 @@
         <v>3.8102080821991</v>
       </c>
       <c r="G1428" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -42599,7 +42602,7 @@
         <v>3.79622197151184</v>
       </c>
       <c r="G1429" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -42625,7 +42628,7 @@
         <v>3.69432401657104</v>
       </c>
       <c r="G1430" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -42651,7 +42654,7 @@
         <v>3.72829008102417</v>
       </c>
       <c r="G1431" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -42677,7 +42680,7 @@
         <v>3.70830988883972</v>
       </c>
       <c r="G1432" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -42703,7 +42706,7 @@
         <v>3.69432401657104</v>
       </c>
       <c r="G1433" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -42729,7 +42732,7 @@
         <v>3.75026798248291</v>
       </c>
       <c r="G1434" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -42755,7 +42758,7 @@
         <v>3.77624201774597</v>
       </c>
       <c r="G1435" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -42781,7 +42784,7 @@
         <v>3.90811109542847</v>
       </c>
       <c r="G1436" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -42807,7 +42810,7 @@
         <v>3.9181010723114</v>
       </c>
       <c r="G1437" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -42833,7 +42836,7 @@
         <v>3.88613295555115</v>
       </c>
       <c r="G1438" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -42859,7 +42862,7 @@
         <v>3.89012908935547</v>
       </c>
       <c r="G1439" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -42885,7 +42888,7 @@
         <v>3.84817099571228</v>
       </c>
       <c r="G1440" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -42911,7 +42914,7 @@
         <v>3.89212703704834</v>
       </c>
       <c r="G1441" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -42937,7 +42940,7 @@
         <v>3.89612293243408</v>
       </c>
       <c r="G1442" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -42963,7 +42966,7 @@
         <v>3.82619190216064</v>
       </c>
       <c r="G1443" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -42989,7 +42992,7 @@
         <v>3.85216689109802</v>
       </c>
       <c r="G1444" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -43015,7 +43018,7 @@
         <v>3.77823996543884</v>
       </c>
       <c r="G1445" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -43041,7 +43044,7 @@
         <v>3.70231604576111</v>
       </c>
       <c r="G1446" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -43067,7 +43070,7 @@
         <v>3.74427390098572</v>
       </c>
       <c r="G1447" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -43093,7 +43096,7 @@
         <v>3.68832993507385</v>
       </c>
       <c r="G1448" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -43119,7 +43122,7 @@
         <v>3.70830988883972</v>
       </c>
       <c r="G1449" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -43145,7 +43148,7 @@
         <v>3.67034792900085</v>
       </c>
       <c r="G1450" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -43171,7 +43174,7 @@
         <v>3.60241508483887</v>
       </c>
       <c r="G1451" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -43197,7 +43200,7 @@
         <v>3.68633198738098</v>
       </c>
       <c r="G1452" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -43223,7 +43226,7 @@
         <v>3.60840892791748</v>
       </c>
       <c r="G1453" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -43249,7 +43252,7 @@
         <v>3.52049708366394</v>
       </c>
       <c r="G1454" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -43275,7 +43278,7 @@
         <v>3.52449297904968</v>
       </c>
       <c r="G1455" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -43301,7 +43304,7 @@
         <v>3.64437294006348</v>
       </c>
       <c r="G1456" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -43327,7 +43330,7 @@
         <v>3.65636110305786</v>
       </c>
       <c r="G1457" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -43353,7 +43356,7 @@
         <v>3.6663510799408</v>
       </c>
       <c r="G1458" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -43379,7 +43382,7 @@
         <v>3.69632196426392</v>
       </c>
       <c r="G1459" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -43405,7 +43408,7 @@
         <v>3.63638091087341</v>
       </c>
       <c r="G1460" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -43431,7 +43434,7 @@
         <v>3.62239503860474</v>
       </c>
       <c r="G1461" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -43457,7 +43460,7 @@
         <v>3.68233609199524</v>
       </c>
       <c r="G1462" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -43483,7 +43486,7 @@
         <v>3.71030807495117</v>
       </c>
       <c r="G1463" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -43509,7 +43512,7 @@
         <v>3.67833995819092</v>
       </c>
       <c r="G1464" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -43535,7 +43538,7 @@
         <v>3.81820011138916</v>
       </c>
       <c r="G1465" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -43561,7 +43564,7 @@
         <v>3.78223609924316</v>
       </c>
       <c r="G1466" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -43587,7 +43590,7 @@
         <v>3.7562620639801</v>
       </c>
       <c r="G1467" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -43613,7 +43616,7 @@
         <v>3.73428392410278</v>
       </c>
       <c r="G1468" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -43639,7 +43642,7 @@
         <v>3.74627208709717</v>
       </c>
       <c r="G1469" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -43665,7 +43668,7 @@
         <v>3.78623199462891</v>
       </c>
       <c r="G1470" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -43691,7 +43694,7 @@
         <v>3.73428392410278</v>
       </c>
       <c r="G1471" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -43717,7 +43720,7 @@
         <v>3.77624201774597</v>
       </c>
       <c r="G1472" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -43743,7 +43746,7 @@
         <v>3.85016894340515</v>
       </c>
       <c r="G1473" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -43769,7 +43772,7 @@
         <v>3.87614297866821</v>
       </c>
       <c r="G1474" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -43795,7 +43798,7 @@
         <v>3.88613295555115</v>
       </c>
       <c r="G1475" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -43821,7 +43824,7 @@
         <v>3.89412498474121</v>
       </c>
       <c r="G1476" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -43847,7 +43850,7 @@
         <v>3.84417510032654</v>
       </c>
       <c r="G1477" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -43873,7 +43876,7 @@
         <v>3.90411496162415</v>
       </c>
       <c r="G1478" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -43899,7 +43902,7 @@
         <v>3.94607305526733</v>
       </c>
       <c r="G1479" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -43925,7 +43928,7 @@
         <v>3.95606303215027</v>
       </c>
       <c r="G1480" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -43951,7 +43954,7 @@
         <v>3.8042140007019</v>
       </c>
       <c r="G1481" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -43977,7 +43980,7 @@
         <v>3.82419395446777</v>
       </c>
       <c r="G1482" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -44003,7 +44006,7 @@
         <v>3.75226593017578</v>
       </c>
       <c r="G1483" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -44029,7 +44032,7 @@
         <v>3.79422402381897</v>
       </c>
       <c r="G1484" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -44055,7 +44058,7 @@
         <v>3.85016894340515</v>
       </c>
       <c r="G1485" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -44081,7 +44084,7 @@
         <v>3.85616302490234</v>
       </c>
       <c r="G1486" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -44107,7 +44110,7 @@
         <v>3.88413500785828</v>
       </c>
       <c r="G1487" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -44133,7 +44136,7 @@
         <v>3.95206689834595</v>
       </c>
       <c r="G1488" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -44159,7 +44162,7 @@
         <v>3.99002909660339</v>
       </c>
       <c r="G1489" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -44185,7 +44188,7 @@
         <v>3.84217691421509</v>
       </c>
       <c r="G1490" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -44211,7 +44214,7 @@
         <v>3.8102080821991</v>
       </c>
       <c r="G1491" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -44237,7 +44240,7 @@
         <v>3.7562620639801</v>
       </c>
       <c r="G1492" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -44263,7 +44266,7 @@
         <v>3.72029805183411</v>
       </c>
       <c r="G1493" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -44289,7 +44292,7 @@
         <v>3.68633198738098</v>
       </c>
       <c r="G1494" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -44315,7 +44318,7 @@
         <v>3.65835905075073</v>
       </c>
       <c r="G1495" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -44341,7 +44344,7 @@
         <v>3.59841895103455</v>
       </c>
       <c r="G1496" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -44367,7 +44370,7 @@
         <v>3.61440300941467</v>
       </c>
       <c r="G1497" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -44393,7 +44396,7 @@
         <v>3.51650094985962</v>
       </c>
       <c r="G1498" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -44419,7 +44422,7 @@
         <v>3.52649092674255</v>
       </c>
       <c r="G1499" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -44445,7 +44448,7 @@
         <v>3.46655011177063</v>
       </c>
       <c r="G1500" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -44471,7 +44474,7 @@
         <v>3.59642100334167</v>
       </c>
       <c r="G1501" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -44497,7 +44500,7 @@
         <v>3.53248500823975</v>
       </c>
       <c r="G1502" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -44523,7 +44526,7 @@
         <v>3.37264394760132</v>
       </c>
       <c r="G1503" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -44549,7 +44552,7 @@
         <v>3.55845904350281</v>
       </c>
       <c r="G1504" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -44575,7 +44578,7 @@
         <v>3.41659998893738</v>
       </c>
       <c r="G1505" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -44601,7 +44604,7 @@
         <v>3.45256400108337</v>
       </c>
       <c r="G1506" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -44627,7 +44630,7 @@
         <v>3.48852801322937</v>
       </c>
       <c r="G1507" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -44653,7 +44656,7 @@
         <v>3.48453211784363</v>
       </c>
       <c r="G1508" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -44679,7 +44682,7 @@
         <v>3.57843899726868</v>
       </c>
       <c r="G1509" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -44705,7 +44708,7 @@
         <v>3.59242510795593</v>
       </c>
       <c r="G1510" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -44731,7 +44734,7 @@
         <v>3.54447293281555</v>
       </c>
       <c r="G1511" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -44757,7 +44760,7 @@
         <v>3.54247498512268</v>
       </c>
       <c r="G1512" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -44783,7 +44786,7 @@
         <v>3.51250505447388</v>
       </c>
       <c r="G1513" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -44809,7 +44812,7 @@
         <v>3.47654008865356</v>
       </c>
       <c r="G1514" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -44835,7 +44838,7 @@
         <v>3.56445288658142</v>
       </c>
       <c r="G1515" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -44861,7 +44864,7 @@
         <v>3.70431399345398</v>
       </c>
       <c r="G1516" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -44887,7 +44890,7 @@
         <v>3.65436291694641</v>
       </c>
       <c r="G1517" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -44913,7 +44916,7 @@
         <v>3.59841895103455</v>
       </c>
       <c r="G1518" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -44939,7 +44942,7 @@
         <v>3.58842897415161</v>
       </c>
       <c r="G1519" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -44965,7 +44968,7 @@
         <v>3.62039709091187</v>
       </c>
       <c r="G1520" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -44991,7 +44994,7 @@
         <v>3.68033790588379</v>
       </c>
       <c r="G1521" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -45017,7 +45020,7 @@
         <v>3.70631194114685</v>
       </c>
       <c r="G1522" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -45043,7 +45046,7 @@
         <v>3.70431399345398</v>
       </c>
       <c r="G1523" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -45069,7 +45072,7 @@
         <v>3.71830010414124</v>
       </c>
       <c r="G1524" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -45095,7 +45098,7 @@
         <v>3.7742440700531</v>
       </c>
       <c r="G1525" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -45121,7 +45124,7 @@
         <v>3.69432401657104</v>
       </c>
       <c r="G1526" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -45147,7 +45150,7 @@
         <v>3.78423404693604</v>
       </c>
       <c r="G1527" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -45173,7 +45176,7 @@
         <v>3.84217691421509</v>
       </c>
       <c r="G1528" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -45199,7 +45202,7 @@
         <v>3.88013911247253</v>
       </c>
       <c r="G1529" t="s">
-        <v>1039</v>
+        <v>1169</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -45225,7 +45228,7 @@
         <v>3.83618211746216</v>
       </c>
       <c r="G1530" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -45251,7 +45254,7 @@
         <v>3.78623199462891</v>
       </c>
       <c r="G1531" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -45329,7 +45332,7 @@
         <v>3.94607305526733</v>
       </c>
       <c r="G1534" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -45381,7 +45384,7 @@
         <v>3.95206689834595</v>
       </c>
       <c r="G1536" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -45433,7 +45436,7 @@
         <v>3.82419395446777</v>
       </c>
       <c r="G1538" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -45459,7 +45462,7 @@
         <v>3.76425409317017</v>
       </c>
       <c r="G1539" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -45589,7 +45592,7 @@
         <v>3.69831991195679</v>
       </c>
       <c r="G1544" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -45667,7 +45670,7 @@
         <v>3.70830988883972</v>
       </c>
       <c r="G1547" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -45693,7 +45696,7 @@
         <v>3.82619190216064</v>
       </c>
       <c r="G1548" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -45745,7 +45748,7 @@
         <v>3.89212703704834</v>
       </c>
       <c r="G1550" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -61743,7 +61746,7 @@
     </row>
     <row r="2166">
       <c r="A2166" s="1" t="n">
-        <v>45477.6495833333</v>
+        <v>45477.2916666667</v>
       </c>
       <c r="B2166" t="n">
         <v>1006108</v>
@@ -61764,6 +61767,32 @@
         <v>1699</v>
       </c>
       <c r="H2166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="1" t="n">
+        <v>45478.6498263889</v>
+      </c>
+      <c r="B2167" t="n">
+        <v>1411193</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>6.98999977111816</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>6.80000019073486</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>6.98999977111816</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>6.875</v>
+      </c>
+      <c r="G2167" t="s">
+        <v>1700</v>
+      </c>
+      <c r="H2167" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BPSO.MI.xlsx
+++ b/data/BPSO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="1704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="1705">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0306978225708</t>
+    <t xml:space="preserve">3.03069829940796</t>
   </si>
   <si>
     <t xml:space="preserve">BPSO.MI</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">2.7972240447998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69163990020752</t>
+    <t xml:space="preserve">2.69164037704468</t>
   </si>
   <si>
     <t xml:space="preserve">2.63066959381104</t>
@@ -80,16 +80,16 @@
     <t xml:space="preserve">2.55036640167236</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57713389396667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53400850296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69907593727112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61877298355103</t>
+    <t xml:space="preserve">2.57713413238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53400874137878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69907569885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6187732219696</t>
   </si>
   <si>
     <t xml:space="preserve">2.52359914779663</t>
@@ -98,28 +98,28 @@
     <t xml:space="preserve">2.61282515525818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57564687728882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48642182350159</t>
+    <t xml:space="preserve">2.5756471157074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48642206192017</t>
   </si>
   <si>
     <t xml:space="preserve">2.3793511390686</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39124727249146</t>
+    <t xml:space="preserve">2.39124751091003</t>
   </si>
   <si>
     <t xml:space="preserve">2.36745429039001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18602848052979</t>
+    <t xml:space="preserve">2.18602824211121</t>
   </si>
   <si>
     <t xml:space="preserve">2.20982146263123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29607343673706</t>
+    <t xml:space="preserve">2.29607319831848</t>
   </si>
   <si>
     <t xml:space="preserve">2.22469258308411</t>
@@ -128,13 +128,13 @@
     <t xml:space="preserve">2.33771181106567</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38381195068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44032120704651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3496081829071</t>
+    <t xml:space="preserve">2.38381218910217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44032144546509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34960865974426</t>
   </si>
   <si>
     <t xml:space="preserve">2.31986665725708</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">2.33176374435425</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37340259552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42098951339722</t>
+    <t xml:space="preserve">2.37340235710144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42098903656006</t>
   </si>
   <si>
     <t xml:space="preserve">2.48344755172729</t>
@@ -164,22 +164,22 @@
     <t xml:space="preserve">2.5518536567688</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54441809654236</t>
+    <t xml:space="preserve">2.54441785812378</t>
   </si>
   <si>
     <t xml:space="preserve">2.40165710449219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42396330833435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41057944297791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48493432998657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60687565803528</t>
+    <t xml:space="preserve">2.42396354675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41057968139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48493456840515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60687613487244</t>
   </si>
   <si>
     <t xml:space="preserve">2.52657318115234</t>
@@ -200,16 +200,16 @@
     <t xml:space="preserve">2.45667934417725</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39719581604004</t>
+    <t xml:space="preserve">2.39719605445862</t>
   </si>
   <si>
     <t xml:space="preserve">2.3436598777771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29161190986633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30053448677063</t>
+    <t xml:space="preserve">2.29161214828491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30053472518921</t>
   </si>
   <si>
     <t xml:space="preserve">2.27228021621704</t>
@@ -221,13 +221,13 @@
     <t xml:space="preserve">2.1562864780426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16223478317261</t>
+    <t xml:space="preserve">2.16223502159119</t>
   </si>
   <si>
     <t xml:space="preserve">2.2187442779541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26781916618347</t>
+    <t xml:space="preserve">2.26781845092773</t>
   </si>
   <si>
     <t xml:space="preserve">2.27674126625061</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">2.38678646087646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4670889377594</t>
+    <t xml:space="preserve">2.46708869934082</t>
   </si>
   <si>
     <t xml:space="preserve">2.39868307113647</t>
@@ -248,10 +248,10 @@
     <t xml:space="preserve">2.49831819534302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49237036705017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44180846214294</t>
+    <t xml:space="preserve">2.49237012863159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44180822372437</t>
   </si>
   <si>
     <t xml:space="preserve">2.48939561843872</t>
@@ -260,43 +260,43 @@
     <t xml:space="preserve">2.4730372428894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42247629165649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39422178268433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31094431877136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26187038421631</t>
+    <t xml:space="preserve">2.42247676849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39422154426575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31094408035278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26187014579773</t>
   </si>
   <si>
     <t xml:space="preserve">2.23064088821411</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24848628044128</t>
+    <t xml:space="preserve">2.24848651885986</t>
   </si>
   <si>
     <t xml:space="preserve">2.23807692527771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25592184066772</t>
+    <t xml:space="preserve">2.2559220790863</t>
   </si>
   <si>
     <t xml:space="preserve">2.1949508190155</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18305397033691</t>
+    <t xml:space="preserve">2.18305444717407</t>
   </si>
   <si>
     <t xml:space="preserve">2.2127959728241</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17710566520691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22023129463196</t>
+    <t xml:space="preserve">2.17710590362549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2202308177948</t>
   </si>
   <si>
     <t xml:space="preserve">2.20387315750122</t>
@@ -305,22 +305,22 @@
     <t xml:space="preserve">2.19778156280518</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27850294113159</t>
+    <t xml:space="preserve">2.27850317955017</t>
   </si>
   <si>
     <t xml:space="preserve">2.35617971420288</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30744194984436</t>
+    <t xml:space="preserve">2.30744218826294</t>
   </si>
   <si>
     <t xml:space="preserve">2.33028769493103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30896496772766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24194979667664</t>
+    <t xml:space="preserve">2.30896520614624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24194955825806</t>
   </si>
   <si>
     <t xml:space="preserve">2.21910405158997</t>
@@ -329,40 +329,40 @@
     <t xml:space="preserve">2.14142727851868</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09725880622864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01044392585754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13076591491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07441282272339</t>
+    <t xml:space="preserve">2.09725856781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01044368743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13076567649841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07441306114197</t>
   </si>
   <si>
     <t xml:space="preserve">2.08202838897705</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97236776351929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9083993434906</t>
+    <t xml:space="preserve">1.97236752510071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90839910507202</t>
   </si>
   <si>
     <t xml:space="preserve">1.87641441822052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84899926185608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75913846492767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81701517105103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89621376991272</t>
+    <t xml:space="preserve">1.8489990234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75913834571838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81701505184174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8962140083313</t>
   </si>
   <si>
     <t xml:space="preserve">1.94038319587708</t>
@@ -371,28 +371,28 @@
     <t xml:space="preserve">1.9068751335144</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02872037887573</t>
+    <t xml:space="preserve">2.02872061729431</t>
   </si>
   <si>
     <t xml:space="preserve">1.75152313709259</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67689335346222</t>
+    <t xml:space="preserve">1.67689311504364</t>
   </si>
   <si>
     <t xml:space="preserve">1.78807711601257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77436876296997</t>
+    <t xml:space="preserve">1.77436912059784</t>
   </si>
   <si>
     <t xml:space="preserve">1.75609219074249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75304627418518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68907797336578</t>
+    <t xml:space="preserve">1.75304615497589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6890777349472</t>
   </si>
   <si>
     <t xml:space="preserve">1.61901664733887</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">1.63424706459045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64033937454224</t>
+    <t xml:space="preserve">1.64033925533295</t>
   </si>
   <si>
     <t xml:space="preserve">1.7545690536499</t>
@@ -416,13 +416,13 @@
     <t xml:space="preserve">1.78960037231445</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86727595329285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83072245121002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84443032741547</t>
+    <t xml:space="preserve">1.86727619171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8307226896286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84443008899689</t>
   </si>
   <si>
     <t xml:space="preserve">1.9023060798645</t>
@@ -431,10 +431,10 @@
     <t xml:space="preserve">1.89316785335541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85052251815796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81853818893433</t>
+    <t xml:space="preserve">1.85052239894867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81853795051575</t>
   </si>
   <si>
     <t xml:space="preserve">1.84747624397278</t>
@@ -446,25 +446,25 @@
     <t xml:space="preserve">1.78198480606079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66470861434937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68755495548248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62967777252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75000023841858</t>
+    <t xml:space="preserve">1.66470885276794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68755483627319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62967801094055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75</t>
   </si>
   <si>
     <t xml:space="preserve">1.77741503715515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76523053646088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80787670612335</t>
+    <t xml:space="preserve">1.7652302980423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80787694454193</t>
   </si>
   <si>
     <t xml:space="preserve">1.8368147611618</t>
@@ -485,7 +485,7 @@
     <t xml:space="preserve">1.8429069519043</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85509145259857</t>
+    <t xml:space="preserve">1.85509157180786</t>
   </si>
   <si>
     <t xml:space="preserve">1.90992200374603</t>
@@ -497,28 +497,28 @@
     <t xml:space="preserve">1.89773690700531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89012157917023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88098359107971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88859868049622</t>
+    <t xml:space="preserve">1.89012181758881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88098335266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88859891891479</t>
   </si>
   <si>
     <t xml:space="preserve">1.86575281620026</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89469087123871</t>
+    <t xml:space="preserve">1.89469110965729</t>
   </si>
   <si>
     <t xml:space="preserve">1.87336826324463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85813772678375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9114453792572</t>
+    <t xml:space="preserve">1.85813748836517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91144514083862</t>
   </si>
   <si>
     <t xml:space="preserve">1.98455190658569</t>
@@ -527,7 +527,7 @@
     <t xml:space="preserve">1.98150551319122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94190680980682</t>
+    <t xml:space="preserve">1.94190657138824</t>
   </si>
   <si>
     <t xml:space="preserve">1.96627521514893</t>
@@ -536,31 +536,31 @@
     <t xml:space="preserve">1.97998285293579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99216735363007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08659744262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11705827713013</t>
+    <t xml:space="preserve">1.99216759204865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08659768104553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11705851554871</t>
   </si>
   <si>
     <t xml:space="preserve">2.24804210662842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2587034702301</t>
+    <t xml:space="preserve">2.25870323181152</t>
   </si>
   <si>
     <t xml:space="preserve">2.22367334365845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23433446884155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23738050460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24651908874512</t>
+    <t xml:space="preserve">2.23433423042297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23738074302673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24651885032654</t>
   </si>
   <si>
     <t xml:space="preserve">2.31505703926086</t>
@@ -572,13 +572,13 @@
     <t xml:space="preserve">2.26479578018188</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14295029640198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18407368659973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15208840370178</t>
+    <t xml:space="preserve">2.14295053482056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18407392501831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15208888053894</t>
   </si>
   <si>
     <t xml:space="preserve">2.19930410385132</t>
@@ -587,31 +587,31 @@
     <t xml:space="preserve">2.20996570587158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26631879806519</t>
+    <t xml:space="preserve">2.26631855964661</t>
   </si>
   <si>
     <t xml:space="preserve">2.27697992324829</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31657981872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31353402137756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28459525108337</t>
+    <t xml:space="preserve">2.31658029556274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31353425979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28459548950195</t>
   </si>
   <si>
     <t xml:space="preserve">2.22976517677307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18102765083313</t>
+    <t xml:space="preserve">2.18102741241455</t>
   </si>
   <si>
     <t xml:space="preserve">2.22519612312317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24956464767456</t>
+    <t xml:space="preserve">2.24956488609314</t>
   </si>
   <si>
     <t xml:space="preserve">2.23890352249146</t>
@@ -623,34 +623,34 @@
     <t xml:space="preserve">2.27545690536499</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2541344165802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22062659263611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32267260551453</t>
+    <t xml:space="preserve">2.25413417816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22062683105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32267236709595</t>
   </si>
   <si>
     <t xml:space="preserve">2.43690252304077</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54351687431335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42471790313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39273285865784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43385601043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39120984077454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33333396911621</t>
+    <t xml:space="preserve">2.54351663589478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42471814155579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39273309707642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43385624885559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39121007919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33333373069763</t>
   </si>
   <si>
     <t xml:space="preserve">2.32419538497925</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">2.39577913284302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38054871559143</t>
+    <t xml:space="preserve">2.38054847717285</t>
   </si>
   <si>
     <t xml:space="preserve">2.37597942352295</t>
@@ -668,7 +668,7 @@
     <t xml:space="preserve">2.36227202415466</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38207173347473</t>
+    <t xml:space="preserve">2.38207149505615</t>
   </si>
   <si>
     <t xml:space="preserve">2.42624092102051</t>
@@ -677,16 +677,16 @@
     <t xml:space="preserve">2.47497868537903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48259377479553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51000881195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50848627090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46888613700867</t>
+    <t xml:space="preserve">2.48259401321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5100085735321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50848603248596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46888637542725</t>
   </si>
   <si>
     <t xml:space="preserve">2.46127104759216</t>
@@ -713,13 +713,13 @@
     <t xml:space="preserve">2.62728476524353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58311653137207</t>
+    <t xml:space="preserve">2.58311629295349</t>
   </si>
   <si>
     <t xml:space="preserve">2.58768558502197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59682369232178</t>
+    <t xml:space="preserve">2.59682393074036</t>
   </si>
   <si>
     <t xml:space="preserve">2.61814665794373</t>
@@ -734,16 +734,16 @@
     <t xml:space="preserve">2.49630165100098</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53285479545593</t>
+    <t xml:space="preserve">2.53285527229309</t>
   </si>
   <si>
     <t xml:space="preserve">2.4932553768158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44451761245728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46431708335876</t>
+    <t xml:space="preserve">2.4445173740387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46431732177734</t>
   </si>
   <si>
     <t xml:space="preserve">2.48868608474731</t>
@@ -758,22 +758,22 @@
     <t xml:space="preserve">2.46279406547546</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4171028137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28002595901489</t>
+    <t xml:space="preserve">2.41710257530212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28002643585205</t>
   </si>
   <si>
     <t xml:space="preserve">2.28611850738525</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44756364822388</t>
+    <t xml:space="preserve">2.4475634098053</t>
   </si>
   <si>
     <t xml:space="preserve">2.38816404342651</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43537926673889</t>
+    <t xml:space="preserve">2.43537902832031</t>
   </si>
   <si>
     <t xml:space="preserve">2.44147133827209</t>
@@ -788,22 +788,22 @@
     <t xml:space="preserve">2.54808616638184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4947783946991</t>
+    <t xml:space="preserve">2.49477815628052</t>
   </si>
   <si>
     <t xml:space="preserve">2.53590083122253</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51610136032104</t>
+    <t xml:space="preserve">2.51610112190247</t>
   </si>
   <si>
     <t xml:space="preserve">2.45822501182556</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46736335754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45060992240906</t>
+    <t xml:space="preserve">2.46736359596252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45061016082764</t>
   </si>
   <si>
     <t xml:space="preserve">2.48564028739929</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">2.44604063034058</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45365595817566</t>
+    <t xml:space="preserve">2.45365619659424</t>
   </si>
   <si>
     <t xml:space="preserve">2.45670223236084</t>
@@ -824,7 +824,7 @@
     <t xml:space="preserve">2.52371621131897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47650146484375</t>
+    <t xml:space="preserve">2.47650170326233</t>
   </si>
   <si>
     <t xml:space="preserve">2.4978244304657</t>
@@ -833,19 +833,19 @@
     <t xml:space="preserve">2.64251565933228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60443925857544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60291624069214</t>
+    <t xml:space="preserve">2.60443902015686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60291600227356</t>
   </si>
   <si>
     <t xml:space="preserve">2.67602372169495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63946914672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66383838653564</t>
+    <t xml:space="preserve">2.63946938514709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66383814811707</t>
   </si>
   <si>
     <t xml:space="preserve">2.69582271575928</t>
@@ -854,19 +854,19 @@
     <t xml:space="preserve">2.69734644889832</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75217652320862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71409940719604</t>
+    <t xml:space="preserve">2.75217628479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71409964561462</t>
   </si>
   <si>
     <t xml:space="preserve">2.66536140441895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68363881111145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68668484687805</t>
+    <t xml:space="preserve">2.68363833427429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68668508529663</t>
   </si>
   <si>
     <t xml:space="preserve">2.68820762634277</t>
@@ -878,10 +878,10 @@
     <t xml:space="preserve">2.73694562911987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75553226470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82058691978455</t>
+    <t xml:space="preserve">2.75553274154663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82058715820312</t>
   </si>
   <si>
     <t xml:space="preserve">2.84537029266357</t>
@@ -890,16 +890,16 @@
     <t xml:space="preserve">2.89958214759827</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74933695793152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70596647262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70906448364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65020561218262</t>
+    <t xml:space="preserve">2.7493371963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70596623420715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70906472206116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6502058506012</t>
   </si>
   <si>
     <t xml:space="preserve">2.70131993293762</t>
@@ -908,19 +908,19 @@
     <t xml:space="preserve">2.69357514381409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64710760116577</t>
+    <t xml:space="preserve">2.64710783958435</t>
   </si>
   <si>
     <t xml:space="preserve">2.66724371910095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65175437927246</t>
+    <t xml:space="preserve">2.65175461769104</t>
   </si>
   <si>
     <t xml:space="preserve">2.69667339324951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63161873817444</t>
+    <t xml:space="preserve">2.63161897659302</t>
   </si>
   <si>
     <t xml:space="preserve">2.65640139579773</t>
@@ -938,25 +938,25 @@
     <t xml:space="preserve">2.65949940681458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66569447517395</t>
+    <t xml:space="preserve">2.66569471359253</t>
   </si>
   <si>
     <t xml:space="preserve">2.66414570808411</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68737959861755</t>
+    <t xml:space="preserve">2.68737983703613</t>
   </si>
   <si>
     <t xml:space="preserve">2.71835851669312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78805994987488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74159216880798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67343926429749</t>
+    <t xml:space="preserve">2.7880597114563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7415919303894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67343950271606</t>
   </si>
   <si>
     <t xml:space="preserve">2.77721738815308</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">2.80045104026794</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81903767585754</t>
+    <t xml:space="preserve">2.81903743743896</t>
   </si>
   <si>
     <t xml:space="preserve">2.80974459648132</t>
@@ -980,25 +980,25 @@
     <t xml:space="preserve">2.92126703262329</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93210911750793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91662001609802</t>
+    <t xml:space="preserve">2.93210959434509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9166202545166</t>
   </si>
   <si>
     <t xml:space="preserve">2.90577793121338</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9073269367218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90113139152527</t>
+    <t xml:space="preserve">2.90732669830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90113091468811</t>
   </si>
   <si>
     <t xml:space="preserve">2.88099527359009</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87789750099182</t>
+    <t xml:space="preserve">2.87789726257324</t>
   </si>
   <si>
     <t xml:space="preserve">2.87944626808167</t>
@@ -1007,28 +1007,28 @@
     <t xml:space="preserve">2.90422916412354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83917355537415</t>
+    <t xml:space="preserve">2.83917379379272</t>
   </si>
   <si>
     <t xml:space="preserve">2.87015295028687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86240839958191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86085939407349</t>
+    <t xml:space="preserve">2.86240816116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86085963249207</t>
   </si>
   <si>
     <t xml:space="preserve">2.84227156639099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84072232246399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85776138305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84846806526184</t>
+    <t xml:space="preserve">2.84072256088257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85776162147522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84846830368042</t>
   </si>
   <si>
     <t xml:space="preserve">2.83452701568604</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">2.81129336357117</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78960871696472</t>
+    <t xml:space="preserve">2.78960847854614</t>
   </si>
   <si>
     <t xml:space="preserve">2.72610306739807</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">2.76017904281616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70441770553589</t>
+    <t xml:space="preserve">2.70441746711731</t>
   </si>
   <si>
     <t xml:space="preserve">2.66259694099426</t>
@@ -1058,10 +1058,10 @@
     <t xml:space="preserve">2.68118405342102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69977116584778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6904776096344</t>
+    <t xml:space="preserve">2.6997709274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69047737121582</t>
   </si>
   <si>
     <t xml:space="preserve">2.69822192192078</t>
@@ -1070,13 +1070,13 @@
     <t xml:space="preserve">2.71371102333069</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73384761810303</t>
+    <t xml:space="preserve">2.73384785652161</t>
   </si>
   <si>
     <t xml:space="preserve">2.68583035469055</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73229885101318</t>
+    <t xml:space="preserve">2.73229908943176</t>
   </si>
   <si>
     <t xml:space="preserve">2.72765207290649</t>
@@ -1085,28 +1085,28 @@
     <t xml:space="preserve">2.71680974960327</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76327681541443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8298807144165</t>
+    <t xml:space="preserve">2.76327705383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82988047599792</t>
   </si>
   <si>
     <t xml:space="preserve">2.8174889087677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77411937713623</t>
+    <t xml:space="preserve">2.77411961555481</t>
   </si>
   <si>
     <t xml:space="preserve">2.70286870002747</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69512438774109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67034149169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71525979042053</t>
+    <t xml:space="preserve">2.69512414932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67034125328064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71526002883911</t>
   </si>
   <si>
     <t xml:space="preserve">2.66879272460938</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">2.65485239028931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69202637672424</t>
+    <t xml:space="preserve">2.69202613830566</t>
   </si>
   <si>
     <t xml:space="preserve">2.62387418746948</t>
@@ -1139,16 +1139,16 @@
     <t xml:space="preserve">2.57895493507385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63006973266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58205270767212</t>
+    <t xml:space="preserve">2.63006949424744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58205246925354</t>
   </si>
   <si>
     <t xml:space="preserve">2.45968866348267</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4070246219635</t>
+    <t xml:space="preserve">2.40702486038208</t>
   </si>
   <si>
     <t xml:space="preserve">2.44419860839844</t>
@@ -1157,13 +1157,13 @@
     <t xml:space="preserve">2.34042143821716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35436153411865</t>
+    <t xml:space="preserve">2.35436177253723</t>
   </si>
   <si>
     <t xml:space="preserve">2.37914419174194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42406272888184</t>
+    <t xml:space="preserve">2.42406296730042</t>
   </si>
   <si>
     <t xml:space="preserve">2.44729661941528</t>
@@ -1187,7 +1187,7 @@
     <t xml:space="preserve">2.50925374031067</t>
   </si>
   <si>
-    <t xml:space="preserve">2.524742603302</t>
+    <t xml:space="preserve">2.52474308013916</t>
   </si>
   <si>
     <t xml:space="preserve">2.52784085273743</t>
@@ -1199,28 +1199,28 @@
     <t xml:space="preserve">2.54642772674561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56346583366394</t>
+    <t xml:space="preserve">2.56346607208252</t>
   </si>
   <si>
     <t xml:space="preserve">2.5712103843689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57740592956543</t>
+    <t xml:space="preserve">2.57740616798401</t>
   </si>
   <si>
     <t xml:space="preserve">2.50305819511414</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45658993721008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36210632324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39928007125854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39773106575012</t>
+    <t xml:space="preserve">2.4565896987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36210656166077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39928030967712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3977313041687</t>
   </si>
   <si>
     <t xml:space="preserve">2.39308452606201</t>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">2.35745930671692</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38534021377563</t>
+    <t xml:space="preserve">2.38533997535706</t>
   </si>
   <si>
     <t xml:space="preserve">2.44574761390686</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">2.47827553749084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.475177526474</t>
+    <t xml:space="preserve">2.47517776489258</t>
   </si>
   <si>
     <t xml:space="preserve">2.55881881713867</t>
@@ -1256,13 +1256,13 @@
     <t xml:space="preserve">2.55727005004883</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51390051841736</t>
+    <t xml:space="preserve">2.51390075683594</t>
   </si>
   <si>
     <t xml:space="preserve">2.51235151290894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53403663635254</t>
+    <t xml:space="preserve">2.53403639793396</t>
   </si>
   <si>
     <t xml:space="preserve">2.56501460075378</t>
@@ -1271,25 +1271,25 @@
     <t xml:space="preserve">2.57430791854858</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57585716247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49376463890076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51699805259705</t>
+    <t xml:space="preserve">2.57585740089417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49376440048218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51699829101562</t>
   </si>
   <si>
     <t xml:space="preserve">2.49996042251587</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47672653198242</t>
+    <t xml:space="preserve">2.47672629356384</t>
   </si>
   <si>
     <t xml:space="preserve">2.3884379863739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47982430458069</t>
+    <t xml:space="preserve">2.47982454299927</t>
   </si>
   <si>
     <t xml:space="preserve">2.46743321418762</t>
@@ -1298,10 +1298,10 @@
     <t xml:space="preserve">2.48602032661438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47207999229431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54178094863892</t>
+    <t xml:space="preserve">2.47207975387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5417811870575</t>
   </si>
   <si>
     <t xml:space="preserve">2.60218930244446</t>
@@ -1313,22 +1313,22 @@
     <t xml:space="preserve">2.48137331008911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52164483070374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43955183029175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49531364440918</t>
+    <t xml:space="preserve">2.52164506912231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43955206871033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49531388282776</t>
   </si>
   <si>
     <t xml:space="preserve">2.47053098678589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46433544158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54333019256592</t>
+    <t xml:space="preserve">2.46433520317078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54332995414734</t>
   </si>
   <si>
     <t xml:space="preserve">2.49686241149902</t>
@@ -1340,16 +1340,16 @@
     <t xml:space="preserve">2.56811237335205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56966114044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55572104454041</t>
+    <t xml:space="preserve">2.56966137886047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55572128295898</t>
   </si>
   <si>
     <t xml:space="preserve">2.78651094436646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91352224349976</t>
+    <t xml:space="preserve">2.91352248191833</t>
   </si>
   <si>
     <t xml:space="preserve">2.90267992019653</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">2.95069646835327</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9754798412323</t>
+    <t xml:space="preserve">2.97547960281372</t>
   </si>
   <si>
     <t xml:space="preserve">3.05137634277344</t>
@@ -1379,7 +1379,7 @@
     <t xml:space="preserve">3.03124046325684</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92591381072998</t>
+    <t xml:space="preserve">2.92591428756714</t>
   </si>
   <si>
     <t xml:space="preserve">2.98477339744568</t>
@@ -1388,7 +1388,7 @@
     <t xml:space="preserve">2.95224499702454</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0265941619873</t>
+    <t xml:space="preserve">3.02659392356873</t>
   </si>
   <si>
     <t xml:space="preserve">3.00645804405212</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">2.94295167922974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93365812301636</t>
+    <t xml:space="preserve">2.93365836143494</t>
   </si>
   <si>
     <t xml:space="preserve">2.82213592529297</t>
@@ -1415,16 +1415,16 @@
     <t xml:space="preserve">2.90583682060242</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89636015892029</t>
+    <t xml:space="preserve">2.89636039733887</t>
   </si>
   <si>
     <t xml:space="preserve">2.81897735595703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70842909812927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65947222709656</t>
+    <t xml:space="preserve">2.70842885971069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65947246551514</t>
   </si>
   <si>
     <t xml:space="preserve">2.7021119594574</t>
@@ -1433,22 +1433,22 @@
     <t xml:space="preserve">2.74791026115417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79686760902405</t>
+    <t xml:space="preserve">2.79686784744263</t>
   </si>
   <si>
     <t xml:space="preserve">2.76054453849792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69895386695862</t>
+    <t xml:space="preserve">2.69895362854004</t>
   </si>
   <si>
     <t xml:space="preserve">2.77633762359619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80476427078247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77475833892822</t>
+    <t xml:space="preserve">2.80476403236389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7747585773468</t>
   </si>
   <si>
     <t xml:space="preserve">2.73053860664368</t>
@@ -1463,10 +1463,10 @@
     <t xml:space="preserve">2.72738027572632</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75422739982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69263672828674</t>
+    <t xml:space="preserve">2.75422763824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69263648986816</t>
   </si>
   <si>
     <t xml:space="preserve">2.68947815895081</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">2.8426661491394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8489830493927</t>
+    <t xml:space="preserve">2.84898281097412</t>
   </si>
   <si>
     <t xml:space="preserve">2.89793968200684</t>
@@ -1490,13 +1490,13 @@
     <t xml:space="preserve">2.88214731216431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84740400314331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80634355545044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82055640220642</t>
+    <t xml:space="preserve">2.84740376472473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80634331703186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.820556640625</t>
   </si>
   <si>
     <t xml:space="preserve">2.8379282951355</t>
@@ -1511,7 +1511,7 @@
     <t xml:space="preserve">2.83319067955017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8268735408783</t>
+    <t xml:space="preserve">2.82687377929688</t>
   </si>
   <si>
     <t xml:space="preserve">2.85372090339661</t>
@@ -1529,7 +1529,7 @@
     <t xml:space="preserve">2.92794609069824</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98006153106689</t>
+    <t xml:space="preserve">2.98006176948547</t>
   </si>
   <si>
     <t xml:space="preserve">2.8995189666748</t>
@@ -1541,13 +1541,13 @@
     <t xml:space="preserve">2.88056826591492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86793422698975</t>
+    <t xml:space="preserve">2.86793398857117</t>
   </si>
   <si>
     <t xml:space="preserve">2.83476996421814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83003187179565</t>
+    <t xml:space="preserve">2.83003211021423</t>
   </si>
   <si>
     <t xml:space="preserve">2.75896501541138</t>
@@ -1556,7 +1556,7 @@
     <t xml:space="preserve">2.80002641677856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79528856277466</t>
+    <t xml:space="preserve">2.79528832435608</t>
   </si>
   <si>
     <t xml:space="preserve">2.77317905426025</t>
@@ -1565,13 +1565,13 @@
     <t xml:space="preserve">2.76528215408325</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71632504463196</t>
+    <t xml:space="preserve">2.71632528305054</t>
   </si>
   <si>
     <t xml:space="preserve">2.66578936576843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64841747283936</t>
+    <t xml:space="preserve">2.64841771125793</t>
   </si>
   <si>
     <t xml:space="preserve">2.68000245094299</t>
@@ -1580,7 +1580,7 @@
     <t xml:space="preserve">2.74633097648621</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86161708831787</t>
+    <t xml:space="preserve">2.86161684989929</t>
   </si>
   <si>
     <t xml:space="preserve">2.86477541923523</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">2.87583041191101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85214114189148</t>
+    <t xml:space="preserve">2.85214138031006</t>
   </si>
   <si>
     <t xml:space="preserve">2.81108117103577</t>
@@ -1616,13 +1616,13 @@
     <t xml:space="preserve">2.53471088409424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55997896194458</t>
+    <t xml:space="preserve">2.559978723526</t>
   </si>
   <si>
     <t xml:space="preserve">2.58524680137634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50312471389771</t>
+    <t xml:space="preserve">2.50312495231628</t>
   </si>
   <si>
     <t xml:space="preserve">2.4067907333374</t>
@@ -1646,13 +1646,13 @@
     <t xml:space="preserve">2.3594126701355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34993720054626</t>
+    <t xml:space="preserve">2.34993696212769</t>
   </si>
   <si>
     <t xml:space="preserve">2.29150485992432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26465749740601</t>
+    <t xml:space="preserve">2.26465773582458</t>
   </si>
   <si>
     <t xml:space="preserve">2.23623037338257</t>
@@ -1667,22 +1667,22 @@
     <t xml:space="preserve">2.19832849502563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25518202781677</t>
+    <t xml:space="preserve">2.25518226623535</t>
   </si>
   <si>
     <t xml:space="preserve">2.20464515686035</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20148658752441</t>
+    <t xml:space="preserve">2.20148682594299</t>
   </si>
   <si>
     <t xml:space="preserve">2.2425479888916</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28834629058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26781606674194</t>
+    <t xml:space="preserve">2.2883460521698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26781630516052</t>
   </si>
   <si>
     <t xml:space="preserve">2.24886512756348</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">2.23938870429993</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1951699256897</t>
+    <t xml:space="preserve">2.19517016410828</t>
   </si>
   <si>
     <t xml:space="preserve">2.21569991111755</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">2.19674897193909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19359040260315</t>
+    <t xml:space="preserve">2.19359064102173</t>
   </si>
   <si>
     <t xml:space="preserve">2.17148113250732</t>
@@ -1715,7 +1715,7 @@
     <t xml:space="preserve">2.16358470916748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11462783813477</t>
+    <t xml:space="preserve">2.11462807655334</t>
   </si>
   <si>
     <t xml:space="preserve">2.12094497680664</t>
@@ -1730,19 +1730,19 @@
     <t xml:space="preserve">2.22833395004272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21096229553223</t>
+    <t xml:space="preserve">2.21096181869507</t>
   </si>
   <si>
     <t xml:space="preserve">2.22675466537476</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19201135635376</t>
+    <t xml:space="preserve">2.19201159477234</t>
   </si>
   <si>
     <t xml:space="preserve">2.23465085029602</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20306587219238</t>
+    <t xml:space="preserve">2.20306611061096</t>
   </si>
   <si>
     <t xml:space="preserve">2.09567618370056</t>
@@ -1751,19 +1751,19 @@
     <t xml:space="preserve">2.12410354614258</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08304238319397</t>
+    <t xml:space="preserve">2.08304214477539</t>
   </si>
   <si>
     <t xml:space="preserve">2.07514595985413</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10673093795776</t>
+    <t xml:space="preserve">2.10673117637634</t>
   </si>
   <si>
     <t xml:space="preserve">2.10830998420715</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02776861190796</t>
+    <t xml:space="preserve">2.02776885032654</t>
   </si>
   <si>
     <t xml:space="preserve">2.12252426147461</t>
@@ -1772,10 +1772,10 @@
     <t xml:space="preserve">2.05145740509033</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00881719589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00723838806152</t>
+    <t xml:space="preserve">2.00881743431091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00723814964294</t>
   </si>
   <si>
     <t xml:space="preserve">2.07830452919006</t>
@@ -1784,16 +1784,16 @@
     <t xml:space="preserve">2.06409120559692</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13515853881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14621305465698</t>
+    <t xml:space="preserve">2.13515830039978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1462128162384</t>
   </si>
   <si>
     <t xml:space="preserve">2.13673734664917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13357925415039</t>
+    <t xml:space="preserve">2.13357901573181</t>
   </si>
   <si>
     <t xml:space="preserve">2.0877799987793</t>
@@ -1802,13 +1802,13 @@
     <t xml:space="preserve">2.02303075790405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00565910339355</t>
+    <t xml:space="preserve">2.00565886497498</t>
   </si>
   <si>
     <t xml:space="preserve">2.05619502067566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02934789657593</t>
+    <t xml:space="preserve">2.02934765815735</t>
   </si>
   <si>
     <t xml:space="preserve">1.99776268005371</t>
@@ -1820,25 +1820,25 @@
     <t xml:space="preserve">1.96933507919312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01987218856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98354947566986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95512235164642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90932416915894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83825707435608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81614756584167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8319399356842</t>
+    <t xml:space="preserve">2.01987242698669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98354935646057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95512211322784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90932393074036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8382568359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8161473274231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83193981647491</t>
   </si>
   <si>
     <t xml:space="preserve">1.8556295633316</t>
@@ -1850,13 +1850,13 @@
     <t xml:space="preserve">1.88879370689392</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88721454143524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91406166553497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93459188938141</t>
+    <t xml:space="preserve">1.88721430301666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91406190395355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93459165096283</t>
   </si>
   <si>
     <t xml:space="preserve">1.96459782123566</t>
@@ -1865,43 +1865,43 @@
     <t xml:space="preserve">2.01039671897888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00250029563904</t>
+    <t xml:space="preserve">2.00250053405762</t>
   </si>
   <si>
     <t xml:space="preserve">1.97723174095154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97091472148895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96301817893982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97407341003418</t>
+    <t xml:space="preserve">1.97091448307037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9630184173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9740731716156</t>
   </si>
   <si>
     <t xml:space="preserve">1.96775615215302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03250598907471</t>
+    <t xml:space="preserve">2.03250622749329</t>
   </si>
   <si>
     <t xml:space="preserve">2.02461004257202</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01671385765076</t>
+    <t xml:space="preserve">2.01671361923218</t>
   </si>
   <si>
     <t xml:space="preserve">2.04671931266785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00407981872559</t>
+    <t xml:space="preserve">2.00407958030701</t>
   </si>
   <si>
     <t xml:space="preserve">1.93143332004547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93301272392273</t>
+    <t xml:space="preserve">1.93301248550415</t>
   </si>
   <si>
     <t xml:space="preserve">1.91879940032959</t>
@@ -1919,22 +1919,22 @@
     <t xml:space="preserve">1.96617698669434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92353713512421</t>
+    <t xml:space="preserve">1.92353737354279</t>
   </si>
   <si>
     <t xml:space="preserve">1.90142774581909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93775022029877</t>
+    <t xml:space="preserve">1.93775045871735</t>
   </si>
   <si>
     <t xml:space="preserve">1.92669570446014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92511630058289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93617105484009</t>
+    <t xml:space="preserve">1.92511653900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93617129325867</t>
   </si>
   <si>
     <t xml:space="preserve">1.90774476528168</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">1.86984264850616</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89037311077118</t>
+    <t xml:space="preserve">1.89037263393402</t>
   </si>
   <si>
     <t xml:space="preserve">1.89826893806458</t>
@@ -1961,22 +1961,22 @@
     <t xml:space="preserve">1.90458607673645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91564106941223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8730012178421</t>
+    <t xml:space="preserve">1.91564083099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87300145626068</t>
   </si>
   <si>
     <t xml:space="preserve">1.78456234931946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79877555370331</t>
+    <t xml:space="preserve">1.79877579212189</t>
   </si>
   <si>
     <t xml:space="preserve">1.72613000869751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69138586521149</t>
+    <t xml:space="preserve">1.6913857460022</t>
   </si>
   <si>
     <t xml:space="preserve">1.645587682724</t>
@@ -1994,7 +1994,7 @@
     <t xml:space="preserve">1.64543306827545</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67617344856262</t>
+    <t xml:space="preserve">1.67617356777191</t>
   </si>
   <si>
     <t xml:space="preserve">1.65352272987366</t>
@@ -2003,19 +2003,19 @@
     <t xml:space="preserve">1.66646587848663</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64866900444031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65514063835144</t>
+    <t xml:space="preserve">1.64866888523102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65514051914215</t>
   </si>
   <si>
     <t xml:space="preserve">1.71985745429993</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6972062587738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6794091463089</t>
+    <t xml:space="preserve">1.69720637798309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67940926551819</t>
   </si>
   <si>
     <t xml:space="preserve">1.68102717399597</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">1.57667064666748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57505261898041</t>
+    <t xml:space="preserve">1.5750527381897</t>
   </si>
   <si>
     <t xml:space="preserve">1.57586169242859</t>
@@ -2051,19 +2051,19 @@
     <t xml:space="preserve">1.60013055801392</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58961403369904</t>
+    <t xml:space="preserve">1.58961391448975</t>
   </si>
   <si>
     <t xml:space="preserve">1.60741114616394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56291830539703</t>
+    <t xml:space="preserve">1.56291818618774</t>
   </si>
   <si>
     <t xml:space="preserve">1.57262587547302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59608578681946</t>
+    <t xml:space="preserve">1.59608566761017</t>
   </si>
   <si>
     <t xml:space="preserve">1.58799624443054</t>
@@ -2093,10 +2093,10 @@
     <t xml:space="preserve">1.57747960090637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55240178108215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55725562572479</t>
+    <t xml:space="preserve">1.55240190029144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55725574493408</t>
   </si>
   <si>
     <t xml:space="preserve">1.57100784778595</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">1.5289421081543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51761662960052</t>
+    <t xml:space="preserve">1.51761674880981</t>
   </si>
   <si>
     <t xml:space="preserve">1.50710022449493</t>
@@ -2132,7 +2132,7 @@
     <t xml:space="preserve">1.49011206626892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48525750637054</t>
+    <t xml:space="preserve">1.48525738716125</t>
   </si>
   <si>
     <t xml:space="preserve">1.37523901462555</t>
@@ -2150,7 +2150,7 @@
     <t xml:space="preserve">1.32427382469177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34207081794739</t>
+    <t xml:space="preserve">1.3420706987381</t>
   </si>
   <si>
     <t xml:space="preserve">1.30890333652496</t>
@@ -2171,7 +2171,7 @@
     <t xml:space="preserve">1.40759742259979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3614866733551</t>
+    <t xml:space="preserve">1.36148679256439</t>
   </si>
   <si>
     <t xml:space="preserve">1.37362110614777</t>
@@ -2186,13 +2186,13 @@
     <t xml:space="preserve">1.48202168941498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47231423854828</t>
+    <t xml:space="preserve">1.47231411933899</t>
   </si>
   <si>
     <t xml:space="preserve">1.44885432720184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5103360414505</t>
+    <t xml:space="preserve">1.51033592224121</t>
   </si>
   <si>
     <t xml:space="preserve">1.49820172786713</t>
@@ -2210,7 +2210,7 @@
     <t xml:space="preserve">1.46179759502411</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43267512321472</t>
+    <t xml:space="preserve">1.43267500400543</t>
   </si>
   <si>
     <t xml:space="preserve">1.39546298980713</t>
@@ -2222,13 +2222,13 @@
     <t xml:space="preserve">1.35097014904022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35905981063843</t>
+    <t xml:space="preserve">1.35905969142914</t>
   </si>
   <si>
     <t xml:space="preserve">1.34449768066406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36553156375885</t>
+    <t xml:space="preserve">1.36553144454956</t>
   </si>
   <si>
     <t xml:space="preserve">1.37119424343109</t>
@@ -2249,7 +2249,7 @@
     <t xml:space="preserve">1.3970810174942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43186604976654</t>
+    <t xml:space="preserve">1.43186616897583</t>
   </si>
   <si>
     <t xml:space="preserve">1.45775282382965</t>
@@ -2261,22 +2261,22 @@
     <t xml:space="preserve">1.4812126159668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44804525375366</t>
+    <t xml:space="preserve">1.44804537296295</t>
   </si>
   <si>
     <t xml:space="preserve">1.45370805263519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45856177806854</t>
+    <t xml:space="preserve">1.45856189727783</t>
   </si>
   <si>
     <t xml:space="preserve">1.45937085151672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43671989440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46503341197968</t>
+    <t xml:space="preserve">1.43672001361847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46503353118896</t>
   </si>
   <si>
     <t xml:space="preserve">1.52651512622833</t>
@@ -2285,13 +2285,13 @@
     <t xml:space="preserve">1.51842558383942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53541386127472</t>
+    <t xml:space="preserve">1.53541374206543</t>
   </si>
   <si>
     <t xml:space="preserve">1.50548243522644</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5370317697525</t>
+    <t xml:space="preserve">1.53703165054321</t>
   </si>
   <si>
     <t xml:space="preserve">1.74574387073517</t>
@@ -2306,7 +2306,7 @@
     <t xml:space="preserve">1.69397056102753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65675842761993</t>
+    <t xml:space="preserve">1.65675854682922</t>
   </si>
   <si>
     <t xml:space="preserve">1.64705097675323</t>
@@ -2315,16 +2315,16 @@
     <t xml:space="preserve">1.63087177276611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66323006153107</t>
+    <t xml:space="preserve">1.66323018074036</t>
   </si>
   <si>
     <t xml:space="preserve">1.71662151813507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74736189842224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71500360965729</t>
+    <t xml:space="preserve">1.74736177921295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.715003490448</t>
   </si>
   <si>
     <t xml:space="preserve">1.73603653907776</t>
@@ -2339,40 +2339,40 @@
     <t xml:space="preserve">1.72632884979248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75868809223175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72794711589813</t>
+    <t xml:space="preserve">1.75868821144104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72794699668884</t>
   </si>
   <si>
     <t xml:space="preserve">1.7328006029129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70529615879059</t>
+    <t xml:space="preserve">1.7052960395813</t>
   </si>
   <si>
     <t xml:space="preserve">1.70044219493866</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73441874980927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69235253334045</t>
+    <t xml:space="preserve">1.73441863059998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69235265254974</t>
   </si>
   <si>
     <t xml:space="preserve">1.67131972312927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66970181465149</t>
+    <t xml:space="preserve">1.66970193386078</t>
   </si>
   <si>
     <t xml:space="preserve">1.71176767349243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71823942661285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69882416725159</t>
+    <t xml:space="preserve">1.71823930740356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69882428646088</t>
   </si>
   <si>
     <t xml:space="preserve">1.7133857011795</t>
@@ -2393,16 +2393,16 @@
     <t xml:space="preserve">1.61711859703064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63248980045319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6502867937088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75545132160187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88488566875458</t>
+    <t xml:space="preserve">1.6324896812439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65028691291809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75545156002045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88488590717316</t>
   </si>
   <si>
     <t xml:space="preserve">1.93504214286804</t>
@@ -2411,10 +2411,10 @@
     <t xml:space="preserve">1.91077327728271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97063624858856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17449569702148</t>
+    <t xml:space="preserve">1.97063636779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17449545860291</t>
   </si>
   <si>
     <t xml:space="preserve">2.21656179428101</t>
@@ -2435,7 +2435,7 @@
     <t xml:space="preserve">1.94636785984039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82987654209137</t>
+    <t xml:space="preserve">1.82987678050995</t>
   </si>
   <si>
     <t xml:space="preserve">1.58556914329529</t>
@@ -2447,7 +2447,7 @@
     <t xml:space="preserve">1.41892278194427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32912755012512</t>
+    <t xml:space="preserve">1.32912743091583</t>
   </si>
   <si>
     <t xml:space="preserve">1.2846348285675</t>
@@ -2456,7 +2456,7 @@
     <t xml:space="preserve">1.26845562458038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02819299697876</t>
+    <t xml:space="preserve">1.02819287776947</t>
   </si>
   <si>
     <t xml:space="preserve">1.06621420383453</t>
@@ -2474,7 +2474,7 @@
     <t xml:space="preserve">1.09129250049591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11798822879791</t>
+    <t xml:space="preserve">1.1179883480072</t>
   </si>
   <si>
     <t xml:space="preserve">1.06136035919189</t>
@@ -2483,7 +2483,7 @@
     <t xml:space="preserve">1.14791977405548</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15600955486298</t>
+    <t xml:space="preserve">1.15600943565369</t>
   </si>
   <si>
     <t xml:space="preserve">1.14387500286102</t>
@@ -2501,10 +2501,10 @@
     <t xml:space="preserve">1.1001912355423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18513190746307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13254964351654</t>
+    <t xml:space="preserve">1.18513178825378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13254952430725</t>
   </si>
   <si>
     <t xml:space="preserve">1.19403052330017</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">1.28787064552307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25065839290619</t>
+    <t xml:space="preserve">1.25065851211548</t>
   </si>
   <si>
     <t xml:space="preserve">1.24904048442841</t>
@@ -2531,7 +2531,7 @@
     <t xml:space="preserve">1.17218852043152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13902127742767</t>
+    <t xml:space="preserve">1.13902115821838</t>
   </si>
   <si>
     <t xml:space="preserve">1.17299735546112</t>
@@ -2540,7 +2540,7 @@
     <t xml:space="preserve">1.15520036220551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15924525260925</t>
+    <t xml:space="preserve">1.15924513339996</t>
   </si>
   <si>
     <t xml:space="preserve">1.15115559101105</t>
@@ -2567,7 +2567,7 @@
     <t xml:space="preserve">1.11879730224609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11717927455902</t>
+    <t xml:space="preserve">1.11717939376831</t>
   </si>
   <si>
     <t xml:space="preserve">1.08401203155518</t>
@@ -2591,7 +2591,7 @@
     <t xml:space="preserve">0.986936092376709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978846430778503</t>
+    <t xml:space="preserve">0.978846549987793</t>
   </si>
   <si>
     <t xml:space="preserve">1.05650651454926</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">1.17542445659637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18108689785004</t>
+    <t xml:space="preserve">1.18108701705933</t>
   </si>
   <si>
     <t xml:space="preserve">1.21506357192993</t>
@@ -2618,13 +2618,13 @@
     <t xml:space="preserve">1.30162274837494</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32750964164734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28544354438782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27411818504333</t>
+    <t xml:space="preserve">1.32750976085663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28544366359711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27411830425262</t>
   </si>
   <si>
     <t xml:space="preserve">1.22962546348572</t>
@@ -2633,28 +2633,28 @@
     <t xml:space="preserve">1.25146746635437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27169144153595</t>
+    <t xml:space="preserve">1.27169132232666</t>
   </si>
   <si>
     <t xml:space="preserve">1.24499583244324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27816307544708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25389420986176</t>
+    <t xml:space="preserve">1.27816295623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25389432907104</t>
   </si>
   <si>
     <t xml:space="preserve">1.33479022979736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38494646549225</t>
+    <t xml:space="preserve">1.38494658470154</t>
   </si>
   <si>
     <t xml:space="preserve">1.46017980575562</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50386440753937</t>
+    <t xml:space="preserve">1.50386428833008</t>
   </si>
   <si>
     <t xml:space="preserve">1.51195394992828</t>
@@ -2666,13 +2666,13 @@
     <t xml:space="preserve">1.49901056289673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5014374256134</t>
+    <t xml:space="preserve">1.50143754482269</t>
   </si>
   <si>
     <t xml:space="preserve">1.50305533409119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51680779457092</t>
+    <t xml:space="preserve">1.51680767536163</t>
   </si>
   <si>
     <t xml:space="preserve">1.59932160377502</t>
@@ -2681,7 +2681,7 @@
     <t xml:space="preserve">1.55159294605255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5936586856842</t>
+    <t xml:space="preserve">1.59365880489349</t>
   </si>
   <si>
     <t xml:space="preserve">1.58152437210083</t>
@@ -2696,13 +2696,13 @@
     <t xml:space="preserve">1.47474098205566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43833768367767</t>
+    <t xml:space="preserve">1.43833780288696</t>
   </si>
   <si>
     <t xml:space="preserve">1.46665143966675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53379595279694</t>
+    <t xml:space="preserve">1.53379583358765</t>
   </si>
   <si>
     <t xml:space="preserve">1.54835712909698</t>
@@ -2714,7 +2714,7 @@
     <t xml:space="preserve">1.59042298793793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66161239147186</t>
+    <t xml:space="preserve">1.66161227226257</t>
   </si>
   <si>
     <t xml:space="preserve">1.62925386428833</t>
@@ -2723,7 +2723,7 @@
     <t xml:space="preserve">1.47716784477234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47635889053345</t>
+    <t xml:space="preserve">1.47635900974274</t>
   </si>
   <si>
     <t xml:space="preserve">1.43995559215546</t>
@@ -2732,10 +2732,10 @@
     <t xml:space="preserve">1.46988725662231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49415683746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47797679901123</t>
+    <t xml:space="preserve">1.49415695667267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47797691822052</t>
   </si>
   <si>
     <t xml:space="preserve">1.48687613010406</t>
@@ -2750,25 +2750,25 @@
     <t xml:space="preserve">1.41245114803314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43914675712585</t>
+    <t xml:space="preserve">1.43914663791656</t>
   </si>
   <si>
     <t xml:space="preserve">1.39303612709045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41811370849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42943930625916</t>
+    <t xml:space="preserve">1.41811382770538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42943918704987</t>
   </si>
   <si>
     <t xml:space="preserve">1.49739265441895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46746051311493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48040378093719</t>
+    <t xml:space="preserve">1.46746039390564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48040366172791</t>
   </si>
   <si>
     <t xml:space="preserve">1.43591094017029</t>
@@ -2777,7 +2777,7 @@
     <t xml:space="preserve">1.45128118991852</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41164219379425</t>
+    <t xml:space="preserve">1.41164207458496</t>
   </si>
   <si>
     <t xml:space="preserve">1.42701232433319</t>
@@ -2795,7 +2795,7 @@
     <t xml:space="preserve">1.31213927268982</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32993650436401</t>
+    <t xml:space="preserve">1.32993638515472</t>
   </si>
   <si>
     <t xml:space="preserve">1.19726634025574</t>
@@ -2807,7 +2807,7 @@
     <t xml:space="preserve">1.21910893917084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31456613540649</t>
+    <t xml:space="preserve">1.31456625461578</t>
   </si>
   <si>
     <t xml:space="preserve">1.33074545860291</t>
@@ -2819,10 +2819,10 @@
     <t xml:space="preserve">1.31618416309357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54512131214142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53460466861725</t>
+    <t xml:space="preserve">1.54512119293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53460478782654</t>
   </si>
   <si>
     <t xml:space="preserve">1.60983800888062</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">1.90915536880493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90106558799744</t>
+    <t xml:space="preserve">1.90106582641602</t>
   </si>
   <si>
     <t xml:space="preserve">1.88326776027679</t>
@@ -2849,7 +2849,7 @@
     <t xml:space="preserve">1.84443795681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80560767650604</t>
+    <t xml:space="preserve">1.80560791492462</t>
   </si>
   <si>
     <t xml:space="preserve">1.82340478897095</t>
@@ -2876,19 +2876,19 @@
     <t xml:space="preserve">1.79913604259491</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77972114086151</t>
+    <t xml:space="preserve">1.77972090244293</t>
   </si>
   <si>
     <t xml:space="preserve">1.79590022563934</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76192390918732</t>
+    <t xml:space="preserve">1.76192402839661</t>
   </si>
   <si>
     <t xml:space="preserve">1.73118281364441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75221562385559</t>
+    <t xml:space="preserve">1.75221574306488</t>
   </si>
   <si>
     <t xml:space="preserve">1.77648520469666</t>
@@ -2912,7 +2912,7 @@
     <t xml:space="preserve">1.84281980991364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86061716079712</t>
+    <t xml:space="preserve">1.86061692237854</t>
   </si>
   <si>
     <t xml:space="preserve">1.81531524658203</t>
@@ -2924,7 +2924,7 @@
     <t xml:space="preserve">1.79428243637085</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77163136005402</t>
+    <t xml:space="preserve">1.7716315984726</t>
   </si>
   <si>
     <t xml:space="preserve">1.75383353233337</t>
@@ -2948,10 +2948,10 @@
     <t xml:space="preserve">1.99005150794983</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01432013511658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00137662887573</t>
+    <t xml:space="preserve">2.01432037353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00137686729431</t>
   </si>
   <si>
     <t xml:space="preserve">1.98681545257568</t>
@@ -2966,31 +2966,31 @@
     <t xml:space="preserve">1.9382780790329</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96092879772186</t>
+    <t xml:space="preserve">1.96092903614044</t>
   </si>
   <si>
     <t xml:space="preserve">1.95122122764587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94798541069031</t>
+    <t xml:space="preserve">1.94798564910889</t>
   </si>
   <si>
     <t xml:space="preserve">1.9560751914978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93666017055511</t>
+    <t xml:space="preserve">1.93665993213654</t>
   </si>
   <si>
     <t xml:space="preserve">1.9301882982254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97710812091827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9657826423645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95769286155701</t>
+    <t xml:space="preserve">1.97710788249969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96578240394592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95769309997559</t>
   </si>
   <si>
     <t xml:space="preserve">2.00461268424988</t>
@@ -2999,7 +2999,7 @@
     <t xml:space="preserve">1.99652290344238</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06447625160217</t>
+    <t xml:space="preserve">2.06447649002075</t>
   </si>
   <si>
     <t xml:space="preserve">2.12110352516174</t>
@@ -3008,22 +3008,22 @@
     <t xml:space="preserve">2.20038247108459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28936791419983</t>
+    <t xml:space="preserve">2.28936767578125</t>
   </si>
   <si>
     <t xml:space="preserve">2.33628821372986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3055477142334</t>
+    <t xml:space="preserve">2.30554795265198</t>
   </si>
   <si>
     <t xml:space="preserve">2.28127837181091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25700950622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30878353118896</t>
+    <t xml:space="preserve">2.25700974464417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30878376960754</t>
   </si>
   <si>
     <t xml:space="preserve">2.28775000572205</t>
@@ -3032,7 +3032,7 @@
     <t xml:space="preserve">2.29098582267761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38320779800415</t>
+    <t xml:space="preserve">2.38320755958557</t>
   </si>
   <si>
     <t xml:space="preserve">2.31040191650391</t>
@@ -3050,7 +3050,7 @@
     <t xml:space="preserve">2.32496309280396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39453339576721</t>
+    <t xml:space="preserve">2.39453315734863</t>
   </si>
   <si>
     <t xml:space="preserve">2.40747666358948</t>
@@ -3059,7 +3059,7 @@
     <t xml:space="preserve">2.43174624443054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46572279930115</t>
+    <t xml:space="preserve">2.46572303771973</t>
   </si>
   <si>
     <t xml:space="preserve">2.396151304245</t>
@@ -3074,13 +3074,13 @@
     <t xml:space="preserve">2.53852891921997</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57088804244995</t>
+    <t xml:space="preserve">2.57088828086853</t>
   </si>
   <si>
     <t xml:space="preserve">2.6582555770874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7310631275177</t>
+    <t xml:space="preserve">2.73106288909912</t>
   </si>
   <si>
     <t xml:space="preserve">2.83137392997742</t>
@@ -3089,10 +3089,10 @@
     <t xml:space="preserve">2.80386924743652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78769016265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89447379112244</t>
+    <t xml:space="preserve">2.78768992424011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89447355270386</t>
   </si>
   <si>
     <t xml:space="preserve">2.93330359458923</t>
@@ -3101,10 +3101,10 @@
     <t xml:space="preserve">2.98507785797119</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09186029434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0692093372345</t>
+    <t xml:space="preserve">3.09186053276062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06920957565308</t>
   </si>
   <si>
     <t xml:space="preserve">3.06597375869751</t>
@@ -5124,6 +5124,9 @@
   </si>
   <si>
     <t xml:space="preserve">7.07000017166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05000019073486</t>
   </si>
 </sst>
 </file>
@@ -61859,7 +61862,7 @@
     </row>
     <row r="2170">
       <c r="A2170" s="1" t="n">
-        <v>45483.649525463</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B2170" t="n">
         <v>1491611</v>
@@ -61880,6 +61883,32 @@
         <v>1703</v>
       </c>
       <c r="H2170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="1" t="n">
+        <v>45484.6501388889</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>1125562</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>7.09499979019165</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>6.96999979019165</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>7.09499979019165</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>7.05000019073486</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>1704</v>
+      </c>
+      <c r="H2171" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BPSO.MI.xlsx
+++ b/data/BPSO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="1705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="1706">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,19 +44,19 @@
     <t xml:space="preserve">BPSO.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00987863540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94444632530212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9057822227478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8239917755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79425024986267</t>
+    <t xml:space="preserve">3.00987887382507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94444608688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90578198432922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82399153709412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79425001144409</t>
   </si>
   <si>
     <t xml:space="preserve">2.8849630355835</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">2.89091110229492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7972240447998</t>
+    <t xml:space="preserve">2.79722428321838</t>
   </si>
   <si>
     <t xml:space="preserve">2.69164037704468</t>
@@ -74,46 +74,46 @@
     <t xml:space="preserve">2.63066959381104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42842483520508</t>
+    <t xml:space="preserve">2.4284245967865</t>
   </si>
   <si>
     <t xml:space="preserve">2.55036640167236</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57713413238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53400874137878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69907569885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6187732219696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52359914779663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61282515525818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5756471157074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48642206192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3793511390686</t>
+    <t xml:space="preserve">2.57713437080383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53400850296021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69907593727112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61877274513245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52359890937805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6128249168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57564687728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48642182350159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37935066223145</t>
   </si>
   <si>
     <t xml:space="preserve">2.39124751091003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36745429039001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18602824211121</t>
+    <t xml:space="preserve">2.36745405197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18602848052979</t>
   </si>
   <si>
     <t xml:space="preserve">2.20982146263123</t>
@@ -122,22 +122,22 @@
     <t xml:space="preserve">2.29607319831848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22469258308411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33771181106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38381218910217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44032144546509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34960865974426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31986665725708</t>
+    <t xml:space="preserve">2.22469282150269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33771157264709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38381242752075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44032168388367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34960842132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31986689567566</t>
   </si>
   <si>
     <t xml:space="preserve">2.40611839294434</t>
@@ -146,28 +146,28 @@
     <t xml:space="preserve">2.34217309951782</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33176374435425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37340235710144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42098903656006</t>
+    <t xml:space="preserve">2.33176326751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3734028339386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42098927497864</t>
   </si>
   <si>
     <t xml:space="preserve">2.48344755172729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55780172348022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5518536567688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54441785812378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40165710449219</t>
+    <t xml:space="preserve">2.5578019618988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55185341835022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54441809654236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40165734291077</t>
   </si>
   <si>
     <t xml:space="preserve">2.42396354675293</t>
@@ -179,7 +179,7 @@
     <t xml:space="preserve">2.48493456840515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60687613487244</t>
+    <t xml:space="preserve">2.60687565803528</t>
   </si>
   <si>
     <t xml:space="preserve">2.52657318115234</t>
@@ -197,7 +197,7 @@
     <t xml:space="preserve">2.56375026702881</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45667934417725</t>
+    <t xml:space="preserve">2.45667958259583</t>
   </si>
   <si>
     <t xml:space="preserve">2.39719605445862</t>
@@ -209,58 +209,58 @@
     <t xml:space="preserve">2.29161214828491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30053472518921</t>
+    <t xml:space="preserve">2.30053448677063</t>
   </si>
   <si>
     <t xml:space="preserve">2.27228021621704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21725726127625</t>
+    <t xml:space="preserve">2.21725702285767</t>
   </si>
   <si>
     <t xml:space="preserve">2.1562864780426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16223502159119</t>
+    <t xml:space="preserve">2.16223478317261</t>
   </si>
   <si>
     <t xml:space="preserve">2.2187442779541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26781845092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27674126625061</t>
+    <t xml:space="preserve">2.26781868934631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27674150466919</t>
   </si>
   <si>
     <t xml:space="preserve">2.38678646087646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46708869934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39868307113647</t>
+    <t xml:space="preserve">2.4670889377594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39868330955505</t>
   </si>
   <si>
     <t xml:space="preserve">2.45370531082153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49831819534302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49237012863159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44180822372437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48939561843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4730372428894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42247676849365</t>
+    <t xml:space="preserve">2.4983184337616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49237036705017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44180870056152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48939609527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47303748130798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42247605323792</t>
   </si>
   <si>
     <t xml:space="preserve">2.39422154426575</t>
@@ -269,19 +269,19 @@
     <t xml:space="preserve">2.31094408035278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26187014579773</t>
+    <t xml:space="preserve">2.26187038421631</t>
   </si>
   <si>
     <t xml:space="preserve">2.23064088821411</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24848651885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23807692527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2559220790863</t>
+    <t xml:space="preserve">2.24848675727844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23807740211487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25592231750488</t>
   </si>
   <si>
     <t xml:space="preserve">2.1949508190155</t>
@@ -293,10 +293,10 @@
     <t xml:space="preserve">2.2127959728241</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17710590362549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2202308177948</t>
+    <t xml:space="preserve">2.17710566520691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22023129463196</t>
   </si>
   <si>
     <t xml:space="preserve">2.20387315750122</t>
@@ -308,31 +308,31 @@
     <t xml:space="preserve">2.27850317955017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35617971420288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30744218826294</t>
+    <t xml:space="preserve">2.3561794757843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30744194984436</t>
   </si>
   <si>
     <t xml:space="preserve">2.33028769493103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30896520614624</t>
+    <t xml:space="preserve">2.30896496772766</t>
   </si>
   <si>
     <t xml:space="preserve">2.24194955825806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21910405158997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14142727851868</t>
+    <t xml:space="preserve">2.21910381317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14142775535583</t>
   </si>
   <si>
     <t xml:space="preserve">2.09725856781006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01044368743896</t>
+    <t xml:space="preserve">2.01044392585754</t>
   </si>
   <si>
     <t xml:space="preserve">2.13076567649841</t>
@@ -344,82 +344,82 @@
     <t xml:space="preserve">2.08202838897705</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97236752510071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90839910507202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87641441822052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8489990234375</t>
+    <t xml:space="preserve">1.97236740589142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90839922428131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87641429901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84899926185608</t>
   </si>
   <si>
     <t xml:space="preserve">1.75913834571838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81701505184174</t>
+    <t xml:space="preserve">1.81701493263245</t>
   </si>
   <si>
     <t xml:space="preserve">1.8962140083313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94038319587708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9068751335144</t>
+    <t xml:space="preserve">1.94038307666779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90687525272369</t>
   </si>
   <si>
     <t xml:space="preserve">2.02872061729431</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75152313709259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67689311504364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78807711601257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77436912059784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75609219074249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75304615497589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6890777349472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61901664733887</t>
+    <t xml:space="preserve">1.7515230178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67689335346222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78807723522186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77436888217926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75609195232391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7530460357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68907761573792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61901652812958</t>
   </si>
   <si>
     <t xml:space="preserve">1.63424706459045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64033925533295</t>
+    <t xml:space="preserve">1.64033937454224</t>
   </si>
   <si>
     <t xml:space="preserve">1.7545690536499</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79112339019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81549215316772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78960037231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86727619171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8307226896286</t>
+    <t xml:space="preserve">1.79112315177917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81549203395844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78960013389587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86727595329285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83072233200073</t>
   </si>
   <si>
     <t xml:space="preserve">1.84443008899689</t>
@@ -428,133 +428,133 @@
     <t xml:space="preserve">1.9023060798645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89316785335541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85052239894867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81853795051575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84747624397278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.841383934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78198480606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66470885276794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68755483627319</t>
+    <t xml:space="preserve">1.8931679725647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85052216053009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81853818893433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8474760055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84138405323029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78198492527008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66470873355865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6875547170639</t>
   </si>
   <si>
     <t xml:space="preserve">1.62967801094055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77741503715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7652302980423</t>
+    <t xml:space="preserve">1.74999976158142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77741479873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76523053646088</t>
   </si>
   <si>
     <t xml:space="preserve">1.80787694454193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8368147611618</t>
+    <t xml:space="preserve">1.83681464195251</t>
   </si>
   <si>
     <t xml:space="preserve">1.82767641544342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82158422470093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86879885196686</t>
+    <t xml:space="preserve">1.82158446311951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86879897117615</t>
   </si>
   <si>
     <t xml:space="preserve">1.82919943332672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8429069519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85509157180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90992200374603</t>
+    <t xml:space="preserve">1.84290707111359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85509181022644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90992224216461</t>
   </si>
   <si>
     <t xml:space="preserve">1.90535223484039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89773690700531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89012181758881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88098335266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88859891891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86575281620026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89469110965729</t>
+    <t xml:space="preserve">1.89773714542389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8901219367981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.880983710289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88859879970551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86575269699097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89469122886658</t>
   </si>
   <si>
     <t xml:space="preserve">1.87336826324463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85813748836517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91144514083862</t>
+    <t xml:space="preserve">1.85813772678375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91144526004791</t>
   </si>
   <si>
     <t xml:space="preserve">1.98455190658569</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98150551319122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94190657138824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96627521514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97998285293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99216759204865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08659768104553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11705851554871</t>
+    <t xml:space="preserve">1.98150563240051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94190633296967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96627557277679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9799827337265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99216711521149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08659720420837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11705875396729</t>
   </si>
   <si>
     <t xml:space="preserve">2.24804210662842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25870323181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22367334365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23433423042297</t>
+    <t xml:space="preserve">2.25870370864868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22367310523987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23433446884155</t>
   </si>
   <si>
     <t xml:space="preserve">2.23738074302673</t>
@@ -563,7 +563,7 @@
     <t xml:space="preserve">2.24651885032654</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31505703926086</t>
+    <t xml:space="preserve">2.31505727767944</t>
   </si>
   <si>
     <t xml:space="preserve">2.33790302276611</t>
@@ -572,40 +572,40 @@
     <t xml:space="preserve">2.26479578018188</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14295053482056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18407392501831</t>
+    <t xml:space="preserve">2.1429500579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18407368659973</t>
   </si>
   <si>
     <t xml:space="preserve">2.15208888053894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19930410385132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20996570587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26631855964661</t>
+    <t xml:space="preserve">2.1993043422699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.209965467453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26631832122803</t>
   </si>
   <si>
     <t xml:space="preserve">2.27697992324829</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31658029556274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31353425979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28459548950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22976517677307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18102741241455</t>
+    <t xml:space="preserve">2.31657981872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31353402137756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28459525108337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22976493835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18102765083313</t>
   </si>
   <si>
     <t xml:space="preserve">2.22519612312317</t>
@@ -614,34 +614,34 @@
     <t xml:space="preserve">2.24956488609314</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23890352249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15361189842224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27545690536499</t>
+    <t xml:space="preserve">2.23890399932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15361166000366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27545738220215</t>
   </si>
   <si>
     <t xml:space="preserve">2.25413417816162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22062683105469</t>
+    <t xml:space="preserve">2.22062706947327</t>
   </si>
   <si>
     <t xml:space="preserve">2.32267236709595</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43690252304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54351663589478</t>
+    <t xml:space="preserve">2.43690228462219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54351687431335</t>
   </si>
   <si>
     <t xml:space="preserve">2.42471814155579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39273309707642</t>
+    <t xml:space="preserve">2.39273262023926</t>
   </si>
   <si>
     <t xml:space="preserve">2.43385624885559</t>
@@ -656,61 +656,61 @@
     <t xml:space="preserve">2.32419538497925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39577913284302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38054847717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37597942352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36227202415466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38207149505615</t>
+    <t xml:space="preserve">2.39577889442444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38054823875427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37597894668579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36227178573608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38207173347473</t>
   </si>
   <si>
     <t xml:space="preserve">2.42624092102051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47497868537903</t>
+    <t xml:space="preserve">2.47497844696045</t>
   </si>
   <si>
     <t xml:space="preserve">2.48259401321411</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5100085735321</t>
+    <t xml:space="preserve">2.51000881195068</t>
   </si>
   <si>
     <t xml:space="preserve">2.50848603248596</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46888637542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46127104759216</t>
+    <t xml:space="preserve">2.46888613700867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46127128601074</t>
   </si>
   <si>
     <t xml:space="preserve">2.45974802970886</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52828550338745</t>
+    <t xml:space="preserve">2.52828574180603</t>
   </si>
   <si>
     <t xml:space="preserve">2.52067041397095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50696277618408</t>
+    <t xml:space="preserve">2.50696301460266</t>
   </si>
   <si>
     <t xml:space="preserve">2.57397818565369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58920860290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62728476524353</t>
+    <t xml:space="preserve">2.58920836448669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62728500366211</t>
   </si>
   <si>
     <t xml:space="preserve">2.58311629295349</t>
@@ -719,133 +719,133 @@
     <t xml:space="preserve">2.58768558502197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59682393074036</t>
+    <t xml:space="preserve">2.59682369232178</t>
   </si>
   <si>
     <t xml:space="preserve">2.61814665794373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52219343185425</t>
+    <t xml:space="preserve">2.52219319343567</t>
   </si>
   <si>
     <t xml:space="preserve">2.50391674041748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49630165100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53285527229309</t>
+    <t xml:space="preserve">2.4963014125824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53285479545593</t>
   </si>
   <si>
     <t xml:space="preserve">2.4932553768158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4445173740387</t>
+    <t xml:space="preserve">2.44451785087585</t>
   </si>
   <si>
     <t xml:space="preserve">2.46431732177734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48868608474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50087070465088</t>
+    <t xml:space="preserve">2.48868632316589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50087094306946</t>
   </si>
   <si>
     <t xml:space="preserve">2.47345542907715</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46279406547546</t>
+    <t xml:space="preserve">2.46279382705688</t>
   </si>
   <si>
     <t xml:space="preserve">2.41710257530212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28002643585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28611850738525</t>
+    <t xml:space="preserve">2.28002619743347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28611826896667</t>
   </si>
   <si>
     <t xml:space="preserve">2.4475634098053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38816404342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43537902832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44147133827209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47802472114563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50543975830078</t>
+    <t xml:space="preserve">2.38816380500793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43537878990173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44147157669067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47802495956421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50543999671936</t>
   </si>
   <si>
     <t xml:space="preserve">2.54808616638184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49477815628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53590083122253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51610112190247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45822501182556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46736359596252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45061016082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48564028739929</t>
+    <t xml:space="preserve">2.49477863311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53590059280396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51610088348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45822525024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46736335754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45060968399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48564004898071</t>
   </si>
   <si>
     <t xml:space="preserve">2.44604063034058</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45365619659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45670223236084</t>
+    <t xml:space="preserve">2.45365595817566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45670199394226</t>
   </si>
   <si>
     <t xml:space="preserve">2.47040939331055</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52371621131897</t>
+    <t xml:space="preserve">2.52371644973755</t>
   </si>
   <si>
     <t xml:space="preserve">2.47650170326233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4978244304657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64251565933228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60443902015686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60291600227356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67602372169495</t>
+    <t xml:space="preserve">2.49782466888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6425154209137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60443925857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60291576385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67602324485779</t>
   </si>
   <si>
     <t xml:space="preserve">2.63946938514709</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66383814811707</t>
+    <t xml:space="preserve">2.66383862495422</t>
   </si>
   <si>
     <t xml:space="preserve">2.69582271575928</t>
@@ -854,34 +854,34 @@
     <t xml:space="preserve">2.69734644889832</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75217628479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71409964561462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66536140441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68363833427429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68668508529663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68820762634277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68516182899475</t>
+    <t xml:space="preserve">2.75217604637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7140998840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66536116600037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68363857269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68668484687805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68820786476135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68516159057617</t>
   </si>
   <si>
     <t xml:space="preserve">2.73694562911987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75553274154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82058715820312</t>
+    <t xml:space="preserve">2.75553250312805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82058691978455</t>
   </si>
   <si>
     <t xml:space="preserve">2.84537029266357</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">2.89958214759827</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7493371963501</t>
+    <t xml:space="preserve">2.74933695793152</t>
   </si>
   <si>
     <t xml:space="preserve">2.70596623420715</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">2.70906472206116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6502058506012</t>
+    <t xml:space="preserve">2.65020561218262</t>
   </si>
   <si>
     <t xml:space="preserve">2.70131993293762</t>
@@ -908,7 +908,7 @@
     <t xml:space="preserve">2.69357514381409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64710783958435</t>
+    <t xml:space="preserve">2.64710760116577</t>
   </si>
   <si>
     <t xml:space="preserve">2.66724371910095</t>
@@ -920,13 +920,13 @@
     <t xml:space="preserve">2.69667339324951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63161897659302</t>
+    <t xml:space="preserve">2.63161873817444</t>
   </si>
   <si>
     <t xml:space="preserve">2.65640139579773</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63626551628113</t>
+    <t xml:space="preserve">2.63626527786255</t>
   </si>
   <si>
     <t xml:space="preserve">2.65795016288757</t>
@@ -935,22 +935,22 @@
     <t xml:space="preserve">2.63316750526428</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65949940681458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66569471359253</t>
+    <t xml:space="preserve">2.659499168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66569447517395</t>
   </si>
   <si>
     <t xml:space="preserve">2.66414570808411</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68737983703613</t>
+    <t xml:space="preserve">2.68737959861755</t>
   </si>
   <si>
     <t xml:space="preserve">2.71835851669312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7880597114563</t>
+    <t xml:space="preserve">2.78805994987488</t>
   </si>
   <si>
     <t xml:space="preserve">2.7415919303894</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">2.93210959434509</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9166202545166</t>
+    <t xml:space="preserve">2.91662001609802</t>
   </si>
   <si>
     <t xml:space="preserve">2.90577793121338</t>
@@ -995,7 +995,7 @@
     <t xml:space="preserve">2.90113091468811</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88099527359009</t>
+    <t xml:space="preserve">2.88099503517151</t>
   </si>
   <si>
     <t xml:space="preserve">2.87789726257324</t>
@@ -1004,16 +1004,16 @@
     <t xml:space="preserve">2.87944626808167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90422916412354</t>
+    <t xml:space="preserve">2.90422892570496</t>
   </si>
   <si>
     <t xml:space="preserve">2.83917379379272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87015295028687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86240816116333</t>
+    <t xml:space="preserve">2.87015271186829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86240839958191</t>
   </si>
   <si>
     <t xml:space="preserve">2.86085963249207</t>
@@ -1022,16 +1022,16 @@
     <t xml:space="preserve">2.84227156639099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84072256088257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85776162147522</t>
+    <t xml:space="preserve">2.84072279930115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85776138305664</t>
   </si>
   <si>
     <t xml:space="preserve">2.84846830368042</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83452701568604</t>
+    <t xml:space="preserve">2.83452725410461</t>
   </si>
   <si>
     <t xml:space="preserve">2.78341293334961</t>
@@ -1046,7 +1046,7 @@
     <t xml:space="preserve">2.72610306739807</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76017904281616</t>
+    <t xml:space="preserve">2.76017928123474</t>
   </si>
   <si>
     <t xml:space="preserve">2.70441746711731</t>
@@ -1070,16 +1070,16 @@
     <t xml:space="preserve">2.71371102333069</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73384785652161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68583035469055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73229908943176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72765207290649</t>
+    <t xml:space="preserve">2.73384761810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68583059310913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73229885101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72765183448792</t>
   </si>
   <si>
     <t xml:space="preserve">2.71680974960327</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">2.76327705383301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82988047599792</t>
+    <t xml:space="preserve">2.82988023757935</t>
   </si>
   <si>
     <t xml:space="preserve">2.8174889087677</t>
@@ -1130,13 +1130,13 @@
     <t xml:space="preserve">2.65485239028931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69202613830566</t>
+    <t xml:space="preserve">2.69202637672424</t>
   </si>
   <si>
     <t xml:space="preserve">2.62387418746948</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57895493507385</t>
+    <t xml:space="preserve">2.57895469665527</t>
   </si>
   <si>
     <t xml:space="preserve">2.63006949424744</t>
@@ -1148,13 +1148,13 @@
     <t xml:space="preserve">2.45968866348267</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40702486038208</t>
+    <t xml:space="preserve">2.4070246219635</t>
   </si>
   <si>
     <t xml:space="preserve">2.44419860839844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34042143821716</t>
+    <t xml:space="preserve">2.34042119979858</t>
   </si>
   <si>
     <t xml:space="preserve">2.35436177253723</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">2.37914419174194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42406296730042</t>
+    <t xml:space="preserve">2.42406272888184</t>
   </si>
   <si>
     <t xml:space="preserve">2.44729661941528</t>
@@ -1199,7 +1199,7 @@
     <t xml:space="preserve">2.54642772674561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56346607208252</t>
+    <t xml:space="preserve">2.56346583366394</t>
   </si>
   <si>
     <t xml:space="preserve">2.5712103843689</t>
@@ -1214,25 +1214,25 @@
     <t xml:space="preserve">2.4565896987915</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36210656166077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39928030967712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3977313041687</t>
+    <t xml:space="preserve">2.36210632324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39928007125854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39773106575012</t>
   </si>
   <si>
     <t xml:space="preserve">2.39308452606201</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33887267112732</t>
+    <t xml:space="preserve">2.33887243270874</t>
   </si>
   <si>
     <t xml:space="preserve">2.37604641914368</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40547585487366</t>
+    <t xml:space="preserve">2.40547561645508</t>
   </si>
   <si>
     <t xml:space="preserve">2.35745930671692</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">2.55881881713867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55727005004883</t>
+    <t xml:space="preserve">2.55726981163025</t>
   </si>
   <si>
     <t xml:space="preserve">2.51390075683594</t>
@@ -1271,25 +1271,25 @@
     <t xml:space="preserve">2.57430791854858</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57585740089417</t>
+    <t xml:space="preserve">2.57585716247559</t>
   </si>
   <si>
     <t xml:space="preserve">2.49376440048218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51699829101562</t>
+    <t xml:space="preserve">2.51699805259705</t>
   </si>
   <si>
     <t xml:space="preserve">2.49996042251587</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47672629356384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3884379863739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47982454299927</t>
+    <t xml:space="preserve">2.47672605514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38843822479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47982430458069</t>
   </si>
   <si>
     <t xml:space="preserve">2.46743321418762</t>
@@ -1298,7 +1298,7 @@
     <t xml:space="preserve">2.48602032661438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47207975387573</t>
+    <t xml:space="preserve">2.47207999229431</t>
   </si>
   <si>
     <t xml:space="preserve">2.5417811870575</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">2.53248739242554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48137331008911</t>
+    <t xml:space="preserve">2.48137307167053</t>
   </si>
   <si>
     <t xml:space="preserve">2.52164506912231</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">2.43955206871033</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49531388282776</t>
+    <t xml:space="preserve">2.49531364440918</t>
   </si>
   <si>
     <t xml:space="preserve">2.47053098678589</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">2.46433520317078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54332995414734</t>
+    <t xml:space="preserve">2.54333019256592</t>
   </si>
   <si>
     <t xml:space="preserve">2.49686241149902</t>
@@ -1340,10 +1340,10 @@
     <t xml:space="preserve">2.56811237335205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56966137886047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55572128295898</t>
+    <t xml:space="preserve">2.56966114044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55572104454041</t>
   </si>
   <si>
     <t xml:space="preserve">2.78651094436646</t>
@@ -1364,10 +1364,10 @@
     <t xml:space="preserve">3.05137634277344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04363203048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03588724136353</t>
+    <t xml:space="preserve">3.04363179206848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03588700294495</t>
   </si>
   <si>
     <t xml:space="preserve">3.07306122779846</t>
@@ -1382,7 +1382,7 @@
     <t xml:space="preserve">2.92591428756714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98477339744568</t>
+    <t xml:space="preserve">2.9847731590271</t>
   </si>
   <si>
     <t xml:space="preserve">2.95224499702454</t>
@@ -5127,6 +5127,9 @@
   </si>
   <si>
     <t xml:space="preserve">7.05000019073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01000022888184</t>
   </si>
 </sst>
 </file>
@@ -61888,7 +61891,7 @@
     </row>
     <row r="2171">
       <c r="A2171" s="1" t="n">
-        <v>45484.6501388889</v>
+        <v>45484.2916666667</v>
       </c>
       <c r="B2171" t="n">
         <v>1125562</v>
@@ -61909,6 +61912,32 @@
         <v>1704</v>
       </c>
       <c r="H2171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" s="1" t="n">
+        <v>45485.6493518519</v>
+      </c>
+      <c r="B2172" t="n">
+        <v>886824</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>7.09000015258789</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>7.01000022888184</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>7.09000015258789</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>7.01000022888184</v>
+      </c>
+      <c r="G2172" t="s">
+        <v>1705</v>
+      </c>
+      <c r="H2172" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BPSO.MI.xlsx
+++ b/data/BPSO.MI.xlsx
@@ -38,103 +38,103 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03069829940796</t>
+    <t xml:space="preserve">3.03069806098938</t>
   </si>
   <si>
     <t xml:space="preserve">BPSO.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00987887382507</t>
+    <t xml:space="preserve">3.00987863540649</t>
   </si>
   <si>
     <t xml:space="preserve">2.94444608688354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90578198432922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82399153709412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79425001144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8849630355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89091110229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79722428321838</t>
+    <t xml:space="preserve">2.9057822227478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8239917755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79425024986267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88496327400208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8909113407135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79722452163696</t>
   </si>
   <si>
     <t xml:space="preserve">2.69164037704468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63066959381104</t>
+    <t xml:space="preserve">2.63066983222961</t>
   </si>
   <si>
     <t xml:space="preserve">2.4284245967865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55036640167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57713437080383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53400850296021</t>
+    <t xml:space="preserve">2.55036616325378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57713413238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53400874137878</t>
   </si>
   <si>
     <t xml:space="preserve">2.69907593727112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61877274513245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52359890937805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6128249168396</t>
+    <t xml:space="preserve">2.61877298355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52359914779663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61282515525818</t>
   </si>
   <si>
     <t xml:space="preserve">2.57564687728882</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48642182350159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37935066223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39124751091003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36745405197144</t>
+    <t xml:space="preserve">2.48642158508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37935090065002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39124727249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36745429039001</t>
   </si>
   <si>
     <t xml:space="preserve">2.18602848052979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20982146263123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29607319831848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22469282150269</t>
+    <t xml:space="preserve">2.2098217010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29607343673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22469234466553</t>
   </si>
   <si>
     <t xml:space="preserve">2.33771157264709</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38381242752075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44032168388367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34960842132568</t>
+    <t xml:space="preserve">2.38381195068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44032144546509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3496081829071</t>
   </si>
   <si>
     <t xml:space="preserve">2.31986689567566</t>
@@ -143,16 +143,16 @@
     <t xml:space="preserve">2.40611839294434</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34217309951782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33176326751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3734028339386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42098927497864</t>
+    <t xml:space="preserve">2.3421733379364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33176374435425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37340259552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42098951339722</t>
   </si>
   <si>
     <t xml:space="preserve">2.48344755172729</t>
@@ -164,22 +164,22 @@
     <t xml:space="preserve">2.55185341835022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54441809654236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40165734291077</t>
+    <t xml:space="preserve">2.54441857337952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40165710449219</t>
   </si>
   <si>
     <t xml:space="preserve">2.42396354675293</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41057968139648</t>
+    <t xml:space="preserve">2.41057944297791</t>
   </si>
   <si>
     <t xml:space="preserve">2.48493456840515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60687565803528</t>
+    <t xml:space="preserve">2.60687589645386</t>
   </si>
   <si>
     <t xml:space="preserve">2.52657318115234</t>
@@ -194,25 +194,25 @@
     <t xml:space="preserve">2.5280601978302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56375026702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45667958259583</t>
+    <t xml:space="preserve">2.56375002861023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45667934417725</t>
   </si>
   <si>
     <t xml:space="preserve">2.39719605445862</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3436598777771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29161214828491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30053448677063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27228021621704</t>
+    <t xml:space="preserve">2.34366011619568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29161238670349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30053472518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27227997779846</t>
   </si>
   <si>
     <t xml:space="preserve">2.21725702285767</t>
@@ -221,31 +221,31 @@
     <t xml:space="preserve">2.1562864780426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16223478317261</t>
+    <t xml:space="preserve">2.16223502159119</t>
   </si>
   <si>
     <t xml:space="preserve">2.2187442779541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26781868934631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27674150466919</t>
+    <t xml:space="preserve">2.26781892776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27674102783203</t>
   </si>
   <si>
     <t xml:space="preserve">2.38678646087646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4670889377594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39868330955505</t>
+    <t xml:space="preserve">2.46708869934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39868307113647</t>
   </si>
   <si>
     <t xml:space="preserve">2.45370531082153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4983184337616</t>
+    <t xml:space="preserve">2.49831867218018</t>
   </si>
   <si>
     <t xml:space="preserve">2.49237036705017</t>
@@ -254,13 +254,13 @@
     <t xml:space="preserve">2.44180870056152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48939609527588</t>
+    <t xml:space="preserve">2.4893958568573</t>
   </si>
   <si>
     <t xml:space="preserve">2.47303748130798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42247605323792</t>
+    <t xml:space="preserve">2.42247653007507</t>
   </si>
   <si>
     <t xml:space="preserve">2.39422154426575</t>
@@ -272,25 +272,25 @@
     <t xml:space="preserve">2.26187038421631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23064088821411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24848675727844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23807740211487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25592231750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1949508190155</t>
+    <t xml:space="preserve">2.23064064979553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24848651885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23807692527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2559220790863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19495105743408</t>
   </si>
   <si>
     <t xml:space="preserve">2.18305444717407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2127959728241</t>
+    <t xml:space="preserve">2.21279573440552</t>
   </si>
   <si>
     <t xml:space="preserve">2.17710566520691</t>
@@ -299,16 +299,16 @@
     <t xml:space="preserve">2.22023129463196</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20387315750122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19778156280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27850317955017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3561794757843</t>
+    <t xml:space="preserve">2.2038733959198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1977813243866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27850294113159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35617971420288</t>
   </si>
   <si>
     <t xml:space="preserve">2.30744194984436</t>
@@ -323,10 +323,10 @@
     <t xml:space="preserve">2.24194955825806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21910381317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14142775535583</t>
+    <t xml:space="preserve">2.21910405158997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14142727851868</t>
   </si>
   <si>
     <t xml:space="preserve">2.09725856781006</t>
@@ -341,94 +341,94 @@
     <t xml:space="preserve">2.07441306114197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08202838897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97236740589142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90839922428131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87641429901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84899926185608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75913834571838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81701493263245</t>
+    <t xml:space="preserve">2.08202815055847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97236752510071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90839910507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87641441822052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8489990234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75913846492767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81701505184174</t>
   </si>
   <si>
     <t xml:space="preserve">1.8962140083313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94038307666779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90687525272369</t>
+    <t xml:space="preserve">1.94038343429565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90687537193298</t>
   </si>
   <si>
     <t xml:space="preserve">2.02872061729431</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7515230178833</t>
+    <t xml:space="preserve">1.75152313709259</t>
   </si>
   <si>
     <t xml:space="preserve">1.67689335346222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78807723522186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77436888217926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75609195232391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7530460357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68907761573792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61901652812958</t>
+    <t xml:space="preserve">1.78807699680328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77436912059784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7560920715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75304627418518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6890777349472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61901664733887</t>
   </si>
   <si>
     <t xml:space="preserve">1.63424706459045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64033937454224</t>
+    <t xml:space="preserve">1.64033913612366</t>
   </si>
   <si>
     <t xml:space="preserve">1.7545690536499</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79112315177917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81549203395844</t>
+    <t xml:space="preserve">1.79112339019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81549191474915</t>
   </si>
   <si>
     <t xml:space="preserve">1.78960013389587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86727595329285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83072233200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84443008899689</t>
+    <t xml:space="preserve">1.86727619171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8307226896286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84443020820618</t>
   </si>
   <si>
     <t xml:space="preserve">1.9023060798645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8931679725647</t>
+    <t xml:space="preserve">1.89316785335541</t>
   </si>
   <si>
     <t xml:space="preserve">1.85052216053009</t>
@@ -437,13 +437,13 @@
     <t xml:space="preserve">1.81853818893433</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8474760055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84138405323029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78198492527008</t>
+    <t xml:space="preserve">1.84747624397278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84138417243958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78198480606079</t>
   </si>
   <si>
     <t xml:space="preserve">1.66470873355865</t>
@@ -452,13 +452,13 @@
     <t xml:space="preserve">1.6875547170639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62967801094055</t>
+    <t xml:space="preserve">1.62967789173126</t>
   </si>
   <si>
     <t xml:space="preserve">1.74999976158142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77741479873657</t>
+    <t xml:space="preserve">1.77741503715515</t>
   </si>
   <si>
     <t xml:space="preserve">1.76523053646088</t>
@@ -467,7 +467,7 @@
     <t xml:space="preserve">1.80787694454193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83681464195251</t>
+    <t xml:space="preserve">1.8368147611618</t>
   </si>
   <si>
     <t xml:space="preserve">1.82767641544342</t>
@@ -476,70 +476,70 @@
     <t xml:space="preserve">1.82158446311951</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86879897117615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82919943332672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84290707111359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85509181022644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90992224216461</t>
+    <t xml:space="preserve">1.86879909038544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82919991016388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84290719032288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85509157180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90992200374603</t>
   </si>
   <si>
     <t xml:space="preserve">1.90535223484039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89773714542389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8901219367981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.880983710289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88859879970551</t>
+    <t xml:space="preserve">1.89773690700531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89012157917023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88098335266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88859868049622</t>
   </si>
   <si>
     <t xml:space="preserve">1.86575269699097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89469122886658</t>
+    <t xml:space="preserve">1.89469110965729</t>
   </si>
   <si>
     <t xml:space="preserve">1.87336826324463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85813772678375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91144526004791</t>
+    <t xml:space="preserve">1.85813748836517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91144514083862</t>
   </si>
   <si>
     <t xml:space="preserve">1.98455190658569</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98150563240051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94190633296967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96627557277679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9799827337265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99216711521149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08659720420837</t>
+    <t xml:space="preserve">1.9815057516098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94190680980682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96627521514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97998285293579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99216735363007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08659744262695</t>
   </si>
   <si>
     <t xml:space="preserve">2.11705875396729</t>
@@ -548,13 +548,13 @@
     <t xml:space="preserve">2.24804210662842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25870370864868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22367310523987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23433446884155</t>
+    <t xml:space="preserve">2.25870323181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22367334365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23433470726013</t>
   </si>
   <si>
     <t xml:space="preserve">2.23738074302673</t>
@@ -563,73 +563,73 @@
     <t xml:space="preserve">2.24651885032654</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31505727767944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33790302276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26479578018188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1429500579834</t>
+    <t xml:space="preserve">2.31505703926086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33790278434753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26479554176331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14295029640198</t>
   </si>
   <si>
     <t xml:space="preserve">2.18407368659973</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15208888053894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1993043422699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.209965467453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26631832122803</t>
+    <t xml:space="preserve">2.15208864212036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19930410385132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20996570587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26631855964661</t>
   </si>
   <si>
     <t xml:space="preserve">2.27697992324829</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31657981872559</t>
+    <t xml:space="preserve">2.31658005714417</t>
   </si>
   <si>
     <t xml:space="preserve">2.31353402137756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28459525108337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22976493835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18102765083313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22519612312317</t>
+    <t xml:space="preserve">2.28459501266479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22976517677307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18102741241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22519636154175</t>
   </si>
   <si>
     <t xml:space="preserve">2.24956488609314</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23890399932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15361166000366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27545738220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25413417816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22062706947327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32267236709595</t>
+    <t xml:space="preserve">2.23890376091003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15361189842224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27545666694641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25413370132446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22062683105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32267260551453</t>
   </si>
   <si>
     <t xml:space="preserve">2.43690228462219</t>
@@ -638,10 +638,10 @@
     <t xml:space="preserve">2.54351687431335</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42471814155579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39273262023926</t>
+    <t xml:space="preserve">2.42471790313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39273285865784</t>
   </si>
   <si>
     <t xml:space="preserve">2.43385624885559</t>
@@ -650,31 +650,31 @@
     <t xml:space="preserve">2.39121007919312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33333373069763</t>
+    <t xml:space="preserve">2.33333420753479</t>
   </si>
   <si>
     <t xml:space="preserve">2.32419538497925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39577889442444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38054823875427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37597894668579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36227178573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38207173347473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42624092102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47497844696045</t>
+    <t xml:space="preserve">2.39577913284302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38054847717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37597942352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3622715473175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38207149505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42624068260193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47497868537903</t>
   </si>
   <si>
     <t xml:space="preserve">2.48259401321411</t>
@@ -689,7 +689,7 @@
     <t xml:space="preserve">2.46888613700867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46127128601074</t>
+    <t xml:space="preserve">2.46127080917358</t>
   </si>
   <si>
     <t xml:space="preserve">2.45974802970886</t>
@@ -707,13 +707,13 @@
     <t xml:space="preserve">2.57397818565369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58920836448669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62728500366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58311629295349</t>
+    <t xml:space="preserve">2.58920860290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62728476524353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58311653137207</t>
   </si>
   <si>
     <t xml:space="preserve">2.58768558502197</t>
@@ -725,91 +725,91 @@
     <t xml:space="preserve">2.61814665794373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52219319343567</t>
+    <t xml:space="preserve">2.52219343185425</t>
   </si>
   <si>
     <t xml:space="preserve">2.50391674041748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4963014125824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53285479545593</t>
+    <t xml:space="preserve">2.49630165100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53285503387451</t>
   </si>
   <si>
     <t xml:space="preserve">2.4932553768158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44451785087585</t>
+    <t xml:space="preserve">2.44451761245728</t>
   </si>
   <si>
     <t xml:space="preserve">2.46431732177734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48868632316589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50087094306946</t>
+    <t xml:space="preserve">2.48868608474731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50087070465088</t>
   </si>
   <si>
     <t xml:space="preserve">2.47345542907715</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46279382705688</t>
+    <t xml:space="preserve">2.46279406547546</t>
   </si>
   <si>
     <t xml:space="preserve">2.41710257530212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28002619743347</t>
+    <t xml:space="preserve">2.28002595901489</t>
   </si>
   <si>
     <t xml:space="preserve">2.28611826896667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4475634098053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38816380500793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43537878990173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44147157669067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47802495956421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50543999671936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54808616638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49477863311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53590059280396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51610088348389</t>
+    <t xml:space="preserve">2.44756317138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38816404342651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43537902832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44147133827209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47802472114563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50543975830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54808592796326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49477815628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53590083122253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51610112190247</t>
   </si>
   <si>
     <t xml:space="preserve">2.45822525024414</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46736335754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45060968399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48564004898071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44604063034058</t>
+    <t xml:space="preserve">2.46736359596252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45060992240906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48564028739929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44604086875916</t>
   </si>
   <si>
     <t xml:space="preserve">2.45365595817566</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">2.47040939331055</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52371644973755</t>
+    <t xml:space="preserve">2.52371621131897</t>
   </si>
   <si>
     <t xml:space="preserve">2.47650170326233</t>
@@ -833,46 +833,46 @@
     <t xml:space="preserve">2.6425154209137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60443925857544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60291576385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67602324485779</t>
+    <t xml:space="preserve">2.60443902015686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60291600227356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67602372169495</t>
   </si>
   <si>
     <t xml:space="preserve">2.63946938514709</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66383862495422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69582271575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69734644889832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75217604637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7140998840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66536116600037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68363857269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68668484687805</t>
+    <t xml:space="preserve">2.66383838653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69582295417786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69734621047974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75217628479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71410012245178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66536140441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68363904953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68668508529663</t>
   </si>
   <si>
     <t xml:space="preserve">2.68820786476135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68516159057617</t>
+    <t xml:space="preserve">2.68516182899475</t>
   </si>
   <si>
     <t xml:space="preserve">2.73694562911987</t>
@@ -893,13 +893,13 @@
     <t xml:space="preserve">2.74933695793152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70596623420715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70906472206116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65020561218262</t>
+    <t xml:space="preserve">2.70596647262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70906448364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6502058506012</t>
   </si>
   <si>
     <t xml:space="preserve">2.70131993293762</t>
@@ -923,10 +923,10 @@
     <t xml:space="preserve">2.63161873817444</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65640139579773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63626527786255</t>
+    <t xml:space="preserve">2.65640115737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63626551628113</t>
   </si>
   <si>
     <t xml:space="preserve">2.65795016288757</t>
@@ -935,7 +935,7 @@
     <t xml:space="preserve">2.63316750526428</t>
   </si>
   <si>
-    <t xml:space="preserve">2.659499168396</t>
+    <t xml:space="preserve">2.65949940681458</t>
   </si>
   <si>
     <t xml:space="preserve">2.66569447517395</t>
@@ -950,7 +950,7 @@
     <t xml:space="preserve">2.71835851669312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78805994987488</t>
+    <t xml:space="preserve">2.7880597114563</t>
   </si>
   <si>
     <t xml:space="preserve">2.7415919303894</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">2.80045104026794</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81903743743896</t>
+    <t xml:space="preserve">2.81903767585754</t>
   </si>
   <si>
     <t xml:space="preserve">2.80974459648132</t>
@@ -980,13 +980,13 @@
     <t xml:space="preserve">2.92126703262329</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93210959434509</t>
+    <t xml:space="preserve">2.93210911750793</t>
   </si>
   <si>
     <t xml:space="preserve">2.91662001609802</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90577793121338</t>
+    <t xml:space="preserve">2.90577816963196</t>
   </si>
   <si>
     <t xml:space="preserve">2.90732669830322</t>
@@ -1013,13 +1013,13 @@
     <t xml:space="preserve">2.87015271186829</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86240839958191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86085963249207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84227156639099</t>
+    <t xml:space="preserve">2.86240816116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86085939407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84227180480957</t>
   </si>
   <si>
     <t xml:space="preserve">2.84072279930115</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">2.84846830368042</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83452725410461</t>
+    <t xml:space="preserve">2.83452701568604</t>
   </si>
   <si>
     <t xml:space="preserve">2.78341293334961</t>
@@ -1043,13 +1043,13 @@
     <t xml:space="preserve">2.78960847854614</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72610306739807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76017928123474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70441746711731</t>
+    <t xml:space="preserve">2.72610282897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76017951965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70441770553589</t>
   </si>
   <si>
     <t xml:space="preserve">2.66259694099426</t>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">2.6997709274292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69047737121582</t>
+    <t xml:space="preserve">2.69047713279724</t>
   </si>
   <si>
     <t xml:space="preserve">2.69822192192078</t>
@@ -1073,13 +1073,13 @@
     <t xml:space="preserve">2.73384761810303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68583059310913</t>
+    <t xml:space="preserve">2.68583035469055</t>
   </si>
   <si>
     <t xml:space="preserve">2.73229885101318</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72765183448792</t>
+    <t xml:space="preserve">2.72765207290649</t>
   </si>
   <si>
     <t xml:space="preserve">2.71680974960327</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">2.76327705383301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82988023757935</t>
+    <t xml:space="preserve">2.82988047599792</t>
   </si>
   <si>
     <t xml:space="preserve">2.8174889087677</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">2.77411961555481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70286870002747</t>
+    <t xml:space="preserve">2.70286846160889</t>
   </si>
   <si>
     <t xml:space="preserve">2.69512414932251</t>
@@ -1109,13 +1109,13 @@
     <t xml:space="preserve">2.71526002883911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66879272460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64865684509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68273258209229</t>
+    <t xml:space="preserve">2.6687924861908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64865660667419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68273282051086</t>
   </si>
   <si>
     <t xml:space="preserve">2.66104817390442</t>
@@ -1124,40 +1124,40 @@
     <t xml:space="preserve">2.67189049720764</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67653727531433</t>
+    <t xml:space="preserve">2.67653751373291</t>
   </si>
   <si>
     <t xml:space="preserve">2.65485239028931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69202637672424</t>
+    <t xml:space="preserve">2.69202613830566</t>
   </si>
   <si>
     <t xml:space="preserve">2.62387418746948</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57895469665527</t>
+    <t xml:space="preserve">2.57895493507385</t>
   </si>
   <si>
     <t xml:space="preserve">2.63006949424744</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58205246925354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45968866348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4070246219635</t>
+    <t xml:space="preserve">2.58205270767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45968842506409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40702486038208</t>
   </si>
   <si>
     <t xml:space="preserve">2.44419860839844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34042119979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35436177253723</t>
+    <t xml:space="preserve">2.34042143821716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35436153411865</t>
   </si>
   <si>
     <t xml:space="preserve">2.37914419174194</t>
@@ -1172,22 +1172,22 @@
     <t xml:space="preserve">2.44884538650513</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49066662788391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5154492855072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54797697067261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58670020103455</t>
+    <t xml:space="preserve">2.49066638946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51544952392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54797673225403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58670043945312</t>
   </si>
   <si>
     <t xml:space="preserve">2.50925374031067</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52474308013916</t>
+    <t xml:space="preserve">2.52474284172058</t>
   </si>
   <si>
     <t xml:space="preserve">2.52784085273743</t>
@@ -1199,16 +1199,16 @@
     <t xml:space="preserve">2.54642772674561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56346583366394</t>
+    <t xml:space="preserve">2.56346607208252</t>
   </si>
   <si>
     <t xml:space="preserve">2.5712103843689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57740616798401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50305819511414</t>
+    <t xml:space="preserve">2.57740592956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50305795669556</t>
   </si>
   <si>
     <t xml:space="preserve">2.4565896987915</t>
@@ -1217,25 +1217,25 @@
     <t xml:space="preserve">2.36210632324219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39928007125854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39773106575012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39308452606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33887243270874</t>
+    <t xml:space="preserve">2.39928030967712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3977313041687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39308428764343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33887267112732</t>
   </si>
   <si>
     <t xml:space="preserve">2.37604641914368</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40547561645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35745930671692</t>
+    <t xml:space="preserve">2.40547585487366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3574595451355</t>
   </si>
   <si>
     <t xml:space="preserve">2.38533997535706</t>
@@ -1253,10 +1253,10 @@
     <t xml:space="preserve">2.55881881713867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55726981163025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51390075683594</t>
+    <t xml:space="preserve">2.55727005004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51390051841736</t>
   </si>
   <si>
     <t xml:space="preserve">2.51235151290894</t>
@@ -1265,28 +1265,28 @@
     <t xml:space="preserve">2.53403639793396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56501460075378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57430791854858</t>
+    <t xml:space="preserve">2.56501483917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57430815696716</t>
   </si>
   <si>
     <t xml:space="preserve">2.57585716247559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49376440048218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51699805259705</t>
+    <t xml:space="preserve">2.49376487731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51699829101562</t>
   </si>
   <si>
     <t xml:space="preserve">2.49996042251587</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47672605514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38843822479248</t>
+    <t xml:space="preserve">2.47672653198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38843774795532</t>
   </si>
   <si>
     <t xml:space="preserve">2.47982430458069</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">2.47207999229431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5417811870575</t>
+    <t xml:space="preserve">2.54178094863892</t>
   </si>
   <si>
     <t xml:space="preserve">2.60218930244446</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">2.46433520317078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54333019256592</t>
+    <t xml:space="preserve">2.54332995414734</t>
   </si>
   <si>
     <t xml:space="preserve">2.49686241149902</t>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">2.56966114044189</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55572104454041</t>
+    <t xml:space="preserve">2.55572128295898</t>
   </si>
   <si>
     <t xml:space="preserve">2.78651094436646</t>
@@ -1352,7 +1352,7 @@
     <t xml:space="preserve">2.91352248191833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90267992019653</t>
+    <t xml:space="preserve">2.90267968177795</t>
   </si>
   <si>
     <t xml:space="preserve">2.95069646835327</t>
@@ -1379,13 +1379,13 @@
     <t xml:space="preserve">3.03124046325684</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92591428756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9847731590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95224499702454</t>
+    <t xml:space="preserve">2.92591404914856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98477339744568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95224523544312</t>
   </si>
   <si>
     <t xml:space="preserve">3.02659392356873</t>
@@ -1403,7 +1403,7 @@
     <t xml:space="preserve">2.93365836143494</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82213592529297</t>
+    <t xml:space="preserve">2.82213568687439</t>
   </si>
   <si>
     <t xml:space="preserve">2.85056233406067</t>
@@ -1430,13 +1430,13 @@
     <t xml:space="preserve">2.7021119594574</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74791026115417</t>
+    <t xml:space="preserve">2.74791049957275</t>
   </si>
   <si>
     <t xml:space="preserve">2.79686784744263</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76054453849792</t>
+    <t xml:space="preserve">2.76054430007935</t>
   </si>
   <si>
     <t xml:space="preserve">2.69895362854004</t>
@@ -1451,10 +1451,10 @@
     <t xml:space="preserve">2.7747585773468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73053860664368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74317264556885</t>
+    <t xml:space="preserve">2.7305383682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74317240715027</t>
   </si>
   <si>
     <t xml:space="preserve">2.73843479156494</t>
@@ -1463,10 +1463,10 @@
     <t xml:space="preserve">2.72738027572632</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75422763824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69263648986816</t>
+    <t xml:space="preserve">2.75422739982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69263672828674</t>
   </si>
   <si>
     <t xml:space="preserve">2.68947815895081</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">2.8426661491394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84898281097412</t>
+    <t xml:space="preserve">2.8489830493927</t>
   </si>
   <si>
     <t xml:space="preserve">2.89793968200684</t>
@@ -1496,7 +1496,7 @@
     <t xml:space="preserve">2.80634331703186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.820556640625</t>
+    <t xml:space="preserve">2.82055640220642</t>
   </si>
   <si>
     <t xml:space="preserve">2.8379282951355</t>
@@ -1505,7 +1505,7 @@
     <t xml:space="preserve">2.83161115646362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.855299949646</t>
+    <t xml:space="preserve">2.85530018806458</t>
   </si>
   <si>
     <t xml:space="preserve">2.83319067955017</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">2.91057467460632</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92794609069824</t>
+    <t xml:space="preserve">2.92794632911682</t>
   </si>
   <si>
     <t xml:space="preserve">2.98006176948547</t>
@@ -1538,13 +1538,13 @@
     <t xml:space="preserve">2.88372659683228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88056826591492</t>
+    <t xml:space="preserve">2.88056802749634</t>
   </si>
   <si>
     <t xml:space="preserve">2.86793398857117</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83476996421814</t>
+    <t xml:space="preserve">2.83476972579956</t>
   </si>
   <si>
     <t xml:space="preserve">2.83003211021423</t>
@@ -1556,7 +1556,7 @@
     <t xml:space="preserve">2.80002641677856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79528832435608</t>
+    <t xml:space="preserve">2.79528856277466</t>
   </si>
   <si>
     <t xml:space="preserve">2.77317905426025</t>
@@ -1568,7 +1568,7 @@
     <t xml:space="preserve">2.71632528305054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66578936576843</t>
+    <t xml:space="preserve">2.66578912734985</t>
   </si>
   <si>
     <t xml:space="preserve">2.64841771125793</t>
@@ -1580,7 +1580,7 @@
     <t xml:space="preserve">2.74633097648621</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86161684989929</t>
+    <t xml:space="preserve">2.86161708831787</t>
   </si>
   <si>
     <t xml:space="preserve">2.86477541923523</t>
@@ -1610,10 +1610,10 @@
     <t xml:space="preserve">2.59472227096558</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59156394004822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53471088409424</t>
+    <t xml:space="preserve">2.59156370162964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53471112251282</t>
   </si>
   <si>
     <t xml:space="preserve">2.559978723526</t>
@@ -1643,10 +1643,10 @@
     <t xml:space="preserve">2.3104555606842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3594126701355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34993696212769</t>
+    <t xml:space="preserve">2.35941243171692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34993720054626</t>
   </si>
   <si>
     <t xml:space="preserve">2.29150485992432</t>
@@ -1667,13 +1667,13 @@
     <t xml:space="preserve">2.19832849502563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25518226623535</t>
+    <t xml:space="preserve">2.25518202781677</t>
   </si>
   <si>
     <t xml:space="preserve">2.20464515686035</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20148682594299</t>
+    <t xml:space="preserve">2.20148658752441</t>
   </si>
   <si>
     <t xml:space="preserve">2.2425479888916</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">2.2883460521698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26781630516052</t>
+    <t xml:space="preserve">2.26781606674194</t>
   </si>
   <si>
     <t xml:space="preserve">2.24886512756348</t>
@@ -1697,10 +1697,10 @@
     <t xml:space="preserve">2.23938870429993</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19517016410828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21569991111755</t>
+    <t xml:space="preserve">2.1951699256897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21570014953613</t>
   </si>
   <si>
     <t xml:space="preserve">2.19674897193909</t>
@@ -1724,16 +1724,16 @@
     <t xml:space="preserve">2.10199332237244</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12568259239197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22833395004272</t>
+    <t xml:space="preserve">2.12568283081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2283341884613</t>
   </si>
   <si>
     <t xml:space="preserve">2.21096181869507</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22675466537476</t>
+    <t xml:space="preserve">2.22675490379333</t>
   </si>
   <si>
     <t xml:space="preserve">2.19201159477234</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">2.09567618370056</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12410354614258</t>
+    <t xml:space="preserve">2.12410378456116</t>
   </si>
   <si>
     <t xml:space="preserve">2.08304214477539</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">2.10830998420715</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02776885032654</t>
+    <t xml:space="preserve">2.02776861190796</t>
   </si>
   <si>
     <t xml:space="preserve">2.12252426147461</t>
@@ -1772,13 +1772,13 @@
     <t xml:space="preserve">2.05145740509033</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00881743431091</t>
+    <t xml:space="preserve">2.00881719589233</t>
   </si>
   <si>
     <t xml:space="preserve">2.00723814964294</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07830452919006</t>
+    <t xml:space="preserve">2.07830476760864</t>
   </si>
   <si>
     <t xml:space="preserve">2.06409120559692</t>
@@ -1790,13 +1790,13 @@
     <t xml:space="preserve">2.1462128162384</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13673734664917</t>
+    <t xml:space="preserve">2.13673758506775</t>
   </si>
   <si>
     <t xml:space="preserve">2.13357901573181</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0877799987793</t>
+    <t xml:space="preserve">2.08777976036072</t>
   </si>
   <si>
     <t xml:space="preserve">2.02303075790405</t>
@@ -1811,25 +1811,25 @@
     <t xml:space="preserve">2.02934765815735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99776268005371</t>
+    <t xml:space="preserve">1.99776244163513</t>
   </si>
   <si>
     <t xml:space="preserve">1.98512887954712</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96933507919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01987242698669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98354935646057</t>
+    <t xml:space="preserve">1.96933531761169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01987218856812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98354947566986</t>
   </si>
   <si>
     <t xml:space="preserve">1.95512211322784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90932393074036</t>
+    <t xml:space="preserve">1.90932416915894</t>
   </si>
   <si>
     <t xml:space="preserve">1.8382568359375</t>
@@ -1838,19 +1838,19 @@
     <t xml:space="preserve">1.8161473274231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83193981647491</t>
+    <t xml:space="preserve">1.8319399356842</t>
   </si>
   <si>
     <t xml:space="preserve">1.8556295633316</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91090309619904</t>
+    <t xml:space="preserve">1.91090333461761</t>
   </si>
   <si>
     <t xml:space="preserve">1.88879370689392</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88721430301666</t>
+    <t xml:space="preserve">1.88721454143524</t>
   </si>
   <si>
     <t xml:space="preserve">1.91406190395355</t>
@@ -1871,16 +1871,16 @@
     <t xml:space="preserve">1.97723174095154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97091448307037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9630184173584</t>
+    <t xml:space="preserve">1.97091472148895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96301817893982</t>
   </si>
   <si>
     <t xml:space="preserve">1.9740731716156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96775615215302</t>
+    <t xml:space="preserve">1.96775639057159</t>
   </si>
   <si>
     <t xml:space="preserve">2.03250622749329</t>
@@ -1904,7 +1904,7 @@
     <t xml:space="preserve">1.93301248550415</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91879940032959</t>
+    <t xml:space="preserve">1.91879916191101</t>
   </si>
   <si>
     <t xml:space="preserve">1.88089752197266</t>
@@ -1934,7 +1934,7 @@
     <t xml:space="preserve">1.92511653900146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93617129325867</t>
+    <t xml:space="preserve">1.93617105484009</t>
   </si>
   <si>
     <t xml:space="preserve">1.90774476528168</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">1.89037263393402</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89826893806458</t>
+    <t xml:space="preserve">1.89826917648315</t>
   </si>
   <si>
     <t xml:space="preserve">1.90458607673645</t>
@@ -1964,10 +1964,10 @@
     <t xml:space="preserve">1.91564083099365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87300145626068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78456234931946</t>
+    <t xml:space="preserve">1.8730012178421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78456258773804</t>
   </si>
   <si>
     <t xml:space="preserve">1.79877579212189</t>
@@ -61917,7 +61917,7 @@
     </row>
     <row r="2172">
       <c r="A2172" s="1" t="n">
-        <v>45485.6493518519</v>
+        <v>45485.2916666667</v>
       </c>
       <c r="B2172" t="n">
         <v>886824</v>
@@ -61938,6 +61938,32 @@
         <v>1705</v>
       </c>
       <c r="H2172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" s="1" t="n">
+        <v>45488.6496296296</v>
+      </c>
+      <c r="B2173" t="n">
+        <v>1449431</v>
+      </c>
+      <c r="C2173" t="n">
+        <v>7.03499984741211</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>6.86499977111816</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>6.99499988555908</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>6.98000001907349</v>
+      </c>
+      <c r="G2173" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H2173" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BPSO.MI.xlsx
+++ b/data/BPSO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="1706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="1707">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">BPSO.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00987863540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94444608688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9057822227478</t>
+    <t xml:space="preserve">3.00987887382507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94444632530212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90578174591064</t>
   </si>
   <si>
     <t xml:space="preserve">2.8239917755127</t>
@@ -59,31 +59,31 @@
     <t xml:space="preserve">2.79425024986267</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88496327400208</t>
+    <t xml:space="preserve">2.8849630355835</t>
   </si>
   <si>
     <t xml:space="preserve">2.8909113407135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79722452163696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69164037704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63066983222961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4284245967865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55036616325378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57713413238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53400874137878</t>
+    <t xml:space="preserve">2.79722428321838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6916401386261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63066959381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42842483520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55036640167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57713437080383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53400850296021</t>
   </si>
   <si>
     <t xml:space="preserve">2.69907593727112</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">2.52359914779663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61282515525818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57564687728882</t>
+    <t xml:space="preserve">2.6128249168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5756471157074</t>
   </si>
   <si>
     <t xml:space="preserve">2.48642158508301</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">2.37935090065002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39124727249146</t>
+    <t xml:space="preserve">2.39124751091003</t>
   </si>
   <si>
     <t xml:space="preserve">2.36745429039001</t>
@@ -116,19 +116,19 @@
     <t xml:space="preserve">2.18602848052979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2098217010498</t>
+    <t xml:space="preserve">2.20982193946838</t>
   </si>
   <si>
     <t xml:space="preserve">2.29607343673706</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22469234466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33771157264709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38381195068359</t>
+    <t xml:space="preserve">2.22469282150269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33771181106567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38381218910217</t>
   </si>
   <si>
     <t xml:space="preserve">2.44032144546509</t>
@@ -137,19 +137,19 @@
     <t xml:space="preserve">2.3496081829071</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31986689567566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40611839294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3421733379364</t>
+    <t xml:space="preserve">2.31986665725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40611815452576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34217309951782</t>
   </si>
   <si>
     <t xml:space="preserve">2.33176374435425</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37340259552002</t>
+    <t xml:space="preserve">2.3734028339386</t>
   </si>
   <si>
     <t xml:space="preserve">2.42098951339722</t>
@@ -161,10 +161,10 @@
     <t xml:space="preserve">2.5578019618988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55185341835022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54441857337952</t>
+    <t xml:space="preserve">2.5518536567688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54441809654236</t>
   </si>
   <si>
     <t xml:space="preserve">2.40165710449219</t>
@@ -173,19 +173,19 @@
     <t xml:space="preserve">2.42396354675293</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41057944297791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48493456840515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60687589645386</t>
+    <t xml:space="preserve">2.41057968139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48493480682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60687565803528</t>
   </si>
   <si>
     <t xml:space="preserve">2.52657318115234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46560168266296</t>
+    <t xml:space="preserve">2.46560192108154</t>
   </si>
   <si>
     <t xml:space="preserve">2.51318955421448</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">2.5280601978302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56375002861023</t>
+    <t xml:space="preserve">2.56375026702881</t>
   </si>
   <si>
     <t xml:space="preserve">2.45667934417725</t>
@@ -206,19 +206,19 @@
     <t xml:space="preserve">2.34366011619568</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29161238670349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30053472518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27227997779846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21725702285767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1562864780426</t>
+    <t xml:space="preserve">2.29161214828491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30053496360779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27228045463562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21725678443909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15628671646118</t>
   </si>
   <si>
     <t xml:space="preserve">2.16223502159119</t>
@@ -227,10 +227,10 @@
     <t xml:space="preserve">2.2187442779541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26781892776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27674102783203</t>
+    <t xml:space="preserve">2.26781868934631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27674126625061</t>
   </si>
   <si>
     <t xml:space="preserve">2.38678646087646</t>
@@ -239,16 +239,16 @@
     <t xml:space="preserve">2.46708869934082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39868307113647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45370531082153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49831867218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49237036705017</t>
+    <t xml:space="preserve">2.39868330955505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45370554924011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4983184337616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49237012863159</t>
   </si>
   <si>
     <t xml:space="preserve">2.44180870056152</t>
@@ -257,13 +257,13 @@
     <t xml:space="preserve">2.4893958568573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47303748130798</t>
+    <t xml:space="preserve">2.4730372428894</t>
   </si>
   <si>
     <t xml:space="preserve">2.42247653007507</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39422154426575</t>
+    <t xml:space="preserve">2.39422202110291</t>
   </si>
   <si>
     <t xml:space="preserve">2.31094408035278</t>
@@ -275,37 +275,37 @@
     <t xml:space="preserve">2.23064064979553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24848651885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23807692527771</t>
+    <t xml:space="preserve">2.24848675727844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23807740211487</t>
   </si>
   <si>
     <t xml:space="preserve">2.2559220790863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19495105743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18305444717407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21279573440552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17710566520691</t>
+    <t xml:space="preserve">2.1949508190155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18305420875549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21279621124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17710542678833</t>
   </si>
   <si>
     <t xml:space="preserve">2.22023129463196</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2038733959198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1977813243866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27850294113159</t>
+    <t xml:space="preserve">2.20387315750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19778108596802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27850317955017</t>
   </si>
   <si>
     <t xml:space="preserve">2.35617971420288</t>
@@ -314,22 +314,22 @@
     <t xml:space="preserve">2.30744194984436</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33028769493103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30896496772766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24194955825806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21910405158997</t>
+    <t xml:space="preserve">2.33028745651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30896472930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24195003509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21910381317139</t>
   </si>
   <si>
     <t xml:space="preserve">2.14142727851868</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09725856781006</t>
+    <t xml:space="preserve">2.09725904464722</t>
   </si>
   <si>
     <t xml:space="preserve">2.01044392585754</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">2.07441306114197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08202815055847</t>
+    <t xml:space="preserve">2.08202791213989</t>
   </si>
   <si>
     <t xml:space="preserve">1.97236752510071</t>
@@ -350,31 +350,31 @@
     <t xml:space="preserve">1.90839910507202</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87641441822052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75913846492767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81701505184174</t>
+    <t xml:space="preserve">1.87641417980194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84899938106537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75913834571838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81701529026031</t>
   </si>
   <si>
     <t xml:space="preserve">1.8962140083313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94038343429565</t>
+    <t xml:space="preserve">1.94038319587708</t>
   </si>
   <si>
     <t xml:space="preserve">1.90687537193298</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02872061729431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75152313709259</t>
+    <t xml:space="preserve">2.02872037887573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7515230178833</t>
   </si>
   <si>
     <t xml:space="preserve">1.67689335346222</t>
@@ -383,25 +383,25 @@
     <t xml:space="preserve">1.78807699680328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77436912059784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7560920715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75304627418518</t>
+    <t xml:space="preserve">1.77436888217926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75609195232391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7530460357666</t>
   </si>
   <si>
     <t xml:space="preserve">1.6890777349472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61901664733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63424706459045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64033913612366</t>
+    <t xml:space="preserve">1.61901652812958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63424718379974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64033925533295</t>
   </si>
   <si>
     <t xml:space="preserve">1.7545690536499</t>
@@ -410,31 +410,31 @@
     <t xml:space="preserve">1.79112339019775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81549191474915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78960013389587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86727619171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8307226896286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84443020820618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9023060798645</t>
+    <t xml:space="preserve">1.81549215316772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78960037231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86727595329285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83072257041931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84443008899689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90230631828308</t>
   </si>
   <si>
     <t xml:space="preserve">1.89316785335541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85052216053009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81853818893433</t>
+    <t xml:space="preserve">1.8505220413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81853806972504</t>
   </si>
   <si>
     <t xml:space="preserve">1.84747624397278</t>
@@ -446,76 +446,76 @@
     <t xml:space="preserve">1.78198480606079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66470873355865</t>
+    <t xml:space="preserve">1.66470909118652</t>
   </si>
   <si>
     <t xml:space="preserve">1.6875547170639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62967789173126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74999976158142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77741503715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76523053646088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80787694454193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8368147611618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82767641544342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82158446311951</t>
+    <t xml:space="preserve">1.62967777252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75000011920929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77741479873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76523041725159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80787670612335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83681488037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.827676653862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82158434391022</t>
   </si>
   <si>
     <t xml:space="preserve">1.86879909038544</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82919991016388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84290719032288</t>
+    <t xml:space="preserve">1.82919955253601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84290707111359</t>
   </si>
   <si>
     <t xml:space="preserve">1.85509157180786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90992200374603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90535223484039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89773690700531</t>
+    <t xml:space="preserve">1.90992248058319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90535247325897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89773714542389</t>
   </si>
   <si>
     <t xml:space="preserve">1.89012157917023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88098335266113</t>
+    <t xml:space="preserve">1.88098359107971</t>
   </si>
   <si>
     <t xml:space="preserve">1.88859868049622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86575269699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89469110965729</t>
+    <t xml:space="preserve">1.86575281620026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89469134807587</t>
   </si>
   <si>
     <t xml:space="preserve">1.87336826324463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85813748836517</t>
+    <t xml:space="preserve">1.85813760757446</t>
   </si>
   <si>
     <t xml:space="preserve">1.91144514083862</t>
@@ -524,13 +524,13 @@
     <t xml:space="preserve">1.98455190658569</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9815057516098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94190680980682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96627521514893</t>
+    <t xml:space="preserve">1.98150599002838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94190633296967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96627509593964</t>
   </si>
   <si>
     <t xml:space="preserve">1.97998285293579</t>
@@ -539,22 +539,22 @@
     <t xml:space="preserve">1.99216735363007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08659744262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11705875396729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24804210662842</t>
+    <t xml:space="preserve">2.08659768104553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11705851554871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24804186820984</t>
   </si>
   <si>
     <t xml:space="preserve">2.25870323181152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22367334365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23433470726013</t>
+    <t xml:space="preserve">2.22367310523987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23433446884155</t>
   </si>
   <si>
     <t xml:space="preserve">2.23738074302673</t>
@@ -566,13 +566,13 @@
     <t xml:space="preserve">2.31505703926086</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33790278434753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26479554176331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14295029640198</t>
+    <t xml:space="preserve">2.33790326118469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26479578018188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14295053482056</t>
   </si>
   <si>
     <t xml:space="preserve">2.18407368659973</t>
@@ -587,19 +587,19 @@
     <t xml:space="preserve">2.20996570587158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26631855964661</t>
+    <t xml:space="preserve">2.26631879806519</t>
   </si>
   <si>
     <t xml:space="preserve">2.27697992324829</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31658005714417</t>
+    <t xml:space="preserve">2.31658053398132</t>
   </si>
   <si>
     <t xml:space="preserve">2.31353402137756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28459501266479</t>
+    <t xml:space="preserve">2.28459548950195</t>
   </si>
   <si>
     <t xml:space="preserve">2.22976517677307</t>
@@ -608,28 +608,28 @@
     <t xml:space="preserve">2.18102741241455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22519636154175</t>
+    <t xml:space="preserve">2.22519612312317</t>
   </si>
   <si>
     <t xml:space="preserve">2.24956488609314</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23890376091003</t>
+    <t xml:space="preserve">2.23890399932861</t>
   </si>
   <si>
     <t xml:space="preserve">2.15361189842224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27545666694641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25413370132446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22062683105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32267260551453</t>
+    <t xml:space="preserve">2.27545714378357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2541344165802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22062706947327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32267212867737</t>
   </si>
   <si>
     <t xml:space="preserve">2.43690228462219</t>
@@ -650,7 +650,7 @@
     <t xml:space="preserve">2.39121007919312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33333420753479</t>
+    <t xml:space="preserve">2.33333373069763</t>
   </si>
   <si>
     <t xml:space="preserve">2.32419538497925</t>
@@ -662,22 +662,22 @@
     <t xml:space="preserve">2.38054847717285</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37597942352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3622715473175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38207149505615</t>
+    <t xml:space="preserve">2.37597918510437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36227202415466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38207173347473</t>
   </si>
   <si>
     <t xml:space="preserve">2.42624068260193</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47497868537903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48259401321411</t>
+    <t xml:space="preserve">2.47497844696045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48259425163269</t>
   </si>
   <si>
     <t xml:space="preserve">2.51000881195068</t>
@@ -686,10 +686,10 @@
     <t xml:space="preserve">2.50848603248596</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46888613700867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46127080917358</t>
+    <t xml:space="preserve">2.46888637542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46127104759216</t>
   </si>
   <si>
     <t xml:space="preserve">2.45974802970886</t>
@@ -698,28 +698,28 @@
     <t xml:space="preserve">2.52828574180603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52067041397095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50696301460266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57397818565369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58920860290527</t>
+    <t xml:space="preserve">2.52066993713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50696277618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57397794723511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58920836448669</t>
   </si>
   <si>
     <t xml:space="preserve">2.62728476524353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58311653137207</t>
+    <t xml:space="preserve">2.58311605453491</t>
   </si>
   <si>
     <t xml:space="preserve">2.58768558502197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59682369232178</t>
+    <t xml:space="preserve">2.59682393074036</t>
   </si>
   <si>
     <t xml:space="preserve">2.61814665794373</t>
@@ -731,16 +731,16 @@
     <t xml:space="preserve">2.50391674041748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49630165100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53285503387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4932553768158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44451761245728</t>
+    <t xml:space="preserve">2.4963014125824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53285479545593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49325561523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44451785087585</t>
   </si>
   <si>
     <t xml:space="preserve">2.46431732177734</t>
@@ -749,28 +749,28 @@
     <t xml:space="preserve">2.48868608474731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50087070465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47345542907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46279406547546</t>
+    <t xml:space="preserve">2.5008704662323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47345566749573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46279382705688</t>
   </si>
   <si>
     <t xml:space="preserve">2.41710257530212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28002595901489</t>
+    <t xml:space="preserve">2.28002619743347</t>
   </si>
   <si>
     <t xml:space="preserve">2.28611826896667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44756317138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38816404342651</t>
+    <t xml:space="preserve">2.44756364822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38816356658936</t>
   </si>
   <si>
     <t xml:space="preserve">2.43537902832031</t>
@@ -785,43 +785,43 @@
     <t xml:space="preserve">2.50543975830078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54808592796326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49477815628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53590083122253</t>
+    <t xml:space="preserve">2.54808640480042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4947783946991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53590106964111</t>
   </si>
   <si>
     <t xml:space="preserve">2.51610112190247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45822525024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46736359596252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45060992240906</t>
+    <t xml:space="preserve">2.45822501182556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46736335754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45060968399048</t>
   </si>
   <si>
     <t xml:space="preserve">2.48564028739929</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44604086875916</t>
+    <t xml:space="preserve">2.44604063034058</t>
   </si>
   <si>
     <t xml:space="preserve">2.45365595817566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45670199394226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47040939331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52371621131897</t>
+    <t xml:space="preserve">2.45670223236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47040963172913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52371644973755</t>
   </si>
   <si>
     <t xml:space="preserve">2.47650170326233</t>
@@ -830,52 +830,52 @@
     <t xml:space="preserve">2.49782466888428</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6425154209137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60443902015686</t>
+    <t xml:space="preserve">2.64251565933228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60443878173828</t>
   </si>
   <si>
     <t xml:space="preserve">2.60291600227356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67602372169495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63946938514709</t>
+    <t xml:space="preserve">2.67602396011353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63946962356567</t>
   </si>
   <si>
     <t xml:space="preserve">2.66383838653564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69582295417786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69734621047974</t>
+    <t xml:space="preserve">2.69582319259644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69734644889832</t>
   </si>
   <si>
     <t xml:space="preserve">2.75217628479004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71410012245178</t>
+    <t xml:space="preserve">2.7140998840332</t>
   </si>
   <si>
     <t xml:space="preserve">2.66536140441895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68363904953003</t>
+    <t xml:space="preserve">2.68363857269287</t>
   </si>
   <si>
     <t xml:space="preserve">2.68668508529663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68820786476135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68516182899475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73694562911987</t>
+    <t xml:space="preserve">2.68820810317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68516206741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73694539070129</t>
   </si>
   <si>
     <t xml:space="preserve">2.75553250312805</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">2.70906448364258</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6502058506012</t>
+    <t xml:space="preserve">2.65020537376404</t>
   </si>
   <si>
     <t xml:space="preserve">2.70131993293762</t>
@@ -908,7 +908,7 @@
     <t xml:space="preserve">2.69357514381409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64710760116577</t>
+    <t xml:space="preserve">2.64710783958435</t>
   </si>
   <si>
     <t xml:space="preserve">2.66724371910095</t>
@@ -917,31 +917,31 @@
     <t xml:space="preserve">2.65175461769104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69667339324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63161873817444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65640115737915</t>
+    <t xml:space="preserve">2.69667291641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63161897659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65640139579773</t>
   </si>
   <si>
     <t xml:space="preserve">2.63626551628113</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65795016288757</t>
+    <t xml:space="preserve">2.65795040130615</t>
   </si>
   <si>
     <t xml:space="preserve">2.63316750526428</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65949940681458</t>
+    <t xml:space="preserve">2.659499168396</t>
   </si>
   <si>
     <t xml:space="preserve">2.66569447517395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66414570808411</t>
+    <t xml:space="preserve">2.66414594650269</t>
   </si>
   <si>
     <t xml:space="preserve">2.68737959861755</t>
@@ -953,16 +953,16 @@
     <t xml:space="preserve">2.7880597114563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7415919303894</t>
+    <t xml:space="preserve">2.74159216880798</t>
   </si>
   <si>
     <t xml:space="preserve">2.67343950271606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77721738815308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85311460494995</t>
+    <t xml:space="preserve">2.77721762657166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85311484336853</t>
   </si>
   <si>
     <t xml:space="preserve">2.80045104026794</t>
@@ -971,19 +971,19 @@
     <t xml:space="preserve">2.81903767585754</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80974459648132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80354857444763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92126703262329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93210911750793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91662001609802</t>
+    <t xml:space="preserve">2.80974435806274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80354881286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92126727104187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93210959434509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9166202545166</t>
   </si>
   <si>
     <t xml:space="preserve">2.90577816963196</t>
@@ -992,28 +992,28 @@
     <t xml:space="preserve">2.90732669830322</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90113091468811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88099503517151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87789726257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87944626808167</t>
+    <t xml:space="preserve">2.90113115310669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88099527359009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87789750099182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87944602966309</t>
   </si>
   <si>
     <t xml:space="preserve">2.90422892570496</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83917379379272</t>
+    <t xml:space="preserve">2.83917355537415</t>
   </si>
   <si>
     <t xml:space="preserve">2.87015271186829</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86240816116333</t>
+    <t xml:space="preserve">2.86240839958191</t>
   </si>
   <si>
     <t xml:space="preserve">2.86085939407349</t>
@@ -1028,13 +1028,13 @@
     <t xml:space="preserve">2.85776138305664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84846830368042</t>
+    <t xml:space="preserve">2.84846806526184</t>
   </si>
   <si>
     <t xml:space="preserve">2.83452701568604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78341293334961</t>
+    <t xml:space="preserve">2.78341269493103</t>
   </si>
   <si>
     <t xml:space="preserve">2.81129336357117</t>
@@ -1043,10 +1043,10 @@
     <t xml:space="preserve">2.78960847854614</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72610282897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76017951965332</t>
+    <t xml:space="preserve">2.72610306739807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76017928123474</t>
   </si>
   <si>
     <t xml:space="preserve">2.70441770553589</t>
@@ -1055,13 +1055,13 @@
     <t xml:space="preserve">2.66259694099426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68118405342102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6997709274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69047713279724</t>
+    <t xml:space="preserve">2.68118381500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69977068901062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6904776096344</t>
   </si>
   <si>
     <t xml:space="preserve">2.69822192192078</t>
@@ -1070,13 +1070,13 @@
     <t xml:space="preserve">2.71371102333069</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73384761810303</t>
+    <t xml:space="preserve">2.73384785652161</t>
   </si>
   <si>
     <t xml:space="preserve">2.68583035469055</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73229885101318</t>
+    <t xml:space="preserve">2.73229908943176</t>
   </si>
   <si>
     <t xml:space="preserve">2.72765207290649</t>
@@ -1088,19 +1088,19 @@
     <t xml:space="preserve">2.76327705383301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82988047599792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8174889087677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77411961555481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70286846160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69512414932251</t>
+    <t xml:space="preserve">2.82988023757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81748914718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77411937713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70286870002747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69512438774109</t>
   </si>
   <si>
     <t xml:space="preserve">2.67034125328064</t>
@@ -1109,37 +1109,37 @@
     <t xml:space="preserve">2.71526002883911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6687924861908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64865660667419</t>
+    <t xml:space="preserve">2.66879296302795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64865684509277</t>
   </si>
   <si>
     <t xml:space="preserve">2.68273282051086</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66104817390442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67189049720764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67653751373291</t>
+    <t xml:space="preserve">2.66104793548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67189025878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67653703689575</t>
   </si>
   <si>
     <t xml:space="preserve">2.65485239028931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69202613830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62387418746948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57895493507385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63006949424744</t>
+    <t xml:space="preserve">2.69202589988708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62387442588806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57895517349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63006973266602</t>
   </si>
   <si>
     <t xml:space="preserve">2.58205270767212</t>
@@ -1154,10 +1154,10 @@
     <t xml:space="preserve">2.44419860839844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34042143821716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35436153411865</t>
+    <t xml:space="preserve">2.34042119979858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35436177253723</t>
   </si>
   <si>
     <t xml:space="preserve">2.37914419174194</t>
@@ -1166,40 +1166,40 @@
     <t xml:space="preserve">2.42406272888184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44729661941528</t>
+    <t xml:space="preserve">2.4472963809967</t>
   </si>
   <si>
     <t xml:space="preserve">2.44884538650513</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49066638946533</t>
+    <t xml:space="preserve">2.49066686630249</t>
   </si>
   <si>
     <t xml:space="preserve">2.51544952392578</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54797673225403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58670043945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50925374031067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52474284172058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52784085273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50770497322083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54642772674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56346607208252</t>
+    <t xml:space="preserve">2.54797649383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58670020103455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50925350189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52474308013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52784061431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5077052116394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54642796516418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56346535682678</t>
   </si>
   <si>
     <t xml:space="preserve">2.5712103843689</t>
@@ -1208,22 +1208,22 @@
     <t xml:space="preserve">2.57740592956543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50305795669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4565896987915</t>
+    <t xml:space="preserve">2.50305819511414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45658993721008</t>
   </si>
   <si>
     <t xml:space="preserve">2.36210632324219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39928030967712</t>
+    <t xml:space="preserve">2.39928007125854</t>
   </si>
   <si>
     <t xml:space="preserve">2.3977313041687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39308428764343</t>
+    <t xml:space="preserve">2.39308452606201</t>
   </si>
   <si>
     <t xml:space="preserve">2.33887267112732</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">2.37604641914368</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40547585487366</t>
+    <t xml:space="preserve">2.40547561645508</t>
   </si>
   <si>
     <t xml:space="preserve">2.3574595451355</t>
@@ -1247,13 +1247,13 @@
     <t xml:space="preserve">2.47827553749084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47517776489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55881881713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55727005004883</t>
+    <t xml:space="preserve">2.47517800331116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55881905555725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55727028846741</t>
   </si>
   <si>
     <t xml:space="preserve">2.51390051841736</t>
@@ -1265,25 +1265,25 @@
     <t xml:space="preserve">2.53403639793396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56501483917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57430815696716</t>
+    <t xml:space="preserve">2.56501460075378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57430791854858</t>
   </si>
   <si>
     <t xml:space="preserve">2.57585716247559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49376487731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51699829101562</t>
+    <t xml:space="preserve">2.49376463890076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51699805259705</t>
   </si>
   <si>
     <t xml:space="preserve">2.49996042251587</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47672653198242</t>
+    <t xml:space="preserve">2.47672629356384</t>
   </si>
   <si>
     <t xml:space="preserve">2.38843774795532</t>
@@ -1304,13 +1304,13 @@
     <t xml:space="preserve">2.54178094863892</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60218930244446</t>
+    <t xml:space="preserve">2.60218906402588</t>
   </si>
   <si>
     <t xml:space="preserve">2.53248739242554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48137307167053</t>
+    <t xml:space="preserve">2.48137331008911</t>
   </si>
   <si>
     <t xml:space="preserve">2.52164506912231</t>
@@ -1322,55 +1322,55 @@
     <t xml:space="preserve">2.49531364440918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47053098678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46433520317078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54332995414734</t>
+    <t xml:space="preserve">2.47053122520447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46433544158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54332971572876</t>
   </si>
   <si>
     <t xml:space="preserve">2.49686241149902</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49221563339233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56811237335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56966114044189</t>
+    <t xml:space="preserve">2.49221587181091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56811261177063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56966137886047</t>
   </si>
   <si>
     <t xml:space="preserve">2.55572128295898</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78651094436646</t>
+    <t xml:space="preserve">2.78651070594788</t>
   </si>
   <si>
     <t xml:space="preserve">2.91352248191833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90267968177795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95069646835327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97547960281372</t>
+    <t xml:space="preserve">2.90267992019653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95069622993469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9754798412323</t>
   </si>
   <si>
     <t xml:space="preserve">3.05137634277344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04363179206848</t>
+    <t xml:space="preserve">3.04363203048706</t>
   </si>
   <si>
     <t xml:space="preserve">3.03588700294495</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07306122779846</t>
+    <t xml:space="preserve">3.07306098937988</t>
   </si>
   <si>
     <t xml:space="preserve">3.10713791847229</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">2.98477339744568</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95224523544312</t>
+    <t xml:space="preserve">2.95224499702454</t>
   </si>
   <si>
     <t xml:space="preserve">3.02659392356873</t>
@@ -1403,7 +1403,7 @@
     <t xml:space="preserve">2.93365836143494</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82213568687439</t>
+    <t xml:space="preserve">2.82213592529297</t>
   </si>
   <si>
     <t xml:space="preserve">2.85056233406067</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">2.90583682060242</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89636039733887</t>
+    <t xml:space="preserve">2.89636063575745</t>
   </si>
   <si>
     <t xml:space="preserve">2.81897735595703</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">2.70842885971069</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65947246551514</t>
+    <t xml:space="preserve">2.65947222709656</t>
   </si>
   <si>
     <t xml:space="preserve">2.7021119594574</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">2.74791049957275</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79686784744263</t>
+    <t xml:space="preserve">2.79686808586121</t>
   </si>
   <si>
     <t xml:space="preserve">2.76054430007935</t>
@@ -1445,22 +1445,22 @@
     <t xml:space="preserve">2.77633762359619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80476403236389</t>
+    <t xml:space="preserve">2.80476379394531</t>
   </si>
   <si>
     <t xml:space="preserve">2.7747585773468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7305383682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74317240715027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73843479156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72738027572632</t>
+    <t xml:space="preserve">2.73053860664368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74317264556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73843455314636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72738003730774</t>
   </si>
   <si>
     <t xml:space="preserve">2.75422739982605</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">2.69263672828674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68947815895081</t>
+    <t xml:space="preserve">2.68947792053223</t>
   </si>
   <si>
     <t xml:space="preserve">2.71790432929993</t>
@@ -1481,37 +1481,37 @@
     <t xml:space="preserve">2.8426661491394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8489830493927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89793968200684</t>
+    <t xml:space="preserve">2.84898281097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89793992042542</t>
   </si>
   <si>
     <t xml:space="preserve">2.88214731216431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84740376472473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80634331703186</t>
+    <t xml:space="preserve">2.84740400314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80634355545044</t>
   </si>
   <si>
     <t xml:space="preserve">2.82055640220642</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8379282951355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83161115646362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85530018806458</t>
+    <t xml:space="preserve">2.83792805671692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8316113948822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.855299949646</t>
   </si>
   <si>
     <t xml:space="preserve">2.83319067955017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82687377929688</t>
+    <t xml:space="preserve">2.8268735408783</t>
   </si>
   <si>
     <t xml:space="preserve">2.85372090339661</t>
@@ -1523,19 +1523,19 @@
     <t xml:space="preserve">2.92636704444885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91057467460632</t>
+    <t xml:space="preserve">2.91057443618774</t>
   </si>
   <si>
     <t xml:space="preserve">2.92794632911682</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98006176948547</t>
+    <t xml:space="preserve">2.98006153106689</t>
   </si>
   <si>
     <t xml:space="preserve">2.8995189666748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88372659683228</t>
+    <t xml:space="preserve">2.88372683525085</t>
   </si>
   <si>
     <t xml:space="preserve">2.88056802749634</t>
@@ -1544,16 +1544,16 @@
     <t xml:space="preserve">2.86793398857117</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83476972579956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83003211021423</t>
+    <t xml:space="preserve">2.83476996421814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83003187179565</t>
   </si>
   <si>
     <t xml:space="preserve">2.75896501541138</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80002641677856</t>
+    <t xml:space="preserve">2.80002617835999</t>
   </si>
   <si>
     <t xml:space="preserve">2.79528856277466</t>
@@ -1568,7 +1568,7 @@
     <t xml:space="preserve">2.71632528305054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66578912734985</t>
+    <t xml:space="preserve">2.66578936576843</t>
   </si>
   <si>
     <t xml:space="preserve">2.64841771125793</t>
@@ -1580,7 +1580,7 @@
     <t xml:space="preserve">2.74633097648621</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86161708831787</t>
+    <t xml:space="preserve">2.86161732673645</t>
   </si>
   <si>
     <t xml:space="preserve">2.86477541923523</t>
@@ -1589,7 +1589,7 @@
     <t xml:space="preserve">2.84424519538879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87583041191101</t>
+    <t xml:space="preserve">2.87583017349243</t>
   </si>
   <si>
     <t xml:space="preserve">2.85214138031006</t>
@@ -1619,10 +1619,10 @@
     <t xml:space="preserve">2.559978723526</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58524680137634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50312495231628</t>
+    <t xml:space="preserve">2.58524703979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50312519073486</t>
   </si>
   <si>
     <t xml:space="preserve">2.4067907333374</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">2.38941884040833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38783979415894</t>
+    <t xml:space="preserve">2.38784003257751</t>
   </si>
   <si>
     <t xml:space="preserve">2.32151055335999</t>
@@ -1640,10 +1640,10 @@
     <t xml:space="preserve">2.33572387695312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3104555606842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35941243171692</t>
+    <t xml:space="preserve">2.31045579910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3594126701355</t>
   </si>
   <si>
     <t xml:space="preserve">2.34993720054626</t>
@@ -1652,7 +1652,7 @@
     <t xml:space="preserve">2.29150485992432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26465773582458</t>
+    <t xml:space="preserve">2.26465749740601</t>
   </si>
   <si>
     <t xml:space="preserve">2.23623037338257</t>
@@ -1661,25 +1661,25 @@
     <t xml:space="preserve">2.18727326393127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15252995491028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19832849502563</t>
+    <t xml:space="preserve">2.15253019332886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19832825660706</t>
   </si>
   <si>
     <t xml:space="preserve">2.25518202781677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20464515686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20148658752441</t>
+    <t xml:space="preserve">2.20464491844177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20148682594299</t>
   </si>
   <si>
     <t xml:space="preserve">2.2425479888916</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2883460521698</t>
+    <t xml:space="preserve">2.28834652900696</t>
   </si>
   <si>
     <t xml:space="preserve">2.26781606674194</t>
@@ -1697,88 +1697,88 @@
     <t xml:space="preserve">2.23938870429993</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1951699256897</t>
+    <t xml:space="preserve">2.19516968727112</t>
   </si>
   <si>
     <t xml:space="preserve">2.21570014953613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19674897193909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19359064102173</t>
+    <t xml:space="preserve">2.19674921035767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19359040260315</t>
   </si>
   <si>
     <t xml:space="preserve">2.17148113250732</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16358470916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11462807655334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12094497680664</t>
+    <t xml:space="preserve">2.16358494758606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11462783813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12094521522522</t>
   </si>
   <si>
     <t xml:space="preserve">2.10199332237244</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12568283081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2283341884613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21096181869507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22675490379333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19201159477234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23465085029602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20306611061096</t>
+    <t xml:space="preserve">2.12568259239197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22833395004272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21096229553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22675466537476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19201111793518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2346510887146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20306587219238</t>
   </si>
   <si>
     <t xml:space="preserve">2.09567618370056</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12410378456116</t>
+    <t xml:space="preserve">2.12410354614258</t>
   </si>
   <si>
     <t xml:space="preserve">2.08304214477539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07514595985413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10673117637634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10830998420715</t>
+    <t xml:space="preserve">2.07514619827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10673093795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10831022262573</t>
   </si>
   <si>
     <t xml:space="preserve">2.02776861190796</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12252426147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05145740509033</t>
+    <t xml:space="preserve">2.12252402305603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05145716667175</t>
   </si>
   <si>
     <t xml:space="preserve">2.00881719589233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00723814964294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07830476760864</t>
+    <t xml:space="preserve">2.00723838806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07830452919006</t>
   </si>
   <si>
     <t xml:space="preserve">2.06409120559692</t>
@@ -1787,28 +1787,28 @@
     <t xml:space="preserve">2.13515830039978</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1462128162384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13673758506775</t>
+    <t xml:space="preserve">2.14621305465698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13673734664917</t>
   </si>
   <si>
     <t xml:space="preserve">2.13357901573181</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08777976036072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02303075790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00565886497498</t>
+    <t xml:space="preserve">2.0877799987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02303051948547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00565910339355</t>
   </si>
   <si>
     <t xml:space="preserve">2.05619502067566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02934765815735</t>
+    <t xml:space="preserve">2.02934789657593</t>
   </si>
   <si>
     <t xml:space="preserve">1.99776244163513</t>
@@ -1817,58 +1817,58 @@
     <t xml:space="preserve">1.98512887954712</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96933531761169</t>
+    <t xml:space="preserve">1.96933555603027</t>
   </si>
   <si>
     <t xml:space="preserve">2.01987218856812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98354947566986</t>
+    <t xml:space="preserve">1.98354935646057</t>
   </si>
   <si>
     <t xml:space="preserve">1.95512211322784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90932416915894</t>
+    <t xml:space="preserve">1.90932393074036</t>
   </si>
   <si>
     <t xml:space="preserve">1.8382568359375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8161473274231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8319399356842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8556295633316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91090333461761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88879370689392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88721454143524</t>
+    <t xml:space="preserve">1.81614744663239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83193981647491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85562980175018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91090309619904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8887939453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88721430301666</t>
   </si>
   <si>
     <t xml:space="preserve">1.91406190395355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93459165096283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96459782123566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01039671897888</t>
+    <t xml:space="preserve">1.93459188938141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96459805965424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01039695739746</t>
   </si>
   <si>
     <t xml:space="preserve">2.00250053405762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97723174095154</t>
+    <t xml:space="preserve">1.97723150253296</t>
   </si>
   <si>
     <t xml:space="preserve">1.97091472148895</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">1.9740731716156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96775639057159</t>
+    <t xml:space="preserve">1.96775615215302</t>
   </si>
   <si>
     <t xml:space="preserve">2.03250622749329</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">2.04671931266785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00407958030701</t>
+    <t xml:space="preserve">2.00407981872559</t>
   </si>
   <si>
     <t xml:space="preserve">1.93143332004547</t>
@@ -1904,16 +1904,16 @@
     <t xml:space="preserve">1.93301248550415</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91879916191101</t>
+    <t xml:space="preserve">1.91879940032959</t>
   </si>
   <si>
     <t xml:space="preserve">1.88089752197266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94248843193054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94090902805328</t>
+    <t xml:space="preserve">1.94248819351196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9409087896347</t>
   </si>
   <si>
     <t xml:space="preserve">1.96617698669434</t>
@@ -1934,16 +1934,16 @@
     <t xml:space="preserve">1.92511653900146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93617105484009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90774476528168</t>
+    <t xml:space="preserve">1.93617129325867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90774464607239</t>
   </si>
   <si>
     <t xml:space="preserve">1.87931835651398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83509826660156</t>
+    <t xml:space="preserve">1.83509838581085</t>
   </si>
   <si>
     <t xml:space="preserve">1.82878148555756</t>
@@ -1952,46 +1952,46 @@
     <t xml:space="preserve">1.86984264850616</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89037263393402</t>
+    <t xml:space="preserve">1.8903728723526</t>
   </si>
   <si>
     <t xml:space="preserve">1.89826917648315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90458607673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91564083099365</t>
+    <t xml:space="preserve">1.90458631515503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91564106941223</t>
   </si>
   <si>
     <t xml:space="preserve">1.8730012178421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78456258773804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79877579212189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72613000869751</t>
+    <t xml:space="preserve">1.78456234931946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79877555370331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72613024711609</t>
   </si>
   <si>
     <t xml:space="preserve">1.6913857460022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.645587682724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66927635669708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65190470218658</t>
+    <t xml:space="preserve">1.64558780193329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66927623748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65190458297729</t>
   </si>
   <si>
     <t xml:space="preserve">1.64381504058838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64543306827545</t>
+    <t xml:space="preserve">1.64543294906616</t>
   </si>
   <si>
     <t xml:space="preserve">1.67617356777191</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">1.65352272987366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66646587848663</t>
+    <t xml:space="preserve">1.66646599769592</t>
   </si>
   <si>
     <t xml:space="preserve">1.64866888523102</t>
@@ -2009,7 +2009,7 @@
     <t xml:space="preserve">1.65514051914215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71985745429993</t>
+    <t xml:space="preserve">1.71985733509064</t>
   </si>
   <si>
     <t xml:space="preserve">1.69720637798309</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">1.61792755126953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62763595581055</t>
+    <t xml:space="preserve">1.62763583660126</t>
   </si>
   <si>
     <t xml:space="preserve">1.63572549819946</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">1.57343482971191</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60013055801392</t>
+    <t xml:space="preserve">1.60013043880463</t>
   </si>
   <si>
     <t xml:space="preserve">1.58961391448975</t>
@@ -2060,7 +2060,7 @@
     <t xml:space="preserve">1.56291818618774</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57262587547302</t>
+    <t xml:space="preserve">1.57262599468231</t>
   </si>
   <si>
     <t xml:space="preserve">1.59608566761017</t>
@@ -2069,7 +2069,7 @@
     <t xml:space="preserve">1.58799624443054</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58637821674347</t>
+    <t xml:space="preserve">1.58637833595276</t>
   </si>
   <si>
     <t xml:space="preserve">1.64219725131989</t>
@@ -2099,19 +2099,19 @@
     <t xml:space="preserve">1.55725574493408</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57100784778595</t>
+    <t xml:space="preserve">1.57100796699524</t>
   </si>
   <si>
     <t xml:space="preserve">1.55321097373962</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54916596412659</t>
+    <t xml:space="preserve">1.54916608333588</t>
   </si>
   <si>
     <t xml:space="preserve">1.54026758670807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52408838272095</t>
+    <t xml:space="preserve">1.52408826351166</t>
   </si>
   <si>
     <t xml:space="preserve">1.52166152000427</t>
@@ -2120,13 +2120,13 @@
     <t xml:space="preserve">1.5289421081543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51761674880981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50710022449493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5006285905838</t>
+    <t xml:space="preserve">1.51761662960052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50710010528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50062847137451</t>
   </si>
   <si>
     <t xml:space="preserve">1.49011206626892</t>
@@ -2159,28 +2159,28 @@
     <t xml:space="preserve">1.31861102581024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36795842647552</t>
+    <t xml:space="preserve">1.36795830726624</t>
   </si>
   <si>
     <t xml:space="preserve">1.35663294792175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36714947223663</t>
+    <t xml:space="preserve">1.36714935302734</t>
   </si>
   <si>
     <t xml:space="preserve">1.40759742259979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36148679256439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37362110614777</t>
+    <t xml:space="preserve">1.3614866733551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37362098693848</t>
   </si>
   <si>
     <t xml:space="preserve">1.37928378582001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45451700687408</t>
+    <t xml:space="preserve">1.45451688766479</t>
   </si>
   <si>
     <t xml:space="preserve">1.48202168941498</t>
@@ -2192,13 +2192,13 @@
     <t xml:space="preserve">1.44885432720184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51033592224121</t>
+    <t xml:space="preserve">1.5103360414505</t>
   </si>
   <si>
     <t xml:space="preserve">1.49820172786713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46422469615936</t>
+    <t xml:space="preserve">1.46422457695007</t>
   </si>
   <si>
     <t xml:space="preserve">1.44723629951477</t>
@@ -2213,7 +2213,7 @@
     <t xml:space="preserve">1.43267500400543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39546298980713</t>
+    <t xml:space="preserve">1.39546287059784</t>
   </si>
   <si>
     <t xml:space="preserve">1.38171064853668</t>
@@ -2237,7 +2237,7 @@
     <t xml:space="preserve">1.34935140609741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34368884563446</t>
+    <t xml:space="preserve">1.34368872642517</t>
   </si>
   <si>
     <t xml:space="preserve">1.35986876487732</t>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">1.45775282382965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48768508434296</t>
+    <t xml:space="preserve">1.48768520355225</t>
   </si>
   <si>
     <t xml:space="preserve">1.4812126159668</t>
@@ -2267,16 +2267,16 @@
     <t xml:space="preserve">1.45370805263519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45856189727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45937085151672</t>
+    <t xml:space="preserve">1.45856177806854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45937073230743</t>
   </si>
   <si>
     <t xml:space="preserve">1.43672001361847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46503353118896</t>
+    <t xml:space="preserve">1.46503341197968</t>
   </si>
   <si>
     <t xml:space="preserve">1.52651512622833</t>
@@ -2288,7 +2288,7 @@
     <t xml:space="preserve">1.53541374206543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50548243522644</t>
+    <t xml:space="preserve">1.50548231601715</t>
   </si>
   <si>
     <t xml:space="preserve">1.53703165054321</t>
@@ -2306,7 +2306,7 @@
     <t xml:space="preserve">1.69397056102753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65675854682922</t>
+    <t xml:space="preserve">1.65675842761993</t>
   </si>
   <si>
     <t xml:space="preserve">1.64705097675323</t>
@@ -2330,31 +2330,31 @@
     <t xml:space="preserve">1.73603653907776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65999412536621</t>
+    <t xml:space="preserve">1.6599942445755</t>
   </si>
   <si>
     <t xml:space="preserve">1.68426311016083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72632884979248</t>
+    <t xml:space="preserve">1.72632873058319</t>
   </si>
   <si>
     <t xml:space="preserve">1.75868821144104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72794699668884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7328006029129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7052960395813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70044219493866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73441863059998</t>
+    <t xml:space="preserve">1.72794687747955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73280048370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70529615879059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70044231414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73441851139069</t>
   </si>
   <si>
     <t xml:space="preserve">1.69235265254974</t>
@@ -2378,13 +2378,13 @@
     <t xml:space="preserve">1.7133857011795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71014964580536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70367801189423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63896143436432</t>
+    <t xml:space="preserve">1.71014976501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70367813110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63896131515503</t>
   </si>
   <si>
     <t xml:space="preserve">1.62116420269012</t>
@@ -2396,7 +2396,7 @@
     <t xml:space="preserve">1.6324896812439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65028691291809</t>
+    <t xml:space="preserve">1.6502867937088</t>
   </si>
   <si>
     <t xml:space="preserve">1.75545156002045</t>
@@ -2411,10 +2411,10 @@
     <t xml:space="preserve">1.91077327728271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97063636779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17449545860291</t>
+    <t xml:space="preserve">1.97063624858856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17449569702148</t>
   </si>
   <si>
     <t xml:space="preserve">2.21656179428101</t>
@@ -2432,10 +2432,10 @@
     <t xml:space="preserve">1.89944779872894</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94636785984039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82987678050995</t>
+    <t xml:space="preserve">1.94636762142181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82987666130066</t>
   </si>
   <si>
     <t xml:space="preserve">1.58556914329529</t>
@@ -2450,16 +2450,16 @@
     <t xml:space="preserve">1.32912743091583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2846348285675</t>
+    <t xml:space="preserve">1.28463470935822</t>
   </si>
   <si>
     <t xml:space="preserve">1.26845562458038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02819287776947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06621420383453</t>
+    <t xml:space="preserve">1.02819299697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06621408462524</t>
   </si>
   <si>
     <t xml:space="preserve">0.984509289264679</t>
@@ -2474,16 +2474,16 @@
     <t xml:space="preserve">1.09129250049591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1179883480072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06136035919189</t>
+    <t xml:space="preserve">1.11798822879791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0613602399826</t>
   </si>
   <si>
     <t xml:space="preserve">1.14791977405548</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15600943565369</t>
+    <t xml:space="preserve">1.15600955486298</t>
   </si>
   <si>
     <t xml:space="preserve">1.14387500286102</t>
@@ -2498,16 +2498,16 @@
     <t xml:space="preserve">1.11556148529053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1001912355423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18513178825378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13254952430725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19403052330017</t>
+    <t xml:space="preserve">1.10019111633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18513190746307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13254964351654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19403040409088</t>
   </si>
   <si>
     <t xml:space="preserve">1.21991789340973</t>
@@ -2516,13 +2516,13 @@
     <t xml:space="preserve">1.28787064552307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25065851211548</t>
+    <t xml:space="preserve">1.25065839290619</t>
   </si>
   <si>
     <t xml:space="preserve">1.24904048442841</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1649078130722</t>
+    <t xml:space="preserve">1.16490793228149</t>
   </si>
   <si>
     <t xml:space="preserve">1.14306604862213</t>
@@ -2531,10 +2531,10 @@
     <t xml:space="preserve">1.17218852043152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13902115821838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17299735546112</t>
+    <t xml:space="preserve">1.13902127742767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17299747467041</t>
   </si>
   <si>
     <t xml:space="preserve">1.15520036220551</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">1.15924513339996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15115559101105</t>
+    <t xml:space="preserve">1.15115571022034</t>
   </si>
   <si>
     <t xml:space="preserve">1.16409909725189</t>
@@ -2552,13 +2552,13 @@
     <t xml:space="preserve">1.17057073116302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11151671409607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14953768253326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12446010112762</t>
+    <t xml:space="preserve">1.11151659488678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14953780174255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12445998191833</t>
   </si>
   <si>
     <t xml:space="preserve">1.1090897321701</t>
@@ -2579,7 +2579,7 @@
     <t xml:space="preserve">1.03951847553253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05974245071411</t>
+    <t xml:space="preserve">1.05974233150482</t>
   </si>
   <si>
     <t xml:space="preserve">1.01039588451385</t>
@@ -2591,7 +2591,7 @@
     <t xml:space="preserve">0.986936092376709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978846549987793</t>
+    <t xml:space="preserve">0.978846430778503</t>
   </si>
   <si>
     <t xml:space="preserve">1.05650651454926</t>
@@ -2615,7 +2615,7 @@
     <t xml:space="preserve">1.26602864265442</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30162274837494</t>
+    <t xml:space="preserve">1.30162286758423</t>
   </si>
   <si>
     <t xml:space="preserve">1.32750976085663</t>
@@ -2624,7 +2624,7 @@
     <t xml:space="preserve">1.28544366359711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27411830425262</t>
+    <t xml:space="preserve">1.27411818504333</t>
   </si>
   <si>
     <t xml:space="preserve">1.22962546348572</t>
@@ -2645,16 +2645,16 @@
     <t xml:space="preserve">1.25389432907104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33479022979736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38494658470154</t>
+    <t xml:space="preserve">1.33479011058807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38494646549225</t>
   </si>
   <si>
     <t xml:space="preserve">1.46017980575562</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50386428833008</t>
+    <t xml:space="preserve">1.50386416912079</t>
   </si>
   <si>
     <t xml:space="preserve">1.51195394992828</t>
@@ -2672,7 +2672,7 @@
     <t xml:space="preserve">1.50305533409119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51680767536163</t>
+    <t xml:space="preserve">1.51680779457092</t>
   </si>
   <si>
     <t xml:space="preserve">1.59932160377502</t>
@@ -2681,7 +2681,7 @@
     <t xml:space="preserve">1.55159294605255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59365880489349</t>
+    <t xml:space="preserve">1.5936586856842</t>
   </si>
   <si>
     <t xml:space="preserve">1.58152437210083</t>
@@ -2690,31 +2690,31 @@
     <t xml:space="preserve">1.56939005851746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49577474594116</t>
+    <t xml:space="preserve">1.49577462673187</t>
   </si>
   <si>
     <t xml:space="preserve">1.47474098205566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43833780288696</t>
+    <t xml:space="preserve">1.43833792209625</t>
   </si>
   <si>
     <t xml:space="preserve">1.46665143966675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53379583358765</t>
+    <t xml:space="preserve">1.53379595279694</t>
   </si>
   <si>
     <t xml:space="preserve">1.54835712909698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57990646362305</t>
+    <t xml:space="preserve">1.57990658283234</t>
   </si>
   <si>
     <t xml:space="preserve">1.59042298793793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66161227226257</t>
+    <t xml:space="preserve">1.66161239147186</t>
   </si>
   <si>
     <t xml:space="preserve">1.62925386428833</t>
@@ -2723,19 +2723,19 @@
     <t xml:space="preserve">1.47716784477234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47635900974274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43995559215546</t>
+    <t xml:space="preserve">1.47635889053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43995571136475</t>
   </si>
   <si>
     <t xml:space="preserve">1.46988725662231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49415695667267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47797691822052</t>
+    <t xml:space="preserve">1.49415683746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47797679901123</t>
   </si>
   <si>
     <t xml:space="preserve">1.48687613010406</t>
@@ -2753,19 +2753,19 @@
     <t xml:space="preserve">1.43914663791656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39303612709045</t>
+    <t xml:space="preserve">1.39303624629974</t>
   </si>
   <si>
     <t xml:space="preserve">1.41811382770538</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42943918704987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49739265441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46746039390564</t>
+    <t xml:space="preserve">1.42943930625916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49739253520966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46746027469635</t>
   </si>
   <si>
     <t xml:space="preserve">1.48040366172791</t>
@@ -2792,7 +2792,7 @@
     <t xml:space="preserve">1.35501492023468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31213927268982</t>
+    <t xml:space="preserve">1.31213939189911</t>
   </si>
   <si>
     <t xml:space="preserve">1.32993638515472</t>
@@ -2801,28 +2801,28 @@
     <t xml:space="preserve">1.19726634025574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18674981594086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21910893917084</t>
+    <t xml:space="preserve">1.18674993515015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21910905838013</t>
   </si>
   <si>
     <t xml:space="preserve">1.31456625461578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33074545860291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32670068740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31618416309357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54512119293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53460478782654</t>
+    <t xml:space="preserve">1.33074533939362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32670056819916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31618404388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54512131214142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53460466861725</t>
   </si>
   <si>
     <t xml:space="preserve">1.60983800888062</t>
@@ -2843,10 +2843,10 @@
     <t xml:space="preserve">1.88326776027679</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81369721889496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84443795681</t>
+    <t xml:space="preserve">1.81369733810425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84443807601929</t>
   </si>
   <si>
     <t xml:space="preserve">1.80560791492462</t>
@@ -2855,7 +2855,7 @@
     <t xml:space="preserve">1.82340478897095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82502269744873</t>
+    <t xml:space="preserve">1.82502281665802</t>
   </si>
   <si>
     <t xml:space="preserve">1.8541454076767</t>
@@ -2870,7 +2870,7 @@
     <t xml:space="preserve">1.78781068325043</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78133904933929</t>
+    <t xml:space="preserve">1.78133893013</t>
   </si>
   <si>
     <t xml:space="preserve">1.79913604259491</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">1.76192402839661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73118281364441</t>
+    <t xml:space="preserve">1.73118269443512</t>
   </si>
   <si>
     <t xml:space="preserve">1.75221574306488</t>
@@ -2894,37 +2894,37 @@
     <t xml:space="preserve">1.77648520469666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78457498550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78295695781708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86870658397675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90430152416229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8816499710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84281980991364</t>
+    <t xml:space="preserve">1.78457486629486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78295683860779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86870682239532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90430176258087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88165009021759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84281969070435</t>
   </si>
   <si>
     <t xml:space="preserve">1.86061692237854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81531524658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7700138092041</t>
+    <t xml:space="preserve">1.81531536579132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77001368999481</t>
   </si>
   <si>
     <t xml:space="preserve">1.79428243637085</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7716315984726</t>
+    <t xml:space="preserve">1.77163147926331</t>
   </si>
   <si>
     <t xml:space="preserve">1.75383353233337</t>
@@ -2936,10 +2936,10 @@
     <t xml:space="preserve">1.70853185653687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73765444755554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87194228172302</t>
+    <t xml:space="preserve">1.73765432834625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8719425201416</t>
   </si>
   <si>
     <t xml:space="preserve">2.02079176902771</t>
@@ -2948,13 +2948,13 @@
     <t xml:space="preserve">1.99005150794983</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01432037353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00137686729431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98681545257568</t>
+    <t xml:space="preserve">2.01432013511658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00137662887573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98681569099426</t>
   </si>
   <si>
     <t xml:space="preserve">2.02402758598328</t>
@@ -2972,13 +2972,13 @@
     <t xml:space="preserve">1.95122122764587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94798564910889</t>
+    <t xml:space="preserve">1.94798541069031</t>
   </si>
   <si>
     <t xml:space="preserve">1.9560751914978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93665993213654</t>
+    <t xml:space="preserve">1.93665969371796</t>
   </si>
   <si>
     <t xml:space="preserve">1.9301882982254</t>
@@ -2990,10 +2990,10 @@
     <t xml:space="preserve">1.96578240394592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95769309997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00461268424988</t>
+    <t xml:space="preserve">1.95769286155701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0046124458313</t>
   </si>
   <si>
     <t xml:space="preserve">1.99652290344238</t>
@@ -3002,10 +3002,10 @@
     <t xml:space="preserve">2.06447649002075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12110352516174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20038247108459</t>
+    <t xml:space="preserve">2.12110376358032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20038223266602</t>
   </si>
   <si>
     <t xml:space="preserve">2.28936767578125</t>
@@ -3014,13 +3014,13 @@
     <t xml:space="preserve">2.33628821372986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30554795265198</t>
+    <t xml:space="preserve">2.3055477142334</t>
   </si>
   <si>
     <t xml:space="preserve">2.28127837181091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25700974464417</t>
+    <t xml:space="preserve">2.25700950622559</t>
   </si>
   <si>
     <t xml:space="preserve">2.30878376960754</t>
@@ -3032,13 +3032,13 @@
     <t xml:space="preserve">2.29098582267761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38320755958557</t>
+    <t xml:space="preserve">2.38320779800415</t>
   </si>
   <si>
     <t xml:space="preserve">2.31040191650391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34599566459656</t>
+    <t xml:space="preserve">2.34599590301514</t>
   </si>
   <si>
     <t xml:space="preserve">2.34275984764099</t>
@@ -3047,10 +3047,10 @@
     <t xml:space="preserve">2.32334494590759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32496309280396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39453315734863</t>
+    <t xml:space="preserve">2.32496333122253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39453339576721</t>
   </si>
   <si>
     <t xml:space="preserve">2.40747666358948</t>
@@ -3059,7 +3059,7 @@
     <t xml:space="preserve">2.43174624443054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46572303771973</t>
+    <t xml:space="preserve">2.46572279930115</t>
   </si>
   <si>
     <t xml:space="preserve">2.396151304245</t>
@@ -3074,10 +3074,10 @@
     <t xml:space="preserve">2.53852891921997</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57088828086853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6582555770874</t>
+    <t xml:space="preserve">2.57088804244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65825581550598</t>
   </si>
   <si>
     <t xml:space="preserve">2.73106288909912</t>
@@ -3086,25 +3086,25 @@
     <t xml:space="preserve">2.83137392997742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80386924743652</t>
+    <t xml:space="preserve">2.80386900901794</t>
   </si>
   <si>
     <t xml:space="preserve">2.78768992424011</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89447355270386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93330359458923</t>
+    <t xml:space="preserve">2.89447379112244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93330383300781</t>
   </si>
   <si>
     <t xml:space="preserve">2.98507785797119</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09186053276062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06920957565308</t>
+    <t xml:space="preserve">3.09186029434204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0692093372345</t>
   </si>
   <si>
     <t xml:space="preserve">3.06597375869751</t>
@@ -3113,19 +3113,19 @@
     <t xml:space="preserve">3.15172433853149</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15495991706848</t>
+    <t xml:space="preserve">3.15496015548706</t>
   </si>
   <si>
     <t xml:space="preserve">3.14039874076843</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19217205047607</t>
+    <t xml:space="preserve">3.19217228889465</t>
   </si>
   <si>
     <t xml:space="preserve">3.17761063575745</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16790342330933</t>
+    <t xml:space="preserve">3.16790366172791</t>
   </si>
   <si>
     <t xml:space="preserve">3.19055414199829</t>
@@ -5130,6 +5130,9 @@
   </si>
   <si>
     <t xml:space="preserve">7.01000022888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14499998092651</t>
   </si>
 </sst>
 </file>
@@ -61943,7 +61946,7 @@
     </row>
     <row r="2173">
       <c r="A2173" s="1" t="n">
-        <v>45488.6496296296</v>
+        <v>45488.2916666667</v>
       </c>
       <c r="B2173" t="n">
         <v>1449431</v>
@@ -61964,6 +61967,32 @@
         <v>1680</v>
       </c>
       <c r="H2173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" s="1" t="n">
+        <v>45489.6494212963</v>
+      </c>
+      <c r="B2174" t="n">
+        <v>1572913</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>7.14499998092651</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>6.90500020980835</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>6.94999980926514</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>7.14499998092651</v>
+      </c>
+      <c r="G2174" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H2174" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BPSO.MI.xlsx
+++ b/data/BPSO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="1709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="1710">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03069829940796</t>
+    <t xml:space="preserve">3.03069806098938</t>
   </si>
   <si>
     <t xml:space="preserve">BPSO.MI</t>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">2.8849630355835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8909113407135</t>
+    <t xml:space="preserve">2.89091157913208</t>
   </si>
   <si>
     <t xml:space="preserve">2.79722428321838</t>
@@ -86,70 +86,70 @@
     <t xml:space="preserve">2.53400850296021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69907593727112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61877298355103</t>
+    <t xml:space="preserve">2.6990761756897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6187732219696</t>
   </si>
   <si>
     <t xml:space="preserve">2.52359914779663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61282467842102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57564663887024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48642182350159</t>
+    <t xml:space="preserve">2.6128249168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57564687728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48642206192017</t>
   </si>
   <si>
     <t xml:space="preserve">2.37935090065002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39124727249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36745405197144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18602848052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2098217010498</t>
+    <t xml:space="preserve">2.39124751091003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36745429039001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18602824211121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20982146263123</t>
   </si>
   <si>
     <t xml:space="preserve">2.29607319831848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22469258308411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33771204948425</t>
+    <t xml:space="preserve">2.22469282150269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33771181106567</t>
   </si>
   <si>
     <t xml:space="preserve">2.38381195068359</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44032120704651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3496081829071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31986689567566</t>
+    <t xml:space="preserve">2.44032144546509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34960842132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31986665725708</t>
   </si>
   <si>
     <t xml:space="preserve">2.40611839294434</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34217309951782</t>
+    <t xml:space="preserve">2.34217286109924</t>
   </si>
   <si>
     <t xml:space="preserve">2.33176374435425</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37340259552002</t>
+    <t xml:space="preserve">2.37340235710144</t>
   </si>
   <si>
     <t xml:space="preserve">2.42098927497864</t>
@@ -161,19 +161,19 @@
     <t xml:space="preserve">2.5578019618988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55185317993164</t>
+    <t xml:space="preserve">2.55185341835022</t>
   </si>
   <si>
     <t xml:space="preserve">2.54441785812378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40165710449219</t>
+    <t xml:space="preserve">2.40165686607361</t>
   </si>
   <si>
     <t xml:space="preserve">2.42396330833435</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41057968139648</t>
+    <t xml:space="preserve">2.41057991981506</t>
   </si>
   <si>
     <t xml:space="preserve">2.48493456840515</t>
@@ -182,16 +182,16 @@
     <t xml:space="preserve">2.60687565803528</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52657318115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46560168266296</t>
+    <t xml:space="preserve">2.52657294273376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46560192108154</t>
   </si>
   <si>
     <t xml:space="preserve">2.5131893157959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52805995941162</t>
+    <t xml:space="preserve">2.5280601978302</t>
   </si>
   <si>
     <t xml:space="preserve">2.56375050544739</t>
@@ -203,22 +203,22 @@
     <t xml:space="preserve">2.39719581604004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34366011619568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29161238670349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30053496360779</t>
+    <t xml:space="preserve">2.34365963935852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29161214828491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30053472518921</t>
   </si>
   <si>
     <t xml:space="preserve">2.27227997779846</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21725702285767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15628671646118</t>
+    <t xml:space="preserve">2.21725726127625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1562864780426</t>
   </si>
   <si>
     <t xml:space="preserve">2.16223526000977</t>
@@ -227,7 +227,7 @@
     <t xml:space="preserve">2.2187442779541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26781868934631</t>
+    <t xml:space="preserve">2.26781845092773</t>
   </si>
   <si>
     <t xml:space="preserve">2.27674126625061</t>
@@ -239,13 +239,13 @@
     <t xml:space="preserve">2.4670889377594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39868330955505</t>
+    <t xml:space="preserve">2.39868307113647</t>
   </si>
   <si>
     <t xml:space="preserve">2.45370507240295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49831867218018</t>
+    <t xml:space="preserve">2.4983184337616</t>
   </si>
   <si>
     <t xml:space="preserve">2.49237060546875</t>
@@ -269,10 +269,10 @@
     <t xml:space="preserve">2.3109438419342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26187014579773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23064064979553</t>
+    <t xml:space="preserve">2.26187038421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23064041137695</t>
   </si>
   <si>
     <t xml:space="preserve">2.24848651885986</t>
@@ -284,46 +284,46 @@
     <t xml:space="preserve">2.25592184066772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1949508190155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18305420875549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21279573440552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17710566520691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22023129463196</t>
+    <t xml:space="preserve">2.19495105743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18305397033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2127959728241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17710590362549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22023105621338</t>
   </si>
   <si>
     <t xml:space="preserve">2.20387315750122</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19778108596802</t>
+    <t xml:space="preserve">2.1977813243866</t>
   </si>
   <si>
     <t xml:space="preserve">2.27850317955017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35617995262146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30744171142578</t>
+    <t xml:space="preserve">2.35617971420288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30744194984436</t>
   </si>
   <si>
     <t xml:space="preserve">2.33028769493103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30896496772766</t>
+    <t xml:space="preserve">2.30896520614624</t>
   </si>
   <si>
     <t xml:space="preserve">2.24194955825806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21910381317139</t>
+    <t xml:space="preserve">2.21910405158997</t>
   </si>
   <si>
     <t xml:space="preserve">2.14142751693726</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">2.09725856781006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01044368743896</t>
+    <t xml:space="preserve">2.01044392585754</t>
   </si>
   <si>
     <t xml:space="preserve">2.13076567649841</t>
@@ -341,46 +341,46 @@
     <t xml:space="preserve">2.07441306114197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08202815055847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97236728668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90839898586273</t>
+    <t xml:space="preserve">2.08202838897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97236776351929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90839910507202</t>
   </si>
   <si>
     <t xml:space="preserve">1.87641417980194</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84899926185608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75913834571838</t>
+    <t xml:space="preserve">1.8489990234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75913846492767</t>
   </si>
   <si>
     <t xml:space="preserve">1.81701505184174</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8962140083313</t>
+    <t xml:space="preserve">1.89621376991272</t>
   </si>
   <si>
     <t xml:space="preserve">1.94038319587708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90687537193298</t>
+    <t xml:space="preserve">1.9068751335144</t>
   </si>
   <si>
     <t xml:space="preserve">2.02872037887573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7515230178833</t>
+    <t xml:space="preserve">1.75152313709259</t>
   </si>
   <si>
     <t xml:space="preserve">1.67689335346222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78807687759399</t>
+    <t xml:space="preserve">1.78807711601257</t>
   </si>
   <si>
     <t xml:space="preserve">1.77436888217926</t>
@@ -392,106 +392,106 @@
     <t xml:space="preserve">1.7530460357666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68907785415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61901652812958</t>
+    <t xml:space="preserve">1.6890777349472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61901664733887</t>
   </si>
   <si>
     <t xml:space="preserve">1.63424706459045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64033937454224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7545690536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79112315177917</t>
+    <t xml:space="preserve">1.64033949375153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75456917285919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79112327098846</t>
   </si>
   <si>
     <t xml:space="preserve">1.81549215316772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78960013389587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86727595329285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83072280883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84443020820618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9023060798645</t>
+    <t xml:space="preserve">1.78960037231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86727643013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83072257041931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8444299697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90230631828308</t>
   </si>
   <si>
     <t xml:space="preserve">1.89316785335541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85052216053009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81853818893433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8474760055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.841383934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78198492527008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66470885276794</t>
+    <t xml:space="preserve">1.85052239894867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81853795051575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84747624397278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84138417243958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7819846868515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66470897197723</t>
   </si>
   <si>
     <t xml:space="preserve">1.6875547170639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62967789173126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75000011920929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77741503715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76523041725159</t>
+    <t xml:space="preserve">1.62967801094055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74999988079071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77741491794586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76523065567017</t>
   </si>
   <si>
     <t xml:space="preserve">1.80787670612335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83681464195251</t>
+    <t xml:space="preserve">1.83681499958038</t>
   </si>
   <si>
     <t xml:space="preserve">1.82767629623413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82158434391022</t>
+    <t xml:space="preserve">1.8215845823288</t>
   </si>
   <si>
     <t xml:space="preserve">1.86879909038544</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82919955253601</t>
+    <t xml:space="preserve">1.82919931411743</t>
   </si>
   <si>
     <t xml:space="preserve">1.84290719032288</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85509169101715</t>
+    <t xml:space="preserve">1.85509157180786</t>
   </si>
   <si>
     <t xml:space="preserve">1.90992224216461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90535223484039</t>
+    <t xml:space="preserve">1.90535199642181</t>
   </si>
   <si>
     <t xml:space="preserve">1.89773714542389</t>
@@ -500,19 +500,19 @@
     <t xml:space="preserve">1.89012181758881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88098359107971</t>
+    <t xml:space="preserve">1.88098335266113</t>
   </si>
   <si>
     <t xml:space="preserve">1.88859868049622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86575269699097</t>
+    <t xml:space="preserve">1.86575293540955</t>
   </si>
   <si>
     <t xml:space="preserve">1.89469110965729</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87336826324463</t>
+    <t xml:space="preserve">1.87336838245392</t>
   </si>
   <si>
     <t xml:space="preserve">1.85813772678375</t>
@@ -524,25 +524,25 @@
     <t xml:space="preserve">1.98455190658569</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9815057516098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94190680980682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96627509593964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97998309135437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99216735363007</t>
+    <t xml:space="preserve">1.98150599002838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94190633296967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96627521514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97998285293579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99216759204865</t>
   </si>
   <si>
     <t xml:space="preserve">2.08659768104553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11705827713013</t>
+    <t xml:space="preserve">2.11705851554871</t>
   </si>
   <si>
     <t xml:space="preserve">2.24804210662842</t>
@@ -557,7 +557,7 @@
     <t xml:space="preserve">2.23433446884155</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23738074302673</t>
+    <t xml:space="preserve">2.23738050460815</t>
   </si>
   <si>
     <t xml:space="preserve">2.24651885032654</t>
@@ -572,16 +572,16 @@
     <t xml:space="preserve">2.26479554176331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14295029640198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18407368659973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15208864212036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19930410385132</t>
+    <t xml:space="preserve">2.14295053482056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18407392501831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15208888053894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1993043422699</t>
   </si>
   <si>
     <t xml:space="preserve">2.209965467453</t>
@@ -596,13 +596,13 @@
     <t xml:space="preserve">2.31657981872559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31353402137756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28459548950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22976517677307</t>
+    <t xml:space="preserve">2.31353425979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28459525108337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22976541519165</t>
   </si>
   <si>
     <t xml:space="preserve">2.18102741241455</t>
@@ -611,25 +611,25 @@
     <t xml:space="preserve">2.22519636154175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2495653629303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23890376091003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15361189842224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27545690536499</t>
+    <t xml:space="preserve">2.24956512451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23890352249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15361166000366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27545714378357</t>
   </si>
   <si>
     <t xml:space="preserve">2.25413417816162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22062706947327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32267260551453</t>
+    <t xml:space="preserve">2.22062730789185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32267236709595</t>
   </si>
   <si>
     <t xml:space="preserve">2.43690228462219</t>
@@ -638,13 +638,13 @@
     <t xml:space="preserve">2.54351687431335</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42471790313721</t>
+    <t xml:space="preserve">2.42471814155579</t>
   </si>
   <si>
     <t xml:space="preserve">2.39273285865784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43385624885559</t>
+    <t xml:space="preserve">2.43385601043701</t>
   </si>
   <si>
     <t xml:space="preserve">2.39120984077454</t>
@@ -656,37 +656,37 @@
     <t xml:space="preserve">2.32419538497925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39577889442444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38054847717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37597966194153</t>
+    <t xml:space="preserve">2.39577913284302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38054871559143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37597942352295</t>
   </si>
   <si>
     <t xml:space="preserve">2.36227178573608</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38207149505615</t>
+    <t xml:space="preserve">2.38207125663757</t>
   </si>
   <si>
     <t xml:space="preserve">2.42624068260193</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47497844696045</t>
+    <t xml:space="preserve">2.47497868537903</t>
   </si>
   <si>
     <t xml:space="preserve">2.48259377479553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51000905036926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50848603248596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46888637542725</t>
+    <t xml:space="preserve">2.51000881195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50848579406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46888661384583</t>
   </si>
   <si>
     <t xml:space="preserve">2.46127104759216</t>
@@ -695,10 +695,10 @@
     <t xml:space="preserve">2.45974802970886</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52828526496887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52067041397095</t>
+    <t xml:space="preserve">2.52828550338745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52067017555237</t>
   </si>
   <si>
     <t xml:space="preserve">2.50696277618408</t>
@@ -707,19 +707,19 @@
     <t xml:space="preserve">2.57397818565369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58920836448669</t>
+    <t xml:space="preserve">2.58920860290527</t>
   </si>
   <si>
     <t xml:space="preserve">2.62728476524353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58311629295349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58768582344055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59682393074036</t>
+    <t xml:space="preserve">2.58311653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58768558502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59682369232178</t>
   </si>
   <si>
     <t xml:space="preserve">2.61814641952515</t>
@@ -734,16 +734,16 @@
     <t xml:space="preserve">2.4963014125824</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53285503387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49325513839722</t>
+    <t xml:space="preserve">2.53285479545593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4932553768158</t>
   </si>
   <si>
     <t xml:space="preserve">2.44451761245728</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46431732177734</t>
+    <t xml:space="preserve">2.46431756019592</t>
   </si>
   <si>
     <t xml:space="preserve">2.48868608474731</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">2.50087070465088</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47345542907715</t>
+    <t xml:space="preserve">2.47345566749573</t>
   </si>
   <si>
     <t xml:space="preserve">2.46279406547546</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">2.4171028137207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28002595901489</t>
+    <t xml:space="preserve">2.28002619743347</t>
   </si>
   <si>
     <t xml:space="preserve">2.28611850738525</t>
@@ -782,10 +782,10 @@
     <t xml:space="preserve">2.47802472114563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50543999671936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54808592796326</t>
+    <t xml:space="preserve">2.50543975830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54808616638184</t>
   </si>
   <si>
     <t xml:space="preserve">2.4947783946991</t>
@@ -806,25 +806,25 @@
     <t xml:space="preserve">2.45060968399048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48564028739929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44604063034058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45365595817566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45670223236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47040939331055</t>
+    <t xml:space="preserve">2.48564004898071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.446040391922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45365619659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45670199394226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47040915489197</t>
   </si>
   <si>
     <t xml:space="preserve">2.52371621131897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47650170326233</t>
+    <t xml:space="preserve">2.47650146484375</t>
   </si>
   <si>
     <t xml:space="preserve">2.4978244304657</t>
@@ -833,40 +833,40 @@
     <t xml:space="preserve">2.64251565933228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60443902015686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60291647911072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67602348327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63946938514709</t>
+    <t xml:space="preserve">2.60443925857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60291624069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67602372169495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63946962356567</t>
   </si>
   <si>
     <t xml:space="preserve">2.66383838653564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69582271575928</t>
+    <t xml:space="preserve">2.69582295417786</t>
   </si>
   <si>
     <t xml:space="preserve">2.69734644889832</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75217652320862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7140998840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66536140441895</t>
+    <t xml:space="preserve">2.75217628479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71409964561462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66536116600037</t>
   </si>
   <si>
     <t xml:space="preserve">2.68363881111145</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68668484687805</t>
+    <t xml:space="preserve">2.68668508529663</t>
   </si>
   <si>
     <t xml:space="preserve">2.68820786476135</t>
@@ -881,13 +881,13 @@
     <t xml:space="preserve">2.75553250312805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82058715820312</t>
+    <t xml:space="preserve">2.82058691978455</t>
   </si>
   <si>
     <t xml:space="preserve">2.84537029266357</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89958214759827</t>
+    <t xml:space="preserve">2.89958238601685</t>
   </si>
   <si>
     <t xml:space="preserve">2.74933695793152</t>
@@ -905,19 +905,19 @@
     <t xml:space="preserve">2.70131993293762</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69357490539551</t>
+    <t xml:space="preserve">2.69357514381409</t>
   </si>
   <si>
     <t xml:space="preserve">2.64710783958435</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66724395751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65175461769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69667315483093</t>
+    <t xml:space="preserve">2.66724371910095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65175437927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69667339324951</t>
   </si>
   <si>
     <t xml:space="preserve">2.63161897659302</t>
@@ -926,55 +926,55 @@
     <t xml:space="preserve">2.65640139579773</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63626551628113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65794992446899</t>
+    <t xml:space="preserve">2.63626575469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65795016288757</t>
   </si>
   <si>
     <t xml:space="preserve">2.63316750526428</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65949940681458</t>
+    <t xml:space="preserve">2.659499168396</t>
   </si>
   <si>
     <t xml:space="preserve">2.66569447517395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66414570808411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68737959861755</t>
+    <t xml:space="preserve">2.66414594650269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68737936019897</t>
   </si>
   <si>
     <t xml:space="preserve">2.71835851669312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78805994987488</t>
+    <t xml:space="preserve">2.7880597114563</t>
   </si>
   <si>
     <t xml:space="preserve">2.7415919303894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67343950271606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7772171497345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85311484336853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80045127868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81903767585754</t>
+    <t xml:space="preserve">2.67343926429749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77721738815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85311460494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80045104026794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81903791427612</t>
   </si>
   <si>
     <t xml:space="preserve">2.80974435806274</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80354881286621</t>
+    <t xml:space="preserve">2.80354905128479</t>
   </si>
   <si>
     <t xml:space="preserve">2.92126703262329</t>
@@ -983,13 +983,13 @@
     <t xml:space="preserve">2.93210935592651</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9166202545166</t>
+    <t xml:space="preserve">2.91662001609802</t>
   </si>
   <si>
     <t xml:space="preserve">2.90577793121338</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9073269367218</t>
+    <t xml:space="preserve">2.90732669830322</t>
   </si>
   <si>
     <t xml:space="preserve">2.90113091468811</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">2.88099527359009</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87789750099182</t>
+    <t xml:space="preserve">2.8778977394104</t>
   </si>
   <si>
     <t xml:space="preserve">2.87944602966309</t>
@@ -1010,7 +1010,7 @@
     <t xml:space="preserve">2.83917379379272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87015271186829</t>
+    <t xml:space="preserve">2.87015295028687</t>
   </si>
   <si>
     <t xml:space="preserve">2.86240839958191</t>
@@ -1022,34 +1022,34 @@
     <t xml:space="preserve">2.84227180480957</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84072279930115</t>
+    <t xml:space="preserve">2.84072256088257</t>
   </si>
   <si>
     <t xml:space="preserve">2.85776138305664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84846830368042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83452725410461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78341269493103</t>
+    <t xml:space="preserve">2.84846806526184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83452701568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78341293334961</t>
   </si>
   <si>
     <t xml:space="preserve">2.81129336357117</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78960847854614</t>
+    <t xml:space="preserve">2.78960871696472</t>
   </si>
   <si>
     <t xml:space="preserve">2.72610306739807</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76017951965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70441770553589</t>
+    <t xml:space="preserve">2.76017928123474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70441794395447</t>
   </si>
   <si>
     <t xml:space="preserve">2.66259694099426</t>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">2.69977068901062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69047713279724</t>
+    <t xml:space="preserve">2.69047737121582</t>
   </si>
   <si>
     <t xml:space="preserve">2.69822192192078</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">2.73384761810303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68583059310913</t>
+    <t xml:space="preserve">2.68583035469055</t>
   </si>
   <si>
     <t xml:space="preserve">2.73229885101318</t>
@@ -1082,10 +1082,10 @@
     <t xml:space="preserve">2.72765207290649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71680974960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76327705383301</t>
+    <t xml:space="preserve">2.71680998802185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76327681541443</t>
   </si>
   <si>
     <t xml:space="preserve">2.82988047599792</t>
@@ -1094,19 +1094,19 @@
     <t xml:space="preserve">2.81748914718628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77411937713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70286846160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69512414932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67034149169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71526002883911</t>
+    <t xml:space="preserve">2.77411913871765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70286870002747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69512438774109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67034125328064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71525979042053</t>
   </si>
   <si>
     <t xml:space="preserve">2.66879272460938</t>
@@ -1115,16 +1115,16 @@
     <t xml:space="preserve">2.64865660667419</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68273305892944</t>
+    <t xml:space="preserve">2.68273282051086</t>
   </si>
   <si>
     <t xml:space="preserve">2.66104817390442</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67189049720764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67653727531433</t>
+    <t xml:space="preserve">2.67189025878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67653703689575</t>
   </si>
   <si>
     <t xml:space="preserve">2.65485215187073</t>
@@ -1133,34 +1133,34 @@
     <t xml:space="preserve">2.69202613830566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62387466430664</t>
+    <t xml:space="preserve">2.62387442588806</t>
   </si>
   <si>
     <t xml:space="preserve">2.57895493507385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63006973266602</t>
+    <t xml:space="preserve">2.63006997108459</t>
   </si>
   <si>
     <t xml:space="preserve">2.58205246925354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45968842506409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4070246219635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44419860839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34042143821716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35436177253723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37914419174194</t>
+    <t xml:space="preserve">2.45968866348267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40702486038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44419884681702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34042167663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35436153411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37914443016052</t>
   </si>
   <si>
     <t xml:space="preserve">2.42406272888184</t>
@@ -1187,31 +1187,31 @@
     <t xml:space="preserve">2.50925374031067</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52474284172058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52784085273743</t>
+    <t xml:space="preserve">2.524742603302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52784109115601</t>
   </si>
   <si>
     <t xml:space="preserve">2.5077052116394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54642748832703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56346607208252</t>
+    <t xml:space="preserve">2.54642772674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56346583366394</t>
   </si>
   <si>
     <t xml:space="preserve">2.57121014595032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57740569114685</t>
+    <t xml:space="preserve">2.57740592956543</t>
   </si>
   <si>
     <t xml:space="preserve">2.50305795669556</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4565896987915</t>
+    <t xml:space="preserve">2.45658993721008</t>
   </si>
   <si>
     <t xml:space="preserve">2.36210632324219</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">2.33887267112732</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37604665756226</t>
+    <t xml:space="preserve">2.37604641914368</t>
   </si>
   <si>
     <t xml:space="preserve">2.40547585487366</t>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">2.35745930671692</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38533997535706</t>
+    <t xml:space="preserve">2.38534021377563</t>
   </si>
   <si>
     <t xml:space="preserve">2.44574737548828</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">2.47827553749084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47517776489258</t>
+    <t xml:space="preserve">2.47517800331116</t>
   </si>
   <si>
     <t xml:space="preserve">2.55881905555725</t>
@@ -1259,13 +1259,13 @@
     <t xml:space="preserve">2.51390075683594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51235175132751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53403639793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56501460075378</t>
+    <t xml:space="preserve">2.51235151290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53403663635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56501436233521</t>
   </si>
   <si>
     <t xml:space="preserve">2.57430791854858</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">2.47672653198242</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3884379863739</t>
+    <t xml:space="preserve">2.38843774795532</t>
   </si>
   <si>
     <t xml:space="preserve">2.47982454299927</t>
@@ -1307,13 +1307,13 @@
     <t xml:space="preserve">2.60218930244446</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53248715400696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48137307167053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52164530754089</t>
+    <t xml:space="preserve">2.53248739242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48137331008911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52164506912231</t>
   </si>
   <si>
     <t xml:space="preserve">2.43955206871033</t>
@@ -1337,13 +1337,13 @@
     <t xml:space="preserve">2.49221587181091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56811213493347</t>
+    <t xml:space="preserve">2.56811237335205</t>
   </si>
   <si>
     <t xml:space="preserve">2.56966137886047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55572128295898</t>
+    <t xml:space="preserve">2.55572152137756</t>
   </si>
   <si>
     <t xml:space="preserve">2.78651070594788</t>
@@ -1364,10 +1364,10 @@
     <t xml:space="preserve">3.05137634277344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04363179206848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0358874797821</t>
+    <t xml:space="preserve">3.04363203048706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03588724136353</t>
   </si>
   <si>
     <t xml:space="preserve">3.07306122779846</t>
@@ -1388,7 +1388,7 @@
     <t xml:space="preserve">2.95224523544312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02659392356873</t>
+    <t xml:space="preserve">3.0265941619873</t>
   </si>
   <si>
     <t xml:space="preserve">3.00645804405212</t>
@@ -1397,10 +1397,10 @@
     <t xml:space="preserve">3.03898525238037</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94295167922974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93365859985352</t>
+    <t xml:space="preserve">2.94295191764832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93365836143494</t>
   </si>
   <si>
     <t xml:space="preserve">2.82213568687439</t>
@@ -5139,6 +5139,9 @@
   </si>
   <si>
     <t xml:space="preserve">7.23000001907349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21000003814697</t>
   </si>
 </sst>
 </file>
@@ -62082,7 +62085,7 @@
     </row>
     <row r="2178">
       <c r="A2178" s="1" t="n">
-        <v>45495.6495023148</v>
+        <v>45495.2916666667</v>
       </c>
       <c r="B2178" t="n">
         <v>2017090</v>
@@ -62103,6 +62106,32 @@
         <v>1708</v>
       </c>
       <c r="H2178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" s="1" t="n">
+        <v>45496.6495949074</v>
+      </c>
+      <c r="B2179" t="n">
+        <v>1678425</v>
+      </c>
+      <c r="C2179" t="n">
+        <v>7.26999998092651</v>
+      </c>
+      <c r="D2179" t="n">
+        <v>7.09999990463257</v>
+      </c>
+      <c r="E2179" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>7.21000003814697</v>
+      </c>
+      <c r="G2179" t="s">
+        <v>1709</v>
+      </c>
+      <c r="H2179" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BPSO.MI.xlsx
+++ b/data/BPSO.MI.xlsx
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03069806098938</t>
+    <t xml:space="preserve">3.03069829940796</t>
   </si>
   <si>
     <t xml:space="preserve">BPSO.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00987863540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94444632530212</t>
+    <t xml:space="preserve">3.00987887382507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94444608688354</t>
   </si>
   <si>
     <t xml:space="preserve">2.90578198432922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8239917755127</t>
+    <t xml:space="preserve">2.82399153709412</t>
   </si>
   <si>
     <t xml:space="preserve">2.79425024986267</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8849630355835</t>
+    <t xml:space="preserve">2.88496279716492</t>
   </si>
   <si>
     <t xml:space="preserve">2.89091157913208</t>
@@ -80,19 +80,19 @@
     <t xml:space="preserve">2.55036640167236</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57713389396667</t>
+    <t xml:space="preserve">2.5771336555481</t>
   </si>
   <si>
     <t xml:space="preserve">2.53400850296021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6990761756897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6187732219696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52359914779663</t>
+    <t xml:space="preserve">2.69907593727112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61877298355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52359890937805</t>
   </si>
   <si>
     <t xml:space="preserve">2.6128249168396</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">2.57564687728882</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48642206192017</t>
+    <t xml:space="preserve">2.48642182350159</t>
   </si>
   <si>
     <t xml:space="preserve">2.37935090065002</t>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">2.39124751091003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36745429039001</t>
+    <t xml:space="preserve">2.36745405197144</t>
   </si>
   <si>
     <t xml:space="preserve">2.18602824211121</t>
@@ -119,82 +119,82 @@
     <t xml:space="preserve">2.20982146263123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29607319831848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22469282150269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33771181106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38381195068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44032144546509</t>
+    <t xml:space="preserve">2.29607343673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22469258308411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33771204948425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38381218910217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44032168388367</t>
   </si>
   <si>
     <t xml:space="preserve">2.34960842132568</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31986665725708</t>
+    <t xml:space="preserve">2.31986713409424</t>
   </si>
   <si>
     <t xml:space="preserve">2.40611839294434</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34217286109924</t>
+    <t xml:space="preserve">2.34217309951782</t>
   </si>
   <si>
     <t xml:space="preserve">2.33176374435425</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37340235710144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42098927497864</t>
+    <t xml:space="preserve">2.37340259552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42098903656006</t>
   </si>
   <si>
     <t xml:space="preserve">2.48344755172729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5578019618988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55185341835022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54441785812378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40165686607361</t>
+    <t xml:space="preserve">2.55780172348022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5518536567688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54441809654236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40165734291077</t>
   </si>
   <si>
     <t xml:space="preserve">2.42396330833435</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41057991981506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48493456840515</t>
+    <t xml:space="preserve">2.41057944297791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48493480682373</t>
   </si>
   <si>
     <t xml:space="preserve">2.60687565803528</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52657294273376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46560192108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5131893157959</t>
+    <t xml:space="preserve">2.52657318115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46560168266296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51318955421448</t>
   </si>
   <si>
     <t xml:space="preserve">2.5280601978302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56375050544739</t>
+    <t xml:space="preserve">2.56375002861023</t>
   </si>
   <si>
     <t xml:space="preserve">2.45667934417725</t>
@@ -203,31 +203,31 @@
     <t xml:space="preserve">2.39719581604004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34365963935852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29161214828491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30053472518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27227997779846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21725726127625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1562864780426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16223526000977</t>
+    <t xml:space="preserve">2.34366011619568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29161238670349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30053448677063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27228021621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21725702285767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15628623962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16223478317261</t>
   </si>
   <si>
     <t xml:space="preserve">2.2187442779541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26781845092773</t>
+    <t xml:space="preserve">2.26781868934631</t>
   </si>
   <si>
     <t xml:space="preserve">2.27674126625061</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">2.4670889377594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39868307113647</t>
+    <t xml:space="preserve">2.39868330955505</t>
   </si>
   <si>
     <t xml:space="preserve">2.45370507240295</t>
@@ -248,13 +248,13 @@
     <t xml:space="preserve">2.4983184337616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49237060546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44180870056152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4893958568573</t>
+    <t xml:space="preserve">2.49237012863159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44180846214294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48939609527588</t>
   </si>
   <si>
     <t xml:space="preserve">2.4730372428894</t>
@@ -266,106 +266,106 @@
     <t xml:space="preserve">2.39422202110291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3109438419342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26187038421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23064041137695</t>
+    <t xml:space="preserve">2.31094408035278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26187062263489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23064064979553</t>
   </si>
   <si>
     <t xml:space="preserve">2.24848651885986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23807716369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25592184066772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19495105743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18305397033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2127959728241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17710590362549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22023105621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20387315750122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1977813243866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27850317955017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35617971420288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30744194984436</t>
+    <t xml:space="preserve">2.23807692527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2559220790863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19495058059692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18305420875549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21279573440552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17710566520691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22023129463196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2038733959198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19778108596802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27850341796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3561794757843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30744171142578</t>
   </si>
   <si>
     <t xml:space="preserve">2.33028769493103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30896520614624</t>
+    <t xml:space="preserve">2.30896496772766</t>
   </si>
   <si>
     <t xml:space="preserve">2.24194955825806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21910405158997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14142751693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09725856781006</t>
+    <t xml:space="preserve">2.21910381317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14142727851868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09725880622864</t>
   </si>
   <si>
     <t xml:space="preserve">2.01044392585754</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13076567649841</t>
+    <t xml:space="preserve">2.13076591491699</t>
   </si>
   <si>
     <t xml:space="preserve">2.07441306114197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08202838897705</t>
+    <t xml:space="preserve">2.08202815055847</t>
   </si>
   <si>
     <t xml:space="preserve">1.97236776351929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90839910507202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87641417980194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75913846492767</t>
+    <t xml:space="preserve">1.9083993434906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87641441822052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84899926185608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75913822650909</t>
   </si>
   <si>
     <t xml:space="preserve">1.81701505184174</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89621376991272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94038319587708</t>
+    <t xml:space="preserve">1.89621412754059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94038307666779</t>
   </si>
   <si>
     <t xml:space="preserve">1.9068751335144</t>
@@ -374,190 +374,190 @@
     <t xml:space="preserve">2.02872037887573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75152313709259</t>
+    <t xml:space="preserve">1.75152325630188</t>
   </si>
   <si>
     <t xml:space="preserve">1.67689335346222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78807711601257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77436888217926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75609219074249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7530460357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6890777349472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61901664733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63424706459045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64033949375153</t>
+    <t xml:space="preserve">1.78807687759399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77436876296997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75609230995178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75304615497589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68907785415649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61901640892029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63424730300903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64033925533295</t>
   </si>
   <si>
     <t xml:space="preserve">1.75456917285919</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79112327098846</t>
+    <t xml:space="preserve">1.79112315177917</t>
   </si>
   <si>
     <t xml:space="preserve">1.81549215316772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78960037231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86727643013</t>
+    <t xml:space="preserve">1.78960025310516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86727607250214</t>
   </si>
   <si>
     <t xml:space="preserve">1.83072257041931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8444299697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90230631828308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89316785335541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85052239894867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81853795051575</t>
+    <t xml:space="preserve">1.84442985057831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9023060798645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8931679725647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85052216053009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81853830814362</t>
   </si>
   <si>
     <t xml:space="preserve">1.84747624397278</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84138417243958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7819846868515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66470897197723</t>
+    <t xml:space="preserve">1.841383934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78198480606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66470909118652</t>
   </si>
   <si>
     <t xml:space="preserve">1.6875547170639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62967801094055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74999988079071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77741491794586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76523065567017</t>
+    <t xml:space="preserve">1.62967777252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77741503715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7652302980423</t>
   </si>
   <si>
     <t xml:space="preserve">1.80787670612335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83681499958038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82767629623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8215845823288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86879909038544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82919931411743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84290719032288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85509157180786</t>
+    <t xml:space="preserve">1.83681511878967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82767653465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82158434391022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86879920959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82919943332672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8429069519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85509169101715</t>
   </si>
   <si>
     <t xml:space="preserve">1.90992224216461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90535199642181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89773714542389</t>
+    <t xml:space="preserve">1.90535223484039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89773726463318</t>
   </si>
   <si>
     <t xml:space="preserve">1.89012181758881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88098335266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88859868049622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86575293540955</t>
+    <t xml:space="preserve">1.88098323345184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88859891891479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86575281620026</t>
   </si>
   <si>
     <t xml:space="preserve">1.89469110965729</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87336838245392</t>
+    <t xml:space="preserve">1.87336850166321</t>
   </si>
   <si>
     <t xml:space="preserve">1.85813772678375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91144514083862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98455190658569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98150599002838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94190633296967</t>
+    <t xml:space="preserve">1.91144526004791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98455202579498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98150587081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94190645217896</t>
   </si>
   <si>
     <t xml:space="preserve">1.96627521514893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97998285293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99216759204865</t>
+    <t xml:space="preserve">1.9799827337265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99216723442078</t>
   </si>
   <si>
     <t xml:space="preserve">2.08659768104553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11705851554871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24804210662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25870323181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22367310523987</t>
+    <t xml:space="preserve">2.11705875396729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24804186820984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25870370864868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22367286682129</t>
   </si>
   <si>
     <t xml:space="preserve">2.23433446884155</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23738050460815</t>
+    <t xml:space="preserve">2.23738074302673</t>
   </si>
   <si>
     <t xml:space="preserve">2.24651885032654</t>
@@ -566,34 +566,34 @@
     <t xml:space="preserve">2.31505727767944</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33790278434753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26479554176331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14295053482056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18407392501831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15208888053894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1993043422699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.209965467453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26631879806519</t>
+    <t xml:space="preserve">2.33790326118469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26479578018188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14295029640198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18407368659973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15208864212036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19930410385132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20996570587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26631832122803</t>
   </si>
   <si>
     <t xml:space="preserve">2.27697992324829</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31657981872559</t>
+    <t xml:space="preserve">2.31658029556274</t>
   </si>
   <si>
     <t xml:space="preserve">2.31353425979614</t>
@@ -602,34 +602,34 @@
     <t xml:space="preserve">2.28459525108337</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22976541519165</t>
+    <t xml:space="preserve">2.22976517677307</t>
   </si>
   <si>
     <t xml:space="preserve">2.18102741241455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22519636154175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24956512451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23890352249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15361166000366</t>
+    <t xml:space="preserve">2.22519612312317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24956464767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23890376091003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15361213684082</t>
   </si>
   <si>
     <t xml:space="preserve">2.27545714378357</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25413417816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22062730789185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32267236709595</t>
+    <t xml:space="preserve">2.2541344165802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22062659263611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32267212867737</t>
   </si>
   <si>
     <t xml:space="preserve">2.43690228462219</t>
@@ -638,7 +638,7 @@
     <t xml:space="preserve">2.54351687431335</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42471814155579</t>
+    <t xml:space="preserve">2.42471766471863</t>
   </si>
   <si>
     <t xml:space="preserve">2.39273285865784</t>
@@ -656,22 +656,22 @@
     <t xml:space="preserve">2.32419538497925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39577913284302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38054871559143</t>
+    <t xml:space="preserve">2.39577889442444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38054823875427</t>
   </si>
   <si>
     <t xml:space="preserve">2.37597942352295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36227178573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38207125663757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42624068260193</t>
+    <t xml:space="preserve">2.36227202415466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38207149505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42624092102051</t>
   </si>
   <si>
     <t xml:space="preserve">2.47497868537903</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">2.50848579406738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46888661384583</t>
+    <t xml:space="preserve">2.46888637542725</t>
   </si>
   <si>
     <t xml:space="preserve">2.46127104759216</t>
@@ -698,7 +698,7 @@
     <t xml:space="preserve">2.52828550338745</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52067017555237</t>
+    <t xml:space="preserve">2.52067041397095</t>
   </si>
   <si>
     <t xml:space="preserve">2.50696277618408</t>
@@ -707,13 +707,13 @@
     <t xml:space="preserve">2.57397818565369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58920860290527</t>
+    <t xml:space="preserve">2.58920836448669</t>
   </si>
   <si>
     <t xml:space="preserve">2.62728476524353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58311653137207</t>
+    <t xml:space="preserve">2.58311605453491</t>
   </si>
   <si>
     <t xml:space="preserve">2.58768558502197</t>
@@ -725,13 +725,13 @@
     <t xml:space="preserve">2.61814641952515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52219343185425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50391674041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4963014125824</t>
+    <t xml:space="preserve">2.52219319343567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5039165019989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49630165100098</t>
   </si>
   <si>
     <t xml:space="preserve">2.53285479545593</t>
@@ -743,19 +743,19 @@
     <t xml:space="preserve">2.44451761245728</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46431756019592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48868608474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50087070465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47345566749573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46279406547546</t>
+    <t xml:space="preserve">2.46431708335876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48868632316589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5008704662323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47345542907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46279430389404</t>
   </si>
   <si>
     <t xml:space="preserve">2.4171028137207</t>
@@ -764,7 +764,7 @@
     <t xml:space="preserve">2.28002619743347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28611850738525</t>
+    <t xml:space="preserve">2.28611826896667</t>
   </si>
   <si>
     <t xml:space="preserve">2.44756364822388</t>
@@ -776,7 +776,7 @@
     <t xml:space="preserve">2.43537902832031</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44147133827209</t>
+    <t xml:space="preserve">2.44147157669067</t>
   </si>
   <si>
     <t xml:space="preserve">2.47802472114563</t>
@@ -785,22 +785,22 @@
     <t xml:space="preserve">2.50543975830078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54808616638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4947783946991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53590083122253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51610112190247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45822501182556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46736359596252</t>
+    <t xml:space="preserve">2.54808640480042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49477815628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53590130805969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51610136032104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45822477340698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46736335754395</t>
   </si>
   <si>
     <t xml:space="preserve">2.45060968399048</t>
@@ -809,40 +809,40 @@
     <t xml:space="preserve">2.48564004898071</t>
   </si>
   <si>
-    <t xml:space="preserve">2.446040391922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45365619659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45670199394226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47040915489197</t>
+    <t xml:space="preserve">2.44604063034058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45365571975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45670247077942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47040939331055</t>
   </si>
   <si>
     <t xml:space="preserve">2.52371621131897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47650146484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4978244304657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64251565933228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60443925857544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60291624069214</t>
+    <t xml:space="preserve">2.47650194168091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49782419204712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6425154209137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60443902015686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60291600227356</t>
   </si>
   <si>
     <t xml:space="preserve">2.67602372169495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63946962356567</t>
+    <t xml:space="preserve">2.63946914672852</t>
   </si>
   <si>
     <t xml:space="preserve">2.66383838653564</t>
@@ -851,16 +851,16 @@
     <t xml:space="preserve">2.69582295417786</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69734644889832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75217628479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71409964561462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66536116600037</t>
+    <t xml:space="preserve">2.69734621047974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75217652320862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7140998840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66536140441895</t>
   </si>
   <si>
     <t xml:space="preserve">2.68363881111145</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">2.68668508529663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68820786476135</t>
+    <t xml:space="preserve">2.68820762634277</t>
   </si>
   <si>
     <t xml:space="preserve">2.68516182899475</t>
@@ -878,22 +878,22 @@
     <t xml:space="preserve">2.73694562911987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75553250312805</t>
+    <t xml:space="preserve">2.75553226470947</t>
   </si>
   <si>
     <t xml:space="preserve">2.82058691978455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84537029266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89958238601685</t>
+    <t xml:space="preserve">2.845370054245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89958214759827</t>
   </si>
   <si>
     <t xml:space="preserve">2.74933695793152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70596623420715</t>
+    <t xml:space="preserve">2.70596647262573</t>
   </si>
   <si>
     <t xml:space="preserve">2.70906448364258</t>
@@ -902,37 +902,37 @@
     <t xml:space="preserve">2.65020561218262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70131993293762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69357514381409</t>
+    <t xml:space="preserve">2.70131945610046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69357490539551</t>
   </si>
   <si>
     <t xml:space="preserve">2.64710783958435</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66724371910095</t>
+    <t xml:space="preserve">2.66724395751953</t>
   </si>
   <si>
     <t xml:space="preserve">2.65175437927246</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69667339324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63161897659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65640139579773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63626575469971</t>
+    <t xml:space="preserve">2.69667291641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63161873817444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65640115737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63626551628113</t>
   </si>
   <si>
     <t xml:space="preserve">2.65795016288757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63316750526428</t>
+    <t xml:space="preserve">2.63316774368286</t>
   </si>
   <si>
     <t xml:space="preserve">2.659499168396</t>
@@ -953,43 +953,43 @@
     <t xml:space="preserve">2.7880597114563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7415919303894</t>
+    <t xml:space="preserve">2.74159240722656</t>
   </si>
   <si>
     <t xml:space="preserve">2.67343926429749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77721738815308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85311460494995</t>
+    <t xml:space="preserve">2.7772171497345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85311484336853</t>
   </si>
   <si>
     <t xml:space="preserve">2.80045104026794</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81903791427612</t>
+    <t xml:space="preserve">2.81903767585754</t>
   </si>
   <si>
     <t xml:space="preserve">2.80974435806274</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80354905128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92126703262329</t>
+    <t xml:space="preserve">2.80354881286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92126679420471</t>
   </si>
   <si>
     <t xml:space="preserve">2.93210935592651</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91662001609802</t>
+    <t xml:space="preserve">2.9166202545166</t>
   </si>
   <si>
     <t xml:space="preserve">2.90577793121338</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90732669830322</t>
+    <t xml:space="preserve">2.9073269367218</t>
   </si>
   <si>
     <t xml:space="preserve">2.90113091468811</t>
@@ -998,10 +998,10 @@
     <t xml:space="preserve">2.88099527359009</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8778977394104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87944602966309</t>
+    <t xml:space="preserve">2.87789750099182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87944626808167</t>
   </si>
   <si>
     <t xml:space="preserve">2.90422916412354</t>
@@ -1010,13 +1010,13 @@
     <t xml:space="preserve">2.83917379379272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87015295028687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86240839958191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86085939407349</t>
+    <t xml:space="preserve">2.87015318870544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86240816116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86085915565491</t>
   </si>
   <si>
     <t xml:space="preserve">2.84227180480957</t>
@@ -1025,10 +1025,10 @@
     <t xml:space="preserve">2.84072256088257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85776138305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84846806526184</t>
+    <t xml:space="preserve">2.85776162147522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84846830368042</t>
   </si>
   <si>
     <t xml:space="preserve">2.83452701568604</t>
@@ -1049,16 +1049,16 @@
     <t xml:space="preserve">2.76017928123474</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70441794395447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66259694099426</t>
+    <t xml:space="preserve">2.70441770553589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66259670257568</t>
   </si>
   <si>
     <t xml:space="preserve">2.68118405342102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69977068901062</t>
+    <t xml:space="preserve">2.6997709274292</t>
   </si>
   <si>
     <t xml:space="preserve">2.69047737121582</t>
@@ -1073,37 +1073,37 @@
     <t xml:space="preserve">2.73384761810303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68583035469055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73229885101318</t>
+    <t xml:space="preserve">2.68583059310913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73229908943176</t>
   </si>
   <si>
     <t xml:space="preserve">2.72765207290649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71680998802185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76327681541443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82988047599792</t>
+    <t xml:space="preserve">2.71680974960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76327729225159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82988023757935</t>
   </si>
   <si>
     <t xml:space="preserve">2.81748914718628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77411913871765</t>
+    <t xml:space="preserve">2.77411961555481</t>
   </si>
   <si>
     <t xml:space="preserve">2.70286870002747</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69512438774109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67034125328064</t>
+    <t xml:space="preserve">2.69512462615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67034149169922</t>
   </si>
   <si>
     <t xml:space="preserve">2.71525979042053</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">2.66879272460938</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64865660667419</t>
+    <t xml:space="preserve">2.64865684509277</t>
   </si>
   <si>
     <t xml:space="preserve">2.68273282051086</t>
@@ -1127,46 +1127,46 @@
     <t xml:space="preserve">2.67653703689575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65485215187073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69202613830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62387442588806</t>
+    <t xml:space="preserve">2.65485239028931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69202637672424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62387418746948</t>
   </si>
   <si>
     <t xml:space="preserve">2.57895493507385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63006997108459</t>
+    <t xml:space="preserve">2.63006973266602</t>
   </si>
   <si>
     <t xml:space="preserve">2.58205246925354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45968866348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40702486038208</t>
+    <t xml:space="preserve">2.45968842506409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4070246219635</t>
   </si>
   <si>
     <t xml:space="preserve">2.44419884681702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34042167663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35436153411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37914443016052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42406272888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44729661941528</t>
+    <t xml:space="preserve">2.34042143821716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35436177253723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37914419174194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42406296730042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4472963809967</t>
   </si>
   <si>
     <t xml:space="preserve">2.44884538650513</t>
@@ -1175,49 +1175,49 @@
     <t xml:space="preserve">2.49066662788391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51544952392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54797673225403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58670020103455</t>
+    <t xml:space="preserve">2.5154492855072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54797649383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58669996261597</t>
   </si>
   <si>
     <t xml:space="preserve">2.50925374031067</t>
   </si>
   <si>
-    <t xml:space="preserve">2.524742603302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52784109115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5077052116394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54642772674561</t>
+    <t xml:space="preserve">2.52474308013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52784085273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50770497322083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54642748832703</t>
   </si>
   <si>
     <t xml:space="preserve">2.56346583366394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57121014595032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57740592956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50305795669556</t>
+    <t xml:space="preserve">2.5712103843689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57740616798401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50305819511414</t>
   </si>
   <si>
     <t xml:space="preserve">2.45658993721008</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36210632324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39928030967712</t>
+    <t xml:space="preserve">2.36210608482361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39928007125854</t>
   </si>
   <si>
     <t xml:space="preserve">2.3977313041687</t>
@@ -1226,7 +1226,7 @@
     <t xml:space="preserve">2.39308452606201</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33887267112732</t>
+    <t xml:space="preserve">2.33887243270874</t>
   </si>
   <si>
     <t xml:space="preserve">2.37604641914368</t>
@@ -1235,25 +1235,25 @@
     <t xml:space="preserve">2.40547585487366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35745930671692</t>
+    <t xml:space="preserve">2.3574595451355</t>
   </si>
   <si>
     <t xml:space="preserve">2.38534021377563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44574737548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47827553749084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47517800331116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55881905555725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55727005004883</t>
+    <t xml:space="preserve">2.44574785232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47827529907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47517776489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55881881713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55727028846741</t>
   </si>
   <si>
     <t xml:space="preserve">2.51390075683594</t>
@@ -1262,10 +1262,10 @@
     <t xml:space="preserve">2.51235151290894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53403663635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56501436233521</t>
+    <t xml:space="preserve">2.53403615951538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56501460075378</t>
   </si>
   <si>
     <t xml:space="preserve">2.57430791854858</t>
@@ -1274,10 +1274,10 @@
     <t xml:space="preserve">2.57585716247559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49376463890076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51699805259705</t>
+    <t xml:space="preserve">2.49376487731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5169985294342</t>
   </si>
   <si>
     <t xml:space="preserve">2.49996042251587</t>
@@ -1295,16 +1295,16 @@
     <t xml:space="preserve">2.46743321418762</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48602032661438</t>
+    <t xml:space="preserve">2.4860200881958</t>
   </si>
   <si>
     <t xml:space="preserve">2.47207999229431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54178094863892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60218930244446</t>
+    <t xml:space="preserve">2.5417811870575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60218906402588</t>
   </si>
   <si>
     <t xml:space="preserve">2.53248739242554</t>
@@ -1316,22 +1316,22 @@
     <t xml:space="preserve">2.52164506912231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43955206871033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49531364440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47053122520447</t>
+    <t xml:space="preserve">2.43955183029175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4953134059906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47053074836731</t>
   </si>
   <si>
     <t xml:space="preserve">2.46433544158936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54332995414734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49686217308044</t>
+    <t xml:space="preserve">2.54332971572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49686241149902</t>
   </si>
   <si>
     <t xml:space="preserve">2.49221587181091</t>
@@ -1340,28 +1340,28 @@
     <t xml:space="preserve">2.56811237335205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56966137886047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55572152137756</t>
+    <t xml:space="preserve">2.56966161727905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55572128295898</t>
   </si>
   <si>
     <t xml:space="preserve">2.78651070594788</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91352272033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90267968177795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95069646835327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97547960281372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05137634277344</t>
+    <t xml:space="preserve">2.91352248191833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90267992019653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95069599151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9754798412323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05137658119202</t>
   </si>
   <si>
     <t xml:space="preserve">3.04363203048706</t>
@@ -1370,25 +1370,25 @@
     <t xml:space="preserve">3.03588724136353</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07306122779846</t>
+    <t xml:space="preserve">3.07306146621704</t>
   </si>
   <si>
     <t xml:space="preserve">3.10713791847229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03124046325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92591404914856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98477339744568</t>
+    <t xml:space="preserve">3.03124070167542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9259135723114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98477292060852</t>
   </si>
   <si>
     <t xml:space="preserve">2.95224523544312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0265941619873</t>
+    <t xml:space="preserve">3.02659392356873</t>
   </si>
   <si>
     <t xml:space="preserve">3.00645804405212</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">3.03898525238037</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94295191764832</t>
+    <t xml:space="preserve">2.94295167922974</t>
   </si>
   <si>
     <t xml:space="preserve">2.93365836143494</t>
@@ -1409,31 +1409,31 @@
     <t xml:space="preserve">2.85056257247925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83950781822205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.905837059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89636063575745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81897735595703</t>
+    <t xml:space="preserve">2.83950757980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90583682060242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89636039733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81897711753845</t>
   </si>
   <si>
     <t xml:space="preserve">2.70842885971069</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65947246551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70211219787598</t>
+    <t xml:space="preserve">2.65947222709656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70211172103882</t>
   </si>
   <si>
     <t xml:space="preserve">2.74791049957275</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79686784744263</t>
+    <t xml:space="preserve">2.79686808586121</t>
   </si>
   <si>
     <t xml:space="preserve">2.76054430007935</t>
@@ -1445,37 +1445,37 @@
     <t xml:space="preserve">2.77633762359619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80476379394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77475833892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7305383682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74317240715027</t>
+    <t xml:space="preserve">2.80476403236389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7747585773468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73053860664368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74317264556885</t>
   </si>
   <si>
     <t xml:space="preserve">2.73843479156494</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72738027572632</t>
+    <t xml:space="preserve">2.72737979888916</t>
   </si>
   <si>
     <t xml:space="preserve">2.75422739982605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69263672828674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68947839736938</t>
+    <t xml:space="preserve">2.69263648986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68947815895081</t>
   </si>
   <si>
     <t xml:space="preserve">2.71790432929993</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72264242172241</t>
+    <t xml:space="preserve">2.72264218330383</t>
   </si>
   <si>
     <t xml:space="preserve">2.8426661491394</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">2.8489830493927</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89793968200684</t>
+    <t xml:space="preserve">2.89793992042542</t>
   </si>
   <si>
     <t xml:space="preserve">2.88214731216431</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">2.8379282951355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83161091804504</t>
+    <t xml:space="preserve">2.83161115646362</t>
   </si>
   <si>
     <t xml:space="preserve">2.855299949646</t>
@@ -1511,19 +1511,19 @@
     <t xml:space="preserve">2.83319067955017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82687377929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85372114181519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90741586685181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92636728286743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91057443618774</t>
+    <t xml:space="preserve">2.8268735408783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85372090339661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90741610527039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92636704444885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91057467460632</t>
   </si>
   <si>
     <t xml:space="preserve">2.92794632911682</t>
@@ -1538,22 +1538,22 @@
     <t xml:space="preserve">2.88372659683228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88056826591492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86793398857117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83476948738098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83003211021423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75896501541138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80002641677856</t>
+    <t xml:space="preserve">2.88056802749634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86793375015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83476996421814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83003187179565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7589647769928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80002617835999</t>
   </si>
   <si>
     <t xml:space="preserve">2.79528856277466</t>
@@ -1562,19 +1562,19 @@
     <t xml:space="preserve">2.77317905426025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76528215408325</t>
+    <t xml:space="preserve">2.76528191566467</t>
   </si>
   <si>
     <t xml:space="preserve">2.71632528305054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66578912734985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64841771125793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68000268936157</t>
+    <t xml:space="preserve">2.66578936576843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64841747283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68000245094299</t>
   </si>
   <si>
     <t xml:space="preserve">2.74633097648621</t>
@@ -1583,10 +1583,10 @@
     <t xml:space="preserve">2.86161708831787</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86477541923523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84424495697021</t>
+    <t xml:space="preserve">2.86477565765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84424519538879</t>
   </si>
   <si>
     <t xml:space="preserve">2.87583041191101</t>
@@ -1595,7 +1595,7 @@
     <t xml:space="preserve">2.85214138031006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81108093261719</t>
+    <t xml:space="preserve">2.81108117103577</t>
   </si>
   <si>
     <t xml:space="preserve">2.81739807128906</t>
@@ -1607,28 +1607,28 @@
     <t xml:space="preserve">2.80792236328125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59472227096558</t>
+    <t xml:space="preserve">2.59472250938416</t>
   </si>
   <si>
     <t xml:space="preserve">2.59156394004822</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53471112251282</t>
+    <t xml:space="preserve">2.53471088409424</t>
   </si>
   <si>
     <t xml:space="preserve">2.559978723526</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58524656295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50312519073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4067907333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38941884040833</t>
+    <t xml:space="preserve">2.58524680137634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50312471389771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40679097175598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3894190788269</t>
   </si>
   <si>
     <t xml:space="preserve">2.38783979415894</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">2.33572387695312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3104555606842</t>
+    <t xml:space="preserve">2.31045579910278</t>
   </si>
   <si>
     <t xml:space="preserve">2.35941243171692</t>
@@ -1658,40 +1658,40 @@
     <t xml:space="preserve">2.23623037338257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18727350234985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1525297164917</t>
+    <t xml:space="preserve">2.18727326393127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15252995491028</t>
   </si>
   <si>
     <t xml:space="preserve">2.19832825660706</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25518226623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20464515686035</t>
+    <t xml:space="preserve">2.25518202781677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20464539527893</t>
   </si>
   <si>
     <t xml:space="preserve">2.20148682594299</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2425479888916</t>
+    <t xml:space="preserve">2.24254775047302</t>
   </si>
   <si>
     <t xml:space="preserve">2.28834629058838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26781606674194</t>
+    <t xml:space="preserve">2.26781582832336</t>
   </si>
   <si>
     <t xml:space="preserve">2.24886512756348</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25202345848083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25044417381287</t>
+    <t xml:space="preserve">2.25202322006226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25044441223145</t>
   </si>
   <si>
     <t xml:space="preserve">2.23938870429993</t>
@@ -1703,22 +1703,22 @@
     <t xml:space="preserve">2.21569991111755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19674873352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19359064102173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17148113250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16358470916748</t>
+    <t xml:space="preserve">2.19674897193909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19359040260315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17148065567017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16358494758606</t>
   </si>
   <si>
     <t xml:space="preserve">2.11462807655334</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12094521522522</t>
+    <t xml:space="preserve">2.12094497680664</t>
   </si>
   <si>
     <t xml:space="preserve">2.10199332237244</t>
@@ -1727,10 +1727,10 @@
     <t xml:space="preserve">2.12568283081055</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22833371162415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21096229553223</t>
+    <t xml:space="preserve">2.2283341884613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21096205711365</t>
   </si>
   <si>
     <t xml:space="preserve">2.22675466537476</t>
@@ -1742,31 +1742,31 @@
     <t xml:space="preserve">2.23465085029602</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20306587219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09567618370056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12410354614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08304214477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07514619827271</t>
+    <t xml:space="preserve">2.2030656337738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09567642211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.124103307724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08304238319397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07514572143555</t>
   </si>
   <si>
     <t xml:space="preserve">2.10673093795776</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10831022262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02776861190796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12252426147461</t>
+    <t xml:space="preserve">2.10831046104431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02776837348938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12252402305603</t>
   </si>
   <si>
     <t xml:space="preserve">2.05145716667175</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">2.00881743431091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00723838806152</t>
+    <t xml:space="preserve">2.0072386264801</t>
   </si>
   <si>
     <t xml:space="preserve">2.07830476760864</t>
@@ -1790,10 +1790,10 @@
     <t xml:space="preserve">2.1462128162384</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13673734664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13357925415039</t>
+    <t xml:space="preserve">2.13673758506775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13357901573181</t>
   </si>
   <si>
     <t xml:space="preserve">2.0877799987793</t>
@@ -1805,16 +1805,16 @@
     <t xml:space="preserve">2.00565886497498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05619502067566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02934741973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99776291847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98512864112854</t>
+    <t xml:space="preserve">2.05619525909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02934789657593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.997762799263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98512887954712</t>
   </si>
   <si>
     <t xml:space="preserve">1.96933531761169</t>
@@ -1823,22 +1823,22 @@
     <t xml:space="preserve">2.01987242698669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98354935646057</t>
+    <t xml:space="preserve">1.98354947566986</t>
   </si>
   <si>
     <t xml:space="preserve">1.95512211322784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90932416915894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8382568359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8161473274231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83193981647491</t>
+    <t xml:space="preserve">1.90932404994965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83825695514679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81614744663239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8319399356842</t>
   </si>
   <si>
     <t xml:space="preserve">1.8556295633316</t>
@@ -1853,34 +1853,34 @@
     <t xml:space="preserve">1.88721454143524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91406190395355</t>
+    <t xml:space="preserve">1.91406178474426</t>
   </si>
   <si>
     <t xml:space="preserve">1.93459188938141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96459805965424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01039695739746</t>
+    <t xml:space="preserve">1.96459758281708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01039671897888</t>
   </si>
   <si>
     <t xml:space="preserve">2.00250053405762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97723174095154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97091472148895</t>
+    <t xml:space="preserve">1.97723150253296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97091484069824</t>
   </si>
   <si>
     <t xml:space="preserve">1.9630184173584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9740731716156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96775639057159</t>
+    <t xml:space="preserve">1.97407305240631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9677562713623</t>
   </si>
   <si>
     <t xml:space="preserve">2.03250622749329</t>
@@ -1889,76 +1889,76 @@
     <t xml:space="preserve">2.02460980415344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01671361923218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04671931266785</t>
+    <t xml:space="preserve">2.01671385765076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04671955108643</t>
   </si>
   <si>
     <t xml:space="preserve">2.00407958030701</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93143332004547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93301248550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91879940032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88089728355408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94248843193054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94090902805328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96617698669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92353713512421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90142774581909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93775045871735</t>
+    <t xml:space="preserve">1.93143343925476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93301260471344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9187992811203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88089752197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94248831272125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9409087896347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96617686748505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9235372543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9014276266098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93775057792664</t>
   </si>
   <si>
     <t xml:space="preserve">1.92669570446014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92511653900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93617105484009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90774476528168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87931835651398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83509814739227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82878148555756</t>
+    <t xml:space="preserve">1.92511665821075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93617141246796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90774488449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8793181180954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83509850502014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82878160476685</t>
   </si>
   <si>
     <t xml:space="preserve">1.86984264850616</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89037263393402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89826917648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90458607673645</t>
+    <t xml:space="preserve">1.89037275314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89826941490173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90458631515503</t>
   </si>
   <si>
     <t xml:space="preserve">1.91564083099365</t>
@@ -1973,16 +1973,16 @@
     <t xml:space="preserve">1.79877555370331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7261301279068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6913857460022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.645587682724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66927647590637</t>
+    <t xml:space="preserve">1.72613024711609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69138586521149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64558780193329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66927635669708</t>
   </si>
   <si>
     <t xml:space="preserve">1.65190458297729</t>
@@ -1991,16 +1991,16 @@
     <t xml:space="preserve">1.64381504058838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64543294906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67617356777191</t>
+    <t xml:space="preserve">1.64543306827545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6761736869812</t>
   </si>
   <si>
     <t xml:space="preserve">1.65352272987366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66646599769592</t>
+    <t xml:space="preserve">1.66646587848663</t>
   </si>
   <si>
     <t xml:space="preserve">1.64866888523102</t>
@@ -2021,7 +2021,7 @@
     <t xml:space="preserve">1.68102717399597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70206010341644</t>
+    <t xml:space="preserve">1.70206022262573</t>
   </si>
   <si>
     <t xml:space="preserve">1.61792755126953</t>
@@ -2033,7 +2033,7 @@
     <t xml:space="preserve">1.63572549819946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57667064666748</t>
+    <t xml:space="preserve">1.57667076587677</t>
   </si>
   <si>
     <t xml:space="preserve">1.5750527381897</t>
@@ -2045,49 +2045,49 @@
     <t xml:space="preserve">1.55482876300812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57343482971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60013043880463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58961391448975</t>
+    <t xml:space="preserve">1.5734349489212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60013031959534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58961403369904</t>
   </si>
   <si>
     <t xml:space="preserve">1.60741114616394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56291818618774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57262599468231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59608566761017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58799624443054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58637833595276</t>
+    <t xml:space="preserve">1.56291830539703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57262587547302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59608578681946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58799612522125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58637821674347</t>
   </si>
   <si>
     <t xml:space="preserve">1.64219725131989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6874988079071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67455542087555</t>
+    <t xml:space="preserve">1.68749892711639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67455554008484</t>
   </si>
   <si>
     <t xml:space="preserve">1.63410770893097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6114559173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57828843593597</t>
+    <t xml:space="preserve">1.61145579814911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57828855514526</t>
   </si>
   <si>
     <t xml:space="preserve">1.57747960090637</t>
@@ -2096,7 +2096,7 @@
     <t xml:space="preserve">1.55240190029144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55725574493408</t>
+    <t xml:space="preserve">1.5572555065155</t>
   </si>
   <si>
     <t xml:space="preserve">1.57100796699524</t>
@@ -2108,10 +2108,10 @@
     <t xml:space="preserve">1.54916608333588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54026758670807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52408826351166</t>
+    <t xml:space="preserve">1.54026746749878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52408838272095</t>
   </si>
   <si>
     <t xml:space="preserve">1.52166152000427</t>
@@ -2126,22 +2126,22 @@
     <t xml:space="preserve">1.50710010528564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50062847137451</t>
+    <t xml:space="preserve">1.50062835216522</t>
   </si>
   <si>
     <t xml:space="preserve">1.49011206626892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48525738716125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37523901462555</t>
+    <t xml:space="preserve">1.48525762557983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37523889541626</t>
   </si>
   <si>
     <t xml:space="preserve">1.34287989139557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3404529094696</t>
+    <t xml:space="preserve">1.34045279026031</t>
   </si>
   <si>
     <t xml:space="preserve">1.286252617836</t>
@@ -2153,10 +2153,10 @@
     <t xml:space="preserve">1.3420706987381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30890333652496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31861102581024</t>
+    <t xml:space="preserve">1.30890345573425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31861114501953</t>
   </si>
   <si>
     <t xml:space="preserve">1.36795830726624</t>
@@ -2165,13 +2165,13 @@
     <t xml:space="preserve">1.35663294792175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36714935302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40759742259979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3614866733551</t>
+    <t xml:space="preserve">1.36714947223663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4075973033905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36148655414581</t>
   </si>
   <si>
     <t xml:space="preserve">1.37362098693848</t>
@@ -2189,28 +2189,28 @@
     <t xml:space="preserve">1.47231411933899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44885432720184</t>
+    <t xml:space="preserve">1.44885420799255</t>
   </si>
   <si>
     <t xml:space="preserve">1.5103360414505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49820172786713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46422457695007</t>
+    <t xml:space="preserve">1.49820160865784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46422445774078</t>
   </si>
   <si>
     <t xml:space="preserve">1.44723629951477</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45613503456116</t>
+    <t xml:space="preserve">1.45613491535187</t>
   </si>
   <si>
     <t xml:space="preserve">1.46179759502411</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43267500400543</t>
+    <t xml:space="preserve">1.43267512321472</t>
   </si>
   <si>
     <t xml:space="preserve">1.39546287059784</t>
@@ -2222,7 +2222,7 @@
     <t xml:space="preserve">1.35097014904022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35905969142914</t>
+    <t xml:space="preserve">1.35905981063843</t>
   </si>
   <si>
     <t xml:space="preserve">1.34449768066406</t>
@@ -2231,25 +2231,25 @@
     <t xml:space="preserve">1.36553144454956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37119424343109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34935140609741</t>
+    <t xml:space="preserve">1.3711941242218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34935128688812</t>
   </si>
   <si>
     <t xml:space="preserve">1.34368872642517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35986876487732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37281215190887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3970810174942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43186616897583</t>
+    <t xml:space="preserve">1.35986864566803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37281203269958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39708089828491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43186593055725</t>
   </si>
   <si>
     <t xml:space="preserve">1.45775282382965</t>
@@ -2270,13 +2270,13 @@
     <t xml:space="preserve">1.45856177806854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45937073230743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43672001361847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46503341197968</t>
+    <t xml:space="preserve">1.45937085151672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43671989440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46503353118896</t>
   </si>
   <si>
     <t xml:space="preserve">1.52651512622833</t>
@@ -2285,10 +2285,10 @@
     <t xml:space="preserve">1.51842558383942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53541374206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50548231601715</t>
+    <t xml:space="preserve">1.53541386127472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50548219680786</t>
   </si>
   <si>
     <t xml:space="preserve">1.53703165054321</t>
@@ -2297,10 +2297,10 @@
     <t xml:space="preserve">1.74574387073517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69558835029602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69073474407196</t>
+    <t xml:space="preserve">1.69558846950531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69073486328125</t>
   </si>
   <si>
     <t xml:space="preserve">1.69397056102753</t>
@@ -2309,52 +2309,52 @@
     <t xml:space="preserve">1.65675842761993</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64705097675323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63087177276611</t>
+    <t xml:space="preserve">1.64705109596252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63087165355682</t>
   </si>
   <si>
     <t xml:space="preserve">1.66323018074036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71662151813507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74736177921295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.715003490448</t>
+    <t xml:space="preserve">1.71662139892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74736201763153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71500360965729</t>
   </si>
   <si>
     <t xml:space="preserve">1.73603653907776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6599942445755</t>
+    <t xml:space="preserve">1.65999412536621</t>
   </si>
   <si>
     <t xml:space="preserve">1.68426311016083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72632873058319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75868821144104</t>
+    <t xml:space="preserve">1.72632884979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75868833065033</t>
   </si>
   <si>
     <t xml:space="preserve">1.72794687747955</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73280048370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70529615879059</t>
+    <t xml:space="preserve">1.73280072212219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7052960395813</t>
   </si>
   <si>
     <t xml:space="preserve">1.70044231414795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73441851139069</t>
+    <t xml:space="preserve">1.73441863059998</t>
   </si>
   <si>
     <t xml:space="preserve">1.69235265254974</t>
@@ -2363,16 +2363,16 @@
     <t xml:space="preserve">1.67131972312927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66970193386078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71176767349243</t>
+    <t xml:space="preserve">1.66970181465149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71176755428314</t>
   </si>
   <si>
     <t xml:space="preserve">1.71823930740356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69882428646088</t>
+    <t xml:space="preserve">1.69882452487946</t>
   </si>
   <si>
     <t xml:space="preserve">1.7133857011795</t>
@@ -2381,13 +2381,13 @@
     <t xml:space="preserve">1.71014976501465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70367813110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63896131515503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62116420269012</t>
+    <t xml:space="preserve">1.70367801189423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63896143436432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62116432189941</t>
   </si>
   <si>
     <t xml:space="preserve">1.61711859703064</t>
@@ -2396,7 +2396,7 @@
     <t xml:space="preserve">1.6324896812439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6502867937088</t>
+    <t xml:space="preserve">1.65028667449951</t>
   </si>
   <si>
     <t xml:space="preserve">1.75545156002045</t>
@@ -2405,31 +2405,31 @@
     <t xml:space="preserve">1.88488590717316</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93504214286804</t>
+    <t xml:space="preserve">1.93504202365875</t>
   </si>
   <si>
     <t xml:space="preserve">1.91077327728271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97063624858856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17449569702148</t>
+    <t xml:space="preserve">1.97063612937927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17449593544006</t>
   </si>
   <si>
     <t xml:space="preserve">2.21656179428101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08712720870972</t>
+    <t xml:space="preserve">2.0871274471283</t>
   </si>
   <si>
     <t xml:space="preserve">2.02564549446106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90591943264008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89944779872894</t>
+    <t xml:space="preserve">1.90591979026794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89944767951965</t>
   </si>
   <si>
     <t xml:space="preserve">1.94636762142181</t>
@@ -2450,16 +2450,16 @@
     <t xml:space="preserve">1.32912743091583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28463470935822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26845562458038</t>
+    <t xml:space="preserve">1.2846348285675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26845550537109</t>
   </si>
   <si>
     <t xml:space="preserve">1.02819299697876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06621408462524</t>
+    <t xml:space="preserve">1.06621420383453</t>
   </si>
   <si>
     <t xml:space="preserve">0.984509289264679</t>
@@ -2471,19 +2471,19 @@
     <t xml:space="preserve">1.03142881393433</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09129250049591</t>
+    <t xml:space="preserve">1.0912926197052</t>
   </si>
   <si>
     <t xml:space="preserve">1.11798822879791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0613602399826</t>
+    <t xml:space="preserve">1.06136035919189</t>
   </si>
   <si>
     <t xml:space="preserve">1.14791977405548</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15600955486298</t>
+    <t xml:space="preserve">1.15600943565369</t>
   </si>
   <si>
     <t xml:space="preserve">1.14387500286102</t>
@@ -2492,7 +2492,7 @@
     <t xml:space="preserve">1.09210157394409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07106792926788</t>
+    <t xml:space="preserve">1.07106781005859</t>
   </si>
   <si>
     <t xml:space="preserve">1.11556148529053</t>
@@ -2513,10 +2513,10 @@
     <t xml:space="preserve">1.21991789340973</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28787064552307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25065839290619</t>
+    <t xml:space="preserve">1.28787052631378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25065851211548</t>
   </si>
   <si>
     <t xml:space="preserve">1.24904048442841</t>
@@ -2525,7 +2525,7 @@
     <t xml:space="preserve">1.16490793228149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14306604862213</t>
+    <t xml:space="preserve">1.14306592941284</t>
   </si>
   <si>
     <t xml:space="preserve">1.17218852043152</t>
@@ -2534,19 +2534,19 @@
     <t xml:space="preserve">1.13902127742767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17299747467041</t>
+    <t xml:space="preserve">1.1729975938797</t>
   </si>
   <si>
     <t xml:space="preserve">1.15520036220551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15924513339996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15115571022034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16409909725189</t>
+    <t xml:space="preserve">1.15924525260925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15115559101105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1640989780426</t>
   </si>
   <si>
     <t xml:space="preserve">1.17057073116302</t>
@@ -2555,10 +2555,10 @@
     <t xml:space="preserve">1.11151659488678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14953780174255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12445998191833</t>
+    <t xml:space="preserve">1.14953768253326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12445986270905</t>
   </si>
   <si>
     <t xml:space="preserve">1.1090897321701</t>
@@ -2567,7 +2567,7 @@
     <t xml:space="preserve">1.11879730224609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11717939376831</t>
+    <t xml:space="preserve">1.11717927455902</t>
   </si>
   <si>
     <t xml:space="preserve">1.08401203155518</t>
@@ -2585,31 +2585,31 @@
     <t xml:space="preserve">1.01039588451385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992598831653595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986936092376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.978846430778503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05650651454926</t>
+    <t xml:space="preserve">0.99259877204895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.986935973167419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.978846490383148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05650663375854</t>
   </si>
   <si>
     <t xml:space="preserve">1.06864094734192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13416755199432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17542445659637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18108701705933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21506357192993</t>
+    <t xml:space="preserve">1.13416743278503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17542433738708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18108689785004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21506333351135</t>
   </si>
   <si>
     <t xml:space="preserve">1.26602864265442</t>
@@ -2618,28 +2618,28 @@
     <t xml:space="preserve">1.30162286758423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32750976085663</t>
+    <t xml:space="preserve">1.32750964164734</t>
   </si>
   <si>
     <t xml:space="preserve">1.28544366359711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27411818504333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22962546348572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25146746635437</t>
+    <t xml:space="preserve">1.27411830425262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22962558269501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25146734714508</t>
   </si>
   <si>
     <t xml:space="preserve">1.27169132232666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24499583244324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27816295623779</t>
+    <t xml:space="preserve">1.24499571323395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27816307544708</t>
   </si>
   <si>
     <t xml:space="preserve">1.25389432907104</t>
@@ -2651,16 +2651,16 @@
     <t xml:space="preserve">1.38494646549225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46017980575562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50386416912079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51195394992828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49334788322449</t>
+    <t xml:space="preserve">1.46017968654633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50386428833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51195383071899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4933477640152</t>
   </si>
   <si>
     <t xml:space="preserve">1.49901056289673</t>
@@ -2669,19 +2669,19 @@
     <t xml:space="preserve">1.50143754482269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50305533409119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51680779457092</t>
+    <t xml:space="preserve">1.50305545330048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51680767536163</t>
   </si>
   <si>
     <t xml:space="preserve">1.59932160377502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55159294605255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5936586856842</t>
+    <t xml:space="preserve">1.55159282684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59365892410278</t>
   </si>
   <si>
     <t xml:space="preserve">1.58152437210083</t>
@@ -2690,40 +2690,40 @@
     <t xml:space="preserve">1.56939005851746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49577462673187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47474098205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43833792209625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46665143966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53379595279694</t>
+    <t xml:space="preserve">1.49577486515045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47474086284637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43833780288696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46665155887604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53379583358765</t>
   </si>
   <si>
     <t xml:space="preserve">1.54835712909698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57990658283234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59042298793793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66161239147186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62925386428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47716784477234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47635889053345</t>
+    <t xml:space="preserve">1.57990646362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59042310714722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66161227226257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62925374507904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47716772556305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47635877132416</t>
   </si>
   <si>
     <t xml:space="preserve">1.43995571136475</t>
@@ -2732,10 +2732,10 @@
     <t xml:space="preserve">1.46988725662231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49415683746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47797679901123</t>
+    <t xml:space="preserve">1.49415671825409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47797691822052</t>
   </si>
   <si>
     <t xml:space="preserve">1.48687613010406</t>
@@ -2750,19 +2750,19 @@
     <t xml:space="preserve">1.41245114803314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43914663791656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39303624629974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41811382770538</t>
+    <t xml:space="preserve">1.43914675712585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39303612709045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41811370849609</t>
   </si>
   <si>
     <t xml:space="preserve">1.42943930625916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49739253520966</t>
+    <t xml:space="preserve">1.49739265441895</t>
   </si>
   <si>
     <t xml:space="preserve">1.46746027469635</t>
@@ -2777,10 +2777,10 @@
     <t xml:space="preserve">1.45128118991852</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41164207458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42701232433319</t>
+    <t xml:space="preserve">1.41164219379425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42701244354248</t>
   </si>
   <si>
     <t xml:space="preserve">1.43105721473694</t>
@@ -2789,19 +2789,19 @@
     <t xml:space="preserve">1.36472260951996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35501492023468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31213939189911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32993638515472</t>
+    <t xml:space="preserve">1.35501503944397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31213927268982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32993650436401</t>
   </si>
   <si>
     <t xml:space="preserve">1.19726634025574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18674993515015</t>
+    <t xml:space="preserve">1.18674981594086</t>
   </si>
   <si>
     <t xml:space="preserve">1.21910905838013</t>
@@ -2819,7 +2819,7 @@
     <t xml:space="preserve">1.31618404388428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54512131214142</t>
+    <t xml:space="preserve">1.54512119293213</t>
   </si>
   <si>
     <t xml:space="preserve">1.53460466861725</t>
@@ -2831,55 +2831,55 @@
     <t xml:space="preserve">1.66484808921814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94151377677917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90915536880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90106582641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88326776027679</t>
+    <t xml:space="preserve">1.94151389598846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90915548801422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90106594562531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88326787948608</t>
   </si>
   <si>
     <t xml:space="preserve">1.81369733810425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84443807601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80560791492462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82340478897095</t>
+    <t xml:space="preserve">1.84443795681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80560767650604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82340490818024</t>
   </si>
   <si>
     <t xml:space="preserve">1.82502281665802</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8541454076767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85090959072113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82016885280609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78781068325043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78133893013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79913604259491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77972090244293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79590022563934</t>
+    <t xml:space="preserve">1.85414552688599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85090970993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82016909122467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78781080245972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78133881092072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79913628101349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77972114086151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79590046405792</t>
   </si>
   <si>
     <t xml:space="preserve">1.76192402839661</t>
@@ -2888,46 +2888,46 @@
     <t xml:space="preserve">1.73118269443512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75221574306488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77648520469666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78457486629486</t>
+    <t xml:space="preserve">1.7522155046463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77648532390594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78457498550415</t>
   </si>
   <si>
     <t xml:space="preserve">1.78295683860779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86870682239532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90430176258087</t>
+    <t xml:space="preserve">1.86870670318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90430152416229</t>
   </si>
   <si>
     <t xml:space="preserve">1.88165009021759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84281969070435</t>
+    <t xml:space="preserve">1.84281980991364</t>
   </si>
   <si>
     <t xml:space="preserve">1.86061692237854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81531536579132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77001368999481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79428243637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77163147926331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75383353233337</t>
+    <t xml:space="preserve">1.81531524658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77001357078552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79428231716156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7716315984726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75383341312408</t>
   </si>
   <si>
     <t xml:space="preserve">1.68264496326447</t>
@@ -2939,13 +2939,13 @@
     <t xml:space="preserve">1.73765432834625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8719425201416</t>
+    <t xml:space="preserve">1.87194228172302</t>
   </si>
   <si>
     <t xml:space="preserve">2.02079176902771</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99005150794983</t>
+    <t xml:space="preserve">1.99005126953125</t>
   </si>
   <si>
     <t xml:space="preserve">2.01432013511658</t>
@@ -2954,7 +2954,7 @@
     <t xml:space="preserve">2.00137662887573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98681569099426</t>
+    <t xml:space="preserve">1.98681557178497</t>
   </si>
   <si>
     <t xml:space="preserve">2.02402758598328</t>
@@ -2975,10 +2975,10 @@
     <t xml:space="preserve">1.94798541069031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9560751914978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93665969371796</t>
+    <t xml:space="preserve">1.95607495307922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93666005134583</t>
   </si>
   <si>
     <t xml:space="preserve">1.9301882982254</t>
@@ -2987,28 +2987,28 @@
     <t xml:space="preserve">1.97710788249969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96578240394592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95769286155701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0046124458313</t>
+    <t xml:space="preserve">1.96578252315521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9576929807663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00461268424988</t>
   </si>
   <si>
     <t xml:space="preserve">1.99652290344238</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06447649002075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12110376358032</t>
+    <t xml:space="preserve">2.06447672843933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12110352516174</t>
   </si>
   <si>
     <t xml:space="preserve">2.20038223266602</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28936767578125</t>
+    <t xml:space="preserve">2.28936791419983</t>
   </si>
   <si>
     <t xml:space="preserve">2.33628821372986</t>
@@ -3017,7 +3017,7 @@
     <t xml:space="preserve">2.3055477142334</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28127837181091</t>
+    <t xml:space="preserve">2.28127813339233</t>
   </si>
   <si>
     <t xml:space="preserve">2.25700950622559</t>
@@ -3032,28 +3032,28 @@
     <t xml:space="preserve">2.29098582267761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38320779800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31040191650391</t>
+    <t xml:space="preserve">2.38320803642273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31040167808533</t>
   </si>
   <si>
     <t xml:space="preserve">2.34599590301514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34275984764099</t>
+    <t xml:space="preserve">2.34276008605957</t>
   </si>
   <si>
     <t xml:space="preserve">2.32334494590759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32496333122253</t>
+    <t xml:space="preserve">2.32496309280396</t>
   </si>
   <si>
     <t xml:space="preserve">2.39453339576721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40747666358948</t>
+    <t xml:space="preserve">2.40747690200806</t>
   </si>
   <si>
     <t xml:space="preserve">2.43174624443054</t>
@@ -3065,13 +3065,13 @@
     <t xml:space="preserve">2.396151304245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40585875511169</t>
+    <t xml:space="preserve">2.40585899353027</t>
   </si>
   <si>
     <t xml:space="preserve">2.40909457206726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53852891921997</t>
+    <t xml:space="preserve">2.53852915763855</t>
   </si>
   <si>
     <t xml:space="preserve">2.57088804244995</t>
@@ -3086,16 +3086,16 @@
     <t xml:space="preserve">2.83137392997742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80386900901794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78768992424011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89447379112244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93330383300781</t>
+    <t xml:space="preserve">2.80386924743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78769016265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89447355270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93330359458923</t>
   </si>
   <si>
     <t xml:space="preserve">2.98507785797119</t>
@@ -3107,25 +3107,25 @@
     <t xml:space="preserve">3.0692093372345</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06597375869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15172433853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15496015548706</t>
+    <t xml:space="preserve">3.06597352027893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15172410011292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15495991706848</t>
   </si>
   <si>
     <t xml:space="preserve">3.14039874076843</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19217228889465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17761063575745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16790366172791</t>
+    <t xml:space="preserve">3.19217205047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17761087417603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16790342330933</t>
   </si>
   <si>
     <t xml:space="preserve">3.19055414199829</t>
@@ -3140,7 +3140,7 @@
     <t xml:space="preserve">3.27598571777344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37784719467163</t>
+    <t xml:space="preserve">3.37784695625305</t>
   </si>
   <si>
     <t xml:space="preserve">3.31213045120239</t>
@@ -3152,7 +3152,7 @@
     <t xml:space="preserve">3.4205629825592</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44520735740662</t>
+    <t xml:space="preserve">3.44520711898804</t>
   </si>
   <si>
     <t xml:space="preserve">3.41563391685486</t>
@@ -3185,16 +3185,16 @@
     <t xml:space="preserve">3.10840773582458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03283405303955</t>
+    <t xml:space="preserve">3.03283381462097</t>
   </si>
   <si>
     <t xml:space="preserve">3.0016176700592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99997472763062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93097257614136</t>
+    <t xml:space="preserve">2.99997496604919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93097233772278</t>
   </si>
   <si>
     <t xml:space="preserve">2.99340319633484</t>
@@ -3209,10 +3209,10 @@
     <t xml:space="preserve">2.9638307094574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00490355491638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99011707305908</t>
+    <t xml:space="preserve">3.0049033164978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99011731147766</t>
   </si>
   <si>
     <t xml:space="preserve">3.06076335906982</t>
@@ -3224,13 +3224,13 @@
     <t xml:space="preserve">2.94740176200867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91782903671265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04597735404968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99504613876343</t>
+    <t xml:space="preserve">2.9178295135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0459771156311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99504590034485</t>
   </si>
   <si>
     <t xml:space="preserve">2.97697401046753</t>
@@ -3248,7 +3248,7 @@
     <t xml:space="preserve">2.85539770126343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92768692970276</t>
+    <t xml:space="preserve">2.92768669128418</t>
   </si>
   <si>
     <t xml:space="preserve">2.95397353172302</t>
@@ -3257,10 +3257,10 @@
     <t xml:space="preserve">2.9819028377533</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13469433784485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09526443481445</t>
+    <t xml:space="preserve">3.13469457626343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09526467323303</t>
   </si>
   <si>
     <t xml:space="preserve">3.15276646614075</t>
@@ -3272,13 +3272,13 @@
     <t xml:space="preserve">3.05419158935547</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06404900550842</t>
+    <t xml:space="preserve">3.064049243927</t>
   </si>
   <si>
     <t xml:space="preserve">3.06240630149841</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04104828834534</t>
+    <t xml:space="preserve">3.04104852676392</t>
   </si>
   <si>
     <t xml:space="preserve">3.04762005805969</t>
@@ -3287,22 +3287,22 @@
     <t xml:space="preserve">3.12647986412048</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16262483596802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11169385910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17905402183533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13633728027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13305139541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03776240348816</t>
+    <t xml:space="preserve">3.16262459754944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11169362068176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17905378341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13633704185486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13305163383484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03776264190674</t>
   </si>
   <si>
     <t xml:space="preserve">3.06569218635559</t>
@@ -3311,16 +3311,16 @@
     <t xml:space="preserve">3.04926300048828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08376431465149</t>
+    <t xml:space="preserve">3.08376407623291</t>
   </si>
   <si>
     <t xml:space="preserve">3.10512208938599</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21355509757996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2217698097229</t>
+    <t xml:space="preserve">3.21355533599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22176957130432</t>
   </si>
   <si>
     <t xml:space="preserve">3.19548296928406</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">3.16426777839661</t>
   </si>
   <si>
-    <t xml:space="preserve">3.203697681427</t>
+    <t xml:space="preserve">3.20369744300842</t>
   </si>
   <si>
     <t xml:space="preserve">3.14619469642639</t>
@@ -3341,19 +3341,19 @@
     <t xml:space="preserve">3.16755342483521</t>
   </si>
   <si>
-    <t xml:space="preserve">3.106764793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04433417320251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07883524894714</t>
+    <t xml:space="preserve">3.10676503181458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04433441162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07883548736572</t>
   </si>
   <si>
     <t xml:space="preserve">3.01804757118225</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96218776702881</t>
+    <t xml:space="preserve">2.96218800544739</t>
   </si>
   <si>
     <t xml:space="preserve">3.03119087219238</t>
@@ -3365,16 +3365,16 @@
     <t xml:space="preserve">2.89482855796814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89811420440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99668884277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00654673576355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01476097106934</t>
+    <t xml:space="preserve">2.89811444282532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99668908119202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00654649734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01476120948792</t>
   </si>
   <si>
     <t xml:space="preserve">2.97861695289612</t>
@@ -3383,22 +3383,22 @@
     <t xml:space="preserve">3.02790522575378</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05090570449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02461910247803</t>
+    <t xml:space="preserve">3.05090594291687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02461934089661</t>
   </si>
   <si>
     <t xml:space="preserve">3.13962316513062</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11005091667175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08869290351868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07062077522278</t>
+    <t xml:space="preserve">3.11005067825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08869314193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07062101364136</t>
   </si>
   <si>
     <t xml:space="preserve">3.08047842979431</t>
@@ -3407,10 +3407,10 @@
     <t xml:space="preserve">3.11333656311035</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1659107208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18726825714111</t>
+    <t xml:space="preserve">3.16591048240662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18726849555969</t>
   </si>
   <si>
     <t xml:space="preserve">3.20205473899841</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">3.21026921272278</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24477052688599</t>
+    <t xml:space="preserve">3.24477028846741</t>
   </si>
   <si>
     <t xml:space="preserve">3.25298476219177</t>
@@ -3437,10 +3437,10 @@
     <t xml:space="preserve">3.0854070186615</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11990809440613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19384002685547</t>
+    <t xml:space="preserve">3.11990833282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19384026527405</t>
   </si>
   <si>
     <t xml:space="preserve">3.24969911575317</t>
@@ -3452,16 +3452,16 @@
     <t xml:space="preserve">3.05912065505981</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00818943977356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95890188217163</t>
+    <t xml:space="preserve">3.00818967819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95890212059021</t>
   </si>
   <si>
     <t xml:space="preserve">2.97204542160034</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89154243469238</t>
+    <t xml:space="preserve">2.89154267311096</t>
   </si>
   <si>
     <t xml:space="preserve">2.89975714683533</t>
@@ -3470,10 +3470,10 @@
     <t xml:space="preserve">2.85046911239624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95725917816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90468573570251</t>
+    <t xml:space="preserve">2.95725893974304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90468597412109</t>
   </si>
   <si>
     <t xml:space="preserve">2.77325201034546</t>
@@ -3497,16 +3497,16 @@
     <t xml:space="preserve">2.9424729347229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91454339027405</t>
+    <t xml:space="preserve">2.91454315185547</t>
   </si>
   <si>
     <t xml:space="preserve">2.91290044784546</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88825702667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85868358612061</t>
+    <t xml:space="preserve">2.88825678825378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85868334770203</t>
   </si>
   <si>
     <t xml:space="preserve">2.95068740844727</t>
@@ -3518,7 +3518,7 @@
     <t xml:space="preserve">3.05747747421265</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10347938537598</t>
+    <t xml:space="preserve">3.1034791469574</t>
   </si>
   <si>
     <t xml:space="preserve">3.19055438041687</t>
@@ -3530,7 +3530,7 @@
     <t xml:space="preserve">3.15112352371216</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25134205818176</t>
+    <t xml:space="preserve">3.25134229660034</t>
   </si>
   <si>
     <t xml:space="preserve">3.2431275844574</t>
@@ -3539,7 +3539,7 @@
     <t xml:space="preserve">3.09690761566162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93590116500854</t>
+    <t xml:space="preserve">2.93590140342712</t>
   </si>
   <si>
     <t xml:space="preserve">2.98354554176331</t>
@@ -3560,22 +3560,22 @@
     <t xml:space="preserve">3.10821199417114</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26937890052795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28911352157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37956404685974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30884838104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42561173439026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44370198249817</t>
+    <t xml:space="preserve">3.26937866210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28911328315735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37956428527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3088481426239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42561149597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44370174407959</t>
   </si>
   <si>
     <t xml:space="preserve">3.4157440662384</t>
@@ -3593,7 +3593,7 @@
     <t xml:space="preserve">3.15754866600037</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99967122077942</t>
+    <t xml:space="preserve">2.999671459198</t>
   </si>
   <si>
     <t xml:space="preserve">3.05065274238586</t>
@@ -3602,7 +3602,7 @@
     <t xml:space="preserve">2.91415429115295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73818683624268</t>
+    <t xml:space="preserve">2.7381865978241</t>
   </si>
   <si>
     <t xml:space="preserve">2.77436709403992</t>
@@ -3611,7 +3611,7 @@
     <t xml:space="preserve">2.72174119949341</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41420936584473</t>
+    <t xml:space="preserve">2.41420912742615</t>
   </si>
   <si>
     <t xml:space="preserve">2.40598654747009</t>
@@ -3620,7 +3620,7 @@
     <t xml:space="preserve">2.49972605705261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71516299247742</t>
+    <t xml:space="preserve">2.715163230896</t>
   </si>
   <si>
     <t xml:space="preserve">2.57702040672302</t>
@@ -3629,16 +3629,16 @@
     <t xml:space="preserve">2.60168862342834</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71022939682007</t>
+    <t xml:space="preserve">2.71022963523865</t>
   </si>
   <si>
     <t xml:space="preserve">2.7529878616333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94704556465149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91908812522888</t>
+    <t xml:space="preserve">2.94704580307007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9190878868103</t>
   </si>
   <si>
     <t xml:space="preserve">2.96020197868347</t>
@@ -3647,19 +3647,19 @@
     <t xml:space="preserve">2.97829222679138</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03091812133789</t>
+    <t xml:space="preserve">3.03091788291931</t>
   </si>
   <si>
     <t xml:space="preserve">2.99473762512207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99144887924194</t>
+    <t xml:space="preserve">2.99144864082336</t>
   </si>
   <si>
     <t xml:space="preserve">2.93388915061951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99638247489929</t>
+    <t xml:space="preserve">2.99638223648071</t>
   </si>
   <si>
     <t xml:space="preserve">3.13123607635498</t>
@@ -3668,7 +3668,7 @@
     <t xml:space="preserve">3.13781404495239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05723094940186</t>
+    <t xml:space="preserve">3.05723071098328</t>
   </si>
   <si>
     <t xml:space="preserve">3.09834480285645</t>
@@ -3686,13 +3686,13 @@
     <t xml:space="preserve">2.99802684783936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14274764060974</t>
+    <t xml:space="preserve">3.1427481174469</t>
   </si>
   <si>
     <t xml:space="preserve">3.1559042930603</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07696580886841</t>
+    <t xml:space="preserve">3.07696557044983</t>
   </si>
   <si>
     <t xml:space="preserve">3.14932608604431</t>
@@ -3707,10 +3707,10 @@
     <t xml:space="preserve">3.16248250007629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11314606666565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13616943359375</t>
+    <t xml:space="preserve">3.11314582824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13616967201233</t>
   </si>
   <si>
     <t xml:space="preserve">3.12465763092041</t>
@@ -3725,7 +3725,7 @@
     <t xml:space="preserve">2.98980402946472</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98815965652466</t>
+    <t xml:space="preserve">2.98815941810608</t>
   </si>
   <si>
     <t xml:space="preserve">2.95362377166748</t>
@@ -3734,7 +3734,7 @@
     <t xml:space="preserve">2.87468504905701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97993659973145</t>
+    <t xml:space="preserve">2.97993683815002</t>
   </si>
   <si>
     <t xml:space="preserve">3.00624942779541</t>
@@ -3752,13 +3752,13 @@
     <t xml:space="preserve">3.06545376777649</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05558633804321</t>
+    <t xml:space="preserve">3.05558657646179</t>
   </si>
   <si>
     <t xml:space="preserve">3.01282787322998</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2702751159668</t>
+    <t xml:space="preserve">3.27027487754822</t>
   </si>
   <si>
     <t xml:space="preserve">3.29636764526367</t>
@@ -3770,10 +3770,10 @@
     <t xml:space="preserve">3.362468957901</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3398551940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29462838172913</t>
+    <t xml:space="preserve">3.33985543251038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29462814331055</t>
   </si>
   <si>
     <t xml:space="preserve">3.26679611206055</t>
@@ -3794,7 +3794,7 @@
     <t xml:space="preserve">3.22330832481384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17808103561401</t>
+    <t xml:space="preserve">3.17808127403259</t>
   </si>
   <si>
     <t xml:space="preserve">2.95890307426453</t>
@@ -3809,10 +3809,10 @@
     <t xml:space="preserve">2.93802905082703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85105395317078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89454126358032</t>
+    <t xml:space="preserve">2.8510537147522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8945415019989</t>
   </si>
   <si>
     <t xml:space="preserve">2.96064257621765</t>
@@ -3857,16 +3857,16 @@
     <t xml:space="preserve">2.86323022842407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95716381072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91193628311157</t>
+    <t xml:space="preserve">2.9571635723114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91193652153015</t>
   </si>
   <si>
     <t xml:space="preserve">2.89628076553345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82843995094299</t>
+    <t xml:space="preserve">2.82844018936157</t>
   </si>
   <si>
     <t xml:space="preserve">2.69275832176208</t>
@@ -3875,7 +3875,7 @@
     <t xml:space="preserve">2.70841407775879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75538063049316</t>
+    <t xml:space="preserve">2.75538086891174</t>
   </si>
   <si>
     <t xml:space="preserve">2.88236474990845</t>
@@ -3884,25 +3884,25 @@
     <t xml:space="preserve">2.80060791969299</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76233887672424</t>
+    <t xml:space="preserve">2.76233863830566</t>
   </si>
   <si>
     <t xml:space="preserve">2.72754836082458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76755714416504</t>
+    <t xml:space="preserve">2.76755738258362</t>
   </si>
   <si>
     <t xml:space="preserve">2.69623732566833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74146461486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81452393531799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84931397438049</t>
+    <t xml:space="preserve">2.74146437644958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81452417373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84931421279907</t>
   </si>
   <si>
     <t xml:space="preserve">2.92411303520203</t>
@@ -3938,10 +3938,10 @@
     <t xml:space="preserve">2.74668312072754</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74494361877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77625465393066</t>
+    <t xml:space="preserve">2.74494338035583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77625489234924</t>
   </si>
   <si>
     <t xml:space="preserve">2.78495240211487</t>
@@ -3950,10 +3950,10 @@
     <t xml:space="preserve">2.74320411682129</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78147315979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78321266174316</t>
+    <t xml:space="preserve">2.78147339820862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78321290016174</t>
   </si>
   <si>
     <t xml:space="preserve">2.77277588844299</t>
@@ -3968,7 +3968,7 @@
     <t xml:space="preserve">3.01804637908936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05109691619873</t>
+    <t xml:space="preserve">3.05109715461731</t>
   </si>
   <si>
     <t xml:space="preserve">3.13633298873901</t>
@@ -3977,10 +3977,10 @@
     <t xml:space="preserve">3.11545896530151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09458470344543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04239940643311</t>
+    <t xml:space="preserve">3.09458494186401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04239964485168</t>
   </si>
   <si>
     <t xml:space="preserve">2.98847484588623</t>
@@ -3989,7 +3989,7 @@
     <t xml:space="preserve">3.05457615852356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98673534393311</t>
+    <t xml:space="preserve">2.98673510551453</t>
   </si>
   <si>
     <t xml:space="preserve">2.96238207817078</t>
@@ -4022,19 +4022,19 @@
     <t xml:space="preserve">2.83017945289612</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95194530487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03718113899231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06849217414856</t>
+    <t xml:space="preserve">2.95194506645203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03718090057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06849241256714</t>
   </si>
   <si>
     <t xml:space="preserve">3.08240818977356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12415623664856</t>
+    <t xml:space="preserve">3.12415647506714</t>
   </si>
   <si>
     <t xml:space="preserve">3.16938376426697</t>
@@ -4049,7 +4049,7 @@
     <t xml:space="preserve">3.16590476036072</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15720701217651</t>
+    <t xml:space="preserve">3.15720725059509</t>
   </si>
   <si>
     <t xml:space="preserve">3.16764402389526</t>
@@ -4058,19 +4058,19 @@
     <t xml:space="preserve">3.24592208862305</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26157760620117</t>
+    <t xml:space="preserve">3.26157736778259</t>
   </si>
   <si>
     <t xml:space="preserve">3.32593941688538</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07892894744873</t>
+    <t xml:space="preserve">3.07892918586731</t>
   </si>
   <si>
     <t xml:space="preserve">3.05283665657043</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10154271125793</t>
+    <t xml:space="preserve">3.10154294967651</t>
   </si>
   <si>
     <t xml:space="preserve">3.09284520149231</t>
@@ -4088,13 +4088,13 @@
     <t xml:space="preserve">3.32246017456055</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3276789188385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33637619018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38508248329163</t>
+    <t xml:space="preserve">3.32767868041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33637642860413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38508272171021</t>
   </si>
   <si>
     <t xml:space="preserve">3.35029244422913</t>
@@ -4109,7 +4109,7 @@
     <t xml:space="preserve">3.34333467483521</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29984664916992</t>
+    <t xml:space="preserve">3.29984641075134</t>
   </si>
   <si>
     <t xml:space="preserve">3.29114890098572</t>
@@ -4118,7 +4118,7 @@
     <t xml:space="preserve">3.30158615112305</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31202340126038</t>
+    <t xml:space="preserve">3.3120231628418</t>
   </si>
   <si>
     <t xml:space="preserve">3.3189811706543</t>
@@ -4127,7 +4127,7 @@
     <t xml:space="preserve">3.28767013549805</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25809836387634</t>
+    <t xml:space="preserve">3.25809860229492</t>
   </si>
   <si>
     <t xml:space="preserve">3.334636926651</t>
@@ -4136,16 +4136,16 @@
     <t xml:space="preserve">3.40073823928833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40943598747253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40247750282288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36420845985413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34681344032288</t>
+    <t xml:space="preserve">3.40943574905396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40247774124146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36420869827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34681367874146</t>
   </si>
   <si>
     <t xml:space="preserve">3.40421724319458</t>
@@ -4160,10 +4160,10 @@
     <t xml:space="preserve">3.51380610466003</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51032710075378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50336885452271</t>
+    <t xml:space="preserve">3.51032686233521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50336909294128</t>
   </si>
   <si>
     <t xml:space="preserve">3.54859614372253</t>
@@ -4175,7 +4175,7 @@
     <t xml:space="preserve">3.52946186065674</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56077289581299</t>
+    <t xml:space="preserve">3.56077265739441</t>
   </si>
   <si>
     <t xml:space="preserve">3.53294062614441</t>
@@ -4193,16 +4193,16 @@
     <t xml:space="preserve">3.7312445640564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76429533958435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79038763046265</t>
+    <t xml:space="preserve">3.76429510116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79038786888123</t>
   </si>
   <si>
     <t xml:space="preserve">3.77125358581543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91911172866821</t>
+    <t xml:space="preserve">3.91911149024963</t>
   </si>
   <si>
     <t xml:space="preserve">3.99912881851196</t>
@@ -4211,46 +4211,46 @@
     <t xml:space="preserve">3.91737222671509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92606973648071</t>
+    <t xml:space="preserve">3.92606949806213</t>
   </si>
   <si>
     <t xml:space="preserve">3.96607828140259</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94694352149963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91041374206543</t>
+    <t xml:space="preserve">3.94694375991821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91041398048401</t>
   </si>
   <si>
     <t xml:space="preserve">3.88258218765259</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92432999610901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85127067565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8651864528656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90519547462463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85474991798401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90345621109009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87388443946838</t>
+    <t xml:space="preserve">3.92433023452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85127091407776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86518669128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90519523620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85475015640259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90345597267151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8738842010498</t>
   </si>
   <si>
     <t xml:space="preserve">3.94868326187134</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95912003517151</t>
+    <t xml:space="preserve">3.95912027359009</t>
   </si>
   <si>
     <t xml:space="preserve">4.08262538909912</t>
@@ -4271,7 +4271,7 @@
     <t xml:space="preserve">4.25483655929565</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16960048675537</t>
+    <t xml:space="preserve">4.16960096359253</t>
   </si>
   <si>
     <t xml:space="preserve">4.19917249679565</t>
@@ -4283,19 +4283,19 @@
     <t xml:space="preserve">3.6616644859314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65992498397827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42683100700378</t>
+    <t xml:space="preserve">3.65992522239685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42683076858521</t>
   </si>
   <si>
     <t xml:space="preserve">3.43900728225708</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31550240516663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61295795440674</t>
+    <t xml:space="preserve">3.31550216674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61295819282532</t>
   </si>
   <si>
     <t xml:space="preserve">3.51902461051941</t>
@@ -4310,13 +4310,13 @@
     <t xml:space="preserve">3.31376266479492</t>
   </si>
   <si>
-    <t xml:space="preserve">3.320720911026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42335176467896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44074678421021</t>
+    <t xml:space="preserve">3.32072067260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42335200309753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44074702262878</t>
   </si>
   <si>
     <t xml:space="preserve">3.37638521194458</t>
@@ -4328,7 +4328,7 @@
     <t xml:space="preserve">3.52250385284424</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55381464958191</t>
+    <t xml:space="preserve">3.55381488800049</t>
   </si>
   <si>
     <t xml:space="preserve">3.60078144073486</t>
@@ -4379,7 +4379,7 @@
     <t xml:space="preserve">3.62339520454407</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62513494491577</t>
+    <t xml:space="preserve">3.62513470649719</t>
   </si>
   <si>
     <t xml:space="preserve">3.57267427444458</t>
@@ -62111,7 +62111,7 @@
     </row>
     <row r="2179">
       <c r="A2179" s="1" t="n">
-        <v>45496.6495949074</v>
+        <v>45496.2916666667</v>
       </c>
       <c r="B2179" t="n">
         <v>1678425</v>
@@ -62132,6 +62132,32 @@
         <v>1709</v>
       </c>
       <c r="H2179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" s="1" t="n">
+        <v>45497.6495023148</v>
+      </c>
+      <c r="B2180" t="n">
+        <v>1906547</v>
+      </c>
+      <c r="C2180" t="n">
+        <v>7.17000007629395</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>7.02500009536743</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>7.17000007629395</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>7.1100001335144</v>
+      </c>
+      <c r="G2180" t="s">
+        <v>1679</v>
+      </c>
+      <c r="H2180" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BPSO.MI.xlsx
+++ b/data/BPSO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="1711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="1712">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,10 +44,10 @@
     <t xml:space="preserve">BPSO.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00987863540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94444632530212</t>
+    <t xml:space="preserve">3.00987887382507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94444608688354</t>
   </si>
   <si>
     <t xml:space="preserve">2.90578198432922</t>
@@ -59,37 +59,37 @@
     <t xml:space="preserve">2.79425001144409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8849630355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8909113407135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7972240447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69164037704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63067007064819</t>
+    <t xml:space="preserve">2.88496279716492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89091110229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79722428321838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6916401386261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63066983222961</t>
   </si>
   <si>
     <t xml:space="preserve">2.42842483520508</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55036664009094</t>
+    <t xml:space="preserve">2.55036640167236</t>
   </si>
   <si>
     <t xml:space="preserve">2.57713389396667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53400874137878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69907593727112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61877298355103</t>
+    <t xml:space="preserve">2.53400850296021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69907569885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61877274513245</t>
   </si>
   <si>
     <t xml:space="preserve">2.52359914779663</t>
@@ -98,10 +98,10 @@
     <t xml:space="preserve">2.6128249168396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5756471157074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48642182350159</t>
+    <t xml:space="preserve">2.57564687728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48642206192017</t>
   </si>
   <si>
     <t xml:space="preserve">2.37935090065002</t>
@@ -110,79 +110,79 @@
     <t xml:space="preserve">2.39124751091003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36745452880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18602824211121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2098217010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29607319831848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22469258308411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33771181106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38381218910217</t>
+    <t xml:space="preserve">2.36745429039001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18602848052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20982193946838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29607343673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22469234466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33771157264709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38381242752075</t>
   </si>
   <si>
     <t xml:space="preserve">2.44032168388367</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34960842132568</t>
+    <t xml:space="preserve">2.34960865974426</t>
   </si>
   <si>
     <t xml:space="preserve">2.31986665725708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40611863136292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3421733379364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33176374435425</t>
+    <t xml:space="preserve">2.40611886978149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34217286109924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33176350593567</t>
   </si>
   <si>
     <t xml:space="preserve">2.37340259552002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42098951339722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48344755172729</t>
+    <t xml:space="preserve">2.4209897518158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48344779014587</t>
   </si>
   <si>
     <t xml:space="preserve">2.55780220031738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55185341835022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54441809654236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40165734291077</t>
+    <t xml:space="preserve">2.5518536567688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54441785812378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40165710449219</t>
   </si>
   <si>
     <t xml:space="preserve">2.42396354675293</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41057944297791</t>
+    <t xml:space="preserve">2.41057968139648</t>
   </si>
   <si>
     <t xml:space="preserve">2.48493432998657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60687589645386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52657318115234</t>
+    <t xml:space="preserve">2.6068754196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52657341957092</t>
   </si>
   <si>
     <t xml:space="preserve">2.46560192108154</t>
@@ -191,25 +191,25 @@
     <t xml:space="preserve">2.5131893157959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52806043624878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56374979019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45667934417725</t>
+    <t xml:space="preserve">2.5280601978302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56375026702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45667958259583</t>
   </si>
   <si>
     <t xml:space="preserve">2.39719605445862</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3436598777771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29161190986633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30053496360779</t>
+    <t xml:space="preserve">2.34366011619568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29161214828491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30053472518921</t>
   </si>
   <si>
     <t xml:space="preserve">2.27227997779846</t>
@@ -221,19 +221,19 @@
     <t xml:space="preserve">2.1562864780426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16223478317261</t>
+    <t xml:space="preserve">2.16223502159119</t>
   </si>
   <si>
     <t xml:space="preserve">2.21874403953552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26781892776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27674078941345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38678646087646</t>
+    <t xml:space="preserve">2.26781868934631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27674102783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38678669929504</t>
   </si>
   <si>
     <t xml:space="preserve">2.46708869934082</t>
@@ -248,10 +248,10 @@
     <t xml:space="preserve">2.4983184337616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49237036705017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44180846214294</t>
+    <t xml:space="preserve">2.49237012863159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44180822372437</t>
   </si>
   <si>
     <t xml:space="preserve">2.48939609527588</t>
@@ -263,34 +263,34 @@
     <t xml:space="preserve">2.42247629165649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39422178268433</t>
+    <t xml:space="preserve">2.39422202110291</t>
   </si>
   <si>
     <t xml:space="preserve">2.3109438419342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26187038421631</t>
+    <t xml:space="preserve">2.26186990737915</t>
   </si>
   <si>
     <t xml:space="preserve">2.23064064979553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24848651885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23807716369629</t>
+    <t xml:space="preserve">2.24848675727844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23807740211487</t>
   </si>
   <si>
     <t xml:space="preserve">2.2559220790863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1949508190155</t>
+    <t xml:space="preserve">2.19495105743408</t>
   </si>
   <si>
     <t xml:space="preserve">2.18305397033691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2127959728241</t>
+    <t xml:space="preserve">2.21279621124268</t>
   </si>
   <si>
     <t xml:space="preserve">2.17710590362549</t>
@@ -299,22 +299,22 @@
     <t xml:space="preserve">2.22023129463196</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2038733959198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19778084754944</t>
+    <t xml:space="preserve">2.20387315750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1977813243866</t>
   </si>
   <si>
     <t xml:space="preserve">2.27850317955017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3561794757843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30744194984436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33028745651245</t>
+    <t xml:space="preserve">2.35617971420288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30744171142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33028769493103</t>
   </si>
   <si>
     <t xml:space="preserve">2.30896472930908</t>
@@ -323,13 +323,13 @@
     <t xml:space="preserve">2.24194955825806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21910429000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14142727851868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09725856781006</t>
+    <t xml:space="preserve">2.21910381317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14142751693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09725880622864</t>
   </si>
   <si>
     <t xml:space="preserve">2.01044416427612</t>
@@ -338,43 +338,43 @@
     <t xml:space="preserve">2.13076591491699</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07441282272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08202815055847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97236776351929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9083993434906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87641417980194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84899926185608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75913822650909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81701517105103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89621388912201</t>
+    <t xml:space="preserve">2.07441306114197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08202838897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97236752510071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90839922428131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87641429901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84899914264679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75913834571838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81701493263245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89621376991272</t>
   </si>
   <si>
     <t xml:space="preserve">1.94038331508636</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90687537193298</t>
+    <t xml:space="preserve">1.90687525272369</t>
   </si>
   <si>
     <t xml:space="preserve">2.02872061729431</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75152325630188</t>
+    <t xml:space="preserve">1.75152289867401</t>
   </si>
   <si>
     <t xml:space="preserve">1.67689347267151</t>
@@ -383,16 +383,16 @@
     <t xml:space="preserve">1.78807699680328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77436852455139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75609195232391</t>
+    <t xml:space="preserve">1.77436864376068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75609219074249</t>
   </si>
   <si>
     <t xml:space="preserve">1.7530460357666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68907785415649</t>
+    <t xml:space="preserve">1.68907797336578</t>
   </si>
   <si>
     <t xml:space="preserve">1.61901652812958</t>
@@ -401,22 +401,22 @@
     <t xml:space="preserve">1.63424718379974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64033925533295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75456929206848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79112339019775</t>
+    <t xml:space="preserve">1.64033913612366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7545690536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79112327098846</t>
   </si>
   <si>
     <t xml:space="preserve">1.81549191474915</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78960025310516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86727607250214</t>
+    <t xml:space="preserve">1.78960013389587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86727619171143</t>
   </si>
   <si>
     <t xml:space="preserve">1.83072257041931</t>
@@ -425,22 +425,22 @@
     <t xml:space="preserve">1.8444299697876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90230631828308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89316773414612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85052227973938</t>
+    <t xml:space="preserve">1.90230619907379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89316785335541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85052216053009</t>
   </si>
   <si>
     <t xml:space="preserve">1.81853818893433</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84747636318207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84138429164886</t>
+    <t xml:space="preserve">1.84747648239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.841383934021</t>
   </si>
   <si>
     <t xml:space="preserve">1.78198480606079</t>
@@ -449,16 +449,16 @@
     <t xml:space="preserve">1.66470873355865</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6875547170639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62967801094055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74999988079071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77741491794586</t>
+    <t xml:space="preserve">1.68755483627319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62967789173126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75000011920929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77741503715515</t>
   </si>
   <si>
     <t xml:space="preserve">1.76523053646088</t>
@@ -473,37 +473,37 @@
     <t xml:space="preserve">1.82767653465271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82158434391022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86879897117615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82919979095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84290683269501</t>
+    <t xml:space="preserve">1.82158446311951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86879885196686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82919943332672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8429069519043</t>
   </si>
   <si>
     <t xml:space="preserve">1.85509133338928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90992224216461</t>
+    <t xml:space="preserve">1.9099223613739</t>
   </si>
   <si>
     <t xml:space="preserve">1.90535223484039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89773726463318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89012205600739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88098323345184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88859868049622</t>
+    <t xml:space="preserve">1.89773678779602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89012181758881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88098335266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88859891891479</t>
   </si>
   <si>
     <t xml:space="preserve">1.86575281620026</t>
@@ -512,7 +512,7 @@
     <t xml:space="preserve">1.89469110965729</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87336802482605</t>
+    <t xml:space="preserve">1.87336850166321</t>
   </si>
   <si>
     <t xml:space="preserve">1.85813772678375</t>
@@ -521,25 +521,25 @@
     <t xml:space="preserve">1.91144502162933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98455226421356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98150587081909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94190645217896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96627533435822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97998249530792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99216723442078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08659768104553</t>
+    <t xml:space="preserve">1.98455190658569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9815057516098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94190669059753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9662754535675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97998285293579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99216735363007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08659744262695</t>
   </si>
   <si>
     <t xml:space="preserve">2.11705851554871</t>
@@ -548,13 +548,13 @@
     <t xml:space="preserve">2.24804186820984</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25870323181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22367310523987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23433446884155</t>
+    <t xml:space="preserve">2.2587034702301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22367334365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23433470726013</t>
   </si>
   <si>
     <t xml:space="preserve">2.23738074302673</t>
@@ -563,22 +563,22 @@
     <t xml:space="preserve">2.24651885032654</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31505703926086</t>
+    <t xml:space="preserve">2.31505727767944</t>
   </si>
   <si>
     <t xml:space="preserve">2.33790302276611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26479554176331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14295029640198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18407392501831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15208888053894</t>
+    <t xml:space="preserve">2.26479578018188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14295053482056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18407368659973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15208864212036</t>
   </si>
   <si>
     <t xml:space="preserve">2.1993043422699</t>
@@ -593,25 +593,25 @@
     <t xml:space="preserve">2.27697992324829</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31658029556274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31353449821472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28459525108337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22976517677307</t>
+    <t xml:space="preserve">2.31658005714417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31353425979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28459501266479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22976493835449</t>
   </si>
   <si>
     <t xml:space="preserve">2.18102765083313</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22519612312317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24956512451172</t>
+    <t xml:space="preserve">2.22519636154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24956488609314</t>
   </si>
   <si>
     <t xml:space="preserve">2.23890376091003</t>
@@ -632,10 +632,10 @@
     <t xml:space="preserve">2.32267260551453</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43690252304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54351711273193</t>
+    <t xml:space="preserve">2.43690228462219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54351687431335</t>
   </si>
   <si>
     <t xml:space="preserve">2.42471790313721</t>
@@ -644,40 +644,40 @@
     <t xml:space="preserve">2.39273309707642</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43385601043701</t>
+    <t xml:space="preserve">2.43385624885559</t>
   </si>
   <si>
     <t xml:space="preserve">2.39120984077454</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33333373069763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32419538497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39577889442444</t>
+    <t xml:space="preserve">2.33333396911621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32419514656067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3957793712616</t>
   </si>
   <si>
     <t xml:space="preserve">2.38054847717285</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37597942352295</t>
+    <t xml:space="preserve">2.37597918510437</t>
   </si>
   <si>
     <t xml:space="preserve">2.36227202415466</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38207197189331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42624068260193</t>
+    <t xml:space="preserve">2.38207149505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42624092102051</t>
   </si>
   <si>
     <t xml:space="preserve">2.47497868537903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48259353637695</t>
+    <t xml:space="preserve">2.48259377479553</t>
   </si>
   <si>
     <t xml:space="preserve">2.51000881195068</t>
@@ -686,25 +686,25 @@
     <t xml:space="preserve">2.50848579406738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4688868522644</t>
+    <t xml:space="preserve">2.46888661384583</t>
   </si>
   <si>
     <t xml:space="preserve">2.46127128601074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45974802970886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52828550338745</t>
+    <t xml:space="preserve">2.45974826812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52828574180603</t>
   </si>
   <si>
     <t xml:space="preserve">2.52067017555237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50696301460266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57397818565369</t>
+    <t xml:space="preserve">2.5069625377655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57397794723511</t>
   </si>
   <si>
     <t xml:space="preserve">2.58920836448669</t>
@@ -713,10 +713,10 @@
     <t xml:space="preserve">2.62728476524353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58311629295349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58768534660339</t>
+    <t xml:space="preserve">2.58311653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58768558502197</t>
   </si>
   <si>
     <t xml:space="preserve">2.59682393074036</t>
@@ -731,10 +731,10 @@
     <t xml:space="preserve">2.50391674041748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49630165100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53285455703735</t>
+    <t xml:space="preserve">2.4963014125824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53285479545593</t>
   </si>
   <si>
     <t xml:space="preserve">2.4932553768158</t>
@@ -743,37 +743,37 @@
     <t xml:space="preserve">2.4445173740387</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46431708335876</t>
+    <t xml:space="preserve">2.46431732177734</t>
   </si>
   <si>
     <t xml:space="preserve">2.48868608474731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5008704662323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47345566749573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46279406547546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41710257530212</t>
+    <t xml:space="preserve">2.50087094306946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47345542907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46279430389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41710233688354</t>
   </si>
   <si>
     <t xml:space="preserve">2.28002619743347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2861180305481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44756364822388</t>
+    <t xml:space="preserve">2.28611850738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44756388664246</t>
   </si>
   <si>
     <t xml:space="preserve">2.38816404342651</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43537902832031</t>
+    <t xml:space="preserve">2.43537926673889</t>
   </si>
   <si>
     <t xml:space="preserve">2.44147157669067</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">2.54808592796326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49477791786194</t>
+    <t xml:space="preserve">2.4947783946991</t>
   </si>
   <si>
     <t xml:space="preserve">2.53590083122253</t>
@@ -797,13 +797,13 @@
     <t xml:space="preserve">2.51610136032104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45822525024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46736335754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45060992240906</t>
+    <t xml:space="preserve">2.45822501182556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46736359596252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45061016082764</t>
   </si>
   <si>
     <t xml:space="preserve">2.48564004898071</t>
@@ -824,40 +824,40 @@
     <t xml:space="preserve">2.52371621131897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47650170326233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49782419204712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64251565933228</t>
+    <t xml:space="preserve">2.47650146484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4978244304657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64251518249512</t>
   </si>
   <si>
     <t xml:space="preserve">2.60443902015686</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60291600227356</t>
+    <t xml:space="preserve">2.60291624069214</t>
   </si>
   <si>
     <t xml:space="preserve">2.67602348327637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63946962356567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66383814811707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69582319259644</t>
+    <t xml:space="preserve">2.63946938514709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66383838653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69582295417786</t>
   </si>
   <si>
     <t xml:space="preserve">2.69734621047974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75217628479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7140998840332</t>
+    <t xml:space="preserve">2.75217652320862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71409964561462</t>
   </si>
   <si>
     <t xml:space="preserve">2.66536140441895</t>
@@ -872,10 +872,10 @@
     <t xml:space="preserve">2.68820762634277</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68516206741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73694562911987</t>
+    <t xml:space="preserve">2.68516182899475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73694539070129</t>
   </si>
   <si>
     <t xml:space="preserve">2.75553250312805</t>
@@ -887,16 +887,16 @@
     <t xml:space="preserve">2.84537029266357</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89958214759827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7493371963501</t>
+    <t xml:space="preserve">2.89958238601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74933695793152</t>
   </si>
   <si>
     <t xml:space="preserve">2.70596647262573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70906448364258</t>
+    <t xml:space="preserve">2.709064245224</t>
   </si>
   <si>
     <t xml:space="preserve">2.65020561218262</t>
@@ -905,34 +905,34 @@
     <t xml:space="preserve">2.70131993293762</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69357490539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64710807800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66724395751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65175414085388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69667315483093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63161873817444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65640139579773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63626551628113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65794992446899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63316750526428</t>
+    <t xml:space="preserve">2.69357514381409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64710783958435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66724371910095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65175461769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69667291641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63161897659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65640115737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63626527786255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65795016288757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63316774368286</t>
   </si>
   <si>
     <t xml:space="preserve">2.65949940681458</t>
@@ -941,28 +941,28 @@
     <t xml:space="preserve">2.66569471359253</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66414570808411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68737936019897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71835851669312</t>
+    <t xml:space="preserve">2.66414546966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68737959861755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71835875511169</t>
   </si>
   <si>
     <t xml:space="preserve">2.7880597114563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74159216880798</t>
+    <t xml:space="preserve">2.74159240722656</t>
   </si>
   <si>
     <t xml:space="preserve">2.67343926429749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7772171497345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85311484336853</t>
+    <t xml:space="preserve">2.77721738815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85311460494995</t>
   </si>
   <si>
     <t xml:space="preserve">2.80045104026794</t>
@@ -971,34 +971,34 @@
     <t xml:space="preserve">2.81903791427612</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80974459648132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80354857444763</t>
+    <t xml:space="preserve">2.80974435806274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80354905128479</t>
   </si>
   <si>
     <t xml:space="preserve">2.92126703262329</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93210959434509</t>
+    <t xml:space="preserve">2.93210911750793</t>
   </si>
   <si>
     <t xml:space="preserve">2.9166202545166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90577793121338</t>
+    <t xml:space="preserve">2.9057776927948</t>
   </si>
   <si>
     <t xml:space="preserve">2.9073269367218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90113115310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88099503517151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87789750099182</t>
+    <t xml:space="preserve">2.90113139152527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88099527359009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87789726257324</t>
   </si>
   <si>
     <t xml:space="preserve">2.87944626808167</t>
@@ -1007,19 +1007,19 @@
     <t xml:space="preserve">2.90422892570496</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83917379379272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87015295028687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86240816116333</t>
+    <t xml:space="preserve">2.83917355537415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87015271186829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86240839958191</t>
   </si>
   <si>
     <t xml:space="preserve">2.86085915565491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84227156639099</t>
+    <t xml:space="preserve">2.84227180480957</t>
   </si>
   <si>
     <t xml:space="preserve">2.84072279930115</t>
@@ -1031,25 +1031,25 @@
     <t xml:space="preserve">2.84846806526184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83452725410461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78341269493103</t>
+    <t xml:space="preserve">2.83452701568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78341293334961</t>
   </si>
   <si>
     <t xml:space="preserve">2.81129336357117</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78960824012756</t>
+    <t xml:space="preserve">2.78960847854614</t>
   </si>
   <si>
     <t xml:space="preserve">2.72610306739807</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76017904281616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70441746711731</t>
+    <t xml:space="preserve">2.76017928123474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70441770553589</t>
   </si>
   <si>
     <t xml:space="preserve">2.66259694099426</t>
@@ -1061,49 +1061,49 @@
     <t xml:space="preserve">2.69977068901062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69047737121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69822192192078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71371126174927</t>
+    <t xml:space="preserve">2.69047713279724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69822216033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71371102333069</t>
   </si>
   <si>
     <t xml:space="preserve">2.73384761810303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68583083152771</t>
+    <t xml:space="preserve">2.68583059310913</t>
   </si>
   <si>
     <t xml:space="preserve">2.73229908943176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72765207290649</t>
+    <t xml:space="preserve">2.72765183448792</t>
   </si>
   <si>
     <t xml:space="preserve">2.71680974960327</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76327729225159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82988023757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8174889087677</t>
+    <t xml:space="preserve">2.76327705383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82988047599792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81748914718628</t>
   </si>
   <si>
     <t xml:space="preserve">2.77411961555481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70286870002747</t>
+    <t xml:space="preserve">2.70286846160889</t>
   </si>
   <si>
     <t xml:space="preserve">2.69512438774109</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67034149169922</t>
+    <t xml:space="preserve">2.67034125328064</t>
   </si>
   <si>
     <t xml:space="preserve">2.71525979042053</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">2.64865684509277</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68273282051086</t>
+    <t xml:space="preserve">2.68273258209229</t>
   </si>
   <si>
     <t xml:space="preserve">2.66104817390442</t>
@@ -1133,25 +1133,25 @@
     <t xml:space="preserve">2.69202637672424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62387442588806</t>
+    <t xml:space="preserve">2.62387418746948</t>
   </si>
   <si>
     <t xml:space="preserve">2.57895469665527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63006973266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58205246925354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45968866348267</t>
+    <t xml:space="preserve">2.63006949424744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58205270767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45968842506409</t>
   </si>
   <si>
     <t xml:space="preserve">2.4070246219635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44419860839844</t>
+    <t xml:space="preserve">2.44419884681702</t>
   </si>
   <si>
     <t xml:space="preserve">2.34042143821716</t>
@@ -1160,40 +1160,40 @@
     <t xml:space="preserve">2.35436177253723</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37914419174194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42406296730042</t>
+    <t xml:space="preserve">2.37914395332336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42406272888184</t>
   </si>
   <si>
     <t xml:space="preserve">2.44729661941528</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44884538650513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49066662788391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5154492855072</t>
+    <t xml:space="preserve">2.44884514808655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49066686630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51544952392578</t>
   </si>
   <si>
     <t xml:space="preserve">2.54797649383545</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58670043945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50925350189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.524742603302</t>
+    <t xml:space="preserve">2.58670020103455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50925397872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52474284172058</t>
   </si>
   <si>
     <t xml:space="preserve">2.52784085273743</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5077052116394</t>
+    <t xml:space="preserve">2.50770497322083</t>
   </si>
   <si>
     <t xml:space="preserve">2.54642772674561</t>
@@ -1205,10 +1205,10 @@
     <t xml:space="preserve">2.5712103843689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57740592956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50305819511414</t>
+    <t xml:space="preserve">2.57740616798401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50305795669556</t>
   </si>
   <si>
     <t xml:space="preserve">2.45658993721008</t>
@@ -1217,13 +1217,13 @@
     <t xml:space="preserve">2.36210632324219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39928030967712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3977313041687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39308476448059</t>
+    <t xml:space="preserve">2.39928007125854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39773106575012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39308452606201</t>
   </si>
   <si>
     <t xml:space="preserve">2.33887267112732</t>
@@ -1232,43 +1232,43 @@
     <t xml:space="preserve">2.37604641914368</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40547585487366</t>
+    <t xml:space="preserve">2.40547561645508</t>
   </si>
   <si>
     <t xml:space="preserve">2.3574595451355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38533973693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44574761390686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47827577590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47517776489258</t>
+    <t xml:space="preserve">2.38533997535706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44574785232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47827553749084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47517728805542</t>
   </si>
   <si>
     <t xml:space="preserve">2.55881881713867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55727028846741</t>
+    <t xml:space="preserve">2.55727005004883</t>
   </si>
   <si>
     <t xml:space="preserve">2.51390075683594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51235151290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53403615951538</t>
+    <t xml:space="preserve">2.51235175132751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53403639793396</t>
   </si>
   <si>
     <t xml:space="preserve">2.56501460075378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57430839538574</t>
+    <t xml:space="preserve">2.57430791854858</t>
   </si>
   <si>
     <t xml:space="preserve">2.57585716247559</t>
@@ -1277,16 +1277,16 @@
     <t xml:space="preserve">2.49376463890076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5169985294342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49996018409729</t>
+    <t xml:space="preserve">2.51699829101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49996042251587</t>
   </si>
   <si>
     <t xml:space="preserve">2.47672629356384</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38843774795532</t>
+    <t xml:space="preserve">2.3884379863739</t>
   </si>
   <si>
     <t xml:space="preserve">2.47982430458069</t>
@@ -1301,34 +1301,34 @@
     <t xml:space="preserve">2.47207999229431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5417811870575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60218906402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53248763084412</t>
+    <t xml:space="preserve">2.54178094863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60218930244446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53248739242554</t>
   </si>
   <si>
     <t xml:space="preserve">2.48137331008911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52164506912231</t>
+    <t xml:space="preserve">2.52164483070374</t>
   </si>
   <si>
     <t xml:space="preserve">2.43955183029175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49531364440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47053074836731</t>
+    <t xml:space="preserve">2.4953134059906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47053122520447</t>
   </si>
   <si>
     <t xml:space="preserve">2.46433544158936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54332971572876</t>
+    <t xml:space="preserve">2.54332995414734</t>
   </si>
   <si>
     <t xml:space="preserve">2.49686241149902</t>
@@ -1337,34 +1337,34 @@
     <t xml:space="preserve">2.49221587181091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56811261177063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56966137886047</t>
+    <t xml:space="preserve">2.56811237335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56966161727905</t>
   </si>
   <si>
     <t xml:space="preserve">2.55572152137756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78651094436646</t>
+    <t xml:space="preserve">2.78651070594788</t>
   </si>
   <si>
     <t xml:space="preserve">2.91352248191833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90268015861511</t>
+    <t xml:space="preserve">2.90267992019653</t>
   </si>
   <si>
     <t xml:space="preserve">2.95069622993469</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97547960281372</t>
+    <t xml:space="preserve">2.97547936439514</t>
   </si>
   <si>
     <t xml:space="preserve">3.05137658119202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04363179206848</t>
+    <t xml:space="preserve">3.04363203048706</t>
   </si>
   <si>
     <t xml:space="preserve">3.03588724136353</t>
@@ -1373,7 +1373,7 @@
     <t xml:space="preserve">3.07306146621704</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10713791847229</t>
+    <t xml:space="preserve">3.10713815689087</t>
   </si>
   <si>
     <t xml:space="preserve">3.03124070167542</t>
@@ -1382,10 +1382,10 @@
     <t xml:space="preserve">2.92591381072998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98477339744568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95224523544312</t>
+    <t xml:space="preserve">2.9847731590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95224499702454</t>
   </si>
   <si>
     <t xml:space="preserve">3.02659392356873</t>
@@ -1397,16 +1397,16 @@
     <t xml:space="preserve">3.03898501396179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94295167922974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93365836143494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82213568687439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85056257247925</t>
+    <t xml:space="preserve">2.94295191764832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93365812301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82213592529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85056209564209</t>
   </si>
   <si>
     <t xml:space="preserve">2.83950757980347</t>
@@ -1415,19 +1415,19 @@
     <t xml:space="preserve">2.905837059021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89636039733887</t>
+    <t xml:space="preserve">2.89636063575745</t>
   </si>
   <si>
     <t xml:space="preserve">2.81897735595703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70842909812927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65947222709656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70211219787598</t>
+    <t xml:space="preserve">2.70842885971069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65947198867798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7021119594574</t>
   </si>
   <si>
     <t xml:space="preserve">2.74791026115417</t>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">2.79686784744263</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76054430007935</t>
+    <t xml:space="preserve">2.76054406166077</t>
   </si>
   <si>
     <t xml:space="preserve">2.69895362854004</t>
@@ -1448,16 +1448,16 @@
     <t xml:space="preserve">2.80476427078247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77475810050964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7305383682251</t>
+    <t xml:space="preserve">2.77475833892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73053860664368</t>
   </si>
   <si>
     <t xml:space="preserve">2.74317240715027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73843479156494</t>
+    <t xml:space="preserve">2.73843502998352</t>
   </si>
   <si>
     <t xml:space="preserve">2.72738027572632</t>
@@ -1466,10 +1466,10 @@
     <t xml:space="preserve">2.75422739982605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69263672828674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68947815895081</t>
+    <t xml:space="preserve">2.69263648986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68947839736938</t>
   </si>
   <si>
     <t xml:space="preserve">2.71790432929993</t>
@@ -1490,49 +1490,49 @@
     <t xml:space="preserve">2.88214731216431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84740376472473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80634307861328</t>
+    <t xml:space="preserve">2.84740400314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80634355545044</t>
   </si>
   <si>
     <t xml:space="preserve">2.820556640625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83792805671692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83161115646362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.855299949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83319067955017</t>
+    <t xml:space="preserve">2.8379282951355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8316113948822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85530018806458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83319044113159</t>
   </si>
   <si>
     <t xml:space="preserve">2.8268735408783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85372066497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90741610527039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92636704444885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91057443618774</t>
+    <t xml:space="preserve">2.85372090339661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90741562843323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92636680603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91057467460632</t>
   </si>
   <si>
     <t xml:space="preserve">2.92794632911682</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98006129264832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89951920509338</t>
+    <t xml:space="preserve">2.98006153106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8995189666748</t>
   </si>
   <si>
     <t xml:space="preserve">2.88372659683228</t>
@@ -1547,10 +1547,10 @@
     <t xml:space="preserve">2.83476996421814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83003187179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75896501541138</t>
+    <t xml:space="preserve">2.83003211021423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7589647769928</t>
   </si>
   <si>
     <t xml:space="preserve">2.80002617835999</t>
@@ -1562,13 +1562,13 @@
     <t xml:space="preserve">2.77317905426025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76528191566467</t>
+    <t xml:space="preserve">2.76528215408325</t>
   </si>
   <si>
     <t xml:space="preserve">2.71632504463196</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66578912734985</t>
+    <t xml:space="preserve">2.66578936576843</t>
   </si>
   <si>
     <t xml:space="preserve">2.64841747283936</t>
@@ -1580,7 +1580,7 @@
     <t xml:space="preserve">2.74633097648621</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86161708831787</t>
+    <t xml:space="preserve">2.86161732673645</t>
   </si>
   <si>
     <t xml:space="preserve">2.86477565765381</t>
@@ -1589,25 +1589,25 @@
     <t xml:space="preserve">2.84424519538879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87583041191101</t>
+    <t xml:space="preserve">2.87583017349243</t>
   </si>
   <si>
     <t xml:space="preserve">2.85214138031006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81108140945435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81739807128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82529449462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80792236328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59472227096558</t>
+    <t xml:space="preserve">2.81108093261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81739783287048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82529425621033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80792260169983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.594722032547</t>
   </si>
   <si>
     <t xml:space="preserve">2.59156394004822</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">2.53471088409424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.559978723526</t>
+    <t xml:space="preserve">2.55997896194458</t>
   </si>
   <si>
     <t xml:space="preserve">2.58524680137634</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">2.38941884040833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38783979415894</t>
+    <t xml:space="preserve">2.38783955574036</t>
   </si>
   <si>
     <t xml:space="preserve">2.32151031494141</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">2.33572363853455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31045579910278</t>
+    <t xml:space="preserve">2.31045532226562</t>
   </si>
   <si>
     <t xml:space="preserve">2.3594126701355</t>
@@ -1649,13 +1649,13 @@
     <t xml:space="preserve">2.34993720054626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29150462150574</t>
+    <t xml:space="preserve">2.29150485992432</t>
   </si>
   <si>
     <t xml:space="preserve">2.26465749740601</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23623037338257</t>
+    <t xml:space="preserve">2.23623013496399</t>
   </si>
   <si>
     <t xml:space="preserve">2.18727350234985</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">2.19832849502563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25518226623535</t>
+    <t xml:space="preserve">2.25518202781677</t>
   </si>
   <si>
     <t xml:space="preserve">2.20464515686035</t>
@@ -1676,22 +1676,22 @@
     <t xml:space="preserve">2.20148682594299</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2425479888916</t>
+    <t xml:space="preserve">2.24254822731018</t>
   </si>
   <si>
     <t xml:space="preserve">2.28834629058838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26781582832336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24886512756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25202322006226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25044417381287</t>
+    <t xml:space="preserve">2.26781606674194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24886536598206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25202345848083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25044441223145</t>
   </si>
   <si>
     <t xml:space="preserve">2.23938870429993</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">2.19674897193909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19359040260315</t>
+    <t xml:space="preserve">2.19359064102173</t>
   </si>
   <si>
     <t xml:space="preserve">2.17148113250732</t>
@@ -1715,34 +1715,34 @@
     <t xml:space="preserve">2.16358470916748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11462807655334</t>
+    <t xml:space="preserve">2.11462783813477</t>
   </si>
   <si>
     <t xml:space="preserve">2.12094497680664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10199332237244</t>
+    <t xml:space="preserve">2.10199308395386</t>
   </si>
   <si>
     <t xml:space="preserve">2.12568259239197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22833395004272</t>
+    <t xml:space="preserve">2.22833371162415</t>
   </si>
   <si>
     <t xml:space="preserve">2.21096229553223</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22675466537476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19201135635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23465085029602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20306587219238</t>
+    <t xml:space="preserve">2.22675490379333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19201111793518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2346510887146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2030656337738</t>
   </si>
   <si>
     <t xml:space="preserve">2.09567618370056</t>
@@ -1757,16 +1757,16 @@
     <t xml:space="preserve">2.07514595985413</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10673093795776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10831046104431</t>
+    <t xml:space="preserve">2.10673117637634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10831022262573</t>
   </si>
   <si>
     <t xml:space="preserve">2.02776837348938</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12252426147461</t>
+    <t xml:space="preserve">2.12252449989319</t>
   </si>
   <si>
     <t xml:space="preserve">2.05145740509033</t>
@@ -1784,22 +1784,22 @@
     <t xml:space="preserve">2.06409120559692</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13515830039978</t>
+    <t xml:space="preserve">2.13515853881836</t>
   </si>
   <si>
     <t xml:space="preserve">2.14621305465698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13673758506775</t>
+    <t xml:space="preserve">2.13673734664917</t>
   </si>
   <si>
     <t xml:space="preserve">2.13357925415039</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0877799987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02303099632263</t>
+    <t xml:space="preserve">2.08777976036072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02303075790405</t>
   </si>
   <si>
     <t xml:space="preserve">2.00565910339355</t>
@@ -1811,28 +1811,28 @@
     <t xml:space="preserve">2.02934765815735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.997762799263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98512864112854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96933531761169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01987218856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98354947566986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95512223243713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90932404994965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83825707435608</t>
+    <t xml:space="preserve">1.99776268005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98512876033783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9693351984024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01987242698669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98354935646057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95512235164642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90932393074036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83825695514679</t>
   </si>
   <si>
     <t xml:space="preserve">1.81614744663239</t>
@@ -1841,10 +1841,10 @@
     <t xml:space="preserve">1.83194005489349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8556295633316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91090309619904</t>
+    <t xml:space="preserve">1.85562932491302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91090321540833</t>
   </si>
   <si>
     <t xml:space="preserve">1.88879370689392</t>
@@ -1853,37 +1853,37 @@
     <t xml:space="preserve">1.88721454143524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91406178474426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93459188938141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96459782123566</t>
+    <t xml:space="preserve">1.91406166553497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9345920085907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96459770202637</t>
   </si>
   <si>
     <t xml:space="preserve">2.01039671897888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00250029563904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97723174095154</t>
+    <t xml:space="preserve">2.00250053405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97723162174225</t>
   </si>
   <si>
     <t xml:space="preserve">1.97091472148895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96301829814911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97407329082489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96775650978088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03250598907471</t>
+    <t xml:space="preserve">1.96301853656769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97407341003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9677562713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03250622749329</t>
   </si>
   <si>
     <t xml:space="preserve">2.02460980415344</t>
@@ -1892,40 +1892,40 @@
     <t xml:space="preserve">2.01671385765076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04671955108643</t>
+    <t xml:space="preserve">2.04671931266785</t>
   </si>
   <si>
     <t xml:space="preserve">2.00407981872559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93143332004547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93301284313202</t>
+    <t xml:space="preserve">1.93143320083618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93301260471344</t>
   </si>
   <si>
     <t xml:space="preserve">1.9187992811203</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88089764118195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94248831272125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9409087896347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96617686748505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92353689670563</t>
+    <t xml:space="preserve">1.88089740276337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94248843193054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94090890884399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96617698669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9235372543335</t>
   </si>
   <si>
     <t xml:space="preserve">1.9014276266098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93775057792664</t>
+    <t xml:space="preserve">1.93775045871735</t>
   </si>
   <si>
     <t xml:space="preserve">1.92669570446014</t>
@@ -1934,7 +1934,7 @@
     <t xml:space="preserve">1.92511641979218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93617129325867</t>
+    <t xml:space="preserve">1.93617153167725</t>
   </si>
   <si>
     <t xml:space="preserve">1.90774464607239</t>
@@ -1943,13 +1943,13 @@
     <t xml:space="preserve">1.8793181180954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83509814739227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82878160476685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86984264850616</t>
+    <t xml:space="preserve">1.83509850502014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82878136634827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86984252929688</t>
   </si>
   <si>
     <t xml:space="preserve">1.89037299156189</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">1.89826917648315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90458607673645</t>
+    <t xml:space="preserve">1.90458619594574</t>
   </si>
   <si>
     <t xml:space="preserve">1.91564106941223</t>
@@ -1970,19 +1970,19 @@
     <t xml:space="preserve">1.78456234931946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7987756729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7261301279068</t>
+    <t xml:space="preserve">1.79877555370331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72613000869751</t>
   </si>
   <si>
     <t xml:space="preserve">1.69138586521149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.645587682724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66927635669708</t>
+    <t xml:space="preserve">1.64558756351471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66927647590637</t>
   </si>
   <si>
     <t xml:space="preserve">1.65190470218658</t>
@@ -5145,6 +5145,9 @@
   </si>
   <si>
     <t xml:space="preserve">7.08500003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94500017166138</t>
   </si>
 </sst>
 </file>
@@ -62192,13 +62195,13 @@
     </row>
     <row r="2182">
       <c r="A2182" s="1" t="n">
-        <v>45499.6495023148</v>
+        <v>45499.2916666667</v>
       </c>
       <c r="B2182" t="n">
         <v>1299674</v>
       </c>
       <c r="C2182" t="n">
-        <v>7.07999992370605</v>
+        <v>7.08500003814697</v>
       </c>
       <c r="D2182" t="n">
         <v>6.96000003814697</v>
@@ -62213,6 +62216,32 @@
         <v>1710</v>
       </c>
       <c r="H2182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" s="1" t="n">
+        <v>45502.6495717593</v>
+      </c>
+      <c r="B2183" t="n">
+        <v>1022537</v>
+      </c>
+      <c r="C2183" t="n">
+        <v>7.11999988555908</v>
+      </c>
+      <c r="D2183" t="n">
+        <v>6.94500017166138</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>7.08500003814697</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>6.94500017166138</v>
+      </c>
+      <c r="G2183" t="s">
+        <v>1711</v>
+      </c>
+      <c r="H2183" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BPSO.MI.xlsx
+++ b/data/BPSO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="1716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="1717">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,58 +38,58 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0306978225708</t>
+    <t xml:space="preserve">3.03069829940796</t>
   </si>
   <si>
     <t xml:space="preserve">BPSO.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00987863540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9444465637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9057822227478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82399129867554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79424977302551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88496279716492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89091157913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79722428321838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6916401386261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63067007064819</t>
+    <t xml:space="preserve">3.00987839698792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94444608688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90578198432922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82399201393127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79425001144409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8849630355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8909113407135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7972240447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69164037704468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63066959381104</t>
   </si>
   <si>
     <t xml:space="preserve">2.42842483520508</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55036664009094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5771336555481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53400850296021</t>
+    <t xml:space="preserve">2.55036640167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57713413238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53400874137878</t>
   </si>
   <si>
     <t xml:space="preserve">2.69907593727112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6187732219696</t>
+    <t xml:space="preserve">2.61877274513245</t>
   </si>
   <si>
     <t xml:space="preserve">2.52359890937805</t>
@@ -101,46 +101,46 @@
     <t xml:space="preserve">2.57564687728882</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48642206192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3793511390686</t>
+    <t xml:space="preserve">2.48642158508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37935066223145</t>
   </si>
   <si>
     <t xml:space="preserve">2.39124774932861</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36745405197144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18602848052979</t>
+    <t xml:space="preserve">2.36745429039001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18602871894836</t>
   </si>
   <si>
     <t xml:space="preserve">2.20982146263123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29607319831848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22469282150269</t>
+    <t xml:space="preserve">2.29607367515564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22469258308411</t>
   </si>
   <si>
     <t xml:space="preserve">2.33771157264709</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38381218910217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44032120704651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34960842132568</t>
+    <t xml:space="preserve">2.38381195068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44032144546509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3496081829071</t>
   </si>
   <si>
     <t xml:space="preserve">2.31986689567566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40611863136292</t>
+    <t xml:space="preserve">2.40611839294434</t>
   </si>
   <si>
     <t xml:space="preserve">2.34217286109924</t>
@@ -152,76 +152,76 @@
     <t xml:space="preserve">2.37340259552002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42098927497864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48344779014587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5578019618988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55185317993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54441833496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40165734291077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42396354675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41057944297791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48493456840515</t>
+    <t xml:space="preserve">2.42098951339722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48344731330872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55780148506165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55185341835022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54441809654236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40165710449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42396330833435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41057968139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48493432998657</t>
   </si>
   <si>
     <t xml:space="preserve">2.60687565803528</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52657318115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46560144424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51318979263306</t>
+    <t xml:space="preserve">2.52657341957092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46560192108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51318955421448</t>
   </si>
   <si>
     <t xml:space="preserve">2.5280601978302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56375002861023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45667958259583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39719605445862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34366035461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29161238670349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30053520202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27227973937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21725749969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1562864780426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16223526000977</t>
+    <t xml:space="preserve">2.56375026702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45667934417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39719581604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34366011619568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29161214828491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30053472518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27228021621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21725702285767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15628671646118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16223454475403</t>
   </si>
   <si>
     <t xml:space="preserve">2.21874403953552</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">2.27674126625061</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38678646087646</t>
+    <t xml:space="preserve">2.38678669929504</t>
   </si>
   <si>
     <t xml:space="preserve">2.46708917617798</t>
@@ -248,49 +248,49 @@
     <t xml:space="preserve">2.49831867218018</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49237060546875</t>
+    <t xml:space="preserve">2.49237036705017</t>
   </si>
   <si>
     <t xml:space="preserve">2.44180870056152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4893958568573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47303748130798</t>
+    <t xml:space="preserve">2.48939609527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4730372428894</t>
   </si>
   <si>
     <t xml:space="preserve">2.42247629165649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39422202110291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31094431877136</t>
+    <t xml:space="preserve">2.39422154426575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31094408035278</t>
   </si>
   <si>
     <t xml:space="preserve">2.26187038421631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23064088821411</t>
+    <t xml:space="preserve">2.23064064979553</t>
   </si>
   <si>
     <t xml:space="preserve">2.24848651885986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23807692527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25592231750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19495058059692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18305397033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21279621124268</t>
+    <t xml:space="preserve">2.23807716369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25592184066772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1949508190155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18305444717407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2127959728241</t>
   </si>
   <si>
     <t xml:space="preserve">2.17710566520691</t>
@@ -299,10 +299,10 @@
     <t xml:space="preserve">2.22023129463196</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20387291908264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19778084754944</t>
+    <t xml:space="preserve">2.20387315750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1977813243866</t>
   </si>
   <si>
     <t xml:space="preserve">2.27850317955017</t>
@@ -311,16 +311,16 @@
     <t xml:space="preserve">2.35617971420288</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30744194984436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33028769493103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30896496772766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24195003509521</t>
+    <t xml:space="preserve">2.30744171142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33028745651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30896472930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24194955825806</t>
   </si>
   <si>
     <t xml:space="preserve">2.21910381317139</t>
@@ -329,55 +329,55 @@
     <t xml:space="preserve">2.14142727851868</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09725880622864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01044392585754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13076615333557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07441258430481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08202838897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97236788272858</t>
+    <t xml:space="preserve">2.09725856781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01044368743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13076591491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07441306114197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08202862739563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97236776351929</t>
   </si>
   <si>
     <t xml:space="preserve">1.90839922428131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87641453742981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84899961948395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75913834571838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81701517105103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89621376991272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94038331508636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90687525272369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02872037887573</t>
+    <t xml:space="preserve">1.87641417980194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84899914264679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75913846492767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81701493263245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89621388912201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94038319587708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9068751335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02872061729431</t>
   </si>
   <si>
     <t xml:space="preserve">1.7515230178833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67689335346222</t>
+    <t xml:space="preserve">1.67689323425293</t>
   </si>
   <si>
     <t xml:space="preserve">1.78807699680328</t>
@@ -389,166 +389,166 @@
     <t xml:space="preserve">1.7560920715332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75304615497589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6890777349472</t>
+    <t xml:space="preserve">1.7530460357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68907785415649</t>
   </si>
   <si>
     <t xml:space="preserve">1.61901652812958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63424706459045</t>
+    <t xml:space="preserve">1.63424718379974</t>
   </si>
   <si>
     <t xml:space="preserve">1.64033925533295</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75456929206848</t>
+    <t xml:space="preserve">1.7545690536499</t>
   </si>
   <si>
     <t xml:space="preserve">1.79112327098846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81549191474915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78960037231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86727595329285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83072233200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84442985057831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90230643749237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89316749572754</t>
+    <t xml:space="preserve">1.81549227237701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78960025310516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86727583408356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83072245121002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84443008899689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90230619907379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89316785335541</t>
   </si>
   <si>
     <t xml:space="preserve">1.85052227973938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81853806972504</t>
+    <t xml:space="preserve">1.81853842735291</t>
   </si>
   <si>
     <t xml:space="preserve">1.84747636318207</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84138405323029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78198492527008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66470873355865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68755495548248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62967777252197</t>
+    <t xml:space="preserve">1.84138417243958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7819846868515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66470885276794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6875547170639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62967789173126</t>
   </si>
   <si>
     <t xml:space="preserve">1.74999988079071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77741491794586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76523065567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80787682533264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8368147611618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82767629623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8215845823288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86879885196686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82919931411743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84290719032288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85509133338928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90992212295532</t>
+    <t xml:space="preserve">1.77741503715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76523053646088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80787706375122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83681499958038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82767641544342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82158434391022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86879920959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8291996717453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84290683269501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85509157180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9099223613739</t>
   </si>
   <si>
     <t xml:space="preserve">1.90535235404968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89773714542389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89012205600739</t>
+    <t xml:space="preserve">1.8977370262146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89012145996094</t>
   </si>
   <si>
     <t xml:space="preserve">1.88098347187042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88859891891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86575269699097</t>
+    <t xml:space="preserve">1.88859879970551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86575281620026</t>
   </si>
   <si>
     <t xml:space="preserve">1.89469110965729</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8733686208725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85813736915588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91144526004791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98455190658569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98150563240051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94190645217896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96627533435822</t>
+    <t xml:space="preserve">1.87336838245392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85813772678375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91144514083862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9845517873764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98150587081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94190621376038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96627521514893</t>
   </si>
   <si>
     <t xml:space="preserve">1.9799827337265</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99216711521149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08659744262695</t>
+    <t xml:space="preserve">1.99216747283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08659768104553</t>
   </si>
   <si>
     <t xml:space="preserve">2.11705851554871</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24804162979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2587034702301</t>
+    <t xml:space="preserve">2.24804186820984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25870323181152</t>
   </si>
   <si>
     <t xml:space="preserve">2.22367310523987</t>
@@ -557,49 +557,49 @@
     <t xml:space="preserve">2.23433446884155</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23738050460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24651861190796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31505727767944</t>
+    <t xml:space="preserve">2.23738074302673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24651885032654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31505703926086</t>
   </si>
   <si>
     <t xml:space="preserve">2.33790278434753</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26479578018188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14295029640198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18407344818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15208840370178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19930386543274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20996570587158</t>
+    <t xml:space="preserve">2.26479601860046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14295053482056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18407368659973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15208864212036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19930410385132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.209965467453</t>
   </si>
   <si>
     <t xml:space="preserve">2.26631879806519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27697992324829</t>
+    <t xml:space="preserve">2.27697968482971</t>
   </si>
   <si>
     <t xml:space="preserve">2.31658005714417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31353402137756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28459525108337</t>
+    <t xml:space="preserve">2.31353425979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28459501266479</t>
   </si>
   <si>
     <t xml:space="preserve">2.22976517677307</t>
@@ -608,7 +608,7 @@
     <t xml:space="preserve">2.18102741241455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22519612312317</t>
+    <t xml:space="preserve">2.22519588470459</t>
   </si>
   <si>
     <t xml:space="preserve">2.24956488609314</t>
@@ -617,49 +617,49 @@
     <t xml:space="preserve">2.23890399932861</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15361166000366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27545690536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25413417816162</t>
+    <t xml:space="preserve">2.15361189842224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27545714378357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25413393974304</t>
   </si>
   <si>
     <t xml:space="preserve">2.22062683105469</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32267236709595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43690228462219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54351687431335</t>
+    <t xml:space="preserve">2.32267260551453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43690204620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54351663589478</t>
   </si>
   <si>
     <t xml:space="preserve">2.42471790313721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39273262023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43385601043701</t>
+    <t xml:space="preserve">2.39273309707642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43385624885559</t>
   </si>
   <si>
     <t xml:space="preserve">2.39120984077454</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33333396911621</t>
+    <t xml:space="preserve">2.33333373069763</t>
   </si>
   <si>
     <t xml:space="preserve">2.32419538497925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39577889442444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38054823875427</t>
+    <t xml:space="preserve">2.39577913284302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38054847717285</t>
   </si>
   <si>
     <t xml:space="preserve">2.37597942352295</t>
@@ -671,31 +671,31 @@
     <t xml:space="preserve">2.38207173347473</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42624068260193</t>
+    <t xml:space="preserve">2.42624092102051</t>
   </si>
   <si>
     <t xml:space="preserve">2.47497868537903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48259401321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51000881195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50848603248596</t>
+    <t xml:space="preserve">2.48259377479553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51000905036926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50848579406738</t>
   </si>
   <si>
     <t xml:space="preserve">2.46888637542725</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46127128601074</t>
+    <t xml:space="preserve">2.46127104759216</t>
   </si>
   <si>
     <t xml:space="preserve">2.45974802970886</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52828574180603</t>
+    <t xml:space="preserve">2.52828550338745</t>
   </si>
   <si>
     <t xml:space="preserve">2.52067017555237</t>
@@ -704,10 +704,10 @@
     <t xml:space="preserve">2.50696277618408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57397794723511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58920836448669</t>
+    <t xml:space="preserve">2.57397818565369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58920860290527</t>
   </si>
   <si>
     <t xml:space="preserve">2.62728500366211</t>
@@ -716,22 +716,22 @@
     <t xml:space="preserve">2.58311629295349</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58768534660339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59682369232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61814641952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52219295501709</t>
+    <t xml:space="preserve">2.58768582344055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59682416915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6181468963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52219343185425</t>
   </si>
   <si>
     <t xml:space="preserve">2.5039165019989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49630117416382</t>
+    <t xml:space="preserve">2.4963014125824</t>
   </si>
   <si>
     <t xml:space="preserve">2.53285479545593</t>
@@ -740,13 +740,13 @@
     <t xml:space="preserve">2.49325513839722</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44451761245728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46431756019592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48868632316589</t>
+    <t xml:space="preserve">2.44451785087585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46431732177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48868608474731</t>
   </si>
   <si>
     <t xml:space="preserve">2.50087070465088</t>
@@ -755,13 +755,13 @@
     <t xml:space="preserve">2.47345542907715</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46279430389404</t>
+    <t xml:space="preserve">2.46279406547546</t>
   </si>
   <si>
     <t xml:space="preserve">2.4171028137207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28002619743347</t>
+    <t xml:space="preserve">2.28002595901489</t>
   </si>
   <si>
     <t xml:space="preserve">2.28611826896667</t>
@@ -779,37 +779,37 @@
     <t xml:space="preserve">2.44147133827209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47802472114563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50543975830078</t>
+    <t xml:space="preserve">2.47802495956421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50543999671936</t>
   </si>
   <si>
     <t xml:space="preserve">2.54808592796326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4947783946991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53590059280396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51610136032104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45822525024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46736311912537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45060992240906</t>
+    <t xml:space="preserve">2.49477815628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53590106964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51610112190247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45822501182556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46736335754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45060968399048</t>
   </si>
   <si>
     <t xml:space="preserve">2.